--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,12 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE35454"/>
         <bgColor rgb="FFE35454"/>
       </patternFill>
@@ -160,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB40000"/>
         <bgColor rgb="FFB40000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,6 +303,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -333,6 +336,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -343,9 +349,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -372,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -517,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 09/06/2025</t>
+          <t xml:space="preserve">Day: 09/07/2025</t>
         </is>
       </c>
     </row>
@@ -613,10 +616,10 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c s="8" r="F7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
@@ -642,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>59</v>
+      <c s="11" r="S7">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>147</v>
+      <c s="11" r="W7">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -669,10 +672,10 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>521</v>
-      </c>
-      <c s="11" r="F8">
-        <v>36</v>
+        <v>492</v>
+      </c>
+      <c s="12" r="F8">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
@@ -698,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="11" r="S8">
-        <v>53</v>
+      <c s="13" r="S8">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="8" r="W8">
-        <v>150</v>
+      <c s="9" r="W8">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="8" r="Y8">
-        <v>150</v>
+      <c s="9" r="Y8">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -725,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>480</v>
-      </c>
-      <c s="11" r="F9">
-        <v>42</v>
+        <v>352</v>
+      </c>
+      <c s="13" r="F9">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="12" r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -754,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="11" r="S9">
-        <v>71</v>
+      <c s="13" r="S9">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="11" r="W9">
-        <v>216</v>
+      <c s="13" r="W9">
+        <v>277</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="11" r="Y9">
-        <v>216</v>
+      <c s="13" r="Y9">
+        <v>277</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -781,10 +784,10 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>363</v>
-      </c>
-      <c s="11" r="F10">
-        <v>37</v>
+        <v>376</v>
+      </c>
+      <c s="13" r="F10">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="8" r="H10">
@@ -810,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="11" r="S10">
-        <v>66</v>
+      <c s="13" r="S10">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>214</v>
+      <c s="13" r="W10">
+        <v>204</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>214</v>
+      <c s="13" r="Y10">
+        <v>204</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -837,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -846,40 +849,40 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="11" r="I11">
-        <v>37</v>
+      <c s="13" r="I11">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="9" r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="11" r="S11">
-        <v>66</v>
+      <c s="13" r="S11">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="8" r="W11">
-        <v>162</v>
+      <c s="11" r="W11">
+        <v>175</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="8" r="Y11">
-        <v>162</v>
+      <c s="11" r="Y11">
+        <v>176</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -893,14 +896,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c s="8" r="F12">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -918,30 +921,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="8" r="Q12">
-        <v>16</v>
+      <c s="11" r="Q12">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="11" r="S12">
-        <v>56</v>
+      <c s="13" r="S12">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>160</v>
+      <c s="11" r="W12">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>160</v>
+      <c s="11" r="Y12">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="4.95" customHeight="1"/>
     <row r="14" ht="32.25" customHeight="0">
-      <c s="13" t="inlineStr" r="A14">
+      <c s="14" t="inlineStr" r="A14">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -962,1124 +965,1124 @@
       </c>
       <c s="4" t="str" r="H14"/>
       <c s="5" t="str" r="I14"/>
-      <c s="14" t="inlineStr" r="J14">
+      <c s="15" t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K14"/>
-      <c s="14" t="inlineStr" r="L14">
+      <c s="15" t="inlineStr" r="L14">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M14"/>
-      <c s="14" t="inlineStr" r="N14">
+      <c s="15" t="inlineStr" r="N14">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O14"/>
-      <c s="14" t="inlineStr" r="P14">
+      <c s="15" t="inlineStr" r="P14">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q14"/>
-      <c s="14" t="inlineStr" r="R14">
+      <c s="15" t="inlineStr" r="R14">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S14"/>
-      <c s="14" t="inlineStr" r="T14">
+      <c s="15" t="inlineStr" r="T14">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U14"/>
-      <c s="14" t="inlineStr" r="V14">
+      <c s="15" t="inlineStr" r="V14">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W14"/>
-      <c s="14" t="inlineStr" r="X14">
+      <c s="15" t="inlineStr" r="X14">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y14"/>
-      <c s="14" t="inlineStr" r="Z14">
+      <c s="15" t="inlineStr" r="Z14">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA14"/>
-      <c s="14" t="inlineStr" r="AB14">
+      <c s="15" t="inlineStr" r="AB14">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC14"/>
-      <c s="14" t="inlineStr" r="AD14">
+      <c s="15" t="inlineStr" r="AD14">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A15">
+      <c s="16" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">343939 Mt.Joy</t>
         </is>
       </c>
-      <c s="16" t="str" r="B15"/>
-      <c s="16" t="str" r="C15"/>
-      <c s="17" t="inlineStr" r="D15">
+      <c s="17" t="str" r="B15"/>
+      <c s="17" t="str" r="C15"/>
+      <c s="18" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="18" r="G15">
-        <v>166</v>
+      <c s="19" r="G15">
+        <v>149</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="19" r="J15">
-        <v>30</v>
+      <c s="20" r="J15">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="20" r="L15">
-        <v>2</v>
+      <c s="21" r="L15">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="21" r="N15">
+      <c s="22" r="N15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="21" r="P15">
+      <c s="22" r="P15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="21" r="R15">
+      <c s="22" r="R15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="21" r="T15">
+      <c s="22" r="T15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="21" r="V15">
+      <c s="22" r="V15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="19" r="X15">
-        <v>52</v>
+      <c s="20" r="X15">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="21" r="Z15">
-        <v>45</v>
+      <c s="22" r="Z15">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="20" r="AB15">
-        <v>127</v>
+      <c s="21" r="AB15">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="20" r="AD15">
-        <v>63</v>
+      <c s="21" r="AD15">
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="22" t="str" r="A16"/>
-      <c s="17" t="inlineStr" r="D16">
+      <c s="23" t="str" r="A16"/>
+      <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="18" r="G16">
-        <v>158</v>
+      <c s="19" r="G16">
+        <v>132</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="19" r="J16">
-        <v>38</v>
+      <c s="20" r="J16">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>3</v>
+      <c s="21" r="L16">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="21" r="N16">
+      <c s="22" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="21" r="P16">
+      <c s="22" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="21" r="R16">
+      <c s="22" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="21" r="T16">
+      <c s="22" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="21" r="V16">
+      <c s="22" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="19" r="X16">
-        <v>57</v>
+      <c s="24" r="X16">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="21" r="Z16">
-        <v>66</v>
+      <c s="22" r="Z16">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="23" r="AB16">
-        <v>162</v>
+      <c s="24" r="AB16">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="20" r="AD16">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="22" t="str" r="A17"/>
-      <c s="17" t="inlineStr" r="D17">
+      <c s="23" t="str" r="A17"/>
+      <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="18" r="G17">
-        <v>51</v>
+      <c s="19" r="G17">
+        <v>40</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="19" r="J17">
-        <v>29</v>
+      <c s="20" r="J17">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
+      <c s="21" r="L17">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="21" r="N17">
+      <c s="22" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="21" r="P17">
+      <c s="22" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="21" r="R17">
+      <c s="22" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="21" r="T17">
+      <c s="22" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="21" r="V17">
+      <c s="22" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="23" r="X17">
-        <v>76</v>
+      <c s="25" r="X17">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="21" r="Z17">
-        <v>63</v>
+      <c s="22" r="Z17">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="23" r="AB17">
+      <c s="24" r="AB17">
         <v>169</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
+      <c s="21" r="AD17">
         <v>84</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="24" t="str" r="A18"/>
-      <c s="25" t="str" r="B18"/>
-      <c s="25" t="str" r="C18"/>
-      <c s="17" t="inlineStr" r="D18">
+      <c s="26" t="str" r="A18"/>
+      <c s="27" t="str" r="B18"/>
+      <c s="27" t="str" r="C18"/>
+      <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="18" r="G18">
-        <v>19</v>
+      <c s="19" r="G18">
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="19" r="J18">
+      <c s="20" r="J18">
         <v>30</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
+      <c s="21" r="L18">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="21" r="N18">
+      <c s="22" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="21" r="P18">
+      <c s="22" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="21" r="R18">
+      <c s="22" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="21" r="T18">
+      <c s="22" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="21" r="V18">
+      <c s="22" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="26" r="X18">
-        <v>92</v>
+      <c s="24" r="X18">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="21" r="Z18">
-        <v>21</v>
+      <c s="22" r="Z18">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="20" r="AB18">
-        <v>144</v>
+      <c s="21" r="AB18">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="20" r="AD18">
-        <v>71</v>
+      <c s="21" r="AD18">
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A19">
+      <c s="16" t="inlineStr" r="A19">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="16" t="str" r="B19"/>
-      <c s="16" t="str" r="C19"/>
-      <c s="17" t="inlineStr" r="D19">
+      <c s="17" t="str" r="B19"/>
+      <c s="17" t="str" r="C19"/>
+      <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="18" r="G19">
-        <v>6</v>
+      <c s="19" r="G19">
+        <v>3</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="19" r="J19">
-        <v>24</v>
+      <c s="20" r="J19">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="20" r="L19">
-        <v>3</v>
+      <c s="21" r="L19">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="21" r="N19">
+      <c s="22" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="21" r="P19">
+      <c s="22" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="21" r="R19">
+      <c s="22" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="21" r="T19">
+      <c s="22" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="21" r="V19">
+      <c s="22" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="23" r="X19">
-        <v>37</v>
+      <c s="28" r="X19">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="21" r="Z19">
-        <v>13</v>
+      <c s="22" r="Z19">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="20" r="AB19">
-        <v>75</v>
+      <c s="21" r="AB19">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>75</v>
+      <c s="21" r="AD19">
+        <v>147</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="22" t="str" r="A20"/>
-      <c s="17" t="inlineStr" r="D20">
+      <c s="23" t="str" r="A20"/>
+      <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="18" r="G20">
-        <v>216</v>
+      <c s="19" r="G20">
+        <v>194</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="26" r="J20">
-        <v>32</v>
+      <c s="25" r="J20">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="20" r="L20">
-        <v>1</v>
+      <c s="21" r="L20">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="21" r="N20">
+      <c s="22" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="21" r="P20">
+      <c s="22" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="21" r="R20">
+      <c s="22" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="21" r="T20">
+      <c s="22" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="21" r="V20">
+      <c s="22" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="26" r="X20">
-        <v>44</v>
+      <c s="28" r="X20">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="21" r="Z20">
-        <v>56</v>
+      <c s="22" r="Z20">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="20" r="AB20">
-        <v>133</v>
+      <c s="21" r="AB20">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="20" r="AD20">
-        <v>133</v>
+      <c s="21" r="AD20">
+        <v>139</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="22" t="str" r="A21"/>
-      <c s="17" t="inlineStr" r="D21">
+      <c s="23" t="str" r="A21"/>
+      <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="18" r="G21">
-        <v>202</v>
+      <c s="19" r="G21">
+        <v>210</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="27" r="J21">
-        <v>38</v>
+      <c s="28" r="J21">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="20" r="L21">
+      <c s="21" r="L21">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="21" r="N21">
+      <c s="22" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="21" r="P21">
+      <c s="22" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="21" r="R21">
+      <c s="22" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="21" r="T21">
+      <c s="22" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="21" r="V21">
+      <c s="22" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="27" r="X21">
-        <v>49</v>
+      <c s="28" r="X21">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="21" r="Z21">
-        <v>72</v>
+      <c s="22" r="Z21">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="19" r="AB21">
-        <v>160</v>
+      <c s="21" r="AB21">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="19" r="AD21">
-        <v>160</v>
+      <c s="21" r="AD21">
+        <v>145</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="22" t="str" r="A22"/>
-      <c s="17" t="inlineStr" r="D22">
+      <c s="23" t="str" r="A22"/>
+      <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="18" r="G22">
-        <v>80</v>
+      <c s="19" r="G22">
+        <v>72</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="27" r="J22">
-        <v>39</v>
+      <c s="28" r="J22">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="26" r="L22">
-        <v>10</v>
+      <c s="20" r="L22">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="21" r="N22">
+      <c s="22" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="21" r="P22">
+      <c s="22" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="21" r="R22">
+      <c s="22" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="21" r="T22">
+      <c s="22" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="21" r="V22">
+      <c s="22" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="27" r="X22">
-        <v>78</v>
+      <c s="28" r="X22">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="21" r="Z22">
-        <v>52</v>
+      <c s="22" r="Z22">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="23" r="AB22">
-        <v>169</v>
+      <c s="20" r="AB22">
+        <v>151</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="23" r="AD22">
-        <v>169</v>
+      <c s="20" r="AD22">
+        <v>151</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="24" t="str" r="A23"/>
-      <c s="25" t="str" r="B23"/>
-      <c s="25" t="str" r="C23"/>
-      <c s="17" t="inlineStr" r="D23">
+      <c s="26" t="str" r="A23"/>
+      <c s="27" t="str" r="B23"/>
+      <c s="27" t="str" r="C23"/>
+      <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="18" r="G23">
-        <v>17</v>
+      <c s="19" r="G23">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="27" r="J23">
-        <v>41</v>
+      <c s="28" r="J23">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="23" r="L23">
-        <v>7</v>
+      <c s="21" r="L23">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="21" r="N23">
+      <c s="22" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="21" r="P23">
+      <c s="22" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="21" r="R23">
+      <c s="22" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="21" r="T23">
+      <c s="22" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="21" r="V23">
+      <c s="22" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="27" r="X23">
-        <v>91</v>
+      <c s="28" r="X23">
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="21" r="Z23">
-        <v>46</v>
+      <c s="22" r="Z23">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="23" r="AB23">
-        <v>177</v>
+      <c s="20" r="AB23">
+        <v>157</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="23" r="AD23">
-        <v>177</v>
+      <c s="20" r="AD23">
+        <v>157</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A24">
+      <c s="16" t="inlineStr" r="A24">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="16" t="str" r="B24"/>
-      <c s="16" t="str" r="C24"/>
-      <c s="17" t="inlineStr" r="D24">
+      <c s="17" t="str" r="B24"/>
+      <c s="17" t="str" r="C24"/>
+      <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="18" r="G24">
-        <v>214</v>
+      <c s="19" r="G24">
+        <v>154</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="27" r="J24">
-        <v>38</v>
+      <c s="28" r="J24">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="23" r="L24">
-        <v>8</v>
+      <c s="24" r="L24">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="21" r="N24">
+      <c s="22" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="21" r="P24">
+      <c s="22" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="21" r="R24">
+      <c s="22" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="21" r="T24">
+      <c s="22" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="21" r="V24">
+      <c s="22" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="27" r="X24">
-        <v>53</v>
+      <c s="28" r="X24">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="21" r="Z24">
-        <v>86</v>
+      <c s="22" r="Z24">
+        <v>107</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="23" r="AB24">
-        <v>177</v>
+      <c s="28" r="AB24">
+        <v>221</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="23" r="AD24">
-        <v>177</v>
+      <c s="28" r="AD24">
+        <v>221</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="22" t="str" r="A25"/>
-      <c s="17" t="inlineStr" r="D25">
+      <c s="23" t="str" r="A25"/>
+      <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="18" r="G25">
-        <v>168</v>
+      <c s="19" r="G25">
+        <v>124</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="27" r="J25">
-        <v>48</v>
+      <c s="28" r="J25">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="26" r="L25">
+      <c s="25" r="L25">
         <v>11</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="21" r="N25">
+      <c s="22" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="21" r="P25">
+      <c s="22" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="21" r="R25">
+      <c s="22" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="21" r="T25">
+      <c s="22" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="21" r="V25">
+      <c s="22" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="27" r="X25">
-        <v>72</v>
+      <c s="28" r="X25">
+        <v>101</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="21" r="Z25">
-        <v>114</v>
+      <c s="22" r="Z25">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="27" r="AB25">
-        <v>233</v>
+      <c s="28" r="AB25">
+        <v>334</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="27" r="AD25">
-        <v>233</v>
+      <c s="28" r="AD25">
+        <v>334</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="22" t="str" r="A26"/>
-      <c s="17" t="inlineStr" r="D26">
+      <c s="23" t="str" r="A26"/>
+      <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="18" r="G26">
-        <v>74</v>
+      <c s="19" r="G26">
+        <v>52</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="27" r="J26">
-        <v>42</v>
+      <c s="28" r="J26">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="23" r="L26">
-        <v>7</v>
+      <c s="28" r="L26">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="21" r="N26">
+      <c s="22" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="21" r="P26">
+      <c s="22" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="21" r="R26">
+      <c s="22" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="21" r="T26">
+      <c s="22" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="21" r="V26">
+      <c s="22" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="27" r="X26">
-        <v>107</v>
+      <c s="28" r="X26">
+        <v>141</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="21" r="Z26">
-        <v>142</v>
+      <c s="22" r="Z26">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="27" r="AB26">
-        <v>289</v>
+      <c s="28" r="AB26">
+        <v>279</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="27" r="AD26">
-        <v>289</v>
+      <c s="28" r="AD26">
+        <v>279</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="24" t="str" r="A27"/>
-      <c s="25" t="str" r="B27"/>
-      <c s="25" t="str" r="C27"/>
-      <c s="17" t="inlineStr" r="D27">
+      <c s="26" t="str" r="A27"/>
+      <c s="27" t="str" r="B27"/>
+      <c s="27" t="str" r="C27"/>
+      <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="18" r="G27">
-        <v>24</v>
+      <c s="19" r="G27">
+        <v>22</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="27" r="J27">
-        <v>42</v>
+      <c s="28" r="J27">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="20" r="L27">
+      <c s="21" r="L27">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="21" r="N27">
+      <c s="22" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="21" r="P27">
+      <c s="22" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="21" r="R27">
+      <c s="22" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="21" r="T27">
+      <c s="22" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="21" r="V27">
+      <c s="22" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="27" r="X27">
-        <v>109</v>
+      <c s="28" r="X27">
+        <v>162</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="21" r="Z27">
-        <v>68</v>
+      <c s="22" r="Z27">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="27" r="AB27">
-        <v>219</v>
+      <c s="28" r="AB27">
+        <v>345</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="27" r="AD27">
-        <v>219</v>
+      <c s="28" r="AD27">
+        <v>345</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A28">
+      <c s="16" t="inlineStr" r="A28">
         <is>
           <t xml:space="preserve">359042 LITITZ</t>
         </is>
       </c>
-      <c s="16" t="str" r="B28"/>
-      <c s="16" t="str" r="C28"/>
-      <c s="17" t="inlineStr" r="D28">
+      <c s="17" t="str" r="B28"/>
+      <c s="17" t="str" r="C28"/>
+      <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="18" r="G28">
-        <v>175</v>
+      <c s="19" r="G28">
+        <v>158</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="26" r="J28">
-        <v>34</v>
+      <c s="24" r="J28">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="20" r="L28">
+      <c s="21" r="L28">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="21" r="N28">
+      <c s="22" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="21" r="P28">
+      <c s="22" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="21" r="R28">
+      <c s="22" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="21" r="T28">
+      <c s="22" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="21" r="V28">
+      <c s="22" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="27" r="X28">
-        <v>59</v>
+      <c s="28" r="X28">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="21" r="Z28">
-        <v>117</v>
+      <c s="22" r="Z28">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="27" r="AB28">
-        <v>210</v>
+      <c s="24" r="AB28">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="27" r="AD28">
-        <v>210</v>
+      <c s="24" r="AD28">
+        <v>170</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="22" t="str" r="A29"/>
-      <c s="17" t="inlineStr" r="D29">
+      <c s="23" t="str" r="A29"/>
+      <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="18" r="G29">
-        <v>135</v>
+      <c s="19" r="G29">
+        <v>151</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="27" r="J29">
-        <v>42</v>
+      <c s="28" r="J29">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="23" r="L29">
-        <v>9</v>
+      <c s="24" r="L29">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="21" r="N29">
+      <c s="22" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="21" r="P29">
+      <c s="22" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="21" r="R29">
+      <c s="22" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="21" r="T29">
+      <c s="22" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="21" r="V29">
+      <c s="22" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="27" r="X29">
-        <v>68</v>
+      <c s="28" r="X29">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="21" r="Z29">
-        <v>131</v>
+      <c s="22" r="Z29">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="27" r="AB29">
-        <v>242</v>
+      <c s="28" r="AB29">
+        <v>244</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="27" r="AD29">
-        <v>242</v>
+      <c s="28" r="AD29">
+        <v>244</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="22" t="str" r="A30"/>
-      <c s="17" t="inlineStr" r="D30">
+      <c s="23" t="str" r="A30"/>
+      <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="18" r="G30">
-        <v>45</v>
+      <c s="19" r="G30">
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="27" r="J30">
-        <v>37</v>
+      <c s="28" r="J30">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="19" r="L30">
-        <v>6</v>
+      <c s="28" r="L30">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="21" r="N30">
+      <c s="22" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="21" r="P30">
+      <c s="22" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="21" r="R30">
+      <c s="22" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="21" r="T30">
+      <c s="22" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="21" r="V30">
+      <c s="22" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="27" r="X30">
-        <v>85</v>
+      <c s="28" r="X30">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="21" r="Z30">
-        <v>36</v>
+      <c s="22" r="Z30">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="19" r="AB30">
-        <v>159</v>
+      <c s="28" r="AB30">
+        <v>200</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="19" r="AD30">
-        <v>159</v>
+      <c s="28" r="AD30">
+        <v>200</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="24" t="str" r="A31"/>
-      <c s="25" t="str" r="B31"/>
-      <c s="25" t="str" r="C31"/>
-      <c s="17" t="inlineStr" r="D31">
+      <c s="26" t="str" r="A31"/>
+      <c s="27" t="str" r="B31"/>
+      <c s="27" t="str" r="C31"/>
+      <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="18" r="G31">
-        <v>8</v>
+      <c s="19" r="G31">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="23" r="J31">
-        <v>29</v>
+      <c s="28" r="J31">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="20" r="L31">
-        <v>2</v>
+      <c s="21" r="L31">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="21" r="N31">
+      <c s="22" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="21" r="P31">
+      <c s="22" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="21" r="R31">
+      <c s="22" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="21" r="T31">
+      <c s="22" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="21" r="V31">
+      <c s="22" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="27" r="X31">
-        <v>95</v>
+      <c s="28" r="X31">
+        <v>126</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="21" r="Z31">
-        <v>13</v>
+      <c s="22" r="Z31">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="20" r="AB31">
-        <v>139</v>
+      <c s="25" r="AB31">
+        <v>183</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="20" r="AD31">
-        <v>139</v>
+      <c s="25" r="AD31">
+        <v>183</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A32">
+      <c s="16" t="inlineStr" r="A32">
         <is>
           <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
-      <c s="16" t="str" r="B32"/>
-      <c s="16" t="str" r="C32"/>
-      <c s="17" t="inlineStr" r="D32">
+      <c s="17" t="str" r="B32"/>
+      <c s="17" t="str" r="C32"/>
+      <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="18" r="G32">
-        <v>170</v>
+      <c s="19" r="G32">
+        <v>140</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="21" r="J32">
+      <c s="22" r="J32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="21" r="L32">
+      <c s="22" r="L32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="23" r="N32">
-        <v>27</v>
+      <c s="25" r="N32">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="20" r="P32">
-        <v>2</v>
+      <c s="21" r="P32">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q32"/>
       <c s="21" r="R32">
@@ -2090,440 +2093,440 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="21" r="V32">
+      <c s="22" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="27" r="X32">
-        <v>53</v>
+      <c s="28" r="X32">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="21" r="Z32">
-        <v>51</v>
+      <c s="22" r="Z32">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA32"/>
       <c s="20" r="AB32">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c s="5" t="str" r="AC32"/>
       <c s="20" r="AD32">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="22" t="str" r="A33"/>
-      <c s="17" t="inlineStr" r="D33">
+      <c s="23" t="str" r="A33"/>
+      <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="18" r="G33">
-        <v>115</v>
+      <c s="19" r="G33">
+        <v>151</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="21" r="J33">
+      <c s="22" r="J33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="21" r="L33">
+      <c s="22" r="L33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="27" r="N33">
+      <c s="28" r="N33">
         <v>40</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="20" r="P33">
-        <v>4</v>
+      <c s="21" r="P33">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q33"/>
       <c s="21" r="R33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="S33"/>
       <c s="21" r="T33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="21" r="V33">
+      <c s="22" r="V33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="27" r="X33">
-        <v>71</v>
+      <c s="28" r="X33">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="21" r="Z33">
-        <v>87</v>
+      <c s="22" r="Z33">
+        <v>93</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="27" r="AB33">
-        <v>197</v>
+      <c s="28" r="AB33">
+        <v>200</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="27" r="AD33">
-        <v>197</v>
+      <c s="28" r="AD33">
+        <v>200</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="22" t="str" r="A34"/>
-      <c s="17" t="inlineStr" r="D34">
+      <c s="23" t="str" r="A34"/>
+      <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="18" r="G34">
-        <v>62</v>
+      <c s="19" r="G34">
+        <v>41</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="21" r="J34">
+      <c s="22" r="J34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="21" r="L34">
+      <c s="22" r="L34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="27" r="N34">
-        <v>51</v>
+      <c s="28" r="N34">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="19" r="P34">
-        <v>5</v>
+      <c s="20" r="P34">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="20" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="20" r="T34">
+      <c s="22" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
+      <c s="22" r="V34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="27" r="X34">
-        <v>92</v>
+      <c s="28" r="X34">
+        <v>99</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="21" r="Z34">
-        <v>33</v>
+      <c s="22" r="Z34">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="23" r="AB34">
-        <v>176</v>
+      <c s="20" r="AB34">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="23" r="AD34">
-        <v>176</v>
+      <c s="20" r="AD34">
+        <v>159</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="24" t="str" r="A35"/>
-      <c s="25" t="str" r="B35"/>
-      <c s="25" t="str" r="C35"/>
-      <c s="17" t="inlineStr" r="D35">
+      <c s="26" t="str" r="A35"/>
+      <c s="27" t="str" r="B35"/>
+      <c s="27" t="str" r="C35"/>
+      <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="18" r="G35">
-        <v>8</v>
+      <c s="19" r="G35">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="21" r="J35">
+      <c s="22" r="J35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="21" r="L35">
+      <c s="22" r="L35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="27" r="N35">
-        <v>68</v>
+      <c s="28" r="N35">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="20" r="P35">
+      <c s="21" r="P35">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="20" r="R35">
+      <c s="21" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="20" r="T35">
+      <c s="21" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
+      <c s="22" r="V35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="27" r="X35">
-        <v>90</v>
+      <c s="28" r="X35">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="21" r="Z35">
-        <v>22</v>
+      <c s="22" r="Z35">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="23" r="AB35">
-        <v>172</v>
+      <c s="21" r="AB35">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="23" r="AD35">
-        <v>172</v>
+      <c s="21" r="AD35">
+        <v>125</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A36">
+      <c s="16" t="inlineStr" r="A36">
         <is>
           <t xml:space="preserve">364322 elizabethtown</t>
         </is>
       </c>
-      <c s="16" t="str" r="B36"/>
-      <c s="16" t="str" r="C36"/>
-      <c s="17" t="inlineStr" r="D36">
+      <c s="17" t="str" r="B36"/>
+      <c s="17" t="str" r="C36"/>
+      <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="18" r="G36">
-        <v>217</v>
+      <c s="19" r="G36">
+        <v>177</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="19" r="J36">
-        <v>35</v>
+      <c s="20" r="J36">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
+      <c s="21" r="L36">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="21" r="N36">
+      <c s="22" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="21" r="P36">
+      <c s="22" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="21" r="R36">
+      <c s="22" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="21" r="T36">
+      <c s="22" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="23" r="V36">
+      <c s="24" r="V36">
         <v>20</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="27" r="X36">
-        <v>50</v>
+      <c s="28" r="X36">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="21" r="Z36">
-        <v>65</v>
+      <c s="22" r="Z36">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="19" r="AB36">
-        <v>168</v>
+      <c s="20" r="AB36">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="19" r="AD36">
-        <v>168</v>
+      <c s="20" r="AD36">
+        <v>156</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="22" t="str" r="A37"/>
-      <c s="17" t="inlineStr" r="D37">
+      <c s="23" t="str" r="A37"/>
+      <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="18" r="G37">
-        <v>181</v>
+      <c s="19" r="G37">
+        <v>171</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="19" r="J37">
-        <v>31</v>
+      <c s="24" r="J37">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="20" r="L37">
-        <v>2</v>
+      <c s="21" r="L37">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="21" r="N37">
+      <c s="22" r="N37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="21" r="P37">
+      <c s="22" r="P37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
+      <c s="22" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="21" r="T37">
+      <c s="22" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="19" r="V37">
-        <v>16</v>
+      <c s="25" r="V37">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="27" r="X37">
-        <v>52</v>
+      <c s="28" r="X37">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="21" r="Z37">
-        <v>53</v>
+      <c s="22" r="Z37">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="19" r="AB37">
-        <v>153</v>
+      <c s="25" r="AB37">
+        <v>245</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="19" r="AD37">
-        <v>153</v>
+      <c s="25" r="AD37">
+        <v>245</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="22" t="str" r="A38"/>
-      <c s="17" t="inlineStr" r="D38">
+      <c s="23" t="str" r="A38"/>
+      <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="18" r="G38">
-        <v>58</v>
+      <c s="19" r="G38">
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="19" r="J38">
-        <v>35</v>
+      <c s="20" r="J38">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="20" r="L38">
-        <v>4</v>
+      <c s="21" r="L38">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="21" r="N38">
+      <c s="22" r="N38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="21" r="P38">
+      <c s="22" r="P38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
+      <c s="22" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
+      <c s="22" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="20" r="V38">
+      <c s="21" r="V38">
         <v>5</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="27" r="X38">
-        <v>77</v>
+      <c s="28" r="X38">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="21" r="Z38">
-        <v>22</v>
+      <c s="22" r="Z38">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="20" r="AB38">
-        <v>137</v>
+      <c s="21" r="AB38">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="20" r="AD38">
-        <v>137</v>
+      <c s="21" r="AD38">
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="24" t="str" r="A39"/>
-      <c s="25" t="str" r="B39"/>
-      <c s="25" t="str" r="C39"/>
-      <c s="17" t="inlineStr" r="D39">
+      <c s="26" t="str" r="A39"/>
+      <c s="27" t="str" r="B39"/>
+      <c s="27" t="str" r="C39"/>
+      <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="18" r="G39">
-        <v>22</v>
+      <c s="19" r="G39">
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="27" r="J39">
-        <v>65</v>
+      <c s="20" r="J39">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="19" r="L39">
-        <v>5</v>
+      <c s="21" r="L39">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="21" r="N39">
+      <c s="22" r="N39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="21" r="P39">
+      <c s="22" r="P39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
+      <c s="22" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
+      <c s="22" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="20" r="V39">
-        <v>3</v>
+      <c s="21" r="V39">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="27" r="X39">
-        <v>101</v>
+      <c s="28" r="X39">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="21" r="Z39">
-        <v>38</v>
+      <c s="22" r="Z39">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="23" r="AB39">
-        <v>209</v>
+      <c s="20" r="AB39">
+        <v>162</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="23" r="AD39">
-        <v>209</v>
+      <c s="20" r="AD39">
+        <v>162</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2932,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/7/2025 12:28:09 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/8/2025 12:32:48 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,12 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB40000"/>
         <bgColor rgb="FFB40000"/>
       </patternFill>
@@ -160,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,9 +303,6 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -336,10 +333,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +342,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,9 +372,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +517,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 09/07/2025</t>
+          <t xml:space="preserve">Day: 09/09/2025</t>
         </is>
       </c>
     </row>
@@ -616,10 +613,10 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c s="8" r="F7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
@@ -645,20 +642,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>66</v>
+      <c s="8" r="S7">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="11" r="W7">
-        <v>166</v>
+      <c s="9" r="W7">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,10 +669,10 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>492</v>
-      </c>
-      <c s="12" r="F8">
-        <v>34</v>
+        <v>543</v>
+      </c>
+      <c s="11" r="F8">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
@@ -701,20 +698,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="13" r="S8">
-        <v>54</v>
+      <c s="12" r="S8">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,13 +725,13 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>352</v>
-      </c>
-      <c s="13" r="F9">
-        <v>53</v>
+        <v>461</v>
+      </c>
+      <c s="12" r="F9">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="12" r="H9">
+      <c s="11" r="H9">
         <v>10</v>
       </c>
       <c s="10" r="I9">
@@ -757,20 +754,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="13" r="S9">
-        <v>100</v>
+      <c s="12" r="S9">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="13" r="W9">
-        <v>277</v>
+      <c s="11" r="W9">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="13" r="Y9">
-        <v>277</v>
+      <c s="11" r="Y9">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +781,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>376</v>
-      </c>
-      <c s="13" r="F10">
-        <v>42</v>
+        <v>374</v>
+      </c>
+      <c s="11" r="F10">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="8" r="H10">
-        <v>6</v>
+      <c s="9" r="H10">
+        <v>3</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +810,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="13" r="S10">
-        <v>71</v>
+      <c s="12" r="S10">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="13" r="W10">
-        <v>204</v>
+      <c s="8" r="W10">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="13" r="Y10">
-        <v>204</v>
+      <c s="8" r="Y10">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +837,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -849,40 +846,40 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="13" r="I11">
-        <v>36</v>
+      <c s="11" r="I11">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="9" r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="13" r="S11">
-        <v>70</v>
+      <c s="12" r="S11">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="11" r="W11">
-        <v>175</v>
+      <c s="8" r="W11">
+        <v>152</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="11" r="Y11">
-        <v>176</v>
+      <c s="8" r="Y11">
+        <v>152</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +893,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>438</v>
-      </c>
-      <c s="8" r="F12">
-        <v>39</v>
+        <v>433</v>
+      </c>
+      <c s="9" r="F12">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,30 +918,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="11" r="Q12">
-        <v>21</v>
+      <c s="9" r="Q12">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="13" r="S12">
-        <v>61</v>
+      <c s="12" r="S12">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>186</v>
+      <c s="9" r="W12">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>186</v>
+      <c s="9" r="Y12">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="4.95" customHeight="1"/>
     <row r="14" ht="32.25" customHeight="0">
-      <c s="14" t="inlineStr" r="A14">
+      <c s="13" t="inlineStr" r="A14">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -965,1124 +962,1124 @@
       </c>
       <c s="4" t="str" r="H14"/>
       <c s="5" t="str" r="I14"/>
-      <c s="15" t="inlineStr" r="J14">
+      <c s="14" t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K14"/>
-      <c s="15" t="inlineStr" r="L14">
+      <c s="14" t="inlineStr" r="L14">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M14"/>
-      <c s="15" t="inlineStr" r="N14">
+      <c s="14" t="inlineStr" r="N14">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O14"/>
-      <c s="15" t="inlineStr" r="P14">
+      <c s="14" t="inlineStr" r="P14">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q14"/>
-      <c s="15" t="inlineStr" r="R14">
+      <c s="14" t="inlineStr" r="R14">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S14"/>
-      <c s="15" t="inlineStr" r="T14">
+      <c s="14" t="inlineStr" r="T14">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U14"/>
-      <c s="15" t="inlineStr" r="V14">
+      <c s="14" t="inlineStr" r="V14">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W14"/>
-      <c s="15" t="inlineStr" r="X14">
+      <c s="14" t="inlineStr" r="X14">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y14"/>
-      <c s="15" t="inlineStr" r="Z14">
+      <c s="14" t="inlineStr" r="Z14">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA14"/>
-      <c s="15" t="inlineStr" r="AB14">
+      <c s="14" t="inlineStr" r="AB14">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC14"/>
-      <c s="15" t="inlineStr" r="AD14">
+      <c s="14" t="inlineStr" r="AD14">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A15">
+      <c s="15" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">343939 Mt.Joy</t>
         </is>
       </c>
-      <c s="17" t="str" r="B15"/>
-      <c s="17" t="str" r="C15"/>
-      <c s="18" t="inlineStr" r="D15">
+      <c s="16" t="str" r="B15"/>
+      <c s="16" t="str" r="C15"/>
+      <c s="17" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="19" r="G15">
-        <v>149</v>
+      <c s="18" r="G15">
+        <v>210</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="20" r="J15">
+      <c s="19" r="J15">
+        <v>23</v>
+      </c>
+      <c s="5" t="str" r="K15"/>
+      <c s="20" r="L15">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M15"/>
+      <c s="21" r="N15">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O15"/>
+      <c s="21" r="P15">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q15"/>
+      <c s="21" r="R15">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S15"/>
+      <c s="21" r="T15">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U15"/>
+      <c s="21" r="V15">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W15"/>
+      <c s="19" r="X15">
+        <v>41</v>
+      </c>
+      <c s="5" t="str" r="Y15"/>
+      <c s="21" r="Z15">
         <v>32</v>
       </c>
-      <c s="5" t="str" r="K15"/>
-      <c s="21" r="L15">
-        <v>3</v>
-      </c>
-      <c s="5" t="str" r="M15"/>
-      <c s="22" r="N15">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O15"/>
-      <c s="22" r="P15">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q15"/>
-      <c s="22" r="R15">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S15"/>
-      <c s="22" r="T15">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U15"/>
-      <c s="22" r="V15">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="W15"/>
-      <c s="20" r="X15">
-        <v>51</v>
-      </c>
-      <c s="5" t="str" r="Y15"/>
-      <c s="22" r="Z15">
-        <v>60</v>
-      </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="21" r="AB15">
-        <v>144</v>
+      <c s="20" r="AB15">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="21" r="AD15">
-        <v>72</v>
+      <c s="20" r="AD15">
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="23" t="str" r="A16"/>
-      <c s="18" t="inlineStr" r="D16">
+      <c s="22" t="str" r="A16"/>
+      <c s="17" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="19" r="G16">
-        <v>132</v>
+      <c s="18" r="G16">
+        <v>78</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="20" r="J16">
-        <v>44</v>
+      <c s="19" r="J16">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
+      <c s="20" r="L16">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="22" r="N16">
+      <c s="21" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="22" r="P16">
+      <c s="21" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="22" r="R16">
+      <c s="21" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="22" r="T16">
+      <c s="21" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="22" r="V16">
+      <c s="21" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="24" r="X16">
-        <v>69</v>
+      <c s="19" r="X16">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="22" r="Z16">
-        <v>82</v>
+      <c s="21" r="Z16">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="24" r="AB16">
-        <v>195</v>
+      <c s="20" r="AB16">
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="20" r="AD16">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
-      <c s="18" t="inlineStr" r="D17">
+      <c s="22" t="str" r="A17"/>
+      <c s="17" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="19" r="G17">
-        <v>40</v>
+      <c s="18" r="G17">
+        <v>62</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="20" r="J17">
+      <c s="19" r="J17">
         <v>28</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>4</v>
+      <c s="20" r="L17">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="22" r="N17">
+      <c s="21" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="22" r="P17">
+      <c s="21" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="22" r="R17">
+      <c s="21" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="22" r="T17">
+      <c s="21" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="22" r="V17">
+      <c s="21" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="25" r="X17">
-        <v>114</v>
+      <c s="23" r="X17">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="22" r="Z17">
-        <v>26</v>
+      <c s="21" r="Z17">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="24" r="AB17">
-        <v>169</v>
+      <c s="20" r="AB17">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>84</v>
+      <c s="20" r="AD17">
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="26" t="str" r="A18"/>
-      <c s="27" t="str" r="B18"/>
-      <c s="27" t="str" r="C18"/>
-      <c s="18" t="inlineStr" r="D18">
+      <c s="24" t="str" r="A18"/>
+      <c s="25" t="str" r="B18"/>
+      <c s="25" t="str" r="C18"/>
+      <c s="17" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="19" r="G18">
-        <v>12</v>
+      <c s="18" r="G18">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
-        <v>2</v>
+      <c s="20" r="L18">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="22" r="N18">
+      <c s="21" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="22" r="P18">
+      <c s="21" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="22" r="R18">
+      <c s="21" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="22" r="T18">
+      <c s="21" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="22" r="V18">
+      <c s="21" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="24" r="X18">
-        <v>65</v>
+      <c s="23" r="X18">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="22" r="Z18">
-        <v>7</v>
+      <c s="21" r="Z18">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="21" r="AB18">
-        <v>103</v>
+      <c s="20" r="AB18">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="21" r="AD18">
-        <v>51</v>
+      <c s="20" r="AD18">
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A19">
+      <c s="15" t="inlineStr" r="A19">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="17" t="str" r="B19"/>
-      <c s="17" t="str" r="C19"/>
-      <c s="18" t="inlineStr" r="D19">
+      <c s="16" t="str" r="B19"/>
+      <c s="16" t="str" r="C19"/>
+      <c s="17" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="19" r="G19">
-        <v>3</v>
+      <c s="18" r="G19">
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
-        <v>23</v>
+      <c s="26" r="J19">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>4</v>
+      <c s="20" r="L19">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="22" r="N19">
+      <c s="21" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="22" r="P19">
+      <c s="21" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="22" r="R19">
+      <c s="21" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="22" r="T19">
+      <c s="21" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="22" r="V19">
+      <c s="21" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="28" r="X19">
-        <v>114</v>
+      <c s="27" r="X19">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="22" r="Z19">
-        <v>9</v>
+      <c s="21" r="Z19">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>147</v>
+      <c s="20" r="AB19">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>147</v>
+      <c s="20" r="AD19">
+        <v>135</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="23" t="str" r="A20"/>
-      <c s="18" t="inlineStr" r="D20">
+      <c s="22" t="str" r="A20"/>
+      <c s="17" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="19" r="G20">
-        <v>194</v>
+      <c s="18" r="G20">
+        <v>297</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="25" r="J20">
-        <v>31</v>
+      <c s="23" r="J20">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="21" r="L20">
-        <v>2</v>
+      <c s="20" r="L20">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="22" r="N20">
+      <c s="21" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="22" r="P20">
+      <c s="21" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="22" r="R20">
+      <c s="21" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="22" r="T20">
+      <c s="21" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="22" r="V20">
+      <c s="21" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>50</v>
+      <c s="23" r="X20">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="22" r="Z20">
-        <v>58</v>
+      <c s="21" r="Z20">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>139</v>
+      <c s="20" r="AB20">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>139</v>
+      <c s="20" r="AD20">
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
-      <c s="18" t="inlineStr" r="D21">
+      <c s="22" t="str" r="A21"/>
+      <c s="17" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="19" r="G21">
-        <v>210</v>
+      <c s="18" r="G21">
+        <v>137</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
-        <v>35</v>
+      <c s="26" r="J21">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="21" r="L21">
-        <v>2</v>
+      <c s="20" r="L21">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="22" r="N21">
+      <c s="21" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="22" r="P21">
+      <c s="21" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="22" r="R21">
+      <c s="21" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="22" r="T21">
+      <c s="21" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="22" r="V21">
+      <c s="21" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="28" r="X21">
-        <v>48</v>
+      <c s="27" r="X21">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="22" r="Z21">
-        <v>61</v>
+      <c s="21" r="Z21">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>145</v>
+      <c s="20" r="AB21">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>145</v>
+      <c s="20" r="AD21">
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
-      <c s="18" t="inlineStr" r="D22">
+      <c s="22" t="str" r="A22"/>
+      <c s="17" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="19" r="G22">
-        <v>72</v>
+      <c s="18" r="G22">
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
+      <c s="27" r="J22">
+        <v>37</v>
+      </c>
+      <c s="5" t="str" r="K22"/>
+      <c s="23" r="L22">
+        <v>8</v>
+      </c>
+      <c s="5" t="str" r="M22"/>
+      <c s="21" r="N22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O22"/>
+      <c s="21" r="P22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q22"/>
+      <c s="21" r="R22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S22"/>
+      <c s="21" r="T22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U22"/>
+      <c s="21" r="V22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W22"/>
+      <c s="27" r="X22">
+        <v>75</v>
+      </c>
+      <c s="5" t="str" r="Y22"/>
+      <c s="21" r="Z22">
         <v>42</v>
       </c>
-      <c s="5" t="str" r="K22"/>
-      <c s="20" r="L22">
-        <v>5</v>
-      </c>
-      <c s="5" t="str" r="M22"/>
-      <c s="22" r="N22">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O22"/>
-      <c s="22" r="P22">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q22"/>
-      <c s="22" r="R22">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S22"/>
-      <c s="22" r="T22">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U22"/>
-      <c s="22" r="V22">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>73</v>
-      </c>
-      <c s="5" t="str" r="Y22"/>
-      <c s="22" r="Z22">
-        <v>36</v>
-      </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="20" r="AB22">
-        <v>151</v>
+      <c s="19" r="AB22">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="20" r="AD22">
-        <v>151</v>
+      <c s="19" r="AD22">
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="26" t="str" r="A23"/>
-      <c s="27" t="str" r="B23"/>
-      <c s="27" t="str" r="C23"/>
-      <c s="18" t="inlineStr" r="D23">
+      <c s="24" t="str" r="A23"/>
+      <c s="25" t="str" r="B23"/>
+      <c s="25" t="str" r="C23"/>
+      <c s="17" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="19" r="G23">
-        <v>13</v>
+      <c s="18" r="G23">
+        <v>27</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>37</v>
+      <c s="27" r="J23">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>3</v>
+      <c s="27" r="L23">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="22" r="N23">
+      <c s="21" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="22" r="P23">
+      <c s="21" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="22" r="R23">
+      <c s="21" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="22" r="T23">
+      <c s="21" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="22" r="V23">
+      <c s="21" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>98</v>
+      <c s="27" r="X23">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="22" r="Z23">
-        <v>21</v>
+      <c s="21" r="Z23">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>157</v>
+      <c s="19" r="AB23">
+        <v>162</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>157</v>
+      <c s="19" r="AD23">
+        <v>162</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A24">
+      <c s="15" t="inlineStr" r="A24">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="17" t="str" r="B24"/>
-      <c s="17" t="str" r="C24"/>
-      <c s="18" t="inlineStr" r="D24">
+      <c s="16" t="str" r="B24"/>
+      <c s="16" t="str" r="C24"/>
+      <c s="17" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="19" r="G24">
-        <v>154</v>
+      <c s="18" r="G24">
+        <v>252</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>40</v>
+      <c s="26" r="J24">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="24" r="L24">
-        <v>9</v>
+      <c s="23" r="L24">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="22" r="N24">
+      <c s="21" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="22" r="P24">
+      <c s="21" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="22" r="R24">
+      <c s="21" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="22" r="T24">
+      <c s="21" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="22" r="V24">
+      <c s="21" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>76</v>
+      <c s="27" r="X24">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="22" r="Z24">
-        <v>107</v>
+      <c s="21" r="Z24">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="28" r="AB24">
-        <v>221</v>
+      <c s="23" r="AB24">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="28" r="AD24">
-        <v>221</v>
+      <c s="23" r="AD24">
+        <v>166</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="23" t="str" r="A25"/>
-      <c s="18" t="inlineStr" r="D25">
+      <c s="22" t="str" r="A25"/>
+      <c s="17" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="19" r="G25">
-        <v>124</v>
+      <c s="18" r="G25">
+        <v>117</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="28" r="J25">
-        <v>67</v>
+      <c s="27" r="J25">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="25" r="L25">
-        <v>11</v>
+      <c s="27" r="L25">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="22" r="N25">
+      <c s="21" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="22" r="P25">
+      <c s="21" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="22" r="R25">
+      <c s="21" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="22" r="T25">
+      <c s="21" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="22" r="V25">
+      <c s="21" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>101</v>
+      <c s="27" r="X25">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="22" r="Z25">
-        <v>168</v>
+      <c s="21" r="Z25">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="28" r="AB25">
-        <v>334</v>
+      <c s="27" r="AB25">
+        <v>198</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="28" r="AD25">
-        <v>334</v>
+      <c s="27" r="AD25">
+        <v>198</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
-      <c s="18" t="inlineStr" r="D26">
+      <c s="22" t="str" r="A26"/>
+      <c s="17" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="19" r="G26">
-        <v>52</v>
+      <c s="18" r="G26">
+        <v>73</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="28" r="J26">
-        <v>58</v>
+      <c s="27" r="J26">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="28" r="L26">
+      <c s="27" r="L26">
         <v>12</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="22" r="N26">
+      <c s="21" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="22" r="P26">
+      <c s="21" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="22" r="R26">
+      <c s="21" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="22" r="T26">
+      <c s="21" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="22" r="V26">
+      <c s="21" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>141</v>
+      <c s="27" r="X26">
+        <v>104</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="22" r="Z26">
-        <v>80</v>
+      <c s="21" r="Z26">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="28" r="AB26">
-        <v>279</v>
+      <c s="27" r="AB26">
+        <v>216</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="28" r="AD26">
-        <v>279</v>
+      <c s="27" r="AD26">
+        <v>216</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="26" t="str" r="A27"/>
-      <c s="27" t="str" r="B27"/>
-      <c s="27" t="str" r="C27"/>
-      <c s="18" t="inlineStr" r="D27">
+      <c s="24" t="str" r="A27"/>
+      <c s="25" t="str" r="B27"/>
+      <c s="25" t="str" r="C27"/>
+      <c s="17" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="19" r="G27">
-        <v>22</v>
+      <c s="18" r="G27">
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>48</v>
+      <c s="27" r="J27">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="21" r="L27">
+      <c s="20" r="L27">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="22" r="N27">
+      <c s="21" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="22" r="P27">
+      <c s="21" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="22" r="R27">
+      <c s="21" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="22" r="T27">
+      <c s="21" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="22" r="V27">
+      <c s="21" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>162</v>
+      <c s="27" r="X27">
+        <v>123</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="22" r="Z27">
-        <v>134</v>
+      <c s="21" r="Z27">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>345</v>
+      <c s="23" r="AB27">
+        <v>176</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>345</v>
+      <c s="23" r="AD27">
+        <v>176</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A28">
+      <c s="15" t="inlineStr" r="A28">
         <is>
           <t xml:space="preserve">359042 LITITZ</t>
         </is>
       </c>
-      <c s="17" t="str" r="B28"/>
-      <c s="17" t="str" r="C28"/>
-      <c s="18" t="inlineStr" r="D28">
+      <c s="16" t="str" r="B28"/>
+      <c s="16" t="str" r="C28"/>
+      <c s="17" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="19" r="G28">
-        <v>158</v>
+      <c s="18" r="G28">
+        <v>234</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="24" r="J28">
-        <v>27</v>
+      <c s="23" r="J28">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
+      <c s="20" r="L28">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="22" r="N28">
+      <c s="21" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="22" r="P28">
+      <c s="21" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="22" r="R28">
+      <c s="21" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="22" r="T28">
+      <c s="21" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="22" r="V28">
+      <c s="21" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>56</v>
+      <c s="26" r="X28">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="22" r="Z28">
-        <v>86</v>
+      <c s="21" r="Z28">
+        <v>91</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="24" r="AB28">
-        <v>170</v>
+      <c s="19" r="AB28">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="24" r="AD28">
-        <v>170</v>
+      <c s="19" r="AD28">
+        <v>161</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="23" t="str" r="A29"/>
-      <c s="18" t="inlineStr" r="D29">
+      <c s="22" t="str" r="A29"/>
+      <c s="17" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="19" r="G29">
-        <v>151</v>
+      <c s="18" r="G29">
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="28" r="J29">
-        <v>53</v>
+      <c s="26" r="J29">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="24" r="L29">
-        <v>8</v>
+      <c s="19" r="L29">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="22" r="N29">
+      <c s="21" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="22" r="P29">
+      <c s="21" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="22" r="R29">
+      <c s="21" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="22" r="T29">
+      <c s="21" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="22" r="V29">
+      <c s="21" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="28" r="X29">
-        <v>71</v>
+      <c s="27" r="X29">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="22" r="Z29">
-        <v>119</v>
+      <c s="21" r="Z29">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="28" r="AB29">
-        <v>244</v>
+      <c s="20" r="AB29">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="28" r="AD29">
-        <v>244</v>
+      <c s="20" r="AD29">
+        <v>136</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
-      <c s="18" t="inlineStr" r="D30">
+      <c s="22" t="str" r="A30"/>
+      <c s="17" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="19" r="G30">
-        <v>54</v>
+      <c s="18" r="G30">
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>55</v>
+      <c s="27" r="J30">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="28" r="L30">
-        <v>13</v>
+      <c s="20" r="L30">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="22" r="N30">
+      <c s="21" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="22" r="P30">
+      <c s="21" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="22" r="R30">
+      <c s="21" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="22" r="T30">
+      <c s="21" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="22" r="V30">
+      <c s="21" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>103</v>
+      <c s="27" r="X30">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="22" r="Z30">
-        <v>43</v>
+      <c s="21" r="Z30">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="28" r="AB30">
-        <v>200</v>
+      <c s="20" r="AB30">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="28" r="AD30">
-        <v>200</v>
+      <c s="20" r="AD30">
+        <v>149</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="26" t="str" r="A31"/>
-      <c s="27" t="str" r="B31"/>
-      <c s="27" t="str" r="C31"/>
-      <c s="18" t="inlineStr" r="D31">
+      <c s="24" t="str" r="A31"/>
+      <c s="25" t="str" r="B31"/>
+      <c s="25" t="str" r="C31"/>
+      <c s="17" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="19" r="G31">
-        <v>13</v>
+      <c s="18" r="G31">
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>40</v>
+      <c s="27" r="J31">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="21" r="L31">
-        <v>3</v>
+      <c s="19" r="L31">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="22" r="N31">
+      <c s="21" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="22" r="P31">
+      <c s="21" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="22" r="R31">
+      <c s="21" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="22" r="T31">
+      <c s="21" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="22" r="V31">
+      <c s="21" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>126</v>
+      <c s="27" r="X31">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="22" r="Z31">
-        <v>17</v>
+      <c s="21" r="Z31">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="25" r="AB31">
-        <v>183</v>
+      <c s="27" r="AB31">
+        <v>205</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="25" r="AD31">
-        <v>183</v>
+      <c s="27" r="AD31">
+        <v>205</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A32">
+      <c s="15" t="inlineStr" r="A32">
         <is>
           <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
-      <c s="17" t="str" r="B32"/>
-      <c s="17" t="str" r="C32"/>
-      <c s="18" t="inlineStr" r="D32">
+      <c s="16" t="str" r="B32"/>
+      <c s="16" t="str" r="C32"/>
+      <c s="17" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="19" r="G32">
-        <v>140</v>
+      <c s="18" r="G32">
+        <v>237</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="22" r="J32">
+      <c s="21" r="J32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="22" r="L32">
+      <c s="21" r="L32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="25" r="N32">
-        <v>31</v>
+      <c s="23" r="N32">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="21" r="P32">
-        <v>4</v>
+      <c s="20" r="P32">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
       <c s="21" r="R32">
@@ -2093,440 +2090,440 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="22" r="V32">
+      <c s="21" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>64</v>
+      <c s="27" r="X32">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="22" r="Z32">
-        <v>64</v>
+      <c s="21" r="Z32">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA32"/>
       <c s="20" r="AB32">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC32"/>
       <c s="20" r="AD32">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="23" t="str" r="A33"/>
-      <c s="18" t="inlineStr" r="D33">
+      <c s="22" t="str" r="A33"/>
+      <c s="17" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="19" r="G33">
-        <v>151</v>
+      <c s="18" r="G33">
+        <v>77</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="22" r="J33">
+      <c s="21" r="J33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="22" r="L33">
+      <c s="21" r="L33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="28" r="N33">
-        <v>40</v>
+      <c s="27" r="N33">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="21" r="P33">
-        <v>3</v>
+      <c s="20" r="P33">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q33"/>
       <c s="21" r="R33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
       <c s="21" r="T33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="22" r="V33">
+      <c s="21" r="V33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>67</v>
+      <c s="27" r="X33">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="22" r="Z33">
-        <v>93</v>
+      <c s="21" r="Z33">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="28" r="AB33">
-        <v>200</v>
+      <c s="26" r="AB33">
+        <v>191</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="28" r="AD33">
-        <v>200</v>
+      <c s="26" r="AD33">
+        <v>191</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
-      <c s="18" t="inlineStr" r="D34">
+      <c s="22" t="str" r="A34"/>
+      <c s="17" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="19" r="G34">
-        <v>41</v>
+      <c s="18" r="G34">
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="22" r="J34">
+      <c s="21" r="J34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="22" r="L34">
+      <c s="21" r="L34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="28" r="N34">
-        <v>38</v>
+      <c s="27" r="N34">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="O34"/>
       <c s="20" r="P34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
+      <c s="21" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="22" r="T34">
+      <c s="21" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="22" r="V34">
+      <c s="21" r="V34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>99</v>
+      <c s="27" r="X34">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="22" r="Z34">
-        <v>24</v>
+      <c s="21" r="Z34">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="20" r="AB34">
-        <v>159</v>
+      <c s="19" r="AB34">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>159</v>
+      <c s="19" r="AD34">
+        <v>164</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="26" t="str" r="A35"/>
-      <c s="27" t="str" r="B35"/>
-      <c s="27" t="str" r="C35"/>
-      <c s="18" t="inlineStr" r="D35">
+      <c s="24" t="str" r="A35"/>
+      <c s="25" t="str" r="B35"/>
+      <c s="25" t="str" r="C35"/>
+      <c s="17" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="19" r="G35">
-        <v>13</v>
+      <c s="18" r="G35">
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="22" r="J35">
+      <c s="21" r="J35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="22" r="L35">
+      <c s="21" r="L35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="28" r="N35">
-        <v>35</v>
+      <c s="27" r="N35">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="21" r="P35">
-        <v>3</v>
+      <c s="19" r="P35">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
+      <c s="20" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
+      <c s="20" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="22" r="V35">
+      <c s="21" r="V35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>80</v>
+      <c s="27" r="X35">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="22" r="Z35">
-        <v>8</v>
+      <c s="21" r="Z35">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="21" r="AB35">
-        <v>125</v>
+      <c s="20" r="AB35">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="21" r="AD35">
-        <v>125</v>
+      <c s="20" r="AD35">
+        <v>133</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A36">
+      <c s="15" t="inlineStr" r="A36">
         <is>
           <t xml:space="preserve">364322 elizabethtown</t>
         </is>
       </c>
-      <c s="17" t="str" r="B36"/>
-      <c s="17" t="str" r="C36"/>
-      <c s="18" t="inlineStr" r="D36">
+      <c s="16" t="str" r="B36"/>
+      <c s="16" t="str" r="C36"/>
+      <c s="17" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="19" r="G36">
-        <v>177</v>
+      <c s="18" r="G36">
+        <v>240</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
       <c s="20" r="J36">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
+      <c s="20" r="L36">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="22" r="N36">
+      <c s="21" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="22" r="P36">
+      <c s="21" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="22" r="R36">
+      <c s="21" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="22" r="T36">
+      <c s="21" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="24" r="V36">
-        <v>20</v>
+      <c s="20" r="V36">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>52</v>
+      <c s="27" r="X36">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="22" r="Z36">
-        <v>54</v>
+      <c s="21" r="Z36">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA36"/>
       <c s="20" r="AB36">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AC36"/>
       <c s="20" r="AD36">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="23" t="str" r="A37"/>
-      <c s="18" t="inlineStr" r="D37">
+      <c s="22" t="str" r="A37"/>
+      <c s="17" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="19" r="G37">
-        <v>171</v>
+      <c s="18" r="G37">
+        <v>117</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="24" r="J37">
-        <v>49</v>
+      <c s="20" r="J37">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="21" r="L37">
-        <v>3</v>
+      <c s="20" r="L37">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="22" r="N37">
+      <c s="21" r="N37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="22" r="P37">
+      <c s="21" r="P37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="22" r="R37">
+      <c s="21" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="22" r="T37">
+      <c s="21" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="25" r="V37">
-        <v>29</v>
+      <c s="20" r="V37">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>67</v>
+      <c s="27" r="X37">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="22" r="Z37">
-        <v>103</v>
+      <c s="21" r="Z37">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="25" r="AB37">
-        <v>245</v>
+      <c s="20" r="AB37">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="25" r="AD37">
-        <v>245</v>
+      <c s="20" r="AD37">
+        <v>134</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
-      <c s="18" t="inlineStr" r="D38">
+      <c s="22" t="str" r="A38"/>
+      <c s="17" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="19" r="G38">
-        <v>71</v>
+      <c s="18" r="G38">
+        <v>62</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="20" r="J38">
+      <c s="19" r="J38">
         <v>30</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="21" r="L38">
+      <c s="20" r="L38">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="22" r="N38">
+      <c s="21" r="N38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="22" r="P38">
+      <c s="21" r="P38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
+      <c s="21" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="22" r="T38">
+      <c s="21" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="21" r="V38">
-        <v>5</v>
+      <c s="20" r="V38">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>61</v>
+      <c s="27" r="X38">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="22" r="Z38">
-        <v>27</v>
+      <c s="21" r="Z38">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="21" r="AB38">
-        <v>122</v>
+      <c s="20" r="AB38">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="21" r="AD38">
-        <v>122</v>
+      <c s="20" r="AD38">
+        <v>137</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="26" t="str" r="A39"/>
-      <c s="27" t="str" r="B39"/>
-      <c s="27" t="str" r="C39"/>
-      <c s="18" t="inlineStr" r="D39">
+      <c s="24" t="str" r="A39"/>
+      <c s="25" t="str" r="B39"/>
+      <c s="25" t="str" r="C39"/>
+      <c s="17" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="19" r="G39">
-        <v>19</v>
+      <c s="18" r="G39">
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
       <c s="20" r="J39">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
+      <c s="20" r="L39">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="22" r="N39">
+      <c s="21" r="N39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="22" r="P39">
+      <c s="21" r="P39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="22" r="R39">
+      <c s="21" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="22" r="T39">
+      <c s="21" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="21" r="V39">
-        <v>14</v>
+      <c s="20" r="V39">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>78</v>
+      <c s="27" r="X39">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="22" r="Z39">
-        <v>32</v>
+      <c s="21" r="Z39">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA39"/>
       <c s="20" r="AB39">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c s="5" t="str" r="AC39"/>
       <c s="20" r="AD39">
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2932,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/8/2025 12:32:48 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/10/2025 12:28:14 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,14 +146,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
@@ -336,10 +336,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,8 +375,8 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00E35454"/>
-      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 09/20/2025</t>
+          <t xml:space="preserve">Day: 09/21/2025</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c s="8" r="F7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -645,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>60</v>
+      <c s="8" r="S7">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>531</v>
-      </c>
-      <c s="12" r="F8">
-        <v>37</v>
+        <v>490</v>
+      </c>
+      <c s="11" r="F8">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>54</v>
+      <c s="11" r="S8">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="12" r="W8">
-        <v>199</v>
+      <c s="9" r="W8">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="12" r="Y8">
-        <v>199</v>
+      <c s="9" r="Y8">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>431</v>
-      </c>
-      <c s="12" r="F9">
-        <v>54</v>
+        <v>363</v>
+      </c>
+      <c s="11" r="F9">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="12" r="H9">
-        <v>14</v>
+      <c s="11" r="H9">
+        <v>25</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -757,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>87</v>
+      <c s="11" r="S9">
+        <v>89</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="12" r="W9">
-        <v>284</v>
+      <c s="11" r="W9">
+        <v>276</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="12" r="Y9">
-        <v>284</v>
+      <c s="11" r="Y9">
+        <v>276</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>383</v>
-      </c>
-      <c s="13" r="F10">
-        <v>31</v>
+        <v>356</v>
+      </c>
+      <c s="11" r="F10">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="9" r="H10">
-        <v>3</v>
+      <c s="12" r="H10">
+        <v>8</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>62</v>
+      <c s="11" r="S10">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="11" r="W10">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="11" r="Y10">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -849,8 +849,8 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="12" r="I11">
-        <v>38</v>
+      <c s="11" r="I11">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
@@ -862,27 +862,27 @@
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>67</v>
+      <c s="11" r="S11">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="12" r="W11">
-        <v>201</v>
+      <c s="13" r="W11">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="12" r="Y11">
-        <v>201</v>
+      <c s="13" r="Y11">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,10 +896,10 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>465</v>
-      </c>
-      <c s="11" r="F12">
-        <v>41</v>
+        <v>451</v>
+      </c>
+      <c s="8" r="F12">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
@@ -921,24 +921,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="11" r="Q12">
-        <v>23</v>
+      <c s="8" r="Q12">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>64</v>
+      <c s="11" r="S12">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>203</v>
+      <c s="8" r="W12">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>203</v>
+      <c s="8" r="Y12">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,12 +1047,12 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
@@ -1080,19 +1080,19 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA15"/>
       <c s="21" r="AB15">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -1105,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1137,20 +1137,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="20" r="X16">
-        <v>57</v>
+      <c s="24" r="X16">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>145</v>
+      <c s="24" r="AB16">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="20" r="L17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1195,20 +1195,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>94</v>
+      <c s="25" r="X17">
+        <v>99</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="25" r="AB17">
-        <v>214</v>
+      <c s="24" r="AB17">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>107</v>
+      <c s="21" r="AD17">
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1228,11 +1228,11 @@
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="24" r="X18">
-        <v>96</v>
+      <c s="25" r="X18">
+        <v>99</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="25" r="AB18">
-        <v>150</v>
+      <c s="21" r="AB18">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
-        <v>21</v>
+      <c s="21" r="J19">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1320,19 +1320,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="21" r="AB19">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>34</v>
+      <c s="25" r="J20">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1378,19 +1378,19 @@
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="28" r="X20">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="28" r="AB20">
-        <v>201</v>
+      <c s="21" r="AB20">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="28" r="AD20">
-        <v>201</v>
+      <c s="21" r="AD20">
+        <v>133</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1403,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
       <c s="28" r="J21">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="20" r="L21">
-        <v>5</v>
+      <c s="21" r="L21">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1436,19 +1436,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="28" r="AB21">
-        <v>223</v>
+      <c s="20" r="AB21">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="28" r="AD21">
-        <v>223</v>
+      <c s="20" r="AD21">
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1461,12 +1461,12 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="28" r="J22">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="20" r="L22">
@@ -1494,7 +1494,7 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
@@ -1502,11 +1502,11 @@
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="28" r="J23">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>3</v>
+      <c s="20" r="L23">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>125</v>
+      <c s="20" r="AB23">
+        <v>160</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>125</v>
+      <c s="20" r="AD23">
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="28" r="L24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,19 +1618,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="28" r="AB24">
-        <v>240</v>
+      <c s="24" r="AB24">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="28" r="AD24">
-        <v>240</v>
+      <c s="24" r="AD24">
+        <v>169</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="28" r="L25">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,19 +1676,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="28" r="AB25">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="28" r="AD25">
-        <v>348</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="K26"/>
       <c s="28" r="L26">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,19 +1734,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="28" r="AB26">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="28" r="AD26">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1766,11 +1766,11 @@
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="21" r="L27">
-        <v>3</v>
+      <c s="24" r="L27">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>203</v>
+      <c s="20" r="AB27">
+        <v>160</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>203</v>
+      <c s="20" r="AD27">
+        <v>160</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="25" r="J28">
-        <v>26</v>
+      <c s="28" r="J28">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K28"/>
       <c s="21" r="L28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,19 +1858,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="20" r="AB28">
-        <v>159</v>
+      <c s="28" r="AB28">
+        <v>251</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="20" r="AD28">
-        <v>159</v>
+      <c s="28" r="AD28">
+        <v>251</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="20" r="L29">
-        <v>6</v>
+      <c s="28" r="L29">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,19 +1916,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AA29"/>
       <c s="28" r="AB29">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c s="5" t="str" r="AC29"/>
       <c s="28" r="AD29">
-        <v>216</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>5</v>
+      <c s="24" r="L30">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,19 +1974,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="25" r="AB30">
-        <v>171</v>
+      <c s="28" r="AB30">
+        <v>219</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="25" r="AD30">
-        <v>171</v>
+      <c s="28" r="AD30">
+        <v>219</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="25" r="J31">
-        <v>25</v>
+      <c s="28" r="J31">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="21" r="L31">
-        <v>4</v>
+      <c s="20" r="L31">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="20" r="AB31">
-        <v>150</v>
+      <c s="28" r="AB31">
+        <v>219</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="20" r="AD31">
-        <v>150</v>
+      <c s="28" r="AD31">
+        <v>219</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2077,8 +2077,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="24" r="N32">
-        <v>34</v>
+      <c s="28" r="N32">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
@@ -2090,7 +2090,7 @@
       </c>
       <c s="5" t="str" r="S32"/>
       <c s="21" r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,19 +2098,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="28" r="AB32">
-        <v>199</v>
+      <c s="20" r="AB32">
+        <v>160</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="28" r="AD32">
-        <v>199</v>
+      <c s="20" r="AD32">
+        <v>160</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2136,11 +2136,11 @@
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="28" r="N33">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q33"/>
       <c s="21" r="R33">
@@ -2148,7 +2148,7 @@
       </c>
       <c s="5" t="str" r="S33"/>
       <c s="21" r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2156,19 +2156,19 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="28" r="AB33">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="28" r="AD33">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2194,18 +2194,18 @@
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="28" r="N34">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="O34"/>
       <c s="20" r="P34">
         <v>6</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="21" r="T34">
+      <c s="22" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
@@ -2214,19 +2214,19 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="25" r="AB34">
-        <v>174</v>
+      <c s="21" r="AB34">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="25" r="AD34">
-        <v>174</v>
+      <c s="21" r="AD34">
+        <v>143</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2253,12 +2253,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="28" r="N35">
-        <v>38</v>
+      <c s="25" r="N35">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q35"/>
       <c s="22" r="R35">
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA35"/>
       <c s="21" r="AB35">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c s="5" t="str" r="AC35"/>
       <c s="21" r="AD35">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
       <c s="20" r="J36">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,24 +2333,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="20" r="V36">
-        <v>19</v>
+      <c s="21" r="V36">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="20" r="AB36">
-        <v>174</v>
+      <c s="21" r="AB36">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="20" r="AD36">
-        <v>174</v>
+      <c s="21" r="AD36">
+        <v>133</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2363,12 +2363,12 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="25" r="J37">
-        <v>44</v>
+      <c s="24" r="J37">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
@@ -2391,24 +2391,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="28" r="V37">
-        <v>32</v>
+      <c s="25" r="V37">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="25" r="AB37">
-        <v>238</v>
+      <c s="24" r="AB37">
+        <v>215</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="25" r="AD37">
-        <v>238</v>
+      <c s="24" r="AD37">
+        <v>215</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2421,12 +2421,12 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="24" r="J38">
-        <v>50</v>
+      <c s="20" r="J38">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="21" r="L38">
@@ -2449,24 +2449,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="20" r="V38">
-        <v>15</v>
+      <c s="21" r="V38">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="25" r="AB38">
-        <v>200</v>
+      <c s="21" r="AB38">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="25" r="AD38">
-        <v>200</v>
+      <c s="21" r="AD38">
+        <v>139</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2481,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="24" r="J39">
-        <v>56</v>
+      <c s="20" r="J39">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="21" r="L39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2510,23 +2510,23 @@
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="21" r="V39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="25" r="AB39">
-        <v>223</v>
+      <c s="24" r="AB39">
+        <v>194</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="25" r="AD39">
-        <v>223</v>
+      <c s="24" r="AD39">
+        <v>194</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/21/2025 12:36:53 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/22/2025 12:34:15 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,14 +146,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
     <fill>
@@ -336,10 +336,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +345,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,8 +375,8 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 09/21/2025</t>
+          <t xml:space="preserve">Day: 09/22/2025</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c s="8" r="F7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -646,19 +646,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="8" r="S7">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c s="11" r="F8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="11" r="S8">
-        <v>53</v>
+      <c s="12" r="S8">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>363</v>
-      </c>
-      <c s="11" r="F9">
-        <v>59</v>
+        <v>407</v>
+      </c>
+      <c s="12" r="F9">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="11" r="H9">
-        <v>25</v>
+      <c s="12" r="H9">
+        <v>16</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -757,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="11" r="S9">
-        <v>89</v>
+      <c s="12" r="S9">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="11" r="W9">
-        <v>276</v>
+      <c s="12" r="W9">
+        <v>220</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="11" r="Y9">
-        <v>276</v>
+      <c s="12" r="Y9">
+        <v>220</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>356</v>
-      </c>
-      <c s="11" r="F10">
-        <v>50</v>
+        <v>339</v>
+      </c>
+      <c s="12" r="F10">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="12" r="H10">
-        <v>8</v>
+      <c s="13" r="H10">
+        <v>11</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="11" r="S10">
-        <v>78</v>
+      <c s="12" r="S10">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>276</v>
+      <c s="12" r="W10">
+        <v>240</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>276</v>
+      <c s="12" r="Y10">
+        <v>240</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -849,12 +849,12 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="11" r="I11">
-        <v>43</v>
+      <c s="13" r="I11">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="9" r="M11">
@@ -862,27 +862,27 @@
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="11" r="S11">
-        <v>69</v>
+      <c s="12" r="S11">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="13" r="W11">
-        <v>190</v>
+      <c s="8" r="W11">
+        <v>158</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="13" r="Y11">
-        <v>190</v>
+      <c s="8" r="Y11">
+        <v>158</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +896,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>451</v>
-      </c>
-      <c s="8" r="F12">
-        <v>35</v>
+        <v>440</v>
+      </c>
+      <c s="9" r="F12">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,24 +921,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="8" r="Q12">
-        <v>19</v>
+      <c s="9" r="Q12">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="11" r="S12">
-        <v>55</v>
+      <c s="12" r="S12">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>173</v>
+      <c s="9" r="W12">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>173</v>
+      <c s="9" r="Y12">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,16 +1047,16 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M15"/>
       <c s="22" r="N15">
@@ -1080,19 +1080,19 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="AA15"/>
       <c s="21" r="AB15">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -1105,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1137,20 +1137,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="24" r="X16">
-        <v>60</v>
+      <c s="20" r="X16">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="24" r="AB16">
-        <v>163</v>
+      <c s="21" r="AB16">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>5</v>
+      <c s="21" r="L17">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1195,26 +1195,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="25" r="X17">
-        <v>99</v>
+      <c s="24" r="X17">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="24" r="AB17">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="26" t="str" r="A18"/>
-      <c s="27" t="str" r="B18"/>
-      <c s="27" t="str" r="C18"/>
+      <c s="25" t="str" r="A18"/>
+      <c s="26" t="str" r="B18"/>
+      <c s="26" t="str" r="C18"/>
       <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1223,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="25" r="X18">
-        <v>99</v>
+      <c s="27" r="X18">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="21" r="AB18">
-        <v>147</v>
+      <c s="24" r="AB18">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="21" r="J19">
-        <v>19</v>
+      <c s="24" r="J19">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1320,19 +1320,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="21" r="AB19">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="25" r="J20">
-        <v>32</v>
+      <c s="20" r="J20">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,20 +1377,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>48</v>
+      <c s="24" r="X20">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1403,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
-        <v>38</v>
+      <c s="24" r="J21">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1436,19 +1436,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="20" r="AB21">
-        <v>156</v>
+      <c s="21" r="AB21">
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="20" r="AD21">
-        <v>156</v>
+      <c s="21" r="AD21">
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
-        <v>38</v>
+      <c s="27" r="J22">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="20" r="L22">
-        <v>5</v>
+      <c s="21" r="L22">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,25 +1494,25 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="26" t="str" r="A23"/>
-      <c s="27" t="str" r="B23"/>
-      <c s="27" t="str" r="C23"/>
+      <c s="25" t="str" r="A23"/>
+      <c s="26" t="str" r="B23"/>
+      <c s="26" t="str" r="C23"/>
       <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="28" r="J23">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="20" r="L23">
-        <v>6</v>
+      <c s="21" r="L23">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>160</v>
+      <c s="24" r="AB23">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>160</v>
+      <c s="24" r="AD23">
+        <v>179</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="28" r="L24">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,19 +1618,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="24" r="AB24">
-        <v>169</v>
+      <c s="28" r="AB24">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="24" r="AD24">
-        <v>169</v>
+      <c s="28" r="AD24">
+        <v>201</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="28" r="L25">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,19 +1676,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="28" r="AB25">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="28" r="AD25">
-        <v>420</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="28" r="L26">
-        <v>28</v>
+      <c s="27" r="L26">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,25 +1734,25 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="28" r="AB26">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="28" r="AD26">
-        <v>304</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="26" t="str" r="A27"/>
-      <c s="27" t="str" r="B27"/>
-      <c s="27" t="str" r="C27"/>
+      <c s="25" t="str" r="A27"/>
+      <c s="26" t="str" r="B27"/>
+      <c s="26" t="str" r="C27"/>
       <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>37</v>
+      <c s="27" r="J27">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="24" r="L27">
-        <v>9</v>
+      <c s="28" r="L27">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="20" r="AB27">
-        <v>160</v>
+      <c s="21" r="AB27">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="20" r="AD27">
-        <v>160</v>
+      <c s="21" r="AD27">
+        <v>137</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>3</v>
+      <c s="28" r="L28">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,19 +1858,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AA28"/>
       <c s="28" r="AB28">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c s="5" t="str" r="AC28"/>
       <c s="28" r="AD28">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="28" r="L29">
-        <v>13</v>
+      <c s="24" r="L29">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,19 +1916,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AA29"/>
       <c s="28" r="AB29">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c s="5" t="str" r="AC29"/>
       <c s="28" r="AD29">
-        <v>321</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="24" r="L30">
-        <v>8</v>
+      <c s="28" r="L30">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,25 +1974,25 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="28" r="AB30">
-        <v>219</v>
+      <c s="27" r="AB30">
+        <v>187</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="28" r="AD30">
-        <v>219</v>
+      <c s="27" r="AD30">
+        <v>187</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="26" t="str" r="A31"/>
-      <c s="27" t="str" r="B31"/>
-      <c s="27" t="str" r="C31"/>
+      <c s="25" t="str" r="A31"/>
+      <c s="26" t="str" r="B31"/>
+      <c s="26" t="str" r="C31"/>
       <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="20" r="L31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2077,20 +2077,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="28" r="N32">
-        <v>36</v>
+      <c s="24" r="N32">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="21" r="R32">
+      <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="21" r="T32">
-        <v>1</v>
+      <c s="22" r="T32">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,19 +2098,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="20" r="AB32">
-        <v>160</v>
+      <c s="21" r="AB32">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="20" r="AD32">
-        <v>160</v>
+      <c s="21" r="AD32">
+        <v>133</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2135,20 +2135,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="28" r="N33">
-        <v>52</v>
+      <c s="27" r="N33">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="21" r="R33">
+      <c s="22" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="21" r="T33">
-        <v>1</v>
+      <c s="22" r="T33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2156,19 +2156,19 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="28" r="AB33">
-        <v>251</v>
+      <c s="27" r="AB33">
+        <v>187</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="28" r="AD33">
-        <v>251</v>
+      <c s="27" r="AD33">
+        <v>187</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2194,11 +2194,11 @@
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="28" r="N34">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="20" r="P34">
-        <v>6</v>
+      <c s="24" r="P34">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="Q34"/>
       <c s="22" r="R34">
@@ -2214,25 +2214,25 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>143</v>
+      <c s="27" r="AB34">
+        <v>194</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="21" r="AD34">
-        <v>143</v>
+      <c s="27" r="AD34">
+        <v>194</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="26" t="str" r="A35"/>
-      <c s="27" t="str" r="B35"/>
-      <c s="27" t="str" r="C35"/>
+      <c s="25" t="str" r="A35"/>
+      <c s="26" t="str" r="B35"/>
+      <c s="26" t="str" r="C35"/>
       <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2253,19 +2253,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="25" r="N35">
-        <v>30</v>
+      <c s="28" r="N35">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="21" r="P35">
-        <v>4</v>
+      <c s="20" r="P35">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
+      <c s="21" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
+      <c s="21" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="21" r="AB35">
-        <v>96</v>
+      <c s="28" r="AB35">
+        <v>208</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="21" r="AD35">
-        <v>96</v>
+      <c s="28" r="AD35">
+        <v>208</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,12 +2305,12 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="20" r="J36">
-        <v>30</v>
+      <c s="21" r="J36">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
@@ -2333,24 +2333,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="21" r="V36">
-        <v>12</v>
+      <c s="20" r="V36">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA36"/>
       <c s="21" r="AB36">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC36"/>
       <c s="21" r="AD36">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2363,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="24" r="J37">
-        <v>41</v>
+      <c s="21" r="J37">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2391,24 +2391,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="25" r="V37">
-        <v>29</v>
+      <c s="21" r="V37">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="24" r="AB37">
-        <v>215</v>
+      <c s="21" r="AB37">
+        <v>142</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="24" r="AD37">
-        <v>215</v>
+      <c s="21" r="AD37">
+        <v>142</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2421,12 +2421,12 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
       <c s="20" r="J38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="21" r="L38">
@@ -2450,29 +2450,29 @@
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="21" r="V38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA38"/>
       <c s="21" r="AB38">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC38"/>
       <c s="21" r="AD38">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="26" t="str" r="A39"/>
-      <c s="27" t="str" r="B39"/>
-      <c s="27" t="str" r="C39"/>
+      <c s="25" t="str" r="A39"/>
+      <c s="26" t="str" r="B39"/>
+      <c s="26" t="str" r="C39"/>
       <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2481,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
       <c s="20" r="J39">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="21" r="L39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2514,19 +2514,19 @@
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="24" r="AB39">
-        <v>194</v>
+      <c s="21" r="AB39">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="24" r="AD39">
-        <v>194</v>
+      <c s="21" r="AD39">
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/22/2025 12:34:15 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/23/2025 12:27:03 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -301,9 +301,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
@@ -520,7 +517,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 09/22/2025</t>
+          <t xml:space="preserve">Day: 09/24/2025</t>
         </is>
       </c>
     </row>
@@ -616,10 +613,10 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c s="8" r="F7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
@@ -646,19 +643,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="8" r="S7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +669,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c s="11" r="F8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -702,19 +699,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +725,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c s="12" r="F9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="12" r="H9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -758,11 +755,11 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="12" r="W9">
@@ -784,14 +781,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c s="12" r="F10">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="13" r="H10">
-        <v>11</v>
+      <c s="11" r="H10">
+        <v>7</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -814,19 +811,19 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="12" r="W10">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="12" r="Y10">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +837,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -849,8 +846,8 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="13" r="I11">
-        <v>31</v>
+      <c s="11" r="I11">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
@@ -870,19 +867,19 @@
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="8" r="W11">
-        <v>158</v>
+      <c s="9" r="W11">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="8" r="Y11">
-        <v>158</v>
+      <c s="9" r="Y11">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +893,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>440</v>
-      </c>
-      <c s="9" r="F12">
-        <v>27</v>
+        <v>433</v>
+      </c>
+      <c s="8" r="F12">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,30 +918,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="9" r="Q12">
-        <v>14</v>
+      <c s="8" r="Q12">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="9" r="W12">
-        <v>144</v>
+      <c s="8" r="W12">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="9" r="Y12">
-        <v>144</v>
+      <c s="8" r="Y12">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="4.95" customHeight="1"/>
     <row r="14" ht="32.25" customHeight="0">
-      <c s="14" t="inlineStr" r="A14">
+      <c s="13" t="inlineStr" r="A14">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -965,1300 +962,1300 @@
       </c>
       <c s="4" t="str" r="H14"/>
       <c s="5" t="str" r="I14"/>
-      <c s="15" t="inlineStr" r="J14">
+      <c s="14" t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K14"/>
-      <c s="15" t="inlineStr" r="L14">
+      <c s="14" t="inlineStr" r="L14">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M14"/>
-      <c s="15" t="inlineStr" r="N14">
+      <c s="14" t="inlineStr" r="N14">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O14"/>
-      <c s="15" t="inlineStr" r="P14">
+      <c s="14" t="inlineStr" r="P14">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q14"/>
-      <c s="15" t="inlineStr" r="R14">
+      <c s="14" t="inlineStr" r="R14">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S14"/>
-      <c s="15" t="inlineStr" r="T14">
+      <c s="14" t="inlineStr" r="T14">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U14"/>
-      <c s="15" t="inlineStr" r="V14">
+      <c s="14" t="inlineStr" r="V14">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W14"/>
-      <c s="15" t="inlineStr" r="X14">
+      <c s="14" t="inlineStr" r="X14">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y14"/>
-      <c s="15" t="inlineStr" r="Z14">
+      <c s="14" t="inlineStr" r="Z14">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA14"/>
-      <c s="15" t="inlineStr" r="AB14">
+      <c s="14" t="inlineStr" r="AB14">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC14"/>
-      <c s="15" t="inlineStr" r="AD14">
+      <c s="14" t="inlineStr" r="AD14">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A15">
+      <c s="15" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">343939 Mt.Joy</t>
         </is>
       </c>
-      <c s="17" t="str" r="B15"/>
-      <c s="17" t="str" r="C15"/>
-      <c s="18" t="inlineStr" r="D15">
+      <c s="16" t="str" r="B15"/>
+      <c s="16" t="str" r="C15"/>
+      <c s="17" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="19" r="G15">
-        <v>195</v>
+      <c s="18" r="G15">
+        <v>198</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="20" r="J15">
-        <v>23</v>
+      <c s="19" r="J15">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="21" r="L15">
+      <c s="20" r="L15">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="22" r="N15">
+      <c s="21" r="N15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="22" r="P15">
+      <c s="21" r="P15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="22" r="R15">
+      <c s="21" r="R15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="22" r="T15">
+      <c s="21" r="T15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="22" r="V15">
+      <c s="21" r="V15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="20" r="X15">
+      <c s="19" r="X15">
         <v>36</v>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="22" r="Z15">
-        <v>23</v>
+      <c s="21" r="Z15">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="21" r="AB15">
-        <v>83</v>
+      <c s="20" r="AB15">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="21" r="AD15">
-        <v>41</v>
+      <c s="20" r="AD15">
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="23" t="str" r="A16"/>
-      <c s="18" t="inlineStr" r="D16">
+      <c s="22" t="str" r="A16"/>
+      <c s="17" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="19" r="G16">
-        <v>78</v>
+      <c s="18" r="G16">
+        <v>85</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="20" r="J16">
-        <v>30</v>
+      <c s="19" r="J16">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
+      <c s="20" r="L16">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="22" r="N16">
+      <c s="21" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="22" r="P16">
+      <c s="21" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="22" r="R16">
+      <c s="21" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="22" r="T16">
+      <c s="21" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="22" r="V16">
+      <c s="21" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="20" r="X16">
-        <v>59</v>
+      <c s="19" r="X16">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="22" r="Z16">
-        <v>30</v>
+      <c s="21" r="Z16">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>120</v>
+      <c s="20" r="AB16">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>59</v>
+      <c s="20" r="AD16">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
-      <c s="18" t="inlineStr" r="D17">
+      <c s="22" t="str" r="A17"/>
+      <c s="17" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="19" r="G17">
-        <v>64</v>
+      <c s="18" r="G17">
+        <v>53</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="20" r="J17">
-        <v>28</v>
+      <c s="19" r="J17">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>3</v>
+      <c s="20" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="22" r="N17">
+      <c s="21" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="22" r="P17">
+      <c s="21" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="22" r="R17">
+      <c s="21" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="22" r="T17">
+      <c s="21" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="22" r="V17">
+      <c s="21" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>85</v>
+      <c s="23" r="X17">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="22" r="Z17">
-        <v>36</v>
+      <c s="21" r="Z17">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="24" r="AB17">
-        <v>150</v>
+      <c s="20" r="AB17">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>74</v>
+      <c s="20" r="AD17">
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="25" t="str" r="A18"/>
-      <c s="26" t="str" r="B18"/>
-      <c s="26" t="str" r="C18"/>
-      <c s="18" t="inlineStr" r="D18">
+      <c s="24" t="str" r="A18"/>
+      <c s="25" t="str" r="B18"/>
+      <c s="25" t="str" r="C18"/>
+      <c s="17" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="19" r="G18">
-        <v>18</v>
+      <c s="18" r="G18">
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="20" r="J18">
-        <v>36</v>
+      <c s="19" r="J18">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
+      <c s="20" r="L18">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="22" r="N18">
+      <c s="21" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="22" r="P18">
+      <c s="21" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="22" r="R18">
+      <c s="21" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="22" r="T18">
+      <c s="21" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="22" r="V18">
+      <c s="21" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="27" r="X18">
-        <v>119</v>
+      <c s="23" r="X18">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="22" r="Z18">
-        <v>16</v>
+      <c s="21" r="Z18">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="24" r="AB18">
-        <v>168</v>
+      <c s="20" r="AB18">
+        <v>111</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="21" r="AD18">
-        <v>83</v>
+      <c s="20" r="AD18">
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A19">
+      <c s="15" t="inlineStr" r="A19">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="17" t="str" r="B19"/>
-      <c s="17" t="str" r="C19"/>
-      <c s="18" t="inlineStr" r="D19">
+      <c s="16" t="str" r="B19"/>
+      <c s="16" t="str" r="C19"/>
+      <c s="17" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="19" r="G19">
-        <v>11</v>
+      <c s="18" r="G19">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="24" r="J19">
-        <v>25</v>
+      <c s="26" r="J19">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>3</v>
+      <c s="23" r="L19">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="22" r="N19">
+      <c s="21" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="22" r="P19">
+      <c s="21" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="22" r="R19">
+      <c s="21" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="22" r="T19">
+      <c s="21" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="22" r="V19">
+      <c s="21" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="28" r="X19">
-        <v>81</v>
+      <c s="27" r="X19">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="22" r="Z19">
-        <v>26</v>
+      <c s="21" r="Z19">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>133</v>
+      <c s="26" r="AB19">
+        <v>181</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>133</v>
+      <c s="26" r="AD19">
+        <v>181</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="23" t="str" r="A20"/>
-      <c s="18" t="inlineStr" r="D20">
+      <c s="22" t="str" r="A20"/>
+      <c s="17" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="19" r="G20">
-        <v>258</v>
+      <c s="18" r="G20">
+        <v>303</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="20" r="J20">
-        <v>24</v>
+      <c s="23" r="J20">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="21" r="L20">
+      <c s="20" r="L20">
         <v>1</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="22" r="N20">
+      <c s="21" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="22" r="P20">
+      <c s="21" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="22" r="R20">
+      <c s="21" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="22" r="T20">
+      <c s="21" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="22" r="V20">
+      <c s="21" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="24" r="X20">
-        <v>39</v>
+      <c s="23" r="X20">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="22" r="Z20">
-        <v>55</v>
+      <c s="21" r="Z20">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>119</v>
+      <c s="20" r="AB20">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>119</v>
+      <c s="20" r="AD20">
+        <v>118</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
-      <c s="18" t="inlineStr" r="D21">
+      <c s="22" t="str" r="A21"/>
+      <c s="17" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="19" r="G21">
-        <v>119</v>
+      <c s="18" r="G21">
+        <v>103</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="24" r="J21">
-        <v>29</v>
+      <c s="27" r="J21">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="21" r="L21">
-        <v>1</v>
+      <c s="20" r="L21">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="22" r="N21">
+      <c s="21" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="22" r="P21">
+      <c s="21" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="22" r="R21">
+      <c s="21" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="22" r="T21">
+      <c s="21" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="22" r="V21">
+      <c s="21" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="28" r="X21">
-        <v>52</v>
+      <c s="27" r="X21">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="22" r="Z21">
-        <v>48</v>
+      <c s="21" r="Z21">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>130</v>
+      <c s="20" r="AB21">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>130</v>
+      <c s="20" r="AD21">
+        <v>129</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
-      <c s="18" t="inlineStr" r="D22">
+      <c s="22" t="str" r="A22"/>
+      <c s="17" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="19" r="G22">
-        <v>93</v>
+      <c s="18" r="G22">
+        <v>92</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="27" r="J22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="21" r="L22">
-        <v>2</v>
+      <c s="20" r="L22">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="22" r="N22">
+      <c s="21" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="22" r="P22">
+      <c s="21" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="22" r="R22">
+      <c s="21" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="22" r="T22">
+      <c s="21" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="22" r="V22">
+      <c s="21" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>70</v>
+      <c s="27" r="X22">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="22" r="Z22">
-        <v>33</v>
+      <c s="21" r="Z22">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>137</v>
+      <c s="19" r="AB22">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>137</v>
+      <c s="19" r="AD22">
+        <v>153</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="25" t="str" r="A23"/>
-      <c s="26" t="str" r="B23"/>
-      <c s="26" t="str" r="C23"/>
-      <c s="18" t="inlineStr" r="D23">
+      <c s="24" t="str" r="A23"/>
+      <c s="25" t="str" r="B23"/>
+      <c s="25" t="str" r="C23"/>
+      <c s="17" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="19" r="G23">
-        <v>21</v>
+      <c s="18" r="G23">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>44</v>
+      <c s="26" r="J23">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>1</v>
+      <c s="20" r="L23">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="22" r="N23">
+      <c s="21" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="22" r="P23">
+      <c s="21" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="22" r="R23">
+      <c s="21" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="22" r="T23">
+      <c s="21" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="22" r="V23">
+      <c s="21" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>88</v>
+      <c s="27" r="X23">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="22" r="Z23">
-        <v>46</v>
+      <c s="21" r="Z23">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="24" r="AB23">
-        <v>179</v>
+      <c s="19" r="AB23">
+        <v>157</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="24" r="AD23">
-        <v>179</v>
+      <c s="19" r="AD23">
+        <v>157</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A24">
+      <c s="15" t="inlineStr" r="A24">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="17" t="str" r="B24"/>
-      <c s="17" t="str" r="C24"/>
-      <c s="18" t="inlineStr" r="D24">
+      <c s="16" t="str" r="B24"/>
+      <c s="16" t="str" r="C24"/>
+      <c s="17" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="19" r="G24">
-        <v>231</v>
+      <c s="18" r="G24">
+        <v>224</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>43</v>
+      <c s="27" r="J24">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="28" r="L24">
-        <v>18</v>
+      <c s="27" r="L24">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="22" r="N24">
+      <c s="21" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="22" r="P24">
+      <c s="21" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="22" r="R24">
+      <c s="21" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="22" r="T24">
+      <c s="21" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="22" r="V24">
+      <c s="21" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>63</v>
+      <c s="27" r="X24">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="22" r="Z24">
-        <v>95</v>
+      <c s="21" r="Z24">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="28" r="AB24">
-        <v>201</v>
+      <c s="27" r="AB24">
+        <v>230</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="28" r="AD24">
-        <v>201</v>
+      <c s="27" r="AD24">
+        <v>230</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="23" t="str" r="A25"/>
-      <c s="18" t="inlineStr" r="D25">
+      <c s="22" t="str" r="A25"/>
+      <c s="17" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="19" r="G25">
-        <v>100</v>
+      <c s="18" r="G25">
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="28" r="J25">
-        <v>55</v>
+      <c s="27" r="J25">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="28" r="L25">
-        <v>18</v>
+      <c s="23" r="L25">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="22" r="N25">
+      <c s="21" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="22" r="P25">
+      <c s="21" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="22" r="R25">
+      <c s="21" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="22" r="T25">
+      <c s="21" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="22" r="V25">
+      <c s="21" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>98</v>
+      <c s="27" r="X25">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="22" r="Z25">
-        <v>137</v>
+      <c s="21" r="Z25">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="28" r="AB25">
-        <v>290</v>
+      <c s="23" r="AB25">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="28" r="AD25">
-        <v>290</v>
+      <c s="23" r="AD25">
+        <v>178</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
-      <c s="18" t="inlineStr" r="D26">
+      <c s="22" t="str" r="A26"/>
+      <c s="17" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="19" r="G26">
+      <c s="18" r="G26">
         <v>60</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="28" r="J26">
+      <c s="27" r="J26">
         <v>46</v>
       </c>
       <c s="5" t="str" r="K26"/>
       <c s="27" r="L26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="22" r="N26">
+      <c s="21" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="22" r="P26">
+      <c s="21" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="22" r="R26">
+      <c s="21" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="22" r="T26">
+      <c s="21" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="22" r="V26">
+      <c s="21" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>117</v>
+      <c s="27" r="X26">
+        <v>99</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="22" r="Z26">
-        <v>39</v>
+      <c s="21" r="Z26">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="28" r="AB26">
-        <v>203</v>
+      <c s="27" r="AB26">
+        <v>227</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="28" r="AD26">
-        <v>203</v>
+      <c s="27" r="AD26">
+        <v>227</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="25" t="str" r="A27"/>
-      <c s="26" t="str" r="B27"/>
-      <c s="26" t="str" r="C27"/>
-      <c s="18" t="inlineStr" r="D27">
+      <c s="24" t="str" r="A27"/>
+      <c s="25" t="str" r="B27"/>
+      <c s="25" t="str" r="C27"/>
+      <c s="17" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="19" r="G27">
-        <v>16</v>
+      <c s="18" r="G27">
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="27" r="J27">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="28" r="L27">
-        <v>12</v>
+      <c s="27" r="L27">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="22" r="N27">
+      <c s="21" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="22" r="P27">
+      <c s="21" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="22" r="R27">
+      <c s="21" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="22" r="T27">
+      <c s="21" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="22" r="V27">
+      <c s="21" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>80</v>
+      <c s="27" r="X27">
+        <v>123</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="22" r="Z27">
-        <v>22</v>
+      <c s="21" r="Z27">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="21" r="AB27">
-        <v>137</v>
+      <c s="27" r="AB27">
+        <v>258</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="21" r="AD27">
-        <v>137</v>
+      <c s="27" r="AD27">
+        <v>258</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A28">
+      <c s="15" t="inlineStr" r="A28">
         <is>
           <t xml:space="preserve">359042 LITITZ</t>
         </is>
       </c>
-      <c s="17" t="str" r="B28"/>
-      <c s="17" t="str" r="C28"/>
-      <c s="18" t="inlineStr" r="D28">
+      <c s="16" t="str" r="B28"/>
+      <c s="16" t="str" r="C28"/>
+      <c s="17" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="19" r="G28">
-        <v>186</v>
+      <c s="18" r="G28">
+        <v>202</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>43</v>
+      <c s="27" r="J28">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="28" r="L28">
-        <v>12</v>
+      <c s="23" r="L28">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="22" r="N28">
+      <c s="21" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="22" r="P28">
+      <c s="21" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="22" r="R28">
+      <c s="21" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="22" r="T28">
+      <c s="21" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="22" r="V28">
+      <c s="21" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>64</v>
+      <c s="27" r="X28">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="22" r="Z28">
-        <v>153</v>
+      <c s="21" r="Z28">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="28" r="AB28">
-        <v>261</v>
+      <c s="27" r="AB28">
+        <v>205</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="28" r="AD28">
-        <v>261</v>
+      <c s="27" r="AD28">
+        <v>205</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="23" t="str" r="A29"/>
-      <c s="18" t="inlineStr" r="D29">
+      <c s="22" t="str" r="A29"/>
+      <c s="17" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="19" r="G29">
-        <v>85</v>
+      <c s="18" r="G29">
+        <v>90</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="28" r="J29">
-        <v>43</v>
+      <c s="27" r="J29">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="24" r="L29">
-        <v>8</v>
+      <c s="19" r="L29">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="22" r="N29">
+      <c s="21" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="22" r="P29">
+      <c s="21" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="22" r="R29">
+      <c s="21" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="22" r="T29">
+      <c s="21" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="22" r="V29">
+      <c s="21" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="28" r="X29">
-        <v>83</v>
+      <c s="27" r="X29">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="22" r="Z29">
-        <v>109</v>
+      <c s="21" r="Z29">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="28" r="AB29">
-        <v>234</v>
+      <c s="23" r="AB29">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="28" r="AD29">
-        <v>234</v>
+      <c s="23" r="AD29">
+        <v>172</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
-      <c s="18" t="inlineStr" r="D30">
+      <c s="22" t="str" r="A30"/>
+      <c s="17" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="19" r="G30">
-        <v>62</v>
+      <c s="18" r="G30">
+        <v>43</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>58</v>
+      <c s="27" r="J30">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="28" r="L30">
-        <v>12</v>
+      <c s="19" r="L30">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="22" r="N30">
+      <c s="21" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="22" r="P30">
+      <c s="21" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="22" r="R30">
+      <c s="21" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="22" r="T30">
+      <c s="21" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="22" r="V30">
+      <c s="21" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>88</v>
+      <c s="27" r="X30">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="22" r="Z30">
-        <v>42</v>
+      <c s="21" r="Z30">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="27" r="AB30">
-        <v>187</v>
+      <c s="19" r="AB30">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="27" r="AD30">
-        <v>187</v>
+      <c s="19" r="AD30">
+        <v>164</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="25" t="str" r="A31"/>
-      <c s="26" t="str" r="B31"/>
-      <c s="26" t="str" r="C31"/>
-      <c s="18" t="inlineStr" r="D31">
+      <c s="24" t="str" r="A31"/>
+      <c s="25" t="str" r="B31"/>
+      <c s="25" t="str" r="C31"/>
+      <c s="17" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="19" r="G31">
-        <v>6</v>
+      <c s="18" r="G31">
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>67</v>
+      <c s="27" r="J31">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="20" r="L31">
+      <c s="19" r="L31">
         <v>6</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="22" r="N31">
+      <c s="21" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="22" r="P31">
+      <c s="21" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="22" r="R31">
+      <c s="21" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="22" r="T31">
+      <c s="21" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="22" r="V31">
+      <c s="21" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
+      <c s="27" r="X31">
+        <v>192</v>
+      </c>
+      <c s="5" t="str" r="Y31"/>
+      <c s="21" r="Z31">
         <v>131</v>
       </c>
-      <c s="5" t="str" r="Y31"/>
-      <c s="22" r="Z31">
-        <v>12</v>
-      </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>211</v>
+      <c s="27" r="AB31">
+        <v>371</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>211</v>
+      <c s="27" r="AD31">
+        <v>371</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A32">
+      <c s="15" t="inlineStr" r="A32">
         <is>
           <t xml:space="preserve">363271 </t>
         </is>
       </c>
-      <c s="17" t="str" r="B32"/>
-      <c s="17" t="str" r="C32"/>
-      <c s="18" t="inlineStr" r="D32">
+      <c s="16" t="str" r="B32"/>
+      <c s="16" t="str" r="C32"/>
+      <c s="17" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="19" r="G32">
-        <v>215</v>
+      <c s="18" r="G32">
+        <v>229</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="22" r="J32">
+      <c s="21" r="J32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="22" r="L32">
+      <c s="21" r="L32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="24" r="N32">
-        <v>27</v>
+      <c s="23" r="N32">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="21" r="P32">
+      <c s="20" r="P32">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
+      <c s="20" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
+      <c s="20" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="22" r="V32">
+      <c s="21" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>51</v>
+      <c s="27" r="X32">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="22" r="Z32">
-        <v>55</v>
+      <c s="21" r="Z32">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="21" r="AB32">
+      <c s="20" r="AB32">
         <v>133</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="21" r="AD32">
+      <c s="20" r="AD32">
         <v>133</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="23" t="str" r="A33"/>
-      <c s="18" t="inlineStr" r="D33">
+      <c s="22" t="str" r="A33"/>
+      <c s="17" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="19" r="G33">
-        <v>81</v>
+      <c s="18" r="G33">
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="22" r="J33">
+      <c s="21" r="J33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="22" r="L33">
+      <c s="21" r="L33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="27" r="N33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="21" r="P33">
-        <v>2</v>
+      <c s="19" r="P33">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="22" r="R33">
+      <c s="20" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="22" r="T33">
+      <c s="20" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="22" r="V33">
+      <c s="21" r="V33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>81</v>
+      <c s="27" r="X33">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="22" r="Z33">
-        <v>74</v>
+      <c s="21" r="Z33">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="27" r="AB33">
-        <v>187</v>
+      <c s="19" r="AB33">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="27" r="AD33">
-        <v>187</v>
+      <c s="19" r="AD33">
+        <v>164</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
-      <c s="18" t="inlineStr" r="D34">
+      <c s="22" t="str" r="A34"/>
+      <c s="17" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="19" r="G34">
-        <v>61</v>
+      <c s="18" r="G34">
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="22" r="J34">
+      <c s="21" r="J34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="22" r="L34">
+      <c s="21" r="L34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="28" r="N34">
-        <v>44</v>
+      <c s="26" r="N34">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="24" r="P34">
-        <v>7</v>
+      <c s="20" r="P34">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
+      <c s="21" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="22" r="T34">
+      <c s="21" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="22" r="V34">
+      <c s="21" r="V34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>91</v>
+      <c s="27" r="X34">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="22" r="Z34">
-        <v>59</v>
+      <c s="21" r="Z34">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="27" r="AB34">
-        <v>194</v>
+      <c s="20" r="AB34">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="27" r="AD34">
-        <v>194</v>
+      <c s="20" r="AD34">
+        <v>119</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="25" t="str" r="A35"/>
-      <c s="26" t="str" r="B35"/>
-      <c s="26" t="str" r="C35"/>
-      <c s="18" t="inlineStr" r="D35">
+      <c s="24" t="str" r="A35"/>
+      <c s="25" t="str" r="B35"/>
+      <c s="25" t="str" r="C35"/>
+      <c s="17" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="19" r="G35">
-        <v>14</v>
+      <c s="18" r="G35">
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="22" r="J35">
+      <c s="21" r="J35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="22" r="L35">
+      <c s="21" r="L35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="28" r="N35">
-        <v>41</v>
+      <c s="19" r="N35">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="20" r="P35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q35"/>
       <c s="21" r="R35">
@@ -2269,264 +2266,264 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="22" r="V35">
+      <c s="21" r="V35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>128</v>
+      <c s="26" r="X35">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="22" r="Z35">
-        <v>39</v>
+      <c s="21" r="Z35">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="28" r="AB35">
-        <v>208</v>
+      <c s="20" r="AB35">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="28" r="AD35">
-        <v>208</v>
+      <c s="20" r="AD35">
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A36">
+      <c s="15" t="inlineStr" r="A36">
         <is>
           <t xml:space="preserve">364322 elizabethtown</t>
         </is>
       </c>
-      <c s="17" t="str" r="B36"/>
-      <c s="17" t="str" r="C36"/>
-      <c s="18" t="inlineStr" r="D36">
+      <c s="16" t="str" r="B36"/>
+      <c s="16" t="str" r="C36"/>
+      <c s="17" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="19" r="G36">
+      <c s="18" r="G36">
         <v>242</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="21" r="J36">
-        <v>24</v>
+      <c s="20" r="J36">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
-        <v>2</v>
+      <c s="20" r="L36">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="22" r="N36">
+      <c s="21" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="22" r="P36">
+      <c s="21" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="22" r="R36">
+      <c s="21" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="22" r="T36">
+      <c s="21" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="20" r="V36">
-        <v>18</v>
+      <c s="23" r="V36">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>48</v>
+      <c s="27" r="X36">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="22" r="Z36">
-        <v>57</v>
+      <c s="21" r="Z36">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="21" r="AB36">
-        <v>146</v>
+      <c s="19" r="AB36">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="21" r="AD36">
-        <v>146</v>
+      <c s="19" r="AD36">
+        <v>172</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="23" t="str" r="A37"/>
-      <c s="18" t="inlineStr" r="D37">
+      <c s="22" t="str" r="A37"/>
+      <c s="17" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="19" r="G37">
-        <v>105</v>
+      <c s="18" r="G37">
+        <v>106</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="21" r="J37">
-        <v>29</v>
+      <c s="20" r="J37">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="21" r="L37">
+      <c s="20" r="L37">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="22" r="N37">
+      <c s="21" r="N37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="22" r="P37">
+      <c s="21" r="P37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="22" r="R37">
+      <c s="21" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="22" r="T37">
+      <c s="21" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="21" r="V37">
-        <v>10</v>
+      <c s="19" r="V37">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>63</v>
+      <c s="27" r="X37">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="22" r="Z37">
-        <v>41</v>
+      <c s="21" r="Z37">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="21" r="AB37">
-        <v>142</v>
+      <c s="19" r="AB37">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="21" r="AD37">
-        <v>142</v>
+      <c s="19" r="AD37">
+        <v>164</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
-      <c s="18" t="inlineStr" r="D38">
+      <c s="22" t="str" r="A38"/>
+      <c s="17" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="19" r="G38">
-        <v>75</v>
+      <c s="18" r="G38">
+        <v>68</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="20" r="J38">
-        <v>33</v>
+      <c s="23" r="J38">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="21" r="L38">
-        <v>3</v>
+      <c s="19" r="L38">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="22" r="N38">
+      <c s="21" r="N38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="22" r="P38">
+      <c s="21" r="P38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
+      <c s="21" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="22" r="T38">
+      <c s="21" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="21" r="V38">
-        <v>8</v>
+      <c s="20" r="V38">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>66</v>
+      <c s="27" r="X38">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="22" r="Z38">
-        <v>39</v>
+      <c s="21" r="Z38">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="21" r="AB38">
-        <v>146</v>
+      <c s="23" r="AB38">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="21" r="AD38">
-        <v>146</v>
+      <c s="23" r="AD38">
+        <v>186</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="25" t="str" r="A39"/>
-      <c s="26" t="str" r="B39"/>
-      <c s="26" t="str" r="C39"/>
-      <c s="18" t="inlineStr" r="D39">
+      <c s="24" t="str" r="A39"/>
+      <c s="25" t="str" r="B39"/>
+      <c s="25" t="str" r="C39"/>
+      <c s="17" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="19" r="G39">
-        <v>18</v>
+      <c s="18" r="G39">
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
       <c s="20" r="J39">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
-        <v>4</v>
+      <c s="19" r="L39">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="22" r="N39">
+      <c s="21" r="N39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="22" r="P39">
+      <c s="21" r="P39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="22" r="R39">
+      <c s="21" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="22" r="T39">
+      <c s="21" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="21" r="V39">
+      <c s="20" r="V39">
         <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>72</v>
+      <c s="27" r="X39">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="22" r="Z39">
-        <v>11</v>
+      <c s="21" r="Z39">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>119</v>
+      <c s="20" r="AB39">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>119</v>
+      <c s="20" r="AD39">
+        <v>100</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2932,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/23/2025 12:27:03 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/25/2025 12:32:20 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,8 +146,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,8 +158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,6 +303,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -336,14 +339,14 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -372,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00B40000"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00E35454"/>
-      <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -517,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 09/24/2025</t>
+          <t xml:space="preserve">Day: 09/28/2025</t>
         </is>
       </c>
     </row>
@@ -613,10 +616,10 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c s="8" r="F7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
@@ -643,19 +646,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="8" r="S7">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -669,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c s="11" r="F8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -699,19 +702,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>129</v>
+      <c s="8" r="W8">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>129</v>
+      <c s="8" r="Y8">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -725,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c s="12" r="F9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="12" r="H9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -755,19 +758,19 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="12" r="W9">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c s="5" t="str" r="X9"/>
       <c s="12" r="Y9">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -781,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c s="12" r="F10">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="11" r="H10">
-        <v>7</v>
+      <c s="13" r="H10">
+        <v>9</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -811,19 +814,19 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="12" r="W10">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="12" r="Y10">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -837,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -846,12 +849,12 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="11" r="I11">
-        <v>29</v>
+      <c s="12" r="I11">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="9" r="M11">
@@ -867,19 +870,19 @@
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>136</v>
+      <c s="12" r="W11">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="9" r="Y11">
-        <v>136</v>
+      <c s="12" r="Y11">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -893,14 +896,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c s="8" r="F12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -919,7 +922,7 @@
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="8" r="Q12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
@@ -927,21 +930,21 @@
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="V12"/>
       <c s="8" r="W12">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c s="5" t="str" r="X12"/>
       <c s="8" r="Y12">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="4.95" customHeight="1"/>
     <row r="14" ht="32.25" customHeight="0">
-      <c s="13" t="inlineStr" r="A14">
+      <c s="14" t="inlineStr" r="A14">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -962,1568 +965,1568 @@
       </c>
       <c s="4" t="str" r="H14"/>
       <c s="5" t="str" r="I14"/>
-      <c s="14" t="inlineStr" r="J14">
+      <c s="15" t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K14"/>
-      <c s="14" t="inlineStr" r="L14">
+      <c s="15" t="inlineStr" r="L14">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M14"/>
-      <c s="14" t="inlineStr" r="N14">
+      <c s="15" t="inlineStr" r="N14">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O14"/>
-      <c s="14" t="inlineStr" r="P14">
+      <c s="15" t="inlineStr" r="P14">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q14"/>
-      <c s="14" t="inlineStr" r="R14">
+      <c s="15" t="inlineStr" r="R14">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S14"/>
-      <c s="14" t="inlineStr" r="T14">
+      <c s="15" t="inlineStr" r="T14">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U14"/>
-      <c s="14" t="inlineStr" r="V14">
+      <c s="15" t="inlineStr" r="V14">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W14"/>
-      <c s="14" t="inlineStr" r="X14">
+      <c s="15" t="inlineStr" r="X14">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y14"/>
-      <c s="14" t="inlineStr" r="Z14">
+      <c s="15" t="inlineStr" r="Z14">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA14"/>
-      <c s="14" t="inlineStr" r="AB14">
+      <c s="15" t="inlineStr" r="AB14">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC14"/>
-      <c s="14" t="inlineStr" r="AD14">
+      <c s="15" t="inlineStr" r="AD14">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A15">
+      <c s="16" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">343939 Mt.Joy</t>
         </is>
       </c>
-      <c s="16" t="str" r="B15"/>
-      <c s="16" t="str" r="C15"/>
-      <c s="17" t="inlineStr" r="D15">
+      <c s="17" t="str" r="B15"/>
+      <c s="17" t="str" r="C15"/>
+      <c s="18" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="18" r="G15">
-        <v>198</v>
+      <c s="19" r="G15">
+        <v>141</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="19" r="J15">
-        <v>22</v>
+      <c s="20" r="J15">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="20" r="L15">
+      <c s="21" r="L15">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="21" r="N15">
+      <c s="22" r="N15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="21" r="P15">
+      <c s="22" r="P15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="21" r="R15">
+      <c s="22" r="R15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="21" r="T15">
+      <c s="22" r="T15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="21" r="V15">
+      <c s="22" r="V15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="19" r="X15">
-        <v>36</v>
+      <c s="20" r="X15">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="21" r="Z15">
-        <v>26</v>
+      <c s="22" r="Z15">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="20" r="AB15">
-        <v>86</v>
+      <c s="21" r="AB15">
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="20" r="AD15">
-        <v>42</v>
+      <c s="21" r="AD15">
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="22" t="str" r="A16"/>
-      <c s="17" t="inlineStr" r="D16">
+      <c s="23" t="str" r="A16"/>
+      <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="18" r="G16">
-        <v>85</v>
+      <c s="19" r="G16">
+        <v>129</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="19" r="J16">
-        <v>26</v>
+      <c s="20" r="J16">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>2</v>
+      <c s="21" r="L16">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="21" r="N16">
+      <c s="22" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="21" r="P16">
+      <c s="22" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="21" r="R16">
+      <c s="22" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="21" r="T16">
+      <c s="22" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="21" r="V16">
+      <c s="22" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="19" r="X16">
-        <v>48</v>
+      <c s="20" r="X16">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="21" r="Z16">
-        <v>28</v>
+      <c s="22" r="Z16">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="20" r="AB16">
-        <v>103</v>
+      <c s="21" r="AB16">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="20" r="AD16">
-        <v>51</v>
+      <c s="21" r="AD16">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="22" t="str" r="A17"/>
-      <c s="17" t="inlineStr" r="D17">
+      <c s="23" t="str" r="A17"/>
+      <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="18" r="G17">
-        <v>53</v>
+      <c s="19" r="G17">
+        <v>42</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="19" r="J17">
-        <v>30</v>
+      <c s="20" r="J17">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>4</v>
+      <c s="21" r="L17">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="21" r="N17">
+      <c s="22" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="21" r="P17">
+      <c s="22" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="21" r="R17">
+      <c s="22" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="21" r="T17">
+      <c s="22" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="21" r="V17">
+      <c s="22" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="23" r="X17">
-        <v>81</v>
+      <c s="24" r="X17">
+        <v>96</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="21" r="Z17">
-        <v>33</v>
+      <c s="22" r="Z17">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="20" r="AB17">
-        <v>145</v>
+      <c s="25" r="AB17">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>72</v>
+      <c s="21" r="AD17">
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="24" t="str" r="A18"/>
-      <c s="25" t="str" r="B18"/>
-      <c s="25" t="str" r="C18"/>
-      <c s="17" t="inlineStr" r="D18">
+      <c s="26" t="str" r="A18"/>
+      <c s="27" t="str" r="B18"/>
+      <c s="27" t="str" r="C18"/>
+      <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="18" r="G18">
+      <c s="19" r="G18">
         <v>16</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="19" r="J18">
-        <v>22</v>
+      <c s="20" r="J18">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
-        <v>2</v>
+      <c s="21" r="L18">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="21" r="N18">
+      <c s="22" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="21" r="P18">
+      <c s="22" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="21" r="R18">
+      <c s="22" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="21" r="T18">
+      <c s="22" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="21" r="V18">
+      <c s="22" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="23" r="X18">
-        <v>75</v>
+      <c s="20" r="X18">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="21" r="Z18">
-        <v>13</v>
+      <c s="22" r="Z18">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="20" r="AB18">
-        <v>111</v>
+      <c s="21" r="AB18">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="20" r="AD18">
-        <v>55</v>
+      <c s="21" r="AD18">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A19">
+      <c s="16" t="inlineStr" r="A19">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="16" t="str" r="B19"/>
-      <c s="16" t="str" r="C19"/>
-      <c s="17" t="inlineStr" r="D19">
+      <c s="17" t="str" r="B19"/>
+      <c s="17" t="str" r="C19"/>
+      <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="18" r="G19">
-        <v>13</v>
+      <c s="19" r="G19">
+        <v>4</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="26" r="J19">
-        <v>33</v>
+      <c s="21" r="J19">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="23" r="L19">
-        <v>7</v>
+      <c s="21" r="L19">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="21" r="N19">
+      <c s="22" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="21" r="P19">
+      <c s="22" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="21" r="R19">
+      <c s="22" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="21" r="T19">
+      <c s="22" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="21" r="V19">
+      <c s="22" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="27" r="X19">
-        <v>65</v>
+      <c s="24" r="X19">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="21" r="Z19">
-        <v>83</v>
+      <c s="22" r="Z19">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="26" r="AB19">
-        <v>181</v>
+      <c s="21" r="AB19">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="26" r="AD19">
-        <v>181</v>
+      <c s="21" r="AD19">
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="22" t="str" r="A20"/>
-      <c s="17" t="inlineStr" r="D20">
+      <c s="23" t="str" r="A20"/>
+      <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="18" r="G20">
-        <v>303</v>
+      <c s="19" r="G20">
+        <v>199</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="23" r="J20">
-        <v>25</v>
+      <c s="24" r="J20">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="20" r="L20">
-        <v>1</v>
+      <c s="21" r="L20">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="21" r="N20">
+      <c s="22" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="21" r="P20">
+      <c s="22" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="21" r="R20">
+      <c s="22" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="21" r="T20">
+      <c s="22" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="21" r="V20">
+      <c s="22" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="23" r="X20">
-        <v>36</v>
+      <c s="28" r="X20">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="21" r="Z20">
-        <v>56</v>
+      <c s="22" r="Z20">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="20" r="AB20">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="20" r="AD20">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="22" t="str" r="A21"/>
-      <c s="17" t="inlineStr" r="D21">
+      <c s="23" t="str" r="A21"/>
+      <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="18" r="G21">
-        <v>103</v>
+      <c s="19" r="G21">
+        <v>168</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="27" r="J21">
-        <v>37</v>
+      <c s="28" r="J21">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="20" r="L21">
+      <c s="21" r="L21">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="21" r="N21">
+      <c s="22" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="21" r="P21">
+      <c s="22" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="21" r="R21">
+      <c s="22" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="21" r="T21">
+      <c s="22" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="21" r="V21">
+      <c s="22" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="27" r="X21">
-        <v>58</v>
+      <c s="28" r="X21">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="21" r="Z21">
-        <v>34</v>
+      <c s="22" r="Z21">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="20" r="AB21">
-        <v>129</v>
+      <c s="25" r="AB21">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="20" r="AD21">
-        <v>129</v>
+      <c s="25" r="AD21">
+        <v>166</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="22" t="str" r="A22"/>
-      <c s="17" t="inlineStr" r="D22">
+      <c s="23" t="str" r="A22"/>
+      <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="18" r="G22">
-        <v>92</v>
+      <c s="19" r="G22">
+        <v>68</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="27" r="J22">
-        <v>35</v>
+      <c s="24" r="J22">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="20" r="L22">
-        <v>1</v>
+      <c s="21" r="L22">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="21" r="N22">
+      <c s="22" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="21" r="P22">
+      <c s="22" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="21" r="R22">
+      <c s="22" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="21" r="T22">
+      <c s="22" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="21" r="V22">
+      <c s="22" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="27" r="X22">
-        <v>72</v>
+      <c s="28" r="X22">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="21" r="Z22">
-        <v>46</v>
+      <c s="22" r="Z22">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="19" r="AB22">
-        <v>153</v>
+      <c s="21" r="AB22">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="19" r="AD22">
-        <v>153</v>
+      <c s="21" r="AD22">
+        <v>135</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="24" t="str" r="A23"/>
-      <c s="25" t="str" r="B23"/>
-      <c s="25" t="str" r="C23"/>
-      <c s="17" t="inlineStr" r="D23">
+      <c s="26" t="str" r="A23"/>
+      <c s="27" t="str" r="B23"/>
+      <c s="27" t="str" r="C23"/>
+      <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="18" r="G23">
-        <v>13</v>
+      <c s="19" r="G23">
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="26" r="J23">
-        <v>30</v>
+      <c s="28" r="J23">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="20" r="L23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="21" r="N23">
+      <c s="22" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="21" r="P23">
+      <c s="22" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="21" r="R23">
+      <c s="22" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="21" r="T23">
+      <c s="22" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="21" r="V23">
+      <c s="22" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="27" r="X23">
-        <v>67</v>
+      <c s="28" r="X23">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="21" r="Z23">
-        <v>60</v>
+      <c s="22" r="Z23">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="19" r="AB23">
-        <v>157</v>
+      <c s="20" r="AB23">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="19" r="AD23">
-        <v>157</v>
+      <c s="20" r="AD23">
+        <v>154</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A24">
+      <c s="16" t="inlineStr" r="A24">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="16" t="str" r="B24"/>
-      <c s="16" t="str" r="C24"/>
-      <c s="17" t="inlineStr" r="D24">
+      <c s="17" t="str" r="B24"/>
+      <c s="17" t="str" r="C24"/>
+      <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="18" r="G24">
-        <v>224</v>
+      <c s="19" r="G24">
+        <v>179</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="27" r="J24">
-        <v>52</v>
+      <c s="28" r="J24">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="27" r="L24">
-        <v>24</v>
+      <c s="28" r="L24">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="21" r="N24">
+      <c s="22" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="21" r="P24">
+      <c s="22" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="21" r="R24">
+      <c s="22" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="21" r="T24">
+      <c s="22" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="21" r="V24">
+      <c s="22" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="27" r="X24">
-        <v>64</v>
+      <c s="28" r="X24">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="21" r="Z24">
-        <v>114</v>
+      <c s="22" r="Z24">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="27" r="AB24">
-        <v>230</v>
+      <c s="28" r="AB24">
+        <v>200</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="27" r="AD24">
-        <v>230</v>
+      <c s="28" r="AD24">
+        <v>200</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="22" t="str" r="A25"/>
-      <c s="17" t="inlineStr" r="D25">
+      <c s="23" t="str" r="A25"/>
+      <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="18" r="G25">
-        <v>84</v>
+      <c s="19" r="G25">
+        <v>143</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="27" r="J25">
-        <v>39</v>
+      <c s="28" r="J25">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="23" r="L25">
-        <v>9</v>
+      <c s="28" r="L25">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="21" r="N25">
+      <c s="22" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="21" r="P25">
+      <c s="22" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="21" r="R25">
+      <c s="22" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="21" r="T25">
+      <c s="22" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="21" r="V25">
+      <c s="22" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="27" r="X25">
-        <v>88</v>
+      <c s="28" r="X25">
+        <v>93</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="21" r="Z25">
-        <v>51</v>
+      <c s="22" r="Z25">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="23" r="AB25">
-        <v>178</v>
+      <c s="28" r="AB25">
+        <v>321</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="23" r="AD25">
-        <v>178</v>
+      <c s="28" r="AD25">
+        <v>321</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="22" t="str" r="A26"/>
-      <c s="17" t="inlineStr" r="D26">
+      <c s="23" t="str" r="A26"/>
+      <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="18" r="G26">
-        <v>60</v>
+      <c s="19" r="G26">
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="27" r="J26">
-        <v>46</v>
+      <c s="28" r="J26">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="27" r="L26">
-        <v>14</v>
+      <c s="28" r="L26">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="21" r="N26">
+      <c s="22" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="21" r="P26">
+      <c s="22" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="21" r="R26">
+      <c s="22" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="21" r="T26">
+      <c s="22" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="21" r="V26">
+      <c s="22" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="27" r="X26">
+      <c s="28" r="X26">
+        <v>143</v>
+      </c>
+      <c s="5" t="str" r="Y26"/>
+      <c s="22" r="Z26">
         <v>99</v>
       </c>
-      <c s="5" t="str" r="Y26"/>
-      <c s="21" r="Z26">
-        <v>81</v>
-      </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="27" r="AB26">
-        <v>227</v>
+      <c s="28" r="AB26">
+        <v>298</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="27" r="AD26">
-        <v>227</v>
+      <c s="28" r="AD26">
+        <v>298</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="24" t="str" r="A27"/>
-      <c s="25" t="str" r="B27"/>
-      <c s="25" t="str" r="C27"/>
-      <c s="17" t="inlineStr" r="D27">
+      <c s="26" t="str" r="A27"/>
+      <c s="27" t="str" r="B27"/>
+      <c s="27" t="str" r="C27"/>
+      <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="18" r="G27">
-        <v>20</v>
+      <c s="19" r="G27">
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="27" r="J27">
-        <v>65</v>
+      <c s="28" r="J27">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="27" r="L27">
-        <v>14</v>
+      <c s="21" r="L27">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="21" r="N27">
+      <c s="22" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="21" r="P27">
+      <c s="22" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="21" r="R27">
+      <c s="22" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="21" r="T27">
+      <c s="22" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="21" r="V27">
+      <c s="22" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="27" r="X27">
-        <v>123</v>
+      <c s="28" r="X27">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="21" r="Z27">
-        <v>69</v>
+      <c s="22" r="Z27">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="27" r="AB27">
-        <v>258</v>
+      <c s="21" r="AB27">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="27" r="AD27">
-        <v>258</v>
+      <c s="21" r="AD27">
+        <v>148</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A28">
+      <c s="16" t="inlineStr" r="A28">
         <is>
           <t xml:space="preserve">359042 LITITZ</t>
         </is>
       </c>
-      <c s="16" t="str" r="B28"/>
-      <c s="16" t="str" r="C28"/>
-      <c s="17" t="inlineStr" r="D28">
+      <c s="17" t="str" r="B28"/>
+      <c s="17" t="str" r="C28"/>
+      <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="18" r="G28">
-        <v>202</v>
+      <c s="19" r="G28">
+        <v>145</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="27" r="J28">
-        <v>35</v>
+      <c s="28" r="J28">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="23" r="L28">
+      <c s="25" r="L28">
         <v>8</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="21" r="N28">
+      <c s="22" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="21" r="P28">
+      <c s="22" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="21" r="R28">
+      <c s="22" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="21" r="T28">
+      <c s="22" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="21" r="V28">
+      <c s="22" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="27" r="X28">
-        <v>56</v>
+      <c s="28" r="X28">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="21" r="Z28">
-        <v>114</v>
+      <c s="22" r="Z28">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="27" r="AB28">
-        <v>205</v>
+      <c s="24" r="AB28">
+        <v>187</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="27" r="AD28">
-        <v>205</v>
+      <c s="24" r="AD28">
+        <v>187</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="22" t="str" r="A29"/>
-      <c s="17" t="inlineStr" r="D29">
+      <c s="23" t="str" r="A29"/>
+      <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="18" r="G29">
-        <v>90</v>
+      <c s="19" r="G29">
+        <v>126</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="27" r="J29">
-        <v>38</v>
+      <c s="28" r="J29">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="19" r="L29">
-        <v>5</v>
+      <c s="24" r="L29">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="21" r="N29">
+      <c s="22" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="21" r="P29">
+      <c s="22" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="21" r="R29">
+      <c s="22" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="21" r="T29">
+      <c s="22" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="21" r="V29">
+      <c s="22" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="27" r="X29">
-        <v>70</v>
+      <c s="28" r="X29">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="21" r="Z29">
-        <v>64</v>
+      <c s="22" r="Z29">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="23" r="AB29">
-        <v>172</v>
+      <c s="28" r="AB29">
+        <v>259</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="23" r="AD29">
-        <v>172</v>
+      <c s="28" r="AD29">
+        <v>259</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="22" t="str" r="A30"/>
-      <c s="17" t="inlineStr" r="D30">
+      <c s="23" t="str" r="A30"/>
+      <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="18" r="G30">
-        <v>43</v>
+      <c s="19" r="G30">
+        <v>46</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="27" r="J30">
-        <v>38</v>
+      <c s="28" r="J30">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="19" r="L30">
-        <v>6</v>
+      <c s="25" r="L30">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="21" r="N30">
+      <c s="22" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="21" r="P30">
+      <c s="22" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="21" r="R30">
+      <c s="22" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="21" r="T30">
+      <c s="22" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="21" r="V30">
+      <c s="22" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="27" r="X30">
-        <v>100</v>
+      <c s="28" r="X30">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="21" r="Z30">
-        <v>26</v>
+      <c s="22" r="Z30">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="19" r="AB30">
-        <v>164</v>
+      <c s="28" r="AB30">
+        <v>222</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="19" r="AD30">
-        <v>164</v>
+      <c s="28" r="AD30">
+        <v>222</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="24" t="str" r="A31"/>
-      <c s="25" t="str" r="B31"/>
-      <c s="25" t="str" r="C31"/>
-      <c s="17" t="inlineStr" r="D31">
+      <c s="26" t="str" r="A31"/>
+      <c s="27" t="str" r="B31"/>
+      <c s="27" t="str" r="C31"/>
+      <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="18" r="G31">
-        <v>12</v>
+      <c s="19" r="G31">
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="27" r="J31">
-        <v>47</v>
+      <c s="28" r="J31">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="19" r="L31">
-        <v>6</v>
+      <c s="25" r="L31">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="21" r="N31">
+      <c s="22" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="21" r="P31">
+      <c s="22" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="21" r="R31">
+      <c s="22" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="21" r="T31">
+      <c s="22" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="21" r="V31">
+      <c s="22" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="27" r="X31">
-        <v>192</v>
+      <c s="28" r="X31">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="21" r="Z31">
-        <v>131</v>
+      <c s="22" r="Z31">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="27" r="AB31">
-        <v>371</v>
+      <c s="28" r="AB31">
+        <v>216</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="27" r="AD31">
-        <v>371</v>
+      <c s="28" r="AD31">
+        <v>216</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A32">
+      <c s="16" t="inlineStr" r="A32">
         <is>
           <t xml:space="preserve">363271 </t>
         </is>
       </c>
-      <c s="16" t="str" r="B32"/>
-      <c s="16" t="str" r="C32"/>
-      <c s="17" t="inlineStr" r="D32">
+      <c s="17" t="str" r="B32"/>
+      <c s="17" t="str" r="C32"/>
+      <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="18" r="G32">
-        <v>229</v>
+      <c s="19" r="G32">
+        <v>133</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="21" r="J32">
+      <c s="22" r="J32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="21" r="L32">
+      <c s="22" r="L32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="23" r="N32">
-        <v>25</v>
+      <c s="28" r="N32">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="20" r="P32">
+      <c s="21" r="P32">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="20" r="R32">
+      <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="20" r="T32">
+      <c s="22" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="21" r="V32">
+      <c s="22" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="27" r="X32">
-        <v>50</v>
+      <c s="28" r="X32">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="21" r="Z32">
-        <v>58</v>
+      <c s="22" r="Z32">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="20" r="AB32">
-        <v>133</v>
+      <c s="24" r="AB32">
+        <v>184</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="20" r="AD32">
-        <v>133</v>
+      <c s="24" r="AD32">
+        <v>184</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="22" t="str" r="A33"/>
-      <c s="17" t="inlineStr" r="D33">
+      <c s="23" t="str" r="A33"/>
+      <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="18" r="G33">
-        <v>84</v>
+      <c s="19" r="G33">
+        <v>125</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="21" r="J33">
+      <c s="22" r="J33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="21" r="L33">
+      <c s="22" r="L33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="27" r="N33">
-        <v>40</v>
+      <c s="28" r="N33">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="19" r="P33">
-        <v>6</v>
+      <c s="21" r="P33">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="20" r="R33">
+      <c s="21" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="20" r="T33">
+      <c s="21" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="21" r="V33">
+      <c s="22" r="V33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="27" r="X33">
-        <v>77</v>
+      <c s="28" r="X33">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="21" r="Z33">
-        <v>50</v>
+      <c s="22" r="Z33">
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="19" r="AB33">
-        <v>164</v>
+      <c s="28" r="AB33">
+        <v>241</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="19" r="AD33">
-        <v>164</v>
+      <c s="28" r="AD33">
+        <v>241</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="22" t="str" r="A34"/>
-      <c s="17" t="inlineStr" r="D34">
+      <c s="23" t="str" r="A34"/>
+      <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="18" r="G34">
-        <v>54</v>
+      <c s="19" r="G34">
+        <v>52</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="21" r="J34">
+      <c s="22" r="J34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="21" r="L34">
+      <c s="22" r="L34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="26" r="N34">
-        <v>32</v>
+      <c s="28" r="N34">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="O34"/>
       <c s="20" r="P34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="21" r="T34">
+      <c s="22" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
+      <c s="22" r="V34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="27" r="X34">
-        <v>61</v>
+      <c s="28" r="X34">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="21" r="Z34">
-        <v>27</v>
+      <c s="22" r="Z34">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="20" r="AB34">
-        <v>119</v>
+      <c s="25" r="AB34">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>119</v>
+      <c s="25" r="AD34">
+        <v>174</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="24" t="str" r="A35"/>
-      <c s="25" t="str" r="B35"/>
-      <c s="25" t="str" r="C35"/>
-      <c s="17" t="inlineStr" r="D35">
+      <c s="26" t="str" r="A35"/>
+      <c s="27" t="str" r="B35"/>
+      <c s="27" t="str" r="C35"/>
+      <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="18" r="G35">
-        <v>11</v>
+      <c s="19" r="G35">
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="21" r="J35">
+      <c s="22" r="J35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="21" r="L35">
+      <c s="22" r="L35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="19" r="N35">
-        <v>24</v>
+      <c s="25" r="N35">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="20" r="P35">
-        <v>4</v>
+      <c s="21" r="P35">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
+      <c s="22" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
+      <c s="22" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
+      <c s="22" r="V35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="26" r="X35">
-        <v>43</v>
+      <c s="28" r="X35">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="21" r="Z35">
-        <v>15</v>
+      <c s="22" r="Z35">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="20" r="AB35">
-        <v>83</v>
+      <c s="21" r="AB35">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="20" r="AD35">
-        <v>83</v>
+      <c s="21" r="AD35">
+        <v>87</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A36">
+      <c s="16" t="inlineStr" r="A36">
         <is>
           <t xml:space="preserve">364322 elizabethtown</t>
         </is>
       </c>
-      <c s="16" t="str" r="B36"/>
-      <c s="16" t="str" r="C36"/>
-      <c s="17" t="inlineStr" r="D36">
+      <c s="17" t="str" r="B36"/>
+      <c s="17" t="str" r="C36"/>
+      <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="18" r="G36">
-        <v>242</v>
+      <c s="19" r="G36">
+        <v>172</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
       <c s="20" r="J36">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
+      <c s="21" r="L36">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="21" r="N36">
+      <c s="22" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="21" r="P36">
+      <c s="22" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="21" r="R36">
+      <c s="22" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="21" r="T36">
+      <c s="22" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="23" r="V36">
-        <v>21</v>
+      <c s="20" r="V36">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="27" r="X36">
-        <v>51</v>
+      <c s="28" r="X36">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="21" r="Z36">
-        <v>73</v>
+      <c s="22" r="Z36">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="19" r="AB36">
-        <v>172</v>
+      <c s="20" r="AB36">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="19" r="AD36">
-        <v>172</v>
+      <c s="20" r="AD36">
+        <v>161</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="22" t="str" r="A37"/>
-      <c s="17" t="inlineStr" r="D37">
+      <c s="23" t="str" r="A37"/>
+      <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="18" r="G37">
-        <v>106</v>
+      <c s="19" r="G37">
+        <v>185</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
       <c s="20" r="J37">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="20" r="L37">
-        <v>2</v>
+      <c s="21" r="L37">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="21" r="N37">
+      <c s="22" r="N37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="21" r="P37">
+      <c s="22" r="P37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
+      <c s="22" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="21" r="T37">
+      <c s="22" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="19" r="V37">
-        <v>15</v>
+      <c s="25" r="V37">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="27" r="X37">
-        <v>69</v>
+      <c s="28" r="X37">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="21" r="Z37">
-        <v>54</v>
+      <c s="22" r="Z37">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="19" r="AB37">
-        <v>164</v>
+      <c s="25" r="AB37">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="19" r="AD37">
-        <v>164</v>
+      <c s="25" r="AD37">
+        <v>199</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="22" t="str" r="A38"/>
-      <c s="17" t="inlineStr" r="D38">
+      <c s="23" t="str" r="A38"/>
+      <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="18" r="G38">
-        <v>68</v>
+      <c s="19" r="G38">
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="23" r="J38">
-        <v>41</v>
+      <c s="25" r="J38">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="19" r="L38">
-        <v>9</v>
+      <c s="21" r="L38">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="21" r="N38">
+      <c s="22" r="N38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="21" r="P38">
+      <c s="22" r="P38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
+      <c s="22" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
+      <c s="22" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="20" r="V38">
-        <v>10</v>
+      <c s="21" r="V38">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="27" r="X38">
-        <v>84</v>
+      <c s="28" r="X38">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="21" r="Z38">
-        <v>52</v>
+      <c s="22" r="Z38">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="23" r="AB38">
-        <v>186</v>
+      <c s="20" r="AB38">
+        <v>158</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="23" r="AD38">
-        <v>186</v>
+      <c s="20" r="AD38">
+        <v>158</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="24" t="str" r="A39"/>
-      <c s="25" t="str" r="B39"/>
-      <c s="25" t="str" r="C39"/>
-      <c s="17" t="inlineStr" r="D39">
+      <c s="26" t="str" r="A39"/>
+      <c s="27" t="str" r="B39"/>
+      <c s="27" t="str" r="C39"/>
+      <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="18" r="G39">
-        <v>17</v>
+      <c s="19" r="G39">
+        <v>25</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="20" r="J39">
-        <v>27</v>
+      <c s="21" r="J39">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="19" r="L39">
-        <v>7</v>
+      <c s="21" r="L39">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="21" r="N39">
+      <c s="22" r="N39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="21" r="P39">
+      <c s="22" r="P39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
+      <c s="22" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
+      <c s="22" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="20" r="V39">
-        <v>2</v>
+      <c s="21" r="V39">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="27" r="X39">
-        <v>57</v>
+      <c s="28" r="X39">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="21" r="Z39">
-        <v>15</v>
+      <c s="22" r="Z39">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>100</v>
+      <c s="21" r="AB39">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>100</v>
+      <c s="21" r="AD39">
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2932,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/25/2025 12:32:20 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/29/2025 12:32:39 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 09/28/2025</t>
+          <t xml:space="preserve">Day: 10/02/2025</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>328</v>
+        <v>401</v>
       </c>
       <c s="8" r="F7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -646,19 +646,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="8" r="S7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>453</v>
+        <v>572</v>
       </c>
       <c s="11" r="F8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -702,19 +702,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="8" r="W8">
-        <v>156</v>
+      <c s="9" r="W8">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="8" r="Y8">
-        <v>156</v>
+      <c s="9" r="Y8">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c s="12" r="F9">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="12" r="H9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -758,19 +758,19 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="12" r="W9">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c s="5" t="str" r="X9"/>
       <c s="12" r="Y9">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c s="12" r="F10">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="13" r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -814,19 +814,19 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="12" r="W10">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="12" r="Y10">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -849,20 +849,20 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="12" r="I11">
-        <v>41</v>
+      <c s="11" r="I11">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
-        <v>0</v>
+      <c s="11" r="M11">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="9" r="O11">
-        <v>0</v>
+      <c s="12" r="O11">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
@@ -870,19 +870,19 @@
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="12" r="W11">
-        <v>199</v>
+      <c s="9" r="W11">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="12" r="Y11">
-        <v>199</v>
+      <c s="9" r="Y11">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +896,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c s="8" r="F12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,24 +921,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="8" r="Q12">
-        <v>18</v>
+      <c s="9" r="Q12">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>175</v>
+      <c s="9" r="W12">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>175</v>
+      <c s="9" r="Y12">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,16 +1047,16 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M15"/>
       <c s="22" r="N15">
@@ -1080,19 +1080,19 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA15"/>
       <c s="21" r="AB15">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -1105,12 +1105,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
@@ -1142,15 +1142,15 @@
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="21" r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1196,19 +1196,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="25" r="AB17">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1223,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="20" r="X18">
-        <v>58</v>
+      <c s="28" r="X18">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="21" r="AB18">
-        <v>114</v>
+      <c s="25" r="AB18">
+        <v>213</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="21" r="AD18">
-        <v>57</v>
+      <c s="20" r="AD18">
+        <v>106</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="21" r="J19">
-        <v>19</v>
+      <c s="28" r="J19">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>4</v>
+      <c s="20" r="L19">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1319,20 +1319,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="24" r="X19">
-        <v>43</v>
+      <c s="28" r="X19">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>74</v>
+      <c s="20" r="AB19">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>74</v>
+      <c s="20" r="AD19">
+        <v>159</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>199</v>
+        <v>331</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>31</v>
+      <c s="25" r="J20">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,20 +1377,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>48</v>
+      <c s="24" r="X20">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="20" r="AB20">
-        <v>156</v>
+      <c s="21" r="AB20">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="20" r="AD20">
-        <v>156</v>
+      <c s="21" r="AD20">
+        <v>139</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1403,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
-        <v>35</v>
+      <c s="25" r="J21">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1436,19 +1436,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="25" r="AB21">
-        <v>166</v>
+      <c s="21" r="AB21">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="25" r="AD21">
-        <v>166</v>
+      <c s="21" r="AD21">
+        <v>135</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="24" r="J22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,19 +1494,19 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="28" r="J23">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="20" r="L23">
-        <v>6</v>
+      <c s="21" r="L23">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>154</v>
+      <c s="21" r="AB23">
+        <v>123</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>154</v>
+      <c s="21" r="AD23">
+        <v>123</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="28" r="L24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,19 +1618,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AA24"/>
       <c s="28" r="AB24">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c s="5" t="str" r="AC24"/>
       <c s="28" r="AD24">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="28" r="L25">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,19 +1676,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="28" r="AB25">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="28" r="AD25">
-        <v>321</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K26"/>
       <c s="28" r="L26">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,19 +1734,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="28" r="AB26">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="28" r="AD26">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1761,7 +1761,7 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
@@ -1769,8 +1769,8 @@
         <v>36</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="21" r="L27">
-        <v>4</v>
+      <c s="25" r="L27">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="21" r="AB27">
-        <v>148</v>
+      <c s="25" r="AB27">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="21" r="AD27">
-        <v>148</v>
+      <c s="25" r="AD27">
+        <v>173</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>36</v>
+      <c s="24" r="J28">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="25" r="L28">
-        <v>8</v>
+      <c s="20" r="L28">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,19 +1858,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="24" r="AB28">
-        <v>187</v>
+      <c s="28" r="AB28">
+        <v>223</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="24" r="AD28">
-        <v>187</v>
+      <c s="28" r="AD28">
+        <v>223</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="24" r="L29">
-        <v>11</v>
+      <c s="28" r="L29">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,19 +1916,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="AA29"/>
       <c s="28" r="AB29">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c s="5" t="str" r="AC29"/>
       <c s="28" r="AD29">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K30"/>
       <c s="25" r="L30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,19 +1974,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="28" r="AB30">
-        <v>222</v>
+      <c s="24" r="AB30">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="28" r="AD30">
-        <v>222</v>
+      <c s="24" r="AD30">
+        <v>190</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2001,12 +2001,12 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="25" r="L31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>216</v>
+      <c s="24" r="AB31">
+        <v>180</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>216</v>
+      <c s="24" r="AD31">
+        <v>180</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2077,20 +2077,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="28" r="N32">
-        <v>35</v>
+      <c s="25" r="N32">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
+      <c s="21" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
-        <v>0</v>
+      <c s="21" r="T32">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,19 +2098,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="24" r="AB32">
-        <v>184</v>
+      <c s="21" r="AB32">
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="24" r="AD32">
-        <v>184</v>
+      <c s="21" r="AD32">
+        <v>128</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2140,15 +2140,15 @@
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="21" r="R33">
-        <v>0</v>
+      <c s="28" r="R33">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="21" r="T33">
-        <v>0</v>
+      <c s="28" r="T33">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2156,19 +2156,19 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="28" r="AB33">
-        <v>241</v>
+      <c s="25" r="AB33">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="28" r="AD33">
-        <v>241</v>
+      <c s="25" r="AD33">
+        <v>173</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="28" r="N34">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="O34"/>
       <c s="20" r="P34">
@@ -2214,19 +2214,19 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="25" r="AB34">
-        <v>174</v>
+      <c s="21" r="AB34">
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="25" r="AD34">
-        <v>174</v>
+      <c s="21" r="AD34">
+        <v>141</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2253,20 +2253,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="25" r="N35">
-        <v>25</v>
+      <c s="28" r="N35">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="21" r="P35">
-        <v>3</v>
+      <c s="25" r="P35">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
-        <v>0</v>
+      <c s="21" r="R35">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
-        <v>0</v>
+      <c s="21" r="T35">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="22" r="V35">
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA35"/>
       <c s="21" r="AB35">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC35"/>
       <c s="21" r="AD35">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="20" r="J36">
-        <v>33</v>
+      <c s="21" r="J36">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,24 +2333,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="20" r="V36">
-        <v>19</v>
+      <c s="21" r="V36">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="20" r="AB36">
-        <v>161</v>
+      <c s="21" r="AB36">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="20" r="AD36">
-        <v>161</v>
+      <c s="21" r="AD36">
+        <v>134</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2363,12 +2363,12 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="20" r="J37">
-        <v>37</v>
+      <c s="25" r="J37">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
@@ -2392,23 +2392,23 @@
       </c>
       <c s="5" t="str" r="U37"/>
       <c s="25" r="V37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="25" r="AB37">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="25" r="AD37">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2421,12 +2421,12 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="25" r="J38">
-        <v>40</v>
+      <c s="21" r="J38">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="21" r="L38">
@@ -2450,23 +2450,23 @@
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="21" r="V38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="20" r="AB38">
-        <v>158</v>
+      <c s="21" r="AB38">
+        <v>117</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="20" r="AD38">
-        <v>158</v>
+      <c s="21" r="AD38">
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2481,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
       <c s="21" r="J39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="21" r="L39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2510,23 +2510,23 @@
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="21" r="V39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA39"/>
       <c s="21" r="AB39">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c s="5" t="str" r="AC39"/>
       <c s="21" r="AD39">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 9/29/2025 12:32:39 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/3/2025 12:32:47 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,14 +140,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,8 +158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,7 +327,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
@@ -336,7 +336,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
@@ -374,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 10/02/2025</t>
+          <t xml:space="preserve">Day: 10/12/2025</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c s="8" r="F7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="9" r="H7">
-        <v>3</v>
-      </c>
-      <c s="10" r="I7">
+      <c s="8" r="H7">
+        <v>5</v>
+      </c>
+      <c s="9" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="10" r="K7">
+      <c s="9" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="10" r="M7">
+      <c s="9" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
+      <c s="9" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="10" r="Q7">
+      <c s="9" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>57</v>
+      <c s="10" r="S7">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>42</v>
+      <c s="9" r="U7">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>127</v>
+      <c s="10" r="W7">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>63</v>
+      <c s="11" r="Y7">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>572</v>
-      </c>
-      <c s="11" r="F8">
-        <v>30</v>
+        <v>476</v>
+      </c>
+      <c s="12" r="F8">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
-        <v>2</v>
-      </c>
-      <c s="10" r="I8">
+      <c s="11" r="H8">
+        <v>3</v>
+      </c>
+      <c s="9" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="10" r="K8">
+      <c s="9" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="10" r="M8">
+      <c s="9" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
+      <c s="9" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="10" r="Q8">
+      <c s="9" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>59</v>
+      <c s="9" r="U8">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>138</v>
+      <c s="10" r="W8">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>138</v>
+      <c s="10" r="Y8">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c s="12" r="F9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="12" r="H9">
-        <v>16</v>
-      </c>
-      <c s="10" r="I9">
+      <c s="13" r="H9">
+        <v>10</v>
+      </c>
+      <c s="9" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="10" r="K9">
+      <c s="9" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="10" r="M9">
+      <c s="9" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
+      <c s="9" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="10" r="Q9">
+      <c s="9" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
-        <v>123</v>
+      <c s="9" r="U9">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="12" r="W9">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c s="5" t="str" r="X9"/>
       <c s="12" r="Y9">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c s="12" r="F10">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="13" r="H10">
-        <v>8</v>
-      </c>
-      <c s="10" r="I10">
+        <v>10</v>
+      </c>
+      <c s="9" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="10" r="K10">
+      <c s="9" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="10" r="M10">
+      <c s="9" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
+      <c s="9" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="10" r="Q10">
+      <c s="9" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>107</v>
+      <c s="9" r="U10">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="12" r="W10">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="12" r="Y10">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>398</v>
-      </c>
-      <c s="10" r="F11">
+        <v>316</v>
+      </c>
+      <c s="9" r="F11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="10" r="H11">
-        <v>0</v>
-      </c>
-      <c s="11" r="I11">
-        <v>32</v>
+      <c s="9" r="H11">
+        <v>0</v>
+      </c>
+      <c s="12" r="I11">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
+      <c s="11" r="K11">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="11" r="M11">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="12" r="O11">
-        <v>44</v>
+      <c s="11" r="O11">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="10" r="Q11">
+      <c s="9" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>49</v>
+      <c s="9" r="U11">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>139</v>
+      <c s="12" r="W11">
+        <v>202</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="9" r="Y11">
-        <v>139</v>
+      <c s="12" r="Y11">
+        <v>202</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>475</v>
-      </c>
-      <c s="8" r="F12">
-        <v>30</v>
+        <v>427</v>
+      </c>
+      <c s="10" r="F12">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="9" r="H12">
-        <v>2</v>
-      </c>
-      <c s="10" r="I12">
+      <c s="8" r="H12">
+        <v>5</v>
+      </c>
+      <c s="9" r="I12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="10" r="K12">
+      <c s="9" r="K12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="10" r="M12">
+      <c s="9" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="10" r="O12">
+      <c s="9" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="9" r="Q12">
-        <v>14</v>
+      <c s="13" r="Q12">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>53</v>
+      <c s="9" r="U12">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="9" r="W12">
-        <v>147</v>
+      <c s="10" r="W12">
+        <v>223</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="9" r="Y12">
-        <v>147</v>
+      <c s="10" r="Y12">
+        <v>223</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,16 +1047,16 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M15"/>
       <c s="22" r="N15">
@@ -1080,19 +1080,19 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA15"/>
       <c s="21" r="AB15">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -1105,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
-        <v>3</v>
+      <c s="20" r="L16">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1137,20 +1137,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="20" r="X16">
-        <v>52</v>
+      <c s="24" r="X16">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>104</v>
+      <c s="24" r="AB16">
+        <v>188</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>51</v>
+      <c s="20" r="AD16">
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>4</v>
+      <c s="20" r="L17">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1195,20 +1195,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>98</v>
+      <c s="25" r="X17">
+        <v>109</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="25" r="AB17">
-        <v>165</v>
+      <c s="24" r="AB17">
+        <v>233</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>82</v>
+      <c s="20" r="AD17">
+        <v>116</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1223,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="28" r="X18">
-        <v>149</v>
+      <c s="25" r="X18">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="25" r="AB18">
-        <v>213</v>
+      <c s="24" r="AB18">
+        <v>176</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="20" r="AD18">
-        <v>106</v>
+      <c s="21" r="AD18">
+        <v>87</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,12 +1287,12 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="28" r="J19">
-        <v>38</v>
+      <c s="24" r="J19">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="20" r="L19">
@@ -1320,19 +1320,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="20" r="AB19">
-        <v>159</v>
+      <c s="21" r="AB19">
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>159</v>
+      <c s="21" r="AD19">
+        <v>109</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
       <c s="25" r="J20">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,20 +1377,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="24" r="X20">
-        <v>40</v>
+      <c s="28" r="X20">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>139</v>
+      <c s="24" r="AB20">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>139</v>
+      <c s="24" r="AD20">
+        <v>173</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1403,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="25" r="J21">
-        <v>29</v>
+      <c s="28" r="J21">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1436,19 +1436,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>135</v>
+      <c s="24" r="AB21">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>135</v>
+      <c s="24" r="AD21">
+        <v>167</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="24" r="J22">
-        <v>30</v>
+      <c s="28" r="J22">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="21" r="L22">
-        <v>3</v>
+      <c s="20" r="L22">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,19 +1494,19 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>139</v>
+      <c s="20" r="AB22">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>139</v>
+      <c s="20" r="AD22">
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="28" r="J23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>123</v>
+      <c s="20" r="AB23">
+        <v>152</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>123</v>
+      <c s="20" r="AD23">
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="28" r="L24">
-        <v>16</v>
+      <c s="20" r="L24">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,19 +1618,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="28" r="AB24">
-        <v>240</v>
+      <c s="20" r="AB24">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="28" r="AD24">
-        <v>240</v>
+      <c s="20" r="AD24">
+        <v>159</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="28" r="L25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,19 +1676,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="28" r="AB25">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="28" r="AD25">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K26"/>
       <c s="28" r="L26">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,19 +1734,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="28" r="AB26">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="28" r="AD26">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="25" r="L27">
-        <v>7</v>
+      <c s="24" r="L27">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="25" r="AB27">
-        <v>173</v>
+      <c s="28" r="AB27">
+        <v>334</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="25" r="AD27">
-        <v>173</v>
+      <c s="28" r="AD27">
+        <v>334</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="24" r="J28">
-        <v>32</v>
+      <c s="25" r="J28">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="20" r="L28">
-        <v>6</v>
+      <c s="21" r="L28">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,19 +1858,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="28" r="AB28">
-        <v>223</v>
+      <c s="25" r="AB28">
+        <v>188</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="28" r="AD28">
-        <v>223</v>
+      <c s="25" r="AD28">
+        <v>188</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="28" r="L29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,19 +1916,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c s="5" t="str" r="AA29"/>
       <c s="28" r="AB29">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c s="5" t="str" r="AC29"/>
       <c s="28" r="AD29">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="25" r="L30">
-        <v>7</v>
+      <c s="28" r="L30">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,19 +1974,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="24" r="AB30">
-        <v>190</v>
+      <c s="28" r="AB30">
+        <v>240</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="24" r="AD30">
-        <v>190</v>
+      <c s="28" r="AD30">
+        <v>240</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="25" r="L31">
-        <v>7</v>
+      <c s="28" r="L31">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="24" r="AB31">
-        <v>180</v>
+      <c s="28" r="AB31">
+        <v>263</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="24" r="AD31">
-        <v>180</v>
+      <c s="28" r="AD31">
+        <v>263</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2078,19 +2078,19 @@
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="25" r="N32">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="21" r="R32">
+      <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="21" r="T32">
-        <v>1</v>
+      <c s="22" r="T32">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,19 +2098,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="21" r="AB32">
-        <v>128</v>
+      <c s="24" r="AB32">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="21" r="AD32">
-        <v>128</v>
+      <c s="24" r="AD32">
+        <v>179</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2136,19 +2136,19 @@
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="28" r="N33">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="28" r="R33">
-        <v>132</v>
+      <c s="21" r="R33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="28" r="T33">
-        <v>132</v>
+      <c s="21" r="T33">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2160,15 +2160,15 @@
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="25" r="AB33">
-        <v>173</v>
+      <c s="28" r="AB33">
+        <v>230</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="25" r="AD33">
-        <v>173</v>
+      <c s="28" r="AD33">
+        <v>230</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2194,19 +2194,19 @@
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="28" r="N34">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="20" r="P34">
-        <v>6</v>
+      <c s="21" r="P34">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
-        <v>0</v>
+      <c s="21" r="R34">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="22" r="T34">
-        <v>0</v>
+      <c s="21" r="T34">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="22" r="V34">
@@ -2214,19 +2214,19 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>141</v>
+      <c s="28" r="AB34">
+        <v>200</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="21" r="AD34">
-        <v>141</v>
+      <c s="28" r="AD34">
+        <v>200</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2257,16 +2257,16 @@
         <v>44</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="25" r="P35">
-        <v>7</v>
+      <c s="21" r="P35">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
-        <v>1</v>
+      <c s="22" r="R35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
-        <v>1</v>
+      <c s="22" r="T35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="22" r="V35">
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="21" r="AB35">
-        <v>145</v>
+      <c s="25" r="AB35">
+        <v>188</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="21" r="AD35">
-        <v>145</v>
+      <c s="25" r="AD35">
+        <v>188</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="21" r="J36">
-        <v>25</v>
+      <c s="24" r="J36">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,24 +2333,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="21" r="V36">
-        <v>14</v>
+      <c s="25" r="V36">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="21" r="AB36">
-        <v>134</v>
+      <c s="24" r="AB36">
+        <v>215</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="21" r="AD36">
-        <v>134</v>
+      <c s="24" r="AD36">
+        <v>215</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2363,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
       <c s="25" r="J37">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="21" r="L37">
-        <v>4</v>
+      <c s="20" r="L37">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2391,24 +2391,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="25" r="V37">
-        <v>20</v>
+      <c s="28" r="V37">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="25" r="AB37">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="25" r="AD37">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2421,16 +2421,16 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="21" r="J38">
-        <v>28</v>
+      <c s="20" r="J38">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="21" r="L38">
-        <v>3</v>
+      <c s="20" r="L38">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="22" r="N38">
@@ -2450,23 +2450,23 @@
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="21" r="V38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA38"/>
       <c s="21" r="AB38">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c s="5" t="str" r="AC38"/>
       <c s="21" r="AD38">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2481,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="21" r="J39">
-        <v>24</v>
+      <c s="20" r="J39">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
-        <v>4</v>
+      <c s="20" r="L39">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2514,19 +2514,19 @@
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>126</v>
+      <c s="20" r="AB39">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>126</v>
+      <c s="20" r="AD39">
+        <v>156</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/3/2025 12:32:47 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/13/2025 12:26:43 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,14 +140,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,8 +158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,7 +327,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
@@ -335,9 +335,6 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -347,6 +344,9 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -374,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00B40000"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00E35454"/>
-      <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 10/12/2025</t>
+          <t xml:space="preserve">Day: 10/13/2025</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c s="8" r="F7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="8" r="H7">
-        <v>5</v>
-      </c>
-      <c s="9" r="I7">
+      <c s="9" r="H7">
+        <v>3</v>
+      </c>
+      <c s="10" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="9" r="K7">
+      <c s="10" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="9" r="M7">
+      <c s="10" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="9" r="O7">
+      <c s="10" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="9" r="Q7">
+      <c s="10" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="10" r="S7">
-        <v>70</v>
+      <c s="8" r="S7">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>58</v>
+      <c s="10" r="U7">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="10" r="W7">
-        <v>166</v>
+      <c s="9" r="W7">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="11" r="Y7">
-        <v>83</v>
+      <c s="9" r="Y7">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>476</v>
-      </c>
-      <c s="12" r="F8">
-        <v>37</v>
+        <v>526</v>
+      </c>
+      <c s="11" r="F8">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="11" r="H8">
-        <v>3</v>
-      </c>
-      <c s="9" r="I8">
+      <c s="9" r="H8">
+        <v>2</v>
+      </c>
+      <c s="10" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="9" r="K8">
+      <c s="10" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="9" r="M8">
+      <c s="10" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="9" r="O8">
+      <c s="10" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="9" r="Q8">
+      <c s="10" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>74</v>
+      <c s="10" r="U8">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="10" r="W8">
-        <v>167</v>
+      <c s="9" r="W8">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="10" r="Y8">
-        <v>167</v>
+      <c s="9" r="Y8">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>371</v>
-      </c>
-      <c s="12" r="F9">
-        <v>45</v>
+        <v>402</v>
+      </c>
+      <c s="11" r="F9">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="13" r="H9">
-        <v>10</v>
-      </c>
-      <c s="9" r="I9">
+      <c s="8" r="H9">
+        <v>6</v>
+      </c>
+      <c s="10" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="9" r="K9">
+      <c s="10" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="9" r="M9">
+      <c s="10" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="9" r="O9">
+      <c s="10" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="9" r="Q9">
+      <c s="10" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="9" r="U9">
-        <v>92</v>
+      <c s="10" r="U9">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="12" r="W9">
-        <v>221</v>
+      <c s="8" r="W9">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="12" r="Y9">
-        <v>221</v>
+      <c s="8" r="Y9">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>350</v>
-      </c>
-      <c s="12" r="F10">
-        <v>46</v>
+        <v>338</v>
+      </c>
+      <c s="11" r="F10">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="13" r="H10">
-        <v>10</v>
-      </c>
-      <c s="9" r="I10">
+        <v>7</v>
+      </c>
+      <c s="10" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="9" r="K10">
+      <c s="10" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="9" r="M10">
+      <c s="10" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="9" r="O10">
+      <c s="10" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="9" r="Q10">
+      <c s="10" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="9" r="U10">
-        <v>90</v>
+      <c s="10" r="U10">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="12" r="W10">
-        <v>211</v>
+      <c s="9" r="W10">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="12" r="Y10">
-        <v>211</v>
+      <c s="9" r="Y10">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>316</v>
-      </c>
-      <c s="9" r="F11">
+        <v>371</v>
+      </c>
+      <c s="10" r="F11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="9" r="H11">
+      <c s="10" r="H11">
         <v>0</v>
       </c>
       <c s="12" r="I11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="11" r="K11">
+      <c s="9" r="K11">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="11" r="M11">
+      <c s="9" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="11" r="O11">
+      <c s="9" r="O11">
         <v>1</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="9" r="Q11">
+      <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="9" r="U11">
-        <v>86</v>
+      <c s="10" r="U11">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="12" r="W11">
-        <v>202</v>
+      <c s="13" r="W11">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="12" r="Y11">
-        <v>202</v>
+      <c s="11" r="Y11">
+        <v>180</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>427</v>
-      </c>
-      <c s="10" r="F12">
-        <v>47</v>
+        <v>402</v>
+      </c>
+      <c s="13" r="F12">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="8" r="H12">
         <v>5</v>
       </c>
-      <c s="9" r="I12">
+      <c s="10" r="I12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="9" r="K12">
+      <c s="10" r="K12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="9" r="M12">
+      <c s="10" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="9" r="O12">
+      <c s="10" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="13" r="Q12">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="9" r="U12">
-        <v>80</v>
+      <c s="10" r="U12">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="10" r="W12">
-        <v>223</v>
+      <c s="13" r="W12">
+        <v>198</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="10" r="Y12">
-        <v>223</v>
+      <c s="13" r="Y12">
+        <v>198</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,12 +1047,12 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
@@ -1080,19 +1080,19 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="AA15"/>
       <c s="21" r="AB15">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -1105,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>8</v>
+      <c s="21" r="L16">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1137,20 +1137,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="24" r="X16">
-        <v>70</v>
+      <c s="20" r="X16">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="24" r="AB16">
-        <v>188</v>
+      <c s="21" r="AB16">
+        <v>121</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="20" r="AD16">
-        <v>93</v>
+      <c s="21" r="AD16">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>8</v>
+      <c s="21" r="L17">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1195,26 +1195,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="25" r="X17">
-        <v>109</v>
+      <c s="24" r="X17">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="24" r="AB17">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>116</v>
+      <c s="21" r="AD17">
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="26" t="str" r="A18"/>
-      <c s="27" t="str" r="B18"/>
-      <c s="27" t="str" r="C18"/>
+      <c s="25" t="str" r="A18"/>
+      <c s="26" t="str" r="B18"/>
+      <c s="26" t="str" r="C18"/>
       <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1223,12 +1223,12 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="25" r="X18">
-        <v>118</v>
+      <c s="24" r="X18">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="24" r="AB18">
-        <v>176</v>
+      <c s="21" r="AB18">
+        <v>126</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="24" r="J19">
-        <v>25</v>
+      <c s="27" r="J19">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="20" r="L19">
-        <v>5</v>
+      <c s="21" r="L19">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1320,19 +1320,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="21" r="AB19">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="25" r="J20">
-        <v>34</v>
+      <c s="24" r="J20">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,20 +1377,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>50</v>
+      <c s="27" r="X20">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="24" r="AB20">
-        <v>173</v>
+      <c s="21" r="AB20">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="24" r="AD20">
-        <v>173</v>
+      <c s="21" r="AD20">
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1403,12 +1403,12 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
-        <v>40</v>
+      <c s="27" r="J21">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
@@ -1436,19 +1436,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="24" r="AB21">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="24" r="AD21">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
-        <v>36</v>
+      <c s="27" r="J22">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="20" r="L22">
-        <v>5</v>
+      <c s="21" r="L22">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,25 +1494,25 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="20" r="AB22">
-        <v>154</v>
+      <c s="21" r="AB22">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="20" r="AD22">
-        <v>154</v>
+      <c s="21" r="AD22">
+        <v>137</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="26" t="str" r="A23"/>
-      <c s="27" t="str" r="B23"/>
-      <c s="27" t="str" r="C23"/>
+      <c s="25" t="str" r="A23"/>
+      <c s="26" t="str" r="B23"/>
+      <c s="26" t="str" r="C23"/>
       <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="28" r="J23">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>4</v>
+      <c s="24" r="L23">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA23"/>
       <c s="20" r="AB23">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC23"/>
       <c s="20" r="AD23">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>36</v>
+      <c s="24" r="J24">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="20" r="L24">
-        <v>6</v>
+      <c s="21" r="L24">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,19 +1618,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="20" r="AB24">
-        <v>159</v>
+      <c s="21" r="AB24">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="20" r="AD24">
-        <v>159</v>
+      <c s="21" r="AD24">
+        <v>133</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="28" r="L25">
-        <v>13</v>
+      <c s="24" r="L25">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,19 +1676,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="28" r="AB25">
-        <v>252</v>
+      <c s="24" r="AB25">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="28" r="AD25">
-        <v>252</v>
+      <c s="24" r="AD25">
+        <v>179</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="28" r="L26">
-        <v>14</v>
+      <c s="24" r="L26">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,25 +1734,25 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="28" r="AB26">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="28" r="AD26">
-        <v>294</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="26" t="str" r="A27"/>
-      <c s="27" t="str" r="B27"/>
-      <c s="27" t="str" r="C27"/>
+      <c s="25" t="str" r="A27"/>
+      <c s="26" t="str" r="B27"/>
+      <c s="26" t="str" r="C27"/>
       <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="24" r="L27">
-        <v>9</v>
+      <c s="28" r="L27">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA27"/>
       <c s="28" r="AB27">
-        <v>334</v>
+        <v>208</v>
       </c>
       <c s="5" t="str" r="AC27"/>
       <c s="28" r="AD27">
-        <v>334</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="25" r="J28">
-        <v>30</v>
+      <c s="27" r="J28">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>4</v>
+      <c s="24" r="L28">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,19 +1858,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="25" r="AB28">
-        <v>188</v>
+      <c s="21" r="AB28">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="25" r="AD28">
-        <v>188</v>
+      <c s="21" r="AD28">
+        <v>120</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="28" r="L29">
-        <v>13</v>
+      <c s="24" r="L29">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,19 +1916,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="28" r="AB29">
-        <v>217</v>
+      <c s="21" r="AB29">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="28" r="AD29">
-        <v>217</v>
+      <c s="21" r="AD29">
+        <v>122</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>60</v>
+      <c s="27" r="J30">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="28" r="L30">
-        <v>15</v>
+      <c s="21" r="L30">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,25 +1974,25 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="28" r="AB30">
-        <v>240</v>
+      <c s="21" r="AB30">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="28" r="AD30">
-        <v>240</v>
+      <c s="21" r="AD30">
+        <v>132</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="26" t="str" r="A31"/>
-      <c s="27" t="str" r="B31"/>
-      <c s="27" t="str" r="C31"/>
+      <c s="25" t="str" r="A31"/>
+      <c s="26" t="str" r="B31"/>
+      <c s="26" t="str" r="C31"/>
       <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="28" r="L31">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>263</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2077,20 +2077,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="25" r="N32">
-        <v>33</v>
+      <c s="24" r="N32">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
-        <v>0</v>
+      <c s="21" r="R32">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
-        <v>0</v>
+      <c s="21" r="T32">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,19 +2098,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="24" r="AB32">
-        <v>179</v>
+      <c s="20" r="AB32">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="24" r="AD32">
-        <v>179</v>
+      <c s="20" r="AD32">
+        <v>150</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2136,7 +2136,7 @@
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="28" r="N33">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
@@ -2144,11 +2144,11 @@
       </c>
       <c s="5" t="str" r="Q33"/>
       <c s="21" r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S33"/>
       <c s="21" r="T33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2156,19 +2156,19 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="28" r="AB33">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="28" r="AD33">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2194,19 +2194,19 @@
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="28" r="N34">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="21" r="P34">
-        <v>3</v>
+      <c s="20" r="P34">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="Q34"/>
       <c s="21" r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
       <c s="21" r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="22" r="V34">
@@ -2214,25 +2214,25 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="28" r="AB34">
-        <v>200</v>
+      <c s="27" r="AB34">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="28" r="AD34">
-        <v>200</v>
+      <c s="27" r="AD34">
+        <v>186</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="26" t="str" r="A35"/>
-      <c s="27" t="str" r="B35"/>
-      <c s="27" t="str" r="C35"/>
+      <c s="25" t="str" r="A35"/>
+      <c s="26" t="str" r="B35"/>
+      <c s="26" t="str" r="C35"/>
       <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2261,11 +2261,11 @@
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
+      <c s="21" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
+      <c s="21" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="25" r="AB35">
-        <v>188</v>
+      <c s="28" r="AB35">
+        <v>238</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="25" r="AD35">
-        <v>188</v>
+      <c s="28" r="AD35">
+        <v>238</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="24" r="J36">
-        <v>44</v>
+      <c s="20" r="J36">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
-        <v>3</v>
+      <c s="20" r="L36">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,24 +2333,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="25" r="V36">
-        <v>26</v>
+      <c s="24" r="V36">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="AA36"/>
       <c s="24" r="AB36">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC36"/>
       <c s="24" r="AD36">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2363,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="25" r="J37">
-        <v>54</v>
+      <c s="24" r="J37">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="20" r="L37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2391,24 +2391,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="28" r="V37">
-        <v>37</v>
+      <c s="24" r="V37">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="25" r="AB37">
-        <v>265</v>
+      <c s="24" r="AB37">
+        <v>220</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="25" r="AD37">
-        <v>265</v>
+      <c s="24" r="AD37">
+        <v>220</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2421,16 +2421,16 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="20" r="J38">
-        <v>39</v>
+      <c s="24" r="J38">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="20" r="L38">
-        <v>6</v>
+      <c s="21" r="L38">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="22" r="N38">
@@ -2450,29 +2450,29 @@
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="21" r="V38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="21" r="AB38">
-        <v>149</v>
+      <c s="20" r="AB38">
+        <v>176</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="21" r="AD38">
-        <v>149</v>
+      <c s="20" r="AD38">
+        <v>176</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="26" t="str" r="A39"/>
-      <c s="27" t="str" r="B39"/>
-      <c s="27" t="str" r="C39"/>
+      <c s="25" t="str" r="A39"/>
+      <c s="26" t="str" r="B39"/>
+      <c s="26" t="str" r="C39"/>
       <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2481,12 +2481,12 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="20" r="J39">
-        <v>36</v>
+      <c s="24" r="J39">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="20" r="L39">
@@ -2514,19 +2514,19 @@
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA39"/>
       <c s="20" r="AB39">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC39"/>
       <c s="20" r="AD39">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/13/2025 12:26:43 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/14/2025 12:32:24 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 10/13/2025</t>
+          <t xml:space="preserve">Day: 10/16/2025</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c s="8" r="F7">
         <v>27</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -646,19 +646,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="8" r="S7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,10 +672,10 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c s="11" r="F8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
@@ -702,19 +702,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>402</v>
-      </c>
-      <c s="11" r="F9">
-        <v>34</v>
+        <v>420</v>
+      </c>
+      <c s="12" r="F9">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="8" r="H9">
-        <v>6</v>
+      <c s="11" r="H9">
+        <v>11</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -758,19 +758,19 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="8" r="W9">
-        <v>164</v>
+      <c s="12" r="W9">
+        <v>213</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="8" r="Y9">
-        <v>164</v>
+      <c s="12" r="Y9">
+        <v>213</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>338</v>
-      </c>
-      <c s="11" r="F10">
-        <v>33</v>
+        <v>370</v>
+      </c>
+      <c s="12" r="F10">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="13" r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -814,19 +814,19 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="9" r="W10">
-        <v>125</v>
+      <c s="11" r="W10">
+        <v>193</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="9" r="Y10">
-        <v>125</v>
+      <c s="11" r="Y10">
+        <v>193</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -849,8 +849,8 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="12" r="I11">
-        <v>37</v>
+      <c s="11" r="I11">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
@@ -862,7 +862,7 @@
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
@@ -870,19 +870,19 @@
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="V11"/>
       <c s="13" r="W11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="11" r="Y11">
-        <v>180</v>
+      <c s="13" r="Y11">
+        <v>175</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +896,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>402</v>
-      </c>
-      <c s="13" r="F12">
-        <v>40</v>
+        <v>475</v>
+      </c>
+      <c s="8" r="F12">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="8" r="H12">
-        <v>5</v>
+      <c s="9" r="H12">
+        <v>4</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,24 +921,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="13" r="Q12">
-        <v>20</v>
+      <c s="11" r="Q12">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c s="5" t="str" r="V12"/>
       <c s="13" r="W12">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c s="5" t="str" r="X12"/>
       <c s="13" r="Y12">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,12 +1047,12 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
@@ -1080,19 +1080,19 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA15"/>
       <c s="21" r="AB15">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -1105,12 +1105,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
@@ -1137,20 +1137,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="20" r="X16">
-        <v>52</v>
+      <c s="24" r="X16">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1163,12 +1163,12 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="21" r="L17">
@@ -1196,19 +1196,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="24" r="AB17">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1223,12 +1223,12 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="24" r="X18">
-        <v>72</v>
+      <c s="27" r="X18">
+        <v>93</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="21" r="AB18">
-        <v>126</v>
+      <c s="24" r="AB18">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="27" r="J19">
-        <v>31</v>
+      <c s="24" r="J19">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>4</v>
+      <c s="20" r="L19">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1320,19 +1320,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="21" r="AB19">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
       <c s="24" r="J20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1378,19 +1378,19 @@
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="27" r="X20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1403,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
       <c s="27" r="J21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1436,19 +1436,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="24" r="AB21">
-        <v>165</v>
+      <c s="21" r="AB21">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="24" r="AD21">
-        <v>165</v>
+      <c s="21" r="AD21">
+        <v>137</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="27" r="J22">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,19 +1494,19 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>41</v>
+      <c s="27" r="J23">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="24" r="L23">
-        <v>7</v>
+      <c s="21" r="L23">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>159</v>
+      <c s="21" r="AB23">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>159</v>
+      <c s="21" r="AD23">
+        <v>122</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="24" r="J24">
-        <v>28</v>
+      <c s="28" r="J24">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="21" r="L24">
-        <v>4</v>
+      <c s="24" r="L24">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,19 +1618,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="21" r="AB24">
-        <v>133</v>
+      <c s="28" r="AB24">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="21" r="AD24">
-        <v>133</v>
+      <c s="28" r="AD24">
+        <v>201</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1643,7 +1643,7 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
@@ -1651,8 +1651,8 @@
         <v>41</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="24" r="L25">
-        <v>8</v>
+      <c s="27" r="L25">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,19 +1676,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="24" r="AB25">
-        <v>179</v>
+      <c s="28" r="AB25">
+        <v>197</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="24" r="AD25">
-        <v>179</v>
+      <c s="28" r="AD25">
+        <v>197</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="24" r="L26">
-        <v>7</v>
+      <c s="28" r="L26">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,19 +1734,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="28" r="AB26">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="28" r="AD26">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K27"/>
       <c s="28" r="L27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="AA27"/>
       <c s="28" r="AB27">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c s="5" t="str" r="AC27"/>
       <c s="28" r="AD27">
-        <v>208</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="27" r="J28">
-        <v>32</v>
+      <c s="28" r="J28">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="24" r="L28">
-        <v>7</v>
+      <c s="27" r="L28">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,19 +1858,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="21" r="AB28">
-        <v>120</v>
+      <c s="28" r="AB28">
+        <v>209</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="21" r="AD28">
-        <v>120</v>
+      <c s="28" r="AD28">
+        <v>209</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="28" r="J29">
-        <v>35</v>
+      <c s="27" r="J29">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="24" r="L29">
-        <v>7</v>
+      <c s="20" r="L29">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,19 +1916,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="21" r="AB29">
-        <v>122</v>
+      <c s="24" r="AB29">
+        <v>176</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="21" r="AD29">
-        <v>122</v>
+      <c s="24" r="AD29">
+        <v>176</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="27" r="J30">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="21" r="L30">
-        <v>4</v>
+      <c s="20" r="L30">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,19 +1974,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA30"/>
       <c s="21" r="AB30">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC30"/>
       <c s="21" r="AD30">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2006,11 +2006,11 @@
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="28" r="L31">
-        <v>12</v>
+      <c s="24" r="L31">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>212</v>
+      <c s="24" r="AB31">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>212</v>
+      <c s="24" r="AD31">
+        <v>171</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2078,19 +2078,19 @@
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="24" r="N32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="21" r="R32">
-        <v>1</v>
+      <c s="22" r="R32">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="21" r="T32">
-        <v>1</v>
+      <c s="22" r="T32">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,19 +2098,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="20" r="AB32">
-        <v>150</v>
+      <c s="24" r="AB32">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="20" r="AD32">
-        <v>150</v>
+      <c s="24" r="AD32">
+        <v>166</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2136,19 +2136,19 @@
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="28" r="N33">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q33"/>
       <c s="21" r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
       <c s="21" r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2156,19 +2156,19 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="28" r="AB33">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="28" r="AD33">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2194,18 +2194,18 @@
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="28" r="N34">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="20" r="P34">
-        <v>5</v>
+      <c s="21" r="P34">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="21" r="T34">
+      <c s="22" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
@@ -2214,19 +2214,19 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="27" r="AB34">
-        <v>186</v>
+      <c s="24" r="AB34">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="27" r="AD34">
-        <v>186</v>
+      <c s="24" r="AD34">
+        <v>171</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2254,18 +2254,18 @@
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="28" r="N35">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
+      <c s="22" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
+      <c s="22" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="28" r="AB35">
-        <v>238</v>
+      <c s="24" r="AB35">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="28" r="AD35">
-        <v>238</v>
+      <c s="24" r="AD35">
+        <v>178</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
       <c s="20" r="J36">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
-        <v>5</v>
+      <c s="21" r="L36">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,24 +2333,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="24" r="V36">
-        <v>22</v>
+      <c s="28" r="V36">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="AA36"/>
       <c s="24" r="AB36">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c s="5" t="str" r="AC36"/>
       <c s="24" r="AD36">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2363,12 +2363,12 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
       <c s="24" r="J37">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="20" r="L37">
@@ -2391,8 +2391,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="24" r="V37">
-        <v>24</v>
+      <c s="28" r="V37">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
@@ -2400,15 +2400,15 @@
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="24" r="AB37">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="24" r="AD37">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2421,16 +2421,16 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="24" r="J38">
-        <v>42</v>
+      <c s="20" r="J38">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="21" r="L38">
-        <v>4</v>
+      <c s="20" r="L38">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="22" r="N38">
@@ -2449,24 +2449,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="21" r="V38">
-        <v>9</v>
+      <c s="24" r="V38">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="20" r="AB38">
-        <v>176</v>
+      <c s="24" r="AB38">
+        <v>188</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="20" r="AD38">
-        <v>176</v>
+      <c s="24" r="AD38">
+        <v>188</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2485,12 +2485,12 @@
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="24" r="J39">
-        <v>42</v>
+      <c s="21" r="J39">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="20" r="L39">
-        <v>6</v>
+      <c s="21" r="L39">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2510,23 +2510,23 @@
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="21" r="V39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>153</v>
+      <c s="21" r="AB39">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>153</v>
+      <c s="21" r="AD39">
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/14/2025 12:32:24 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/17/2025 12:38:25 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,12 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
       </patternFill>
@@ -160,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE35454"/>
         <bgColor rgb="FFE35454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,9 +303,6 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -336,7 +333,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +345,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,9 +372,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
       <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +517,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 10/16/2025</t>
+          <t xml:space="preserve">Day: 10/19/2025</t>
         </is>
       </c>
     </row>
@@ -616,14 +613,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c s="8" r="F7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -646,19 +643,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="8" r="S7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +669,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>516</v>
+        <v>420</v>
       </c>
       <c s="11" r="F8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -701,20 +698,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>50</v>
+      <c s="11" r="S8">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>135</v>
+      <c s="12" r="W8">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>135</v>
+      <c s="12" r="Y8">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +725,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>420</v>
-      </c>
-      <c s="12" r="F9">
-        <v>40</v>
+        <v>378</v>
+      </c>
+      <c s="11" r="F9">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="11" r="H9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -757,20 +754,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>78</v>
+      <c s="11" r="S9">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="12" r="W9">
-        <v>213</v>
+      <c s="11" r="W9">
+        <v>305</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="12" r="Y9">
-        <v>213</v>
+      <c s="11" r="Y9">
+        <v>305</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +781,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>370</v>
-      </c>
-      <c s="12" r="F10">
-        <v>38</v>
+        <v>336</v>
+      </c>
+      <c s="11" r="F10">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="13" r="H10">
-        <v>8</v>
+      <c s="11" r="H10">
+        <v>12</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +810,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>62</v>
+      <c s="11" r="S10">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="11" r="W10">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="11" r="Y10">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +837,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -850,39 +847,39 @@
         <v>0</v>
       </c>
       <c s="11" r="I11">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
-        <v>3</v>
+      <c s="8" r="K11">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="9" r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>65</v>
+      <c s="11" r="S11">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="13" r="W11">
-        <v>175</v>
+      <c s="11" r="W11">
+        <v>236</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="13" r="Y11">
-        <v>175</v>
+      <c s="11" r="Y11">
+        <v>236</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +893,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>475</v>
-      </c>
-      <c s="8" r="F12">
-        <v>37</v>
+        <v>419</v>
+      </c>
+      <c s="12" r="F12">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,30 +918,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="11" r="Q12">
-        <v>29</v>
+      <c s="12" r="Q12">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>64</v>
+      <c s="11" r="S12">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="13" r="W12">
-        <v>212</v>
+      <c s="12" r="W12">
+        <v>215</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="13" r="Y12">
-        <v>212</v>
+      <c s="12" r="Y12">
+        <v>215</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="4.95" customHeight="1"/>
     <row r="14" ht="32.25" customHeight="0">
-      <c s="14" t="inlineStr" r="A14">
+      <c s="13" t="inlineStr" r="A14">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -965,1568 +962,1568 @@
       </c>
       <c s="4" t="str" r="H14"/>
       <c s="5" t="str" r="I14"/>
-      <c s="15" t="inlineStr" r="J14">
+      <c s="14" t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K14"/>
-      <c s="15" t="inlineStr" r="L14">
+      <c s="14" t="inlineStr" r="L14">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M14"/>
-      <c s="15" t="inlineStr" r="N14">
+      <c s="14" t="inlineStr" r="N14">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O14"/>
-      <c s="15" t="inlineStr" r="P14">
+      <c s="14" t="inlineStr" r="P14">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q14"/>
-      <c s="15" t="inlineStr" r="R14">
+      <c s="14" t="inlineStr" r="R14">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S14"/>
-      <c s="15" t="inlineStr" r="T14">
+      <c s="14" t="inlineStr" r="T14">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U14"/>
-      <c s="15" t="inlineStr" r="V14">
+      <c s="14" t="inlineStr" r="V14">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W14"/>
-      <c s="15" t="inlineStr" r="X14">
+      <c s="14" t="inlineStr" r="X14">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y14"/>
-      <c s="15" t="inlineStr" r="Z14">
+      <c s="14" t="inlineStr" r="Z14">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA14"/>
-      <c s="15" t="inlineStr" r="AB14">
+      <c s="14" t="inlineStr" r="AB14">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC14"/>
-      <c s="15" t="inlineStr" r="AD14">
+      <c s="14" t="inlineStr" r="AD14">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A15">
+      <c s="15" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">343939 Mt.Joy</t>
         </is>
       </c>
-      <c s="17" t="str" r="B15"/>
-      <c s="17" t="str" r="C15"/>
-      <c s="18" t="inlineStr" r="D15">
+      <c s="16" t="str" r="B15"/>
+      <c s="16" t="str" r="C15"/>
+      <c s="17" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="19" r="G15">
-        <v>226</v>
+      <c s="18" r="G15">
+        <v>157</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="20" r="J15">
-        <v>23</v>
+      <c s="19" r="J15">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="21" r="L15">
-        <v>2</v>
+      <c s="20" r="L15">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="22" r="N15">
+      <c s="21" r="N15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="22" r="P15">
+      <c s="21" r="P15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="22" r="R15">
+      <c s="21" r="R15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="22" r="T15">
+      <c s="21" r="T15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="22" r="V15">
+      <c s="21" r="V15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="20" r="X15">
-        <v>41</v>
+      <c s="19" r="X15">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="22" r="Z15">
-        <v>40</v>
+      <c s="21" r="Z15">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="21" r="AB15">
-        <v>105</v>
+      <c s="20" r="AB15">
+        <v>127</v>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="21" r="AD15">
-        <v>52</v>
+      <c s="20" r="AD15">
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="23" t="str" r="A16"/>
-      <c s="18" t="inlineStr" r="D16">
+      <c s="22" t="str" r="A16"/>
+      <c s="17" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="19" r="G16">
-        <v>86</v>
+      <c s="18" r="G16">
+        <v>152</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="20" r="J16">
-        <v>28</v>
+      <c s="19" r="J16">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
-        <v>3</v>
+      <c s="20" r="L16">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="22" r="N16">
+      <c s="21" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="22" r="P16">
+      <c s="21" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="22" r="R16">
+      <c s="21" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="22" r="T16">
+      <c s="21" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="22" r="V16">
+      <c s="21" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="24" r="X16">
-        <v>67</v>
+      <c s="19" r="X16">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="22" r="Z16">
-        <v>45</v>
+      <c s="21" r="Z16">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>140</v>
+      <c s="23" r="AB16">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>70</v>
+      <c s="20" r="AD16">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
-      <c s="18" t="inlineStr" r="D17">
+      <c s="22" t="str" r="A17"/>
+      <c s="17" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="19" r="G17">
-        <v>69</v>
+      <c s="18" r="G17">
+        <v>51</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="20" r="J17">
-        <v>37</v>
+      <c s="19" r="J17">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>3</v>
+      <c s="19" r="L17">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="22" r="N17">
+      <c s="21" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="22" r="P17">
+      <c s="21" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="22" r="R17">
+      <c s="21" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="22" r="T17">
+      <c s="21" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="22" r="V17">
+      <c s="21" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>84</v>
+      <c s="23" r="X17">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="22" r="Z17">
-        <v>33</v>
+      <c s="21" r="Z17">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="24" r="AB17">
-        <v>155</v>
+      <c s="20" r="AB17">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>77</v>
+      <c s="20" r="AD17">
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="25" t="str" r="A18"/>
-      <c s="26" t="str" r="B18"/>
-      <c s="26" t="str" r="C18"/>
-      <c s="18" t="inlineStr" r="D18">
+      <c s="24" t="str" r="A18"/>
+      <c s="25" t="str" r="B18"/>
+      <c s="25" t="str" r="C18"/>
+      <c s="17" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="19" r="G18">
-        <v>15</v>
+      <c s="18" r="G18">
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="20" r="J18">
-        <v>31</v>
+      <c s="26" r="J18">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
-        <v>3</v>
+      <c s="19" r="L18">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="22" r="N18">
+      <c s="21" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="22" r="P18">
+      <c s="21" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="22" r="R18">
+      <c s="21" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="22" r="T18">
+      <c s="21" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="22" r="V18">
+      <c s="21" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="27" r="X18">
-        <v>93</v>
+      <c s="23" r="X18">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="22" r="Z18">
-        <v>28</v>
+      <c s="21" r="Z18">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="24" r="AB18">
-        <v>153</v>
+      <c s="23" r="AB18">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="21" r="AD18">
-        <v>76</v>
+      <c s="19" r="AD18">
+        <v>97</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A19">
+      <c s="15" t="inlineStr" r="A19">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="17" t="str" r="B19"/>
-      <c s="17" t="str" r="C19"/>
-      <c s="18" t="inlineStr" r="D19">
+      <c s="16" t="str" r="B19"/>
+      <c s="16" t="str" r="C19"/>
+      <c s="17" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="19" r="G19">
-        <v>8</v>
+      <c s="18" r="G19">
+        <v>2</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="24" r="J19">
-        <v>26</v>
+      <c s="26" r="J19">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="20" r="L19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="22" r="N19">
+      <c s="21" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="22" r="P19">
+      <c s="21" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="22" r="R19">
+      <c s="21" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="22" r="T19">
+      <c s="21" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="22" r="V19">
+      <c s="21" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="28" r="X19">
-        <v>67</v>
+      <c s="26" r="X19">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="22" r="Z19">
+      <c s="21" r="Z19">
         <v>9</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
+      <c s="20" r="AB19">
         <v>103</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
+      <c s="20" r="AD19">
         <v>103</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="23" t="str" r="A20"/>
-      <c s="18" t="inlineStr" r="D20">
+      <c s="22" t="str" r="A20"/>
+      <c s="17" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="19" r="G20">
-        <v>300</v>
+      <c s="18" r="G20">
+        <v>182</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>28</v>
+      <c s="26" r="J20">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="21" r="L20">
-        <v>2</v>
+      <c s="20" r="L20">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="22" r="N20">
+      <c s="21" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="22" r="P20">
+      <c s="21" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="22" r="R20">
+      <c s="21" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="22" r="T20">
+      <c s="21" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="22" r="V20">
+      <c s="21" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="27" r="X20">
-        <v>40</v>
+      <c s="26" r="X20">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="22" r="Z20">
-        <v>68</v>
+      <c s="21" r="Z20">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>137</v>
+      <c s="23" r="AB20">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>137</v>
+      <c s="23" r="AD20">
+        <v>169</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
-      <c s="18" t="inlineStr" r="D21">
+      <c s="22" t="str" r="A21"/>
+      <c s="17" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="19" r="G21">
-        <v>113</v>
+      <c s="18" r="G21">
+        <v>176</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="27" r="J21">
-        <v>34</v>
+      <c s="26" r="J21">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="21" r="L21">
-        <v>1</v>
+      <c s="20" r="L21">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="22" r="N21">
+      <c s="21" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="22" r="P21">
+      <c s="21" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="22" r="R21">
+      <c s="21" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="22" r="T21">
+      <c s="21" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="22" r="V21">
+      <c s="21" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="28" r="X21">
-        <v>61</v>
+      <c s="26" r="X21">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="22" r="Z21">
-        <v>41</v>
+      <c s="21" r="Z21">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>137</v>
+      <c s="23" r="AB21">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>137</v>
+      <c s="23" r="AD21">
+        <v>174</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
-      <c s="18" t="inlineStr" r="D22">
+      <c s="22" t="str" r="A22"/>
+      <c s="17" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="19" r="G22">
-        <v>75</v>
+      <c s="18" r="G22">
+        <v>52</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="27" r="J22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="21" r="L22">
+      <c s="20" r="L22">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="22" r="N22">
+      <c s="21" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="22" r="P22">
+      <c s="21" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="22" r="R22">
+      <c s="21" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="22" r="T22">
+      <c s="21" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="22" r="V22">
+      <c s="21" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>66</v>
+      <c s="26" r="X22">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="22" r="Z22">
-        <v>35</v>
+      <c s="21" r="Z22">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>133</v>
+      <c s="20" r="AB22">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>133</v>
+      <c s="20" r="AD22">
+        <v>132</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="25" t="str" r="A23"/>
-      <c s="26" t="str" r="B23"/>
-      <c s="26" t="str" r="C23"/>
-      <c s="18" t="inlineStr" r="D23">
+      <c s="24" t="str" r="A23"/>
+      <c s="25" t="str" r="B23"/>
+      <c s="25" t="str" r="C23"/>
+      <c s="17" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="19" r="G23">
-        <v>20</v>
+      <c s="18" r="G23">
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="27" r="J23">
-        <v>34</v>
+      <c s="26" r="J23">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>4</v>
+      <c s="23" r="L23">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="22" r="N23">
+      <c s="21" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="22" r="P23">
+      <c s="21" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="22" r="R23">
+      <c s="21" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="22" r="T23">
+      <c s="21" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="22" r="V23">
+      <c s="21" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>73</v>
+      <c s="26" r="X23">
+        <v>131</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="22" r="Z23">
-        <v>15</v>
+      <c s="21" r="Z23">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>122</v>
+      <c s="26" r="AB23">
+        <v>215</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>122</v>
+      <c s="26" r="AD23">
+        <v>215</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A24">
+      <c s="15" t="inlineStr" r="A24">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="17" t="str" r="B24"/>
-      <c s="17" t="str" r="C24"/>
-      <c s="18" t="inlineStr" r="D24">
+      <c s="16" t="str" r="B24"/>
+      <c s="16" t="str" r="C24"/>
+      <c s="17" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="19" r="G24">
-        <v>237</v>
+      <c s="18" r="G24">
+        <v>150</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>35</v>
+      <c s="26" r="J24">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="24" r="L24">
-        <v>8</v>
+      <c s="26" r="L24">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="22" r="N24">
+      <c s="21" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="22" r="P24">
+      <c s="21" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="22" r="R24">
+      <c s="21" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="22" r="T24">
+      <c s="21" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="22" r="V24">
+      <c s="21" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>56</v>
+      <c s="26" r="X24">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="22" r="Z24">
-        <v>109</v>
+      <c s="21" r="Z24">
+        <v>131</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="28" r="AB24">
-        <v>201</v>
+      <c s="26" r="AB24">
+        <v>254</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="28" r="AD24">
-        <v>201</v>
+      <c s="26" r="AD24">
+        <v>254</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="23" t="str" r="A25"/>
-      <c s="18" t="inlineStr" r="D25">
+      <c s="22" t="str" r="A25"/>
+      <c s="17" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="19" r="G25">
-        <v>89</v>
+      <c s="18" r="G25">
+        <v>153</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="28" r="J25">
-        <v>41</v>
+      <c s="26" r="J25">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="27" r="L25">
-        <v>10</v>
+      <c s="26" r="L25">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="22" r="N25">
+      <c s="21" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="22" r="P25">
+      <c s="21" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="22" r="R25">
+      <c s="21" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="22" r="T25">
+      <c s="21" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="22" r="V25">
+      <c s="21" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>82</v>
+      <c s="26" r="X25">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="22" r="Z25">
-        <v>74</v>
+      <c s="21" r="Z25">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="28" r="AB25">
-        <v>197</v>
+      <c s="26" r="AB25">
+        <v>321</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="28" r="AD25">
-        <v>197</v>
+      <c s="26" r="AD25">
+        <v>321</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
-      <c s="18" t="inlineStr" r="D26">
+      <c s="22" t="str" r="A26"/>
+      <c s="17" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="19" r="G26">
-        <v>69</v>
+      <c s="18" r="G26">
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="28" r="J26">
-        <v>50</v>
+      <c s="26" r="J26">
+        <v>89</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="28" r="L26">
-        <v>23</v>
+      <c s="26" r="L26">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="22" r="N26">
+      <c s="21" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="22" r="P26">
+      <c s="21" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="22" r="R26">
+      <c s="21" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="22" r="T26">
+      <c s="21" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="22" r="V26">
+      <c s="21" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>114</v>
+      <c s="26" r="X26">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="22" r="Z26">
-        <v>85</v>
+      <c s="21" r="Z26">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="28" r="AB26">
-        <v>249</v>
+      <c s="26" r="AB26">
+        <v>422</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="28" r="AD26">
-        <v>249</v>
+      <c s="26" r="AD26">
+        <v>422</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="25" t="str" r="A27"/>
-      <c s="26" t="str" r="B27"/>
-      <c s="26" t="str" r="C27"/>
-      <c s="18" t="inlineStr" r="D27">
+      <c s="24" t="str" r="A27"/>
+      <c s="25" t="str" r="B27"/>
+      <c s="25" t="str" r="C27"/>
+      <c s="17" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="19" r="G27">
-        <v>25</v>
+      <c s="18" r="G27">
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>45</v>
+      <c s="26" r="J27">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="28" r="L27">
-        <v>13</v>
+      <c s="27" r="L27">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="22" r="N27">
+      <c s="21" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="22" r="P27">
+      <c s="21" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="22" r="R27">
+      <c s="21" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="22" r="T27">
+      <c s="21" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="22" r="V27">
+      <c s="21" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>167</v>
+      <c s="26" r="X27">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="22" r="Z27">
-        <v>75</v>
+      <c s="21" r="Z27">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>289</v>
+      <c s="26" r="AB27">
+        <v>231</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>289</v>
+      <c s="26" r="AD27">
+        <v>231</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A28">
+      <c s="15" t="inlineStr" r="A28">
         <is>
           <t xml:space="preserve">359042 LITITZ</t>
         </is>
       </c>
-      <c s="17" t="str" r="B28"/>
-      <c s="17" t="str" r="C28"/>
-      <c s="18" t="inlineStr" r="D28">
+      <c s="16" t="str" r="B28"/>
+      <c s="16" t="str" r="C28"/>
+      <c s="17" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="19" r="G28">
-        <v>239</v>
+      <c s="18" r="G28">
+        <v>139</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>40</v>
+      <c s="26" r="J28">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="27" r="L28">
-        <v>10</v>
+      <c s="23" r="L28">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="22" r="N28">
+      <c s="21" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="22" r="P28">
+      <c s="21" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="22" r="R28">
+      <c s="21" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="22" r="T28">
+      <c s="21" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="22" r="V28">
+      <c s="21" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>56</v>
+      <c s="26" r="X28">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="22" r="Z28">
-        <v>112</v>
+      <c s="21" r="Z28">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="28" r="AB28">
-        <v>209</v>
+      <c s="27" r="AB28">
+        <v>184</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="28" r="AD28">
-        <v>209</v>
+      <c s="27" r="AD28">
+        <v>184</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="23" t="str" r="A29"/>
-      <c s="18" t="inlineStr" r="D29">
+      <c s="22" t="str" r="A29"/>
+      <c s="17" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="19" r="G29">
-        <v>85</v>
+      <c s="18" r="G29">
+        <v>141</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="27" r="J29">
-        <v>31</v>
+      <c s="26" r="J29">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="20" r="L29">
-        <v>5</v>
+      <c s="26" r="L29">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="22" r="N29">
+      <c s="21" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="22" r="P29">
+      <c s="21" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="22" r="R29">
+      <c s="21" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="22" r="T29">
+      <c s="21" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="22" r="V29">
+      <c s="21" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="28" r="X29">
-        <v>72</v>
+      <c s="26" r="X29">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="22" r="Z29">
-        <v>72</v>
+      <c s="21" r="Z29">
+        <v>117</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="24" r="AB29">
-        <v>176</v>
+      <c s="26" r="AB29">
+        <v>269</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="24" r="AD29">
-        <v>176</v>
+      <c s="26" r="AD29">
+        <v>269</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
-      <c s="18" t="inlineStr" r="D30">
+      <c s="22" t="str" r="A30"/>
+      <c s="17" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="19" r="G30">
-        <v>35</v>
+      <c s="18" r="G30">
+        <v>45</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="27" r="J30">
-        <v>30</v>
+      <c s="26" r="J30">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>5</v>
+      <c s="26" r="L30">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="22" r="N30">
+      <c s="21" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="22" r="P30">
+      <c s="21" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="22" r="R30">
+      <c s="21" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="22" r="T30">
+      <c s="21" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="22" r="V30">
+      <c s="21" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>76</v>
+      <c s="26" r="X30">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="22" r="Z30">
-        <v>27</v>
+      <c s="21" r="Z30">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="21" r="AB30">
-        <v>135</v>
+      <c s="26" r="AB30">
+        <v>229</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="21" r="AD30">
-        <v>135</v>
+      <c s="26" r="AD30">
+        <v>229</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="25" t="str" r="A31"/>
-      <c s="26" t="str" r="B31"/>
-      <c s="26" t="str" r="C31"/>
-      <c s="18" t="inlineStr" r="D31">
+      <c s="24" t="str" r="A31"/>
+      <c s="25" t="str" r="B31"/>
+      <c s="25" t="str" r="C31"/>
+      <c s="17" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="19" r="G31">
+      <c s="18" r="G31">
         <v>11</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>55</v>
+      <c s="26" r="J31">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="24" r="L31">
-        <v>7</v>
+      <c s="26" r="L31">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="22" r="N31">
+      <c s="21" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="22" r="P31">
+      <c s="21" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="22" r="R31">
+      <c s="21" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="22" r="T31">
+      <c s="21" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="22" r="V31">
+      <c s="21" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>91</v>
+      <c s="26" r="X31">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="22" r="Z31">
-        <v>29</v>
+      <c s="21" r="Z31">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="24" r="AB31">
-        <v>171</v>
+      <c s="23" r="AB31">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="24" r="AD31">
-        <v>171</v>
+      <c s="23" r="AD31">
+        <v>166</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A32">
+      <c s="15" t="inlineStr" r="A32">
         <is>
           <t xml:space="preserve">363271 </t>
         </is>
       </c>
-      <c s="17" t="str" r="B32"/>
-      <c s="17" t="str" r="C32"/>
-      <c s="18" t="inlineStr" r="D32">
+      <c s="16" t="str" r="B32"/>
+      <c s="16" t="str" r="C32"/>
+      <c s="17" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="19" r="G32">
-        <v>257</v>
+      <c s="18" r="G32">
+        <v>132</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="22" r="J32">
+      <c s="21" r="J32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="22" r="L32">
+      <c s="21" r="L32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="24" r="N32">
-        <v>28</v>
+      <c s="26" r="N32">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="21" r="P32">
+      <c s="20" r="P32">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
+      <c s="21" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
+      <c s="21" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="22" r="V32">
+      <c s="21" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>52</v>
+      <c s="26" r="X32">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="22" r="Z32">
-        <v>87</v>
+      <c s="21" r="Z32">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="24" r="AB32">
-        <v>166</v>
+      <c s="26" r="AB32">
+        <v>219</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="24" r="AD32">
-        <v>166</v>
+      <c s="26" r="AD32">
+        <v>219</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="23" t="str" r="A33"/>
-      <c s="18" t="inlineStr" r="D33">
+      <c s="22" t="str" r="A33"/>
+      <c s="17" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="19" r="G33">
-        <v>70</v>
+      <c s="18" r="G33">
+        <v>131</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="22" r="J33">
+      <c s="21" r="J33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="22" r="L33">
+      <c s="21" r="L33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="28" r="N33">
-        <v>40</v>
+      <c s="26" r="N33">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="21" r="P33">
-        <v>4</v>
+      <c s="23" r="P33">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="21" r="R33">
-        <v>0</v>
+      <c s="20" r="R33">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="21" r="T33">
-        <v>0</v>
+      <c s="20" r="T33">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="22" r="V33">
+      <c s="21" r="V33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>93</v>
+      <c s="26" r="X33">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="22" r="Z33">
-        <v>77</v>
+      <c s="21" r="Z33">
+        <v>162</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="28" r="AB33">
-        <v>210</v>
+      <c s="26" r="AB33">
+        <v>294</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="28" r="AD33">
-        <v>210</v>
+      <c s="26" r="AD33">
+        <v>294</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
-      <c s="18" t="inlineStr" r="D34">
+      <c s="22" t="str" r="A34"/>
+      <c s="17" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="19" r="G34">
-        <v>58</v>
+      <c s="18" r="G34">
+        <v>59</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="22" r="J34">
+      <c s="21" r="J34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="22" r="L34">
+      <c s="21" r="L34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="28" r="N34">
+      <c s="26" r="N34">
+        <v>43</v>
+      </c>
+      <c s="5" t="str" r="O34"/>
+      <c s="20" r="P34">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="Q34"/>
+      <c s="21" r="R34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S34"/>
+      <c s="21" r="T34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U34"/>
+      <c s="21" r="V34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W34"/>
+      <c s="26" r="X34">
+        <v>76</v>
+      </c>
+      <c s="5" t="str" r="Y34"/>
+      <c s="21" r="Z34">
         <v>44</v>
       </c>
-      <c s="5" t="str" r="O34"/>
-      <c s="21" r="P34">
-        <v>4</v>
-      </c>
-      <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S34"/>
-      <c s="22" r="T34">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U34"/>
-      <c s="22" r="V34">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>81</v>
-      </c>
-      <c s="5" t="str" r="Y34"/>
-      <c s="22" r="Z34">
-        <v>47</v>
-      </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="24" r="AB34">
-        <v>171</v>
+      <c s="19" r="AB34">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="24" r="AD34">
-        <v>171</v>
+      <c s="19" r="AD34">
+        <v>164</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="25" t="str" r="A35"/>
-      <c s="26" t="str" r="B35"/>
-      <c s="26" t="str" r="C35"/>
-      <c s="18" t="inlineStr" r="D35">
+      <c s="24" t="str" r="A35"/>
+      <c s="25" t="str" r="B35"/>
+      <c s="25" t="str" r="C35"/>
+      <c s="17" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="19" r="G35">
-        <v>7</v>
+      <c s="18" r="G35">
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="22" r="J35">
+      <c s="21" r="J35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="22" r="L35">
+      <c s="21" r="L35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="28" r="N35">
-        <v>49</v>
+      <c s="26" r="N35">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="21" r="P35">
+      <c s="20" r="P35">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
+      <c s="21" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
+      <c s="21" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="22" r="V35">
+      <c s="21" r="V35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>120</v>
+      <c s="26" r="X35">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="22" r="Z35">
-        <v>7</v>
+      <c s="21" r="Z35">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="24" r="AB35">
-        <v>178</v>
+      <c s="20" r="AB35">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="24" r="AD35">
-        <v>178</v>
+      <c s="20" r="AD35">
+        <v>133</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A36">
+      <c s="15" t="inlineStr" r="A36">
         <is>
           <t xml:space="preserve">364322 elizabethtown</t>
         </is>
       </c>
-      <c s="17" t="str" r="B36"/>
-      <c s="17" t="str" r="C36"/>
-      <c s="18" t="inlineStr" r="D36">
+      <c s="16" t="str" r="B36"/>
+      <c s="16" t="str" r="C36"/>
+      <c s="17" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="19" r="G36">
-        <v>250</v>
+      <c s="18" r="G36">
+        <v>161</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="20" r="J36">
-        <v>35</v>
+      <c s="19" r="J36">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
-        <v>3</v>
+      <c s="20" r="L36">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="22" r="N36">
+      <c s="21" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="22" r="P36">
+      <c s="21" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="22" r="R36">
+      <c s="21" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="22" r="T36">
+      <c s="21" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="28" r="V36">
-        <v>32</v>
+      <c s="23" r="V36">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>57</v>
+      <c s="26" r="X36">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="22" r="Z36">
-        <v>100</v>
+      <c s="21" r="Z36">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="24" r="AB36">
-        <v>220</v>
+      <c s="23" r="AB36">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="24" r="AD36">
-        <v>220</v>
+      <c s="23" r="AD36">
+        <v>186</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="23" t="str" r="A37"/>
-      <c s="18" t="inlineStr" r="D37">
+      <c s="22" t="str" r="A37"/>
+      <c s="17" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="19" r="G37">
-        <v>130</v>
+      <c s="18" r="G37">
+        <v>180</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="24" r="J37">
-        <v>41</v>
+      <c s="27" r="J37">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="20" r="L37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="22" r="N37">
+      <c s="21" r="N37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="22" r="P37">
+      <c s="21" r="P37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="22" r="R37">
+      <c s="21" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="22" r="T37">
+      <c s="21" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="28" r="V37">
-        <v>30</v>
+      <c s="26" r="V37">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>75</v>
+      <c s="26" r="X37">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="22" r="Z37">
-        <v>85</v>
+      <c s="21" r="Z37">
+        <v>112</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="24" r="AB37">
-        <v>227</v>
+      <c s="27" r="AB37">
+        <v>256</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="24" r="AD37">
-        <v>227</v>
+      <c s="27" r="AD37">
+        <v>256</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
-      <c s="18" t="inlineStr" r="D38">
+      <c s="22" t="str" r="A38"/>
+      <c s="17" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="19" r="G38">
-        <v>76</v>
+      <c s="18" r="G38">
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="20" r="J38">
-        <v>38</v>
+      <c s="27" r="J38">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="20" r="L38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="22" r="N38">
+      <c s="21" r="N38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="22" r="P38">
+      <c s="21" r="P38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
+      <c s="21" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="22" r="T38">
+      <c s="21" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="24" r="V38">
-        <v>21</v>
+      <c s="20" r="V38">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>69</v>
+      <c s="26" r="X38">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="22" r="Z38">
-        <v>64</v>
+      <c s="21" r="Z38">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="24" r="AB38">
-        <v>188</v>
+      <c s="23" r="AB38">
+        <v>187</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="24" r="AD38">
-        <v>188</v>
+      <c s="23" r="AD38">
+        <v>187</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="25" t="str" r="A39"/>
-      <c s="26" t="str" r="B39"/>
-      <c s="26" t="str" r="C39"/>
-      <c s="18" t="inlineStr" r="D39">
+      <c s="24" t="str" r="A39"/>
+      <c s="25" t="str" r="B39"/>
+      <c s="25" t="str" r="C39"/>
+      <c s="17" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="19" r="G39">
-        <v>19</v>
+      <c s="18" r="G39">
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="21" r="J39">
+      <c s="20" r="J39">
         <v>28</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
+      <c s="20" r="L39">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="22" r="N39">
+      <c s="21" r="N39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="22" r="P39">
+      <c s="21" r="P39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="22" r="R39">
+      <c s="21" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="22" r="T39">
+      <c s="21" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="21" r="V39">
-        <v>1</v>
+      <c s="20" r="V39">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>62</v>
+      <c s="26" r="X39">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="22" r="Z39">
-        <v>6</v>
+      <c s="21" r="Z39">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>92</v>
+      <c s="20" r="AB39">
+        <v>126</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>92</v>
+      <c s="20" r="AD39">
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2932,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/17/2025 12:38:25 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/20/2025 12:34:29 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,14 +146,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
     <fill>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,6 +303,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -333,7 +336,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -342,10 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -372,8 +375,8 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
@@ -496,14 +499,10 @@
     <col min="21" max="21" customWidth="1" width="0.32421875"/>
     <col min="22" max="22" customWidth="1" width="8.54296875"/>
     <col min="23" max="23" customWidth="1" width="0.32421875"/>
-    <col min="24" max="24" customWidth="1" width="8.54296875"/>
-    <col min="25" max="25" customWidth="1" width="0.32421875"/>
-    <col min="26" max="26" customWidth="1" width="8.54296875"/>
-    <col min="27" max="27" customWidth="1" width="0.32421875"/>
-    <col min="28" max="28" customWidth="1" width="2.9921875"/>
-    <col min="29" max="29" customWidth="1" width="5.86328125"/>
-    <col min="30" max="30" customWidth="1" width="8.8515625"/>
-    <col min="31" max="31" customWidth="1" width="66.94140625"/>
+    <col min="24" max="24" customWidth="1" width="8.8515625"/>
+    <col min="25" max="25" customWidth="1" width="8.8515625"/>
+    <col min="26" max="26" customWidth="1" width="2.9921875"/>
+    <col min="27" max="27" customWidth="1" width="81.6640625"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.4" customHeight="1">
@@ -517,7 +516,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 10/19/2025</t>
+          <t xml:space="preserve">Day: 10/21/2025</t>
         </is>
       </c>
     </row>
@@ -562,46 +561,34 @@
       <c s="5" t="str" r="L6"/>
       <c s="3" t="inlineStr" r="M6">
         <is>
-          <t xml:space="preserve">Menu 2</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="N6"/>
       <c s="3" t="inlineStr" r="O6">
         <is>
-          <t xml:space="preserve">Greet 2</t>
+          <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="P6"/>
       <c s="3" t="inlineStr" r="Q6">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="R6"/>
       <c s="3" t="inlineStr" r="S6">
         <is>
-          <t xml:space="preserve">Service</t>
+          <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="T6"/>
       <c s="3" t="inlineStr" r="U6">
         <is>
-          <t xml:space="preserve">Lane Queue</t>
+          <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
       <c s="5" t="str" r="V6"/>
-      <c s="3" t="inlineStr" r="W6">
-        <is>
-          <t xml:space="preserve">Lane Total</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="X6"/>
-      <c s="3" t="inlineStr" r="Y6">
-        <is>
-          <t xml:space="preserve">Lane Total 2</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="Z6"/>
     </row>
     <row r="7" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A7">
@@ -613,14 +600,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c s="8" r="F7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -634,30 +621,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
-        <v>0</v>
+      <c s="8" r="O7">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="P7"/>
       <c s="10" r="Q7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
+      <c s="9" r="S7">
+        <v>115</v>
+      </c>
+      <c s="5" t="str" r="T7"/>
+      <c s="9" r="U7">
         <v>57</v>
       </c>
-      <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>46</v>
-      </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>141</v>
-      </c>
-      <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>70</v>
-      </c>
-      <c s="5" t="str" r="Z7"/>
     </row>
     <row r="8" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A8">
@@ -669,14 +648,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c s="11" r="F8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -690,30 +669,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
-        <v>0</v>
+      <c s="12" r="O8">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="P8"/>
       <c s="10" r="Q8">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="11" r="S8">
-        <v>57</v>
+      <c s="9" r="S8">
+        <v>131</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>71</v>
+      <c s="9" r="U8">
+        <v>131</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="12" r="W8">
-        <v>167</v>
-      </c>
-      <c s="5" t="str" r="X8"/>
-      <c s="12" r="Y8">
-        <v>167</v>
-      </c>
-      <c s="5" t="str" r="Z8"/>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A9">
@@ -725,14 +696,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>378</v>
-      </c>
-      <c s="11" r="F9">
-        <v>62</v>
+        <v>394</v>
+      </c>
+      <c s="12" r="F9">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="11" r="H9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -746,30 +717,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
-        <v>0</v>
+      <c s="12" r="O9">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="P9"/>
       <c s="10" r="Q9">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="11" r="S9">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
-        <v>152</v>
+      <c s="11" r="U9">
+        <v>177</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="11" r="W9">
-        <v>305</v>
-      </c>
-      <c s="5" t="str" r="X9"/>
-      <c s="11" r="Y9">
-        <v>305</v>
-      </c>
-      <c s="5" t="str" r="Z9"/>
     </row>
     <row r="10" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A10">
@@ -781,14 +744,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>336</v>
-      </c>
-      <c s="11" r="F10">
-        <v>59</v>
+        <v>345</v>
+      </c>
+      <c s="12" r="F10">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="11" r="H10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -802,30 +765,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
-        <v>0</v>
+      <c s="12" r="O10">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="P10"/>
       <c s="10" r="Q10">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="11" r="S10">
-        <v>79</v>
+      <c s="8" r="S10">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>88</v>
+      <c s="8" r="U10">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>225</v>
-      </c>
-      <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>225</v>
-      </c>
-      <c s="5" t="str" r="Z10"/>
     </row>
     <row r="11" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A11">
@@ -837,7 +792,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -846,42 +801,34 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="11" r="I11">
-        <v>44</v>
+      <c s="13" r="I11">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="8" r="K11">
-        <v>5</v>
+      <c s="9" r="K11">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
-        <v>1</v>
+      <c s="10" r="M11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="9" r="O11">
-        <v>1</v>
+      <c s="12" r="O11">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="11" r="S11">
-        <v>79</v>
+      <c s="8" r="S11">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>113</v>
+      <c s="8" r="U11">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="11" r="W11">
-        <v>236</v>
-      </c>
-      <c s="5" t="str" r="X11"/>
-      <c s="11" r="Y11">
-        <v>236</v>
-      </c>
-      <c s="5" t="str" r="Z11"/>
     </row>
     <row r="12" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A12">
@@ -893,10 +840,10 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>419</v>
-      </c>
-      <c s="12" r="F12">
-        <v>44</v>
+        <v>431</v>
+      </c>
+      <c s="8" r="F12">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
@@ -910,38 +857,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="10" r="M12">
-        <v>0</v>
+      <c s="8" r="M12">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="10" r="O12">
-        <v>0</v>
+      <c s="12" r="O12">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="12" r="Q12">
-        <v>24</v>
+      <c s="10" r="Q12">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="11" r="S12">
-        <v>67</v>
+      <c s="8" r="S12">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>84</v>
+      <c s="8" r="U12">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="12" r="W12">
-        <v>215</v>
-      </c>
-      <c s="5" t="str" r="X12"/>
-      <c s="12" r="Y12">
-        <v>215</v>
-      </c>
-      <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="4.95" customHeight="1"/>
     <row r="14" ht="32.25" customHeight="0">
-      <c s="13" t="inlineStr" r="A14">
+      <c s="14" t="inlineStr" r="A14">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -962,1576 +901,1338 @@
       </c>
       <c s="4" t="str" r="H14"/>
       <c s="5" t="str" r="I14"/>
-      <c s="14" t="inlineStr" r="J14">
+      <c s="15" t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K14"/>
-      <c s="14" t="inlineStr" r="L14">
+      <c s="15" t="inlineStr" r="L14">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M14"/>
-      <c s="14" t="inlineStr" r="N14">
+      <c s="15" t="inlineStr" r="N14">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O14"/>
-      <c s="14" t="inlineStr" r="P14">
+      <c s="15" t="inlineStr" r="P14">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q14"/>
-      <c s="14" t="inlineStr" r="R14">
-        <is>
-          <t xml:space="preserve">Menu 2</t>
+      <c s="15" t="inlineStr" r="R14">
+        <is>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="S14"/>
-      <c s="14" t="inlineStr" r="T14">
-        <is>
-          <t xml:space="preserve">Greet 2</t>
+      <c s="15" t="inlineStr" r="T14">
+        <is>
+          <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="U14"/>
-      <c s="14" t="inlineStr" r="V14">
-        <is>
-          <t xml:space="preserve">Cashier</t>
+      <c s="15" t="inlineStr" r="V14">
+        <is>
+          <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="W14"/>
-      <c s="14" t="inlineStr" r="X14">
-        <is>
-          <t xml:space="preserve">Service</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="Y14"/>
-      <c s="14" t="inlineStr" r="Z14">
-        <is>
-          <t xml:space="preserve">Lane Queue</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="AA14"/>
-      <c s="14" t="inlineStr" r="AB14">
+      <c s="15" t="inlineStr" r="X14">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
-      <c s="5" t="str" r="AC14"/>
-      <c s="14" t="inlineStr" r="AD14">
+      <c s="15" t="inlineStr" r="Y14">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A15">
+      <c s="16" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">343939 Mt.Joy</t>
         </is>
       </c>
-      <c s="16" t="str" r="B15"/>
-      <c s="16" t="str" r="C15"/>
-      <c s="17" t="inlineStr" r="D15">
+      <c s="17" t="str" r="B15"/>
+      <c s="17" t="str" r="C15"/>
+      <c s="18" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="18" r="G15">
-        <v>157</v>
+      <c s="19" r="G15">
+        <v>204</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="19" r="J15">
-        <v>33</v>
+      <c s="20" r="J15">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="20" r="L15">
+      <c s="21" r="L15">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="21" r="N15">
+      <c s="22" r="N15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="21" r="P15">
+      <c s="22" r="P15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="21" r="R15">
+      <c s="22" r="R15">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="21" r="T15">
-        <v>0</v>
+      <c s="20" r="T15">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="21" r="V15">
-        <v>0</v>
+      <c s="22" r="V15">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="19" r="X15">
-        <v>48</v>
-      </c>
-      <c s="5" t="str" r="Y15"/>
-      <c s="21" r="Z15">
-        <v>44</v>
-      </c>
-      <c s="5" t="str" r="AA15"/>
-      <c s="20" r="AB15">
-        <v>127</v>
-      </c>
-      <c s="5" t="str" r="AC15"/>
-      <c s="20" r="AD15">
-        <v>63</v>
+      <c s="21" r="X15">
+        <v>100</v>
+      </c>
+      <c s="21" r="Y15">
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="22" t="str" r="A16"/>
-      <c s="17" t="inlineStr" r="D16">
+      <c s="23" t="str" r="A16"/>
+      <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="18" r="G16">
-        <v>152</v>
+      <c s="19" r="G16">
+        <v>93</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="19" r="J16">
+      <c s="20" r="J16">
+        <v>27</v>
+      </c>
+      <c s="5" t="str" r="K16"/>
+      <c s="21" r="L16">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="M16"/>
+      <c s="22" r="N16">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O16"/>
+      <c s="22" r="P16">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q16"/>
+      <c s="22" r="R16">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S16"/>
+      <c s="20" r="T16">
+        <v>52</v>
+      </c>
+      <c s="5" t="str" r="U16"/>
+      <c s="22" r="V16">
         <v>36</v>
       </c>
-      <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>4</v>
-      </c>
-      <c s="5" t="str" r="M16"/>
-      <c s="21" r="N16">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O16"/>
-      <c s="21" r="P16">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q16"/>
-      <c s="21" r="R16">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S16"/>
-      <c s="21" r="T16">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U16"/>
-      <c s="21" r="V16">
-        <v>0</v>
-      </c>
       <c s="5" t="str" r="W16"/>
-      <c s="19" r="X16">
-        <v>56</v>
-      </c>
-      <c s="5" t="str" r="Y16"/>
-      <c s="21" r="Z16">
+      <c s="21" r="X16">
+        <v>116</v>
+      </c>
+      <c s="21" r="Y16">
         <v>57</v>
       </c>
-      <c s="5" t="str" r="AA16"/>
-      <c s="23" r="AB16">
-        <v>150</v>
-      </c>
-      <c s="5" t="str" r="AC16"/>
-      <c s="20" r="AD16">
-        <v>75</v>
-      </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="22" t="str" r="A17"/>
-      <c s="17" t="inlineStr" r="D17">
+      <c s="23" t="str" r="A17"/>
+      <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="18" r="G17">
-        <v>51</v>
+      <c s="19" r="G17">
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="19" r="J17">
-        <v>38</v>
+      <c s="20" r="J17">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="19" r="L17">
-        <v>6</v>
+      <c s="21" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="21" r="N17">
+      <c s="22" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="21" r="P17">
+      <c s="22" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="21" r="R17">
+      <c s="22" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="21" r="T17">
-        <v>0</v>
+      <c s="24" r="T17">
+        <v>96</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="21" r="V17">
-        <v>0</v>
+      <c s="22" r="V17">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="23" r="X17">
-        <v>87</v>
-      </c>
-      <c s="5" t="str" r="Y17"/>
-      <c s="21" r="Z17">
-        <v>24</v>
-      </c>
-      <c s="5" t="str" r="AA17"/>
-      <c s="20" r="AB17">
-        <v>148</v>
-      </c>
-      <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>74</v>
+      <c s="25" r="X17">
+        <v>168</v>
+      </c>
+      <c s="21" r="Y17">
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="24" t="str" r="A18"/>
-      <c s="25" t="str" r="B18"/>
-      <c s="25" t="str" r="C18"/>
-      <c s="17" t="inlineStr" r="D18">
+      <c s="26" t="str" r="A18"/>
+      <c s="27" t="str" r="B18"/>
+      <c s="27" t="str" r="C18"/>
+      <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="18" r="G18">
-        <v>9</v>
+      <c s="19" r="G18">
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="26" r="J18">
-        <v>122</v>
+      <c s="20" r="J18">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="19" r="L18">
+      <c s="20" r="L18">
         <v>5</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="21" r="N18">
+      <c s="22" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="21" r="P18">
+      <c s="22" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="21" r="R18">
+      <c s="22" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="21" r="T18">
-        <v>0</v>
+      <c s="24" r="T18">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="21" r="V18">
-        <v>0</v>
+      <c s="22" r="V18">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="23" r="X18">
-        <v>64</v>
-      </c>
-      <c s="5" t="str" r="Y18"/>
-      <c s="21" r="Z18">
-        <v>8</v>
-      </c>
-      <c s="5" t="str" r="AA18"/>
-      <c s="23" r="AB18">
-        <v>195</v>
-      </c>
-      <c s="5" t="str" r="AC18"/>
-      <c s="19" r="AD18">
-        <v>97</v>
+      <c s="21" r="X18">
+        <v>121</v>
+      </c>
+      <c s="21" r="Y18">
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A19">
+      <c s="16" t="inlineStr" r="A19">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="16" t="str" r="B19"/>
-      <c s="16" t="str" r="C19"/>
-      <c s="17" t="inlineStr" r="D19">
+      <c s="17" t="str" r="B19"/>
+      <c s="17" t="str" r="C19"/>
+      <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="18" r="G19">
-        <v>2</v>
+      <c s="19" r="G19">
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="26" r="J19">
-        <v>35</v>
+      <c s="20" r="J19">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="20" r="L19">
-        <v>3</v>
+      <c s="21" r="L19">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="21" r="N19">
+      <c s="22" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="21" r="P19">
+      <c s="22" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="21" r="R19">
+      <c s="22" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="21" r="T19">
-        <v>0</v>
+      <c s="28" r="T19">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="21" r="V19">
-        <v>0</v>
+      <c s="22" r="V19">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="26" r="X19">
-        <v>59</v>
-      </c>
-      <c s="5" t="str" r="Y19"/>
-      <c s="21" r="Z19">
-        <v>9</v>
-      </c>
-      <c s="5" t="str" r="AA19"/>
-      <c s="20" r="AB19">
-        <v>103</v>
-      </c>
-      <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>103</v>
+      <c s="21" r="X19">
+        <v>109</v>
+      </c>
+      <c s="21" r="Y19">
+        <v>109</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="22" t="str" r="A20"/>
-      <c s="17" t="inlineStr" r="D20">
+      <c s="23" t="str" r="A20"/>
+      <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="18" r="G20">
-        <v>182</v>
+      <c s="19" r="G20">
+        <v>282</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="26" r="J20">
+      <c s="25" r="J20">
+        <v>26</v>
+      </c>
+      <c s="5" t="str" r="K20"/>
+      <c s="21" r="L20">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M20"/>
+      <c s="22" r="N20">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O20"/>
+      <c s="22" r="P20">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q20"/>
+      <c s="22" r="R20">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S20"/>
+      <c s="25" r="T20">
         <v>38</v>
       </c>
-      <c s="5" t="str" r="K20"/>
-      <c s="20" r="L20">
-        <v>3</v>
-      </c>
-      <c s="5" t="str" r="M20"/>
-      <c s="21" r="N20">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O20"/>
-      <c s="21" r="P20">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q20"/>
-      <c s="21" r="R20">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S20"/>
-      <c s="21" r="T20">
-        <v>0</v>
-      </c>
       <c s="5" t="str" r="U20"/>
-      <c s="21" r="V20">
-        <v>0</v>
+      <c s="22" r="V20">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="26" r="X20">
-        <v>54</v>
-      </c>
-      <c s="5" t="str" r="Y20"/>
-      <c s="21" r="Z20">
-        <v>76</v>
-      </c>
-      <c s="5" t="str" r="AA20"/>
-      <c s="23" r="AB20">
-        <v>169</v>
-      </c>
-      <c s="5" t="str" r="AC20"/>
-      <c s="23" r="AD20">
-        <v>169</v>
+      <c s="21" r="X20">
+        <v>122</v>
+      </c>
+      <c s="21" r="Y20">
+        <v>122</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="22" t="str" r="A21"/>
-      <c s="17" t="inlineStr" r="D21">
+      <c s="23" t="str" r="A21"/>
+      <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="18" r="G21">
-        <v>176</v>
+      <c s="19" r="G21">
+        <v>127</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="26" r="J21">
-        <v>38</v>
+      <c s="24" r="J21">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="20" r="L21">
+      <c s="21" r="L21">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="21" r="N21">
+      <c s="22" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="21" r="P21">
+      <c s="22" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="21" r="R21">
+      <c s="22" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="21" r="T21">
-        <v>0</v>
+      <c s="28" r="T21">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="21" r="V21">
-        <v>0</v>
+      <c s="22" r="V21">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="26" r="X21">
-        <v>53</v>
-      </c>
-      <c s="5" t="str" r="Y21"/>
-      <c s="21" r="Z21">
-        <v>83</v>
-      </c>
-      <c s="5" t="str" r="AA21"/>
-      <c s="23" r="AB21">
-        <v>174</v>
-      </c>
-      <c s="5" t="str" r="AC21"/>
-      <c s="23" r="AD21">
-        <v>174</v>
+      <c s="20" r="X21">
+        <v>156</v>
+      </c>
+      <c s="20" r="Y21">
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="22" t="str" r="A22"/>
-      <c s="17" t="inlineStr" r="D22">
+      <c s="23" t="str" r="A22"/>
+      <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="18" r="G22">
-        <v>52</v>
+      <c s="19" r="G22">
+        <v>82</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="27" r="J22">
+      <c s="24" r="J22">
         <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="20" r="L22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="21" r="N22">
+      <c s="22" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="21" r="P22">
+      <c s="22" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="21" r="R22">
+      <c s="22" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="21" r="T22">
-        <v>0</v>
+      <c s="28" r="T22">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="21" r="V22">
-        <v>0</v>
+      <c s="22" r="V22">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="26" r="X22">
-        <v>73</v>
-      </c>
-      <c s="5" t="str" r="Y22"/>
-      <c s="21" r="Z22">
-        <v>26</v>
-      </c>
-      <c s="5" t="str" r="AA22"/>
-      <c s="20" r="AB22">
-        <v>132</v>
-      </c>
-      <c s="5" t="str" r="AC22"/>
-      <c s="20" r="AD22">
-        <v>132</v>
+      <c s="21" r="X22">
+        <v>126</v>
+      </c>
+      <c s="21" r="Y22">
+        <v>126</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="24" t="str" r="A23"/>
-      <c s="25" t="str" r="B23"/>
-      <c s="25" t="str" r="C23"/>
-      <c s="17" t="inlineStr" r="D23">
+      <c s="26" t="str" r="A23"/>
+      <c s="27" t="str" r="B23"/>
+      <c s="27" t="str" r="C23"/>
+      <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="18" r="G23">
-        <v>8</v>
+      <c s="19" r="G23">
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="26" r="J23">
-        <v>40</v>
+      <c s="24" r="J23">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="23" r="L23">
-        <v>9</v>
+      <c s="20" r="L23">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="21" r="N23">
+      <c s="22" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="21" r="P23">
+      <c s="22" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="21" r="R23">
+      <c s="22" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="21" r="T23">
-        <v>0</v>
+      <c s="28" r="T23">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="21" r="V23">
-        <v>0</v>
+      <c s="22" r="V23">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="26" r="X23">
-        <v>131</v>
-      </c>
-      <c s="5" t="str" r="Y23"/>
-      <c s="21" r="Z23">
-        <v>43</v>
-      </c>
-      <c s="5" t="str" r="AA23"/>
-      <c s="26" r="AB23">
-        <v>215</v>
-      </c>
-      <c s="5" t="str" r="AC23"/>
-      <c s="26" r="AD23">
-        <v>215</v>
+      <c s="21" r="X23">
+        <v>139</v>
+      </c>
+      <c s="21" r="Y23">
+        <v>139</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A24">
+      <c s="16" t="inlineStr" r="A24">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="16" t="str" r="B24"/>
-      <c s="16" t="str" r="C24"/>
-      <c s="17" t="inlineStr" r="D24">
+      <c s="17" t="str" r="B24"/>
+      <c s="17" t="str" r="C24"/>
+      <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="18" r="G24">
-        <v>150</v>
+      <c s="19" r="G24">
+        <v>232</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="26" r="J24">
-        <v>50</v>
+      <c s="24" r="J24">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="26" r="L24">
-        <v>13</v>
+      <c s="21" r="L24">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="21" r="N24">
+      <c s="22" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="21" r="P24">
+      <c s="22" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="21" r="R24">
+      <c s="22" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="21" r="T24">
-        <v>0</v>
+      <c s="28" r="T24">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="21" r="V24">
-        <v>0</v>
+      <c s="22" r="V24">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="26" r="X24">
-        <v>73</v>
-      </c>
-      <c s="5" t="str" r="Y24"/>
-      <c s="21" r="Z24">
-        <v>131</v>
-      </c>
-      <c s="5" t="str" r="AA24"/>
-      <c s="26" r="AB24">
-        <v>254</v>
-      </c>
-      <c s="5" t="str" r="AC24"/>
-      <c s="26" r="AD24">
-        <v>254</v>
+      <c s="21" r="X24">
+        <v>142</v>
+      </c>
+      <c s="21" r="Y24">
+        <v>142</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="22" t="str" r="A25"/>
-      <c s="17" t="inlineStr" r="D25">
+      <c s="23" t="str" r="A25"/>
+      <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="18" r="G25">
-        <v>153</v>
+      <c s="19" r="G25">
+        <v>91</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="26" r="J25">
-        <v>68</v>
+      <c s="28" r="J25">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="26" r="L25">
-        <v>21</v>
+      <c s="25" r="L25">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="21" r="N25">
+      <c s="22" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="21" r="P25">
+      <c s="22" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="21" r="R25">
+      <c s="22" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="21" r="T25">
-        <v>0</v>
+      <c s="28" r="T25">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="21" r="V25">
-        <v>0</v>
+      <c s="22" r="V25">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="26" r="X25">
-        <v>84</v>
-      </c>
-      <c s="5" t="str" r="Y25"/>
-      <c s="21" r="Z25">
-        <v>171</v>
-      </c>
-      <c s="5" t="str" r="AA25"/>
-      <c s="26" r="AB25">
-        <v>321</v>
-      </c>
-      <c s="5" t="str" r="AC25"/>
-      <c s="26" r="AD25">
-        <v>321</v>
+      <c s="24" r="X25">
+        <v>187</v>
+      </c>
+      <c s="24" r="Y25">
+        <v>187</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="22" t="str" r="A26"/>
-      <c s="17" t="inlineStr" r="D26">
+      <c s="23" t="str" r="A26"/>
+      <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="18" r="G26">
-        <v>57</v>
+      <c s="19" r="G26">
+        <v>56</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="26" r="J26">
-        <v>89</v>
+      <c s="28" r="J26">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="26" r="L26">
-        <v>37</v>
+      <c s="28" r="L26">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="21" r="N26">
+      <c s="22" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="21" r="P26">
+      <c s="22" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="21" r="R26">
+      <c s="22" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="21" r="T26">
-        <v>0</v>
+      <c s="28" r="T26">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="21" r="V26">
-        <v>0</v>
+      <c s="22" r="V26">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="26" r="X26">
-        <v>144</v>
-      </c>
-      <c s="5" t="str" r="Y26"/>
-      <c s="21" r="Z26">
-        <v>190</v>
-      </c>
-      <c s="5" t="str" r="AA26"/>
-      <c s="26" r="AB26">
-        <v>422</v>
-      </c>
-      <c s="5" t="str" r="AC26"/>
-      <c s="26" r="AD26">
-        <v>422</v>
+      <c s="28" r="X26">
+        <v>282</v>
+      </c>
+      <c s="28" r="Y26">
+        <v>282</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="24" t="str" r="A27"/>
-      <c s="25" t="str" r="B27"/>
-      <c s="25" t="str" r="C27"/>
-      <c s="17" t="inlineStr" r="D27">
+      <c s="26" t="str" r="A27"/>
+      <c s="27" t="str" r="B27"/>
+      <c s="27" t="str" r="C27"/>
+      <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="18" r="G27">
-        <v>18</v>
+      <c s="19" r="G27">
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="26" r="J27">
-        <v>37</v>
+      <c s="28" r="J27">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="27" r="L27">
+      <c s="24" r="L27">
         <v>10</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="21" r="N27">
+      <c s="22" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="21" r="P27">
+      <c s="22" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="21" r="R27">
+      <c s="22" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="21" r="T27">
-        <v>0</v>
+      <c s="28" r="T27">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="21" r="V27">
-        <v>0</v>
+      <c s="22" r="V27">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="26" r="X27">
-        <v>163</v>
-      </c>
-      <c s="5" t="str" r="Y27"/>
-      <c s="21" r="Z27">
-        <v>33</v>
-      </c>
-      <c s="5" t="str" r="AA27"/>
-      <c s="26" r="AB27">
-        <v>231</v>
-      </c>
-      <c s="5" t="str" r="AC27"/>
-      <c s="26" r="AD27">
-        <v>231</v>
+      <c s="28" r="X27">
+        <v>263</v>
+      </c>
+      <c s="28" r="Y27">
+        <v>263</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A28">
+      <c s="16" t="inlineStr" r="A28">
         <is>
           <t xml:space="preserve">359042 LITITZ</t>
         </is>
       </c>
-      <c s="16" t="str" r="B28"/>
-      <c s="16" t="str" r="C28"/>
-      <c s="17" t="inlineStr" r="D28">
+      <c s="17" t="str" r="B28"/>
+      <c s="17" t="str" r="C28"/>
+      <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="18" r="G28">
-        <v>139</v>
+      <c s="19" r="G28">
+        <v>215</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="26" r="J28">
-        <v>44</v>
+      <c s="24" r="J28">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="23" r="L28">
-        <v>9</v>
+      <c s="20" r="L28">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="21" r="N28">
+      <c s="22" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="21" r="P28">
+      <c s="22" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="21" r="R28">
+      <c s="22" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="21" r="T28">
-        <v>0</v>
+      <c s="28" r="T28">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="21" r="V28">
-        <v>0</v>
+      <c s="22" r="V28">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="26" r="X28">
-        <v>62</v>
-      </c>
-      <c s="5" t="str" r="Y28"/>
-      <c s="21" r="Z28">
-        <v>77</v>
-      </c>
-      <c s="5" t="str" r="AA28"/>
-      <c s="27" r="AB28">
-        <v>184</v>
-      </c>
-      <c s="5" t="str" r="AC28"/>
-      <c s="27" r="AD28">
-        <v>184</v>
+      <c s="21" r="X28">
+        <v>149</v>
+      </c>
+      <c s="21" r="Y28">
+        <v>149</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="22" t="str" r="A29"/>
-      <c s="17" t="inlineStr" r="D29">
+      <c s="23" t="str" r="A29"/>
+      <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="18" r="G29">
-        <v>141</v>
+      <c s="19" r="G29">
+        <v>80</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="26" r="J29">
-        <v>70</v>
+      <c s="28" r="J29">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="26" r="L29">
-        <v>15</v>
+      <c s="25" r="L29">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="21" r="N29">
+      <c s="22" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="21" r="P29">
+      <c s="22" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="21" r="R29">
+      <c s="22" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="21" r="T29">
-        <v>0</v>
+      <c s="28" r="T29">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="21" r="V29">
-        <v>0</v>
+      <c s="22" r="V29">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="26" r="X29">
-        <v>83</v>
-      </c>
-      <c s="5" t="str" r="Y29"/>
-      <c s="21" r="Z29">
-        <v>117</v>
-      </c>
-      <c s="5" t="str" r="AA29"/>
-      <c s="26" r="AB29">
-        <v>269</v>
-      </c>
-      <c s="5" t="str" r="AC29"/>
-      <c s="26" r="AD29">
-        <v>269</v>
+      <c s="21" r="X29">
+        <v>147</v>
+      </c>
+      <c s="21" r="Y29">
+        <v>147</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="22" t="str" r="A30"/>
-      <c s="17" t="inlineStr" r="D30">
+      <c s="23" t="str" r="A30"/>
+      <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="18" r="G30">
-        <v>45</v>
+      <c s="19" r="G30">
+        <v>40</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="26" r="J30">
-        <v>68</v>
+      <c s="28" r="J30">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="26" r="L30">
-        <v>16</v>
+      <c s="24" r="L30">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="21" r="N30">
+      <c s="22" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="21" r="P30">
+      <c s="22" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="21" r="R30">
+      <c s="22" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="21" r="T30">
-        <v>0</v>
+      <c s="28" r="T30">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="21" r="V30">
-        <v>0</v>
+      <c s="22" r="V30">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="26" r="X30">
-        <v>114</v>
-      </c>
-      <c s="5" t="str" r="Y30"/>
-      <c s="21" r="Z30">
-        <v>48</v>
-      </c>
-      <c s="5" t="str" r="AA30"/>
-      <c s="26" r="AB30">
-        <v>229</v>
-      </c>
-      <c s="5" t="str" r="AC30"/>
-      <c s="26" r="AD30">
-        <v>229</v>
+      <c s="28" r="X30">
+        <v>239</v>
+      </c>
+      <c s="28" r="Y30">
+        <v>239</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="24" t="str" r="A31"/>
-      <c s="25" t="str" r="B31"/>
-      <c s="25" t="str" r="C31"/>
-      <c s="17" t="inlineStr" r="D31">
+      <c s="26" t="str" r="A31"/>
+      <c s="27" t="str" r="B31"/>
+      <c s="27" t="str" r="C31"/>
+      <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="18" r="G31">
-        <v>11</v>
+      <c s="19" r="G31">
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="26" r="J31">
-        <v>59</v>
+      <c s="28" r="J31">
+        <v>98</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="26" r="L31">
-        <v>12</v>
+      <c s="28" r="L31">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="21" r="N31">
+      <c s="22" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="21" r="P31">
+      <c s="22" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="21" r="R31">
+      <c s="22" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="21" r="T31">
-        <v>0</v>
+      <c s="28" r="T31">
+        <v>115</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="21" r="V31">
-        <v>0</v>
+      <c s="22" r="V31">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="26" r="X31">
-        <v>97</v>
-      </c>
-      <c s="5" t="str" r="Y31"/>
-      <c s="21" r="Z31">
-        <v>14</v>
-      </c>
-      <c s="5" t="str" r="AA31"/>
-      <c s="23" r="AB31">
-        <v>166</v>
-      </c>
-      <c s="5" t="str" r="AC31"/>
-      <c s="23" r="AD31">
-        <v>166</v>
+      <c s="28" r="X31">
+        <v>317</v>
+      </c>
+      <c s="28" r="Y31">
+        <v>317</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A32">
+      <c s="16" t="inlineStr" r="A32">
         <is>
           <t xml:space="preserve">363271 </t>
         </is>
       </c>
-      <c s="16" t="str" r="B32"/>
-      <c s="16" t="str" r="C32"/>
-      <c s="17" t="inlineStr" r="D32">
+      <c s="17" t="str" r="B32"/>
+      <c s="17" t="str" r="C32"/>
+      <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="18" r="G32">
-        <v>132</v>
+      <c s="19" r="G32">
+        <v>243</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="21" r="J32">
+      <c s="22" r="J32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="21" r="L32">
+      <c s="22" r="L32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="26" r="N32">
-        <v>40</v>
+      <c s="24" r="N32">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="20" r="P32">
-        <v>3</v>
+      <c s="21" r="P32">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="21" r="R32">
+      <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="21" r="T32">
-        <v>0</v>
+      <c s="28" r="T32">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="21" r="V32">
-        <v>0</v>
+      <c s="22" r="V32">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="26" r="X32">
-        <v>76</v>
-      </c>
-      <c s="5" t="str" r="Y32"/>
-      <c s="21" r="Z32">
-        <v>103</v>
-      </c>
-      <c s="5" t="str" r="AA32"/>
-      <c s="26" r="AB32">
-        <v>219</v>
-      </c>
-      <c s="5" t="str" r="AC32"/>
-      <c s="26" r="AD32">
-        <v>219</v>
+      <c s="20" r="X32">
+        <v>154</v>
+      </c>
+      <c s="20" r="Y32">
+        <v>154</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="22" t="str" r="A33"/>
-      <c s="17" t="inlineStr" r="D33">
+      <c s="23" t="str" r="A33"/>
+      <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="18" r="G33">
-        <v>131</v>
+      <c s="19" r="G33">
+        <v>79</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="21" r="J33">
+      <c s="22" r="J33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="21" r="L33">
+      <c s="22" r="L33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="26" r="N33">
-        <v>49</v>
+      <c s="28" r="N33">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="23" r="P33">
-        <v>7</v>
+      <c s="21" r="P33">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="20" r="R33">
-        <v>1</v>
+      <c s="22" r="R33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="20" r="T33">
-        <v>1</v>
+      <c s="28" r="T33">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="21" r="V33">
-        <v>0</v>
+      <c s="22" r="V33">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="26" r="X33">
-        <v>85</v>
-      </c>
-      <c s="5" t="str" r="Y33"/>
-      <c s="21" r="Z33">
-        <v>162</v>
-      </c>
-      <c s="5" t="str" r="AA33"/>
-      <c s="26" r="AB33">
-        <v>294</v>
-      </c>
-      <c s="5" t="str" r="AC33"/>
-      <c s="26" r="AD33">
-        <v>294</v>
+      <c s="25" r="X33">
+        <v>178</v>
+      </c>
+      <c s="25" r="Y33">
+        <v>178</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="22" t="str" r="A34"/>
-      <c s="17" t="inlineStr" r="D34">
+      <c s="23" t="str" r="A34"/>
+      <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="18" r="G34">
-        <v>59</v>
+      <c s="19" r="G34">
+        <v>41</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="21" r="J34">
+      <c s="22" r="J34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="21" r="L34">
+      <c s="22" r="L34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="26" r="N34">
-        <v>43</v>
+      <c s="24" r="N34">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="20" r="P34">
-        <v>3</v>
+      <c s="21" r="P34">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="21" r="T34">
-        <v>0</v>
+      <c s="28" r="T34">
+        <v>106</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
-        <v>0</v>
+      <c s="22" r="V34">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="26" r="X34">
-        <v>76</v>
-      </c>
-      <c s="5" t="str" r="Y34"/>
-      <c s="21" r="Z34">
-        <v>44</v>
-      </c>
-      <c s="5" t="str" r="AA34"/>
-      <c s="19" r="AB34">
-        <v>164</v>
-      </c>
-      <c s="5" t="str" r="AC34"/>
-      <c s="19" r="AD34">
-        <v>164</v>
+      <c s="25" r="X34">
+        <v>170</v>
+      </c>
+      <c s="25" r="Y34">
+        <v>170</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="24" t="str" r="A35"/>
-      <c s="25" t="str" r="B35"/>
-      <c s="25" t="str" r="C35"/>
-      <c s="17" t="inlineStr" r="D35">
+      <c s="26" t="str" r="A35"/>
+      <c s="27" t="str" r="B35"/>
+      <c s="27" t="str" r="C35"/>
+      <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="18" r="G35">
-        <v>11</v>
+      <c s="19" r="G35">
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="21" r="J35">
+      <c s="22" r="J35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="21" r="L35">
+      <c s="22" r="L35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="26" r="N35">
-        <v>44</v>
+      <c s="24" r="N35">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="20" r="P35">
-        <v>3</v>
+      <c s="21" r="P35">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
+      <c s="22" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
-        <v>0</v>
+      <c s="28" r="T35">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
-        <v>0</v>
+      <c s="22" r="V35">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="26" r="X35">
-        <v>65</v>
-      </c>
-      <c s="5" t="str" r="Y35"/>
-      <c s="21" r="Z35">
-        <v>23</v>
-      </c>
-      <c s="5" t="str" r="AA35"/>
-      <c s="20" r="AB35">
-        <v>133</v>
-      </c>
-      <c s="5" t="str" r="AC35"/>
-      <c s="20" r="AD35">
-        <v>133</v>
+      <c s="20" r="X35">
+        <v>152</v>
+      </c>
+      <c s="20" r="Y35">
+        <v>152</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A36">
+      <c s="16" t="inlineStr" r="A36">
         <is>
           <t xml:space="preserve">364322 elizabethtown</t>
         </is>
       </c>
-      <c s="16" t="str" r="B36"/>
-      <c s="16" t="str" r="C36"/>
-      <c s="17" t="inlineStr" r="D36">
+      <c s="17" t="str" r="B36"/>
+      <c s="17" t="str" r="C36"/>
+      <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="18" r="G36">
-        <v>161</v>
+      <c s="19" r="G36">
+        <v>240</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="19" r="J36">
-        <v>36</v>
+      <c s="21" r="J36">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
+      <c s="21" r="L36">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="21" r="N36">
+      <c s="22" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="21" r="P36">
+      <c s="22" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="21" r="R36">
-        <v>0</v>
+      <c s="25" r="R36">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="21" r="T36">
-        <v>0</v>
+      <c s="28" r="T36">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="23" r="V36">
-        <v>20</v>
+      <c s="22" r="V36">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="26" r="X36">
-        <v>59</v>
-      </c>
-      <c s="5" t="str" r="Y36"/>
-      <c s="21" r="Z36">
-        <v>73</v>
-      </c>
-      <c s="5" t="str" r="AA36"/>
-      <c s="23" r="AB36">
-        <v>186</v>
-      </c>
-      <c s="5" t="str" r="AC36"/>
-      <c s="23" r="AD36">
-        <v>186</v>
+      <c s="20" r="X36">
+        <v>170</v>
+      </c>
+      <c s="20" r="Y36">
+        <v>170</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="22" t="str" r="A37"/>
-      <c s="17" t="inlineStr" r="D37">
+      <c s="23" t="str" r="A37"/>
+      <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="18" r="G37">
-        <v>180</v>
+      <c s="19" r="G37">
+        <v>104</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="27" r="J37">
-        <v>51</v>
+      <c s="20" r="J37">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="20" r="L37">
+      <c s="21" r="L37">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="21" r="N37">
+      <c s="22" r="N37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="21" r="P37">
+      <c s="22" r="P37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q37"/>
       <c s="21" r="R37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="21" r="T37">
-        <v>0</v>
+      <c s="28" r="T37">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="26" r="V37">
-        <v>33</v>
+      <c s="22" r="V37">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="26" r="X37">
-        <v>68</v>
-      </c>
-      <c s="5" t="str" r="Y37"/>
-      <c s="21" r="Z37">
-        <v>112</v>
-      </c>
-      <c s="5" t="str" r="AA37"/>
-      <c s="27" r="AB37">
-        <v>256</v>
-      </c>
-      <c s="5" t="str" r="AC37"/>
-      <c s="27" r="AD37">
-        <v>256</v>
+      <c s="20" r="X37">
+        <v>164</v>
+      </c>
+      <c s="20" r="Y37">
+        <v>164</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="22" t="str" r="A38"/>
-      <c s="17" t="inlineStr" r="D38">
+      <c s="23" t="str" r="A38"/>
+      <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="18" r="G38">
-        <v>71</v>
+      <c s="19" r="G38">
+        <v>78</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="27" r="J38">
-        <v>50</v>
+      <c s="20" r="J38">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="20" r="L38">
+      <c s="21" r="L38">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="21" r="N38">
+      <c s="22" r="N38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="21" r="P38">
+      <c s="22" r="P38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
       <c s="21" r="R38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
-        <v>0</v>
+      <c s="28" r="T38">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="20" r="V38">
-        <v>12</v>
+      <c s="22" r="V38">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="26" r="X38">
-        <v>85</v>
-      </c>
-      <c s="5" t="str" r="Y38"/>
-      <c s="21" r="Z38">
-        <v>45</v>
-      </c>
-      <c s="5" t="str" r="AA38"/>
-      <c s="23" r="AB38">
-        <v>187</v>
-      </c>
-      <c s="5" t="str" r="AC38"/>
-      <c s="23" r="AD38">
-        <v>187</v>
+      <c s="21" r="X38">
+        <v>146</v>
+      </c>
+      <c s="21" r="Y38">
+        <v>146</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="24" t="str" r="A39"/>
-      <c s="25" t="str" r="B39"/>
-      <c s="25" t="str" r="C39"/>
-      <c s="17" t="inlineStr" r="D39">
+      <c s="26" t="str" r="A39"/>
+      <c s="27" t="str" r="B39"/>
+      <c s="27" t="str" r="C39"/>
+      <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="18" r="G39">
-        <v>7</v>
+      <c s="19" r="G39">
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="20" r="J39">
-        <v>28</v>
+      <c s="21" r="J39">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="20" r="L39">
-        <v>4</v>
+      <c s="21" r="L39">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="21" r="N39">
+      <c s="22" r="N39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="21" r="P39">
+      <c s="22" r="P39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
       <c s="21" r="R39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
-        <v>0</v>
+      <c s="28" r="T39">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="20" r="V39">
-        <v>2</v>
+      <c s="22" r="V39">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="26" r="X39">
-        <v>87</v>
-      </c>
-      <c s="5" t="str" r="Y39"/>
-      <c s="21" r="Z39">
-        <v>8</v>
-      </c>
-      <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>126</v>
-      </c>
-      <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>126</v>
+      <c s="21" r="X39">
+        <v>107</v>
+      </c>
+      <c s="21" r="Y39">
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:AB1"/>
-    <mergeCell ref="C3:AB3"/>
+    <mergeCell ref="C1:Z1"/>
+    <mergeCell ref="C3:Z3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
@@ -2541,8 +2242,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
@@ -2552,8 +2251,6 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:J8"/>
@@ -2563,8 +2260,6 @@
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -2574,8 +2269,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I10:J10"/>
@@ -2585,8 +2278,6 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -2596,8 +2287,6 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -2607,8 +2296,6 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
@@ -2619,9 +2306,6 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="A15:C18"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -2632,9 +2316,6 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -2644,9 +2325,6 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
@@ -2656,9 +2334,6 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -2668,9 +2343,6 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="A19:C23"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -2681,9 +2353,6 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
@@ -2693,9 +2362,6 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
@@ -2705,9 +2371,6 @@
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:K22"/>
@@ -2717,9 +2380,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:K23"/>
@@ -2729,9 +2389,6 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="A24:C27"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
@@ -2742,9 +2399,6 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:K25"/>
@@ -2754,9 +2408,6 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:K26"/>
@@ -2766,9 +2417,6 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="J27:K27"/>
@@ -2778,9 +2426,6 @@
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="A28:C31"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
@@ -2791,9 +2436,6 @@
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:K29"/>
@@ -2803,9 +2445,6 @@
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -2815,9 +2454,6 @@
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:K31"/>
@@ -2827,9 +2463,6 @@
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="A32:C35"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G32:I32"/>
@@ -2840,9 +2473,6 @@
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T32:U32"/>
     <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:K33"/>
@@ -2852,9 +2482,6 @@
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="J34:K34"/>
@@ -2864,9 +2491,6 @@
     <mergeCell ref="R34:S34"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:K35"/>
@@ -2876,9 +2500,6 @@
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="A36:C39"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="G36:I36"/>
@@ -2889,9 +2510,6 @@
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="T36:U36"/>
     <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -2901,9 +2519,6 @@
     <mergeCell ref="R37:S37"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="J38:K38"/>
@@ -2913,9 +2528,6 @@
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="T38:U38"/>
     <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:K39"/>
@@ -2925,14 +2537,11 @@
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/20/2025 12:34:29 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/22/2025 12:31:18 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -152,14 +152,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,13 +333,13 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -376,8 +376,8 @@
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -499,10 +499,14 @@
     <col min="21" max="21" customWidth="1" width="0.32421875"/>
     <col min="22" max="22" customWidth="1" width="8.54296875"/>
     <col min="23" max="23" customWidth="1" width="0.32421875"/>
-    <col min="24" max="24" customWidth="1" width="8.8515625"/>
-    <col min="25" max="25" customWidth="1" width="8.8515625"/>
-    <col min="26" max="26" customWidth="1" width="2.9921875"/>
-    <col min="27" max="27" customWidth="1" width="81.6640625"/>
+    <col min="24" max="24" customWidth="1" width="8.54296875"/>
+    <col min="25" max="25" customWidth="1" width="0.32421875"/>
+    <col min="26" max="26" customWidth="1" width="8.54296875"/>
+    <col min="27" max="27" customWidth="1" width="0.32421875"/>
+    <col min="28" max="28" customWidth="1" width="2.9921875"/>
+    <col min="29" max="29" customWidth="1" width="5.86328125"/>
+    <col min="30" max="30" customWidth="1" width="8.8515625"/>
+    <col min="31" max="31" customWidth="1" width="66.94140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.4" customHeight="1">
@@ -516,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 10/21/2025</t>
+          <t xml:space="preserve">Day: 11/05/2025</t>
         </is>
       </c>
     </row>
@@ -561,34 +565,46 @@
       <c s="5" t="str" r="L6"/>
       <c s="3" t="inlineStr" r="M6">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="N6"/>
       <c s="3" t="inlineStr" r="O6">
         <is>
-          <t xml:space="preserve">Service</t>
+          <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="P6"/>
       <c s="3" t="inlineStr" r="Q6">
         <is>
-          <t xml:space="preserve">Lane Queue</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="R6"/>
       <c s="3" t="inlineStr" r="S6">
         <is>
-          <t xml:space="preserve">Lane Total</t>
+          <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="T6"/>
       <c s="3" t="inlineStr" r="U6">
         <is>
+          <t xml:space="preserve">Lane Queue</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="V6"/>
+      <c s="3" t="inlineStr" r="W6">
+        <is>
+          <t xml:space="preserve">Lane Total</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="X6"/>
+      <c s="3" t="inlineStr" r="Y6">
+        <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
-      <c s="5" t="str" r="V6"/>
+      <c s="5" t="str" r="Z6"/>
     </row>
     <row r="7" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A7">
@@ -600,10 +616,10 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c s="8" r="F7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
@@ -621,22 +637,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="8" r="O7">
-        <v>54</v>
+      <c s="10" r="O7">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
       <c s="10" r="Q7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="9" r="S7">
-        <v>115</v>
+      <c s="11" r="S7">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>57</v>
+      <c s="10" r="U7">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="V7"/>
+      <c s="11" r="W7">
+        <v>164</v>
+      </c>
+      <c s="5" t="str" r="X7"/>
+      <c s="9" r="Y7">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="Z7"/>
     </row>
     <row r="8" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A8">
@@ -648,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>513</v>
-      </c>
-      <c s="11" r="F8">
-        <v>29</v>
+        <v>518</v>
+      </c>
+      <c s="12" r="F8">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -669,22 +693,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="12" r="O8">
-        <v>50</v>
+      <c s="10" r="O8">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
       <c s="10" r="Q8">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="9" r="S8">
-        <v>131</v>
+      <c s="13" r="S8">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>131</v>
+      <c s="10" r="U8">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="V8"/>
+      <c s="9" r="W8">
+        <v>139</v>
+      </c>
+      <c s="5" t="str" r="X8"/>
+      <c s="9" r="Y8">
+        <v>139</v>
+      </c>
+      <c s="5" t="str" r="Z8"/>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A9">
@@ -696,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>394</v>
-      </c>
-      <c s="12" r="F9">
-        <v>42</v>
+        <v>439</v>
+      </c>
+      <c s="13" r="F9">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="11" r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -717,22 +749,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="12" r="O9">
-        <v>71</v>
+      <c s="10" r="O9">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
       <c s="10" r="Q9">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="R9"/>
+      <c s="13" r="S9">
         <v>64</v>
       </c>
-      <c s="5" t="str" r="R9"/>
-      <c s="11" r="S9">
-        <v>177</v>
-      </c>
       <c s="5" t="str" r="T9"/>
-      <c s="11" r="U9">
-        <v>177</v>
+      <c s="10" r="U9">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="V9"/>
+      <c s="12" r="W9">
+        <v>182</v>
+      </c>
+      <c s="5" t="str" r="X9"/>
+      <c s="12" r="Y9">
+        <v>182</v>
+      </c>
+      <c s="5" t="str" r="Z9"/>
     </row>
     <row r="10" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A10">
@@ -744,10 +784,10 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>345</v>
-      </c>
-      <c s="12" r="F10">
-        <v>37</v>
+        <v>398</v>
+      </c>
+      <c s="13" r="F10">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="11" r="H10">
@@ -765,22 +805,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="12" r="O10">
-        <v>63</v>
+      <c s="10" r="O10">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
       <c s="10" r="Q10">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="8" r="S10">
-        <v>164</v>
+      <c s="13" r="S10">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="8" r="U10">
-        <v>164</v>
+      <c s="10" r="U10">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="V10"/>
+      <c s="13" r="W10">
+        <v>199</v>
+      </c>
+      <c s="5" t="str" r="X10"/>
+      <c s="13" r="Y10">
+        <v>199</v>
+      </c>
+      <c s="5" t="str" r="Z10"/>
     </row>
     <row r="11" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A11">
@@ -792,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -801,34 +849,42 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="13" r="I11">
+      <c s="12" r="I11">
         <v>33</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="10" r="M11">
+      <c s="9" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="12" r="O11">
-        <v>66</v>
+      <c s="9" r="O11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="8" r="S11">
-        <v>161</v>
+      <c s="13" r="S11">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="8" r="U11">
-        <v>161</v>
+      <c s="10" r="U11">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="V11"/>
+      <c s="9" r="W11">
+        <v>140</v>
+      </c>
+      <c s="5" t="str" r="X11"/>
+      <c s="9" r="Y11">
+        <v>140</v>
+      </c>
+      <c s="5" t="str" r="Z11"/>
     </row>
     <row r="12" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A12">
@@ -840,10 +896,10 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>431</v>
-      </c>
-      <c s="8" r="F12">
-        <v>32</v>
+        <v>421</v>
+      </c>
+      <c s="11" r="F12">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
@@ -857,26 +913,34 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="8" r="M12">
-        <v>16</v>
+      <c s="10" r="M12">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="12" r="O12">
-        <v>59</v>
+      <c s="10" r="O12">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="10" r="Q12">
-        <v>57</v>
+      <c s="12" r="Q12">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="8" r="S12">
-        <v>163</v>
+      <c s="13" r="S12">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="8" r="U12">
-        <v>163</v>
+      <c s="10" r="U12">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="V12"/>
+      <c s="11" r="W12">
+        <v>232</v>
+      </c>
+      <c s="5" t="str" r="X12"/>
+      <c s="11" r="Y12">
+        <v>232</v>
+      </c>
+      <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="4.95" customHeight="1"/>
     <row r="14" ht="32.25" customHeight="0">
@@ -927,28 +991,41 @@
       <c s="5" t="str" r="Q14"/>
       <c s="15" t="inlineStr" r="R14">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S14"/>
       <c s="15" t="inlineStr" r="T14">
         <is>
-          <t xml:space="preserve">Service</t>
+          <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U14"/>
       <c s="15" t="inlineStr" r="V14">
         <is>
-          <t xml:space="preserve">Lane Queue</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W14"/>
       <c s="15" t="inlineStr" r="X14">
         <is>
+          <t xml:space="preserve">Service</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="Y14"/>
+      <c s="15" t="inlineStr" r="Z14">
+        <is>
+          <t xml:space="preserve">Lane Queue</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="AA14"/>
+      <c s="15" t="inlineStr" r="AB14">
+        <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
-      <c s="15" t="inlineStr" r="Y14">
+      <c s="5" t="str" r="AC14"/>
+      <c s="15" t="inlineStr" r="AD14">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
@@ -970,12 +1047,12 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
@@ -994,23 +1071,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="20" r="T15">
-        <v>41</v>
+      <c s="22" r="T15">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U15"/>
       <c s="22" r="V15">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="21" r="X15">
-        <v>100</v>
-      </c>
-      <c s="21" r="Y15">
-        <v>49</v>
+      <c s="20" r="X15">
+        <v>56</v>
+      </c>
+      <c s="5" t="str" r="Y15"/>
+      <c s="22" r="Z15">
+        <v>70</v>
+      </c>
+      <c s="5" t="str" r="AA15"/>
+      <c s="23" r="AB15">
+        <v>159</v>
+      </c>
+      <c s="5" t="str" r="AC15"/>
+      <c s="21" r="AD15">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="23" t="str" r="A16"/>
+      <c s="24" t="str" r="A16"/>
       <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1019,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1043,23 +1129,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="20" r="T16">
-        <v>52</v>
+      <c s="22" r="T16">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
       <c s="22" r="V16">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="21" r="X16">
-        <v>116</v>
-      </c>
-      <c s="21" r="Y16">
-        <v>57</v>
+      <c s="23" r="X16">
+        <v>62</v>
+      </c>
+      <c s="5" t="str" r="Y16"/>
+      <c s="22" r="Z16">
+        <v>34</v>
+      </c>
+      <c s="5" t="str" r="AA16"/>
+      <c s="21" r="AB16">
+        <v>129</v>
+      </c>
+      <c s="5" t="str" r="AC16"/>
+      <c s="21" r="AD16">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
+      <c s="24" t="str" r="A17"/>
       <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1068,12 +1163,12 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="21" r="L17">
@@ -1092,19 +1187,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="24" r="T17">
-        <v>96</v>
+      <c s="22" r="T17">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
       <c s="22" r="V17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="25" r="X17">
-        <v>168</v>
-      </c>
-      <c s="21" r="Y17">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c s="5" t="str" r="Y17"/>
+      <c s="22" r="Z17">
+        <v>84</v>
+      </c>
+      <c s="5" t="str" r="AA17"/>
+      <c s="23" r="AB17">
+        <v>209</v>
+      </c>
+      <c s="5" t="str" r="AC17"/>
+      <c s="20" r="AD17">
+        <v>104</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1119,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="20" r="J18">
-        <v>21</v>
+      <c s="23" r="J18">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
-        <v>5</v>
+      <c s="21" r="L18">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1143,19 +1247,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="24" r="T18">
-        <v>97</v>
+      <c s="22" r="T18">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
       <c s="22" r="V18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="21" r="X18">
-        <v>121</v>
-      </c>
-      <c s="21" r="Y18">
-        <v>60</v>
+      <c s="28" r="X18">
+        <v>164</v>
+      </c>
+      <c s="5" t="str" r="Y18"/>
+      <c s="22" r="Z18">
+        <v>36</v>
+      </c>
+      <c s="5" t="str" r="AA18"/>
+      <c s="23" r="AB18">
+        <v>250</v>
+      </c>
+      <c s="5" t="str" r="AC18"/>
+      <c s="20" r="AD18">
+        <v>125</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1174,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
-        <v>21</v>
+      <c s="28" r="J19">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>4</v>
+      <c s="23" r="L19">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1198,23 +1311,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="28" r="T19">
-        <v>77</v>
+      <c s="22" r="T19">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
       <c s="22" r="V19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="21" r="X19">
-        <v>109</v>
-      </c>
-      <c s="21" r="Y19">
-        <v>109</v>
+      <c s="28" r="X19">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="Y19"/>
+      <c s="22" r="Z19">
+        <v>9</v>
+      </c>
+      <c s="5" t="str" r="AA19"/>
+      <c s="21" r="AB19">
+        <v>128</v>
+      </c>
+      <c s="5" t="str" r="AC19"/>
+      <c s="21" r="AD19">
+        <v>128</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="23" t="str" r="A20"/>
+      <c s="24" t="str" r="A20"/>
       <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
@@ -1223,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="25" r="J20">
-        <v>26</v>
+      <c s="23" r="J20">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1247,23 +1369,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="25" r="T20">
-        <v>38</v>
+      <c s="22" r="T20">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
       <c s="22" r="V20">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="21" r="X20">
-        <v>122</v>
-      </c>
-      <c s="21" r="Y20">
-        <v>122</v>
+      <c s="25" r="X20">
+        <v>40</v>
+      </c>
+      <c s="5" t="str" r="Y20"/>
+      <c s="22" r="Z20">
+        <v>66</v>
+      </c>
+      <c s="5" t="str" r="AA20"/>
+      <c s="21" r="AB20">
+        <v>134</v>
+      </c>
+      <c s="5" t="str" r="AC20"/>
+      <c s="21" r="AD20">
+        <v>134</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
+      <c s="24" t="str" r="A21"/>
       <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1272,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="24" r="J21">
-        <v>33</v>
+      <c s="25" r="J21">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1296,23 +1427,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="28" r="T21">
-        <v>62</v>
+      <c s="22" r="T21">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
       <c s="22" r="V21">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W21"/>
+      <c s="28" r="X21">
         <v>60</v>
       </c>
-      <c s="5" t="str" r="W21"/>
-      <c s="20" r="X21">
-        <v>156</v>
-      </c>
-      <c s="20" r="Y21">
-        <v>156</v>
+      <c s="5" t="str" r="Y21"/>
+      <c s="22" r="Z21">
+        <v>50</v>
+      </c>
+      <c s="5" t="str" r="AA21"/>
+      <c s="21" r="AB21">
+        <v>143</v>
+      </c>
+      <c s="5" t="str" r="AC21"/>
+      <c s="21" r="AD21">
+        <v>143</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
+      <c s="24" t="str" r="A22"/>
       <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1321,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="24" r="J22">
+      <c s="25" r="J22">
         <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="20" r="L22">
-        <v>5</v>
+      <c s="21" r="L22">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1345,19 +1485,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="28" r="T22">
-        <v>64</v>
+      <c s="22" r="T22">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
       <c s="22" r="V22">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="21" r="X22">
-        <v>126</v>
-      </c>
-      <c s="21" r="Y22">
-        <v>126</v>
+      <c s="28" r="X22">
+        <v>69</v>
+      </c>
+      <c s="5" t="str" r="Y22"/>
+      <c s="22" r="Z22">
+        <v>47</v>
+      </c>
+      <c s="5" t="str" r="AA22"/>
+      <c s="21" r="AB22">
+        <v>149</v>
+      </c>
+      <c s="5" t="str" r="AC22"/>
+      <c s="21" r="AD22">
+        <v>149</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1376,12 +1525,12 @@
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="24" r="J23">
-        <v>33</v>
+      <c s="23" r="J23">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="20" r="L23">
-        <v>5</v>
+      <c s="21" r="L23">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1396,19 +1545,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="28" r="T23">
-        <v>88</v>
+      <c s="22" r="T23">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
       <c s="22" r="V23">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="21" r="X23">
-        <v>139</v>
-      </c>
-      <c s="21" r="Y23">
-        <v>139</v>
+      <c s="28" r="X23">
+        <v>83</v>
+      </c>
+      <c s="5" t="str" r="Y23"/>
+      <c s="22" r="Z23">
+        <v>40</v>
+      </c>
+      <c s="5" t="str" r="AA23"/>
+      <c s="20" r="AB23">
+        <v>153</v>
+      </c>
+      <c s="5" t="str" r="AC23"/>
+      <c s="20" r="AD23">
+        <v>153</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1427,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="24" r="J24">
-        <v>30</v>
+      <c s="28" r="J24">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="21" r="L24">
-        <v>4</v>
+      <c s="23" r="L24">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1451,23 +1609,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="28" r="T24">
-        <v>48</v>
+      <c s="22" r="T24">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
       <c s="22" r="V24">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="21" r="X24">
-        <v>142</v>
-      </c>
-      <c s="21" r="Y24">
-        <v>142</v>
+      <c s="28" r="X24">
+        <v>48</v>
+      </c>
+      <c s="5" t="str" r="Y24"/>
+      <c s="22" r="Z24">
+        <v>93</v>
+      </c>
+      <c s="5" t="str" r="AA24"/>
+      <c s="23" r="AB24">
+        <v>178</v>
+      </c>
+      <c s="5" t="str" r="AC24"/>
+      <c s="23" r="AD24">
+        <v>178</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="23" t="str" r="A25"/>
+      <c s="24" t="str" r="A25"/>
       <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1476,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="25" r="L25">
-        <v>7</v>
+      <c s="20" r="L25">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1500,23 +1667,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="28" r="T25">
-        <v>77</v>
+      <c s="22" r="T25">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
       <c s="22" r="V25">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="24" r="X25">
-        <v>187</v>
-      </c>
-      <c s="24" r="Y25">
-        <v>187</v>
+      <c s="28" r="X25">
+        <v>75</v>
+      </c>
+      <c s="5" t="str" r="Y25"/>
+      <c s="22" r="Z25">
+        <v>57</v>
+      </c>
+      <c s="5" t="str" r="AA25"/>
+      <c s="23" r="AB25">
+        <v>176</v>
+      </c>
+      <c s="5" t="str" r="AC25"/>
+      <c s="23" r="AD25">
+        <v>176</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
+      <c s="24" t="str" r="A26"/>
       <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1525,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="28" r="L26">
-        <v>13</v>
+      <c s="20" r="L26">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1549,19 +1725,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="28" r="T26">
-        <v>140</v>
+      <c s="22" r="T26">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
       <c s="22" r="V26">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>282</v>
-      </c>
-      <c s="28" r="Y26">
-        <v>282</v>
+        <v>94</v>
+      </c>
+      <c s="5" t="str" r="Y26"/>
+      <c s="22" r="Z26">
+        <v>50</v>
+      </c>
+      <c s="5" t="str" r="AA26"/>
+      <c s="25" r="AB26">
+        <v>182</v>
+      </c>
+      <c s="5" t="str" r="AC26"/>
+      <c s="25" r="AD26">
+        <v>182</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1581,10 +1766,10 @@
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="24" r="L27">
+      <c s="25" r="L27">
         <v>10</v>
       </c>
       <c s="5" t="str" r="M27"/>
@@ -1600,19 +1785,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="28" r="T27">
-        <v>136</v>
+      <c s="22" r="T27">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
       <c s="22" r="V27">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>263</v>
-      </c>
-      <c s="28" r="Y27">
-        <v>263</v>
+        <v>176</v>
+      </c>
+      <c s="5" t="str" r="Y27"/>
+      <c s="22" r="Z27">
+        <v>56</v>
+      </c>
+      <c s="5" t="str" r="AA27"/>
+      <c s="28" r="AB27">
+        <v>304</v>
+      </c>
+      <c s="5" t="str" r="AC27"/>
+      <c s="28" r="AD27">
+        <v>304</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1631,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="24" r="J28">
-        <v>30</v>
+      <c s="28" r="J28">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="20" r="L28">
-        <v>6</v>
+      <c s="23" r="L28">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1655,23 +1849,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="28" r="T28">
-        <v>46</v>
+      <c s="22" r="T28">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
       <c s="22" r="V28">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="21" r="X28">
-        <v>149</v>
-      </c>
-      <c s="21" r="Y28">
-        <v>149</v>
+      <c s="28" r="X28">
+        <v>53</v>
+      </c>
+      <c s="5" t="str" r="Y28"/>
+      <c s="22" r="Z28">
+        <v>104</v>
+      </c>
+      <c s="5" t="str" r="AA28"/>
+      <c s="25" r="AB28">
+        <v>193</v>
+      </c>
+      <c s="5" t="str" r="AC28"/>
+      <c s="25" r="AD28">
+        <v>193</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="23" t="str" r="A29"/>
+      <c s="24" t="str" r="A29"/>
       <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1680,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="25" r="L29">
-        <v>8</v>
+      <c s="23" r="L29">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1704,23 +1907,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="28" r="T29">
-        <v>68</v>
+      <c s="22" r="T29">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
       <c s="22" r="V29">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="21" r="X29">
-        <v>147</v>
-      </c>
-      <c s="21" r="Y29">
-        <v>147</v>
+      <c s="28" r="X29">
+        <v>77</v>
+      </c>
+      <c s="5" t="str" r="Y29"/>
+      <c s="22" r="Z29">
+        <v>55</v>
+      </c>
+      <c s="5" t="str" r="AA29"/>
+      <c s="23" r="AB29">
+        <v>175</v>
+      </c>
+      <c s="5" t="str" r="AC29"/>
+      <c s="23" r="AD29">
+        <v>175</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
+      <c s="24" t="str" r="A30"/>
       <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1729,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="24" r="L30">
-        <v>11</v>
+      <c s="28" r="L30">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1753,19 +1965,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="28" r="T30">
-        <v>132</v>
+      <c s="22" r="T30">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
       <c s="22" r="V30">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>239</v>
-      </c>
-      <c s="28" r="Y30">
-        <v>239</v>
+        <v>109</v>
+      </c>
+      <c s="5" t="str" r="Y30"/>
+      <c s="22" r="Z30">
+        <v>69</v>
+      </c>
+      <c s="5" t="str" r="AA30"/>
+      <c s="28" r="AB30">
+        <v>251</v>
+      </c>
+      <c s="5" t="str" r="AC30"/>
+      <c s="28" r="AD30">
+        <v>251</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1780,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="28" r="L31">
-        <v>39</v>
+      <c s="23" r="L31">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -1804,19 +2025,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="28" r="T31">
-        <v>115</v>
+      <c s="22" r="T31">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
       <c s="22" r="V31">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>317</v>
-      </c>
-      <c s="28" r="Y31">
-        <v>317</v>
+        <v>173</v>
+      </c>
+      <c s="5" t="str" r="Y31"/>
+      <c s="22" r="Z31">
+        <v>26</v>
+      </c>
+      <c s="5" t="str" r="AA31"/>
+      <c s="28" r="AB31">
+        <v>247</v>
+      </c>
+      <c s="5" t="str" r="AC31"/>
+      <c s="28" r="AD31">
+        <v>247</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -1835,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -1847,35 +2077,44 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="24" r="N32">
-        <v>33</v>
+      <c s="25" r="N32">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q32"/>
       <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="28" r="T32">
-        <v>51</v>
+      <c s="22" r="T32">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="20" r="X32">
-        <v>154</v>
-      </c>
-      <c s="20" r="Y32">
-        <v>154</v>
+      <c s="28" r="X32">
+        <v>49</v>
+      </c>
+      <c s="5" t="str" r="Y32"/>
+      <c s="22" r="Z32">
+        <v>71</v>
+      </c>
+      <c s="5" t="str" r="AA32"/>
+      <c s="20" r="AB32">
+        <v>150</v>
+      </c>
+      <c s="5" t="str" r="AC32"/>
+      <c s="20" r="AD32">
+        <v>150</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="23" t="str" r="A33"/>
+      <c s="24" t="str" r="A33"/>
       <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1884,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -1897,7 +2136,7 @@
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="28" r="N33">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
@@ -1908,23 +2147,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="28" r="T33">
-        <v>82</v>
+      <c s="22" r="T33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="25" r="X33">
-        <v>178</v>
-      </c>
-      <c s="25" r="Y33">
-        <v>178</v>
+      <c s="28" r="X33">
+        <v>63</v>
+      </c>
+      <c s="5" t="str" r="Y33"/>
+      <c s="22" r="Z33">
+        <v>37</v>
+      </c>
+      <c s="5" t="str" r="AA33"/>
+      <c s="21" r="AB33">
+        <v>137</v>
+      </c>
+      <c s="5" t="str" r="AC33"/>
+      <c s="21" r="AD33">
+        <v>137</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
+      <c s="24" t="str" r="A34"/>
       <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1933,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -1945,31 +2193,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="24" r="N34">
-        <v>34</v>
+      <c s="25" r="N34">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="O34"/>
       <c s="21" r="P34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
+      <c s="21" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="28" r="T34">
-        <v>106</v>
+      <c s="21" r="T34">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="22" r="V34">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="25" r="X34">
-        <v>170</v>
-      </c>
-      <c s="25" r="Y34">
-        <v>170</v>
+      <c s="28" r="X34">
+        <v>64</v>
+      </c>
+      <c s="5" t="str" r="Y34"/>
+      <c s="22" r="Z34">
+        <v>19</v>
+      </c>
+      <c s="5" t="str" r="AA34"/>
+      <c s="21" r="AB34">
+        <v>112</v>
+      </c>
+      <c s="5" t="str" r="AC34"/>
+      <c s="21" r="AD34">
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -1984,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -1996,8 +2253,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="24" r="N35">
-        <v>31</v>
+      <c s="25" r="N35">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
@@ -2008,19 +2265,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="28" r="T35">
-        <v>100</v>
+      <c s="22" r="T35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="22" r="V35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="20" r="X35">
-        <v>152</v>
-      </c>
-      <c s="20" r="Y35">
-        <v>152</v>
+      <c s="28" r="X35">
+        <v>46</v>
+      </c>
+      <c s="5" t="str" r="Y35"/>
+      <c s="22" r="Z35">
+        <v>13</v>
+      </c>
+      <c s="5" t="str" r="AA35"/>
+      <c s="21" r="AB35">
+        <v>94</v>
+      </c>
+      <c s="5" t="str" r="AC35"/>
+      <c s="21" r="AD35">
+        <v>94</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2039,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="21" r="J36">
-        <v>29</v>
+      <c s="23" r="J36">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2059,27 +2325,36 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="25" r="R36">
-        <v>22</v>
+      <c s="22" r="R36">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="28" r="T36">
-        <v>49</v>
+      <c s="22" r="T36">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="22" r="V36">
-        <v>70</v>
+      <c s="28" r="V36">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="20" r="X36">
-        <v>170</v>
-      </c>
-      <c s="20" r="Y36">
-        <v>170</v>
+      <c s="28" r="X36">
+        <v>68</v>
+      </c>
+      <c s="5" t="str" r="Y36"/>
+      <c s="22" r="Z36">
+        <v>111</v>
+      </c>
+      <c s="5" t="str" r="AA36"/>
+      <c s="25" r="AB36">
+        <v>255</v>
+      </c>
+      <c s="5" t="str" r="AC36"/>
+      <c s="25" r="AD36">
+        <v>255</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="23" t="str" r="A37"/>
+      <c s="24" t="str" r="A37"/>
       <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2088,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="20" r="J37">
-        <v>38</v>
+      <c s="23" r="J37">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2108,27 +2383,36 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
-        <v>9</v>
+      <c s="22" r="R37">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="28" r="T37">
-        <v>74</v>
+      <c s="22" r="T37">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="22" r="V37">
-        <v>46</v>
+      <c s="25" r="V37">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="20" r="X37">
-        <v>164</v>
-      </c>
-      <c s="20" r="Y37">
-        <v>164</v>
+      <c s="28" r="X37">
+        <v>86</v>
+      </c>
+      <c s="5" t="str" r="Y37"/>
+      <c s="22" r="Z37">
+        <v>80</v>
+      </c>
+      <c s="5" t="str" r="AA37"/>
+      <c s="23" r="AB37">
+        <v>233</v>
+      </c>
+      <c s="5" t="str" r="AC37"/>
+      <c s="23" r="AD37">
+        <v>233</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
+      <c s="24" t="str" r="A38"/>
       <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2137,12 +2421,12 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
       <c s="20" r="J38">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="21" r="L38">
@@ -2157,23 +2441,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
-        <v>9</v>
+      <c s="22" r="R38">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="28" r="T38">
-        <v>70</v>
+      <c s="22" r="T38">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="22" r="V38">
-        <v>37</v>
+      <c s="21" r="V38">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="21" r="X38">
-        <v>146</v>
-      </c>
-      <c s="21" r="Y38">
-        <v>146</v>
+      <c s="28" r="X38">
+        <v>87</v>
+      </c>
+      <c s="5" t="str" r="Y38"/>
+      <c s="22" r="Z38">
+        <v>48</v>
+      </c>
+      <c s="5" t="str" r="AA38"/>
+      <c s="23" r="AB38">
+        <v>182</v>
+      </c>
+      <c s="5" t="str" r="AC38"/>
+      <c s="23" r="AD38">
+        <v>182</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2188,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="21" r="J39">
-        <v>18</v>
+      <c s="20" r="J39">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
-        <v>3</v>
+      <c s="20" r="L39">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2208,31 +2501,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
-        <v>2</v>
+      <c s="22" r="R39">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="28" r="T39">
-        <v>81</v>
+      <c s="22" r="T39">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="22" r="V39">
-        <v>10</v>
+      <c s="21" r="V39">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="21" r="X39">
-        <v>107</v>
-      </c>
-      <c s="21" r="Y39">
-        <v>107</v>
+      <c s="28" r="X39">
+        <v>114</v>
+      </c>
+      <c s="5" t="str" r="Y39"/>
+      <c s="22" r="Z39">
+        <v>22</v>
+      </c>
+      <c s="5" t="str" r="AA39"/>
+      <c s="20" r="AB39">
+        <v>163</v>
+      </c>
+      <c s="5" t="str" r="AC39"/>
+      <c s="20" r="AD39">
+        <v>163</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:Z1"/>
-    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="C1:AB1"/>
+    <mergeCell ref="C3:AB3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
@@ -2242,6 +2544,8 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
@@ -2251,6 +2555,8 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:J8"/>
@@ -2260,6 +2566,8 @@
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -2269,6 +2577,8 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I10:J10"/>
@@ -2278,6 +2588,8 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -2287,6 +2599,8 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -2296,6 +2610,8 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
@@ -2306,6 +2622,9 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="A15:C18"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -2316,6 +2635,9 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -2325,6 +2647,9 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
@@ -2334,6 +2659,9 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -2343,6 +2671,9 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="A19:C23"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -2353,6 +2684,9 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
@@ -2362,6 +2696,9 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
@@ -2371,6 +2708,9 @@
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:K22"/>
@@ -2380,6 +2720,9 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:K23"/>
@@ -2389,6 +2732,9 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="A24:C27"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
@@ -2399,6 +2745,9 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:K25"/>
@@ -2408,6 +2757,9 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:K26"/>
@@ -2417,6 +2769,9 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="J27:K27"/>
@@ -2426,6 +2781,9 @@
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="A28:C31"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
@@ -2436,6 +2794,9 @@
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:K29"/>
@@ -2445,6 +2806,9 @@
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -2454,6 +2818,9 @@
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:K31"/>
@@ -2463,6 +2830,9 @@
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="A32:C35"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G32:I32"/>
@@ -2473,6 +2843,9 @@
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T32:U32"/>
     <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:K33"/>
@@ -2482,6 +2855,9 @@
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="J34:K34"/>
@@ -2491,6 +2867,9 @@
     <mergeCell ref="R34:S34"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:K35"/>
@@ -2500,6 +2879,9 @@
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="A36:C39"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="G36:I36"/>
@@ -2510,6 +2892,9 @@
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="T36:U36"/>
     <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -2519,6 +2904,9 @@
     <mergeCell ref="R37:S37"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="J38:K38"/>
@@ -2528,6 +2916,9 @@
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="T38:U38"/>
     <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:K39"/>
@@ -2537,11 +2928,14 @@
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 10/22/2025 12:31:18 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/6/2025 12:37:55 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,12 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB40000"/>
         <bgColor rgb="FFB40000"/>
       </patternFill>
@@ -160,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,13 +333,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +345,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 11/05/2025</t>
+          <t xml:space="preserve">Day: 11/06/2025</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c s="8" r="F7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -645,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>68</v>
+      <c s="8" r="S7">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="11" r="W7">
-        <v>164</v>
+      <c s="9" r="W7">
+        <v>123</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>518</v>
-      </c>
-      <c s="12" r="F8">
+        <v>532</v>
+      </c>
+      <c s="11" r="F8">
         <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="13" r="S8">
-        <v>51</v>
+      <c s="12" r="S8">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>439</v>
-      </c>
-      <c s="13" r="F9">
-        <v>40</v>
+        <v>413</v>
+      </c>
+      <c s="12" r="F9">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="11" r="H9">
-        <v>8</v>
+      <c s="12" r="H9">
+        <v>13</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -757,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="13" r="S9">
-        <v>64</v>
+      <c s="12" r="S9">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="12" r="W9">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c s="5" t="str" r="X9"/>
       <c s="12" r="Y9">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>398</v>
-      </c>
-      <c s="13" r="F10">
-        <v>42</v>
+        <v>394</v>
+      </c>
+      <c s="12" r="F10">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="11" r="H10">
-        <v>8</v>
+      <c s="13" r="H10">
+        <v>7</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="13" r="S10">
-        <v>69</v>
+      <c s="12" r="S10">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="13" r="W10">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="13" r="Y10">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -850,11 +850,11 @@
         <v>0</v>
       </c>
       <c s="12" r="I11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="9" r="M11">
@@ -862,27 +862,27 @@
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="13" r="S11">
-        <v>54</v>
+      <c s="12" r="S11">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>140</v>
+      <c s="11" r="W11">
+        <v>189</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="9" r="Y11">
-        <v>140</v>
+      <c s="11" r="Y11">
+        <v>189</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +896,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>421</v>
-      </c>
-      <c s="11" r="F12">
-        <v>44</v>
+        <v>474</v>
+      </c>
+      <c s="8" r="F12">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,24 +921,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="12" r="Q12">
-        <v>26</v>
+      <c s="13" r="Q12">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="13" r="S12">
-        <v>78</v>
+      <c s="12" r="S12">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>232</v>
+      <c s="13" r="W12">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>232</v>
+      <c s="13" r="Y12">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,16 +1047,16 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M15"/>
       <c s="22" r="N15">
@@ -1080,23 +1080,23 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="23" r="AB15">
-        <v>159</v>
+      <c s="21" r="AB15">
+        <v>117</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="24" t="str" r="A16"/>
+      <c s="23" t="str" r="A16"/>
       <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1105,12 +1105,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
@@ -1137,24 +1137,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="23" r="X16">
-        <v>62</v>
+      <c s="24" r="X16">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="24" t="str" r="A17"/>
+      <c s="23" t="str" r="A17"/>
       <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="21" r="L17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1195,26 +1195,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="25" r="X17">
-        <v>93</v>
+      <c s="24" r="X17">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="23" r="AB17">
-        <v>209</v>
+      <c s="21" r="AB17">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>104</v>
+      <c s="21" r="AD17">
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="26" t="str" r="A18"/>
-      <c s="27" t="str" r="B18"/>
-      <c s="27" t="str" r="C18"/>
+      <c s="25" t="str" r="A18"/>
+      <c s="26" t="str" r="B18"/>
+      <c s="26" t="str" r="C18"/>
       <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1223,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="23" r="J18">
-        <v>62</v>
+      <c s="20" r="J18">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="28" r="X18">
-        <v>164</v>
+      <c s="27" r="X18">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="23" r="AB18">
-        <v>250</v>
+      <c s="21" r="AB18">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="20" r="AD18">
-        <v>125</v>
+      <c s="21" r="AD18">
+        <v>67</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="28" r="J19">
-        <v>38</v>
+      <c s="24" r="J19">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="23" r="L19">
-        <v>8</v>
+      <c s="21" r="L19">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1320,23 +1320,23 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>128</v>
+      <c s="20" r="AB19">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>128</v>
+      <c s="20" r="AD19">
+        <v>164</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="24" t="str" r="A20"/>
+      <c s="23" t="str" r="A20"/>
       <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="23" r="J20">
+      <c s="24" r="J20">
         <v>28</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,8 +1377,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="25" r="X20">
-        <v>40</v>
+      <c s="24" r="X20">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
@@ -1394,7 +1394,7 @@
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="24" t="str" r="A21"/>
+      <c s="23" t="str" r="A21"/>
       <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1403,12 +1403,12 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="25" r="J21">
-        <v>32</v>
+      <c s="24" r="J21">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
@@ -1436,23 +1436,23 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="24" t="str" r="A22"/>
+      <c s="23" t="str" r="A22"/>
       <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="25" r="J22">
-        <v>33</v>
+      <c s="27" r="J22">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,25 +1494,25 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="26" t="str" r="A23"/>
-      <c s="27" t="str" r="B23"/>
-      <c s="27" t="str" r="C23"/>
+      <c s="25" t="str" r="A23"/>
+      <c s="26" t="str" r="B23"/>
+      <c s="26" t="str" r="C23"/>
       <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="23" r="J23">
-        <v>29</v>
+      <c s="28" r="J23">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>153</v>
+      <c s="21" r="AB23">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>153</v>
+      <c s="21" r="AD23">
+        <v>136</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="23" r="L24">
-        <v>9</v>
+      <c s="28" r="L24">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,23 +1618,23 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="23" r="AB24">
-        <v>178</v>
+      <c s="28" r="AB24">
+        <v>202</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="23" r="AD24">
-        <v>178</v>
+      <c s="28" r="AD24">
+        <v>202</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="24" t="str" r="A25"/>
+      <c s="23" t="str" r="A25"/>
       <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="20" r="L25">
-        <v>5</v>
+      <c s="24" r="L25">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,23 +1676,23 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="23" r="AB25">
-        <v>176</v>
+      <c s="24" r="AB25">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="23" r="AD25">
-        <v>176</v>
+      <c s="24" r="AD25">
+        <v>173</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="24" t="str" r="A26"/>
+      <c s="23" t="str" r="A26"/>
       <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="20" r="L26">
-        <v>6</v>
+      <c s="27" r="L26">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,25 +1734,25 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="25" r="AB26">
-        <v>182</v>
+      <c s="28" r="AB26">
+        <v>240</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="25" r="AD26">
-        <v>182</v>
+      <c s="28" r="AD26">
+        <v>240</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="26" t="str" r="A27"/>
-      <c s="27" t="str" r="B27"/>
-      <c s="27" t="str" r="C27"/>
+      <c s="25" t="str" r="A27"/>
+      <c s="26" t="str" r="B27"/>
+      <c s="26" t="str" r="C27"/>
       <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>76</v>
+      <c s="24" r="J27">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="25" r="L27">
-        <v>10</v>
+      <c s="21" r="L27">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>304</v>
+      <c s="21" r="AB27">
+        <v>96</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>304</v>
+      <c s="21" r="AD27">
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="23" r="L28">
-        <v>7</v>
+      <c s="24" r="L28">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,23 +1858,23 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="25" r="AB28">
-        <v>193</v>
+      <c s="27" r="AB28">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="25" r="AD28">
-        <v>193</v>
+      <c s="27" r="AD28">
+        <v>182</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="24" t="str" r="A29"/>
+      <c s="23" t="str" r="A29"/>
       <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="23" r="L29">
-        <v>7</v>
+      <c s="21" r="L29">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,23 +1916,23 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="23" r="AB29">
-        <v>175</v>
+      <c s="21" r="AB29">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="23" r="AD29">
-        <v>175</v>
+      <c s="21" r="AD29">
+        <v>136</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="24" t="str" r="A30"/>
+      <c s="23" t="str" r="A30"/>
       <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="28" r="L30">
-        <v>15</v>
+      <c s="20" r="L30">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,25 +1974,25 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="28" r="AB30">
-        <v>251</v>
+      <c s="21" r="AB30">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="28" r="AD30">
-        <v>251</v>
+      <c s="21" r="AD30">
+        <v>143</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="26" t="str" r="A31"/>
-      <c s="27" t="str" r="B31"/>
-      <c s="27" t="str" r="C31"/>
+      <c s="25" t="str" r="A31"/>
+      <c s="26" t="str" r="B31"/>
+      <c s="26" t="str" r="C31"/>
       <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="23" r="L31">
-        <v>9</v>
+      <c s="20" r="L31">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>247</v>
+      <c s="20" r="AB31">
+        <v>158</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>247</v>
+      <c s="20" r="AD31">
+        <v>158</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2077,20 +2077,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="25" r="N32">
-        <v>31</v>
+      <c s="27" r="N32">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
+      <c s="21" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
-        <v>0</v>
+      <c s="21" r="T32">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,23 +2098,23 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="20" r="AB32">
-        <v>150</v>
+      <c s="27" r="AB32">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="20" r="AD32">
-        <v>150</v>
+      <c s="27" r="AD32">
+        <v>186</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="24" t="str" r="A33"/>
+      <c s="23" t="str" r="A33"/>
       <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2136,18 +2136,18 @@
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="28" r="N33">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="22" r="R33">
+      <c s="21" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="22" r="T33">
+      <c s="21" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
@@ -2156,23 +2156,23 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="21" r="AB33">
-        <v>137</v>
+      <c s="28" r="AB33">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="21" r="AD33">
-        <v>137</v>
+      <c s="28" r="AD33">
+        <v>195</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="24" t="str" r="A34"/>
+      <c s="23" t="str" r="A34"/>
       <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2193,12 +2193,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="25" r="N34">
-        <v>32</v>
+      <c s="28" r="N34">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="21" r="P34">
-        <v>3</v>
+      <c s="20" r="P34">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="Q34"/>
       <c s="21" r="R34">
@@ -2214,25 +2214,25 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>112</v>
+      <c s="28" r="AB34">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="21" r="AD34">
-        <v>112</v>
+      <c s="28" r="AD34">
+        <v>195</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="26" t="str" r="A35"/>
-      <c s="27" t="str" r="B35"/>
-      <c s="27" t="str" r="C35"/>
+      <c s="25" t="str" r="A35"/>
+      <c s="26" t="str" r="B35"/>
+      <c s="26" t="str" r="C35"/>
       <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2253,20 +2253,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="25" r="N35">
-        <v>34</v>
+      <c s="28" r="N35">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
-        <v>0</v>
+      <c s="21" r="R35">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
-        <v>0</v>
+      <c s="21" r="T35">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="22" r="V35">
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="21" r="AB35">
-        <v>94</v>
+      <c s="28" r="AB35">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="21" r="AD35">
-        <v>94</v>
+      <c s="28" r="AD35">
+        <v>195</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="23" r="J36">
-        <v>48</v>
+      <c s="20" r="J36">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,28 +2333,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="28" r="V36">
-        <v>32</v>
+      <c s="27" r="V36">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="25" r="AB36">
-        <v>255</v>
+      <c s="24" r="AB36">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="25" r="AD36">
-        <v>255</v>
+      <c s="24" r="AD36">
+        <v>199</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="24" t="str" r="A37"/>
+      <c s="23" t="str" r="A37"/>
       <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2363,12 +2363,12 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="23" r="J37">
-        <v>41</v>
+      <c s="20" r="J37">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
@@ -2391,28 +2391,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="25" r="V37">
-        <v>26</v>
+      <c s="20" r="V37">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="23" r="AB37">
-        <v>233</v>
+      <c s="24" r="AB37">
+        <v>180</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="23" r="AD37">
-        <v>233</v>
+      <c s="24" r="AD37">
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="24" t="str" r="A38"/>
+      <c s="23" t="str" r="A38"/>
       <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2421,12 +2421,12 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="20" r="J38">
-        <v>37</v>
+      <c s="24" r="J38">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="21" r="L38">
@@ -2449,30 +2449,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="21" r="V38">
-        <v>12</v>
+      <c s="20" r="V38">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="23" r="AB38">
-        <v>182</v>
+      <c s="24" r="AB38">
+        <v>193</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="23" r="AD38">
-        <v>182</v>
+      <c s="24" r="AD38">
+        <v>193</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="26" t="str" r="A39"/>
-      <c s="27" t="str" r="B39"/>
-      <c s="27" t="str" r="C39"/>
+      <c s="25" t="str" r="A39"/>
+      <c s="26" t="str" r="B39"/>
+      <c s="26" t="str" r="C39"/>
       <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2485,12 +2485,12 @@
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="20" r="J39">
-        <v>30</v>
+      <c s="24" r="J39">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="20" r="L39">
-        <v>5</v>
+      <c s="21" r="L39">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2510,23 +2510,23 @@
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="21" r="V39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>163</v>
+      <c s="21" r="AB39">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>163</v>
+      <c s="21" r="AD39">
+        <v>144</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/6/2025 12:37:55 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/7/2025 12:32:42 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,8 +140,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
@@ -152,14 +152,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,10 +327,13 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
@@ -346,9 +349,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 11/06/2025</t>
+          <t xml:space="preserve">Day: 11/08/2025</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c s="8" r="F7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="9" r="H7">
-        <v>2</v>
-      </c>
-      <c s="10" r="I7">
+      <c s="8" r="H7">
+        <v>5</v>
+      </c>
+      <c s="9" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="10" r="K7">
+      <c s="9" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="10" r="M7">
+      <c s="9" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
+      <c s="9" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="10" r="Q7">
+      <c s="9" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>59</v>
+      <c s="10" r="S7">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>36</v>
+      <c s="9" r="U7">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>123</v>
+      <c s="10" r="W7">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>61</v>
+      <c s="8" r="Y7">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -675,46 +675,46 @@
         <v>532</v>
       </c>
       <c s="11" r="F8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
+      <c s="12" r="H8">
         <v>2</v>
       </c>
-      <c s="10" r="I8">
+      <c s="9" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="10" r="K8">
+      <c s="9" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="10" r="M8">
+      <c s="9" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
+      <c s="9" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="10" r="Q8">
+      <c s="9" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>49</v>
+      <c s="13" r="S8">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>52</v>
+      <c s="9" r="U8">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>130</v>
+      <c s="12" r="W8">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>130</v>
+      <c s="12" r="Y8">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>413</v>
-      </c>
-      <c s="12" r="F9">
-        <v>42</v>
+        <v>451</v>
+      </c>
+      <c s="13" r="F9">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="12" r="H9">
-        <v>13</v>
-      </c>
-      <c s="10" r="I9">
+      <c s="10" r="H9">
+        <v>8</v>
+      </c>
+      <c s="9" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="10" r="K9">
+      <c s="9" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="10" r="M9">
+      <c s="9" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
+      <c s="9" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="10" r="Q9">
+      <c s="9" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
+      <c s="13" r="S9">
         <v>69</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
-        <v>88</v>
+      <c s="9" r="U9">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="12" r="W9">
-        <v>198</v>
+      <c s="13" r="W9">
+        <v>200</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="12" r="Y9">
-        <v>198</v>
+      <c s="13" r="Y9">
+        <v>200</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>394</v>
-      </c>
-      <c s="12" r="F10">
+        <v>377</v>
+      </c>
+      <c s="13" r="F10">
         <v>37</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="13" r="H10">
+      <c s="10" r="H10">
         <v>7</v>
       </c>
-      <c s="10" r="I10">
+      <c s="9" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="10" r="K10">
+      <c s="9" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="10" r="M10">
+      <c s="9" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
+      <c s="9" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="10" r="Q10">
+      <c s="9" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>59</v>
+      <c s="13" r="S10">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>70</v>
+      <c s="9" r="U10">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="13" r="W10">
-        <v>166</v>
+      <c s="11" r="W10">
+        <v>189</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="13" r="Y10">
-        <v>166</v>
+      <c s="11" r="Y10">
+        <v>189</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>412</v>
-      </c>
-      <c s="10" r="F11">
+        <v>392</v>
+      </c>
+      <c s="9" r="F11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="10" r="H11">
-        <v>0</v>
-      </c>
-      <c s="12" r="I11">
-        <v>37</v>
+      <c s="9" r="H11">
+        <v>0</v>
+      </c>
+      <c s="13" r="I11">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
-        <v>4</v>
+      <c s="12" r="K11">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
+      <c s="12" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="9" r="O11">
-        <v>1</v>
+      <c s="12" r="O11">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="10" r="Q11">
+      <c s="9" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>66</v>
+      <c s="13" r="S11">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>87</v>
+      <c s="9" r="U11">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="11" r="W11">
-        <v>189</v>
+      <c s="13" r="W11">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="11" r="Y11">
-        <v>189</v>
+      <c s="13" r="Y11">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>474</v>
-      </c>
-      <c s="8" r="F12">
-        <v>35</v>
+        <v>444</v>
+      </c>
+      <c s="10" r="F12">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="9" r="H12">
+      <c s="12" r="H12">
         <v>2</v>
       </c>
-      <c s="10" r="I12">
+      <c s="9" r="I12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="10" r="K12">
+      <c s="9" r="K12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="10" r="M12">
+      <c s="9" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="10" r="O12">
+      <c s="9" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="13" r="Q12">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>62</v>
+      <c s="13" r="S12">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>74</v>
+      <c s="9" r="U12">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="13" r="W12">
-        <v>190</v>
+      <c s="11" r="W12">
+        <v>253</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="13" r="Y12">
-        <v>190</v>
+      <c s="11" r="Y12">
+        <v>253</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,16 +1047,16 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M15"/>
       <c s="22" r="N15">
@@ -1080,23 +1080,23 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="21" r="AB15">
-        <v>117</v>
+      <c s="23" r="AB15">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="21" r="AD15">
-        <v>58</v>
+      <c s="20" r="AD15">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="23" t="str" r="A16"/>
+      <c s="24" t="str" r="A16"/>
       <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1105,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
-        <v>3</v>
+      <c s="20" r="L16">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1137,24 +1137,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="24" r="X16">
-        <v>65</v>
+      <c s="23" r="X16">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>125</v>
+      <c s="23" r="AB16">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>62</v>
+      <c s="20" r="AD16">
+        <v>97</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
+      <c s="24" t="str" r="A17"/>
       <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="20" r="J17">
-        <v>26</v>
+      <c s="23" r="J17">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>2</v>
+      <c s="23" r="L17">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1195,26 +1195,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>87</v>
+      <c s="25" r="X17">
+        <v>121</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="21" r="AB17">
-        <v>144</v>
+      <c s="23" r="AB17">
+        <v>251</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>71</v>
+      <c s="20" r="AD17">
+        <v>125</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="25" t="str" r="A18"/>
-      <c s="26" t="str" r="B18"/>
-      <c s="26" t="str" r="C18"/>
+      <c s="26" t="str" r="A18"/>
+      <c s="27" t="str" r="B18"/>
+      <c s="27" t="str" r="C18"/>
       <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1228,11 +1228,11 @@
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
-        <v>2</v>
+      <c s="20" r="L18">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="27" r="X18">
-        <v>97</v>
+      <c s="23" r="X18">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="21" r="AB18">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="24" r="J19">
-        <v>29</v>
+      <c s="25" r="J19">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1319,24 +1319,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="28" r="X19">
-        <v>97</v>
+      <c s="25" r="X19">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="20" r="AB19">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="20" r="AD19">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="23" t="str" r="A20"/>
+      <c s="24" t="str" r="A20"/>
       <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>28</v>
+      <c s="28" r="J20">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,24 +1377,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="24" r="X20">
-        <v>39</v>
+      <c s="28" r="X20">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
+      <c s="24" t="str" r="A21"/>
       <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1403,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="24" r="J21">
-        <v>28</v>
+      <c s="25" r="J21">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1435,24 +1435,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="28" r="X21">
-        <v>55</v>
+      <c s="25" r="X21">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>113</v>
+      <c s="23" r="AB21">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>113</v>
+      <c s="23" r="AD21">
+        <v>168</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
+      <c s="24" t="str" r="A22"/>
       <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="27" r="J22">
-        <v>34</v>
+      <c s="28" r="J22">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1493,26 +1493,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>67</v>
+      <c s="25" r="X22">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="25" t="str" r="A23"/>
-      <c s="26" t="str" r="B23"/>
-      <c s="26" t="str" r="C23"/>
+      <c s="26" t="str" r="A23"/>
+      <c s="27" t="str" r="B23"/>
+      <c s="27" t="str" r="C23"/>
       <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="28" r="J23">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1553,20 +1553,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>79</v>
+      <c s="25" r="X23">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="AA23"/>
       <c s="21" r="AB23">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC23"/>
       <c s="21" r="AD23">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>41</v>
+      <c s="25" r="J24">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="28" r="L24">
-        <v>16</v>
+      <c s="23" r="L24">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1617,24 +1617,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>56</v>
+      <c s="25" r="X24">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="28" r="AB24">
-        <v>202</v>
+      <c s="23" r="AB24">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="28" r="AD24">
-        <v>202</v>
+      <c s="23" r="AD24">
+        <v>171</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="23" t="str" r="A25"/>
+      <c s="24" t="str" r="A25"/>
       <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1643,15 +1643,15 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="28" r="J25">
-        <v>41</v>
+      <c s="25" r="J25">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="24" r="L25">
+      <c s="23" r="L25">
         <v>9</v>
       </c>
       <c s="5" t="str" r="M25"/>
@@ -1675,24 +1675,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>71</v>
+      <c s="25" r="X25">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="24" r="AB25">
-        <v>173</v>
+      <c s="25" r="AB25">
+        <v>215</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="24" r="AD25">
-        <v>173</v>
+      <c s="25" r="AD25">
+        <v>215</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
+      <c s="24" t="str" r="A26"/>
       <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="28" r="J26">
+      <c s="25" r="J26">
         <v>46</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="27" r="L26">
-        <v>10</v>
+      <c s="28" r="L26">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1733,26 +1733,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>114</v>
+      <c s="25" r="X26">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="28" r="AB26">
-        <v>240</v>
+      <c s="25" r="AB26">
+        <v>256</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="28" r="AD26">
-        <v>240</v>
+      <c s="25" r="AD26">
+        <v>256</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="25" t="str" r="A27"/>
-      <c s="26" t="str" r="B27"/>
-      <c s="26" t="str" r="C27"/>
+      <c s="26" t="str" r="A27"/>
+      <c s="27" t="str" r="B27"/>
+      <c s="27" t="str" r="C27"/>
       <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="24" r="J27">
-        <v>27</v>
+      <c s="23" r="J27">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K27"/>
       <c s="21" r="L27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1793,20 +1793,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>63</v>
+      <c s="25" r="X27">
+        <v>142</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="21" r="AB27">
-        <v>96</v>
+      <c s="28" r="AB27">
+        <v>191</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="21" r="AD27">
-        <v>96</v>
+      <c s="28" r="AD27">
+        <v>191</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>36</v>
+      <c s="23" r="J28">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="24" r="L28">
-        <v>8</v>
+      <c s="21" r="L28">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1857,24 +1857,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>52</v>
+      <c s="25" r="X28">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="27" r="AB28">
-        <v>182</v>
+      <c s="23" r="AB28">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="27" r="AD28">
-        <v>182</v>
+      <c s="23" r="AD28">
+        <v>165</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="23" t="str" r="A29"/>
+      <c s="24" t="str" r="A29"/>
       <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="28" r="J29">
-        <v>35</v>
+      <c s="25" r="J29">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="21" r="L29">
-        <v>4</v>
+      <c s="28" r="L29">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1915,24 +1915,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="28" r="X29">
-        <v>62</v>
+      <c s="25" r="X29">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="21" r="AB29">
-        <v>136</v>
+      <c s="25" r="AB29">
+        <v>228</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="21" r="AD29">
-        <v>136</v>
+      <c s="25" r="AD29">
+        <v>228</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
+      <c s="24" t="str" r="A30"/>
       <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>44</v>
+      <c s="25" r="J30">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>6</v>
+      <c s="25" r="L30">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1973,26 +1973,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>70</v>
+      <c s="25" r="X30">
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="21" r="AB30">
-        <v>143</v>
+      <c s="25" r="AB30">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="21" r="AD30">
-        <v>143</v>
+      <c s="25" r="AD30">
+        <v>195</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="25" t="str" r="A31"/>
-      <c s="26" t="str" r="B31"/>
-      <c s="26" t="str" r="C31"/>
+      <c s="26" t="str" r="A31"/>
+      <c s="27" t="str" r="B31"/>
+      <c s="27" t="str" r="C31"/>
       <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>40</v>
+      <c s="25" r="J31">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="20" r="L31">
-        <v>5</v>
+      <c s="21" r="L31">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2033,20 +2033,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>98</v>
+      <c s="25" r="X31">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="20" r="AB31">
-        <v>158</v>
+      <c s="21" r="AB31">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="20" r="AD31">
-        <v>158</v>
+      <c s="21" r="AD31">
+        <v>140</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2077,12 +2077,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="27" r="N32">
-        <v>34</v>
+      <c s="25" r="N32">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q32"/>
       <c s="21" r="R32">
@@ -2097,24 +2097,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>51</v>
+      <c s="25" r="X32">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="27" r="AB32">
-        <v>186</v>
+      <c s="25" r="AB32">
+        <v>203</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="27" r="AD32">
-        <v>186</v>
+      <c s="25" r="AD32">
+        <v>203</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="23" t="str" r="A33"/>
+      <c s="24" t="str" r="A33"/>
       <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2135,8 +2135,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="28" r="N33">
-        <v>42</v>
+      <c s="25" r="N33">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
@@ -2144,35 +2144,35 @@
       </c>
       <c s="5" t="str" r="Q33"/>
       <c s="21" r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="21" r="T33">
-        <v>0</v>
+      <c s="20" r="T33">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>80</v>
+      <c s="25" r="X33">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="28" r="AB33">
-        <v>195</v>
+      <c s="25" r="AB33">
+        <v>210</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="28" r="AD33">
-        <v>195</v>
+      <c s="25" r="AD33">
+        <v>210</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
+      <c s="24" t="str" r="A34"/>
       <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2193,19 +2193,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="28" r="N34">
-        <v>35</v>
+      <c s="25" r="N34">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="20" r="P34">
-        <v>5</v>
+      <c s="21" r="P34">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="21" r="T34">
+      <c s="22" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
@@ -2213,26 +2213,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>98</v>
+      <c s="25" r="X34">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="28" r="AB34">
-        <v>195</v>
+      <c s="23" r="AB34">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="28" r="AD34">
-        <v>195</v>
+      <c s="23" r="AD34">
+        <v>169</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="25" t="str" r="A35"/>
-      <c s="26" t="str" r="B35"/>
-      <c s="26" t="str" r="C35"/>
+      <c s="26" t="str" r="A35"/>
+      <c s="27" t="str" r="B35"/>
+      <c s="27" t="str" r="C35"/>
       <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="28" r="N35">
-        <v>68</v>
+      <c s="25" r="N35">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
-        <v>1</v>
+      <c s="22" r="R35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
-        <v>1</v>
+      <c s="22" r="T35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="22" r="V35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>114</v>
+      <c s="25" r="X35">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="28" r="AB35">
-        <v>195</v>
+      <c s="21" r="AB35">
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="28" r="AD35">
-        <v>195</v>
+      <c s="21" r="AD35">
+        <v>130</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,12 +2305,12 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="20" r="J36">
-        <v>33</v>
+      <c s="23" r="J36">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
@@ -2333,28 +2333,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="27" r="V36">
-        <v>25</v>
+      <c s="28" r="V36">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>54</v>
+      <c s="25" r="X36">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="24" r="AB36">
-        <v>199</v>
+      <c s="28" r="AB36">
+        <v>241</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="24" r="AD36">
-        <v>199</v>
+      <c s="28" r="AD36">
+        <v>241</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="23" t="str" r="A37"/>
+      <c s="24" t="str" r="A37"/>
       <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2363,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="20" r="J37">
-        <v>34</v>
+      <c s="28" r="J37">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2391,28 +2391,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="20" r="V37">
-        <v>18</v>
+      <c s="25" r="V37">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>59</v>
+      <c s="25" r="X37">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="24" r="AB37">
-        <v>180</v>
+      <c s="25" r="AB37">
+        <v>320</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="24" r="AD37">
-        <v>180</v>
+      <c s="25" r="AD37">
+        <v>320</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
+      <c s="24" t="str" r="A38"/>
       <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2421,16 +2421,16 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="24" r="J38">
-        <v>40</v>
+      <c s="20" r="J38">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="21" r="L38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="22" r="N38">
@@ -2449,30 +2449,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="20" r="V38">
-        <v>15</v>
+      <c s="21" r="V38">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>94</v>
+      <c s="25" r="X38">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="24" r="AB38">
-        <v>193</v>
+      <c s="21" r="AB38">
+        <v>142</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="24" r="AD38">
-        <v>193</v>
+      <c s="21" r="AD38">
+        <v>142</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="25" t="str" r="A39"/>
-      <c s="26" t="str" r="B39"/>
-      <c s="26" t="str" r="C39"/>
+      <c s="26" t="str" r="A39"/>
+      <c s="27" t="str" r="B39"/>
+      <c s="27" t="str" r="C39"/>
       <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2481,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="24" r="J39">
-        <v>41</v>
+      <c s="20" r="J39">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="21" r="L39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2513,20 +2513,20 @@
         <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>91</v>
+      <c s="25" r="X39">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA39"/>
       <c s="21" r="AB39">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c s="5" t="str" r="AC39"/>
       <c s="21" r="AD39">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/7/2025 12:32:42 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/9/2025 12:28:31 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,6 +140,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE35454"/>
         <bgColor rgb="FFE35454"/>
       </patternFill>
@@ -148,12 +154,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB40000"/>
         <bgColor rgb="FFB40000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,19 +327,19 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,9 +374,9 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 11/08/2025</t>
+          <t xml:space="preserve">Day: 11/11/2025</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c s="8" r="F7">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="8" r="H7">
-        <v>5</v>
-      </c>
-      <c s="9" r="I7">
+      <c s="9" r="H7">
+        <v>3</v>
+      </c>
+      <c s="10" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="9" r="K7">
+      <c s="10" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="9" r="M7">
+      <c s="10" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="9" r="O7">
+      <c s="10" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="9" r="Q7">
+      <c s="10" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="10" r="S7">
-        <v>71</v>
+      <c s="11" r="S7">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>84</v>
+      <c s="10" r="U7">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="10" r="W7">
-        <v>201</v>
+      <c s="11" r="W7">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="8" r="Y7">
-        <v>100</v>
+      <c s="9" r="Y7">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>532</v>
-      </c>
-      <c s="11" r="F8">
-        <v>34</v>
+        <v>491</v>
+      </c>
+      <c s="12" r="F8">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="12" r="H8">
+      <c s="9" r="H8">
         <v>2</v>
       </c>
-      <c s="9" r="I8">
+      <c s="10" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="9" r="K8">
+      <c s="10" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="9" r="M8">
+      <c s="10" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="9" r="O8">
+      <c s="10" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="9" r="Q8">
+      <c s="10" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="13" r="S8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>63</v>
+      <c s="10" r="U8">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="12" r="W8">
-        <v>148</v>
+      <c s="9" r="W8">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="12" r="Y8">
-        <v>148</v>
+      <c s="9" r="Y8">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,32 +728,32 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c s="13" r="F9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="10" r="H9">
-        <v>8</v>
-      </c>
-      <c s="9" r="I9">
+      <c s="11" r="H9">
+        <v>7</v>
+      </c>
+      <c s="10" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="9" r="K9">
+      <c s="10" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="9" r="M9">
+      <c s="10" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="9" r="O9">
+      <c s="10" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="9" r="Q9">
+      <c s="10" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
@@ -761,16 +761,16 @@
         <v>69</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="9" r="U9">
+      <c s="10" r="U9">
         <v>85</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="13" r="W9">
-        <v>200</v>
+      <c s="12" r="W9">
+        <v>194</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="13" r="Y9">
-        <v>200</v>
+      <c s="12" r="Y9">
+        <v>194</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c s="13" r="F10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="10" r="H10">
+      <c s="11" r="H10">
         <v>7</v>
       </c>
-      <c s="9" r="I10">
+      <c s="10" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="9" r="K10">
+      <c s="10" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="9" r="M10">
+      <c s="10" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="9" r="O10">
+      <c s="10" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="9" r="Q10">
+      <c s="10" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="13" r="S10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="9" r="U10">
-        <v>87</v>
+      <c s="10" r="U10">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>189</v>
+      <c s="8" r="W10">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>189</v>
+      <c s="8" r="Y10">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>392</v>
-      </c>
-      <c s="9" r="F11">
+        <v>391</v>
+      </c>
+      <c s="10" r="F11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="9" r="H11">
-        <v>0</v>
-      </c>
-      <c s="13" r="I11">
-        <v>41</v>
+      <c s="10" r="H11">
+        <v>0</v>
+      </c>
+      <c s="12" r="I11">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="12" r="K11">
+      <c s="9" r="K11">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="12" r="M11">
-        <v>0</v>
+      <c s="9" r="M11">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="12" r="O11">
+      <c s="9" r="O11">
         <v>2</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="9" r="Q11">
+      <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="13" r="S11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="9" r="U11">
-        <v>92</v>
+      <c s="10" r="U11">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="13" r="W11">
-        <v>199</v>
+      <c s="11" r="W11">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="13" r="Y11">
-        <v>199</v>
+      <c s="11" r="Y11">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>444</v>
-      </c>
-      <c s="10" r="F12">
-        <v>48</v>
+        <v>449</v>
+      </c>
+      <c s="8" r="F12">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="12" r="H12">
-        <v>2</v>
-      </c>
-      <c s="9" r="I12">
+      <c s="9" r="H12">
+        <v>3</v>
+      </c>
+      <c s="10" r="I12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="9" r="K12">
+      <c s="10" r="K12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="9" r="M12">
+      <c s="10" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="9" r="O12">
+      <c s="10" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="13" r="Q12">
-        <v>31</v>
+      <c s="8" r="Q12">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="13" r="S12">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="9" r="U12">
-        <v>110</v>
+      <c s="10" r="U12">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>253</v>
+      <c s="8" r="W12">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>253</v>
+      <c s="8" r="Y12">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,16 +1047,16 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M15"/>
       <c s="22" r="N15">
@@ -1080,23 +1080,23 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="23" r="AB15">
-        <v>195</v>
+      <c s="21" r="AB15">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="20" r="AD15">
-        <v>97</v>
+      <c s="21" r="AD15">
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="24" t="str" r="A16"/>
+      <c s="23" t="str" r="A16"/>
       <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1105,12 +1105,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="20" r="L16">
@@ -1137,24 +1137,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="23" r="X16">
-        <v>72</v>
+      <c s="24" r="X16">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="23" r="AB16">
-        <v>195</v>
+      <c s="21" r="AB16">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="20" r="AD16">
-        <v>97</v>
+      <c s="21" r="AD16">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="24" t="str" r="A17"/>
+      <c s="23" t="str" r="A17"/>
       <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="23" r="J17">
-        <v>63</v>
+      <c s="20" r="J17">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="23" r="L17">
-        <v>10</v>
+      <c s="21" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1196,19 +1196,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="25" r="X17">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="23" r="AB17">
-        <v>251</v>
+      <c s="24" r="AB17">
+        <v>205</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="20" r="AD17">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1223,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
-        <v>5</v>
+      <c s="21" r="L18">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="23" r="X18">
-        <v>81</v>
+      <c s="28" r="X18">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="21" r="AB18">
-        <v>139</v>
+      <c s="24" r="AB18">
+        <v>229</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="21" r="AD18">
-        <v>69</v>
+      <c s="20" r="AD18">
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1292,11 +1292,11 @@
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="25" r="J19">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>4</v>
+      <c s="20" r="L19">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1319,24 +1319,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="25" r="X19">
-        <v>103</v>
+      <c s="28" r="X19">
+        <v>116</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="20" r="AB19">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="20" r="AD19">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="24" t="str" r="A20"/>
+      <c s="23" t="str" r="A20"/>
       <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="28" r="J20">
-        <v>30</v>
+      <c s="24" r="J20">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,24 +1377,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>42</v>
+      <c s="24" r="X20">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="24" t="str" r="A21"/>
+      <c s="23" t="str" r="A21"/>
       <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1403,16 +1403,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="25" r="J21">
-        <v>38</v>
+      <c s="28" r="J21">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1435,24 +1435,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="25" r="X21">
-        <v>51</v>
+      <c s="28" r="X21">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="23" r="AB21">
-        <v>168</v>
+      <c s="20" r="AB21">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="23" r="AD21">
-        <v>168</v>
+      <c s="20" r="AD21">
+        <v>163</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="24" t="str" r="A22"/>
+      <c s="23" t="str" r="A22"/>
       <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
-        <v>33</v>
+      <c s="25" r="J22">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1493,20 +1493,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="25" r="X22">
-        <v>68</v>
+      <c s="28" r="X22">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>33</v>
+      <c s="24" r="J23">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1553,20 +1553,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="25" r="X23">
-        <v>84</v>
+      <c s="28" r="X23">
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA23"/>
       <c s="21" r="AB23">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c s="5" t="str" r="AC23"/>
       <c s="21" r="AD23">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="25" r="J24">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="23" r="L24">
-        <v>7</v>
+      <c s="20" r="L24">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1617,24 +1617,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="25" r="X24">
-        <v>53</v>
+      <c s="28" r="X24">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="23" r="AB24">
-        <v>171</v>
+      <c s="21" r="AB24">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="23" r="AD24">
-        <v>171</v>
+      <c s="21" r="AD24">
+        <v>149</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="24" t="str" r="A25"/>
+      <c s="23" t="str" r="A25"/>
       <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="25" r="J25">
-        <v>60</v>
+      <c s="28" r="J25">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="23" r="L25">
-        <v>9</v>
+      <c s="24" r="L25">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1675,24 +1675,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="25" r="X25">
-        <v>69</v>
+      <c s="28" r="X25">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="25" r="AB25">
-        <v>215</v>
+      <c s="28" r="AB25">
+        <v>207</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="25" r="AD25">
-        <v>215</v>
+      <c s="28" r="AD25">
+        <v>207</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="24" t="str" r="A26"/>
+      <c s="23" t="str" r="A26"/>
       <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="25" r="J26">
-        <v>46</v>
+      <c s="28" r="J26">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="K26"/>
       <c s="28" r="L26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1733,20 +1733,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="25" r="X26">
-        <v>105</v>
+      <c s="28" r="X26">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="25" r="AB26">
-        <v>256</v>
+      <c s="28" r="AB26">
+        <v>333</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="25" r="AD26">
-        <v>256</v>
+      <c s="28" r="AD26">
+        <v>333</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1761,12 +1761,12 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="23" r="J27">
-        <v>26</v>
+      <c s="28" r="J27">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K27"/>
       <c s="21" r="L27">
@@ -1793,20 +1793,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="25" r="X27">
+      <c s="28" r="X27">
         <v>142</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA27"/>
       <c s="28" r="AB27">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c s="5" t="str" r="AC27"/>
       <c s="28" r="AD27">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="23" r="J28">
-        <v>27</v>
+      <c s="25" r="J28">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K28"/>
       <c s="21" r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1857,24 +1857,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="25" r="X28">
-        <v>48</v>
+      <c s="28" r="X28">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="23" r="AB28">
-        <v>165</v>
+      <c s="21" r="AB28">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="23" r="AD28">
-        <v>165</v>
+      <c s="21" r="AD28">
+        <v>140</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="24" t="str" r="A29"/>
+      <c s="23" t="str" r="A29"/>
       <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="25" r="J29">
-        <v>46</v>
+      <c s="28" r="J29">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="28" r="L29">
-        <v>10</v>
+      <c s="24" r="L29">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1915,24 +1915,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="25" r="X29">
+      <c s="28" r="X29">
         <v>72</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="25" r="AB29">
-        <v>228</v>
+      <c s="24" r="AB29">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="25" r="AD29">
-        <v>228</v>
+      <c s="24" r="AD29">
+        <v>168</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="24" t="str" r="A30"/>
+      <c s="23" t="str" r="A30"/>
       <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="25" r="J30">
-        <v>51</v>
+      <c s="28" r="J30">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="25" r="L30">
-        <v>18</v>
+      <c s="28" r="L30">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1973,20 +1973,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="25" r="X30">
+      <c s="28" r="X30">
         <v>98</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="25" r="AB30">
-        <v>195</v>
+      <c s="28" r="AB30">
+        <v>220</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="25" r="AD30">
-        <v>195</v>
+      <c s="28" r="AD30">
+        <v>220</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="25" r="J31">
-        <v>51</v>
+      <c s="28" r="J31">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="21" r="L31">
-        <v>1</v>
+      <c s="20" r="L31">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2033,20 +2033,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="25" r="X31">
-        <v>64</v>
+      <c s="28" r="X31">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="21" r="AB31">
-        <v>140</v>
+      <c s="28" r="AB31">
+        <v>213</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="21" r="AD31">
-        <v>140</v>
+      <c s="28" r="AD31">
+        <v>213</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="25" r="N32">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
@@ -2086,35 +2086,35 @@
       </c>
       <c s="5" t="str" r="Q32"/>
       <c s="21" r="R32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="S32"/>
       <c s="21" r="T32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="25" r="X32">
-        <v>65</v>
+      <c s="28" r="X32">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="25" r="AB32">
-        <v>203</v>
+      <c s="24" r="AB32">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="25" r="AD32">
-        <v>203</v>
+      <c s="24" r="AD32">
+        <v>169</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="24" t="str" r="A33"/>
+      <c s="23" t="str" r="A33"/>
       <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2135,44 +2135,44 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="25" r="N33">
-        <v>41</v>
+      <c s="28" r="N33">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="21" r="R33">
-        <v>1</v>
+      <c s="22" r="R33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="20" r="T33">
-        <v>5</v>
+      <c s="22" r="T33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="25" r="X33">
-        <v>70</v>
+      <c s="28" r="X33">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="25" r="AB33">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="25" r="AD33">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="24" t="str" r="A34"/>
+      <c s="23" t="str" r="A34"/>
       <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2194,11 +2194,11 @@
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="25" r="N34">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O34"/>
       <c s="21" r="P34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q34"/>
       <c s="22" r="R34">
@@ -2213,20 +2213,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="25" r="X34">
-        <v>75</v>
+      <c s="28" r="X34">
+        <v>108</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="23" r="AB34">
-        <v>169</v>
+      <c s="25" r="AB34">
+        <v>185</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="23" r="AD34">
-        <v>169</v>
+      <c s="25" r="AD34">
+        <v>185</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2254,11 +2254,11 @@
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="25" r="N35">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="Q35"/>
       <c s="22" r="R35">
@@ -2273,20 +2273,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="25" r="X35">
-        <v>88</v>
+      <c s="28" r="X35">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="21" r="AB35">
-        <v>130</v>
+      <c s="24" r="AB35">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="21" r="AD35">
-        <v>130</v>
+      <c s="24" r="AD35">
+        <v>167</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,12 +2305,12 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="23" r="J36">
-        <v>45</v>
+      <c s="21" r="J36">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
@@ -2333,28 +2333,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="28" r="V36">
-        <v>28</v>
+      <c s="20" r="V36">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="25" r="X36">
-        <v>62</v>
+      <c s="28" r="X36">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="28" r="AB36">
-        <v>241</v>
+      <c s="20" r="AB36">
+        <v>151</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="28" r="AD36">
-        <v>241</v>
+      <c s="20" r="AD36">
+        <v>151</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="24" t="str" r="A37"/>
+      <c s="23" t="str" r="A37"/>
       <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2363,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="28" r="J37">
-        <v>57</v>
+      <c s="20" r="J37">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2391,28 +2391,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="25" r="V37">
-        <v>47</v>
+      <c s="20" r="V37">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="25" r="X37">
-        <v>78</v>
+      <c s="28" r="X37">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="25" r="AB37">
-        <v>320</v>
+      <c s="20" r="AB37">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="25" r="AD37">
-        <v>320</v>
+      <c s="20" r="AD37">
+        <v>178</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="24" t="str" r="A38"/>
+      <c s="23" t="str" r="A38"/>
       <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2421,16 +2421,16 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="20" r="J38">
-        <v>36</v>
+      <c s="24" r="J38">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="21" r="L38">
-        <v>2</v>
+      <c s="20" r="L38">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="22" r="N38">
@@ -2450,23 +2450,23 @@
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="21" r="V38">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="25" r="X38">
-        <v>79</v>
+      <c s="28" r="X38">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="21" r="AB38">
-        <v>142</v>
+      <c s="24" r="AB38">
+        <v>191</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="21" r="AD38">
-        <v>142</v>
+      <c s="24" r="AD38">
+        <v>191</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2481,12 +2481,12 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="20" r="J39">
-        <v>36</v>
+      <c s="25" r="J39">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="21" r="L39">
@@ -2513,20 +2513,20 @@
         <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="25" r="X39">
-        <v>97</v>
+      <c s="28" r="X39">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>147</v>
+      <c s="20" r="AB39">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>147</v>
+      <c s="20" r="AD39">
+        <v>179</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/9/2025 12:28:31 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/12/2025 12:32:27 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -152,14 +152,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,7 +339,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -376,8 +376,8 @@
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 11/11/2025</t>
+          <t xml:space="preserve">Day: 11/12/2025</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c s="8" r="F7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -646,19 +646,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="11" r="S7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="11" r="W7">
-        <v>155</v>
+      <c s="9" r="W7">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,10 +672,10 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>491</v>
-      </c>
-      <c s="12" r="F8">
-        <v>30</v>
+        <v>536</v>
+      </c>
+      <c s="11" r="F8">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="13" r="S8">
-        <v>52</v>
+      <c s="12" r="S8">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c s="13" r="F9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="11" r="H9">
-        <v>7</v>
+      <c s="8" r="H9">
+        <v>5</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -757,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="13" r="S9">
-        <v>69</v>
+      <c s="12" r="S9">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="12" r="W9">
-        <v>194</v>
+      <c s="8" r="W9">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="12" r="Y9">
-        <v>194</v>
+      <c s="8" r="Y9">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>379</v>
-      </c>
-      <c s="13" r="F10">
-        <v>39</v>
+        <v>381</v>
+      </c>
+      <c s="12" r="F10">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="11" r="H10">
-        <v>7</v>
+      <c s="13" r="H10">
+        <v>10</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="13" r="S10">
-        <v>66</v>
+      <c s="12" r="S10">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="8" r="W10">
-        <v>163</v>
+      <c s="11" r="W10">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="8" r="Y10">
-        <v>163</v>
+      <c s="11" r="Y10">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,7 +840,7 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c s="10" r="F11">
         <v>0</v>
@@ -849,8 +849,8 @@
       <c s="10" r="H11">
         <v>0</v>
       </c>
-      <c s="12" r="I11">
-        <v>33</v>
+      <c s="13" r="I11">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="J11"/>
       <c s="9" r="K11">
@@ -858,31 +858,31 @@
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="9" r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
       <c s="9" r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="10" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="13" r="S11">
-        <v>67</v>
+      <c s="12" r="S11">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="11" r="W11">
-        <v>174</v>
+      <c s="9" r="W11">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="11" r="Y11">
-        <v>174</v>
+      <c s="9" r="Y11">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,14 +896,14 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>449</v>
-      </c>
-      <c s="8" r="F12">
-        <v>35</v>
+        <v>427</v>
+      </c>
+      <c s="11" r="F12">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="G12"/>
       <c s="9" r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I12">
         <v>0</v>
@@ -921,24 +921,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="8" r="Q12">
-        <v>15</v>
+      <c s="13" r="Q12">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="13" r="S12">
-        <v>64</v>
+      <c s="12" r="S12">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>165</v>
+      <c s="11" r="W12">
+        <v>233</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>165</v>
+      <c s="11" r="Y12">
+        <v>233</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,12 +1047,12 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
@@ -1080,19 +1080,19 @@
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="20" r="X15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA15"/>
       <c s="21" r="AB15">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
@@ -1105,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>5</v>
+      <c s="21" r="L16">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1138,19 +1138,19 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="24" r="X16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>145</v>
+      <c s="24" r="AB16">
+        <v>151</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>4</v>
+      <c s="20" r="L17">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1196,19 +1196,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="25" r="X17">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="24" r="AB17">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="20" r="AD17">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1223,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1256,19 +1256,19 @@
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="28" r="X18">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="24" r="AB18">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="25" r="J19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="20" r="L19">
-        <v>6</v>
+      <c s="21" r="L19">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1320,19 +1320,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="20" r="AB19">
-        <v>155</v>
+      <c s="21" r="AB19">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>155</v>
+      <c s="21" r="AD19">
+        <v>120</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1345,7 +1345,7 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1378,19 +1378,19 @@
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="24" r="X20">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1403,12 +1403,12 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
-        <v>36</v>
+      <c s="25" r="J21">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
@@ -1436,19 +1436,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="20" r="AB21">
-        <v>163</v>
+      <c s="21" r="AB21">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="20" r="AD21">
-        <v>163</v>
+      <c s="21" r="AD21">
+        <v>135</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1466,11 +1466,11 @@
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="25" r="J22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,19 +1494,19 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1525,12 +1525,12 @@
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="24" r="J23">
-        <v>29</v>
+      <c s="28" r="J23">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>2</v>
+      <c s="20" r="L23">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA23"/>
       <c s="21" r="AB23">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC23"/>
       <c s="21" r="AD23">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,7 +1585,7 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
@@ -1593,8 +1593,8 @@
         <v>32</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="20" r="L24">
-        <v>5</v>
+      <c s="24" r="L24">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,19 +1618,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="21" r="AB24">
-        <v>149</v>
+      <c s="20" r="AB24">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="21" r="AD24">
-        <v>149</v>
+      <c s="20" r="AD24">
+        <v>154</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="24" r="L25">
-        <v>8</v>
+      <c s="21" r="L25">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,19 +1676,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="28" r="AB25">
-        <v>207</v>
+      <c s="20" r="AB25">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="28" r="AD25">
-        <v>207</v>
+      <c s="20" r="AD25">
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="28" r="L26">
-        <v>14</v>
+      <c s="21" r="L26">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,19 +1734,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="28" r="AB26">
-        <v>333</v>
+      <c s="24" r="AB26">
+        <v>177</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="28" r="AD26">
-        <v>333</v>
+      <c s="24" r="AD26">
+        <v>177</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>38</v>
+      <c s="25" r="J27">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K27"/>
       <c s="21" r="L27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>216</v>
+      <c s="21" r="AB27">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>216</v>
+      <c s="21" r="AD27">
+        <v>120</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="25" r="J28">
-        <v>30</v>
+      <c s="28" r="J28">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>4</v>
+      <c s="24" r="L28">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,19 +1858,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="21" r="AB28">
-        <v>140</v>
+      <c s="25" r="AB28">
+        <v>181</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="21" r="AD28">
-        <v>140</v>
+      <c s="25" r="AD28">
+        <v>181</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="24" r="L29">
-        <v>9</v>
+      <c s="28" r="L29">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,19 +1916,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="24" r="AB29">
-        <v>168</v>
+      <c s="28" r="AB29">
+        <v>197</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="24" r="AD29">
-        <v>168</v>
+      <c s="28" r="AD29">
+        <v>197</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K30"/>
       <c s="28" r="L30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,19 +1974,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="28" r="AB30">
-        <v>220</v>
+      <c s="20" r="AB30">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="28" r="AD30">
-        <v>220</v>
+      <c s="20" r="AD30">
+        <v>155</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2001,12 +2001,12 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="20" r="L31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>213</v>
+      <c s="21" r="AB31">
+        <v>124</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>213</v>
+      <c s="21" r="AD31">
+        <v>124</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2078,15 +2078,15 @@
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="25" r="N32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
       <c s="21" r="R32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
       <c s="21" r="T32">
@@ -2098,19 +2098,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="24" r="AB32">
-        <v>169</v>
+      <c s="20" r="AB32">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="24" r="AD32">
-        <v>169</v>
+      <c s="20" r="AD32">
+        <v>155</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2140,15 +2140,15 @@
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="22" r="R33">
-        <v>0</v>
+      <c s="21" r="R33">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="22" r="T33">
-        <v>0</v>
+      <c s="21" r="T33">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2156,19 +2156,19 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="25" r="AB33">
-        <v>180</v>
+      <c s="21" r="AB33">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="25" r="AD33">
-        <v>180</v>
+      <c s="21" r="AD33">
+        <v>148</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2193,8 +2193,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="25" r="N34">
-        <v>31</v>
+      <c s="24" r="N34">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="O34"/>
       <c s="21" r="P34">
@@ -2214,19 +2214,19 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="25" r="AB34">
-        <v>185</v>
+      <c s="21" r="AB34">
+        <v>124</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="25" r="AD34">
-        <v>185</v>
+      <c s="21" r="AD34">
+        <v>124</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2254,18 +2254,18 @@
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="25" r="N35">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
+      <c s="21" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
+      <c s="21" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="24" r="AB35">
-        <v>167</v>
+      <c s="21" r="AB35">
+        <v>99</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="24" r="AD35">
-        <v>167</v>
+      <c s="21" r="AD35">
+        <v>99</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="21" r="J36">
-        <v>28</v>
+      <c s="24" r="J36">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,24 +2333,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="20" r="V36">
-        <v>18</v>
+      <c s="28" r="V36">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="20" r="AB36">
-        <v>151</v>
+      <c s="25" r="AB36">
+        <v>248</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="20" r="AD36">
-        <v>151</v>
+      <c s="25" r="AD36">
+        <v>248</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2363,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="20" r="J37">
-        <v>39</v>
+      <c s="24" r="J37">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2391,24 +2391,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="20" r="V37">
-        <v>15</v>
+      <c s="25" r="V37">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="20" r="AB37">
-        <v>178</v>
+      <c s="24" r="AB37">
+        <v>237</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="20" r="AD37">
-        <v>178</v>
+      <c s="24" r="AD37">
+        <v>237</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2421,16 +2421,16 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="24" r="J38">
-        <v>47</v>
+      <c s="20" r="J38">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="20" r="L38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="22" r="N38">
@@ -2450,23 +2450,23 @@
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="21" r="V38">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="24" r="AB38">
-        <v>191</v>
+      <c s="20" r="AB38">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="24" r="AD38">
-        <v>191</v>
+      <c s="20" r="AD38">
+        <v>170</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2481,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="25" r="J39">
-        <v>53</v>
+      <c s="24" r="J39">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
-        <v>3</v>
+      <c s="20" r="L39">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2509,24 +2509,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="21" r="V39">
-        <v>2</v>
+      <c s="25" r="V39">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>179</v>
+      <c s="24" r="AB39">
+        <v>233</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>179</v>
+      <c s="24" r="AD39">
+        <v>233</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/12/2025 12:32:27 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/13/2025 12:30:58 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,26 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B04C"/>
         <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,10 +327,13 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
@@ -339,16 +342,13 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 11/12/2025</t>
+          <t xml:space="preserve">Day: 11/30/2025</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c s="8" r="F7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="9" r="H7">
-        <v>4</v>
-      </c>
-      <c s="10" r="I7">
+      <c s="8" r="H7">
+        <v>6</v>
+      </c>
+      <c s="9" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="10" r="K7">
+      <c s="9" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="10" r="M7">
+      <c s="9" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
+      <c s="9" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="10" r="Q7">
+      <c s="9" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>60</v>
+      <c s="10" r="S7">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>46</v>
+      <c s="9" r="U7">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>137</v>
+      <c s="10" r="W7">
+        <v>192</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>68</v>
+      <c s="8" r="Y7">
+        <v>96</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>536</v>
+        <v>442</v>
       </c>
       <c s="11" r="F8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
+      <c s="12" r="H8">
         <v>2</v>
       </c>
-      <c s="10" r="I8">
+      <c s="9" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="10" r="K8">
+      <c s="9" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="10" r="M8">
+      <c s="9" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
+      <c s="9" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="10" r="Q8">
+      <c s="9" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>46</v>
+      <c s="13" r="S8">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>52</v>
+      <c s="9" r="U8">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>127</v>
+      <c s="12" r="W8">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>127</v>
+      <c s="12" r="Y8">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c s="13" r="F9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="8" r="H9">
-        <v>5</v>
-      </c>
-      <c s="10" r="I9">
+      <c s="10" r="H9">
+        <v>7</v>
+      </c>
+      <c s="9" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="10" r="K9">
+      <c s="9" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="10" r="M9">
+      <c s="9" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
+      <c s="9" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="10" r="Q9">
+      <c s="9" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>62</v>
+      <c s="13" r="S9">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
-        <v>60</v>
+      <c s="9" r="U9">
+        <v>89</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="8" r="W9">
-        <v>155</v>
+      <c s="13" r="W9">
+        <v>210</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="8" r="Y9">
-        <v>155</v>
+      <c s="13" r="Y9">
+        <v>210</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>381</v>
-      </c>
-      <c s="12" r="F10">
-        <v>42</v>
+        <v>315</v>
+      </c>
+      <c s="11" r="F10">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="13" r="H10">
-        <v>10</v>
-      </c>
-      <c s="10" r="I10">
+      <c s="10" r="H10">
+        <v>7</v>
+      </c>
+      <c s="9" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="10" r="K10">
+      <c s="9" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="10" r="M10">
+      <c s="9" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
+      <c s="9" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="10" r="Q10">
+      <c s="9" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>64</v>
+      <c s="13" r="S10">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>72</v>
+      <c s="9" r="U10">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>179</v>
+      <c s="10" r="W10">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>179</v>
+      <c s="10" r="Y10">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>401</v>
-      </c>
-      <c s="10" r="F11">
+        <v>306</v>
+      </c>
+      <c s="9" r="F11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="10" r="H11">
+      <c s="9" r="H11">
         <v>0</v>
       </c>
       <c s="13" r="I11">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
+      <c s="12" r="K11">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
+      <c s="12" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="9" r="O11">
-        <v>1</v>
+      <c s="12" r="O11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="10" r="Q11">
+      <c s="9" r="Q11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>56</v>
+      <c s="13" r="S11">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>61</v>
+      <c s="9" r="U11">
+        <v>91</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>147</v>
+      <c s="13" r="W11">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="9" r="Y11">
-        <v>147</v>
+      <c s="13" r="Y11">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>427</v>
-      </c>
-      <c s="11" r="F12">
-        <v>43</v>
+        <v>368</v>
+      </c>
+      <c s="8" r="F12">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="9" r="H12">
-        <v>4</v>
-      </c>
-      <c s="10" r="I12">
+      <c s="12" r="H12">
+        <v>3</v>
+      </c>
+      <c s="9" r="I12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="10" r="K12">
+      <c s="9" r="K12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="10" r="M12">
+      <c s="9" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="10" r="O12">
+      <c s="9" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="13" r="Q12">
-        <v>28</v>
+      <c s="10" r="Q12">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>76</v>
+      <c s="13" r="S12">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>89</v>
+      <c s="9" r="U12">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>233</v>
+      <c s="10" r="W12">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>233</v>
+      <c s="10" r="Y12">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -1047,12 +1047,12 @@
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
       <c s="19" r="G15">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
       <c s="20" r="J15">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K15"/>
       <c s="21" r="L15">
@@ -1079,24 +1079,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="20" r="X15">
-        <v>43</v>
+      <c s="23" r="X15">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y15"/>
       <c s="22" r="Z15">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="21" r="AB15">
-        <v>115</v>
+      <c s="23" r="AB15">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC15"/>
       <c s="21" r="AD15">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="23" t="str" r="A16"/>
+      <c s="24" t="str" r="A16"/>
       <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1105,16 +1105,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
-        <v>4</v>
+      <c s="20" r="L16">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1137,24 +1137,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="24" r="X16">
-        <v>69</v>
+      <c s="23" r="X16">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="24" r="AB16">
-        <v>151</v>
+      <c s="23" r="AB16">
+        <v>203</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>75</v>
+      <c s="20" r="AD16">
+        <v>101</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
+      <c s="24" t="str" r="A17"/>
       <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1163,16 +1163,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="20" r="J17">
-        <v>29</v>
+      <c s="23" r="J17">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="20" r="L17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1196,19 +1196,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="25" r="X17">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="24" r="AB17">
-        <v>181</v>
+      <c s="23" r="AB17">
+        <v>231</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="20" r="AD17">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1223,16 +1223,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="20" r="J18">
-        <v>24</v>
+      <c s="28" r="J18">
+        <v>124</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
-        <v>3</v>
+      <c s="25" r="L18">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1255,20 +1255,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="28" r="X18">
-        <v>124</v>
+      <c s="25" r="X18">
+        <v>108</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="24" r="AB18">
-        <v>206</v>
+      <c s="23" r="AB18">
+        <v>240</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1287,16 +1287,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="25" r="J19">
-        <v>31</v>
+      <c s="28" r="J19">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1320,23 +1320,23 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="28" r="X19">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="21" r="AB19">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="23" t="str" r="A20"/>
+      <c s="24" t="str" r="A20"/>
       <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 2</t>
@@ -1345,16 +1345,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>26</v>
+      <c s="23" r="J20">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1377,24 +1377,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="24" r="X20">
-        <v>36</v>
+      <c s="28" r="X20">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
+      <c s="24" t="str" r="A21"/>
       <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1403,12 +1403,12 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
       <c s="25" r="J21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
@@ -1436,23 +1436,23 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
+      <c s="24" t="str" r="A22"/>
       <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1461,16 +1461,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="25" r="J22">
-        <v>31</v>
+      <c s="28" r="J22">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1494,19 +1494,19 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>116</v>
+      <c s="20" r="AB22">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>116</v>
+      <c s="20" r="AD22">
+        <v>150</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1521,16 +1521,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>36</v>
+      <c s="20" r="J23">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="20" r="L23">
-        <v>5</v>
+      <c s="21" r="L23">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1554,19 +1554,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA23"/>
       <c s="21" r="AB23">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="AC23"/>
       <c s="21" r="AD23">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1585,16 +1585,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="25" r="J24">
-        <v>32</v>
+      <c s="28" r="J24">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="24" r="L24">
-        <v>7</v>
+      <c s="20" r="L24">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1618,23 +1618,23 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="AA24"/>
       <c s="20" r="AB24">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="5" t="str" r="AC24"/>
       <c s="20" r="AD24">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="23" t="str" r="A25"/>
+      <c s="24" t="str" r="A25"/>
       <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1643,16 +1643,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="28" r="J25">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="21" r="L25">
-        <v>3</v>
+      <c s="20" r="L25">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1676,23 +1676,23 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="20" r="AB25">
-        <v>150</v>
+      <c s="28" r="AB25">
+        <v>232</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="20" r="AD25">
-        <v>150</v>
+      <c s="28" r="AD25">
+        <v>232</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
+      <c s="24" t="str" r="A26"/>
       <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1701,16 +1701,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="21" r="L26">
-        <v>4</v>
+      <c s="28" r="L26">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1734,19 +1734,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="24" r="AB26">
-        <v>177</v>
+      <c s="28" r="AB26">
+        <v>282</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="24" r="AD26">
-        <v>177</v>
+      <c s="28" r="AD26">
+        <v>282</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1761,16 +1761,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="25" r="J27">
-        <v>34</v>
+      <c s="28" r="J27">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K27"/>
       <c s="21" r="L27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1794,19 +1794,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="21" r="AB27">
-        <v>120</v>
+      <c s="28" r="AB27">
+        <v>203</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="21" r="AD27">
-        <v>120</v>
+      <c s="28" r="AD27">
+        <v>203</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1825,16 +1825,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>35</v>
+      <c s="20" r="J28">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="24" r="L28">
-        <v>7</v>
+      <c s="21" r="L28">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1858,23 +1858,23 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="25" r="AB28">
-        <v>181</v>
+      <c s="21" r="AB28">
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="25" r="AD28">
-        <v>181</v>
+      <c s="21" r="AD28">
+        <v>128</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="23" t="str" r="A29"/>
+      <c s="24" t="str" r="A29"/>
       <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1883,16 +1883,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="28" r="J29">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="28" r="L29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1916,23 +1916,23 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c s="5" t="str" r="AA29"/>
       <c s="28" r="AB29">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c s="5" t="str" r="AC29"/>
       <c s="28" r="AD29">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
+      <c s="24" t="str" r="A30"/>
       <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1941,16 +1941,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="28" r="L30">
-        <v>14</v>
+      <c s="21" r="L30">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1974,19 +1974,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="20" r="AB30">
-        <v>155</v>
+      <c s="28" r="AB30">
+        <v>211</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="20" r="AD30">
-        <v>155</v>
+      <c s="28" r="AD30">
+        <v>211</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2001,16 +2001,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="20" r="L31">
-        <v>6</v>
+      <c s="25" r="L31">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2034,19 +2034,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="21" r="AB31">
-        <v>124</v>
+      <c s="20" r="AB31">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="21" r="AD31">
-        <v>124</v>
+      <c s="20" r="AD31">
+        <v>156</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2065,7 +2065,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2077,20 +2077,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="25" r="N32">
-        <v>31</v>
+      <c s="23" r="N32">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="O32"/>
       <c s="21" r="P32">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="21" r="R32">
+      <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="21" r="T32">
-        <v>2</v>
+      <c s="22" r="T32">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
@@ -2098,23 +2098,23 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="20" r="AB32">
-        <v>155</v>
+      <c s="25" r="AB32">
+        <v>184</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="20" r="AD32">
-        <v>155</v>
+      <c s="25" r="AD32">
+        <v>184</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="23" t="str" r="A33"/>
+      <c s="24" t="str" r="A33"/>
       <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2123,7 +2123,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2136,19 +2136,19 @@
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="28" r="N33">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O33"/>
       <c s="21" r="P33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q33"/>
       <c s="21" r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
       <c s="21" r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="22" r="V33">
@@ -2156,23 +2156,23 @@
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="21" r="AB33">
-        <v>148</v>
+      <c s="28" r="AB33">
+        <v>236</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="21" r="AD33">
-        <v>148</v>
+      <c s="28" r="AD33">
+        <v>236</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
+      <c s="24" t="str" r="A34"/>
       <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2181,7 +2181,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2193,12 +2193,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="24" r="N34">
-        <v>29</v>
+      <c s="28" r="N34">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="21" r="P34">
-        <v>2</v>
+      <c s="20" r="P34">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q34"/>
       <c s="22" r="R34">
@@ -2214,19 +2214,19 @@
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA34"/>
       <c s="21" r="AB34">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c s="5" t="str" r="AC34"/>
       <c s="21" r="AD34">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2241,7 +2241,7 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
@@ -2258,14 +2258,14 @@
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="21" r="P35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
+      <c s="22" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
+      <c s="22" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
@@ -2274,19 +2274,19 @@
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="21" r="AB35">
-        <v>99</v>
+      <c s="23" r="AB35">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="21" r="AD35">
-        <v>99</v>
+      <c s="23" r="AD35">
+        <v>172</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2305,16 +2305,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="24" r="J36">
-        <v>45</v>
+      <c s="21" r="J36">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2333,28 +2333,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="28" r="V36">
-        <v>33</v>
+      <c s="21" r="V36">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="25" r="AB36">
-        <v>248</v>
+      <c s="20" r="AB36">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="25" r="AD36">
-        <v>248</v>
+      <c s="20" r="AD36">
+        <v>154</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="23" t="str" r="A37"/>
+      <c s="24" t="str" r="A37"/>
       <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2363,16 +2363,16 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="24" r="J37">
-        <v>43</v>
+      <c s="23" r="J37">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K37"/>
       <c s="21" r="L37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="22" r="N37">
@@ -2392,27 +2392,27 @@
       </c>
       <c s="5" t="str" r="U37"/>
       <c s="25" r="V37">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="24" r="AB37">
-        <v>237</v>
+      <c s="23" r="AB37">
+        <v>233</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="24" r="AD37">
-        <v>237</v>
+      <c s="23" r="AD37">
+        <v>233</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
+      <c s="24" t="str" r="A38"/>
       <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2421,16 +2421,16 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="20" r="J38">
-        <v>35</v>
+      <c s="25" r="J38">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="20" r="L38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="22" r="N38">
@@ -2449,24 +2449,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="21" r="V38">
-        <v>13</v>
+      <c s="28" r="V38">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="20" r="AB38">
-        <v>170</v>
+      <c s="25" r="AB38">
+        <v>247</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="20" r="AD38">
-        <v>170</v>
+      <c s="25" r="AD38">
+        <v>247</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2481,16 +2481,16 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="24" r="J39">
-        <v>41</v>
+      <c s="20" r="J39">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="20" r="L39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="22" r="N39">
@@ -2509,24 +2509,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="25" r="V39">
-        <v>28</v>
+      <c s="21" r="V39">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="24" r="AB39">
-        <v>233</v>
+      <c s="20" r="AB39">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="24" r="AD39">
-        <v>233</v>
+      <c s="20" r="AD39">
+        <v>173</v>
       </c>
     </row>
     <row r="40" ht="0.05" customHeight="1"/>
@@ -2935,7 +2935,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 11/13/2025 12:30:58 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/1/2025 12:39:06 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -163,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -238,6 +238,15 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFD3D3D3"/>
       </bottom>
@@ -256,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -294,6 +303,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -302,6 +314,9 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="5" fillId="3" borderId="4">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="5">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -318,23 +333,23 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="5">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="7">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +499,14 @@
     <col min="21" max="21" customWidth="1" width="0.32421875"/>
     <col min="22" max="22" customWidth="1" width="8.54296875"/>
     <col min="23" max="23" customWidth="1" width="0.32421875"/>
-    <col min="24" max="24" customWidth="1" width="8.8515625"/>
-    <col min="25" max="25" customWidth="1" width="8.8515625"/>
-    <col min="26" max="26" customWidth="1" width="2.9921875"/>
-    <col min="27" max="27" customWidth="1" width="81.6640625"/>
+    <col min="24" max="24" customWidth="1" width="8.54296875"/>
+    <col min="25" max="25" customWidth="1" width="0.32421875"/>
+    <col min="26" max="26" customWidth="1" width="8.54296875"/>
+    <col min="27" max="27" customWidth="1" width="0.32421875"/>
+    <col min="28" max="28" customWidth="1" width="2.9921875"/>
+    <col min="29" max="29" customWidth="1" width="5.86328125"/>
+    <col min="30" max="30" customWidth="1" width="8.8515625"/>
+    <col min="31" max="31" customWidth="1" width="66.94140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.4" customHeight="1">
@@ -501,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 12/06/2025</t>
+          <t xml:space="preserve">Day: 12/11/2025</t>
         </is>
       </c>
     </row>
@@ -546,34 +565,46 @@
       <c s="5" t="str" r="L6"/>
       <c s="3" t="inlineStr" r="M6">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="N6"/>
       <c s="3" t="inlineStr" r="O6">
         <is>
-          <t xml:space="preserve">Service</t>
+          <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="P6"/>
       <c s="3" t="inlineStr" r="Q6">
         <is>
-          <t xml:space="preserve">Lane Queue</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="R6"/>
       <c s="3" t="inlineStr" r="S6">
         <is>
-          <t xml:space="preserve">Lane Total</t>
+          <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="T6"/>
       <c s="3" t="inlineStr" r="U6">
         <is>
+          <t xml:space="preserve">Lane Queue</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="V6"/>
+      <c s="3" t="inlineStr" r="W6">
+        <is>
+          <t xml:space="preserve">Lane Total</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="X6"/>
+      <c s="3" t="inlineStr" r="Y6">
+        <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
-      <c s="5" t="str" r="V6"/>
+      <c s="5" t="str" r="Z6"/>
     </row>
     <row r="7" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A7">
@@ -585,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c s="8" r="F7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -606,22 +637,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="8" r="O7">
-        <v>44</v>
+      <c s="10" r="O7">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
       <c s="10" r="Q7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="9" r="S7">
-        <v>96</v>
+      <c s="8" r="S7">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>48</v>
+      <c s="10" r="U7">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="V7"/>
+      <c s="9" r="W7">
+        <v>131</v>
+      </c>
+      <c s="5" t="str" r="X7"/>
+      <c s="9" r="Y7">
+        <v>65</v>
+      </c>
+      <c s="5" t="str" r="Z7"/>
     </row>
     <row r="8" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A8">
@@ -633,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>122</v>
+        <v>559</v>
       </c>
       <c s="11" r="F8">
         <v>29</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -654,22 +693,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="12" r="O8">
-        <v>50</v>
+      <c s="10" r="O8">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
       <c s="10" r="Q8">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="9" r="S8">
-        <v>130</v>
+      <c s="12" r="S8">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>130</v>
+      <c s="10" r="U8">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="V8"/>
+      <c s="9" r="W8">
+        <v>137</v>
+      </c>
+      <c s="5" t="str" r="X8"/>
+      <c s="9" r="Y8">
+        <v>137</v>
+      </c>
+      <c s="5" t="str" r="Z8"/>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A9">
@@ -681,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>116</v>
-      </c>
-      <c s="11" r="F9">
-        <v>28</v>
+        <v>453</v>
+      </c>
+      <c s="12" r="F9">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="8" r="H9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -702,22 +749,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="12" r="O9">
-        <v>53</v>
+      <c s="10" r="O9">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
       <c s="10" r="Q9">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="8" r="S9">
-        <v>152</v>
+      <c s="12" r="S9">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="8" r="U9">
-        <v>152</v>
+      <c s="10" r="U9">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="V9"/>
+      <c s="11" r="W9">
+        <v>169</v>
+      </c>
+      <c s="5" t="str" r="X9"/>
+      <c s="11" r="Y9">
+        <v>169</v>
+      </c>
+      <c s="5" t="str" r="Z9"/>
     </row>
     <row r="10" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A10">
@@ -729,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>88</v>
-      </c>
-      <c s="8" r="F10">
-        <v>21</v>
+        <v>374</v>
+      </c>
+      <c s="12" r="F10">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="9" r="H10">
-        <v>2</v>
+      <c s="11" r="H10">
+        <v>7</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -750,582 +805,1856 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="12" r="O10">
-        <v>53</v>
+      <c s="10" r="O10">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
       <c s="10" r="Q10">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="8" r="S10">
-        <v>153</v>
+      <c s="12" r="S10">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="8" r="U10">
-        <v>153</v>
+      <c s="10" r="U10">
+        <v>91</v>
       </c>
       <c s="5" t="str" r="V10"/>
+      <c s="12" r="W10">
+        <v>210</v>
+      </c>
+      <c s="5" t="str" r="X10"/>
+      <c s="12" r="Y10">
+        <v>210</v>
+      </c>
+      <c s="5" t="str" r="Z10"/>
     </row>
     <row r="11" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">363271 </t>
+          <t xml:space="preserve">362913 DUNKIN</t>
         </is>
       </c>
       <c s="4" t="str" r="B11"/>
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>90</v>
-      </c>
-      <c s="10" r="F11">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c s="8" r="F11">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="10" r="H11">
-        <v>0</v>
-      </c>
-      <c s="11" r="I11">
-        <v>28</v>
+      <c s="9" r="H11">
+        <v>2</v>
+      </c>
+      <c s="10" r="I11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
-        <v>4</v>
+      <c s="10" r="K11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
       <c s="10" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="12" r="O11">
-        <v>60</v>
+      <c s="10" r="O11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="10" r="Q11">
-        <v>33</v>
+      <c s="9" r="Q11">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="9" r="S11">
-        <v>121</v>
+      <c s="12" r="S11">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="9" r="U11">
-        <v>121</v>
+      <c s="10" r="U11">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="V11"/>
+      <c s="9" r="W11">
+        <v>114</v>
+      </c>
+      <c s="5" t="str" r="X11"/>
+      <c s="8" r="Y11">
+        <v>149</v>
+      </c>
+      <c s="5" t="str" r="Z11"/>
     </row>
     <row r="12" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">364322 elizabethtown</t>
+          <t xml:space="preserve">363271 </t>
         </is>
       </c>
       <c s="4" t="str" r="B12"/>
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>86</v>
-      </c>
-      <c s="9" r="F12">
-        <v>26</v>
+        <v>402</v>
+      </c>
+      <c s="10" r="F12">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="9" r="H12">
-        <v>1</v>
-      </c>
-      <c s="10" r="I12">
-        <v>0</v>
+      <c s="10" r="H12">
+        <v>0</v>
+      </c>
+      <c s="13" r="I12">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="10" r="K12">
-        <v>0</v>
+      <c s="9" r="K12">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
       <c s="9" r="M12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="12" r="O12">
-        <v>48</v>
+      <c s="9" r="O12">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="9" r="S12">
-        <v>122</v>
+      <c s="12" r="S12">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="9" r="U12">
-        <v>122</v>
+      <c s="10" r="U12">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="V12"/>
-    </row>
-    <row r="13" ht="4.95" customHeight="1"/>
-    <row r="14" ht="32.25" customHeight="0">
-      <c s="13" t="inlineStr" r="A14">
+      <c s="8" r="W12">
+        <v>150</v>
+      </c>
+      <c s="5" t="str" r="X12"/>
+      <c s="8" r="Y12">
+        <v>151</v>
+      </c>
+      <c s="5" t="str" r="Z12"/>
+    </row>
+    <row r="13" ht="18" customHeight="0">
+      <c s="6" t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">364322 elizabethtown</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="B13"/>
+      <c s="4" t="str" r="C13"/>
+      <c s="5" t="str" r="D13"/>
+      <c s="7" r="E13">
+        <v>474</v>
+      </c>
+      <c s="8" r="F13">
+        <v>31</v>
+      </c>
+      <c s="5" t="str" r="G13"/>
+      <c s="9" r="H13">
+        <v>3</v>
+      </c>
+      <c s="10" r="I13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="J13"/>
+      <c s="10" r="K13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="L13"/>
+      <c s="10" r="M13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="N13"/>
+      <c s="10" r="O13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="P13"/>
+      <c s="9" r="Q13">
+        <v>10</v>
+      </c>
+      <c s="5" t="str" r="R13"/>
+      <c s="12" r="S13">
+        <v>53</v>
+      </c>
+      <c s="5" t="str" r="T13"/>
+      <c s="10" r="U13">
+        <v>44</v>
+      </c>
+      <c s="5" t="str" r="V13"/>
+      <c s="9" r="W13">
+        <v>138</v>
+      </c>
+      <c s="5" t="str" r="X13"/>
+      <c s="9" r="Y13">
+        <v>138</v>
+      </c>
+      <c s="5" t="str" r="Z13"/>
+    </row>
+    <row r="14" ht="4.95" customHeight="1"/>
+    <row r="15" ht="32.25" customHeight="0">
+      <c s="14" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">Group / Store</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="B14"/>
-      <c s="4" t="str" r="C14"/>
-      <c s="3" t="inlineStr" r="D14">
-        <is>
-          <t xml:space="preserve">Time Measure</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="E14"/>
-      <c s="5" t="str" r="F14"/>
-      <c s="3" t="inlineStr" r="G14">
-        <is>
-          <t xml:space="preserve">Total Cars</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="H14"/>
-      <c s="5" t="str" r="I14"/>
-      <c s="14" t="inlineStr" r="J14">
-        <is>
-          <t xml:space="preserve">Menu Board</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="K14"/>
-      <c s="14" t="inlineStr" r="L14">
-        <is>
-          <t xml:space="preserve">Greet</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="M14"/>
-      <c s="14" t="inlineStr" r="N14">
-        <is>
-          <t xml:space="preserve">Menu 1</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="O14"/>
-      <c s="14" t="inlineStr" r="P14">
-        <is>
-          <t xml:space="preserve">Greet 1</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="Q14"/>
-      <c s="14" t="inlineStr" r="R14">
-        <is>
-          <t xml:space="preserve">Cashier</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="S14"/>
-      <c s="14" t="inlineStr" r="T14">
-        <is>
-          <t xml:space="preserve">Service</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="U14"/>
-      <c s="14" t="inlineStr" r="V14">
-        <is>
-          <t xml:space="preserve">Lane Queue</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="W14"/>
-      <c s="14" t="inlineStr" r="X14">
-        <is>
-          <t xml:space="preserve">Lane Total</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr" r="Y14">
-        <is>
-          <t xml:space="preserve">Lane Total 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A15">
-        <is>
-          <t xml:space="preserve">343939 Mt.Joy</t>
         </is>
       </c>
       <c s="4" t="str" r="B15"/>
       <c s="4" t="str" r="C15"/>
-      <c s="16" t="inlineStr" r="D15">
-        <is>
-          <t xml:space="preserve">Daypart 2</t>
+      <c s="3" t="inlineStr" r="D15">
+        <is>
+          <t xml:space="preserve">Time Measure</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="17" r="G15">
-        <v>72</v>
+      <c s="3" t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Total Cars</t>
+        </is>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="18" r="J15">
-        <v>25</v>
+      <c s="15" t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">Menu Board</t>
+        </is>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="19" r="L15">
-        <v>2</v>
+      <c s="15" t="inlineStr" r="L15">
+        <is>
+          <t xml:space="preserve">Greet</t>
+        </is>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="20" r="N15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="N15">
+        <is>
+          <t xml:space="preserve">Menu 1</t>
+        </is>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="20" r="P15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="P15">
+        <is>
+          <t xml:space="preserve">Greet 1</t>
+        </is>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="20" r="R15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="R15">
+        <is>
+          <t xml:space="preserve">Menu 2</t>
+        </is>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="18" r="T15">
-        <v>44</v>
+      <c s="15" t="inlineStr" r="T15">
+        <is>
+          <t xml:space="preserve">Greet 2</t>
+        </is>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="20" r="V15">
-        <v>26</v>
+      <c s="15" t="inlineStr" r="V15">
+        <is>
+          <t xml:space="preserve">Cashier</t>
+        </is>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="19" r="X15">
-        <v>96</v>
-      </c>
-      <c s="19" r="Y15">
-        <v>48</v>
+      <c s="15" t="inlineStr" r="X15">
+        <is>
+          <t xml:space="preserve">Service</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="Y15"/>
+      <c s="15" t="inlineStr" r="Z15">
+        <is>
+          <t xml:space="preserve">Lane Queue</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="AA15"/>
+      <c s="15" t="inlineStr" r="AB15">
+        <is>
+          <t xml:space="preserve">Lane Total</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="AC15"/>
+      <c s="15" t="inlineStr" r="AD15">
+        <is>
+          <t xml:space="preserve">Lane Total 2</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A16">
-        <is>
-          <t xml:space="preserve">357993 Enola</t>
-        </is>
-      </c>
-      <c s="21" t="str" r="B16"/>
-      <c s="21" t="str" r="C16"/>
-      <c s="16" t="inlineStr" r="D16">
-        <is>
-          <t xml:space="preserve">Daypart 1</t>
+      <c s="16" t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">343939 Mt.Joy</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B16"/>
+      <c s="17" t="str" r="C16"/>
+      <c s="18" t="inlineStr" r="D16">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="17" r="G16">
-        <v>2</v>
+      <c s="19" r="G16">
+        <v>208</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="22" r="J16">
-        <v>32</v>
+      <c s="20" r="J16">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="23" r="L16">
-        <v>9</v>
+      <c s="21" r="L16">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="20" r="N16">
+      <c s="22" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="20" r="P16">
+      <c s="22" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="20" r="R16">
+      <c s="22" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="24" r="T16">
-        <v>84</v>
+      <c s="22" r="T16">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="20" r="V16">
-        <v>9</v>
+      <c s="22" r="V16">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="19" r="X16">
-        <v>125</v>
-      </c>
-      <c s="19" r="Y16">
-        <v>125</v>
+      <c s="20" r="X16">
+        <v>46</v>
+      </c>
+      <c s="5" t="str" r="Y16"/>
+      <c s="22" r="Z16">
+        <v>44</v>
+      </c>
+      <c s="5" t="str" r="AA16"/>
+      <c s="21" r="AB16">
+        <v>116</v>
+      </c>
+      <c s="5" t="str" r="AC16"/>
+      <c s="21" r="AD16">
+        <v>58</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="25" t="str" r="A17"/>
-      <c s="26" t="str" r="B17"/>
-      <c s="26" t="str" r="C17"/>
-      <c s="16" t="inlineStr" r="D17">
-        <is>
-          <t xml:space="preserve">Daypart 2</t>
+      <c s="23" t="str" r="A17"/>
+      <c s="18" t="inlineStr" r="D17">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="17" r="G17">
-        <v>120</v>
+      <c s="19" r="G17">
+        <v>99</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="23" r="J17">
-        <v>29</v>
+      <c s="20" r="J17">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="19" r="L17">
-        <v>3</v>
+      <c s="21" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="20" r="N17">
+      <c s="22" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="20" r="P17">
+      <c s="22" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="20" r="R17">
+      <c s="22" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="24" r="T17">
-        <v>50</v>
+      <c s="22" r="T17">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="20" r="V17">
-        <v>50</v>
+      <c s="22" r="V17">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="19" r="X17">
-        <v>130</v>
-      </c>
-      <c s="19" r="Y17">
-        <v>130</v>
+      <c s="24" r="X17">
+        <v>61</v>
+      </c>
+      <c s="5" t="str" r="Y17"/>
+      <c s="22" r="Z17">
+        <v>37</v>
+      </c>
+      <c s="5" t="str" r="AA17"/>
+      <c s="21" r="AB17">
+        <v>129</v>
+      </c>
+      <c s="5" t="str" r="AC17"/>
+      <c s="21" r="AD17">
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A18">
-        <is>
-          <t xml:space="preserve">358529 Columbia</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="B18"/>
-      <c s="4" t="str" r="C18"/>
-      <c s="16" t="inlineStr" r="D18">
-        <is>
-          <t xml:space="preserve">Daypart 2</t>
+      <c s="23" t="str" r="A18"/>
+      <c s="18" t="inlineStr" r="D18">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="17" r="G18">
-        <v>116</v>
+      <c s="19" r="G18">
+        <v>59</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="23" r="J18">
-        <v>28</v>
+      <c s="20" r="J18">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="18" r="L18">
-        <v>5</v>
+      <c s="20" r="L18">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="20" r="N18">
+      <c s="22" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="20" r="P18">
+      <c s="22" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="20" r="R18">
+      <c s="22" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="24" r="T18">
-        <v>53</v>
+      <c s="22" r="T18">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="20" r="V18">
-        <v>71</v>
+      <c s="22" r="V18">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="18" r="X18">
-        <v>152</v>
-      </c>
-      <c s="18" r="Y18">
-        <v>152</v>
+      <c s="25" r="X18">
+        <v>93</v>
+      </c>
+      <c s="5" t="str" r="Y18"/>
+      <c s="22" r="Z18">
+        <v>48</v>
+      </c>
+      <c s="5" t="str" r="AA18"/>
+      <c s="24" r="AB18">
+        <v>183</v>
+      </c>
+      <c s="5" t="str" r="AC18"/>
+      <c s="20" r="AD18">
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A19">
-        <is>
-          <t xml:space="preserve">359042 LITITZ</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="B19"/>
-      <c s="4" t="str" r="C19"/>
-      <c s="16" t="inlineStr" r="D19">
-        <is>
-          <t xml:space="preserve">Daypart 2</t>
+      <c s="26" t="str" r="A19"/>
+      <c s="27" t="str" r="B19"/>
+      <c s="27" t="str" r="C19"/>
+      <c s="18" t="inlineStr" r="D19">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="17" r="G19">
-        <v>88</v>
+      <c s="19" r="G19">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="18" r="J19">
-        <v>21</v>
+      <c s="20" r="J19">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="19" r="L19">
-        <v>2</v>
+      <c s="20" r="L19">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="20" r="N19">
+      <c s="22" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="20" r="P19">
+      <c s="22" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="20" r="R19">
+      <c s="22" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="24" r="T19">
-        <v>53</v>
+      <c s="22" r="T19">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="20" r="V19">
-        <v>78</v>
+      <c s="22" r="V19">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="18" r="X19">
-        <v>153</v>
-      </c>
-      <c s="18" r="Y19">
-        <v>153</v>
+      <c s="24" r="X19">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="Y19"/>
+      <c s="22" r="Z19">
+        <v>12</v>
+      </c>
+      <c s="5" t="str" r="AA19"/>
+      <c s="21" r="AB19">
+        <v>142</v>
+      </c>
+      <c s="5" t="str" r="AC19"/>
+      <c s="21" r="AD19">
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A20">
-        <is>
-          <t xml:space="preserve">363271 </t>
-        </is>
-      </c>
-      <c s="4" t="str" r="B20"/>
-      <c s="4" t="str" r="C20"/>
-      <c s="16" t="inlineStr" r="D20">
-        <is>
-          <t xml:space="preserve">Daypart 2</t>
+      <c s="16" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">357993 Enola</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B20"/>
+      <c s="17" t="str" r="C20"/>
+      <c s="18" t="inlineStr" r="D20">
+        <is>
+          <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="17" r="G20">
-        <v>90</v>
+      <c s="19" r="G20">
+        <v>6</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="20" r="J20">
-        <v>0</v>
+      <c s="24" r="J20">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="20" r="L20">
-        <v>0</v>
+      <c s="21" r="L20">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="23" r="N20">
-        <v>28</v>
+      <c s="22" r="N20">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="19" r="P20">
-        <v>4</v>
+      <c s="22" r="P20">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="20" r="R20">
+      <c s="22" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="24" r="T20">
-        <v>60</v>
+      <c s="22" r="T20">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="20" r="V20">
-        <v>33</v>
+      <c s="22" r="V20">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="19" r="X20">
-        <v>121</v>
-      </c>
-      <c s="19" r="Y20">
-        <v>121</v>
+      <c s="28" r="X20">
+        <v>98</v>
+      </c>
+      <c s="5" t="str" r="Y20"/>
+      <c s="22" r="Z20">
+        <v>16</v>
+      </c>
+      <c s="5" t="str" r="AA20"/>
+      <c s="21" r="AB20">
+        <v>141</v>
+      </c>
+      <c s="5" t="str" r="AC20"/>
+      <c s="21" r="AD20">
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A21">
-        <is>
-          <t xml:space="preserve">364322 elizabethtown</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="B21"/>
-      <c s="4" t="str" r="C21"/>
-      <c s="16" t="inlineStr" r="D21">
+      <c s="23" t="str" r="A21"/>
+      <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="17" r="G21">
-        <v>86</v>
+      <c s="19" r="G21">
+        <v>305</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="19" r="J21">
+      <c s="25" r="J21">
+        <v>30</v>
+      </c>
+      <c s="5" t="str" r="K21"/>
+      <c s="21" r="L21">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M21"/>
+      <c s="22" r="N21">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O21"/>
+      <c s="22" r="P21">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q21"/>
+      <c s="22" r="R21">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S21"/>
+      <c s="22" r="T21">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U21"/>
+      <c s="22" r="V21">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W21"/>
+      <c s="25" r="X21">
+        <v>41</v>
+      </c>
+      <c s="5" t="str" r="Y21"/>
+      <c s="22" r="Z21">
+        <v>63</v>
+      </c>
+      <c s="5" t="str" r="AA21"/>
+      <c s="21" r="AB21">
+        <v>135</v>
+      </c>
+      <c s="5" t="str" r="AC21"/>
+      <c s="21" r="AD21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="0">
+      <c s="23" t="str" r="A22"/>
+      <c s="18" t="inlineStr" r="D22">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E22"/>
+      <c s="5" t="str" r="F22"/>
+      <c s="19" r="G22">
+        <v>126</v>
+      </c>
+      <c s="4" t="str" r="H22"/>
+      <c s="5" t="str" r="I22"/>
+      <c s="25" r="J22">
+        <v>32</v>
+      </c>
+      <c s="5" t="str" r="K22"/>
+      <c s="21" r="L22">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M22"/>
+      <c s="22" r="N22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O22"/>
+      <c s="22" r="P22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q22"/>
+      <c s="22" r="R22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S22"/>
+      <c s="22" r="T22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U22"/>
+      <c s="22" r="V22">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W22"/>
+      <c s="28" r="X22">
+        <v>60</v>
+      </c>
+      <c s="5" t="str" r="Y22"/>
+      <c s="22" r="Z22">
+        <v>52</v>
+      </c>
+      <c s="5" t="str" r="AA22"/>
+      <c s="21" r="AB22">
+        <v>144</v>
+      </c>
+      <c s="5" t="str" r="AC22"/>
+      <c s="21" r="AD22">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="0">
+      <c s="23" t="str" r="A23"/>
+      <c s="18" t="inlineStr" r="D23">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E23"/>
+      <c s="5" t="str" r="F23"/>
+      <c s="19" r="G23">
+        <v>98</v>
+      </c>
+      <c s="4" t="str" r="H23"/>
+      <c s="5" t="str" r="I23"/>
+      <c s="24" r="J23">
+        <v>28</v>
+      </c>
+      <c s="5" t="str" r="K23"/>
+      <c s="21" r="L23">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M23"/>
+      <c s="22" r="N23">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O23"/>
+      <c s="22" r="P23">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q23"/>
+      <c s="22" r="R23">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S23"/>
+      <c s="22" r="T23">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U23"/>
+      <c s="22" r="V23">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W23"/>
+      <c s="28" r="X23">
+        <v>73</v>
+      </c>
+      <c s="5" t="str" r="Y23"/>
+      <c s="22" r="Z23">
+        <v>44</v>
+      </c>
+      <c s="5" t="str" r="AA23"/>
+      <c s="21" r="AB23">
+        <v>145</v>
+      </c>
+      <c s="5" t="str" r="AC23"/>
+      <c s="21" r="AD23">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="0">
+      <c s="26" t="str" r="A24"/>
+      <c s="27" t="str" r="B24"/>
+      <c s="27" t="str" r="C24"/>
+      <c s="18" t="inlineStr" r="D24">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E24"/>
+      <c s="5" t="str" r="F24"/>
+      <c s="19" r="G24">
+        <v>24</v>
+      </c>
+      <c s="4" t="str" r="H24"/>
+      <c s="5" t="str" r="I24"/>
+      <c s="21" r="J24">
+        <v>19</v>
+      </c>
+      <c s="5" t="str" r="K24"/>
+      <c s="21" r="L24">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="M24"/>
+      <c s="22" r="N24">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O24"/>
+      <c s="22" r="P24">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q24"/>
+      <c s="22" r="R24">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S24"/>
+      <c s="22" r="T24">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U24"/>
+      <c s="22" r="V24">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W24"/>
+      <c s="28" r="X24">
+        <v>56</v>
+      </c>
+      <c s="5" t="str" r="Y24"/>
+      <c s="22" r="Z24">
+        <v>27</v>
+      </c>
+      <c s="5" t="str" r="AA24"/>
+      <c s="21" r="AB24">
+        <v>103</v>
+      </c>
+      <c s="5" t="str" r="AC24"/>
+      <c s="21" r="AD24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">358529 Columbia</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B25"/>
+      <c s="17" t="str" r="C25"/>
+      <c s="18" t="inlineStr" r="D25">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E25"/>
+      <c s="5" t="str" r="F25"/>
+      <c s="19" r="G25">
+        <v>271</v>
+      </c>
+      <c s="4" t="str" r="H25"/>
+      <c s="5" t="str" r="I25"/>
+      <c s="25" r="J25">
+        <v>33</v>
+      </c>
+      <c s="5" t="str" r="K25"/>
+      <c s="21" r="L25">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="M25"/>
+      <c s="22" r="N25">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O25"/>
+      <c s="22" r="P25">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q25"/>
+      <c s="22" r="R25">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S25"/>
+      <c s="22" r="T25">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U25"/>
+      <c s="22" r="V25">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W25"/>
+      <c s="28" r="X25">
+        <v>50</v>
+      </c>
+      <c s="5" t="str" r="Y25"/>
+      <c s="22" r="Z25">
+        <v>75</v>
+      </c>
+      <c s="5" t="str" r="AA25"/>
+      <c s="20" r="AB25">
+        <v>157</v>
+      </c>
+      <c s="5" t="str" r="AC25"/>
+      <c s="20" r="AD25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="0">
+      <c s="23" t="str" r="A26"/>
+      <c s="18" t="inlineStr" r="D26">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E26"/>
+      <c s="5" t="str" r="F26"/>
+      <c s="19" r="G26">
+        <v>97</v>
+      </c>
+      <c s="4" t="str" r="H26"/>
+      <c s="5" t="str" r="I26"/>
+      <c s="28" r="J26">
+        <v>41</v>
+      </c>
+      <c s="5" t="str" r="K26"/>
+      <c s="20" r="L26">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="M26"/>
+      <c s="22" r="N26">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O26"/>
+      <c s="22" r="P26">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q26"/>
+      <c s="22" r="R26">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S26"/>
+      <c s="22" r="T26">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U26"/>
+      <c s="22" r="V26">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W26"/>
+      <c s="28" r="X26">
+        <v>74</v>
+      </c>
+      <c s="5" t="str" r="Y26"/>
+      <c s="22" r="Z26">
+        <v>54</v>
+      </c>
+      <c s="5" t="str" r="AA26"/>
+      <c s="24" r="AB26">
+        <v>168</v>
+      </c>
+      <c s="5" t="str" r="AC26"/>
+      <c s="24" r="AD26">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="0">
+      <c s="23" t="str" r="A27"/>
+      <c s="18" t="inlineStr" r="D27">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E27"/>
+      <c s="5" t="str" r="F27"/>
+      <c s="19" r="G27">
+        <v>72</v>
+      </c>
+      <c s="4" t="str" r="H27"/>
+      <c s="5" t="str" r="I27"/>
+      <c s="28" r="J27">
+        <v>43</v>
+      </c>
+      <c s="5" t="str" r="K27"/>
+      <c s="25" r="L27">
+        <v>11</v>
+      </c>
+      <c s="5" t="str" r="M27"/>
+      <c s="22" r="N27">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O27"/>
+      <c s="22" r="P27">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q27"/>
+      <c s="22" r="R27">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S27"/>
+      <c s="22" r="T27">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U27"/>
+      <c s="22" r="V27">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W27"/>
+      <c s="28" r="X27">
+        <v>102</v>
+      </c>
+      <c s="5" t="str" r="Y27"/>
+      <c s="22" r="Z27">
+        <v>74</v>
+      </c>
+      <c s="5" t="str" r="AA27"/>
+      <c s="28" r="AB27">
+        <v>216</v>
+      </c>
+      <c s="5" t="str" r="AC27"/>
+      <c s="28" r="AD27">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="0">
+      <c s="26" t="str" r="A28"/>
+      <c s="27" t="str" r="B28"/>
+      <c s="27" t="str" r="C28"/>
+      <c s="18" t="inlineStr" r="D28">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E28"/>
+      <c s="5" t="str" r="F28"/>
+      <c s="19" r="G28">
+        <v>13</v>
+      </c>
+      <c s="4" t="str" r="H28"/>
+      <c s="5" t="str" r="I28"/>
+      <c s="28" r="J28">
+        <v>41</v>
+      </c>
+      <c s="5" t="str" r="K28"/>
+      <c s="20" r="L28">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="M28"/>
+      <c s="22" r="N28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O28"/>
+      <c s="22" r="P28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q28"/>
+      <c s="22" r="R28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S28"/>
+      <c s="22" r="T28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U28"/>
+      <c s="22" r="V28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W28"/>
+      <c s="28" r="X28">
+        <v>103</v>
+      </c>
+      <c s="5" t="str" r="Y28"/>
+      <c s="22" r="Z28">
+        <v>23</v>
+      </c>
+      <c s="5" t="str" r="AA28"/>
+      <c s="24" r="AB28">
+        <v>168</v>
+      </c>
+      <c s="5" t="str" r="AC28"/>
+      <c s="24" r="AD28">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">359042 LITITZ</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B29"/>
+      <c s="17" t="str" r="C29"/>
+      <c s="18" t="inlineStr" r="D29">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E29"/>
+      <c s="5" t="str" r="F29"/>
+      <c s="19" r="G29">
+        <v>220</v>
+      </c>
+      <c s="4" t="str" r="H29"/>
+      <c s="5" t="str" r="I29"/>
+      <c s="25" r="J29">
+        <v>31</v>
+      </c>
+      <c s="5" t="str" r="K29"/>
+      <c s="20" r="L29">
+        <v>5</v>
+      </c>
+      <c s="5" t="str" r="M29"/>
+      <c s="22" r="N29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O29"/>
+      <c s="22" r="P29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q29"/>
+      <c s="22" r="R29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S29"/>
+      <c s="22" r="T29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U29"/>
+      <c s="22" r="V29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W29"/>
+      <c s="28" r="X29">
+        <v>55</v>
+      </c>
+      <c s="5" t="str" r="Y29"/>
+      <c s="22" r="Z29">
+        <v>105</v>
+      </c>
+      <c s="5" t="str" r="AA29"/>
+      <c s="25" r="AB29">
+        <v>192</v>
+      </c>
+      <c s="5" t="str" r="AC29"/>
+      <c s="25" r="AD29">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="0">
+      <c s="23" t="str" r="A30"/>
+      <c s="18" t="inlineStr" r="D30">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E30"/>
+      <c s="5" t="str" r="F30"/>
+      <c s="19" r="G30">
+        <v>97</v>
+      </c>
+      <c s="4" t="str" r="H30"/>
+      <c s="5" t="str" r="I30"/>
+      <c s="28" r="J30">
+        <v>38</v>
+      </c>
+      <c s="5" t="str" r="K30"/>
+      <c s="24" r="L30">
+        <v>9</v>
+      </c>
+      <c s="5" t="str" r="M30"/>
+      <c s="22" r="N30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O30"/>
+      <c s="22" r="P30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q30"/>
+      <c s="22" r="R30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S30"/>
+      <c s="22" r="T30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U30"/>
+      <c s="22" r="V30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W30"/>
+      <c s="28" r="X30">
+        <v>78</v>
+      </c>
+      <c s="5" t="str" r="Y30"/>
+      <c s="22" r="Z30">
+        <v>49</v>
+      </c>
+      <c s="5" t="str" r="AA30"/>
+      <c s="20" r="AB30">
+        <v>164</v>
+      </c>
+      <c s="5" t="str" r="AC30"/>
+      <c s="20" r="AD30">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="0">
+      <c s="23" t="str" r="A31"/>
+      <c s="18" t="inlineStr" r="D31">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E31"/>
+      <c s="5" t="str" r="F31"/>
+      <c s="19" r="G31">
+        <v>48</v>
+      </c>
+      <c s="4" t="str" r="H31"/>
+      <c s="5" t="str" r="I31"/>
+      <c s="28" r="J31">
+        <v>108</v>
+      </c>
+      <c s="5" t="str" r="K31"/>
+      <c s="28" r="L31">
+        <v>12</v>
+      </c>
+      <c s="5" t="str" r="M31"/>
+      <c s="22" r="N31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O31"/>
+      <c s="22" r="P31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q31"/>
+      <c s="22" r="R31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S31"/>
+      <c s="22" r="T31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U31"/>
+      <c s="22" r="V31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W31"/>
+      <c s="28" r="X31">
+        <v>155</v>
+      </c>
+      <c s="5" t="str" r="Y31"/>
+      <c s="22" r="Z31">
+        <v>125</v>
+      </c>
+      <c s="5" t="str" r="AA31"/>
+      <c s="28" r="AB31">
+        <v>389</v>
+      </c>
+      <c s="5" t="str" r="AC31"/>
+      <c s="28" r="AD31">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="0">
+      <c s="26" t="str" r="A32"/>
+      <c s="27" t="str" r="B32"/>
+      <c s="27" t="str" r="C32"/>
+      <c s="18" t="inlineStr" r="D32">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E32"/>
+      <c s="5" t="str" r="F32"/>
+      <c s="19" r="G32">
+        <v>9</v>
+      </c>
+      <c s="4" t="str" r="H32"/>
+      <c s="5" t="str" r="I32"/>
+      <c s="28" r="J32">
+        <v>63</v>
+      </c>
+      <c s="5" t="str" r="K32"/>
+      <c s="24" r="L32">
+        <v>7</v>
+      </c>
+      <c s="5" t="str" r="M32"/>
+      <c s="22" r="N32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O32"/>
+      <c s="22" r="P32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q32"/>
+      <c s="22" r="R32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S32"/>
+      <c s="22" r="T32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U32"/>
+      <c s="22" r="V32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W32"/>
+      <c s="28" r="X32">
+        <v>116</v>
+      </c>
+      <c s="5" t="str" r="Y32"/>
+      <c s="22" r="Z32">
+        <v>14</v>
+      </c>
+      <c s="5" t="str" r="AA32"/>
+      <c s="25" r="AB32">
+        <v>194</v>
+      </c>
+      <c s="5" t="str" r="AC32"/>
+      <c s="25" r="AD32">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">362913 DUNKIN</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="B33"/>
+      <c s="4" t="str" r="C33"/>
+      <c s="18" t="inlineStr" r="D33">
+        <is>
+          <t xml:space="preserve">Daypart 1</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E33"/>
+      <c s="5" t="str" r="F33"/>
+      <c s="19" r="G33">
+        <v>225</v>
+      </c>
+      <c s="4" t="str" r="H33"/>
+      <c s="5" t="str" r="I33"/>
+      <c s="20" r="J33">
+        <v>36</v>
+      </c>
+      <c s="5" t="str" r="K33"/>
+      <c s="21" r="L33">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M33"/>
+      <c s="22" r="N33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O33"/>
+      <c s="22" r="P33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q33"/>
+      <c s="22" r="R33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S33"/>
+      <c s="22" r="T33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U33"/>
+      <c s="21" r="V33">
+        <v>12</v>
+      </c>
+      <c s="5" t="str" r="W33"/>
+      <c s="28" r="X33">
+        <v>68</v>
+      </c>
+      <c s="5" t="str" r="Y33"/>
+      <c s="22" r="Z33">
+        <v>35</v>
+      </c>
+      <c s="5" t="str" r="AA33"/>
+      <c s="21" r="AB33">
+        <v>114</v>
+      </c>
+      <c s="5" t="str" r="AC33"/>
+      <c s="20" r="AD33">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A34">
+        <is>
+          <t xml:space="preserve">363271 </t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B34"/>
+      <c s="17" t="str" r="C34"/>
+      <c s="18" t="inlineStr" r="D34">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E34"/>
+      <c s="5" t="str" r="F34"/>
+      <c s="19" r="G34">
+        <v>239</v>
+      </c>
+      <c s="4" t="str" r="H34"/>
+      <c s="5" t="str" r="I34"/>
+      <c s="22" r="J34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K34"/>
+      <c s="22" r="L34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M34"/>
+      <c s="24" r="N34">
+        <v>25</v>
+      </c>
+      <c s="5" t="str" r="O34"/>
+      <c s="21" r="P34">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="Q34"/>
+      <c s="21" r="R34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S34"/>
+      <c s="21" r="T34">
+        <v>1</v>
+      </c>
+      <c s="5" t="str" r="U34"/>
+      <c s="22" r="V34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W34"/>
+      <c s="28" r="X34">
+        <v>49</v>
+      </c>
+      <c s="5" t="str" r="Y34"/>
+      <c s="22" r="Z34">
+        <v>70</v>
+      </c>
+      <c s="5" t="str" r="AA34"/>
+      <c s="21" r="AB34">
+        <v>144</v>
+      </c>
+      <c s="5" t="str" r="AC34"/>
+      <c s="21" r="AD34">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="0">
+      <c s="23" t="str" r="A35"/>
+      <c s="18" t="inlineStr" r="D35">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E35"/>
+      <c s="5" t="str" r="F35"/>
+      <c s="19" r="G35">
+        <v>88</v>
+      </c>
+      <c s="4" t="str" r="H35"/>
+      <c s="5" t="str" r="I35"/>
+      <c s="22" r="J35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K35"/>
+      <c s="22" r="L35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M35"/>
+      <c s="28" r="N35">
+        <v>39</v>
+      </c>
+      <c s="5" t="str" r="O35"/>
+      <c s="21" r="P35">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="Q35"/>
+      <c s="21" r="R35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S35"/>
+      <c s="21" r="T35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U35"/>
+      <c s="22" r="V35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W35"/>
+      <c s="28" r="X35">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="Y35"/>
+      <c s="22" r="Z35">
+        <v>74</v>
+      </c>
+      <c s="5" t="str" r="AA35"/>
+      <c s="25" r="AB35">
+        <v>190</v>
+      </c>
+      <c s="5" t="str" r="AC35"/>
+      <c s="25" r="AD35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" ht="18" customHeight="0">
+      <c s="23" t="str" r="A36"/>
+      <c s="18" t="inlineStr" r="D36">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E36"/>
+      <c s="5" t="str" r="F36"/>
+      <c s="19" r="G36">
+        <v>61</v>
+      </c>
+      <c s="4" t="str" r="H36"/>
+      <c s="5" t="str" r="I36"/>
+      <c s="22" r="J36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K36"/>
+      <c s="22" r="L36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M36"/>
+      <c s="28" r="N36">
+        <v>35</v>
+      </c>
+      <c s="5" t="str" r="O36"/>
+      <c s="21" r="P36">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="Q36"/>
+      <c s="22" r="R36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S36"/>
+      <c s="22" r="T36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U36"/>
+      <c s="22" r="V36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W36"/>
+      <c s="28" r="X36">
+        <v>68</v>
+      </c>
+      <c s="5" t="str" r="Y36"/>
+      <c s="22" r="Z36">
+        <v>27</v>
+      </c>
+      <c s="5" t="str" r="AA36"/>
+      <c s="21" r="AB36">
+        <v>131</v>
+      </c>
+      <c s="5" t="str" r="AC36"/>
+      <c s="21" r="AD36">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" ht="18" customHeight="0">
+      <c s="26" t="str" r="A37"/>
+      <c s="27" t="str" r="B37"/>
+      <c s="27" t="str" r="C37"/>
+      <c s="18" t="inlineStr" r="D37">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E37"/>
+      <c s="5" t="str" r="F37"/>
+      <c s="19" r="G37">
+        <v>14</v>
+      </c>
+      <c s="4" t="str" r="H37"/>
+      <c s="5" t="str" r="I37"/>
+      <c s="22" r="J37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K37"/>
+      <c s="22" r="L37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M37"/>
+      <c s="25" r="N37">
+        <v>30</v>
+      </c>
+      <c s="5" t="str" r="O37"/>
+      <c s="21" r="P37">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="Q37"/>
+      <c s="21" r="R37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S37"/>
+      <c s="21" r="T37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U37"/>
+      <c s="22" r="V37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W37"/>
+      <c s="28" r="X37">
+        <v>56</v>
+      </c>
+      <c s="5" t="str" r="Y37"/>
+      <c s="22" r="Z37">
+        <v>14</v>
+      </c>
+      <c s="5" t="str" r="AA37"/>
+      <c s="21" r="AB37">
+        <v>95</v>
+      </c>
+      <c s="5" t="str" r="AC37"/>
+      <c s="21" r="AD37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">364322 elizabethtown</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B38"/>
+      <c s="17" t="str" r="C38"/>
+      <c s="18" t="inlineStr" r="D38">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E38"/>
+      <c s="5" t="str" r="F38"/>
+      <c s="19" r="G38">
+        <v>264</v>
+      </c>
+      <c s="4" t="str" r="H38"/>
+      <c s="5" t="str" r="I38"/>
+      <c s="21" r="J38">
         <v>26</v>
       </c>
-      <c s="5" t="str" r="K21"/>
-      <c s="19" r="L21">
+      <c s="5" t="str" r="K38"/>
+      <c s="21" r="L38">
         <v>1</v>
       </c>
-      <c s="5" t="str" r="M21"/>
-      <c s="20" r="N21">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O21"/>
-      <c s="20" r="P21">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q21"/>
-      <c s="19" r="R21">
+      <c s="5" t="str" r="M38"/>
+      <c s="22" r="N38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O38"/>
+      <c s="22" r="P38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q38"/>
+      <c s="22" r="R38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S38"/>
+      <c s="22" r="T38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U38"/>
+      <c s="21" r="V38">
         <v>11</v>
       </c>
-      <c s="5" t="str" r="S21"/>
-      <c s="24" r="T21">
-        <v>48</v>
-      </c>
-      <c s="5" t="str" r="U21"/>
-      <c s="20" r="V21">
-        <v>37</v>
-      </c>
-      <c s="5" t="str" r="W21"/>
-      <c s="19" r="X21">
-        <v>122</v>
-      </c>
-      <c s="19" r="Y21">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" ht="0.05" customHeight="1"/>
+      <c s="5" t="str" r="W38"/>
+      <c s="28" r="X38">
+        <v>42</v>
+      </c>
+      <c s="5" t="str" r="Y38"/>
+      <c s="22" r="Z38">
+        <v>51</v>
+      </c>
+      <c s="5" t="str" r="AA38"/>
+      <c s="21" r="AB38">
+        <v>130</v>
+      </c>
+      <c s="5" t="str" r="AC38"/>
+      <c s="21" r="AD38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" ht="18" customHeight="0">
+      <c s="23" t="str" r="A39"/>
+      <c s="18" t="inlineStr" r="D39">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E39"/>
+      <c s="5" t="str" r="F39"/>
+      <c s="19" r="G39">
+        <v>116</v>
+      </c>
+      <c s="4" t="str" r="H39"/>
+      <c s="5" t="str" r="I39"/>
+      <c s="20" r="J39">
+        <v>31</v>
+      </c>
+      <c s="5" t="str" r="K39"/>
+      <c s="21" r="L39">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="M39"/>
+      <c s="22" r="N39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O39"/>
+      <c s="22" r="P39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q39"/>
+      <c s="22" r="R39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S39"/>
+      <c s="22" r="T39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U39"/>
+      <c s="21" r="V39">
+        <v>7</v>
+      </c>
+      <c s="5" t="str" r="W39"/>
+      <c s="28" r="X39">
+        <v>50</v>
+      </c>
+      <c s="5" t="str" r="Y39"/>
+      <c s="22" r="Z39">
+        <v>28</v>
+      </c>
+      <c s="5" t="str" r="AA39"/>
+      <c s="21" r="AB39">
+        <v>115</v>
+      </c>
+      <c s="5" t="str" r="AC39"/>
+      <c s="21" r="AD39">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" ht="18" customHeight="0">
+      <c s="23" t="str" r="A40"/>
+      <c s="18" t="inlineStr" r="D40">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E40"/>
+      <c s="5" t="str" r="F40"/>
+      <c s="19" r="G40">
+        <v>74</v>
+      </c>
+      <c s="4" t="str" r="H40"/>
+      <c s="5" t="str" r="I40"/>
+      <c s="25" r="J40">
+        <v>50</v>
+      </c>
+      <c s="5" t="str" r="K40"/>
+      <c s="20" r="L40">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="M40"/>
+      <c s="22" r="N40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O40"/>
+      <c s="22" r="P40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q40"/>
+      <c s="22" r="R40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S40"/>
+      <c s="22" r="T40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U40"/>
+      <c s="20" r="V40">
+        <v>15</v>
+      </c>
+      <c s="5" t="str" r="W40"/>
+      <c s="28" r="X40">
+        <v>84</v>
+      </c>
+      <c s="5" t="str" r="Y40"/>
+      <c s="22" r="Z40">
+        <v>55</v>
+      </c>
+      <c s="5" t="str" r="AA40"/>
+      <c s="24" r="AB40">
+        <v>199</v>
+      </c>
+      <c s="5" t="str" r="AC40"/>
+      <c s="24" r="AD40">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" ht="18" customHeight="0">
+      <c s="26" t="str" r="A41"/>
+      <c s="27" t="str" r="B41"/>
+      <c s="27" t="str" r="C41"/>
+      <c s="18" t="inlineStr" r="D41">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E41"/>
+      <c s="5" t="str" r="F41"/>
+      <c s="19" r="G41">
+        <v>20</v>
+      </c>
+      <c s="4" t="str" r="H41"/>
+      <c s="5" t="str" r="I41"/>
+      <c s="20" r="J41">
+        <v>33</v>
+      </c>
+      <c s="5" t="str" r="K41"/>
+      <c s="20" r="L41">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="M41"/>
+      <c s="22" r="N41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O41"/>
+      <c s="22" r="P41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q41"/>
+      <c s="22" r="R41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S41"/>
+      <c s="22" r="T41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U41"/>
+      <c s="21" r="V41">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="W41"/>
+      <c s="28" r="X41">
+        <v>90</v>
+      </c>
+      <c s="5" t="str" r="Y41"/>
+      <c s="22" r="Z41">
+        <v>18</v>
+      </c>
+      <c s="5" t="str" r="AA41"/>
+      <c s="21" r="AB41">
+        <v>144</v>
+      </c>
+      <c s="5" t="str" r="AC41"/>
+      <c s="21" r="AD41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:Z1"/>
-    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="C1:AB1"/>
+    <mergeCell ref="C3:AB3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
@@ -1335,6 +2664,8 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
@@ -1344,6 +2675,8 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:J8"/>
@@ -1353,6 +2686,8 @@
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -1362,6 +2697,8 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I10:J10"/>
@@ -1371,6 +2708,8 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -1380,6 +2719,8 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -1389,16 +2730,19 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -1409,7 +2753,10 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V15:W15"/>
-    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="A16:C19"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1419,6 +2766,9 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
@@ -1428,7 +2778,9 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -1438,7 +2790,9 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="V18:W18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:K19"/>
@@ -1448,7 +2802,10 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="V19:W19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="A20:C24"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
@@ -1458,7 +2815,9 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
@@ -1468,11 +2827,259 @@
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="A25:C28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="A29:C32"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="A34:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="A38:C41"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/7/2025 1:05:27 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/12/2025 4:17:40 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,26 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B04C"/>
         <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,19 +327,19 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 12/11/2025</t>
+          <t xml:space="preserve">Day: 12/12/2025</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c s="8" r="F7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="9" r="H7">
-        <v>4</v>
-      </c>
-      <c s="10" r="I7">
+      <c s="8" r="H7">
+        <v>5</v>
+      </c>
+      <c s="9" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="10" r="K7">
+      <c s="9" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="10" r="M7">
+      <c s="9" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
+      <c s="9" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="10" r="Q7">
+      <c s="9" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>59</v>
+      <c s="10" r="S7">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>42</v>
+      <c s="9" r="U7">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>131</v>
+      <c s="10" r="W7">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>65</v>
+      <c s="11" r="Y7">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>559</v>
-      </c>
-      <c s="11" r="F8">
-        <v>29</v>
+        <v>546</v>
+      </c>
+      <c s="12" r="F8">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
-        <v>2</v>
-      </c>
-      <c s="10" r="I8">
+      <c s="11" r="H8">
+        <v>3</v>
+      </c>
+      <c s="9" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="10" r="K8">
+      <c s="9" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="10" r="M8">
+      <c s="9" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
+      <c s="9" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="10" r="Q8">
+      <c s="9" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>52</v>
+      <c s="13" r="S8">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>55</v>
+      <c s="9" r="U8">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>137</v>
+      <c s="8" r="W8">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>137</v>
+      <c s="8" r="Y8">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c s="12" r="F9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="8" r="H9">
-        <v>6</v>
-      </c>
-      <c s="10" r="I9">
+      <c s="11" r="H9">
+        <v>4</v>
+      </c>
+      <c s="9" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="10" r="K9">
+      <c s="9" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="10" r="M9">
+      <c s="9" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
+      <c s="9" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="10" r="Q9">
+      <c s="9" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>65</v>
+      <c s="13" r="S9">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
+      <c s="9" r="U9">
         <v>69</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="11" r="W9">
-        <v>169</v>
+      <c s="10" r="W9">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="11" r="Y9">
-        <v>169</v>
+      <c s="10" r="Y9">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c s="12" r="F10">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="11" r="H10">
-        <v>7</v>
-      </c>
-      <c s="10" r="I10">
+        <v>4</v>
+      </c>
+      <c s="9" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="10" r="K10">
+      <c s="9" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="10" r="M10">
+      <c s="9" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
+      <c s="9" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="10" r="Q10">
+      <c s="9" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>75</v>
+      <c s="13" r="S10">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>91</v>
+      <c s="9" r="U10">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="12" r="W10">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="12" r="Y10">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c s="8" r="F11">
         <v>36</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="9" r="H11">
-        <v>2</v>
-      </c>
-      <c s="10" r="I11">
+      <c s="11" r="H11">
+        <v>1</v>
+      </c>
+      <c s="9" r="I11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="10" r="K11">
+      <c s="9" r="K11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="10" r="M11">
+      <c s="9" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="10" r="O11">
+      <c s="9" r="O11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="9" r="Q11">
-        <v>12</v>
+      <c s="11" r="Q11">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>68</v>
+      <c s="13" r="S11">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>35</v>
+      <c s="9" r="U11">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>114</v>
+      <c s="11" r="W11">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>402</v>
-      </c>
-      <c s="10" r="F12">
+        <v>401</v>
+      </c>
+      <c s="9" r="F12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="10" r="H12">
-        <v>0</v>
-      </c>
-      <c s="13" r="I12">
-        <v>30</v>
+      <c s="9" r="H12">
+        <v>0</v>
+      </c>
+      <c s="12" r="I12">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="9" r="K12">
-        <v>3</v>
+      <c s="11" r="K12">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="9" r="M12">
-        <v>0</v>
+      <c s="11" r="M12">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="9" r="O12">
+      <c s="11" r="O12">
         <v>1</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="10" r="Q12">
+      <c s="9" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
+      <c s="13" r="S12">
         <v>59</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>62</v>
+      <c s="9" r="U12">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>150</v>
+      <c s="11" r="W12">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>151</v>
+      <c s="11" r="Y12">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,49 +952,49 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c s="8" r="F13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="9" r="H13">
-        <v>3</v>
-      </c>
-      <c s="10" r="I13">
+      <c s="11" r="H13">
+        <v>2</v>
+      </c>
+      <c s="9" r="I13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J13"/>
-      <c s="10" r="K13">
+      <c s="9" r="K13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="10" r="M13">
+      <c s="9" r="M13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="10" r="O13">
+      <c s="9" r="O13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="9" r="Q13">
+      <c s="11" r="Q13">
         <v>10</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="12" r="S13">
-        <v>53</v>
+      <c s="13" r="S13">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T13"/>
-      <c s="10" r="U13">
-        <v>44</v>
+      <c s="9" r="U13">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="9" r="W13">
-        <v>138</v>
+      <c s="11" r="W13">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="9" r="Y13">
-        <v>138</v>
+      <c s="11" r="Y13">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,52 +1103,52 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
-        <v>2</v>
+      <c s="20" r="L16">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="22" r="N16">
+      <c s="21" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="22" r="P16">
+      <c s="21" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="22" r="R16">
+      <c s="21" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="22" r="T16">
+      <c s="21" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="22" r="V16">
+      <c s="21" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="22" r="Z16">
-        <v>44</v>
+      <c s="21" r="Z16">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>116</v>
+      <c s="22" r="AB16">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>58</v>
+      <c s="22" r="AD16">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1166,47 +1166,47 @@
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>4</v>
+      <c s="20" r="L17">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="22" r="N17">
+      <c s="21" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="22" r="P17">
+      <c s="21" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="22" r="R17">
+      <c s="21" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="22" r="T17">
+      <c s="21" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="22" r="V17">
+      <c s="21" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="22" r="Z17">
-        <v>37</v>
+      <c s="21" r="Z17">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="21" r="AB17">
-        <v>129</v>
+      <c s="22" r="AB17">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>64</v>
+      <c s="22" r="AD17">
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,52 +1219,52 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
-        <v>9</v>
+      <c s="22" r="L18">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="22" r="N18">
+      <c s="21" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="22" r="P18">
+      <c s="21" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="22" r="R18">
+      <c s="21" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="22" r="T18">
+      <c s="21" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="22" r="V18">
+      <c s="21" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="25" r="X18">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="22" r="Z18">
-        <v>48</v>
+      <c s="21" r="Z18">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="24" r="AB18">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1279,52 +1279,52 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="20" r="J19">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="20" r="L19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="22" r="N19">
+      <c s="21" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="22" r="P19">
+      <c s="21" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="22" r="R19">
+      <c s="21" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="22" r="T19">
+      <c s="21" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="22" r="V19">
+      <c s="21" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="24" r="X19">
-        <v>81</v>
+      <c s="28" r="X19">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="22" r="Z19">
-        <v>12</v>
+      <c s="21" r="Z19">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>142</v>
+      <c s="24" r="AB19">
+        <v>266</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>71</v>
+      <c s="20" r="AD19">
+        <v>133</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,52 +1343,52 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>26</v>
+      <c s="22" r="J20">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="21" r="L20">
-        <v>4</v>
+      <c s="22" r="L20">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="22" r="N20">
+      <c s="21" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="22" r="P20">
+      <c s="21" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="22" r="R20">
+      <c s="21" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="22" r="T20">
+      <c s="21" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="22" r="V20">
+      <c s="21" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="28" r="X20">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="22" r="Z20">
-        <v>16</v>
+      <c s="21" r="Z20">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>141</v>
+      <c s="22" r="AB20">
+        <v>117</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>141</v>
+      <c s="22" r="AD20">
+        <v>117</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,7 +1401,7 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
@@ -1409,44 +1409,44 @@
         <v>30</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="21" r="L21">
+      <c s="22" r="L21">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="22" r="N21">
+      <c s="21" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="22" r="P21">
+      <c s="21" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="22" r="R21">
+      <c s="21" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="22" r="T21">
+      <c s="21" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="22" r="V21">
+      <c s="21" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="25" r="X21">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="22" r="Z21">
-        <v>63</v>
+      <c s="21" r="Z21">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>135</v>
+      <c s="20" r="AB21">
+        <v>158</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>135</v>
+      <c s="20" r="AD21">
+        <v>158</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,52 +1459,52 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="25" r="J22">
-        <v>32</v>
+      <c s="28" r="J22">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="21" r="L22">
+      <c s="22" r="L22">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="22" r="N22">
+      <c s="21" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="22" r="P22">
+      <c s="21" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="22" r="R22">
+      <c s="21" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="22" r="T22">
+      <c s="21" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="22" r="V22">
+      <c s="21" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="22" r="Z22">
-        <v>52</v>
+      <c s="21" r="Z22">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>144</v>
+      <c s="24" r="AB22">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>144</v>
+      <c s="24" r="AD22">
+        <v>173</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,35 +1517,35 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="24" r="J23">
-        <v>28</v>
+      <c s="25" r="J23">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>2</v>
+      <c s="22" r="L23">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="22" r="N23">
+      <c s="21" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="22" r="P23">
+      <c s="21" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="22" r="R23">
+      <c s="21" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="22" r="T23">
+      <c s="21" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="22" r="V23">
+      <c s="21" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
@@ -1553,16 +1553,16 @@
         <v>73</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="22" r="Z23">
-        <v>44</v>
+      <c s="21" r="Z23">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>145</v>
+      <c s="22" r="AB23">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>145</v>
+      <c s="22" r="AD23">
+        <v>144</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1577,52 +1577,52 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="21" r="J24">
-        <v>19</v>
+      <c s="28" r="J24">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="21" r="L24">
-        <v>4</v>
+      <c s="20" r="L24">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="22" r="N24">
+      <c s="21" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="22" r="P24">
+      <c s="21" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="22" r="R24">
+      <c s="21" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="22" r="T24">
+      <c s="21" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="22" r="V24">
+      <c s="21" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="22" r="Z24">
-        <v>27</v>
+      <c s="21" r="Z24">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="21" r="AB24">
-        <v>103</v>
+      <c s="20" r="AB24">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="21" r="AD24">
-        <v>103</v>
+      <c s="20" r="AD24">
+        <v>164</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,52 +1641,52 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="25" r="J25">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="21" r="L25">
-        <v>4</v>
+      <c s="22" r="L25">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="22" r="N25">
+      <c s="21" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="22" r="P25">
+      <c s="21" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="22" r="R25">
+      <c s="21" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="22" r="T25">
+      <c s="21" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="22" r="V25">
+      <c s="21" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="22" r="Z25">
-        <v>75</v>
+      <c s="21" r="Z25">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="20" r="AB25">
-        <v>157</v>
+      <c s="22" r="AB25">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="20" r="AD25">
-        <v>157</v>
+      <c s="22" r="AD25">
+        <v>146</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,52 +1699,52 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="20" r="L26">
-        <v>6</v>
+      <c s="24" r="L26">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="22" r="N26">
+      <c s="21" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="22" r="P26">
+      <c s="21" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="22" r="R26">
+      <c s="21" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="22" r="T26">
+      <c s="21" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="22" r="V26">
+      <c s="21" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="22" r="Z26">
-        <v>54</v>
+      <c s="21" r="Z26">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="24" r="AB26">
-        <v>168</v>
+      <c s="20" r="AB26">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="24" r="AD26">
-        <v>168</v>
+      <c s="20" r="AD26">
+        <v>153</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,52 +1757,52 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="25" r="L27">
-        <v>11</v>
+      <c s="20" r="L27">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="22" r="N27">
+      <c s="21" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="22" r="P27">
+      <c s="21" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="22" r="R27">
+      <c s="21" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="22" r="T27">
+      <c s="21" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="22" r="V27">
+      <c s="21" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="22" r="Z27">
-        <v>74</v>
+      <c s="21" r="Z27">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="AA27"/>
       <c s="28" r="AB27">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c s="5" t="str" r="AC27"/>
       <c s="28" r="AD27">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1817,52 +1817,52 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="20" r="L28">
-        <v>6</v>
+      <c s="22" r="L28">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="22" r="N28">
+      <c s="21" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="22" r="P28">
+      <c s="21" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="22" r="R28">
+      <c s="21" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="22" r="T28">
+      <c s="21" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="22" r="V28">
+      <c s="21" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="22" r="Z28">
-        <v>23</v>
+      <c s="21" r="Z28">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="24" r="AB28">
-        <v>168</v>
+      <c s="28" r="AB28">
+        <v>203</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="24" r="AD28">
-        <v>168</v>
+      <c s="28" r="AD28">
+        <v>203</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,52 +1881,52 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="25" r="J29">
-        <v>31</v>
+      <c s="20" r="J29">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="20" r="L29">
-        <v>5</v>
+      <c s="22" r="L29">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="22" r="N29">
+      <c s="21" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="22" r="P29">
+      <c s="21" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="22" r="R29">
+      <c s="21" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="22" r="T29">
+      <c s="21" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="22" r="V29">
+      <c s="21" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="22" r="Z29">
-        <v>105</v>
+      <c s="21" r="Z29">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="25" r="AB29">
-        <v>192</v>
+      <c s="24" r="AB29">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="25" r="AD29">
-        <v>192</v>
+      <c s="24" r="AD29">
+        <v>172</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,52 +1939,52 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="24" r="L30">
-        <v>9</v>
+      <c s="20" r="L30">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="22" r="N30">
+      <c s="21" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="22" r="P30">
+      <c s="21" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="22" r="R30">
+      <c s="21" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="22" r="T30">
+      <c s="21" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="22" r="V30">
+      <c s="21" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="22" r="Z30">
-        <v>49</v>
+      <c s="21" r="Z30">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="20" r="AB30">
-        <v>164</v>
+      <c s="24" r="AB30">
+        <v>175</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="20" r="AD30">
-        <v>164</v>
+      <c s="24" r="AD30">
+        <v>175</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -2002,47 +2002,47 @@
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="28" r="L31">
-        <v>12</v>
+      <c s="25" r="L31">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="22" r="N31">
+      <c s="21" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="22" r="P31">
+      <c s="21" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="22" r="R31">
+      <c s="21" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="22" r="T31">
+      <c s="21" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="22" r="V31">
+      <c s="21" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="22" r="Z31">
-        <v>125</v>
+      <c s="21" r="Z31">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>389</v>
+        <v>241</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>389</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2057,52 +2057,52 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
       <c s="28" r="J32">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="24" r="L32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="22" r="N32">
+      <c s="21" r="N32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="22" r="P32">
+      <c s="21" r="P32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
+      <c s="21" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
+      <c s="21" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="22" r="V32">
+      <c s="21" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="22" r="Z32">
-        <v>14</v>
+      <c s="21" r="Z32">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="25" r="AB32">
-        <v>194</v>
+      <c s="28" r="AB32">
+        <v>241</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="25" r="AD32">
-        <v>194</v>
+      <c s="28" r="AD32">
+        <v>241</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,7 +2121,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2129,44 +2129,44 @@
         <v>36</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="21" r="L33">
-        <v>2</v>
+      <c s="22" r="L33">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="22" r="N33">
+      <c s="21" r="N33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="22" r="P33">
+      <c s="21" r="P33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="22" r="R33">
+      <c s="21" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="22" r="T33">
+      <c s="21" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="21" r="V33">
-        <v>12</v>
+      <c s="22" r="V33">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="22" r="Z33">
-        <v>35</v>
+      <c s="21" r="Z33">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="21" r="AB33">
-        <v>114</v>
+      <c s="22" r="AB33">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="20" r="AD33">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2185,24 +2185,24 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="22" r="J34">
+      <c s="21" r="J34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="22" r="L34">
+      <c s="21" r="L34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="24" r="N34">
-        <v>25</v>
+      <c s="25" r="N34">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="21" r="P34">
-        <v>3</v>
+      <c s="20" r="P34">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="Q34"/>
       <c s="21" r="R34">
@@ -2210,10 +2210,10 @@
       </c>
       <c s="5" t="str" r="S34"/>
       <c s="21" r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="22" r="V34">
+      <c s="21" r="V34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W34"/>
@@ -2221,16 +2221,16 @@
         <v>49</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="22" r="Z34">
-        <v>70</v>
+      <c s="21" r="Z34">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>144</v>
+      <c s="20" r="AB34">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="21" r="AD34">
-        <v>144</v>
+      <c s="20" r="AD34">
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2243,23 +2243,23 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="22" r="J35">
+      <c s="21" r="J35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="22" r="L35">
+      <c s="21" r="L35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="28" r="N35">
-        <v>39</v>
+      <c s="24" r="N35">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="21" r="P35">
+      <c s="22" r="P35">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q35"/>
@@ -2271,24 +2271,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="22" r="V35">
+      <c s="21" r="V35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="22" r="Z35">
-        <v>74</v>
+      <c s="21" r="Z35">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="25" r="AB35">
-        <v>190</v>
+      <c s="22" r="AB35">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="25" r="AD35">
-        <v>191</v>
+      <c s="22" r="AD35">
+        <v>143</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2301,15 +2301,15 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="22" r="J36">
+      <c s="21" r="J36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="22" r="L36">
+      <c s="21" r="L36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M36"/>
@@ -2317,36 +2317,36 @@
         <v>35</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="21" r="P36">
+      <c s="22" r="P36">
         <v>4</v>
       </c>
       <c s="5" t="str" r="Q36"/>
       <c s="22" r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S36"/>
       <c s="22" r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="22" r="V36">
+      <c s="21" r="V36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="22" r="Z36">
-        <v>27</v>
+      <c s="21" r="Z36">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="21" r="AB36">
-        <v>131</v>
+      <c s="22" r="AB36">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="21" r="AD36">
-        <v>131</v>
+      <c s="22" r="AD36">
+        <v>137</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2365,20 +2365,20 @@
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="22" r="J37">
+      <c s="21" r="J37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="22" r="L37">
+      <c s="21" r="L37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="25" r="N37">
-        <v>30</v>
+      <c s="24" r="N37">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="21" r="P37">
-        <v>3</v>
+      <c s="20" r="P37">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q37"/>
       <c s="21" r="R37">
@@ -2389,24 +2389,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="22" r="V37">
+      <c s="21" r="V37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="22" r="Z37">
-        <v>14</v>
+      <c s="21" r="Z37">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="21" r="AB37">
-        <v>95</v>
+      <c s="22" r="AB37">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="21" r="AD37">
-        <v>95</v>
+      <c s="22" r="AD37">
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2425,52 +2425,52 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="21" r="J38">
+      <c s="22" r="J38">
         <v>26</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="21" r="L38">
+      <c s="22" r="L38">
         <v>1</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="22" r="N38">
+      <c s="21" r="N38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="22" r="P38">
+      <c s="21" r="P38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
+      <c s="21" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="22" r="T38">
+      <c s="21" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="21" r="V38">
-        <v>11</v>
+      <c s="22" r="V38">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="22" r="Z38">
-        <v>51</v>
+      <c s="21" r="Z38">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="21" r="AB38">
-        <v>130</v>
+      <c s="22" r="AB38">
+        <v>121</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="21" r="AD38">
-        <v>130</v>
+      <c s="22" r="AD38">
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2483,7 +2483,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2491,44 +2491,44 @@
         <v>31</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
-        <v>3</v>
+      <c s="22" r="L39">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="22" r="N39">
+      <c s="21" r="N39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="22" r="P39">
+      <c s="21" r="P39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="22" r="R39">
+      <c s="21" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="22" r="T39">
+      <c s="21" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="21" r="V39">
-        <v>7</v>
+      <c s="22" r="V39">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
+        <v>59</v>
+      </c>
+      <c s="5" t="str" r="Y39"/>
+      <c s="21" r="Z39">
         <v>50</v>
       </c>
-      <c s="5" t="str" r="Y39"/>
-      <c s="22" r="Z39">
-        <v>28</v>
-      </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>115</v>
+      <c s="20" r="AB39">
+        <v>151</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>115</v>
+      <c s="20" r="AD39">
+        <v>151</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
@@ -2541,52 +2541,52 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
       <c s="25" r="J40">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="K40"/>
       <c s="20" r="L40">
         <v>6</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="22" r="N40">
+      <c s="21" r="N40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O40"/>
-      <c s="22" r="P40">
+      <c s="21" r="P40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="22" r="R40">
+      <c s="21" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="22" r="T40">
+      <c s="21" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
-      <c s="20" r="V40">
-        <v>15</v>
+      <c s="22" r="V40">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="W40"/>
       <c s="28" r="X40">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y40"/>
-      <c s="22" r="Z40">
-        <v>55</v>
+      <c s="21" r="Z40">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA40"/>
       <c s="24" r="AB40">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c s="5" t="str" r="AC40"/>
       <c s="24" r="AD40">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,52 +2601,52 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
-      <c s="20" r="J41">
-        <v>33</v>
+      <c s="28" r="J41">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="20" r="L41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M41"/>
-      <c s="22" r="N41">
+      <c s="21" r="N41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O41"/>
-      <c s="22" r="P41">
+      <c s="21" r="P41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q41"/>
-      <c s="22" r="R41">
+      <c s="21" r="R41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S41"/>
-      <c s="22" r="T41">
+      <c s="21" r="T41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="21" r="V41">
+      <c s="22" r="V41">
         <v>2</v>
       </c>
       <c s="5" t="str" r="W41"/>
       <c s="28" r="X41">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="Y41"/>
-      <c s="22" r="Z41">
-        <v>18</v>
+      <c s="21" r="Z41">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="21" r="AB41">
-        <v>144</v>
+      <c s="24" r="AB41">
+        <v>229</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="21" r="AD41">
-        <v>144</v>
+      <c s="24" r="AD41">
+        <v>229</v>
       </c>
     </row>
     <row r="42" ht="0.05" customHeight="1"/>
@@ -3079,7 +3079,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/12/2025 4:17:40 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/13/2025 12:34:57 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,14 +140,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,19 +327,19 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,8 +374,8 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00E35454"/>
-      <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 12/12/2025</t>
+          <t xml:space="preserve">Day: 12/16/2025</t>
         </is>
       </c>
     </row>
@@ -609,56 +609,56 @@
     <row r="7" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">343939 Mt.Joy</t>
+          <t xml:space="preserve">343939 Mt Joy</t>
         </is>
       </c>
       <c s="4" t="str" r="B7"/>
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c s="8" r="F7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="8" r="H7">
-        <v>5</v>
-      </c>
-      <c s="9" r="I7">
+      <c s="9" r="H7">
+        <v>3</v>
+      </c>
+      <c s="10" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="9" r="K7">
+      <c s="10" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="9" r="M7">
+      <c s="10" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="9" r="O7">
+      <c s="10" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="9" r="Q7">
+      <c s="10" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="10" r="S7">
-        <v>65</v>
+      <c s="11" r="S7">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>58</v>
+      <c s="10" r="U7">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="10" r="W7">
-        <v>156</v>
+      <c s="11" r="W7">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="11" r="Y7">
-        <v>78</v>
+      <c s="9" r="Y7">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>546</v>
+        <v>498</v>
       </c>
       <c s="12" r="F8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="11" r="H8">
-        <v>3</v>
-      </c>
-      <c s="9" r="I8">
+      <c s="9" r="H8">
+        <v>2</v>
+      </c>
+      <c s="10" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="9" r="K8">
+      <c s="10" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="9" r="M8">
+      <c s="10" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="9" r="O8">
+      <c s="10" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="9" r="Q8">
+      <c s="10" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="13" r="S8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>69</v>
+      <c s="10" r="U8">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="8" r="W8">
-        <v>159</v>
+      <c s="9" r="W8">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="8" r="Y8">
-        <v>159</v>
+      <c s="9" r="Y8">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,273 +728,273 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>477</v>
-      </c>
-      <c s="12" r="F9">
-        <v>33</v>
+        <v>396</v>
+      </c>
+      <c s="13" r="F9">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="11" r="H9">
-        <v>4</v>
-      </c>
-      <c s="9" r="I9">
+      <c s="8" r="H9">
+        <v>6</v>
+      </c>
+      <c s="10" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="9" r="K9">
+      <c s="10" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="9" r="M9">
+      <c s="10" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="9" r="O9">
+      <c s="10" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="9" r="Q9">
+      <c s="10" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="13" r="S9">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="9" r="U9">
-        <v>69</v>
+      <c s="10" r="U9">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="10" r="W9">
-        <v>165</v>
+      <c s="11" r="W9">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="10" r="Y9">
-        <v>165</v>
+      <c s="11" r="Y9">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
     <row r="10" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">359042 LITITZ</t>
+          <t xml:space="preserve">359042 Lititz</t>
         </is>
       </c>
       <c s="4" t="str" r="B10"/>
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>441</v>
-      </c>
-      <c s="12" r="F10">
-        <v>34</v>
+        <v>342</v>
+      </c>
+      <c s="13" r="F10">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="11" r="H10">
-        <v>4</v>
-      </c>
-      <c s="9" r="I10">
+        <v>8</v>
+      </c>
+      <c s="10" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="9" r="K10">
+      <c s="10" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="9" r="M10">
+      <c s="10" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="9" r="O10">
+      <c s="10" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="9" r="Q10">
+      <c s="10" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="13" r="S10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="9" r="U10">
-        <v>83</v>
+      <c s="10" r="U10">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="12" r="W10">
-        <v>183</v>
+      <c s="11" r="W10">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="12" r="Y10">
-        <v>183</v>
+      <c s="11" r="Y10">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
     <row r="11" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">362913 DUNKIN</t>
+          <t xml:space="preserve">362913 Eisenhower</t>
         </is>
       </c>
       <c s="4" t="str" r="B11"/>
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c s="8" r="F11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="11" r="H11">
+      <c s="9" r="H11">
         <v>1</v>
       </c>
-      <c s="9" r="I11">
+      <c s="10" r="I11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
+      <c s="10" r="K11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
+      <c s="10" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="9" r="O11">
+      <c s="10" r="O11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="11" r="Q11">
-        <v>14</v>
+      <c s="9" r="Q11">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="13" r="S11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="9" r="U11">
-        <v>46</v>
+      <c s="10" r="U11">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="11" r="W11">
-        <v>119</v>
+      <c s="9" r="W11">
+        <v>116</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
     <row r="12" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">363271 </t>
+          <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
       <c s="4" t="str" r="B12"/>
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>401</v>
-      </c>
-      <c s="9" r="F12">
+        <v>365</v>
+      </c>
+      <c s="10" r="F12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="9" r="H12">
+      <c s="10" r="H12">
         <v>0</v>
       </c>
       <c s="12" r="I12">
         <v>32</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="11" r="K12">
+      <c s="9" r="K12">
         <v>4</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="11" r="M12">
-        <v>1</v>
+      <c s="9" r="M12">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="11" r="O12">
-        <v>1</v>
+      <c s="9" r="O12">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="9" r="Q12">
+      <c s="10" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="13" r="S12">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="9" r="U12">
-        <v>54</v>
+      <c s="10" r="U12">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>144</v>
+      <c s="8" r="W12">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>144</v>
+      <c s="8" r="Y12">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">364322 elizabethtown</t>
+          <t xml:space="preserve">364322 E-Town</t>
         </is>
       </c>
       <c s="4" t="str" r="B13"/>
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c s="8" r="F13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="11" r="H13">
-        <v>2</v>
-      </c>
-      <c s="9" r="I13">
+      <c s="9" r="H13">
+        <v>3</v>
+      </c>
+      <c s="10" r="I13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J13"/>
-      <c s="9" r="K13">
+      <c s="10" r="K13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="9" r="M13">
+      <c s="10" r="M13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="9" r="O13">
+      <c s="10" r="O13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="11" r="Q13">
-        <v>10</v>
+      <c s="8" r="Q13">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="R13"/>
       <c s="13" r="S13">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T13"/>
-      <c s="9" r="U13">
-        <v>48</v>
+      <c s="10" r="U13">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="11" r="W13">
-        <v>149</v>
+      <c s="8" r="W13">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="11" r="Y13">
-        <v>149</v>
+      <c s="8" r="Y13">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1090,7 +1090,7 @@
     <row r="16" ht="18" customHeight="0">
       <c s="16" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">343939 Mt.Joy</t>
+          <t xml:space="preserve">343939 Mt Joy</t>
         </is>
       </c>
       <c s="17" t="str" r="B16"/>
@@ -1103,52 +1103,52 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>5</v>
+      <c s="21" r="L16">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="21" r="N16">
+      <c s="22" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="21" r="P16">
+      <c s="22" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="21" r="R16">
+      <c s="22" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="21" r="T16">
+      <c s="22" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="21" r="V16">
+      <c s="22" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="21" r="Z16">
+      <c s="22" r="Z16">
+        <v>45</v>
+      </c>
+      <c s="5" t="str" r="AA16"/>
+      <c s="21" r="AB16">
+        <v>120</v>
+      </c>
+      <c s="5" t="str" r="AC16"/>
+      <c s="21" r="AD16">
         <v>59</v>
-      </c>
-      <c s="5" t="str" r="AA16"/>
-      <c s="22" r="AB16">
-        <v>138</v>
-      </c>
-      <c s="5" t="str" r="AC16"/>
-      <c s="22" r="AD16">
-        <v>68</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,52 +1161,52 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>5</v>
+      <c s="21" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="21" r="N17">
+      <c s="22" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="21" r="P17">
+      <c s="22" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="21" r="R17">
+      <c s="22" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="21" r="T17">
+      <c s="22" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="21" r="V17">
+      <c s="22" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="21" r="Z17">
-        <v>42</v>
+      <c s="22" r="Z17">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="22" r="AB17">
-        <v>137</v>
+      <c s="24" r="AB17">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="22" r="AD17">
-        <v>68</v>
+      <c s="21" r="AD17">
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,52 +1219,52 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="22" r="L18">
-        <v>4</v>
+      <c s="20" r="L18">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="21" r="N18">
+      <c s="22" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="21" r="P18">
+      <c s="22" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="21" r="R18">
+      <c s="22" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="21" r="T18">
+      <c s="22" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="21" r="V18">
+      <c s="22" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="25" r="X18">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="21" r="Z18">
-        <v>68</v>
+      <c s="22" r="Z18">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="24" r="AB18">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1279,52 +1279,52 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="20" r="J19">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="20" r="L19">
-        <v>6</v>
+      <c s="21" r="L19">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="21" r="N19">
+      <c s="22" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="21" r="P19">
+      <c s="22" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="21" r="R19">
+      <c s="22" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="21" r="T19">
+      <c s="22" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="21" r="V19">
+      <c s="22" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="28" r="X19">
-        <v>134</v>
+      <c s="25" r="X19">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="21" r="Z19">
-        <v>83</v>
+      <c s="22" r="Z19">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="24" r="AB19">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>133</v>
+      <c s="21" r="AD19">
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,52 +1343,52 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="22" r="J20">
-        <v>17</v>
+      <c s="25" r="J20">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="22" r="L20">
-        <v>2</v>
+      <c s="21" r="L20">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="21" r="N20">
+      <c s="22" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="21" r="P20">
+      <c s="22" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="21" r="R20">
+      <c s="22" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="21" r="T20">
+      <c s="22" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="21" r="V20">
+      <c s="22" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>86</v>
+      <c s="25" r="X20">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="21" r="Z20">
-        <v>13</v>
+      <c s="22" r="Z20">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="22" r="AB20">
-        <v>117</v>
+      <c s="28" r="AB20">
+        <v>188</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="22" r="AD20">
-        <v>117</v>
+      <c s="28" r="AD20">
+        <v>188</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,52 +1401,52 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="25" r="J21">
+      <c s="28" r="J21">
         <v>30</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="22" r="L21">
+      <c s="21" r="L21">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="21" r="N21">
+      <c s="22" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="21" r="P21">
+      <c s="22" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="21" r="R21">
+      <c s="22" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="21" r="T21">
+      <c s="22" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="21" r="V21">
+      <c s="22" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="25" r="X21">
+      <c s="28" r="X21">
         <v>44</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="21" r="Z21">
-        <v>83</v>
+      <c s="22" r="Z21">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="20" r="AB21">
-        <v>158</v>
+      <c s="21" r="AB21">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="20" r="AD21">
-        <v>158</v>
+      <c s="21" r="AD21">
+        <v>143</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,52 +1459,52 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="28" r="J22">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="22" r="L22">
-        <v>2</v>
+      <c s="21" r="L22">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="21" r="N22">
+      <c s="22" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="21" r="P22">
+      <c s="22" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="21" r="R22">
+      <c s="22" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="21" r="T22">
+      <c s="22" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="21" r="V22">
+      <c s="22" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>66</v>
+      <c s="25" r="X22">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="21" r="Z22">
-        <v>67</v>
+      <c s="22" r="Z22">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="24" r="AB22">
-        <v>173</v>
+      <c s="20" r="AB22">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="24" r="AD22">
-        <v>173</v>
+      <c s="20" r="AD22">
+        <v>156</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,51 +1517,51 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="25" r="J23">
-        <v>34</v>
+      <c s="24" r="J23">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="22" r="L23">
-        <v>3</v>
+      <c s="21" r="L23">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="21" r="N23">
+      <c s="22" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="21" r="P23">
+      <c s="22" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="21" r="R23">
+      <c s="22" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="21" r="T23">
+      <c s="22" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="21" r="V23">
+      <c s="22" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>73</v>
+      <c s="25" r="X23">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="21" r="Z23">
-        <v>36</v>
+      <c s="22" r="Z23">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="22" r="AB23">
+      <c s="21" r="AB23">
         <v>144</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="22" r="AD23">
+      <c s="21" r="AD23">
         <v>144</v>
       </c>
     </row>
@@ -1577,52 +1577,52 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>40</v>
+      <c s="20" r="J24">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="20" r="L24">
-        <v>5</v>
+      <c s="21" r="L24">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="21" r="N24">
+      <c s="22" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="21" r="P24">
+      <c s="22" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="21" r="R24">
+      <c s="22" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="21" r="T24">
+      <c s="22" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="21" r="V24">
+      <c s="22" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>95</v>
+      <c s="25" r="X24">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="21" r="Z24">
-        <v>29</v>
+      <c s="22" r="Z24">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="20" r="AB24">
-        <v>164</v>
+      <c s="21" r="AB24">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="20" r="AD24">
-        <v>164</v>
+      <c s="21" r="AD24">
+        <v>140</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,52 +1641,52 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="25" r="J25">
-        <v>30</v>
+      <c s="28" r="J25">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="22" r="L25">
-        <v>3</v>
+      <c s="21" r="L25">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="21" r="N25">
+      <c s="22" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="21" r="P25">
+      <c s="22" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="21" r="R25">
+      <c s="22" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="21" r="T25">
+      <c s="22" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="21" r="V25">
+      <c s="22" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>46</v>
+      <c s="25" r="X25">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="21" r="Z25">
-        <v>71</v>
+      <c s="22" r="Z25">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="22" r="AB25">
-        <v>146</v>
+      <c s="21" r="AB25">
+        <v>142</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="22" r="AD25">
-        <v>146</v>
+      <c s="21" r="AD25">
+        <v>142</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,52 +1699,52 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="24" r="L26">
-        <v>7</v>
+      <c s="21" r="L26">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="21" r="N26">
+      <c s="22" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="21" r="P26">
+      <c s="22" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="21" r="R26">
+      <c s="22" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="21" r="T26">
+      <c s="22" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="21" r="V26">
+      <c s="22" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>72</v>
+      <c s="25" r="X26">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="21" r="Z26">
-        <v>47</v>
+      <c s="22" r="Z26">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="20" r="AB26">
-        <v>153</v>
+      <c s="24" r="AB26">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="20" r="AD26">
-        <v>153</v>
+      <c s="24" r="AD26">
+        <v>169</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,52 +1757,52 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>36</v>
+      <c s="25" r="J27">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="20" r="L27">
-        <v>5</v>
+      <c s="25" r="L27">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="21" r="N27">
+      <c s="22" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="21" r="P27">
+      <c s="22" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="21" r="R27">
+      <c s="22" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="21" r="T27">
+      <c s="22" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="21" r="V27">
+      <c s="22" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>93</v>
+      <c s="25" r="X27">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="21" r="Z27">
-        <v>100</v>
+      <c s="22" r="Z27">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>228</v>
+      <c s="25" r="AB27">
+        <v>224</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>228</v>
+      <c s="25" r="AD27">
+        <v>224</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1817,58 +1817,58 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>48</v>
+      <c s="25" r="J28">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="22" r="L28">
-        <v>3</v>
+      <c s="25" r="L28">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="21" r="N28">
+      <c s="22" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="21" r="P28">
+      <c s="22" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="21" r="R28">
+      <c s="22" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="21" r="T28">
+      <c s="22" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="21" r="V28">
+      <c s="22" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>124</v>
+      <c s="25" r="X28">
+        <v>121</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="21" r="Z28">
-        <v>32</v>
+      <c s="22" r="Z28">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="28" r="AB28">
-        <v>203</v>
+      <c s="25" r="AB28">
+        <v>227</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="28" r="AD28">
-        <v>203</v>
+      <c s="25" r="AD28">
+        <v>227</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
       <c s="16" t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">359042 LITITZ</t>
+          <t xml:space="preserve">359042 Lititz</t>
         </is>
       </c>
       <c s="17" t="str" r="B29"/>
@@ -1881,52 +1881,52 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="20" r="J29">
-        <v>24</v>
+      <c s="24" r="J29">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="22" r="L29">
-        <v>2</v>
+      <c s="21" r="L29">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="21" r="N29">
+      <c s="22" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="21" r="P29">
+      <c s="22" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="21" r="R29">
+      <c s="22" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="21" r="T29">
+      <c s="22" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="21" r="V29">
+      <c s="22" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="28" r="X29">
-        <v>46</v>
+      <c s="25" r="X29">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="21" r="Z29">
-        <v>102</v>
+      <c s="22" r="Z29">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="24" r="AB29">
-        <v>172</v>
+      <c s="21" r="AB29">
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="24" r="AD29">
-        <v>172</v>
+      <c s="21" r="AD29">
+        <v>130</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,52 +1939,52 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>36</v>
+      <c s="25" r="J30">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>6</v>
+      <c s="25" r="L30">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="21" r="N30">
+      <c s="22" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="21" r="P30">
+      <c s="22" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="21" r="R30">
+      <c s="22" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="21" r="T30">
+      <c s="22" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="21" r="V30">
+      <c s="22" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>77</v>
+      <c s="25" r="X30">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="21" r="Z30">
-        <v>63</v>
+      <c s="22" r="Z30">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="24" r="AB30">
-        <v>175</v>
+      <c s="25" r="AB30">
+        <v>224</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="24" r="AD30">
-        <v>175</v>
+      <c s="25" r="AD30">
+        <v>224</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,52 +1997,52 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>76</v>
+      <c s="25" r="J31">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="25" r="L31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="21" r="N31">
+      <c s="22" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="21" r="P31">
+      <c s="22" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="21" r="R31">
+      <c s="22" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="21" r="T31">
+      <c s="22" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="21" r="V31">
+      <c s="22" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>120</v>
+      <c s="25" r="X31">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="21" r="Z31">
-        <v>45</v>
+      <c s="22" r="Z31">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>241</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2057,328 +2057,328 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
       <c s="28" r="J32">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="24" r="L32">
-        <v>8</v>
+      <c s="20" r="L32">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="21" r="N32">
+      <c s="22" r="N32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="21" r="P32">
+      <c s="22" r="P32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="21" r="R32">
+      <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="21" r="T32">
+      <c s="22" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="21" r="V32">
+      <c s="22" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>153</v>
+      <c s="25" r="X32">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="21" r="Z32">
-        <v>19</v>
+      <c s="22" r="Z32">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="28" r="AB32">
-        <v>241</v>
+      <c s="21" r="AB32">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="28" r="AD32">
-        <v>241</v>
+      <c s="21" r="AD32">
+        <v>138</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
       <c s="16" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">362913 DUNKIN</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="B33"/>
-      <c s="4" t="str" r="C33"/>
+          <t xml:space="preserve">362913 Eisenhower</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B33"/>
+      <c s="17" t="str" r="C33"/>
       <c s="18" t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">Daypart 1</t>
+          <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
       <c s="20" r="J33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="22" r="L33">
+      <c s="21" r="L33">
         <v>1</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="21" r="N33">
+      <c s="22" r="N33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="21" r="P33">
+      <c s="22" r="P33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="21" r="R33">
+      <c s="22" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="21" r="T33">
+      <c s="22" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="22" r="V33">
-        <v>14</v>
+      <c s="21" r="V33">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>71</v>
+      <c s="25" r="X33">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="21" r="Z33">
-        <v>46</v>
+      <c s="22" r="Z33">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="22" r="AB33">
-        <v>119</v>
+      <c s="21" r="AB33">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="20" r="AD33">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A34">
-        <is>
-          <t xml:space="preserve">363271 </t>
-        </is>
-      </c>
-      <c s="17" t="str" r="B34"/>
-      <c s="17" t="str" r="C34"/>
+      <c s="23" t="str" r="A34"/>
       <c s="18" t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">Daypart 2</t>
+          <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="21" r="J34">
-        <v>0</v>
+      <c s="24" r="J34">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="25" r="N34">
-        <v>33</v>
+      <c s="22" r="N34">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="20" r="P34">
-        <v>5</v>
+      <c s="22" r="P34">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="21" r="T34">
+      <c s="22" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
-        <v>0</v>
+      <c s="20" r="V34">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>49</v>
+      <c s="25" r="X34">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="21" r="Z34">
-        <v>68</v>
+      <c s="22" r="Z34">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="AA34"/>
       <c s="20" r="AB34">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>150</v>
+      <c s="24" r="AD34">
+        <v>195</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
       <c s="23" t="str" r="A35"/>
       <c s="18" t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">Daypart 3</t>
+          <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="21" r="J35">
-        <v>0</v>
+      <c s="20" r="J35">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="21" r="L35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="24" r="N35">
-        <v>28</v>
+      <c s="22" r="N35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="O35"/>
       <c s="22" r="P35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
+      <c s="22" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
+      <c s="22" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="21" r="V35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>76</v>
+      <c s="25" r="X35">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="21" r="Z35">
-        <v>40</v>
+      <c s="22" r="Z35">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="22" r="AB35">
-        <v>143</v>
+      <c s="21" r="AB35">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="22" r="AD35">
-        <v>143</v>
+      <c s="20" r="AD35">
+        <v>142</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="23" t="str" r="A36"/>
+      <c s="26" t="str" r="A36"/>
+      <c s="27" t="str" r="B36"/>
+      <c s="27" t="str" r="C36"/>
       <c s="18" t="inlineStr" r="D36">
         <is>
-          <t xml:space="preserve">Daypart 4</t>
+          <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
       <c s="21" r="J36">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="28" r="N36">
-        <v>35</v>
+      <c s="22" r="N36">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
       <c s="22" r="P36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
       <c s="22" r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
       <c s="22" r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
       <c s="21" r="V36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>74</v>
+      <c s="25" r="X36">
+        <v>93</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="21" r="Z36">
-        <v>29</v>
+      <c s="22" r="Z36">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="22" r="AB36">
-        <v>137</v>
+      <c s="20" r="AB36">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="22" r="AD36">
-        <v>137</v>
+      <c s="20" r="AD36">
+        <v>171</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="26" t="str" r="A37"/>
-      <c s="27" t="str" r="B37"/>
-      <c s="27" t="str" r="C37"/>
+      <c s="16" t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">363271 Marietta</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B37"/>
+      <c s="17" t="str" r="C37"/>
       <c s="18" t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">Daypart 5</t>
+          <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="21" r="J37">
+      <c s="22" r="J37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="21" r="L37">
+      <c s="22" r="L37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="24" r="N37">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="20" r="P37">
-        <v>6</v>
+      <c s="21" r="P37">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q37"/>
       <c s="21" r="R37">
@@ -2389,60 +2389,54 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="21" r="V37">
+      <c s="22" r="V37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>46</v>
+      <c s="25" r="X37">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="21" r="Z37">
-        <v>11</v>
+      <c s="22" r="Z37">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="22" r="AB37">
-        <v>83</v>
+      <c s="21" r="AB37">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="22" r="AD37">
-        <v>83</v>
+      <c s="21" r="AD37">
+        <v>145</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A38">
-        <is>
-          <t xml:space="preserve">364322 elizabethtown</t>
-        </is>
-      </c>
-      <c s="17" t="str" r="B38"/>
-      <c s="17" t="str" r="C38"/>
+      <c s="23" t="str" r="A38"/>
       <c s="18" t="inlineStr" r="D38">
         <is>
-          <t xml:space="preserve">Daypart 2</t>
+          <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
       <c s="22" r="J38">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="K38"/>
       <c s="22" r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="21" r="N38">
-        <v>0</v>
+      <c s="28" r="N38">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
       <c s="21" r="R38">
@@ -2454,202 +2448,384 @@
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="22" r="V38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>41</v>
+      <c s="25" r="X38">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="21" r="Z38">
-        <v>45</v>
+      <c s="22" r="Z38">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="22" r="AB38">
-        <v>121</v>
+      <c s="20" r="AB38">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="22" r="AD38">
-        <v>121</v>
+      <c s="20" r="AD38">
+        <v>159</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
       <c s="23" t="str" r="A39"/>
       <c s="18" t="inlineStr" r="D39">
         <is>
-          <t xml:space="preserve">Daypart 3</t>
+          <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="20" r="J39">
-        <v>31</v>
+      <c s="22" r="J39">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="K39"/>
       <c s="22" r="L39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="21" r="N39">
-        <v>0</v>
+      <c s="25" r="N39">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
+      <c s="22" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
+      <c s="22" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="22" r="V39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>59</v>
+      <c s="25" r="X39">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="21" r="Z39">
-        <v>50</v>
+      <c s="22" r="Z39">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>151</v>
+      <c s="24" r="AB39">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>151</v>
+      <c s="24" r="AD39">
+        <v>174</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="23" t="str" r="A40"/>
+      <c s="26" t="str" r="A40"/>
+      <c s="27" t="str" r="B40"/>
+      <c s="27" t="str" r="C40"/>
       <c s="18" t="inlineStr" r="D40">
         <is>
-          <t xml:space="preserve">Daypart 4</t>
+          <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
-      <c s="25" r="J40">
-        <v>52</v>
+      <c s="22" r="J40">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="K40"/>
-      <c s="20" r="L40">
-        <v>6</v>
+      <c s="22" r="L40">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="21" r="N40">
-        <v>0</v>
+      <c s="25" r="N40">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="21" r="R40">
+      <c s="22" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="21" r="T40">
+      <c s="22" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
       <c s="22" r="V40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="28" r="X40">
-        <v>103</v>
+      <c s="25" r="X40">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y40"/>
-      <c s="21" r="Z40">
-        <v>57</v>
+      <c s="22" r="Z40">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="24" r="AB40">
-        <v>218</v>
+      <c s="20" r="AB40">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="24" r="AD40">
-        <v>218</v>
+      <c s="20" r="AD40">
+        <v>153</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
-      <c s="26" t="str" r="A41"/>
-      <c s="27" t="str" r="B41"/>
-      <c s="27" t="str" r="C41"/>
+      <c s="16" t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">364322 E-Town</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B41"/>
+      <c s="17" t="str" r="C41"/>
       <c s="18" t="inlineStr" r="D41">
         <is>
-          <t xml:space="preserve">Daypart 5</t>
+          <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
-      <c s="28" r="J41">
-        <v>67</v>
+      <c s="21" r="J41">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K41"/>
-      <c s="20" r="L41">
+      <c s="21" r="L41">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M41"/>
+      <c s="22" r="N41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O41"/>
+      <c s="22" r="P41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q41"/>
+      <c s="22" r="R41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S41"/>
+      <c s="22" r="T41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U41"/>
+      <c s="20" r="V41">
+        <v>18</v>
+      </c>
+      <c s="5" t="str" r="W41"/>
+      <c s="25" r="X41">
+        <v>52</v>
+      </c>
+      <c s="5" t="str" r="Y41"/>
+      <c s="22" r="Z41">
+        <v>63</v>
+      </c>
+      <c s="5" t="str" r="AA41"/>
+      <c s="20" r="AB41">
+        <v>160</v>
+      </c>
+      <c s="5" t="str" r="AC41"/>
+      <c s="20" r="AD41">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" ht="18" customHeight="0">
+      <c s="23" t="str" r="A42"/>
+      <c s="18" t="inlineStr" r="D42">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E42"/>
+      <c s="5" t="str" r="F42"/>
+      <c s="19" r="G42">
+        <v>143</v>
+      </c>
+      <c s="4" t="str" r="H42"/>
+      <c s="5" t="str" r="I42"/>
+      <c s="20" r="J42">
+        <v>32</v>
+      </c>
+      <c s="5" t="str" r="K42"/>
+      <c s="21" r="L42">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="M42"/>
+      <c s="22" r="N42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O42"/>
+      <c s="22" r="P42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q42"/>
+      <c s="22" r="R42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S42"/>
+      <c s="22" r="T42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U42"/>
+      <c s="20" r="V42">
+        <v>17</v>
+      </c>
+      <c s="5" t="str" r="W42"/>
+      <c s="25" r="X42">
+        <v>63</v>
+      </c>
+      <c s="5" t="str" r="Y42"/>
+      <c s="22" r="Z42">
+        <v>59</v>
+      </c>
+      <c s="5" t="str" r="AA42"/>
+      <c s="20" r="AB42">
+        <v>169</v>
+      </c>
+      <c s="5" t="str" r="AC42"/>
+      <c s="20" r="AD42">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" ht="18" customHeight="0">
+      <c s="23" t="str" r="A43"/>
+      <c s="18" t="inlineStr" r="D43">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E43"/>
+      <c s="5" t="str" r="F43"/>
+      <c s="19" r="G43">
+        <v>59</v>
+      </c>
+      <c s="4" t="str" r="H43"/>
+      <c s="5" t="str" r="I43"/>
+      <c s="20" r="J43">
+        <v>37</v>
+      </c>
+      <c s="5" t="str" r="K43"/>
+      <c s="20" r="L43">
         <v>5</v>
       </c>
-      <c s="5" t="str" r="M41"/>
-      <c s="21" r="N41">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O41"/>
-      <c s="21" r="P41">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q41"/>
-      <c s="21" r="R41">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S41"/>
-      <c s="21" r="T41">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U41"/>
-      <c s="22" r="V41">
-        <v>2</v>
-      </c>
-      <c s="5" t="str" r="W41"/>
-      <c s="28" r="X41">
-        <v>123</v>
-      </c>
-      <c s="5" t="str" r="Y41"/>
-      <c s="21" r="Z41">
-        <v>39</v>
-      </c>
-      <c s="5" t="str" r="AA41"/>
-      <c s="24" r="AB41">
-        <v>229</v>
-      </c>
-      <c s="5" t="str" r="AC41"/>
-      <c s="24" r="AD41">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" ht="0.05" customHeight="1"/>
+      <c s="5" t="str" r="M43"/>
+      <c s="22" r="N43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O43"/>
+      <c s="22" r="P43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q43"/>
+      <c s="22" r="R43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S43"/>
+      <c s="22" r="T43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U43"/>
+      <c s="20" r="V43">
+        <v>17</v>
+      </c>
+      <c s="5" t="str" r="W43"/>
+      <c s="25" r="X43">
+        <v>82</v>
+      </c>
+      <c s="5" t="str" r="Y43"/>
+      <c s="22" r="Z43">
+        <v>43</v>
+      </c>
+      <c s="5" t="str" r="AA43"/>
+      <c s="20" r="AB43">
+        <v>176</v>
+      </c>
+      <c s="5" t="str" r="AC43"/>
+      <c s="20" r="AD43">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" ht="18" customHeight="0">
+      <c s="26" t="str" r="A44"/>
+      <c s="27" t="str" r="B44"/>
+      <c s="27" t="str" r="C44"/>
+      <c s="18" t="inlineStr" r="D44">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E44"/>
+      <c s="5" t="str" r="F44"/>
+      <c s="19" r="G44">
+        <v>22</v>
+      </c>
+      <c s="4" t="str" r="H44"/>
+      <c s="5" t="str" r="I44"/>
+      <c s="20" r="J44">
+        <v>33</v>
+      </c>
+      <c s="5" t="str" r="K44"/>
+      <c s="20" r="L44">
+        <v>7</v>
+      </c>
+      <c s="5" t="str" r="M44"/>
+      <c s="22" r="N44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O44"/>
+      <c s="22" r="P44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q44"/>
+      <c s="22" r="R44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S44"/>
+      <c s="22" r="T44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U44"/>
+      <c s="21" r="V44">
+        <v>12</v>
+      </c>
+      <c s="5" t="str" r="W44"/>
+      <c s="25" r="X44">
+        <v>79</v>
+      </c>
+      <c s="5" t="str" r="Y44"/>
+      <c s="22" r="Z44">
+        <v>34</v>
+      </c>
+      <c s="5" t="str" r="AA44"/>
+      <c s="20" r="AB44">
+        <v>157</v>
+      </c>
+      <c s="5" t="str" r="AC44"/>
+      <c s="20" r="AD44">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
@@ -2964,7 +3140,7 @@
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="Z32:AA32"/>
     <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A33:C36"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:K33"/>
@@ -2977,7 +3153,6 @@
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="Z33:AA33"/>
     <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="A34:C37"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="J34:K34"/>
@@ -3014,6 +3189,7 @@
     <mergeCell ref="X36:Y36"/>
     <mergeCell ref="Z36:AA36"/>
     <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="A37:C40"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -3026,7 +3202,6 @@
     <mergeCell ref="X37:Y37"/>
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="A38:C41"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="J38:K38"/>
@@ -3063,6 +3238,7 @@
     <mergeCell ref="X40:Y40"/>
     <mergeCell ref="Z40:AA40"/>
     <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="A41:C44"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="J41:K41"/>
@@ -3075,11 +3251,47 @@
     <mergeCell ref="X41:Y41"/>
     <mergeCell ref="Z41:AA41"/>
     <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/13/2025 12:34:57 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/17/2025 12:30:37 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,14 +140,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,7 +327,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
@@ -336,10 +336,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,8 +374,8 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 12/16/2025</t>
+          <t xml:space="preserve">Day: 12/17/2025</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c s="8" r="F7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="9" r="H7">
-        <v>3</v>
-      </c>
-      <c s="10" r="I7">
+      <c s="8" r="H7">
+        <v>5</v>
+      </c>
+      <c s="9" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="10" r="K7">
+      <c s="9" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="10" r="M7">
+      <c s="9" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
+      <c s="9" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="10" r="Q7">
+      <c s="9" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>67</v>
+      <c s="10" r="S7">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>51</v>
+      <c s="9" r="U7">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="11" r="W7">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>74</v>
+      <c s="11" r="Y7">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c s="12" r="F8">
         <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
+      <c s="11" r="H8">
         <v>2</v>
       </c>
-      <c s="10" r="I8">
+      <c s="9" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="10" r="K8">
+      <c s="9" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="10" r="M8">
+      <c s="9" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
+      <c s="9" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="10" r="Q8">
+      <c s="9" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="13" r="S8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>62</v>
+      <c s="9" r="U8">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>147</v>
+      <c s="11" r="W8">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>147</v>
+      <c s="11" r="Y8">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>396</v>
-      </c>
-      <c s="13" r="F9">
-        <v>37</v>
+        <v>437</v>
+      </c>
+      <c s="12" r="F9">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="8" r="H9">
         <v>6</v>
       </c>
-      <c s="10" r="I9">
+      <c s="9" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="10" r="K9">
+      <c s="9" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="10" r="M9">
+      <c s="9" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
+      <c s="9" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="10" r="Q9">
+      <c s="9" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="13" r="S9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
+      <c s="9" r="U9">
         <v>62</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="11" r="W9">
-        <v>168</v>
+      <c s="8" r="W9">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="11" r="Y9">
-        <v>168</v>
+      <c s="8" r="Y9">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>342</v>
-      </c>
-      <c s="13" r="F10">
-        <v>37</v>
+        <v>374</v>
+      </c>
+      <c s="12" r="F10">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="11" r="H10">
-        <v>8</v>
-      </c>
-      <c s="10" r="I10">
+      <c s="8" r="H10">
+        <v>5</v>
+      </c>
+      <c s="9" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="10" r="K10">
+      <c s="9" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="10" r="M10">
+      <c s="9" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
+      <c s="9" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="10" r="Q10">
+      <c s="9" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="13" r="S10">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>61</v>
+      <c s="9" r="U10">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="11" r="W10">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="11" r="Y10">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c s="8" r="F11">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="9" r="H11">
-        <v>1</v>
-      </c>
-      <c s="10" r="I11">
+      <c s="11" r="H11">
+        <v>2</v>
+      </c>
+      <c s="9" r="I11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="10" r="K11">
+      <c s="9" r="K11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="10" r="M11">
+      <c s="9" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="10" r="O11">
+      <c s="9" r="O11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="9" r="Q11">
-        <v>12</v>
+      <c s="11" r="Q11">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="13" r="S11">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>41</v>
+      <c s="9" r="U11">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>116</v>
+      <c s="11" r="W11">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>365</v>
-      </c>
-      <c s="10" r="F12">
+        <v>392</v>
+      </c>
+      <c s="9" r="F12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="10" r="H12">
+      <c s="9" r="H12">
         <v>0</v>
       </c>
       <c s="12" r="I12">
         <v>32</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="9" r="K12">
+      <c s="11" r="K12">
         <v>4</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="9" r="M12">
+      <c s="11" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="9" r="O12">
+      <c s="11" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="10" r="Q12">
+      <c s="9" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="13" r="S12">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>57</v>
+      <c s="9" r="U12">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>153</v>
+      <c s="11" r="W12">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>153</v>
+      <c s="11" r="Y12">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,49 +952,49 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>423</v>
-      </c>
-      <c s="8" r="F13">
-        <v>31</v>
+        <v>415</v>
+      </c>
+      <c s="11" r="F13">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="9" r="H13">
+      <c s="11" r="H13">
         <v>3</v>
       </c>
-      <c s="10" r="I13">
+      <c s="9" r="I13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J13"/>
-      <c s="10" r="K13">
+      <c s="9" r="K13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="10" r="M13">
+      <c s="9" r="M13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="10" r="O13">
+      <c s="9" r="O13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="8" r="Q13">
-        <v>17</v>
+      <c s="11" r="Q13">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="R13"/>
       <c s="13" r="S13">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T13"/>
-      <c s="10" r="U13">
-        <v>57</v>
+      <c s="9" r="U13">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="8" r="W13">
-        <v>165</v>
+      <c s="11" r="W13">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="8" r="Y13">
-        <v>165</v>
+      <c s="11" r="Y13">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,7 +1103,7 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1136,19 +1136,19 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>4</v>
+      <c s="24" r="L17">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1194,19 +1194,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="24" r="AB17">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,7 +1219,7 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
@@ -1227,8 +1227,8 @@
         <v>39</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
-        <v>7</v>
+      <c s="21" r="L18">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1252,19 +1252,19 @@
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="25" r="X18">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="24" r="AB18">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1279,12 +1279,12 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
-        <v>20</v>
+      <c s="21" r="J19">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
@@ -1311,20 +1311,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="25" r="X19">
-        <v>132</v>
+      <c s="24" r="X19">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="24" r="AB19">
-        <v>164</v>
+      <c s="21" r="AB19">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,16 +1343,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="25" r="J20">
-        <v>39</v>
+      <c s="24" r="J20">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1375,20 +1375,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="25" r="X20">
-        <v>150</v>
+      <c s="28" r="X20">
+        <v>95</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="28" r="AB20">
-        <v>188</v>
+      <c s="21" r="AB20">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="28" r="AD20">
-        <v>188</v>
+      <c s="21" r="AD20">
+        <v>132</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,11 +1401,11 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
+      <c s="25" r="J21">
         <v>30</v>
       </c>
       <c s="5" t="str" r="K21"/>
@@ -1433,20 +1433,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="28" r="X21">
-        <v>44</v>
+      <c s="25" r="X21">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
+      <c s="25" r="J22">
         <v>31</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1491,20 +1491,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="25" r="X22">
+      <c s="28" r="X22">
         <v>57</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="20" r="AB22">
-        <v>156</v>
+      <c s="21" r="AB22">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="20" r="AD22">
-        <v>156</v>
+      <c s="21" r="AD22">
+        <v>144</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="24" r="J23">
-        <v>26</v>
+      <c s="25" r="J23">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1549,20 +1549,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="25" r="X23">
-        <v>75</v>
+      <c s="28" r="X23">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>144</v>
+      <c s="20" r="AB23">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>144</v>
+      <c s="20" r="AD23">
+        <v>164</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1577,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="20" r="J24">
-        <v>22</v>
+      <c s="28" r="J24">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="21" r="L24">
-        <v>1</v>
+      <c s="24" r="L24">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1609,20 +1609,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="25" r="X24">
-        <v>105</v>
+      <c s="28" r="X24">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA24"/>
       <c s="21" r="AB24">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC24"/>
       <c s="21" r="AD24">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,16 +1641,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="28" r="J25">
-        <v>32</v>
+      <c s="20" r="J25">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1673,20 +1673,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="25" r="X25">
-        <v>57</v>
+      <c s="28" r="X25">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="21" r="AB25">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="21" r="AD25">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="21" r="L26">
-        <v>4</v>
+      <c s="25" r="L26">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1731,20 +1731,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="25" r="X26">
-        <v>64</v>
+      <c s="28" r="X26">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="24" r="AB26">
-        <v>169</v>
+      <c s="20" r="AB26">
+        <v>157</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="24" r="AD26">
-        <v>169</v>
+      <c s="20" r="AD26">
+        <v>157</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="25" r="J27">
-        <v>60</v>
+      <c s="28" r="J27">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K27"/>
       <c s="25" r="L27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1789,20 +1789,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="25" r="X27">
-        <v>105</v>
+      <c s="28" r="X27">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="25" r="AB27">
-        <v>224</v>
+      <c s="28" r="AB27">
+        <v>257</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="25" r="AD27">
-        <v>224</v>
+      <c s="28" r="AD27">
+        <v>257</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="25" r="J28">
-        <v>47</v>
+      <c s="28" r="J28">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="25" r="L28">
-        <v>12</v>
+      <c s="21" r="L28">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1849,20 +1849,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="25" r="X28">
-        <v>121</v>
+      <c s="28" r="X28">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="25" r="AB28">
-        <v>227</v>
+      <c s="28" r="AB28">
+        <v>239</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="25" r="AD28">
-        <v>227</v>
+      <c s="28" r="AD28">
+        <v>239</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,12 +1881,12 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="24" r="J29">
-        <v>27</v>
+      <c s="20" r="J29">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
@@ -1914,19 +1914,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="25" r="X29">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA29"/>
       <c s="21" r="AB29">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC29"/>
       <c s="21" r="AD29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="25" r="J30">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="25" r="L30">
-        <v>12</v>
+      <c s="20" r="L30">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1971,20 +1971,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="25" r="X30">
-        <v>86</v>
+      <c s="28" r="X30">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="25" r="AB30">
-        <v>224</v>
+      <c s="21" r="AB30">
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="25" r="AD30">
-        <v>224</v>
+      <c s="21" r="AD30">
+        <v>130</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,16 +1997,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="25" r="J31">
+      <c s="28" r="J31">
         <v>51</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="25" r="L31">
-        <v>13</v>
+      <c s="24" r="L31">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2029,20 +2029,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="25" r="X31">
-        <v>114</v>
+      <c s="28" r="X31">
+        <v>121</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>186</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2057,12 +2057,12 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
       <c s="28" r="J32">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="20" r="L32">
@@ -2089,20 +2089,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="25" r="X32">
-        <v>103</v>
+      <c s="28" r="X32">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="21" r="AB32">
-        <v>138</v>
+      <c s="28" r="AB32">
+        <v>224</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="21" r="AD32">
-        <v>138</v>
+      <c s="28" r="AD32">
+        <v>224</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,12 +2121,12 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
       <c s="20" r="J33">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
@@ -2150,23 +2150,23 @@
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="21" r="V33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="25" r="X33">
-        <v>55</v>
+      <c s="28" r="X33">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="20" r="AD33">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,16 +2179,16 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="24" r="J34">
-        <v>45</v>
+      <c s="20" r="J34">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="22" r="N34">
@@ -2207,24 +2207,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="20" r="V34">
-        <v>16</v>
+      <c s="21" r="V34">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="25" r="X34">
-        <v>86</v>
+      <c s="28" r="X34">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="20" r="AB34">
-        <v>144</v>
+      <c s="21" r="AB34">
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="24" r="AD34">
-        <v>195</v>
+      <c s="20" r="AD34">
+        <v>130</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,12 +2237,12 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
       <c s="20" r="J35">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="21" r="L35">
@@ -2265,24 +2265,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
-        <v>4</v>
+      <c s="20" r="V35">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="25" r="X35">
-        <v>84</v>
+      <c s="28" r="X35">
+        <v>96</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="21" r="AB35">
-        <v>118</v>
+      <c s="20" r="AB35">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="20" r="AD35">
-        <v>142</v>
+      <c s="24" r="AD35">
+        <v>190</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2297,16 +2297,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="21" r="J36">
-        <v>28</v>
+      <c s="20" r="J36">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2326,23 +2326,23 @@
       </c>
       <c s="5" t="str" r="U36"/>
       <c s="21" r="V36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="25" r="X36">
-        <v>93</v>
+      <c s="28" r="X36">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA36"/>
       <c s="20" r="AB36">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC36"/>
       <c s="20" r="AD36">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2393,20 +2393,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="25" r="X37">
-        <v>53</v>
+      <c s="28" r="X37">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="21" r="AB37">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="21" r="AD37">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2432,18 +2432,18 @@
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="28" r="N38">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
+      <c s="22" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
+      <c s="22" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
@@ -2451,20 +2451,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="25" r="X38">
-        <v>70</v>
+      <c s="28" r="X38">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="20" r="AB38">
-        <v>159</v>
+      <c s="28" r="AB38">
+        <v>196</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="20" r="AD38">
-        <v>159</v>
+      <c s="28" r="AD38">
+        <v>196</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2489,12 +2489,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="25" r="N39">
-        <v>43</v>
+      <c s="28" r="N39">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q39"/>
       <c s="22" r="R39">
@@ -2509,20 +2509,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="25" r="X39">
-        <v>100</v>
+      <c s="28" r="X39">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
         <v>33</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="24" r="AB39">
-        <v>174</v>
+      <c s="21" r="AB39">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="24" r="AD39">
-        <v>174</v>
+      <c s="21" r="AD39">
+        <v>145</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,8 +2549,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="25" r="N40">
-        <v>40</v>
+      <c s="28" r="N40">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
@@ -2569,20 +2569,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="25" r="X40">
-        <v>97</v>
+      <c s="28" r="X40">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="20" r="AB40">
-        <v>153</v>
+      <c s="21" r="AB40">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="20" r="AD40">
-        <v>153</v>
+      <c s="21" r="AD40">
+        <v>134</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,12 +2601,12 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
       <c s="21" r="J41">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
@@ -2629,24 +2629,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="20" r="V41">
-        <v>18</v>
+      <c s="21" r="V41">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="25" r="X41">
-        <v>52</v>
+      <c s="28" r="X41">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="20" r="AB41">
-        <v>160</v>
+      <c s="21" r="AB41">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="20" r="AD41">
-        <v>160</v>
+      <c s="21" r="AD41">
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,16 +2659,16 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="20" r="J42">
-        <v>32</v>
+      <c s="21" r="J42">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M42"/>
       <c s="22" r="N42">
@@ -2687,24 +2687,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="20" r="V42">
-        <v>17</v>
+      <c s="21" r="V42">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="25" r="X42">
-        <v>63</v>
+      <c s="28" r="X42">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="20" r="AB42">
-        <v>169</v>
+      <c s="21" r="AB42">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="20" r="AD42">
-        <v>169</v>
+      <c s="21" r="AD42">
+        <v>139</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2717,7 +2717,7 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
@@ -2745,24 +2745,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="20" r="V43">
-        <v>17</v>
+      <c s="21" r="V43">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="25" r="X43">
-        <v>82</v>
+      <c s="28" r="X43">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA43"/>
       <c s="20" r="AB43">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC43"/>
       <c s="20" r="AD43">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
@@ -2777,16 +2777,16 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
       <c s="20" r="J44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K44"/>
-      <c s="20" r="L44">
-        <v>7</v>
+      <c s="21" r="L44">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2806,23 +2806,23 @@
       </c>
       <c s="5" t="str" r="U44"/>
       <c s="21" r="V44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="25" r="X44">
-        <v>79</v>
+      <c s="28" r="X44">
+        <v>98</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA44"/>
       <c s="20" r="AB44">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c s="5" t="str" r="AC44"/>
       <c s="20" r="AD44">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/17/2025 12:30:37 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/18/2025 12:25:58 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,8 +146,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,8 +158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,6 +303,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -333,10 +336,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -372,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -517,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 12/19/2025</t>
+          <t xml:space="preserve">Day: 01/01/2026</t>
         </is>
       </c>
     </row>
@@ -613,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>439</v>
+        <v>222</v>
       </c>
       <c s="8" r="F7">
         <v>30</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -642,41 +645,41 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>56</v>
+      <c s="11" r="S7">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
     <row r="8" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">358529 Columbia</t>
+          <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
       <c s="4" t="str" r="B8"/>
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>468</v>
-      </c>
-      <c s="11" r="F8">
-        <v>31</v>
+        <v>360</v>
+      </c>
+      <c s="12" r="F8">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="8" r="H8">
-        <v>5</v>
+      <c s="9" r="H8">
+        <v>3</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -699,40 +702,40 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="8" r="W8">
-        <v>156</v>
+      <c s="11" r="W8">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="8" r="Y8">
-        <v>156</v>
+      <c s="11" r="Y8">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">362913 Eisenhower</t>
+          <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
       <c s="4" t="str" r="B9"/>
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>273</v>
-      </c>
-      <c s="8" r="F9">
-        <v>33</v>
+        <v>326</v>
+      </c>
+      <c s="12" r="F9">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="9" r="H9">
-        <v>2</v>
+      <c s="11" r="H9">
+        <v>8</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -750,59 +753,59 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="9" r="Q9">
-        <v>12</v>
+      <c s="10" r="Q9">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="9" r="W9">
-        <v>113</v>
+      <c s="13" r="W9">
+        <v>192</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="8" r="Y9">
-        <v>152</v>
+      <c s="13" r="Y9">
+        <v>192</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
     <row r="10" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">363271 Marietta</t>
+          <t xml:space="preserve">359042 Lititz</t>
         </is>
       </c>
       <c s="4" t="str" r="B10"/>
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>447</v>
-      </c>
-      <c s="10" r="F10">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c s="12" r="F10">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="10" r="H10">
-        <v>0</v>
-      </c>
-      <c s="11" r="I10">
-        <v>33</v>
+      <c s="8" r="H10">
+        <v>5</v>
+      </c>
+      <c s="10" r="I10">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="9" r="K10">
-        <v>3</v>
+      <c s="10" r="K10">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="9" r="M10">
+      <c s="10" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="9" r="O10">
+      <c s="10" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
@@ -811,1072 +814,2018 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="8" r="W10">
-        <v>152</v>
+      <c s="12" r="W10">
+        <v>217</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="8" r="Y10">
-        <v>152</v>
+      <c s="12" r="Y10">
+        <v>217</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
-    <row r="11" ht="4.95" customHeight="1"/>
-    <row r="12" ht="32.25" customHeight="0">
-      <c s="13" t="inlineStr" r="A12">
-        <is>
-          <t xml:space="preserve">Group / Store</t>
+    <row r="11" ht="18" customHeight="0">
+      <c s="6" t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">362913 Eisenhower</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="B11"/>
+      <c s="4" t="str" r="C11"/>
+      <c s="5" t="str" r="D11"/>
+      <c s="7" r="E11">
+        <v>172</v>
+      </c>
+      <c s="11" r="F11">
+        <v>45</v>
+      </c>
+      <c s="5" t="str" r="G11"/>
+      <c s="9" r="H11">
+        <v>4</v>
+      </c>
+      <c s="10" r="I11">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="J11"/>
+      <c s="10" r="K11">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="L11"/>
+      <c s="10" r="M11">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="N11"/>
+      <c s="10" r="O11">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="P11"/>
+      <c s="11" r="Q11">
+        <v>21</v>
+      </c>
+      <c s="5" t="str" r="R11"/>
+      <c s="12" r="S11">
+        <v>96</v>
+      </c>
+      <c s="5" t="str" r="T11"/>
+      <c s="10" r="U11">
+        <v>62</v>
+      </c>
+      <c s="5" t="str" r="V11"/>
+      <c s="8" r="W11">
+        <v>160</v>
+      </c>
+      <c s="5" t="str" r="X11"/>
+      <c s="11" r="Y11">
+        <v>223</v>
+      </c>
+      <c s="5" t="str" r="Z11"/>
+    </row>
+    <row r="12" ht="18" customHeight="0">
+      <c s="6" t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
       <c s="4" t="str" r="B12"/>
       <c s="4" t="str" r="C12"/>
-      <c s="3" t="inlineStr" r="D12">
+      <c s="5" t="str" r="D12"/>
+      <c s="7" r="E12">
+        <v>251</v>
+      </c>
+      <c s="10" r="F12">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="G12"/>
+      <c s="10" r="H12">
+        <v>0</v>
+      </c>
+      <c s="12" r="I12">
+        <v>40</v>
+      </c>
+      <c s="5" t="str" r="J12"/>
+      <c s="8" r="K12">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="L12"/>
+      <c s="9" r="M12">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="N12"/>
+      <c s="9" r="O12">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="P12"/>
+      <c s="10" r="Q12">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="R12"/>
+      <c s="12" r="S12">
+        <v>77</v>
+      </c>
+      <c s="5" t="str" r="T12"/>
+      <c s="10" r="U12">
+        <v>89</v>
+      </c>
+      <c s="5" t="str" r="V12"/>
+      <c s="12" r="W12">
+        <v>201</v>
+      </c>
+      <c s="5" t="str" r="X12"/>
+      <c s="12" r="Y12">
+        <v>202</v>
+      </c>
+      <c s="5" t="str" r="Z12"/>
+    </row>
+    <row r="13" ht="18" customHeight="0">
+      <c s="6" t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">364322 E-Town</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="B13"/>
+      <c s="4" t="str" r="C13"/>
+      <c s="5" t="str" r="D13"/>
+      <c s="7" r="E13">
+        <v>277</v>
+      </c>
+      <c s="11" r="F13">
+        <v>41</v>
+      </c>
+      <c s="5" t="str" r="G13"/>
+      <c s="9" r="H13">
+        <v>3</v>
+      </c>
+      <c s="10" r="I13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="J13"/>
+      <c s="10" r="K13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="L13"/>
+      <c s="10" r="M13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="N13"/>
+      <c s="10" r="O13">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="P13"/>
+      <c s="8" r="Q13">
+        <v>16</v>
+      </c>
+      <c s="5" t="str" r="R13"/>
+      <c s="12" r="S13">
+        <v>73</v>
+      </c>
+      <c s="5" t="str" r="T13"/>
+      <c s="10" r="U13">
+        <v>54</v>
+      </c>
+      <c s="5" t="str" r="V13"/>
+      <c s="8" r="W13">
+        <v>179</v>
+      </c>
+      <c s="5" t="str" r="X13"/>
+      <c s="8" r="Y13">
+        <v>179</v>
+      </c>
+      <c s="5" t="str" r="Z13"/>
+    </row>
+    <row r="14" ht="4.95" customHeight="1"/>
+    <row r="15" ht="32.25" customHeight="0">
+      <c s="14" t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">Group / Store</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="B15"/>
+      <c s="4" t="str" r="C15"/>
+      <c s="3" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">Time Measure</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="E12"/>
-      <c s="5" t="str" r="F12"/>
-      <c s="3" t="inlineStr" r="G12">
-        <is>
-          <t xml:space="preserve">Total Cars</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="H12"/>
-      <c s="5" t="str" r="I12"/>
-      <c s="14" t="inlineStr" r="J12">
-        <is>
-          <t xml:space="preserve">Menu Board</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="K12"/>
-      <c s="14" t="inlineStr" r="L12">
-        <is>
-          <t xml:space="preserve">Greet</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="M12"/>
-      <c s="14" t="inlineStr" r="N12">
-        <is>
-          <t xml:space="preserve">Menu 1</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="O12"/>
-      <c s="14" t="inlineStr" r="P12">
-        <is>
-          <t xml:space="preserve">Greet 1</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="Q12"/>
-      <c s="14" t="inlineStr" r="R12">
-        <is>
-          <t xml:space="preserve">Menu 2</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="S12"/>
-      <c s="14" t="inlineStr" r="T12">
-        <is>
-          <t xml:space="preserve">Greet 2</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="U12"/>
-      <c s="14" t="inlineStr" r="V12">
-        <is>
-          <t xml:space="preserve">Cashier</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="W12"/>
-      <c s="14" t="inlineStr" r="X12">
-        <is>
-          <t xml:space="preserve">Service</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="Y12"/>
-      <c s="14" t="inlineStr" r="Z12">
-        <is>
-          <t xml:space="preserve">Lane Queue</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="AA12"/>
-      <c s="14" t="inlineStr" r="AB12">
-        <is>
-          <t xml:space="preserve">Lane Total</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="AC12"/>
-      <c s="14" t="inlineStr" r="AD12">
-        <is>
-          <t xml:space="preserve">Lane Total 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A13">
-        <is>
-          <t xml:space="preserve">343939 Mt Joy</t>
-        </is>
-      </c>
-      <c s="16" t="str" r="B13"/>
-      <c s="16" t="str" r="C13"/>
-      <c s="17" t="inlineStr" r="D13">
-        <is>
-          <t xml:space="preserve">Daypart 2</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="E13"/>
-      <c s="5" t="str" r="F13"/>
-      <c s="18" r="G13">
-        <v>249</v>
-      </c>
-      <c s="4" t="str" r="H13"/>
-      <c s="5" t="str" r="I13"/>
-      <c s="19" r="J13">
-        <v>29</v>
-      </c>
-      <c s="5" t="str" r="K13"/>
-      <c s="20" r="L13">
-        <v>3</v>
-      </c>
-      <c s="5" t="str" r="M13"/>
-      <c s="21" r="N13">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O13"/>
-      <c s="21" r="P13">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q13"/>
-      <c s="21" r="R13">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S13"/>
-      <c s="21" r="T13">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U13"/>
-      <c s="21" r="V13">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="W13"/>
-      <c s="19" r="X13">
-        <v>46</v>
-      </c>
-      <c s="5" t="str" r="Y13"/>
-      <c s="21" r="Z13">
-        <v>52</v>
-      </c>
-      <c s="5" t="str" r="AA13"/>
-      <c s="20" r="AB13">
-        <v>128</v>
-      </c>
-      <c s="5" t="str" r="AC13"/>
-      <c s="20" r="AD13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="0">
-      <c s="22" t="str" r="A14"/>
-      <c s="17" t="inlineStr" r="D14">
-        <is>
-          <t xml:space="preserve">Daypart 3</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="E14"/>
-      <c s="5" t="str" r="F14"/>
-      <c s="18" r="G14">
-        <v>112</v>
-      </c>
-      <c s="4" t="str" r="H14"/>
-      <c s="5" t="str" r="I14"/>
-      <c s="19" r="J14">
-        <v>27</v>
-      </c>
-      <c s="5" t="str" r="K14"/>
-      <c s="20" r="L14">
-        <v>3</v>
-      </c>
-      <c s="5" t="str" r="M14"/>
-      <c s="21" r="N14">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="O14"/>
-      <c s="21" r="P14">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="Q14"/>
-      <c s="21" r="R14">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S14"/>
-      <c s="21" r="T14">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U14"/>
-      <c s="21" r="V14">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="W14"/>
-      <c s="19" r="X14">
-        <v>52</v>
-      </c>
-      <c s="5" t="str" r="Y14"/>
-      <c s="21" r="Z14">
-        <v>42</v>
-      </c>
-      <c s="5" t="str" r="AA14"/>
-      <c s="20" r="AB14">
-        <v>122</v>
-      </c>
-      <c s="5" t="str" r="AC14"/>
-      <c s="20" r="AD14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="0">
-      <c s="22" t="str" r="A15"/>
-      <c s="17" t="inlineStr" r="D15">
-        <is>
-          <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E15"/>
       <c s="5" t="str" r="F15"/>
-      <c s="18" r="G15">
-        <v>63</v>
+      <c s="3" t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Total Cars</t>
+        </is>
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="19" r="J15">
-        <v>33</v>
+      <c s="15" t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">Menu Board</t>
+        </is>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="20" r="L15">
-        <v>3</v>
+      <c s="15" t="inlineStr" r="L15">
+        <is>
+          <t xml:space="preserve">Greet</t>
+        </is>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="21" r="N15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="N15">
+        <is>
+          <t xml:space="preserve">Menu 1</t>
+        </is>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="21" r="P15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="P15">
+        <is>
+          <t xml:space="preserve">Greet 1</t>
+        </is>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="21" r="R15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="R15">
+        <is>
+          <t xml:space="preserve">Menu 2</t>
+        </is>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="21" r="T15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="T15">
+        <is>
+          <t xml:space="preserve">Greet 2</t>
+        </is>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="21" r="V15">
-        <v>0</v>
+      <c s="15" t="inlineStr" r="V15">
+        <is>
+          <t xml:space="preserve">Cashier</t>
+        </is>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="23" r="X15">
-        <v>98</v>
+      <c s="15" t="inlineStr" r="X15">
+        <is>
+          <t xml:space="preserve">Service</t>
+        </is>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="21" r="Z15">
-        <v>88</v>
+      <c s="15" t="inlineStr" r="Z15">
+        <is>
+          <t xml:space="preserve">Lane Queue</t>
+        </is>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="24" r="AB15">
-        <v>219</v>
+      <c s="15" t="inlineStr" r="AB15">
+        <is>
+          <t xml:space="preserve">Lane Total</t>
+        </is>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="19" r="AD15">
-        <v>109</v>
+      <c s="15" t="inlineStr" r="AD15">
+        <is>
+          <t xml:space="preserve">Lane Total 2</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="25" t="str" r="A16"/>
-      <c s="26" t="str" r="B16"/>
-      <c s="26" t="str" r="C16"/>
-      <c s="17" t="inlineStr" r="D16">
-        <is>
-          <t xml:space="preserve">Daypart 5</t>
+      <c s="16" t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">343939 Mt Joy</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B16"/>
+      <c s="17" t="str" r="C16"/>
+      <c s="18" t="inlineStr" r="D16">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="18" r="G16">
-        <v>15</v>
+      <c s="19" r="G16">
+        <v>69</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="19" r="J16">
-        <v>44</v>
+      <c s="20" r="J16">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>3</v>
+      <c s="21" r="L16">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="21" r="N16">
+      <c s="22" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="21" r="P16">
+      <c s="22" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="21" r="R16">
+      <c s="22" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="21" r="T16">
+      <c s="22" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="21" r="V16">
+      <c s="22" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="24" r="X16">
-        <v>66</v>
+      <c s="20" r="X16">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="21" r="Z16">
-        <v>14</v>
+      <c s="22" r="Z16">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="20" r="AB16">
-        <v>125</v>
+      <c s="21" r="AB16">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="20" r="AD16">
-        <v>62</v>
+      <c s="21" r="AD16">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A17">
-        <is>
-          <t xml:space="preserve">358529 Columbia</t>
-        </is>
-      </c>
-      <c s="16" t="str" r="B17"/>
-      <c s="16" t="str" r="C17"/>
-      <c s="17" t="inlineStr" r="D17">
-        <is>
-          <t xml:space="preserve">Daypart 2</t>
+      <c s="23" t="str" r="A17"/>
+      <c s="18" t="inlineStr" r="D17">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="18" r="G17">
-        <v>256</v>
+      <c s="19" r="G17">
+        <v>98</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="19" r="J17">
-        <v>24</v>
+      <c s="20" r="J17">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="20" r="L17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="21" r="N17">
+      <c s="22" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="21" r="P17">
+      <c s="22" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="21" r="R17">
+      <c s="22" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="21" r="T17">
+      <c s="22" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="21" r="V17">
+      <c s="22" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="23" r="X17">
-        <v>44</v>
+      <c s="20" r="X17">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="21" r="Z17">
-        <v>57</v>
+      <c s="22" r="Z17">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="20" r="AB17">
-        <v>126</v>
+      <c s="21" r="AB17">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>126</v>
+      <c s="21" r="AD17">
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="22" t="str" r="A18"/>
-      <c s="17" t="inlineStr" r="D18">
-        <is>
-          <t xml:space="preserve">Daypart 3</t>
+      <c s="23" t="str" r="A18"/>
+      <c s="18" t="inlineStr" r="D18">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="18" r="G18">
-        <v>106</v>
+      <c s="19" r="G18">
+        <v>48</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="23" r="J18">
-        <v>33</v>
+      <c s="20" r="J18">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="19" r="L18">
-        <v>6</v>
+      <c s="21" r="L18">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="21" r="N18">
+      <c s="22" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="21" r="P18">
+      <c s="22" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="21" r="R18">
+      <c s="22" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="21" r="T18">
+      <c s="22" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="21" r="V18">
+      <c s="22" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="27" r="X18">
-        <v>68</v>
+      <c s="24" r="X18">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="21" r="Z18">
-        <v>49</v>
+      <c s="22" r="Z18">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="19" r="AB18">
-        <v>150</v>
+      <c s="25" r="AB18">
+        <v>187</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="19" r="AD18">
-        <v>150</v>
+      <c s="20" r="AD18">
+        <v>93</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="22" t="str" r="A19"/>
-      <c s="17" t="inlineStr" r="D19">
-        <is>
-          <t xml:space="preserve">Daypart 4</t>
+      <c s="26" t="str" r="A19"/>
+      <c s="27" t="str" r="B19"/>
+      <c s="27" t="str" r="C19"/>
+      <c s="18" t="inlineStr" r="D19">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="18" r="G19">
-        <v>76</v>
+      <c s="19" r="G19">
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="27" r="J19">
-        <v>42</v>
+      <c s="20" r="J19">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="24" r="L19">
-        <v>9</v>
+      <c s="21" r="L19">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="21" r="N19">
+      <c s="22" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="21" r="P19">
+      <c s="22" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="21" r="R19">
+      <c s="22" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="21" r="T19">
+      <c s="22" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="21" r="V19">
+      <c s="22" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="27" r="X19">
-        <v>101</v>
+      <c s="28" r="X19">
+        <v>124</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="21" r="Z19">
-        <v>87</v>
+      <c s="22" r="Z19">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="27" r="AB19">
-        <v>229</v>
+      <c s="25" r="AB19">
+        <v>158</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="27" r="AD19">
-        <v>229</v>
+      <c s="21" r="AD19">
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="25" t="str" r="A20"/>
-      <c s="26" t="str" r="B20"/>
-      <c s="26" t="str" r="C20"/>
-      <c s="17" t="inlineStr" r="D20">
-        <is>
-          <t xml:space="preserve">Daypart 5</t>
+      <c s="16" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">357993 Enola</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B20"/>
+      <c s="17" t="str" r="C20"/>
+      <c s="18" t="inlineStr" r="D20">
+        <is>
+          <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="18" r="G20">
-        <v>30</v>
+      <c s="19" r="G20">
+        <v>1</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="27" r="J20">
-        <v>54</v>
+      <c s="21" r="J20">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="23" r="L20">
-        <v>10</v>
+      <c s="20" r="L20">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="21" r="N20">
+      <c s="22" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="21" r="P20">
+      <c s="22" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="21" r="R20">
+      <c s="22" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="21" r="T20">
+      <c s="22" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="21" r="V20">
+      <c s="22" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="27" r="X20">
-        <v>156</v>
+      <c s="28" r="X20">
+        <v>108</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="21" r="Z20">
-        <v>37</v>
+      <c s="22" r="Z20">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="27" r="AB20">
-        <v>248</v>
+      <c s="21" r="AB20">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="27" r="AD20">
-        <v>248</v>
+      <c s="21" r="AD20">
+        <v>136</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A21">
-        <is>
-          <t xml:space="preserve">362913 Eisenhower</t>
-        </is>
-      </c>
-      <c s="16" t="str" r="B21"/>
-      <c s="16" t="str" r="C21"/>
-      <c s="17" t="inlineStr" r="D21">
+      <c s="23" t="str" r="A21"/>
+      <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="18" r="G21">
-        <v>150</v>
+      <c s="19" r="G21">
+        <v>103</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="20" r="J21">
-        <v>28</v>
+      <c s="28" r="J21">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="20" r="L21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="21" r="N21">
+      <c s="22" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="21" r="P21">
+      <c s="22" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="21" r="R21">
+      <c s="22" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="21" r="T21">
+      <c s="22" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="20" r="V21">
-        <v>13</v>
+      <c s="22" r="V21">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="27" r="X21">
-        <v>57</v>
+      <c s="28" r="X21">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="21" r="Z21">
-        <v>39</v>
+      <c s="22" r="Z21">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="20" r="AB21">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="19" r="AD21">
-        <v>138</v>
+      <c s="20" r="AD21">
+        <v>162</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="22" t="str" r="A22"/>
-      <c s="17" t="inlineStr" r="D22">
+      <c s="23" t="str" r="A22"/>
+      <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="18" r="G22">
-        <v>84</v>
+      <c s="19" r="G22">
+        <v>182</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="19" r="J22">
-        <v>38</v>
+      <c s="28" r="J22">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="20" r="L22">
+      <c s="21" r="L22">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="21" r="N22">
+      <c s="22" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="21" r="P22">
+      <c s="22" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="21" r="R22">
+      <c s="22" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="21" r="T22">
+      <c s="22" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="20" r="V22">
-        <v>10</v>
+      <c s="22" r="V22">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="27" r="X22">
-        <v>73</v>
+      <c s="28" r="X22">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="21" r="Z22">
-        <v>42</v>
+      <c s="22" r="Z22">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="20" r="AB22">
-        <v>117</v>
+      <c s="25" r="AB22">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="19" r="AD22">
-        <v>159</v>
+      <c s="25" r="AD22">
+        <v>179</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="22" t="str" r="A23"/>
-      <c s="17" t="inlineStr" r="D23">
+      <c s="23" t="str" r="A23"/>
+      <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="18" r="G23">
-        <v>32</v>
+      <c s="19" r="G23">
+        <v>65</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="19" r="J23">
-        <v>39</v>
+      <c s="28" r="J23">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="20" r="L23">
-        <v>4</v>
+      <c s="21" r="L23">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="21" r="N23">
+      <c s="22" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="21" r="P23">
+      <c s="22" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="21" r="R23">
+      <c s="22" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="21" r="T23">
+      <c s="22" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="20" r="V23">
-        <v>14</v>
+      <c s="22" r="V23">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="27" r="X23">
-        <v>102</v>
+      <c s="28" r="X23">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="21" r="Z23">
-        <v>32</v>
+      <c s="22" r="Z23">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="19" r="AB23">
-        <v>151</v>
+      <c s="20" r="AB23">
+        <v>160</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="24" r="AD23">
-        <v>183</v>
+      <c s="20" r="AD23">
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="25" t="str" r="A24"/>
-      <c s="26" t="str" r="B24"/>
-      <c s="26" t="str" r="C24"/>
-      <c s="17" t="inlineStr" r="D24">
+      <c s="26" t="str" r="A24"/>
+      <c s="27" t="str" r="B24"/>
+      <c s="27" t="str" r="C24"/>
+      <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="18" r="G24">
-        <v>7</v>
+      <c s="19" r="G24">
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="27" r="J24">
-        <v>71</v>
+      <c s="24" r="J24">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="20" r="L24">
-        <v>4</v>
+      <c s="21" r="L24">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="21" r="N24">
+      <c s="22" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="21" r="P24">
+      <c s="22" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="21" r="R24">
+      <c s="22" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="21" r="T24">
+      <c s="22" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="19" r="V24">
-        <v>16</v>
+      <c s="22" r="V24">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="27" r="X24">
-        <v>115</v>
+      <c s="28" r="X24">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="21" r="Z24">
-        <v>12</v>
+      <c s="22" r="Z24">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="24" r="AB24">
-        <v>202</v>
+      <c s="21" r="AB24">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="24" r="AD24">
-        <v>215</v>
+      <c s="21" r="AD24">
+        <v>110</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A25">
-        <is>
-          <t xml:space="preserve">363271 Marietta</t>
-        </is>
-      </c>
-      <c s="16" t="str" r="B25"/>
-      <c s="16" t="str" r="C25"/>
-      <c s="17" t="inlineStr" r="D25">
+      <c s="16" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">358529 Columbia</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B25"/>
+      <c s="17" t="str" r="C25"/>
+      <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="18" r="G25">
-        <v>269</v>
+      <c s="19" r="G25">
+        <v>86</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="21" r="J25">
-        <v>0</v>
+      <c s="24" r="J25">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="24" r="N25">
-        <v>29</v>
+      <c s="22" r="N25">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="20" r="P25">
-        <v>3</v>
+      <c s="22" r="P25">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="21" r="R25">
+      <c s="22" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="21" r="T25">
+      <c s="22" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="21" r="V25">
+      <c s="22" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="27" r="X25">
-        <v>46</v>
+      <c s="28" r="X25">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="21" r="Z25">
-        <v>78</v>
+      <c s="22" r="Z25">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="19" r="AB25">
-        <v>155</v>
+      <c s="21" r="AB25">
+        <v>111</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="19" r="AD25">
-        <v>155</v>
+      <c s="21" r="AD25">
+        <v>111</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="22" t="str" r="A26"/>
-      <c s="17" t="inlineStr" r="D26">
+      <c s="23" t="str" r="A26"/>
+      <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="18" r="G26">
-        <v>108</v>
+      <c s="19" r="G26">
+        <v>147</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="21" r="J26">
-        <v>0</v>
+      <c s="28" r="J26">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="21" r="L26">
-        <v>0</v>
+      <c s="25" r="L26">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="23" r="N26">
-        <v>34</v>
+      <c s="22" r="N26">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="20" r="P26">
-        <v>3</v>
+      <c s="22" r="P26">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="20" r="R26">
+      <c s="22" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="20" r="T26">
+      <c s="22" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="21" r="V26">
+      <c s="22" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="27" r="X26">
+      <c s="28" r="X26">
+        <v>65</v>
+      </c>
+      <c s="5" t="str" r="Y26"/>
+      <c s="22" r="Z26">
         <v>69</v>
       </c>
-      <c s="5" t="str" r="Y26"/>
-      <c s="21" r="Z26">
-        <v>38</v>
-      </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="20" r="AB26">
-        <v>141</v>
+      <c s="24" r="AB26">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="20" r="AD26">
-        <v>141</v>
+      <c s="24" r="AD26">
+        <v>182</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="22" t="str" r="A27"/>
-      <c s="17" t="inlineStr" r="D27">
+      <c s="23" t="str" r="A27"/>
+      <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="18" r="G27">
-        <v>55</v>
+      <c s="19" r="G27">
+        <v>78</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="21" r="J27">
-        <v>0</v>
+      <c s="28" r="J27">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="21" r="L27">
-        <v>0</v>
+      <c s="28" r="L27">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="27" r="N27">
-        <v>43</v>
+      <c s="22" r="N27">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="20" r="P27">
-        <v>4</v>
+      <c s="22" r="P27">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="20" r="R27">
+      <c s="22" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="20" r="T27">
+      <c s="22" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="21" r="V27">
+      <c s="22" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="27" r="X27">
-        <v>83</v>
+      <c s="28" r="X27">
+        <v>106</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="21" r="Z27">
-        <v>37</v>
+      <c s="22" r="Z27">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="19" r="AB27">
-        <v>159</v>
+      <c s="28" r="AB27">
+        <v>270</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="19" r="AD27">
-        <v>159</v>
+      <c s="28" r="AD27">
+        <v>270</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="25" t="str" r="A28"/>
-      <c s="26" t="str" r="B28"/>
-      <c s="26" t="str" r="C28"/>
-      <c s="17" t="inlineStr" r="D28">
+      <c s="26" t="str" r="A28"/>
+      <c s="27" t="str" r="B28"/>
+      <c s="27" t="str" r="C28"/>
+      <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="18" r="G28">
+      <c s="19" r="G28">
         <v>15</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="21" r="J28">
-        <v>0</v>
+      <c s="28" r="J28">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>0</v>
+      <c s="24" r="L28">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="27" r="N28">
+      <c s="22" r="N28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O28"/>
+      <c s="22" r="P28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q28"/>
+      <c s="22" r="R28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S28"/>
+      <c s="22" r="T28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U28"/>
+      <c s="22" r="V28">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W28"/>
+      <c s="28" r="X28">
+        <v>184</v>
+      </c>
+      <c s="5" t="str" r="Y28"/>
+      <c s="22" r="Z28">
+        <v>112</v>
+      </c>
+      <c s="5" t="str" r="AA28"/>
+      <c s="28" r="AB28">
+        <v>341</v>
+      </c>
+      <c s="5" t="str" r="AC28"/>
+      <c s="28" r="AD28">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">359042 Lititz</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B29"/>
+      <c s="17" t="str" r="C29"/>
+      <c s="18" t="inlineStr" r="D29">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E29"/>
+      <c s="5" t="str" r="F29"/>
+      <c s="19" r="G29">
+        <v>85</v>
+      </c>
+      <c s="4" t="str" r="H29"/>
+      <c s="5" t="str" r="I29"/>
+      <c s="25" r="J29">
+        <v>25</v>
+      </c>
+      <c s="5" t="str" r="K29"/>
+      <c s="21" r="L29">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M29"/>
+      <c s="22" r="N29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O29"/>
+      <c s="22" r="P29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q29"/>
+      <c s="22" r="R29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S29"/>
+      <c s="22" r="T29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U29"/>
+      <c s="22" r="V29">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W29"/>
+      <c s="28" r="X29">
+        <v>55</v>
+      </c>
+      <c s="5" t="str" r="Y29"/>
+      <c s="22" r="Z29">
+        <v>51</v>
+      </c>
+      <c s="5" t="str" r="AA29"/>
+      <c s="21" r="AB29">
+        <v>131</v>
+      </c>
+      <c s="5" t="str" r="AC29"/>
+      <c s="21" r="AD29">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="0">
+      <c s="23" t="str" r="A30"/>
+      <c s="18" t="inlineStr" r="D30">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E30"/>
+      <c s="5" t="str" r="F30"/>
+      <c s="19" r="G30">
+        <v>111</v>
+      </c>
+      <c s="4" t="str" r="H30"/>
+      <c s="5" t="str" r="I30"/>
+      <c s="28" r="J30">
+        <v>47</v>
+      </c>
+      <c s="5" t="str" r="K30"/>
+      <c s="20" r="L30">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="M30"/>
+      <c s="22" r="N30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O30"/>
+      <c s="22" r="P30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q30"/>
+      <c s="22" r="R30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S30"/>
+      <c s="22" r="T30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U30"/>
+      <c s="22" r="V30">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W30"/>
+      <c s="28" r="X30">
+        <v>88</v>
+      </c>
+      <c s="5" t="str" r="Y30"/>
+      <c s="22" r="Z30">
+        <v>139</v>
+      </c>
+      <c s="5" t="str" r="AA30"/>
+      <c s="28" r="AB30">
+        <v>274</v>
+      </c>
+      <c s="5" t="str" r="AC30"/>
+      <c s="28" r="AD30">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="0">
+      <c s="23" t="str" r="A31"/>
+      <c s="18" t="inlineStr" r="D31">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E31"/>
+      <c s="5" t="str" r="F31"/>
+      <c s="19" r="G31">
         <v>40</v>
       </c>
-      <c s="5" t="str" r="O28"/>
-      <c s="20" r="P28">
+      <c s="4" t="str" r="H31"/>
+      <c s="5" t="str" r="I31"/>
+      <c s="28" r="J31">
+        <v>86</v>
+      </c>
+      <c s="5" t="str" r="K31"/>
+      <c s="21" r="L31">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="M31"/>
+      <c s="22" r="N31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O31"/>
+      <c s="22" r="P31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q31"/>
+      <c s="22" r="R31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S31"/>
+      <c s="22" r="T31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U31"/>
+      <c s="22" r="V31">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W31"/>
+      <c s="28" r="X31">
+        <v>117</v>
+      </c>
+      <c s="5" t="str" r="Y31"/>
+      <c s="22" r="Z31">
+        <v>50</v>
+      </c>
+      <c s="5" t="str" r="AA31"/>
+      <c s="28" r="AB31">
+        <v>255</v>
+      </c>
+      <c s="5" t="str" r="AC31"/>
+      <c s="28" r="AD31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="0">
+      <c s="26" t="str" r="A32"/>
+      <c s="27" t="str" r="B32"/>
+      <c s="27" t="str" r="C32"/>
+      <c s="18" t="inlineStr" r="D32">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E32"/>
+      <c s="5" t="str" r="F32"/>
+      <c s="19" r="G32">
+        <v>10</v>
+      </c>
+      <c s="4" t="str" r="H32"/>
+      <c s="5" t="str" r="I32"/>
+      <c s="28" r="J32">
+        <v>40</v>
+      </c>
+      <c s="5" t="str" r="K32"/>
+      <c s="21" r="L32">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="M32"/>
+      <c s="22" r="N32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O32"/>
+      <c s="22" r="P32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q32"/>
+      <c s="22" r="R32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S32"/>
+      <c s="22" r="T32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U32"/>
+      <c s="22" r="V32">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W32"/>
+      <c s="28" r="X32">
+        <v>100</v>
+      </c>
+      <c s="5" t="str" r="Y32"/>
+      <c s="22" r="Z32">
+        <v>38</v>
+      </c>
+      <c s="5" t="str" r="AA32"/>
+      <c s="25" r="AB32">
+        <v>174</v>
+      </c>
+      <c s="5" t="str" r="AC32"/>
+      <c s="25" r="AD32">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">362913 Eisenhower</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B33"/>
+      <c s="17" t="str" r="C33"/>
+      <c s="18" t="inlineStr" r="D33">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E33"/>
+      <c s="5" t="str" r="F33"/>
+      <c s="19" r="G33">
+        <v>43</v>
+      </c>
+      <c s="4" t="str" r="H33"/>
+      <c s="5" t="str" r="I33"/>
+      <c s="20" r="J33">
+        <v>39</v>
+      </c>
+      <c s="5" t="str" r="K33"/>
+      <c s="21" r="L33">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M33"/>
+      <c s="22" r="N33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O33"/>
+      <c s="22" r="P33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q33"/>
+      <c s="22" r="R33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S33"/>
+      <c s="22" r="T33">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U33"/>
+      <c s="21" r="V33">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="W33"/>
+      <c s="28" r="X33">
+        <v>66</v>
+      </c>
+      <c s="5" t="str" r="Y33"/>
+      <c s="22" r="Z33">
+        <v>29</v>
+      </c>
+      <c s="5" t="str" r="AA33"/>
+      <c s="21" r="AB33">
+        <v>109</v>
+      </c>
+      <c s="5" t="str" r="AC33"/>
+      <c s="20" r="AD33">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" ht="18" customHeight="0">
+      <c s="23" t="str" r="A34"/>
+      <c s="18" t="inlineStr" r="D34">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E34"/>
+      <c s="5" t="str" r="F34"/>
+      <c s="19" r="G34">
+        <v>75</v>
+      </c>
+      <c s="4" t="str" r="H34"/>
+      <c s="5" t="str" r="I34"/>
+      <c s="25" r="J34">
+        <v>48</v>
+      </c>
+      <c s="5" t="str" r="K34"/>
+      <c s="21" r="L34">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="M34"/>
+      <c s="22" r="N34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O34"/>
+      <c s="22" r="P34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q34"/>
+      <c s="22" r="R34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S34"/>
+      <c s="22" r="T34">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U34"/>
+      <c s="20" r="V34">
+        <v>18</v>
+      </c>
+      <c s="5" t="str" r="W34"/>
+      <c s="28" r="X34">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="Y34"/>
+      <c s="22" r="Z34">
+        <v>47</v>
+      </c>
+      <c s="5" t="str" r="AA34"/>
+      <c s="20" r="AB34">
+        <v>146</v>
+      </c>
+      <c s="5" t="str" r="AC34"/>
+      <c s="25" r="AD34">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="0">
+      <c s="23" t="str" r="A35"/>
+      <c s="18" t="inlineStr" r="D35">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E35"/>
+      <c s="5" t="str" r="F35"/>
+      <c s="19" r="G35">
+        <v>47</v>
+      </c>
+      <c s="4" t="str" r="H35"/>
+      <c s="5" t="str" r="I35"/>
+      <c s="25" r="J35">
+        <v>47</v>
+      </c>
+      <c s="5" t="str" r="K35"/>
+      <c s="20" r="L35">
+        <v>5</v>
+      </c>
+      <c s="5" t="str" r="M35"/>
+      <c s="22" r="N35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O35"/>
+      <c s="22" r="P35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q35"/>
+      <c s="22" r="R35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S35"/>
+      <c s="22" r="T35">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U35"/>
+      <c s="28" r="V35">
+        <v>43</v>
+      </c>
+      <c s="5" t="str" r="W35"/>
+      <c s="28" r="X35">
+        <v>144</v>
+      </c>
+      <c s="5" t="str" r="Y35"/>
+      <c s="22" r="Z35">
+        <v>125</v>
+      </c>
+      <c s="5" t="str" r="AA35"/>
+      <c s="25" r="AB35">
+        <v>233</v>
+      </c>
+      <c s="5" t="str" r="AC35"/>
+      <c s="28" r="AD35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" ht="18" customHeight="0">
+      <c s="26" t="str" r="A36"/>
+      <c s="27" t="str" r="B36"/>
+      <c s="27" t="str" r="C36"/>
+      <c s="18" t="inlineStr" r="D36">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E36"/>
+      <c s="5" t="str" r="F36"/>
+      <c s="19" r="G36">
+        <v>7</v>
+      </c>
+      <c s="4" t="str" r="H36"/>
+      <c s="5" t="str" r="I36"/>
+      <c s="20" r="J36">
+        <v>38</v>
+      </c>
+      <c s="5" t="str" r="K36"/>
+      <c s="21" r="L36">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="M36"/>
+      <c s="22" r="N36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O36"/>
+      <c s="22" r="P36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q36"/>
+      <c s="22" r="R36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S36"/>
+      <c s="22" r="T36">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U36"/>
+      <c s="21" r="V36">
         <v>3</v>
       </c>
-      <c s="5" t="str" r="Q28"/>
-      <c s="20" r="R28">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="S28"/>
-      <c s="20" r="T28">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="U28"/>
-      <c s="21" r="V28">
-        <v>0</v>
-      </c>
-      <c s="5" t="str" r="W28"/>
-      <c s="27" r="X28">
+      <c s="5" t="str" r="W36"/>
+      <c s="28" r="X36">
         <v>106</v>
       </c>
-      <c s="5" t="str" r="Y28"/>
-      <c s="21" r="Z28">
-        <v>14</v>
-      </c>
-      <c s="5" t="str" r="AA28"/>
-      <c s="19" r="AB28">
-        <v>151</v>
-      </c>
-      <c s="5" t="str" r="AC28"/>
-      <c s="19" r="AD28">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" ht="0.05" customHeight="1"/>
+      <c s="5" t="str" r="Y36"/>
+      <c s="22" r="Z36">
+        <v>9</v>
+      </c>
+      <c s="5" t="str" r="AA36"/>
+      <c s="20" r="AB36">
+        <v>136</v>
+      </c>
+      <c s="5" t="str" r="AC36"/>
+      <c s="20" r="AD36">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">363271 Marietta</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B37"/>
+      <c s="17" t="str" r="C37"/>
+      <c s="18" t="inlineStr" r="D37">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E37"/>
+      <c s="5" t="str" r="F37"/>
+      <c s="19" r="G37">
+        <v>53</v>
+      </c>
+      <c s="4" t="str" r="H37"/>
+      <c s="5" t="str" r="I37"/>
+      <c s="22" r="J37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K37"/>
+      <c s="22" r="L37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M37"/>
+      <c s="25" r="N37">
+        <v>27</v>
+      </c>
+      <c s="5" t="str" r="O37"/>
+      <c s="21" r="P37">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="Q37"/>
+      <c s="21" r="R37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S37"/>
+      <c s="21" r="T37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U37"/>
+      <c s="22" r="V37">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W37"/>
+      <c s="28" r="X37">
+        <v>64</v>
+      </c>
+      <c s="5" t="str" r="Y37"/>
+      <c s="22" r="Z37">
+        <v>25</v>
+      </c>
+      <c s="5" t="str" r="AA37"/>
+      <c s="21" r="AB37">
+        <v>113</v>
+      </c>
+      <c s="5" t="str" r="AC37"/>
+      <c s="21" r="AD37">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" ht="18" customHeight="0">
+      <c s="23" t="str" r="A38"/>
+      <c s="18" t="inlineStr" r="D38">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E38"/>
+      <c s="5" t="str" r="F38"/>
+      <c s="19" r="G38">
+        <v>129</v>
+      </c>
+      <c s="4" t="str" r="H38"/>
+      <c s="5" t="str" r="I38"/>
+      <c s="22" r="J38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K38"/>
+      <c s="22" r="L38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M38"/>
+      <c s="28" r="N38">
+        <v>47</v>
+      </c>
+      <c s="5" t="str" r="O38"/>
+      <c s="25" r="P38">
+        <v>9</v>
+      </c>
+      <c s="5" t="str" r="Q38"/>
+      <c s="21" r="R38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S38"/>
+      <c s="21" r="T38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U38"/>
+      <c s="22" r="V38">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W38"/>
+      <c s="28" r="X38">
+        <v>82</v>
+      </c>
+      <c s="5" t="str" r="Y38"/>
+      <c s="22" r="Z38">
+        <v>147</v>
+      </c>
+      <c s="5" t="str" r="AA38"/>
+      <c s="28" r="AB38">
+        <v>270</v>
+      </c>
+      <c s="5" t="str" r="AC38"/>
+      <c s="28" r="AD38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" ht="18" customHeight="0">
+      <c s="23" t="str" r="A39"/>
+      <c s="18" t="inlineStr" r="D39">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E39"/>
+      <c s="5" t="str" r="F39"/>
+      <c s="19" r="G39">
+        <v>56</v>
+      </c>
+      <c s="4" t="str" r="H39"/>
+      <c s="5" t="str" r="I39"/>
+      <c s="22" r="J39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K39"/>
+      <c s="22" r="L39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M39"/>
+      <c s="28" r="N39">
+        <v>37</v>
+      </c>
+      <c s="5" t="str" r="O39"/>
+      <c s="21" r="P39">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="Q39"/>
+      <c s="21" r="R39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S39"/>
+      <c s="21" r="T39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U39"/>
+      <c s="22" r="V39">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W39"/>
+      <c s="28" r="X39">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="Y39"/>
+      <c s="22" r="Z39">
+        <v>35</v>
+      </c>
+      <c s="5" t="str" r="AA39"/>
+      <c s="21" r="AB39">
+        <v>148</v>
+      </c>
+      <c s="5" t="str" r="AC39"/>
+      <c s="21" r="AD39">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" ht="18" customHeight="0">
+      <c s="26" t="str" r="A40"/>
+      <c s="27" t="str" r="B40"/>
+      <c s="27" t="str" r="C40"/>
+      <c s="18" t="inlineStr" r="D40">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E40"/>
+      <c s="5" t="str" r="F40"/>
+      <c s="19" r="G40">
+        <v>13</v>
+      </c>
+      <c s="4" t="str" r="H40"/>
+      <c s="5" t="str" r="I40"/>
+      <c s="22" r="J40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="K40"/>
+      <c s="22" r="L40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="M40"/>
+      <c s="28" r="N40">
+        <v>40</v>
+      </c>
+      <c s="5" t="str" r="O40"/>
+      <c s="21" r="P40">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="Q40"/>
+      <c s="22" r="R40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S40"/>
+      <c s="22" r="T40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U40"/>
+      <c s="22" r="V40">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W40"/>
+      <c s="28" r="X40">
+        <v>59</v>
+      </c>
+      <c s="5" t="str" r="Y40"/>
+      <c s="22" r="Z40">
+        <v>11</v>
+      </c>
+      <c s="5" t="str" r="AA40"/>
+      <c s="21" r="AB40">
+        <v>111</v>
+      </c>
+      <c s="5" t="str" r="AC40"/>
+      <c s="21" r="AD40">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" ht="18" customHeight="0">
+      <c s="16" t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">364322 E-Town</t>
+        </is>
+      </c>
+      <c s="17" t="str" r="B41"/>
+      <c s="17" t="str" r="C41"/>
+      <c s="18" t="inlineStr" r="D41">
+        <is>
+          <t xml:space="preserve">Daypart 2</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E41"/>
+      <c s="5" t="str" r="F41"/>
+      <c s="19" r="G41">
+        <v>70</v>
+      </c>
+      <c s="4" t="str" r="H41"/>
+      <c s="5" t="str" r="I41"/>
+      <c s="20" r="J41">
+        <v>31</v>
+      </c>
+      <c s="5" t="str" r="K41"/>
+      <c s="21" r="L41">
+        <v>4</v>
+      </c>
+      <c s="5" t="str" r="M41"/>
+      <c s="22" r="N41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O41"/>
+      <c s="22" r="P41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q41"/>
+      <c s="22" r="R41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S41"/>
+      <c s="22" r="T41">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U41"/>
+      <c s="21" r="V41">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="W41"/>
+      <c s="28" r="X41">
+        <v>54</v>
+      </c>
+      <c s="5" t="str" r="Y41"/>
+      <c s="22" r="Z41">
+        <v>28</v>
+      </c>
+      <c s="5" t="str" r="AA41"/>
+      <c s="21" r="AB41">
+        <v>114</v>
+      </c>
+      <c s="5" t="str" r="AC41"/>
+      <c s="21" r="AD41">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="18" customHeight="0">
+      <c s="23" t="str" r="A42"/>
+      <c s="18" t="inlineStr" r="D42">
+        <is>
+          <t xml:space="preserve">Daypart 3</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E42"/>
+      <c s="5" t="str" r="F42"/>
+      <c s="19" r="G42">
+        <v>138</v>
+      </c>
+      <c s="4" t="str" r="H42"/>
+      <c s="5" t="str" r="I42"/>
+      <c s="25" r="J42">
+        <v>48</v>
+      </c>
+      <c s="5" t="str" r="K42"/>
+      <c s="21" r="L42">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="M42"/>
+      <c s="22" r="N42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O42"/>
+      <c s="22" r="P42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q42"/>
+      <c s="22" r="R42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S42"/>
+      <c s="22" r="T42">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U42"/>
+      <c s="24" r="V42">
+        <v>27</v>
+      </c>
+      <c s="5" t="str" r="W42"/>
+      <c s="28" r="X42">
+        <v>73</v>
+      </c>
+      <c s="5" t="str" r="Y42"/>
+      <c s="22" r="Z42">
+        <v>80</v>
+      </c>
+      <c s="5" t="str" r="AA42"/>
+      <c s="25" r="AB42">
+        <v>221</v>
+      </c>
+      <c s="5" t="str" r="AC42"/>
+      <c s="25" r="AD42">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" ht="18" customHeight="0">
+      <c s="23" t="str" r="A43"/>
+      <c s="18" t="inlineStr" r="D43">
+        <is>
+          <t xml:space="preserve">Daypart 4</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E43"/>
+      <c s="5" t="str" r="F43"/>
+      <c s="19" r="G43">
+        <v>59</v>
+      </c>
+      <c s="4" t="str" r="H43"/>
+      <c s="5" t="str" r="I43"/>
+      <c s="20" r="J43">
+        <v>37</v>
+      </c>
+      <c s="5" t="str" r="K43"/>
+      <c s="21" r="L43">
+        <v>3</v>
+      </c>
+      <c s="5" t="str" r="M43"/>
+      <c s="22" r="N43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O43"/>
+      <c s="22" r="P43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q43"/>
+      <c s="22" r="R43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S43"/>
+      <c s="22" r="T43">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U43"/>
+      <c s="21" r="V43">
+        <v>8</v>
+      </c>
+      <c s="5" t="str" r="W43"/>
+      <c s="28" r="X43">
+        <v>83</v>
+      </c>
+      <c s="5" t="str" r="Y43"/>
+      <c s="22" r="Z43">
+        <v>32</v>
+      </c>
+      <c s="5" t="str" r="AA43"/>
+      <c s="20" r="AB43">
+        <v>161</v>
+      </c>
+      <c s="5" t="str" r="AC43"/>
+      <c s="20" r="AD43">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" ht="18" customHeight="0">
+      <c s="26" t="str" r="A44"/>
+      <c s="27" t="str" r="B44"/>
+      <c s="27" t="str" r="C44"/>
+      <c s="18" t="inlineStr" r="D44">
+        <is>
+          <t xml:space="preserve">Daypart 5</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="E44"/>
+      <c s="5" t="str" r="F44"/>
+      <c s="19" r="G44">
+        <v>10</v>
+      </c>
+      <c s="4" t="str" r="H44"/>
+      <c s="5" t="str" r="I44"/>
+      <c s="24" r="J44">
+        <v>56</v>
+      </c>
+      <c s="5" t="str" r="K44"/>
+      <c s="20" r="L44">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="M44"/>
+      <c s="22" r="N44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="O44"/>
+      <c s="22" r="P44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="Q44"/>
+      <c s="22" r="R44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="S44"/>
+      <c s="22" r="T44">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="U44"/>
+      <c s="21" r="V44">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="W44"/>
+      <c s="28" r="X44">
+        <v>129</v>
+      </c>
+      <c s="5" t="str" r="Y44"/>
+      <c s="22" r="Z44">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="AA44"/>
+      <c s="20" r="AB44">
+        <v>178</v>
+      </c>
+      <c s="5" t="str" r="AC44"/>
+      <c s="20" r="AD44">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
@@ -1937,44 +2886,40 @@
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:K15"/>
@@ -1987,6 +2932,7 @@
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="A16:C19"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1999,7 +2945,6 @@
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="Z16:AA16"/>
     <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="A17:C20"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
@@ -2036,6 +2981,7 @@
     <mergeCell ref="X19:Y19"/>
     <mergeCell ref="Z19:AA19"/>
     <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="A20:C24"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:K20"/>
@@ -2048,7 +2994,6 @@
     <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="A21:C24"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
@@ -2146,11 +3091,207 @@
     <mergeCell ref="X28:Y28"/>
     <mergeCell ref="Z28:AA28"/>
     <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="A29:C32"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="A33:C36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="A37:C40"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="A41:C44"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 12/20/2025 12:32:20 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/2/2026 12:23:08 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,26 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B04C"/>
         <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,7 +327,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
@@ -336,10 +336,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/01/2026</t>
+          <t xml:space="preserve">Day: 01/02/2026</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>222</v>
+        <v>437</v>
       </c>
       <c s="8" r="F7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="9" r="H7">
-        <v>4</v>
-      </c>
-      <c s="10" r="I7">
+      <c s="8" r="H7">
+        <v>5</v>
+      </c>
+      <c s="9" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="10" r="K7">
+      <c s="9" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="10" r="M7">
+      <c s="9" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
+      <c s="9" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="10" r="Q7">
+      <c s="9" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>69</v>
+      <c s="10" r="S7">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>38</v>
+      <c s="9" r="U7">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>138</v>
+      <c s="10" r="W7">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>68</v>
+      <c s="11" r="Y7">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>360</v>
+        <v>581</v>
       </c>
       <c s="12" r="F8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
-        <v>3</v>
-      </c>
-      <c s="10" r="I8">
+      <c s="11" r="H8">
+        <v>2</v>
+      </c>
+      <c s="9" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="10" r="K8">
+      <c s="9" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="10" r="M8">
+      <c s="9" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
+      <c s="9" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="10" r="Q8">
+      <c s="9" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>63</v>
+      <c s="13" r="S8">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>66</v>
+      <c s="9" r="U8">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="11" r="W8">
-        <v>169</v>
+      <c s="8" r="W8">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="11" r="Y8">
-        <v>169</v>
+      <c s="8" r="Y8">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>326</v>
-      </c>
-      <c s="12" r="F9">
-        <v>48</v>
+        <v>491</v>
+      </c>
+      <c s="13" r="F9">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="11" r="H9">
-        <v>8</v>
-      </c>
-      <c s="10" r="I9">
+      <c s="8" r="H9">
+        <v>5</v>
+      </c>
+      <c s="9" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="10" r="K9">
+      <c s="9" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="10" r="M9">
+      <c s="9" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
+      <c s="9" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="10" r="Q9">
+      <c s="9" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>77</v>
+      <c s="13" r="S9">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
-        <v>67</v>
+      <c s="9" r="U9">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="13" r="W9">
-        <v>192</v>
+      <c s="10" r="W9">
+        <v>175</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="13" r="Y9">
-        <v>192</v>
+      <c s="10" r="Y9">
+        <v>175</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>246</v>
-      </c>
-      <c s="12" r="F10">
-        <v>46</v>
+        <v>444</v>
+      </c>
+      <c s="13" r="F10">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="8" r="H10">
         <v>5</v>
       </c>
-      <c s="10" r="I10">
+      <c s="9" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="10" r="K10">
+      <c s="9" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="10" r="M10">
+      <c s="9" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
+      <c s="9" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="10" r="Q10">
+      <c s="9" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>82</v>
+      <c s="13" r="S10">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>90</v>
+      <c s="9" r="U10">
+        <v>93</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="12" r="W10">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="12" r="Y10">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>172</v>
-      </c>
-      <c s="11" r="F11">
-        <v>45</v>
+        <v>237</v>
+      </c>
+      <c s="10" r="F11">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="9" r="H11">
-        <v>4</v>
-      </c>
-      <c s="10" r="I11">
+      <c s="11" r="H11">
+        <v>3</v>
+      </c>
+      <c s="9" r="I11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="10" r="K11">
+      <c s="9" r="K11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="10" r="M11">
+      <c s="9" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="10" r="O11">
+      <c s="9" r="O11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="11" r="Q11">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>96</v>
+      <c s="13" r="S11">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>62</v>
+      <c s="9" r="U11">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="8" r="W11">
-        <v>160</v>
+      <c s="11" r="W11">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="11" r="Y11">
-        <v>223</v>
+      <c s="8" r="Y11">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>251</v>
-      </c>
-      <c s="10" r="F12">
+        <v>394</v>
+      </c>
+      <c s="9" r="F12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="10" r="H12">
-        <v>0</v>
-      </c>
-      <c s="12" r="I12">
-        <v>40</v>
+      <c s="9" r="H12">
+        <v>0</v>
+      </c>
+      <c s="13" r="I12">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="8" r="K12">
-        <v>6</v>
+      <c s="11" r="K12">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="9" r="M12">
+      <c s="11" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="9" r="O12">
+      <c s="11" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="10" r="Q12">
+      <c s="9" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>77</v>
+      <c s="13" r="S12">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>89</v>
+      <c s="9" r="U12">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="V12"/>
       <c s="12" r="W12">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c s="5" t="str" r="X12"/>
       <c s="12" r="Y12">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,41 +952,41 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>277</v>
-      </c>
-      <c s="11" r="F13">
-        <v>41</v>
+        <v>460</v>
+      </c>
+      <c s="8" r="F13">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="9" r="H13">
+      <c s="11" r="H13">
         <v>3</v>
       </c>
-      <c s="10" r="I13">
+      <c s="9" r="I13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J13"/>
-      <c s="10" r="K13">
+      <c s="9" r="K13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="10" r="M13">
+      <c s="9" r="M13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="10" r="O13">
+      <c s="9" r="O13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
       <c s="8" r="Q13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="12" r="S13">
-        <v>73</v>
+      <c s="13" r="S13">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="T13"/>
-      <c s="10" r="U13">
-        <v>54</v>
+      <c s="9" r="U13">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="V13"/>
       <c s="8" r="W13">
@@ -1103,12 +1103,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
@@ -1136,19 +1136,19 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="20" r="L17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1193,20 +1193,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="20" r="X17">
-        <v>59</v>
+      <c s="24" r="X17">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="21" r="AB17">
-        <v>137</v>
+      <c s="24" r="AB17">
+        <v>188</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>68</v>
+      <c s="20" r="AD17">
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,16 +1219,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1251,20 +1251,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="24" r="X18">
-        <v>110</v>
+      <c s="25" r="X18">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="25" r="AB18">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="20" r="AD18">
-        <v>93</v>
+      <c s="24" r="AD18">
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1279,16 +1279,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="20" r="J19">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1311,20 +1311,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="28" r="X19">
-        <v>124</v>
+      <c s="25" r="X19">
+        <v>116</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="25" r="AB19">
-        <v>158</v>
+      <c s="24" r="AB19">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,16 +1343,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="21" r="J20">
-        <v>16</v>
+      <c s="28" r="J20">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="20" r="L20">
-        <v>6</v>
+      <c s="21" r="L20">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1376,19 +1376,19 @@
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="28" r="X20">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>136</v>
+      <c s="25" r="AB20">
+        <v>185</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>136</v>
+      <c s="25" r="AD20">
+        <v>185</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,16 +1401,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
-        <v>36</v>
+      <c s="24" r="J21">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="20" r="L21">
-        <v>5</v>
+      <c s="21" r="L21">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1434,19 +1434,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="28" r="X21">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="20" r="AB21">
-        <v>162</v>
+      <c s="21" r="AB21">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="20" r="AD21">
-        <v>162</v>
+      <c s="21" r="AD21">
+        <v>139</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="28" r="J22">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1492,19 +1492,19 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="25" r="AB22">
-        <v>179</v>
+      <c s="24" r="AB22">
+        <v>175</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="25" r="AD22">
-        <v>179</v>
+      <c s="24" r="AD22">
+        <v>175</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>38</v>
+      <c s="25" r="J23">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1550,19 +1550,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA23"/>
       <c s="20" r="AB23">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c s="5" t="str" r="AC23"/>
       <c s="20" r="AD23">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1577,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="24" r="J24">
-        <v>30</v>
+      <c s="28" r="J24">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="21" r="L24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1610,19 +1610,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="21" r="AB24">
-        <v>110</v>
+      <c s="20" r="AB24">
+        <v>151</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="21" r="AD24">
-        <v>110</v>
+      <c s="20" r="AD24">
+        <v>151</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,12 +1641,12 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="24" r="J25">
-        <v>31</v>
+      <c s="25" r="J25">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
@@ -1674,19 +1674,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="28" r="X25">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="21" r="AB25">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="21" r="AD25">
-        <v>111</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,7 +1699,7 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
@@ -1707,8 +1707,8 @@
         <v>49</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="25" r="L26">
-        <v>7</v>
+      <c s="24" r="L26">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1732,19 +1732,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="24" r="AB26">
-        <v>182</v>
+      <c s="25" r="AB26">
+        <v>193</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="24" r="AD26">
-        <v>182</v>
+      <c s="25" r="AD26">
+        <v>193</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="28" r="L27">
-        <v>13</v>
+      <c s="20" r="L27">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1790,19 +1790,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c s="5" t="str" r="AA27"/>
       <c s="28" r="AB27">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c s="5" t="str" r="AC27"/>
       <c s="28" r="AD27">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="24" r="L28">
-        <v>10</v>
+      <c s="21" r="L28">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1850,19 +1850,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="AA28"/>
       <c s="28" r="AB28">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c s="5" t="str" r="AC28"/>
       <c s="28" r="AD28">
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,16 +1881,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="25" r="J29">
-        <v>25</v>
+      <c s="24" r="J29">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1914,19 +1914,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="21" r="AB29">
-        <v>131</v>
+      <c s="20" r="AB29">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="21" r="AD29">
-        <v>131</v>
+      <c s="20" r="AD29">
+        <v>164</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,12 +1939,12 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K30"/>
       <c s="20" r="L30">
@@ -1972,19 +1972,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AA30"/>
       <c s="28" r="AB30">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c s="5" t="str" r="AC30"/>
       <c s="28" r="AD30">
-        <v>274</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,16 +1997,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="21" r="L31">
-        <v>4</v>
+      <c s="28" r="L31">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2030,19 +2030,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2057,16 +2057,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
       <c s="28" r="J32">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="21" r="L32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2090,19 +2090,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="25" r="AB32">
-        <v>174</v>
+      <c s="28" r="AB32">
+        <v>254</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="25" r="AD32">
-        <v>174</v>
+      <c s="28" r="AD32">
+        <v>254</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,12 +2121,12 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
       <c s="20" r="J33">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
@@ -2150,23 +2150,23 @@
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="21" r="V33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="20" r="AD33">
-        <v>139</v>
+      <c s="21" r="AD33">
+        <v>115</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,16 +2179,16 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="25" r="J34">
-        <v>48</v>
+      <c s="24" r="J34">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="22" r="N34">
@@ -2207,24 +2207,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="20" r="V34">
-        <v>18</v>
+      <c s="21" r="V34">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA34"/>
       <c s="20" r="AB34">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="25" r="AD34">
-        <v>193</v>
+      <c s="20" r="AD34">
+        <v>173</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,16 +2237,16 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="25" r="J35">
-        <v>47</v>
+      <c s="28" r="J35">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="20" r="L35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="22" r="N35">
@@ -2265,24 +2265,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="28" r="V35">
-        <v>43</v>
+      <c s="21" r="V35">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="25" r="AB35">
-        <v>233</v>
+      <c s="20" r="AB35">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="28" r="AD35">
-        <v>358</v>
+      <c s="24" r="AD35">
+        <v>202</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2297,16 +2297,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="20" r="J36">
-        <v>38</v>
+      <c s="28" r="J36">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
-        <v>2</v>
+      <c s="20" r="L36">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2326,23 +2326,23 @@
       </c>
       <c s="5" t="str" r="U36"/>
       <c s="21" r="V36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="20" r="AB36">
-        <v>136</v>
+      <c s="24" r="AB36">
+        <v>220</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="20" r="AD36">
-        <v>146</v>
+      <c s="25" r="AD36">
+        <v>258</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2374,18 +2374,18 @@
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="25" r="N37">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
+      <c s="22" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="21" r="T37">
+      <c s="22" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
@@ -2394,19 +2394,19 @@
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="21" r="AB37">
-        <v>113</v>
+      <c s="24" r="AB37">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="21" r="AD37">
-        <v>114</v>
+      <c s="24" r="AD37">
+        <v>174</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2432,11 +2432,11 @@
       </c>
       <c s="5" t="str" r="M38"/>
       <c s="28" r="N38">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="25" r="P38">
-        <v>9</v>
+      <c s="21" r="P38">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
       <c s="21" r="R38">
@@ -2452,19 +2452,19 @@
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c s="5" t="str" r="AA38"/>
       <c s="28" r="AB38">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c s="5" t="str" r="AC38"/>
       <c s="28" r="AD38">
-        <v>270</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2490,11 +2490,11 @@
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="28" r="N39">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q39"/>
       <c s="21" r="R39">
@@ -2510,19 +2510,19 @@
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>148</v>
+      <c s="24" r="AB39">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>149</v>
+      <c s="24" r="AD39">
+        <v>167</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,19 +2549,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="28" r="N40">
-        <v>40</v>
+      <c s="24" r="N40">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="22" r="R40">
+      <c s="21" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="22" r="T40">
+      <c s="21" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
@@ -2570,19 +2570,19 @@
       </c>
       <c s="5" t="str" r="W40"/>
       <c s="28" r="X40">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA40"/>
       <c s="21" r="AB40">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c s="5" t="str" r="AC40"/>
       <c s="21" r="AD40">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,16 +2601,16 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
       <c s="20" r="J41">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2630,23 +2630,23 @@
       </c>
       <c s="5" t="str" r="U41"/>
       <c s="21" r="V41">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="W41"/>
       <c s="28" r="X41">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA41"/>
       <c s="21" r="AB41">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC41"/>
       <c s="21" r="AD41">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,16 +2659,16 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="25" r="J42">
-        <v>48</v>
+      <c s="24" r="J42">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M42"/>
       <c s="22" r="N42">
@@ -2688,23 +2688,23 @@
       </c>
       <c s="5" t="str" r="U42"/>
       <c s="24" r="V42">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="W42"/>
       <c s="28" r="X42">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="25" r="AB42">
-        <v>221</v>
+      <c s="24" r="AB42">
+        <v>196</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="25" r="AD42">
-        <v>221</v>
+      <c s="24" r="AD42">
+        <v>196</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2717,16 +2717,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="20" r="J43">
-        <v>37</v>
+      <c s="24" r="J43">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K43"/>
-      <c s="21" r="L43">
-        <v>3</v>
+      <c s="20" r="L43">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2745,24 +2745,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="21" r="V43">
-        <v>8</v>
+      <c s="24" r="V43">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="W43"/>
       <c s="28" r="X43">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="20" r="AB43">
-        <v>161</v>
+      <c s="24" r="AB43">
+        <v>208</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="20" r="AD43">
-        <v>161</v>
+      <c s="24" r="AD43">
+        <v>208</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
@@ -2777,12 +2777,12 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="24" r="J44">
-        <v>56</v>
+      <c s="25" r="J44">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="K44"/>
       <c s="20" r="L44">
@@ -2806,23 +2806,23 @@
       </c>
       <c s="5" t="str" r="U44"/>
       <c s="21" r="V44">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="W44"/>
       <c s="28" r="X44">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="20" r="AB44">
-        <v>178</v>
+      <c s="25" r="AB44">
+        <v>267</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="20" r="AD44">
-        <v>178</v>
+      <c s="25" r="AD44">
+        <v>267</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/2/2026 12:23:08 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/3/2026 12:32:49 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,14 +146,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,7 +327,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
@@ -339,7 +339,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,8 +375,8 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/02/2026</t>
+          <t xml:space="preserve">Day: 01/03/2026</t>
         </is>
       </c>
     </row>
@@ -616,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c s="8" r="F7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="8" r="H7">
-        <v>5</v>
-      </c>
-      <c s="9" r="I7">
+      <c s="9" r="H7">
+        <v>10</v>
+      </c>
+      <c s="10" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="9" r="K7">
+      <c s="10" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="9" r="M7">
+      <c s="10" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="9" r="O7">
+      <c s="10" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="9" r="Q7">
+      <c s="10" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="10" r="S7">
-        <v>67</v>
+      <c s="9" r="S7">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>63</v>
+      <c s="10" r="U7">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="10" r="W7">
-        <v>170</v>
+      <c s="9" r="W7">
+        <v>202</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="11" r="Y7">
-        <v>84</v>
+      <c s="8" r="Y7">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>581</v>
-      </c>
-      <c s="12" r="F8">
-        <v>33</v>
+        <v>513</v>
+      </c>
+      <c s="11" r="F8">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="11" r="H8">
+      <c s="12" r="H8">
         <v>2</v>
       </c>
-      <c s="9" r="I8">
+      <c s="10" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="9" r="K8">
+      <c s="10" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="9" r="M8">
+      <c s="10" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="9" r="O8">
+      <c s="10" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="9" r="Q8">
+      <c s="10" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="13" r="S8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>67</v>
+      <c s="10" r="U8">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="8" r="W8">
-        <v>155</v>
+      <c s="12" r="W8">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="8" r="Y8">
-        <v>155</v>
+      <c s="12" r="Y8">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c s="13" r="F9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="8" r="H9">
-        <v>5</v>
-      </c>
-      <c s="9" r="I9">
+      <c s="9" r="H9">
+        <v>7</v>
+      </c>
+      <c s="10" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="9" r="K9">
+      <c s="10" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="9" r="M9">
+      <c s="10" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="9" r="O9">
+      <c s="10" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="9" r="Q9">
+      <c s="10" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="13" r="S9">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="9" r="U9">
-        <v>74</v>
+      <c s="10" r="U9">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="10" r="W9">
-        <v>175</v>
+      <c s="11" r="W9">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="10" r="Y9">
-        <v>175</v>
+      <c s="11" r="Y9">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c s="13" r="F10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="8" r="H10">
         <v>5</v>
       </c>
-      <c s="9" r="I10">
+      <c s="10" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="9" r="K10">
+      <c s="10" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="9" r="M10">
+      <c s="10" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="9" r="O10">
+      <c s="10" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="9" r="Q10">
+      <c s="10" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="13" r="S10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="9" r="U10">
-        <v>93</v>
+      <c s="10" r="U10">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="12" r="W10">
-        <v>191</v>
+      <c s="11" r="W10">
+        <v>181</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="12" r="Y10">
-        <v>191</v>
+      <c s="11" r="Y10">
+        <v>181</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>237</v>
-      </c>
-      <c s="10" r="F11">
-        <v>43</v>
+        <v>233</v>
+      </c>
+      <c s="8" r="F11">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="11" r="H11">
-        <v>3</v>
-      </c>
-      <c s="9" r="I11">
+      <c s="12" r="H11">
+        <v>2</v>
+      </c>
+      <c s="10" r="I11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
+      <c s="10" r="K11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
+      <c s="10" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="9" r="O11">
+      <c s="10" r="O11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="11" r="Q11">
-        <v>9</v>
+      <c s="12" r="Q11">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="13" r="S11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="9" r="U11">
-        <v>35</v>
+      <c s="10" r="U11">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="11" r="W11">
-        <v>119</v>
+      <c s="12" r="W11">
+        <v>117</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>394</v>
-      </c>
-      <c s="9" r="F12">
+        <v>332</v>
+      </c>
+      <c s="10" r="F12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="9" r="H12">
-        <v>0</v>
-      </c>
-      <c s="13" r="I12">
-        <v>38</v>
+      <c s="10" r="H12">
+        <v>0</v>
+      </c>
+      <c s="11" r="I12">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="11" r="K12">
+      <c s="12" r="K12">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="11" r="M12">
+      <c s="12" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="11" r="O12">
+      <c s="12" r="O12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="9" r="Q12">
+      <c s="10" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="13" r="S12">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="9" r="U12">
-        <v>76</v>
+      <c s="10" r="U12">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="12" r="W12">
-        <v>180</v>
+      <c s="11" r="W12">
+        <v>192</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="12" r="Y12">
-        <v>181</v>
+      <c s="11" r="Y12">
+        <v>192</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,49 +952,49 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c s="8" r="F13">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="11" r="H13">
-        <v>3</v>
-      </c>
-      <c s="9" r="I13">
+      <c s="12" r="H13">
+        <v>2</v>
+      </c>
+      <c s="10" r="I13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J13"/>
-      <c s="9" r="K13">
+      <c s="10" r="K13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="9" r="M13">
+      <c s="10" r="M13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="9" r="O13">
+      <c s="10" r="O13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="8" r="Q13">
-        <v>18</v>
+      <c s="12" r="Q13">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="R13"/>
       <c s="13" r="S13">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T13"/>
-      <c s="9" r="U13">
-        <v>59</v>
+      <c s="10" r="U13">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="V13"/>
       <c s="8" r="W13">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c s="5" t="str" r="X13"/>
       <c s="8" r="Y13">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,12 +1103,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
@@ -1136,19 +1136,19 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="20" r="L17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1194,19 +1194,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="24" r="AB17">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="20" r="AD17">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,16 +1219,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="20" r="J18">
-        <v>37</v>
+      <c s="24" r="J18">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
-        <v>3</v>
+      <c s="25" r="L18">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1252,19 +1252,19 @@
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="25" r="X18">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="25" r="AB18">
-        <v>304</v>
+      <c s="24" r="AB18">
+        <v>297</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="24" r="AD18">
-        <v>152</v>
+      <c s="20" r="AD18">
+        <v>148</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1279,16 +1279,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
-        <v>30</v>
+      <c s="24" r="J19">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>3</v>
+      <c s="25" r="L19">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1312,19 +1312,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="25" r="X19">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="24" r="AB19">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>81</v>
+      <c s="20" r="AD19">
+        <v>117</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,12 +1343,12 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="28" r="J20">
-        <v>58</v>
+      <c s="21" r="J20">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
@@ -1375,20 +1375,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>116</v>
+      <c s="25" r="X20">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="25" r="AB20">
-        <v>185</v>
+      <c s="21" r="AB20">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="25" r="AD20">
-        <v>185</v>
+      <c s="21" r="AD20">
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,12 +1401,12 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="24" r="J21">
-        <v>29</v>
+      <c s="28" r="J21">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
@@ -1433,20 +1433,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="28" r="X21">
-        <v>45</v>
+      <c s="25" r="X21">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
       <c s="28" r="J22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1491,20 +1491,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>55</v>
+      <c s="25" r="X22">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="24" r="AB22">
-        <v>175</v>
+      <c s="21" r="AB22">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="24" r="AD22">
-        <v>175</v>
+      <c s="21" r="AD22">
+        <v>148</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="25" r="J23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1549,20 +1549,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>76</v>
+      <c s="25" r="X23">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>158</v>
+      <c s="24" r="AB23">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>158</v>
+      <c s="24" r="AD23">
+        <v>169</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1577,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="21" r="L24">
-        <v>4</v>
+      <c s="24" r="L24">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1609,20 +1609,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>81</v>
+      <c s="25" r="X24">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="20" r="AB24">
-        <v>151</v>
+      <c s="21" r="AB24">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="20" r="AD24">
-        <v>151</v>
+      <c s="21" r="AD24">
+        <v>114</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,16 +1641,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="25" r="J25">
-        <v>33</v>
+      <c s="20" r="J25">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1673,20 +1673,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>47</v>
+      <c s="25" r="X25">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="21" r="AB25">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="21" r="AD25">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="28" r="J26">
-        <v>49</v>
+      <c s="25" r="J26">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="24" r="L26">
-        <v>8</v>
+      <c s="28" r="L26">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1731,20 +1731,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>62</v>
+      <c s="25" r="X26">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="25" r="AB26">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="25" r="AD26">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>46</v>
+      <c s="25" r="J27">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="20" r="L27">
-        <v>5</v>
+      <c s="24" r="L27">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1789,20 +1789,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>90</v>
+      <c s="25" r="X27">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>221</v>
+      <c s="25" r="AB27">
+        <v>252</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>221</v>
+      <c s="25" r="AD27">
+        <v>252</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>55</v>
+      <c s="25" r="J28">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>4</v>
+      <c s="28" r="L28">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1849,20 +1849,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>115</v>
+      <c s="25" r="X28">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="28" r="AB28">
-        <v>242</v>
+      <c s="25" r="AB28">
+        <v>195</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="28" r="AD28">
-        <v>242</v>
+      <c s="25" r="AD28">
+        <v>195</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,16 +1881,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="24" r="J29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1913,20 +1913,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="28" r="X29">
-        <v>47</v>
+      <c s="25" r="X29">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="20" r="AB29">
-        <v>164</v>
+      <c s="21" r="AB29">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="20" r="AD29">
-        <v>164</v>
+      <c s="21" r="AD29">
+        <v>134</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>37</v>
+      <c s="25" r="J30">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K30"/>
       <c s="20" r="L30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1971,20 +1971,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>68</v>
+      <c s="25" r="X30">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="28" r="AB30">
-        <v>214</v>
+      <c s="25" r="AB30">
+        <v>223</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="28" r="AD30">
-        <v>214</v>
+      <c s="25" r="AD30">
+        <v>223</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,15 +1997,15 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>62</v>
+      <c s="25" r="J31">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="28" r="L31">
+      <c s="25" r="L31">
         <v>12</v>
       </c>
       <c s="5" t="str" r="M31"/>
@@ -2029,20 +2029,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>79</v>
+      <c s="25" r="X31">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>217</v>
+      <c s="25" r="AB31">
+        <v>203</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>217</v>
+      <c s="25" r="AD31">
+        <v>203</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2057,16 +2057,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="28" r="J32">
-        <v>79</v>
+      <c s="25" r="J32">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="21" r="L32">
-        <v>2</v>
+      <c s="20" r="L32">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2089,20 +2089,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>166</v>
+      <c s="25" r="X32">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="28" r="AB32">
-        <v>254</v>
+      <c s="21" r="AB32">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="28" r="AD32">
-        <v>254</v>
+      <c s="21" r="AD32">
+        <v>136</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,7 +2121,7 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
@@ -2130,7 +2130,7 @@
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="22" r="N33">
@@ -2150,23 +2150,23 @@
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="21" r="V33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>48</v>
+      <c s="25" r="X33">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="21" r="AD33">
-        <v>115</v>
+      <c s="20" r="AD33">
+        <v>128</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,16 +2179,16 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
       <c s="24" r="J34">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="22" r="N34">
@@ -2207,24 +2207,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
-        <v>11</v>
+      <c s="20" r="V34">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>72</v>
+      <c s="25" r="X34">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA34"/>
       <c s="20" r="AB34">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>173</v>
+      <c s="24" r="AD34">
+        <v>188</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,16 +2237,16 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="28" r="J35">
-        <v>60</v>
+      <c s="24" r="J35">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="20" r="L35">
-        <v>6</v>
+      <c s="21" r="L35">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="22" r="N35">
@@ -2266,23 +2266,23 @@
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="21" r="V35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>95</v>
+      <c s="25" r="X35">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA35"/>
       <c s="20" r="AB35">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="24" r="AD35">
-        <v>202</v>
+      <c s="20" r="AD35">
+        <v>167</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2297,16 +2297,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="28" r="J36">
-        <v>67</v>
+      <c s="20" r="J36">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
-        <v>6</v>
+      <c s="24" r="L36">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2326,23 +2326,23 @@
       </c>
       <c s="5" t="str" r="U36"/>
       <c s="21" r="V36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>149</v>
+      <c s="25" r="X36">
+        <v>115</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="24" r="AB36">
-        <v>220</v>
+      <c s="20" r="AB36">
+        <v>151</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="25" r="AD36">
-        <v>258</v>
+      <c s="20" r="AD36">
+        <v>162</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2373,8 +2373,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="25" r="N37">
-        <v>34</v>
+      <c s="28" r="N37">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
@@ -2393,20 +2393,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>58</v>
+      <c s="25" r="X37">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="24" r="AB37">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="24" r="AD37">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2431,12 +2431,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="28" r="N38">
-        <v>41</v>
+      <c s="25" r="N38">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q38"/>
       <c s="21" r="R38">
@@ -2451,20 +2451,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>74</v>
+      <c s="25" r="X38">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="28" r="AB38">
-        <v>205</v>
+      <c s="25" r="AB38">
+        <v>233</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="28" r="AD38">
-        <v>207</v>
+      <c s="25" r="AD38">
+        <v>234</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2490,18 +2490,18 @@
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="28" r="N39">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
+      <c s="22" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
+      <c s="22" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
@@ -2509,20 +2509,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>82</v>
+      <c s="25" r="X39">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="24" r="AB39">
-        <v>167</v>
+      <c s="20" r="AB39">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="24" r="AD39">
-        <v>167</v>
+      <c s="20" r="AD39">
+        <v>159</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,19 +2549,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="24" r="N40">
-        <v>29</v>
+      <c s="28" r="N40">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="21" r="R40">
+      <c s="22" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="21" r="T40">
+      <c s="22" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
@@ -2569,20 +2569,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="28" r="X40">
-        <v>87</v>
+      <c s="25" r="X40">
+        <v>94</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA40"/>
       <c s="21" r="AB40">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c s="5" t="str" r="AC40"/>
       <c s="21" r="AD40">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,16 +2601,16 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
       <c s="20" r="J41">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2630,23 +2630,23 @@
       </c>
       <c s="5" t="str" r="U41"/>
       <c s="21" r="V41">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="28" r="X41">
-        <v>48</v>
+      <c s="25" r="X41">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA41"/>
       <c s="21" r="AB41">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c s="5" t="str" r="AC41"/>
       <c s="21" r="AD41">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,12 +2659,12 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="24" r="J42">
-        <v>41</v>
+      <c s="20" r="J42">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
@@ -2688,23 +2688,23 @@
       </c>
       <c s="5" t="str" r="U42"/>
       <c s="24" r="V42">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="28" r="X42">
-        <v>64</v>
+      <c s="25" r="X42">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="AA42"/>
       <c s="24" r="AB42">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c s="5" t="str" r="AC42"/>
       <c s="24" r="AD42">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2717,16 +2717,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="24" r="J43">
-        <v>44</v>
+      <c s="20" r="J43">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K43"/>
-      <c s="20" r="L43">
-        <v>8</v>
+      <c s="21" r="L43">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2745,24 +2745,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="24" r="V43">
-        <v>22</v>
+      <c s="21" r="V43">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="28" r="X43">
-        <v>90</v>
+      <c s="25" r="X43">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="24" r="AB43">
-        <v>208</v>
+      <c s="21" r="AB43">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="24" r="AD43">
-        <v>208</v>
+      <c s="21" r="AD43">
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
@@ -2777,16 +2777,16 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="25" r="J44">
-        <v>57</v>
+      <c s="21" r="J44">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K44"/>
-      <c s="20" r="L44">
-        <v>6</v>
+      <c s="21" r="L44">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2806,23 +2806,23 @@
       </c>
       <c s="5" t="str" r="U44"/>
       <c s="21" r="V44">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="28" r="X44">
-        <v>142</v>
+      <c s="25" r="X44">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="25" r="AB44">
-        <v>267</v>
+      <c s="21" r="AB44">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="25" r="AD44">
-        <v>267</v>
+      <c s="21" r="AD44">
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/3/2026 12:32:49 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/4/2026 12:36:57 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,26 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE35454"/>
         <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -327,7 +327,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
@@ -336,10 +336,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +345,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -374,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/03/2026</t>
+          <t xml:space="preserve">Day: 01/05/2026</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c s="8" r="F7">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -645,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="9" r="S7">
-        <v>80</v>
+      <c s="11" r="S7">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="8" r="Y7">
-        <v>100</v>
+      <c s="9" r="Y7">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c s="11" r="F8">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="12" r="H8">
-        <v>2</v>
+      <c s="9" r="H8">
+        <v>4</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="13" r="S8">
+      <c s="12" r="S8">
         <v>54</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="12" r="W8">
-        <v>146</v>
+      <c s="9" r="W8">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="12" r="Y8">
-        <v>146</v>
+      <c s="9" r="Y8">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>403</v>
-      </c>
-      <c s="13" r="F9">
-        <v>39</v>
+        <v>407</v>
+      </c>
+      <c s="11" r="F9">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="9" r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -757,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="13" r="S9">
-        <v>72</v>
+      <c s="12" r="S9">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="11" r="W9">
-        <v>182</v>
+      <c s="9" r="W9">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="11" r="Y9">
-        <v>182</v>
+      <c s="9" r="Y9">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c s="13" r="F10">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="8" r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="13" r="S10">
-        <v>67</v>
+      <c s="12" r="S10">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>181</v>
+      <c s="9" r="W10">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>181</v>
+      <c s="9" r="Y10">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,13 +840,13 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c s="8" r="F11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="12" r="H11">
+      <c s="9" r="H11">
         <v>2</v>
       </c>
       <c s="10" r="I11">
@@ -865,24 +865,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="12" r="Q11">
-        <v>11</v>
+      <c s="9" r="Q11">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="13" r="S11">
-        <v>69</v>
+      <c s="12" r="S11">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="12" r="W11">
-        <v>117</v>
+      <c s="9" r="W11">
+        <v>104</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,7 +896,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,40 +905,40 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="11" r="I12">
-        <v>34</v>
+      <c s="12" r="I12">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="12" r="K12">
-        <v>3</v>
+      <c s="9" r="K12">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="12" r="M12">
+      <c s="9" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="12" r="O12">
-        <v>0</v>
+      <c s="9" r="O12">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="13" r="S12">
-        <v>72</v>
+      <c s="12" r="S12">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>192</v>
+      <c s="12" r="W12">
+        <v>214</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>192</v>
+      <c s="12" r="Y12">
+        <v>214</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,14 +952,14 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c s="8" r="F13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="12" r="H13">
-        <v>2</v>
+      <c s="9" r="H13">
+        <v>3</v>
       </c>
       <c s="10" r="I13">
         <v>0</v>
@@ -977,24 +977,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="12" r="Q13">
-        <v>14</v>
+      <c s="9" r="Q13">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="13" r="S13">
-        <v>56</v>
+      <c s="12" r="S13">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="8" r="W13">
-        <v>155</v>
+      <c s="9" r="W13">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="8" r="Y13">
-        <v>155</v>
+      <c s="9" r="Y13">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,16 +1103,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1136,15 +1136,15 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>9</v>
+      <c s="21" r="L17">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1194,19 +1194,19 @@
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="24" r="AB17">
-        <v>206</v>
+      <c s="21" r="AB17">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>102</v>
+      <c s="21" r="AD17">
+        <v>73</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,16 +1219,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="24" r="J18">
-        <v>61</v>
+      <c s="20" r="J18">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="25" r="L18">
-        <v>20</v>
+      <c s="21" r="L18">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1251,26 +1251,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="25" r="X18">
-        <v>128</v>
+      <c s="24" r="X18">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="24" r="AB18">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="20" r="AD18">
-        <v>148</v>
+      <c s="21" r="AD18">
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="26" t="str" r="A19"/>
-      <c s="27" t="str" r="B19"/>
-      <c s="27" t="str" r="C19"/>
+      <c s="25" t="str" r="A19"/>
+      <c s="26" t="str" r="B19"/>
+      <c s="26" t="str" r="C19"/>
       <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1279,16 +1279,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="24" r="J19">
-        <v>66</v>
+      <c s="20" r="J19">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="25" r="L19">
-        <v>21</v>
+      <c s="21" r="L19">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1311,20 +1311,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="25" r="X19">
-        <v>160</v>
+      <c s="27" r="X19">
+        <v>106</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="24" r="AB19">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>117</v>
+      <c s="21" r="AD19">
+        <v>75</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,16 +1343,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
       <c s="21" r="J20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1375,20 +1375,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="25" r="X20">
-        <v>58</v>
+      <c s="28" r="X20">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,16 +1401,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="28" r="J21">
-        <v>31</v>
+      <c s="24" r="J21">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1433,20 +1433,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="25" r="X21">
-        <v>50</v>
+      <c s="27" r="X21">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
-        <v>34</v>
+      <c s="27" r="J22">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1491,20 +1491,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="25" r="X22">
-        <v>47</v>
+      <c s="28" r="X22">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>148</v>
+      <c s="24" r="AB22">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>148</v>
+      <c s="24" r="AD22">
+        <v>166</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="25" r="J23">
-        <v>39</v>
+      <c s="24" r="J23">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1549,26 +1549,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="25" r="X23">
-        <v>73</v>
+      <c s="28" r="X23">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="24" r="AB23">
-        <v>169</v>
+      <c s="21" r="AB23">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="24" r="AD23">
-        <v>169</v>
+      <c s="21" r="AD23">
+        <v>136</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="26" t="str" r="A24"/>
-      <c s="27" t="str" r="B24"/>
-      <c s="27" t="str" r="C24"/>
+      <c s="25" t="str" r="A24"/>
+      <c s="26" t="str" r="B24"/>
+      <c s="26" t="str" r="C24"/>
       <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1577,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>34</v>
+      <c s="24" r="J24">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="24" r="L24">
-        <v>7</v>
+      <c s="21" r="L24">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1609,20 +1609,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="25" r="X24">
-        <v>67</v>
+      <c s="28" r="X24">
+        <v>86</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c s="5" t="str" r="AA24"/>
       <c s="21" r="AB24">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC24"/>
       <c s="21" r="AD24">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,7 +1641,7 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1673,20 +1673,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="25" r="X25">
-        <v>57</v>
+      <c s="27" r="X25">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="21" r="AB25">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="21" r="AD25">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="25" r="J26">
-        <v>46</v>
+      <c s="27" r="J26">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="28" r="L26">
-        <v>10</v>
+      <c s="21" r="L26">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1731,20 +1731,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="25" r="X26">
-        <v>66</v>
+      <c s="28" r="X26">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="25" r="AB26">
-        <v>200</v>
+      <c s="20" r="AB26">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="25" r="AD26">
-        <v>200</v>
+      <c s="20" r="AD26">
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="25" r="J27">
-        <v>53</v>
+      <c s="27" r="J27">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K27"/>
       <c s="24" r="L27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1789,26 +1789,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="25" r="X27">
-        <v>102</v>
+      <c s="28" r="X27">
+        <v>99</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="25" r="AB27">
-        <v>252</v>
+      <c s="24" r="AB27">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="25" r="AD27">
-        <v>252</v>
+      <c s="24" r="AD27">
+        <v>167</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="26" t="str" r="A28"/>
-      <c s="27" t="str" r="B28"/>
-      <c s="27" t="str" r="C28"/>
+      <c s="25" t="str" r="A28"/>
+      <c s="26" t="str" r="B28"/>
+      <c s="26" t="str" r="C28"/>
       <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="25" r="J28">
-        <v>44</v>
+      <c s="28" r="J28">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="28" r="L28">
-        <v>11</v>
+      <c s="21" r="L28">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1849,20 +1849,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="25" r="X28">
-        <v>118</v>
+      <c s="28" r="X28">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="25" r="AB28">
-        <v>195</v>
+      <c s="21" r="AB28">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="25" r="AD28">
-        <v>195</v>
+      <c s="21" r="AD28">
+        <v>143</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,16 +1881,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="24" r="J29">
-        <v>28</v>
+      <c s="20" r="J29">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1913,20 +1913,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="25" r="X29">
-        <v>52</v>
+      <c s="20" r="X29">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA29"/>
       <c s="21" r="AB29">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AC29"/>
       <c s="21" r="AD29">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="25" r="J30">
-        <v>41</v>
+      <c s="28" r="J30">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>5</v>
+      <c s="27" r="L30">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1971,20 +1971,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="25" r="X30">
-        <v>69</v>
+      <c s="28" r="X30">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="25" r="AB30">
-        <v>223</v>
+      <c s="21" r="AB30">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="25" r="AD30">
-        <v>223</v>
+      <c s="21" r="AD30">
+        <v>135</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,16 +1997,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="25" r="J31">
-        <v>54</v>
+      <c s="28" r="J31">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="25" r="L31">
-        <v>12</v>
+      <c s="24" r="L31">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2029,26 +2029,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="25" r="X31">
-        <v>90</v>
+      <c s="28" r="X31">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="25" r="AB31">
-        <v>203</v>
+      <c s="28" r="AB31">
+        <v>216</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="25" r="AD31">
-        <v>203</v>
+      <c s="28" r="AD31">
+        <v>216</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="26" t="str" r="A32"/>
-      <c s="27" t="str" r="B32"/>
-      <c s="27" t="str" r="C32"/>
+      <c s="25" t="str" r="A32"/>
+      <c s="26" t="str" r="B32"/>
+      <c s="26" t="str" r="C32"/>
       <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2057,16 +2057,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="25" r="J32">
-        <v>42</v>
+      <c s="28" r="J32">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="20" r="L32">
-        <v>5</v>
+      <c s="21" r="L32">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2089,20 +2089,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="25" r="X32">
-        <v>76</v>
+      <c s="28" r="X32">
+        <v>109</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="21" r="AB32">
-        <v>136</v>
+      <c s="24" r="AB32">
+        <v>169</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="21" r="AD32">
-        <v>136</v>
+      <c s="24" r="AD32">
+        <v>169</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,16 +2121,16 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="20" r="J33">
-        <v>33</v>
+      <c s="21" r="J33">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="22" r="N33">
@@ -2150,23 +2150,23 @@
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="21" r="V33">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="25" r="X33">
-        <v>51</v>
+      <c s="28" r="X33">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="20" r="AD33">
-        <v>128</v>
+      <c s="21" r="AD33">
+        <v>112</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,7 +2179,7 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="22" r="N34">
@@ -2207,24 +2207,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="20" r="V34">
-        <v>16</v>
+      <c s="21" r="V34">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="25" r="X34">
-        <v>75</v>
+      <c s="28" r="X34">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="20" r="AB34">
-        <v>131</v>
+      <c s="21" r="AB34">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="24" r="AD34">
-        <v>188</v>
+      <c s="20" r="AD34">
+        <v>139</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,12 +2237,12 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
       <c s="24" r="J35">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="21" r="L35">
@@ -2265,30 +2265,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
-        <v>3</v>
+      <c s="20" r="V35">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="25" r="X35">
-        <v>92</v>
+      <c s="28" r="X35">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA35"/>
       <c s="20" r="AB35">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="20" r="AD35">
-        <v>167</v>
+      <c s="24" r="AD35">
+        <v>218</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="26" t="str" r="A36"/>
-      <c s="27" t="str" r="B36"/>
-      <c s="27" t="str" r="C36"/>
+      <c s="25" t="str" r="A36"/>
+      <c s="26" t="str" r="B36"/>
+      <c s="26" t="str" r="C36"/>
       <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2297,16 +2297,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
       <c s="20" r="J36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="24" r="L36">
-        <v>11</v>
+      <c s="20" r="L36">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2326,23 +2326,23 @@
       </c>
       <c s="5" t="str" r="U36"/>
       <c s="21" r="V36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="25" r="X36">
-        <v>115</v>
+      <c s="28" r="X36">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="20" r="AB36">
-        <v>151</v>
+      <c s="21" r="AB36">
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AC36"/>
       <c s="20" r="AD36">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2373,8 +2373,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="28" r="N37">
-        <v>31</v>
+      <c s="27" r="N37">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
@@ -2393,20 +2393,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="25" r="X37">
-        <v>62</v>
+      <c s="28" r="X37">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="24" r="AB37">
-        <v>173</v>
+      <c s="28" r="AB37">
+        <v>201</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="24" r="AD37">
-        <v>173</v>
+      <c s="28" r="AD37">
+        <v>201</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2431,19 +2431,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="25" r="N38">
+      <c s="28" r="N38">
         <v>38</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
+      <c s="22" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
+      <c s="22" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
@@ -2451,20 +2451,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="25" r="X38">
-        <v>79</v>
+      <c s="28" r="X38">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="25" r="AB38">
-        <v>233</v>
+      <c s="28" r="AB38">
+        <v>239</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="25" r="AD38">
-        <v>234</v>
+      <c s="28" r="AD38">
+        <v>239</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2490,18 +2490,18 @@
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="28" r="N39">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="21" r="P39">
-        <v>2</v>
+      <c s="20" r="P39">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="22" r="R39">
+      <c s="21" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="22" r="T39">
+      <c s="21" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
@@ -2509,26 +2509,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="25" r="X39">
-        <v>78</v>
+      <c s="28" r="X39">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>159</v>
+      <c s="28" r="AB39">
+        <v>235</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>159</v>
+      <c s="28" r="AD39">
+        <v>236</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="26" t="str" r="A40"/>
-      <c s="27" t="str" r="B40"/>
-      <c s="27" t="str" r="C40"/>
+      <c s="25" t="str" r="A40"/>
+      <c s="26" t="str" r="B40"/>
+      <c s="26" t="str" r="C40"/>
       <c s="18" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,40 +2549,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="28" r="N40">
-        <v>31</v>
+      <c s="27" r="N40">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
+        <v>2</v>
+      </c>
+      <c s="5" t="str" r="Q40"/>
+      <c s="21" r="R40">
         <v>1</v>
       </c>
-      <c s="5" t="str" r="Q40"/>
-      <c s="22" r="R40">
-        <v>0</v>
-      </c>
       <c s="5" t="str" r="S40"/>
-      <c s="22" r="T40">
-        <v>0</v>
+      <c s="21" r="T40">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U40"/>
       <c s="22" r="V40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="25" r="X40">
-        <v>94</v>
+      <c s="28" r="X40">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="AA40"/>
       <c s="21" r="AB40">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c s="5" t="str" r="AC40"/>
       <c s="21" r="AD40">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,16 +2601,16 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
       <c s="20" r="J41">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2629,24 +2629,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="21" r="V41">
-        <v>8</v>
+      <c s="20" r="V41">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="25" r="X41">
-        <v>50</v>
+      <c s="28" r="X41">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="21" r="AB41">
-        <v>122</v>
+      <c s="20" r="AB41">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="21" r="AD41">
-        <v>122</v>
+      <c s="20" r="AD41">
+        <v>150</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,16 +2659,16 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="20" r="J42">
-        <v>36</v>
+      <c s="21" r="J42">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M42"/>
       <c s="22" r="N42">
@@ -2687,24 +2687,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="24" r="V42">
-        <v>24</v>
+      <c s="21" r="V42">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="25" r="X42">
-        <v>56</v>
+      <c s="28" r="X42">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="24" r="AB42">
-        <v>198</v>
+      <c s="21" r="AB42">
+        <v>121</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="24" r="AD42">
-        <v>198</v>
+      <c s="21" r="AD42">
+        <v>121</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2717,16 +2717,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
       <c s="20" r="J43">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K43"/>
-      <c s="21" r="L43">
-        <v>2</v>
+      <c s="20" r="L43">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2746,29 +2746,29 @@
       </c>
       <c s="5" t="str" r="U43"/>
       <c s="21" r="V43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="25" r="X43">
-        <v>66</v>
+      <c s="28" r="X43">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA43"/>
       <c s="21" r="AB43">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC43"/>
       <c s="21" r="AD43">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="26" t="str" r="A44"/>
-      <c s="27" t="str" r="B44"/>
-      <c s="27" t="str" r="C44"/>
+      <c s="25" t="str" r="A44"/>
+      <c s="26" t="str" r="B44"/>
+      <c s="26" t="str" r="C44"/>
       <c s="18" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2777,16 +2777,16 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="21" r="J44">
-        <v>25</v>
+      <c s="20" r="J44">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K44"/>
-      <c s="21" r="L44">
-        <v>3</v>
+      <c s="20" r="L44">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2809,20 +2809,20 @@
         <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="25" r="X44">
-        <v>77</v>
+      <c s="28" r="X44">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA44"/>
       <c s="21" r="AB44">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC44"/>
       <c s="21" r="AD44">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/4/2026 12:36:57 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/6/2026 12:35:47 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,12 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
       </patternFill>
@@ -160,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB40000"/>
         <bgColor rgb="FFB40000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -336,7 +336,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -345,7 +345,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
@@ -375,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/05/2026</t>
+          <t xml:space="preserve">Day: 01/10/2026</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c s="8" r="F7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -645,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>65</v>
+      <c s="8" r="S7">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c s="11" r="F8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>54</v>
+      <c s="11" r="S8">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,10 +728,10 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c s="11" r="F9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="9" r="H9">
@@ -757,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>59</v>
+      <c s="11" r="S9">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="9" r="W9">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="X9"/>
       <c s="9" r="Y9">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>356</v>
-      </c>
-      <c s="13" r="F10">
-        <v>31</v>
+        <v>361</v>
+      </c>
+      <c s="12" r="F10">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="8" r="H10">
-        <v>6</v>
+      <c s="9" r="H10">
+        <v>4</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>53</v>
+      <c s="11" r="S10">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="9" r="W10">
-        <v>120</v>
+      <c s="12" r="W10">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="9" r="Y10">
-        <v>120</v>
+      <c s="12" r="Y10">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,14 +840,14 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c s="8" r="F11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="10" r="I11">
         <v>0</v>
@@ -866,23 +866,23 @@
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="9" r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>65</v>
+      <c s="11" r="S11">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="V11"/>
       <c s="9" r="W11">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,7 +896,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,40 +905,40 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="12" r="I12">
+      <c s="11" r="I12">
         <v>36</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
       <c s="9" r="M12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="9" r="O12">
-        <v>1</v>
+      <c s="13" r="O12">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>79</v>
+      <c s="11" r="S12">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="12" r="W12">
-        <v>214</v>
+      <c s="13" r="W12">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="12" r="Y12">
-        <v>214</v>
+      <c s="13" r="Y12">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,14 +952,14 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c s="8" r="F13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G13"/>
       <c s="9" r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I13">
         <v>0</v>
@@ -981,20 +981,20 @@
         <v>10</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="12" r="S13">
-        <v>58</v>
+      <c s="11" r="S13">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="V13"/>
       <c s="9" r="W13">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c s="5" t="str" r="X13"/>
       <c s="9" r="Y13">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,12 +1103,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
@@ -1140,15 +1140,15 @@
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>3</v>
+      <c s="20" r="L17">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1193,20 +1193,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>69</v>
+      <c s="20" r="X17">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="21" r="AB17">
-        <v>148</v>
+      <c s="24" r="AB17">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,16 +1219,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1252,19 +1252,19 @@
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="24" r="X18">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="24" r="AB18">
-        <v>172</v>
+      <c s="21" r="AB18">
+        <v>126</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1279,12 +1279,12 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="20" r="J19">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
@@ -1311,20 +1311,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="27" r="X19">
-        <v>106</v>
+      <c s="24" r="X19">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="24" r="AB19">
-        <v>152</v>
+      <c s="21" r="AB19">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,16 +1343,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="21" r="J20">
-        <v>18</v>
+      <c s="24" r="J20">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1375,20 +1375,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>74</v>
+      <c s="27" r="X20">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>106</v>
+      <c s="20" r="AB20">
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>106</v>
+      <c s="20" r="AD20">
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,16 +1401,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="24" r="J21">
-        <v>27</v>
+      <c s="27" r="J21">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1434,19 +1434,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="27" r="X21">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="27" r="J22">
+      <c s="28" r="J22">
         <v>33</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1491,20 +1491,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>63</v>
+      <c s="27" r="X22">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="24" r="AB22">
-        <v>166</v>
+      <c s="21" r="AB22">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="24" r="AD22">
-        <v>166</v>
+      <c s="21" r="AD22">
+        <v>132</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="24" r="J23">
-        <v>25</v>
+      <c s="27" r="J23">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1549,20 +1549,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>66</v>
+      <c s="27" r="X23">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>136</v>
+      <c s="28" r="AB23">
+        <v>189</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>136</v>
+      <c s="28" r="AD23">
+        <v>189</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1577,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="24" r="J24">
-        <v>27</v>
+      <c s="27" r="J24">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="21" r="L24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1609,8 +1609,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>86</v>
+      <c s="27" r="X24">
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
@@ -1618,11 +1618,11 @@
       </c>
       <c s="5" t="str" r="AA24"/>
       <c s="21" r="AB24">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC24"/>
       <c s="21" r="AD24">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,12 +1641,12 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="20" r="J25">
-        <v>22</v>
+      <c s="24" r="J25">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
@@ -1674,19 +1674,19 @@
       </c>
       <c s="5" t="str" r="W25"/>
       <c s="27" r="X25">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="21" r="AB25">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="21" r="AD25">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="27" r="J26">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="21" r="L26">
-        <v>4</v>
+      <c s="20" r="L26">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1731,20 +1731,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>64</v>
+      <c s="27" r="X26">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA26"/>
       <c s="20" r="AB26">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC26"/>
       <c s="20" r="AD26">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="27" r="J27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="24" r="L27">
-        <v>7</v>
+      <c s="21" r="L27">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1789,20 +1789,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>99</v>
+      <c s="27" r="X27">
+        <v>96</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="24" r="AB27">
-        <v>167</v>
+      <c s="27" r="AB27">
+        <v>202</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="24" r="AD27">
-        <v>167</v>
+      <c s="27" r="AD27">
+        <v>202</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K28"/>
       <c s="21" r="L28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1849,20 +1849,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>81</v>
+      <c s="27" r="X28">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="21" r="AB28">
-        <v>143</v>
+      <c s="24" r="AB28">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="21" r="AD28">
-        <v>143</v>
+      <c s="24" r="AD28">
+        <v>168</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,12 +1881,12 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="20" r="J29">
-        <v>24</v>
+      <c s="28" r="J29">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
@@ -1913,20 +1913,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="20" r="X29">
-        <v>32</v>
+      <c s="27" r="X29">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="21" r="AB29">
-        <v>83</v>
+      <c s="28" r="AB29">
+        <v>183</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="21" r="AD29">
-        <v>83</v>
+      <c s="28" r="AD29">
+        <v>183</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>35</v>
+      <c s="27" r="J30">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="27" r="L30">
-        <v>10</v>
+      <c s="20" r="L30">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1971,20 +1971,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>59</v>
+      <c s="27" r="X30">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="21" r="AB30">
-        <v>135</v>
+      <c s="27" r="AB30">
+        <v>209</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="21" r="AD30">
-        <v>135</v>
+      <c s="27" r="AD30">
+        <v>209</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,16 +1997,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>45</v>
+      <c s="27" r="J31">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="24" r="L31">
-        <v>8</v>
+      <c s="28" r="L31">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2029,20 +2029,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>103</v>
+      <c s="27" r="X31">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>216</v>
+      <c s="21" r="AB31">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>216</v>
+      <c s="21" r="AD31">
+        <v>140</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2057,16 +2057,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="28" r="J32">
-        <v>37</v>
+      <c s="20" r="J32">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="21" r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2090,19 +2090,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="24" r="AB32">
-        <v>169</v>
+      <c s="21" r="AB32">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="24" r="AD32">
-        <v>169</v>
+      <c s="21" r="AD32">
+        <v>79</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,12 +2121,12 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
       <c s="21" r="J33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
@@ -2150,23 +2150,23 @@
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="21" r="V33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>49</v>
+      <c s="27" r="X33">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="21" r="AD33">
-        <v>112</v>
+      <c s="20" r="AD33">
+        <v>125</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,12 +2179,12 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
       <c s="24" r="J34">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
@@ -2208,23 +2208,23 @@
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="21" r="V34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>78</v>
+      <c s="27" r="X34">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA34"/>
       <c s="21" r="AB34">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c s="5" t="str" r="AC34"/>
       <c s="20" r="AD34">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,16 +2237,16 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="24" r="J35">
-        <v>49</v>
+      <c s="21" r="J35">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="21" r="L35">
-        <v>4</v>
+      <c s="20" r="L35">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="22" r="N35">
@@ -2265,24 +2265,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="20" r="V35">
-        <v>15</v>
+      <c s="21" r="V35">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>105</v>
+      <c s="27" r="X35">
+        <v>150</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="20" r="AB35">
-        <v>164</v>
+      <c s="24" r="AB35">
+        <v>187</v>
       </c>
       <c s="5" t="str" r="AC35"/>
       <c s="24" r="AD35">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2301,12 +2301,12 @@
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="20" r="J36">
-        <v>37</v>
+      <c s="27" r="J36">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
-        <v>7</v>
+      <c s="28" r="L36">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2329,20 +2329,20 @@
         <v>2</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>74</v>
+      <c s="27" r="X36">
+        <v>158</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="21" r="AB36">
-        <v>109</v>
+      <c s="28" r="AB36">
+        <v>241</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="20" r="AD36">
-        <v>127</v>
+      <c s="27" r="AD36">
+        <v>304</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2373,40 +2373,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="27" r="N37">
-        <v>30</v>
+      <c s="28" r="N37">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="22" r="R37">
-        <v>0</v>
+      <c s="21" r="R37">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="22" r="T37">
-        <v>0</v>
+      <c s="28" r="T37">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="U37"/>
       <c s="22" r="V37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>61</v>
+      <c s="27" r="X37">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="28" r="AB37">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="28" r="AD37">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2431,40 +2431,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="28" r="N38">
-        <v>38</v>
+      <c s="27" r="N38">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
-        <v>0</v>
+      <c s="21" r="R38">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="22" r="T38">
-        <v>0</v>
+      <c s="20" r="T38">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="22" r="V38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>102</v>
+      <c s="27" r="X38">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="28" r="AB38">
-        <v>239</v>
+      <c s="24" r="AB38">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="28" r="AD38">
-        <v>239</v>
+      <c s="24" r="AD38">
+        <v>178</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2489,19 +2489,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="28" r="N39">
-        <v>51</v>
+      <c s="27" r="N39">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="20" r="P39">
-        <v>6</v>
+      <c s="21" r="P39">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
+      <c s="22" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
+      <c s="22" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
@@ -2509,20 +2509,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>103</v>
+      <c s="27" r="X39">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="28" r="AB39">
-        <v>235</v>
+      <c s="21" r="AB39">
+        <v>127</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="28" r="AD39">
-        <v>236</v>
+      <c s="21" r="AD39">
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,40 +2549,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="27" r="N40">
-        <v>34</v>
+      <c s="28" r="N40">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="21" r="R40">
-        <v>1</v>
+      <c s="22" r="R40">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="21" r="T40">
-        <v>1</v>
+      <c s="22" r="T40">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
       <c s="22" r="V40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="28" r="X40">
-        <v>87</v>
+      <c s="27" r="X40">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA40"/>
       <c s="21" r="AB40">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c s="5" t="str" r="AC40"/>
       <c s="21" r="AD40">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,7 +2601,7 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
@@ -2610,7 +2610,7 @@
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2629,24 +2629,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="20" r="V41">
-        <v>15</v>
+      <c s="21" r="V41">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="28" r="X41">
-        <v>52</v>
+      <c s="27" r="X41">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="20" r="AB41">
-        <v>150</v>
+      <c s="21" r="AB41">
+        <v>109</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="20" r="AD41">
-        <v>150</v>
+      <c s="21" r="AD41">
+        <v>109</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,16 +2659,16 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="21" r="J42">
-        <v>28</v>
+      <c s="20" r="J42">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M42"/>
       <c s="22" r="N42">
@@ -2688,23 +2688,23 @@
       </c>
       <c s="5" t="str" r="U42"/>
       <c s="21" r="V42">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="28" r="X42">
-        <v>54</v>
+      <c s="27" r="X42">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA42"/>
       <c s="21" r="AB42">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC42"/>
       <c s="21" r="AD42">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2717,16 +2717,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="20" r="J43">
-        <v>37</v>
+      <c s="24" r="J43">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K43"/>
-      <c s="20" r="L43">
-        <v>6</v>
+      <c s="21" r="L43">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2746,23 +2746,23 @@
       </c>
       <c s="5" t="str" r="U43"/>
       <c s="21" r="V43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="28" r="X43">
+      <c s="27" r="X43">
         <v>70</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="21" r="AB43">
-        <v>138</v>
+      <c s="20" r="AB43">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="21" r="AD43">
-        <v>138</v>
+      <c s="20" r="AD43">
+        <v>172</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
@@ -2777,16 +2777,16 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="20" r="J44">
-        <v>38</v>
+      <c s="27" r="J44">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="K44"/>
       <c s="20" r="L44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2809,20 +2809,20 @@
         <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="28" r="X44">
-        <v>87</v>
+      <c s="27" r="X44">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="21" r="AB44">
-        <v>141</v>
+      <c s="20" r="AB44">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="21" r="AD44">
-        <v>141</v>
+      <c s="20" r="AD44">
+        <v>167</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/6/2026 12:35:47 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/11/2026 12:33:40 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,8 +146,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,8 +158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
   </fills>
@@ -336,7 +336,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -345,10 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -499,14 +499,10 @@
     <col min="21" max="21" customWidth="1" width="0.32421875"/>
     <col min="22" max="22" customWidth="1" width="8.54296875"/>
     <col min="23" max="23" customWidth="1" width="0.32421875"/>
-    <col min="24" max="24" customWidth="1" width="8.54296875"/>
-    <col min="25" max="25" customWidth="1" width="0.32421875"/>
-    <col min="26" max="26" customWidth="1" width="8.54296875"/>
-    <col min="27" max="27" customWidth="1" width="0.32421875"/>
-    <col min="28" max="28" customWidth="1" width="2.9921875"/>
-    <col min="29" max="29" customWidth="1" width="5.86328125"/>
-    <col min="30" max="30" customWidth="1" width="8.8515625"/>
-    <col min="31" max="31" customWidth="1" width="66.94140625"/>
+    <col min="24" max="24" customWidth="1" width="8.8515625"/>
+    <col min="25" max="25" customWidth="1" width="8.8515625"/>
+    <col min="26" max="26" customWidth="1" width="2.9921875"/>
+    <col min="27" max="27" customWidth="1" width="81.6640625"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.4" customHeight="1">
@@ -520,7 +516,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/10/2026</t>
+          <t xml:space="preserve">Day: 01/11/2026</t>
         </is>
       </c>
     </row>
@@ -565,46 +561,34 @@
       <c s="5" t="str" r="L6"/>
       <c s="3" t="inlineStr" r="M6">
         <is>
-          <t xml:space="preserve">Menu 2</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="N6"/>
       <c s="3" t="inlineStr" r="O6">
         <is>
-          <t xml:space="preserve">Greet 2</t>
+          <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="P6"/>
       <c s="3" t="inlineStr" r="Q6">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="R6"/>
       <c s="3" t="inlineStr" r="S6">
         <is>
-          <t xml:space="preserve">Service</t>
+          <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="T6"/>
       <c s="3" t="inlineStr" r="U6">
         <is>
-          <t xml:space="preserve">Lane Queue</t>
+          <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
       <c s="5" t="str" r="V6"/>
-      <c s="3" t="inlineStr" r="W6">
-        <is>
-          <t xml:space="preserve">Lane Total</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="X6"/>
-      <c s="3" t="inlineStr" r="Y6">
-        <is>
-          <t xml:space="preserve">Lane Total 2</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="Z6"/>
     </row>
     <row r="7" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A7">
@@ -616,10 +600,10 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c s="8" r="F7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
@@ -637,30 +621,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
-        <v>0</v>
+      <c s="11" r="O7">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="P7"/>
       <c s="10" r="Q7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>57</v>
+      <c s="9" r="S7">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>48</v>
+      <c s="9" r="U7">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>143</v>
-      </c>
-      <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>71</v>
-      </c>
-      <c s="5" t="str" r="Z7"/>
     </row>
     <row r="8" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A8">
@@ -672,10 +648,10 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>515</v>
-      </c>
-      <c s="11" r="F8">
-        <v>35</v>
+        <v>456</v>
+      </c>
+      <c s="12" r="F8">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
@@ -693,30 +669,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
-        <v>0</v>
+      <c s="13" r="O8">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="P8"/>
       <c s="10" r="Q8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="11" r="S8">
-        <v>56</v>
+      <c s="9" r="S8">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>55</v>
+      <c s="9" r="U8">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>146</v>
-      </c>
-      <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>146</v>
-      </c>
-      <c s="5" t="str" r="Z8"/>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A9">
@@ -728,10 +696,10 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>419</v>
-      </c>
-      <c s="11" r="F9">
-        <v>35</v>
+        <v>425</v>
+      </c>
+      <c s="13" r="F9">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="9" r="H9">
@@ -749,30 +717,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
-        <v>0</v>
+      <c s="13" r="O9">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="P9"/>
       <c s="10" r="Q9">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="11" r="S9">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
-        <v>49</v>
+      <c s="11" r="U9">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="9" r="W9">
-        <v>144</v>
-      </c>
-      <c s="5" t="str" r="X9"/>
-      <c s="9" r="Y9">
-        <v>144</v>
-      </c>
-      <c s="5" t="str" r="Z9"/>
     </row>
     <row r="10" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A10">
@@ -784,10 +744,10 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>361</v>
-      </c>
-      <c s="12" r="F10">
-        <v>34</v>
+        <v>339</v>
+      </c>
+      <c s="13" r="F10">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="9" r="H10">
@@ -805,30 +765,22 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
-        <v>0</v>
+      <c s="13" r="O10">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="P10"/>
       <c s="10" r="Q10">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="11" r="S10">
-        <v>61</v>
+      <c s="12" r="S10">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>89</v>
+      <c s="12" r="U10">
+        <v>182</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="12" r="W10">
-        <v>186</v>
-      </c>
-      <c s="5" t="str" r="X10"/>
-      <c s="12" r="Y10">
-        <v>186</v>
-      </c>
-      <c s="5" t="str" r="Z10"/>
     </row>
     <row r="11" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A11">
@@ -840,14 +792,14 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>278</v>
-      </c>
-      <c s="8" r="F11">
-        <v>38</v>
+        <v>211</v>
+      </c>
+      <c s="11" r="F11">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="10" r="I11">
         <v>0</v>
@@ -857,34 +809,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="10" r="M11">
-        <v>0</v>
+      <c s="9" r="M11">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="10" r="O11">
-        <v>0</v>
+      <c s="13" r="O11">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="9" r="Q11">
-        <v>8</v>
+      <c s="10" r="Q11">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="11" r="S11">
-        <v>71</v>
+      <c s="8" r="S11">
+        <v>128</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>33</v>
+      <c s="8" r="U11">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>116</v>
-      </c>
-      <c s="5" t="str" r="X11"/>
-      <c s="8" r="Y11">
-        <v>149</v>
-      </c>
-      <c s="5" t="str" r="Z11"/>
     </row>
     <row r="12" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A12">
@@ -896,7 +840,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,42 +849,34 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="11" r="I12">
-        <v>36</v>
+      <c s="13" r="I12">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="9" r="M12">
-        <v>8</v>
+      <c s="10" r="M12">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
       <c s="13" r="O12">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="11" r="S12">
-        <v>65</v>
+      <c s="13" r="S12">
+        <v>223</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>71</v>
+      <c s="13" r="U12">
+        <v>223</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="13" r="W12">
-        <v>171</v>
-      </c>
-      <c s="5" t="str" r="X12"/>
-      <c s="13" r="Y12">
-        <v>171</v>
-      </c>
-      <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A13">
@@ -952,7 +888,7 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c s="8" r="F13">
         <v>34</v>
@@ -969,34 +905,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="10" r="M13">
-        <v>0</v>
+      <c s="9" r="M13">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="10" r="O13">
-        <v>0</v>
+      <c s="13" r="O13">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="9" r="Q13">
-        <v>10</v>
+      <c s="10" r="Q13">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="11" r="S13">
-        <v>48</v>
+      <c s="9" r="S13">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="T13"/>
-      <c s="10" r="U13">
-        <v>40</v>
+      <c s="9" r="U13">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="9" r="W13">
-        <v>132</v>
-      </c>
-      <c s="5" t="str" r="X13"/>
-      <c s="9" r="Y13">
-        <v>132</v>
-      </c>
-      <c s="5" t="str" r="Z13"/>
     </row>
     <row r="14" ht="4.95" customHeight="1"/>
     <row r="15" ht="32.25" customHeight="0">
@@ -1047,41 +975,28 @@
       <c s="5" t="str" r="Q15"/>
       <c s="15" t="inlineStr" r="R15">
         <is>
-          <t xml:space="preserve">Menu 2</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="S15"/>
       <c s="15" t="inlineStr" r="T15">
         <is>
-          <t xml:space="preserve">Greet 2</t>
+          <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="U15"/>
       <c s="15" t="inlineStr" r="V15">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="15" t="inlineStr" r="X15">
         <is>
-          <t xml:space="preserve">Service</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="Y15"/>
-      <c s="15" t="inlineStr" r="Z15">
-        <is>
-          <t xml:space="preserve">Lane Queue</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="AA15"/>
-      <c s="15" t="inlineStr" r="AB15">
-        <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
-      <c s="5" t="str" r="AC15"/>
-      <c s="15" t="inlineStr" r="AD15">
+      <c s="15" t="inlineStr" r="Y15">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
@@ -1103,16 +1018,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1127,28 +1042,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="22" r="T16">
-        <v>0</v>
+      <c s="20" r="T16">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="U16"/>
       <c s="22" r="V16">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="20" r="X16">
-        <v>53</v>
-      </c>
-      <c s="5" t="str" r="Y16"/>
-      <c s="22" r="Z16">
-        <v>36</v>
-      </c>
-      <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>124</v>
-      </c>
-      <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>61</v>
+      <c s="21" r="X16">
+        <v>113</v>
+      </c>
+      <c s="21" r="Y16">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,16 +1067,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>6</v>
+      <c s="21" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1185,28 +1091,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="22" r="T17">
-        <v>0</v>
+      <c s="24" r="T17">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="U17"/>
       <c s="22" r="V17">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="20" r="X17">
-        <v>56</v>
-      </c>
-      <c s="5" t="str" r="Y17"/>
-      <c s="22" r="Z17">
-        <v>68</v>
-      </c>
-      <c s="5" t="str" r="AA17"/>
-      <c s="24" r="AB17">
-        <v>167</v>
-      </c>
-      <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>83</v>
+      <c s="24" r="X17">
+        <v>150</v>
+      </c>
+      <c s="21" r="Y17">
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,16 +1116,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
-        <v>3</v>
+      <c s="24" r="L18">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1243,34 +1140,25 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="22" r="T18">
-        <v>0</v>
+      <c s="25" r="T18">
+        <v>101</v>
       </c>
       <c s="5" t="str" r="U18"/>
       <c s="22" r="V18">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="24" r="X18">
-        <v>66</v>
-      </c>
-      <c s="5" t="str" r="Y18"/>
-      <c s="22" r="Z18">
-        <v>26</v>
-      </c>
-      <c s="5" t="str" r="AA18"/>
-      <c s="21" r="AB18">
-        <v>126</v>
-      </c>
-      <c s="5" t="str" r="AC18"/>
-      <c s="21" r="AD18">
-        <v>62</v>
+        <v>209</v>
+      </c>
+      <c s="20" r="Y18">
+        <v>104</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="25" t="str" r="A19"/>
-      <c s="26" t="str" r="B19"/>
-      <c s="26" t="str" r="C19"/>
+      <c s="26" t="str" r="A19"/>
+      <c s="27" t="str" r="B19"/>
+      <c s="27" t="str" r="C19"/>
       <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1279,16 +1167,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
-        <v>57</v>
+      <c s="24" r="J19">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1303,28 +1191,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="22" r="T19">
-        <v>0</v>
+      <c s="24" r="T19">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="U19"/>
       <c s="22" r="V19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="24" r="X19">
-        <v>74</v>
-      </c>
-      <c s="5" t="str" r="Y19"/>
-      <c s="22" r="Z19">
-        <v>12</v>
-      </c>
-      <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>144</v>
-      </c>
-      <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>71</v>
+      <c s="21" r="X19">
+        <v>137</v>
+      </c>
+      <c s="21" r="Y19">
+        <v>68</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,16 +1222,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>25</v>
+      <c s="20" r="J20">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1367,28 +1246,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="22" r="T20">
-        <v>0</v>
+      <c s="28" r="T20">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="U20"/>
       <c s="22" r="V20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="27" r="X20">
-        <v>118</v>
-      </c>
-      <c s="5" t="str" r="Y20"/>
-      <c s="22" r="Z20">
-        <v>9</v>
-      </c>
-      <c s="5" t="str" r="AA20"/>
-      <c s="20" r="AB20">
-        <v>153</v>
-      </c>
-      <c s="5" t="str" r="AC20"/>
-      <c s="20" r="AD20">
-        <v>153</v>
+      <c s="21" r="X20">
+        <v>141</v>
+      </c>
+      <c s="21" r="Y20">
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,16 +1271,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="27" r="J21">
-        <v>35</v>
+      <c s="24" r="J21">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1425,28 +1295,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="22" r="T21">
-        <v>0</v>
+      <c s="28" r="T21">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="U21"/>
       <c s="22" r="V21">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="27" r="X21">
-        <v>49</v>
-      </c>
-      <c s="5" t="str" r="Y21"/>
-      <c s="22" r="Z21">
-        <v>53</v>
-      </c>
-      <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>137</v>
-      </c>
-      <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>137</v>
+      <c s="21" r="X21">
+        <v>130</v>
+      </c>
+      <c s="21" r="Y21">
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,12 +1320,12 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
-        <v>33</v>
+      <c s="25" r="J22">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
@@ -1483,28 +1344,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="22" r="T22">
-        <v>0</v>
+      <c s="28" r="T22">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="U22"/>
       <c s="22" r="V22">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="27" r="X22">
-        <v>49</v>
-      </c>
-      <c s="5" t="str" r="Y22"/>
-      <c s="22" r="Z22">
-        <v>49</v>
-      </c>
-      <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>132</v>
-      </c>
-      <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>132</v>
+      <c s="20" r="X22">
+        <v>154</v>
+      </c>
+      <c s="20" r="Y22">
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,12 +1369,12 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="27" r="J23">
-        <v>38</v>
+      <c s="28" r="J23">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
@@ -1541,34 +1393,25 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="22" r="T23">
-        <v>0</v>
+      <c s="28" r="T23">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="U23"/>
       <c s="22" r="V23">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="27" r="X23">
-        <v>76</v>
-      </c>
-      <c s="5" t="str" r="Y23"/>
-      <c s="22" r="Z23">
-        <v>74</v>
-      </c>
-      <c s="5" t="str" r="AA23"/>
-      <c s="28" r="AB23">
-        <v>189</v>
-      </c>
-      <c s="5" t="str" r="AC23"/>
-      <c s="28" r="AD23">
-        <v>189</v>
+      <c s="21" r="X23">
+        <v>149</v>
+      </c>
+      <c s="21" r="Y23">
+        <v>149</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="25" t="str" r="A24"/>
-      <c s="26" t="str" r="B24"/>
-      <c s="26" t="str" r="C24"/>
+      <c s="26" t="str" r="A24"/>
+      <c s="27" t="str" r="B24"/>
+      <c s="27" t="str" r="C24"/>
       <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1577,16 +1420,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="27" r="J24">
-        <v>35</v>
+      <c s="28" r="J24">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="21" r="L24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1601,28 +1444,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="22" r="T24">
-        <v>0</v>
+      <c s="28" r="T24">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="U24"/>
       <c s="22" r="V24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="27" r="X24">
-        <v>83</v>
-      </c>
-      <c s="5" t="str" r="Y24"/>
-      <c s="22" r="Z24">
-        <v>21</v>
-      </c>
-      <c s="5" t="str" r="AA24"/>
-      <c s="21" r="AB24">
-        <v>141</v>
-      </c>
-      <c s="5" t="str" r="AC24"/>
-      <c s="21" r="AD24">
-        <v>141</v>
+      <c s="24" r="X24">
+        <v>178</v>
+      </c>
+      <c s="24" r="Y24">
+        <v>178</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,12 +1475,12 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="24" r="J25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
@@ -1665,28 +1499,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="22" r="T25">
-        <v>0</v>
+      <c s="28" r="T25">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="U25"/>
       <c s="22" r="V25">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="27" r="X25">
-        <v>45</v>
-      </c>
-      <c s="5" t="str" r="Y25"/>
-      <c s="22" r="Z25">
-        <v>31</v>
-      </c>
-      <c s="5" t="str" r="AA25"/>
-      <c s="21" r="AB25">
-        <v>105</v>
-      </c>
-      <c s="5" t="str" r="AC25"/>
-      <c s="21" r="AD25">
-        <v>105</v>
+      <c s="21" r="X25">
+        <v>134</v>
+      </c>
+      <c s="21" r="Y25">
+        <v>134</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,11 +1524,11 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="27" r="J26">
+      <c s="28" r="J26">
         <v>39</v>
       </c>
       <c s="5" t="str" r="K26"/>
@@ -1723,28 +1548,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="22" r="T26">
-        <v>0</v>
+      <c s="28" r="T26">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="U26"/>
       <c s="22" r="V26">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="27" r="X26">
-        <v>55</v>
-      </c>
-      <c s="5" t="str" r="Y26"/>
-      <c s="22" r="Z26">
-        <v>60</v>
-      </c>
-      <c s="5" t="str" r="AA26"/>
-      <c s="20" r="AB26">
-        <v>153</v>
-      </c>
-      <c s="5" t="str" r="AC26"/>
-      <c s="20" r="AD26">
-        <v>153</v>
+      <c s="25" r="X26">
+        <v>190</v>
+      </c>
+      <c s="25" r="Y26">
+        <v>190</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1573,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="27" r="J27">
-        <v>35</v>
+      <c s="28" r="J27">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="21" r="L27">
-        <v>4</v>
+      <c s="20" r="L27">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1781,34 +1597,25 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="22" r="T27">
-        <v>0</v>
+      <c s="28" r="T27">
+        <v>99</v>
       </c>
       <c s="5" t="str" r="U27"/>
       <c s="22" r="V27">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="27" r="X27">
-        <v>96</v>
-      </c>
-      <c s="5" t="str" r="Y27"/>
-      <c s="22" r="Z27">
-        <v>73</v>
-      </c>
-      <c s="5" t="str" r="AA27"/>
-      <c s="27" r="AB27">
-        <v>202</v>
-      </c>
-      <c s="5" t="str" r="AC27"/>
-      <c s="27" r="AD27">
-        <v>202</v>
+      <c s="28" r="X27">
+        <v>199</v>
+      </c>
+      <c s="28" r="Y27">
+        <v>199</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="25" t="str" r="A28"/>
-      <c s="26" t="str" r="B28"/>
-      <c s="26" t="str" r="C28"/>
+      <c s="26" t="str" r="A28"/>
+      <c s="27" t="str" r="B28"/>
+      <c s="27" t="str" r="C28"/>
       <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1817,16 +1624,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>4</v>
+      <c s="24" r="L28">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1841,28 +1648,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="22" r="T28">
-        <v>0</v>
+      <c s="28" r="T28">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="U28"/>
       <c s="22" r="V28">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="27" r="X28">
-        <v>125</v>
-      </c>
-      <c s="5" t="str" r="Y28"/>
-      <c s="22" r="Z28">
-        <v>8</v>
-      </c>
-      <c s="5" t="str" r="AA28"/>
-      <c s="24" r="AB28">
-        <v>168</v>
-      </c>
-      <c s="5" t="str" r="AC28"/>
-      <c s="24" r="AD28">
-        <v>168</v>
+      <c s="25" r="X28">
+        <v>182</v>
+      </c>
+      <c s="25" r="Y28">
+        <v>182</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,12 +1679,12 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="28" r="J29">
-        <v>31</v>
+      <c s="24" r="J29">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
@@ -1905,28 +1703,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="22" r="T29">
-        <v>0</v>
+      <c s="28" r="T29">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="U29"/>
       <c s="22" r="V29">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="27" r="X29">
-        <v>59</v>
-      </c>
-      <c s="5" t="str" r="Y29"/>
-      <c s="22" r="Z29">
-        <v>92</v>
-      </c>
-      <c s="5" t="str" r="AA29"/>
-      <c s="28" r="AB29">
-        <v>183</v>
-      </c>
-      <c s="5" t="str" r="AC29"/>
-      <c s="28" r="AD29">
-        <v>183</v>
+      <c s="25" r="X29">
+        <v>194</v>
+      </c>
+      <c s="25" r="Y29">
+        <v>194</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,16 +1728,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="27" r="J30">
-        <v>37</v>
+      <c s="28" r="J30">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K30"/>
       <c s="20" r="L30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1963,28 +1752,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="22" r="T30">
-        <v>0</v>
+      <c s="28" r="T30">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="U30"/>
       <c s="22" r="V30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="27" r="X30">
-        <v>62</v>
-      </c>
-      <c s="5" t="str" r="Y30"/>
-      <c s="22" r="Z30">
-        <v>110</v>
-      </c>
-      <c s="5" t="str" r="AA30"/>
-      <c s="27" r="AB30">
-        <v>209</v>
-      </c>
-      <c s="5" t="str" r="AC30"/>
-      <c s="27" r="AD30">
-        <v>209</v>
+      <c s="25" r="X30">
+        <v>187</v>
+      </c>
+      <c s="25" r="Y30">
+        <v>187</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,16 +1777,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="27" r="J31">
-        <v>42</v>
+      <c s="28" r="J31">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="28" r="L31">
-        <v>10</v>
+      <c s="20" r="L31">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2021,34 +1801,25 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="22" r="T31">
-        <v>0</v>
+      <c s="28" r="T31">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="U31"/>
       <c s="22" r="V31">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="27" r="X31">
-        <v>74</v>
-      </c>
-      <c s="5" t="str" r="Y31"/>
-      <c s="22" r="Z31">
-        <v>26</v>
-      </c>
-      <c s="5" t="str" r="AA31"/>
-      <c s="21" r="AB31">
-        <v>140</v>
-      </c>
-      <c s="5" t="str" r="AC31"/>
-      <c s="21" r="AD31">
-        <v>140</v>
+      <c s="21" r="X31">
+        <v>130</v>
+      </c>
+      <c s="21" r="Y31">
+        <v>130</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="25" t="str" r="A32"/>
-      <c s="26" t="str" r="B32"/>
-      <c s="26" t="str" r="C32"/>
+      <c s="26" t="str" r="A32"/>
+      <c s="27" t="str" r="B32"/>
+      <c s="27" t="str" r="C32"/>
       <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2057,16 +1828,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="20" r="J32">
-        <v>23</v>
+      <c s="28" r="J32">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="21" r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2081,28 +1852,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
-        <v>0</v>
+      <c s="28" r="T32">
+        <v>116</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>43</v>
-      </c>
-      <c s="5" t="str" r="Y32"/>
-      <c s="22" r="Z32">
-        <v>12</v>
-      </c>
-      <c s="5" t="str" r="AA32"/>
-      <c s="21" r="AB32">
-        <v>79</v>
-      </c>
-      <c s="5" t="str" r="AC32"/>
-      <c s="21" r="AD32">
-        <v>79</v>
+      <c s="24" r="X32">
+        <v>165</v>
+      </c>
+      <c s="24" r="Y32">
+        <v>165</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,16 +1883,16 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="21" r="J33">
-        <v>29</v>
+      <c s="20" r="J33">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="22" r="N33">
@@ -2141,32 +1903,23 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="22" r="R33">
-        <v>0</v>
+      <c s="21" r="R33">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="22" r="T33">
-        <v>0</v>
+      <c s="28" r="T33">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="21" r="V33">
-        <v>8</v>
+      <c s="22" r="V33">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="27" r="X33">
-        <v>57</v>
-      </c>
-      <c s="5" t="str" r="Y33"/>
-      <c s="22" r="Z33">
-        <v>32</v>
-      </c>
-      <c s="5" t="str" r="AA33"/>
-      <c s="21" r="AB33">
-        <v>93</v>
-      </c>
-      <c s="5" t="str" r="AC33"/>
-      <c s="20" r="AD33">
-        <v>125</v>
+      <c s="21" r="X33">
+        <v>85</v>
+      </c>
+      <c s="21" r="Y33">
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,16 +1932,16 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="24" r="J34">
-        <v>48</v>
+      <c s="25" r="J34">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="22" r="N34">
@@ -2199,32 +1952,23 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
-        <v>0</v>
+      <c s="21" r="R34">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="22" r="T34">
-        <v>0</v>
+      <c s="28" r="T34">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
-        <v>8</v>
+      <c s="22" r="V34">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="27" r="X34">
-        <v>54</v>
-      </c>
-      <c s="5" t="str" r="Y34"/>
-      <c s="22" r="Z34">
-        <v>28</v>
-      </c>
-      <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>107</v>
-      </c>
-      <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>135</v>
+      <c s="20" r="X34">
+        <v>140</v>
+      </c>
+      <c s="24" r="Y34">
+        <v>183</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,16 +1981,16 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="21" r="J35">
-        <v>29</v>
+      <c s="25" r="J35">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="20" r="L35">
-        <v>9</v>
+      <c s="21" r="L35">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="22" r="N35">
@@ -2257,38 +2001,29 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
-        <v>0</v>
+      <c s="21" r="R35">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
-        <v>0</v>
+      <c s="28" r="T35">
+        <v>115</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
-        <v>8</v>
+      <c s="22" r="V35">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="27" r="X35">
-        <v>150</v>
-      </c>
-      <c s="5" t="str" r="Y35"/>
-      <c s="22" r="Z35">
-        <v>47</v>
-      </c>
-      <c s="5" t="str" r="AA35"/>
-      <c s="24" r="AB35">
-        <v>187</v>
-      </c>
-      <c s="5" t="str" r="AC35"/>
-      <c s="24" r="AD35">
-        <v>234</v>
+      <c s="20" r="X35">
+        <v>178</v>
+      </c>
+      <c s="24" r="Y35">
+        <v>219</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="25" t="str" r="A36"/>
-      <c s="26" t="str" r="B36"/>
-      <c s="26" t="str" r="C36"/>
+      <c s="26" t="str" r="A36"/>
+      <c s="27" t="str" r="B36"/>
+      <c s="27" t="str" r="C36"/>
       <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2297,16 +2032,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="27" r="J36">
-        <v>81</v>
+      <c s="25" r="J36">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="28" r="L36">
-        <v>16</v>
+      <c s="21" r="L36">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2317,32 +2052,23 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="22" r="R36">
-        <v>0</v>
+      <c s="21" r="R36">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="22" r="T36">
-        <v>0</v>
+      <c s="28" r="T36">
+        <v>127</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="21" r="V36">
-        <v>2</v>
+      <c s="22" r="V36">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="27" r="X36">
-        <v>158</v>
-      </c>
-      <c s="5" t="str" r="Y36"/>
-      <c s="22" r="Z36">
-        <v>62</v>
-      </c>
-      <c s="5" t="str" r="AA36"/>
-      <c s="28" r="AB36">
-        <v>241</v>
-      </c>
-      <c s="5" t="str" r="AC36"/>
-      <c s="27" r="AD36">
-        <v>304</v>
+      <c s="24" r="X36">
+        <v>187</v>
+      </c>
+      <c s="24" r="Y36">
+        <v>214</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2087,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2373,40 +2099,31 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="28" r="N37">
+      <c s="25" r="N37">
         <v>33</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
-        <v>10</v>
+      <c s="22" r="R37">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
       <c s="28" r="T37">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="U37"/>
       <c s="22" r="V37">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="27" r="X37">
-        <v>60</v>
-      </c>
-      <c s="5" t="str" r="Y37"/>
-      <c s="22" r="Z37">
-        <v>91</v>
-      </c>
-      <c s="5" t="str" r="AA37"/>
-      <c s="28" r="AB37">
-        <v>183</v>
-      </c>
-      <c s="5" t="str" r="AC37"/>
-      <c s="28" r="AD37">
-        <v>183</v>
+      <c s="25" r="X37">
+        <v>194</v>
+      </c>
+      <c s="25" r="Y37">
+        <v>193</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2136,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2431,40 +2148,31 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="27" r="N38">
-        <v>40</v>
+      <c s="28" r="N38">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
-        <v>5</v>
+      <c s="22" r="R38">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="20" r="T38">
-        <v>5</v>
+      <c s="28" r="T38">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="22" r="V38">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="27" r="X38">
-        <v>69</v>
-      </c>
-      <c s="5" t="str" r="Y38"/>
-      <c s="22" r="Z38">
-        <v>71</v>
-      </c>
-      <c s="5" t="str" r="AA38"/>
-      <c s="24" r="AB38">
-        <v>178</v>
-      </c>
-      <c s="5" t="str" r="AC38"/>
-      <c s="24" r="AD38">
-        <v>178</v>
+      <c s="28" r="X38">
+        <v>284</v>
+      </c>
+      <c s="28" r="Y38">
+        <v>284</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2185,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2489,8 +2197,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="27" r="N39">
-        <v>38</v>
+      <c s="28" r="N39">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
@@ -2501,34 +2209,25 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="22" r="T39">
-        <v>0</v>
+      <c s="28" r="T39">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="22" r="V39">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="27" r="X39">
-        <v>69</v>
-      </c>
-      <c s="5" t="str" r="Y39"/>
-      <c s="22" r="Z39">
-        <v>19</v>
-      </c>
-      <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>127</v>
-      </c>
-      <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>126</v>
+      <c s="24" r="X39">
+        <v>169</v>
+      </c>
+      <c s="24" r="Y39">
+        <v>169</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="25" t="str" r="A40"/>
-      <c s="26" t="str" r="B40"/>
-      <c s="26" t="str" r="C40"/>
+      <c s="26" t="str" r="A40"/>
+      <c s="27" t="str" r="B40"/>
+      <c s="27" t="str" r="C40"/>
       <c s="18" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2537,7 +2236,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,40 +2248,31 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="28" r="N40">
-        <v>33</v>
+      <c s="24" r="N40">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="O40"/>
-      <c s="21" r="P40">
-        <v>1</v>
+      <c s="24" r="P40">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="Q40"/>
       <c s="22" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="22" r="T40">
-        <v>0</v>
+      <c s="28" r="T40">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="U40"/>
       <c s="22" r="V40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="27" r="X40">
-        <v>85</v>
-      </c>
-      <c s="5" t="str" r="Y40"/>
-      <c s="22" r="Z40">
-        <v>11</v>
-      </c>
-      <c s="5" t="str" r="AA40"/>
-      <c s="21" r="AB40">
-        <v>119</v>
-      </c>
-      <c s="5" t="str" r="AC40"/>
-      <c s="21" r="AD40">
-        <v>119</v>
+      <c s="21" r="X40">
+        <v>120</v>
+      </c>
+      <c s="21" r="Y40">
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,7 +2291,7 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
@@ -2621,32 +2311,23 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q41"/>
-      <c s="22" r="R41">
-        <v>0</v>
+      <c s="21" r="R41">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="S41"/>
-      <c s="22" r="T41">
-        <v>0</v>
+      <c s="28" r="T41">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="21" r="V41">
-        <v>8</v>
+      <c s="22" r="V41">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="27" r="X41">
-        <v>37</v>
-      </c>
-      <c s="5" t="str" r="Y41"/>
-      <c s="22" r="Z41">
-        <v>35</v>
-      </c>
-      <c s="5" t="str" r="AA41"/>
-      <c s="21" r="AB41">
-        <v>109</v>
-      </c>
-      <c s="5" t="str" r="AC41"/>
-      <c s="21" r="AD41">
-        <v>109</v>
+      <c s="21" r="X41">
+        <v>123</v>
+      </c>
+      <c s="21" r="Y41">
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,12 +2340,12 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
       <c s="20" r="J42">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
@@ -2679,32 +2360,23 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q42"/>
-      <c s="22" r="R42">
-        <v>0</v>
+      <c s="21" r="R42">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="S42"/>
-      <c s="22" r="T42">
-        <v>0</v>
+      <c s="28" r="T42">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="21" r="V42">
-        <v>13</v>
+      <c s="22" r="V42">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="27" r="X42">
-        <v>50</v>
-      </c>
-      <c s="5" t="str" r="Y42"/>
-      <c s="22" r="Z42">
-        <v>47</v>
-      </c>
-      <c s="5" t="str" r="AA42"/>
-      <c s="21" r="AB42">
-        <v>143</v>
-      </c>
-      <c s="5" t="str" r="AC42"/>
-      <c s="21" r="AD42">
-        <v>143</v>
+      <c s="20" r="X42">
+        <v>150</v>
+      </c>
+      <c s="20" r="Y42">
+        <v>150</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2717,16 +2389,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="24" r="J43">
-        <v>46</v>
+      <c s="20" r="J43">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K43"/>
       <c s="21" r="L43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2737,38 +2409,29 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q43"/>
-      <c s="22" r="R43">
-        <v>0</v>
+      <c s="21" r="R43">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="S43"/>
-      <c s="22" r="T43">
-        <v>0</v>
+      <c s="28" r="T43">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="21" r="V43">
-        <v>9</v>
+      <c s="22" r="V43">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="27" r="X43">
-        <v>70</v>
-      </c>
-      <c s="5" t="str" r="Y43"/>
-      <c s="22" r="Z43">
-        <v>47</v>
-      </c>
-      <c s="5" t="str" r="AA43"/>
-      <c s="20" r="AB43">
-        <v>172</v>
-      </c>
-      <c s="5" t="str" r="AC43"/>
-      <c s="20" r="AD43">
-        <v>172</v>
+      <c s="21" r="X43">
+        <v>149</v>
+      </c>
+      <c s="21" r="Y43">
+        <v>149</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="25" t="str" r="A44"/>
-      <c s="26" t="str" r="B44"/>
-      <c s="26" t="str" r="C44"/>
+      <c s="26" t="str" r="A44"/>
+      <c s="27" t="str" r="B44"/>
+      <c s="27" t="str" r="C44"/>
       <c s="18" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2777,16 +2440,16 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="27" r="J44">
-        <v>62</v>
+      <c s="24" r="J44">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K44"/>
       <c s="20" r="L44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2797,40 +2460,31 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q44"/>
-      <c s="22" r="R44">
-        <v>0</v>
+      <c s="21" r="R44">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S44"/>
-      <c s="22" r="T44">
-        <v>0</v>
+      <c s="28" r="T44">
+        <v>89</v>
       </c>
       <c s="5" t="str" r="U44"/>
-      <c s="21" r="V44">
-        <v>2</v>
+      <c s="22" r="V44">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="27" r="X44">
-        <v>102</v>
-      </c>
-      <c s="5" t="str" r="Y44"/>
-      <c s="22" r="Z44">
-        <v>7</v>
-      </c>
-      <c s="5" t="str" r="AA44"/>
-      <c s="20" r="AB44">
-        <v>167</v>
-      </c>
-      <c s="5" t="str" r="AC44"/>
-      <c s="20" r="AD44">
-        <v>167</v>
+      <c s="21" r="X44">
+        <v>145</v>
+      </c>
+      <c s="21" r="Y44">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:AB1"/>
-    <mergeCell ref="C3:AB3"/>
+    <mergeCell ref="C1:Z1"/>
+    <mergeCell ref="C3:Z3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
@@ -2840,8 +2494,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
@@ -2851,8 +2503,6 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:J8"/>
@@ -2862,8 +2512,6 @@
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -2873,8 +2521,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I10:J10"/>
@@ -2884,8 +2530,6 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -2895,8 +2539,6 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -2906,8 +2548,6 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:J13"/>
@@ -2917,8 +2557,6 @@
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -2929,9 +2567,6 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="A16:C19"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
@@ -2942,9 +2577,6 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
@@ -2954,9 +2586,6 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -2966,9 +2595,6 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:K19"/>
@@ -2978,9 +2604,6 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="A20:C24"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
@@ -2991,9 +2614,6 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
@@ -3003,9 +2623,6 @@
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:K22"/>
@@ -3015,9 +2632,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:K23"/>
@@ -3027,9 +2641,6 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J24:K24"/>
@@ -3039,9 +2650,6 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="A25:C28"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3052,9 +2660,6 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:K26"/>
@@ -3064,9 +2669,6 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="J27:K27"/>
@@ -3076,9 +2678,6 @@
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:K28"/>
@@ -3088,9 +2687,6 @@
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
     <mergeCell ref="A29:C32"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:I29"/>
@@ -3101,9 +2697,6 @@
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -3113,9 +2706,6 @@
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:K31"/>
@@ -3125,9 +2715,6 @@
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:K32"/>
@@ -3137,9 +2724,6 @@
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T32:U32"/>
     <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="A33:C36"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -3150,9 +2734,6 @@
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="J34:K34"/>
@@ -3162,9 +2743,6 @@
     <mergeCell ref="R34:S34"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:K35"/>
@@ -3174,9 +2752,6 @@
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:K36"/>
@@ -3186,9 +2761,6 @@
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="T36:U36"/>
     <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="A37:C40"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
@@ -3199,9 +2771,6 @@
     <mergeCell ref="R37:S37"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="J38:K38"/>
@@ -3211,9 +2780,6 @@
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="T38:U38"/>
     <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:K39"/>
@@ -3223,9 +2789,6 @@
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="J40:K40"/>
@@ -3235,9 +2798,6 @@
     <mergeCell ref="R40:S40"/>
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="A41:C44"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="G41:I41"/>
@@ -3248,9 +2808,6 @@
     <mergeCell ref="R41:S41"/>
     <mergeCell ref="T41:U41"/>
     <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="J42:K42"/>
@@ -3260,9 +2817,6 @@
     <mergeCell ref="R42:S42"/>
     <mergeCell ref="T42:U42"/>
     <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AB42:AC42"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="J43:K43"/>
@@ -3272,9 +2826,6 @@
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="AB43:AC43"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
@@ -3284,14 +2835,11 @@
     <mergeCell ref="R44:S44"/>
     <mergeCell ref="T44:U44"/>
     <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/11/2026 12:33:40 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/12/2026 12:30:31 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -152,14 +152,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FF540202"/>
+        <bgColor rgb="FF540202"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF540202"/>
-        <bgColor rgb="FF540202"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,9 +339,6 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -349,6 +346,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -376,8 +376,8 @@
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -499,10 +499,14 @@
     <col min="21" max="21" customWidth="1" width="0.32421875"/>
     <col min="22" max="22" customWidth="1" width="8.54296875"/>
     <col min="23" max="23" customWidth="1" width="0.32421875"/>
-    <col min="24" max="24" customWidth="1" width="8.8515625"/>
-    <col min="25" max="25" customWidth="1" width="8.8515625"/>
-    <col min="26" max="26" customWidth="1" width="2.9921875"/>
-    <col min="27" max="27" customWidth="1" width="81.6640625"/>
+    <col min="24" max="24" customWidth="1" width="8.54296875"/>
+    <col min="25" max="25" customWidth="1" width="0.32421875"/>
+    <col min="26" max="26" customWidth="1" width="8.54296875"/>
+    <col min="27" max="27" customWidth="1" width="0.32421875"/>
+    <col min="28" max="28" customWidth="1" width="2.9921875"/>
+    <col min="29" max="29" customWidth="1" width="5.86328125"/>
+    <col min="30" max="30" customWidth="1" width="8.8515625"/>
+    <col min="31" max="31" customWidth="1" width="66.94140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.4" customHeight="1">
@@ -516,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/11/2026</t>
+          <t xml:space="preserve">Day: 01/12/2026</t>
         </is>
       </c>
     </row>
@@ -561,34 +565,46 @@
       <c s="5" t="str" r="L6"/>
       <c s="3" t="inlineStr" r="M6">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="N6"/>
       <c s="3" t="inlineStr" r="O6">
         <is>
-          <t xml:space="preserve">Service</t>
+          <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="P6"/>
       <c s="3" t="inlineStr" r="Q6">
         <is>
-          <t xml:space="preserve">Lane Queue</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="R6"/>
       <c s="3" t="inlineStr" r="S6">
         <is>
-          <t xml:space="preserve">Lane Total</t>
+          <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="T6"/>
       <c s="3" t="inlineStr" r="U6">
         <is>
+          <t xml:space="preserve">Lane Queue</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="V6"/>
+      <c s="3" t="inlineStr" r="W6">
+        <is>
+          <t xml:space="preserve">Lane Total</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="X6"/>
+      <c s="3" t="inlineStr" r="Y6">
+        <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
-      <c s="5" t="str" r="V6"/>
+      <c s="5" t="str" r="Z6"/>
     </row>
     <row r="7" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A7">
@@ -600,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c s="8" r="F7">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -621,22 +637,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="11" r="O7">
-        <v>64</v>
+      <c s="10" r="O7">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
       <c s="10" r="Q7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="9" r="S7">
-        <v>146</v>
+      <c s="8" r="S7">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>72</v>
+      <c s="10" r="U7">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="V7"/>
+      <c s="9" r="W7">
+        <v>132</v>
+      </c>
+      <c s="5" t="str" r="X7"/>
+      <c s="9" r="Y7">
+        <v>66</v>
+      </c>
+      <c s="5" t="str" r="Z7"/>
     </row>
     <row r="8" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A8">
@@ -648,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>456</v>
-      </c>
-      <c s="12" r="F8">
-        <v>31</v>
+        <v>513</v>
+      </c>
+      <c s="11" r="F8">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -669,22 +693,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="13" r="O8">
-        <v>53</v>
+      <c s="10" r="O8">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
       <c s="10" r="Q8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="9" r="S8">
-        <v>145</v>
+      <c s="12" r="S8">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>145</v>
+      <c s="10" r="U8">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="V8"/>
+      <c s="9" r="W8">
+        <v>123</v>
+      </c>
+      <c s="5" t="str" r="X8"/>
+      <c s="9" r="Y8">
+        <v>123</v>
+      </c>
+      <c s="5" t="str" r="Z8"/>
     </row>
     <row r="9" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A9">
@@ -696,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c s="13" r="F9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="9" r="H9">
-        <v>4</v>
+      <c s="8" r="H9">
+        <v>6</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -717,22 +749,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="13" r="O9">
-        <v>65</v>
+      <c s="10" r="O9">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
       <c s="10" r="Q9">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="11" r="S9">
-        <v>170</v>
+      <c s="12" r="S9">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="11" r="U9">
-        <v>170</v>
+      <c s="10" r="U9">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="V9"/>
+      <c s="8" r="W9">
+        <v>162</v>
+      </c>
+      <c s="5" t="str" r="X9"/>
+      <c s="8" r="Y9">
+        <v>162</v>
+      </c>
+      <c s="5" t="str" r="Z9"/>
     </row>
     <row r="10" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A10">
@@ -744,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c s="13" r="F10">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="9" r="H10">
-        <v>4</v>
+      <c s="8" r="H10">
+        <v>5</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -765,22 +805,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="13" r="O10">
-        <v>61</v>
+      <c s="10" r="O10">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
       <c s="10" r="Q10">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="12" r="U10">
-        <v>182</v>
+      <c s="10" r="U10">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="V10"/>
+      <c s="9" r="W10">
+        <v>125</v>
+      </c>
+      <c s="5" t="str" r="X10"/>
+      <c s="9" r="Y10">
+        <v>125</v>
+      </c>
+      <c s="5" t="str" r="Z10"/>
     </row>
     <row r="11" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A11">
@@ -792,10 +840,10 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>211</v>
-      </c>
-      <c s="11" r="F11">
-        <v>46</v>
+        <v>216</v>
+      </c>
+      <c s="8" r="F11">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
@@ -809,26 +857,34 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
-        <v>9</v>
+      <c s="10" r="M11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="13" r="O11">
-        <v>73</v>
+      <c s="10" r="O11">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="10" r="Q11">
-        <v>34</v>
+      <c s="9" r="Q11">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="8" r="S11">
-        <v>128</v>
+      <c s="12" r="S11">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="8" r="U11">
-        <v>163</v>
+      <c s="10" r="U11">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="V11"/>
+      <c s="9" r="W11">
+        <v>99</v>
+      </c>
+      <c s="5" t="str" r="X11"/>
+      <c s="8" r="Y11">
+        <v>131</v>
+      </c>
+      <c s="5" t="str" r="Z11"/>
     </row>
     <row r="12" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A12">
@@ -840,7 +896,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -850,33 +906,41 @@
         <v>0</v>
       </c>
       <c s="13" r="I12">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="10" r="M12">
+      <c s="9" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="13" r="O12">
-        <v>79</v>
+      <c s="9" r="O12">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="13" r="S12">
-        <v>223</v>
+      <c s="12" r="S12">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="13" r="U12">
-        <v>223</v>
+      <c s="10" r="U12">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="V12"/>
+      <c s="11" r="W12">
+        <v>176</v>
+      </c>
+      <c s="5" t="str" r="X12"/>
+      <c s="11" r="Y12">
+        <v>176</v>
+      </c>
+      <c s="5" t="str" r="Z12"/>
     </row>
     <row r="13" ht="18" customHeight="0">
       <c s="6" t="inlineStr" r="A13">
@@ -888,10 +952,10 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>366</v>
-      </c>
-      <c s="8" r="F13">
-        <v>34</v>
+        <v>347</v>
+      </c>
+      <c s="9" r="F13">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G13"/>
       <c s="9" r="H13">
@@ -905,26 +969,34 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="9" r="M13">
-        <v>9</v>
+      <c s="10" r="M13">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="13" r="O13">
-        <v>55</v>
+      <c s="10" r="O13">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="10" r="Q13">
-        <v>43</v>
+      <c s="9" r="Q13">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="9" r="S13">
-        <v>139</v>
+      <c s="12" r="S13">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T13"/>
-      <c s="9" r="U13">
-        <v>139</v>
+      <c s="10" r="U13">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="V13"/>
+      <c s="9" r="W13">
+        <v>118</v>
+      </c>
+      <c s="5" t="str" r="X13"/>
+      <c s="9" r="Y13">
+        <v>118</v>
+      </c>
+      <c s="5" t="str" r="Z13"/>
     </row>
     <row r="14" ht="4.95" customHeight="1"/>
     <row r="15" ht="32.25" customHeight="0">
@@ -975,28 +1047,41 @@
       <c s="5" t="str" r="Q15"/>
       <c s="15" t="inlineStr" r="R15">
         <is>
-          <t xml:space="preserve">Cashier</t>
+          <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S15"/>
       <c s="15" t="inlineStr" r="T15">
         <is>
-          <t xml:space="preserve">Service</t>
+          <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U15"/>
       <c s="15" t="inlineStr" r="V15">
         <is>
-          <t xml:space="preserve">Lane Queue</t>
+          <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W15"/>
       <c s="15" t="inlineStr" r="X15">
         <is>
+          <t xml:space="preserve">Service</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="Y15"/>
+      <c s="15" t="inlineStr" r="Z15">
+        <is>
+          <t xml:space="preserve">Lane Queue</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="AA15"/>
+      <c s="15" t="inlineStr" r="AB15">
+        <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
-      <c s="15" t="inlineStr" r="Y15">
+      <c s="5" t="str" r="AC15"/>
+      <c s="15" t="inlineStr" r="AD15">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
@@ -1018,12 +1103,12 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
@@ -1042,19 +1127,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="20" r="T16">
-        <v>49</v>
+      <c s="22" r="T16">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
       <c s="22" r="V16">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="21" r="X16">
-        <v>113</v>
-      </c>
-      <c s="21" r="Y16">
-        <v>56</v>
+      <c s="20" r="X16">
+        <v>46</v>
+      </c>
+      <c s="5" t="str" r="Y16"/>
+      <c s="22" r="Z16">
+        <v>42</v>
+      </c>
+      <c s="5" t="str" r="AA16"/>
+      <c s="21" r="AB16">
+        <v>114</v>
+      </c>
+      <c s="5" t="str" r="AC16"/>
+      <c s="21" r="AD16">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1067,12 +1161,12 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="21" r="L17">
@@ -1091,19 +1185,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="24" r="T17">
-        <v>61</v>
+      <c s="22" r="T17">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
       <c s="22" r="V17">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
       <c s="24" r="X17">
-        <v>150</v>
-      </c>
-      <c s="21" r="Y17">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c s="5" t="str" r="Y17"/>
+      <c s="22" r="Z17">
+        <v>33</v>
+      </c>
+      <c s="5" t="str" r="AA17"/>
+      <c s="21" r="AB17">
+        <v>137</v>
+      </c>
+      <c s="5" t="str" r="AC17"/>
+      <c s="21" r="AD17">
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1116,16 +1219,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="24" r="L18">
-        <v>10</v>
+      <c s="21" r="L18">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1140,25 +1243,34 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="25" r="T18">
-        <v>101</v>
+      <c s="22" r="T18">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
       <c s="22" r="V18">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
       <c s="24" r="X18">
-        <v>209</v>
-      </c>
-      <c s="20" r="Y18">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c s="5" t="str" r="Y18"/>
+      <c s="22" r="Z18">
+        <v>71</v>
+      </c>
+      <c s="5" t="str" r="AA18"/>
+      <c s="24" r="AB18">
+        <v>194</v>
+      </c>
+      <c s="5" t="str" r="AC18"/>
+      <c s="20" r="AD18">
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="26" t="str" r="A19"/>
-      <c s="27" t="str" r="B19"/>
-      <c s="27" t="str" r="C19"/>
+      <c s="25" t="str" r="A19"/>
+      <c s="26" t="str" r="B19"/>
+      <c s="26" t="str" r="C19"/>
       <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1167,12 +1279,12 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="24" r="J19">
-        <v>60</v>
+      <c s="20" r="J19">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
@@ -1191,19 +1303,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="24" r="T19">
-        <v>69</v>
+      <c s="22" r="T19">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
       <c s="22" r="V19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="21" r="X19">
-        <v>137</v>
-      </c>
-      <c s="21" r="Y19">
-        <v>68</v>
+      <c s="24" r="X19">
+        <v>88</v>
+      </c>
+      <c s="5" t="str" r="Y19"/>
+      <c s="22" r="Z19">
+        <v>6</v>
+      </c>
+      <c s="5" t="str" r="AA19"/>
+      <c s="21" r="AB19">
+        <v>130</v>
+      </c>
+      <c s="5" t="str" r="AC19"/>
+      <c s="21" r="AD19">
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1222,16 +1343,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="20" r="J20">
-        <v>21</v>
+      <c s="27" r="J20">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="21" r="L20">
-        <v>3</v>
+      <c s="27" r="L20">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1246,19 +1367,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="28" r="T20">
-        <v>110</v>
+      <c s="22" r="T20">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
       <c s="22" r="V20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="21" r="X20">
-        <v>141</v>
-      </c>
-      <c s="21" r="Y20">
-        <v>141</v>
+      <c s="28" r="X20">
+        <v>82</v>
+      </c>
+      <c s="5" t="str" r="Y20"/>
+      <c s="22" r="Z20">
+        <v>10</v>
+      </c>
+      <c s="5" t="str" r="AA20"/>
+      <c s="21" r="AB20">
+        <v>126</v>
+      </c>
+      <c s="5" t="str" r="AC20"/>
+      <c s="21" r="AD20">
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1271,16 +1401,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
       <c s="24" r="J21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1295,19 +1425,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="28" r="T21">
-        <v>48</v>
+      <c s="22" r="T21">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
       <c s="22" r="V21">
+        <v>0</v>
+      </c>
+      <c s="5" t="str" r="W21"/>
+      <c s="24" r="X21">
+        <v>37</v>
+      </c>
+      <c s="5" t="str" r="Y21"/>
+      <c s="22" r="Z21">
         <v>53</v>
       </c>
-      <c s="5" t="str" r="W21"/>
-      <c s="21" r="X21">
-        <v>130</v>
-      </c>
-      <c s="21" r="Y21">
-        <v>130</v>
+      <c s="5" t="str" r="AA21"/>
+      <c s="21" r="AB21">
+        <v>117</v>
+      </c>
+      <c s="5" t="str" r="AC21"/>
+      <c s="21" r="AD21">
+        <v>117</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1320,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="25" r="J22">
-        <v>31</v>
+      <c s="24" r="J22">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1344,19 +1483,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="28" r="T22">
-        <v>46</v>
+      <c s="22" r="T22">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
       <c s="22" r="V22">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="20" r="X22">
-        <v>154</v>
-      </c>
-      <c s="20" r="Y22">
-        <v>154</v>
+      <c s="28" r="X22">
+        <v>54</v>
+      </c>
+      <c s="5" t="str" r="Y22"/>
+      <c s="22" r="Z22">
+        <v>52</v>
+      </c>
+      <c s="5" t="str" r="AA22"/>
+      <c s="21" r="AB22">
+        <v>134</v>
+      </c>
+      <c s="5" t="str" r="AC22"/>
+      <c s="21" r="AD22">
+        <v>134</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1369,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>41</v>
+      <c s="24" r="J23">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1393,25 +1541,34 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="28" r="T23">
-        <v>72</v>
+      <c s="22" r="T23">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
       <c s="22" r="V23">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="21" r="X23">
-        <v>149</v>
-      </c>
-      <c s="21" r="Y23">
-        <v>149</v>
+      <c s="28" r="X23">
+        <v>65</v>
+      </c>
+      <c s="5" t="str" r="Y23"/>
+      <c s="22" r="Z23">
+        <v>32</v>
+      </c>
+      <c s="5" t="str" r="AA23"/>
+      <c s="21" r="AB23">
+        <v>126</v>
+      </c>
+      <c s="5" t="str" r="AC23"/>
+      <c s="21" r="AD23">
+        <v>126</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="26" t="str" r="A24"/>
-      <c s="27" t="str" r="B24"/>
-      <c s="27" t="str" r="C24"/>
+      <c s="25" t="str" r="A24"/>
+      <c s="26" t="str" r="B24"/>
+      <c s="26" t="str" r="C24"/>
       <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1420,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>37</v>
+      <c s="27" r="J24">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="21" r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1444,19 +1601,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="28" r="T24">
-        <v>125</v>
+      <c s="22" r="T24">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
       <c s="22" r="V24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="24" r="X24">
-        <v>178</v>
-      </c>
-      <c s="24" r="Y24">
-        <v>178</v>
+      <c s="28" r="X24">
+        <v>88</v>
+      </c>
+      <c s="5" t="str" r="Y24"/>
+      <c s="22" r="Z24">
+        <v>11</v>
+      </c>
+      <c s="5" t="str" r="AA24"/>
+      <c s="21" r="AB24">
+        <v>130</v>
+      </c>
+      <c s="5" t="str" r="AC24"/>
+      <c s="21" r="AD24">
+        <v>130</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1475,16 +1641,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="24" r="J25">
-        <v>28</v>
+      <c s="27" r="J25">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="21" r="L25">
-        <v>3</v>
+      <c s="20" r="L25">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1499,19 +1665,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="28" r="T25">
-        <v>52</v>
+      <c s="22" r="T25">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
       <c s="22" r="V25">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="21" r="X25">
-        <v>134</v>
-      </c>
-      <c s="21" r="Y25">
-        <v>134</v>
+      <c s="28" r="X25">
+        <v>58</v>
+      </c>
+      <c s="5" t="str" r="Y25"/>
+      <c s="22" r="Z25">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="AA25"/>
+      <c s="24" r="AB25">
+        <v>170</v>
+      </c>
+      <c s="5" t="str" r="AC25"/>
+      <c s="24" r="AD25">
+        <v>170</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1524,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="28" r="J26">
-        <v>39</v>
+      <c s="27" r="J26">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="20" r="L26">
-        <v>5</v>
+      <c s="21" r="L26">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1548,19 +1723,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="28" r="T26">
-        <v>60</v>
+      <c s="22" r="T26">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
       <c s="22" r="V26">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="25" r="X26">
-        <v>190</v>
-      </c>
-      <c s="25" r="Y26">
-        <v>190</v>
+      <c s="28" r="X26">
+        <v>63</v>
+      </c>
+      <c s="5" t="str" r="Y26"/>
+      <c s="22" r="Z26">
+        <v>29</v>
+      </c>
+      <c s="5" t="str" r="AA26"/>
+      <c s="21" r="AB26">
+        <v>123</v>
+      </c>
+      <c s="5" t="str" r="AC26"/>
+      <c s="21" r="AD26">
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1573,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="20" r="L27">
-        <v>5</v>
+      <c s="24" r="L27">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1597,25 +1781,34 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="28" r="T27">
-        <v>99</v>
+      <c s="22" r="T27">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
       <c s="22" r="V27">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>199</v>
-      </c>
-      <c s="28" r="Y27">
-        <v>199</v>
+        <v>84</v>
+      </c>
+      <c s="5" t="str" r="Y27"/>
+      <c s="22" r="Z27">
+        <v>61</v>
+      </c>
+      <c s="5" t="str" r="AA27"/>
+      <c s="27" r="AB27">
+        <v>185</v>
+      </c>
+      <c s="5" t="str" r="AC27"/>
+      <c s="27" r="AD27">
+        <v>185</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="26" t="str" r="A28"/>
-      <c s="27" t="str" r="B28"/>
-      <c s="27" t="str" r="C28"/>
+      <c s="25" t="str" r="A28"/>
+      <c s="26" t="str" r="B28"/>
+      <c s="26" t="str" r="C28"/>
       <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1624,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="24" r="L28">
-        <v>7</v>
+      <c s="21" r="L28">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1648,19 +1841,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="28" r="T28">
-        <v>110</v>
+      <c s="22" r="T28">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
       <c s="22" r="V28">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="25" r="X28">
-        <v>182</v>
-      </c>
-      <c s="25" r="Y28">
-        <v>182</v>
+      <c s="28" r="X28">
+        <v>146</v>
+      </c>
+      <c s="5" t="str" r="Y28"/>
+      <c s="22" r="Z28">
+        <v>20</v>
+      </c>
+      <c s="5" t="str" r="AA28"/>
+      <c s="28" r="AB28">
+        <v>201</v>
+      </c>
+      <c s="5" t="str" r="AC28"/>
+      <c s="28" r="AD28">
+        <v>201</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1679,16 +1881,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="24" r="J29">
-        <v>29</v>
+      <c s="20" r="J29">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1703,19 +1905,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="28" r="T29">
-        <v>53</v>
+      <c s="22" r="T29">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
       <c s="22" r="V29">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="25" r="X29">
-        <v>194</v>
-      </c>
-      <c s="25" r="Y29">
-        <v>194</v>
+      <c s="24" r="X29">
+        <v>39</v>
+      </c>
+      <c s="5" t="str" r="Y29"/>
+      <c s="22" r="Z29">
+        <v>32</v>
+      </c>
+      <c s="5" t="str" r="AA29"/>
+      <c s="21" r="AB29">
+        <v>95</v>
+      </c>
+      <c s="5" t="str" r="AC29"/>
+      <c s="21" r="AD29">
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1728,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>6</v>
+      <c s="21" r="L30">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1752,19 +1963,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="28" r="T30">
-        <v>64</v>
+      <c s="22" r="T30">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
       <c s="22" r="V30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="25" r="X30">
-        <v>187</v>
-      </c>
-      <c s="25" r="Y30">
-        <v>187</v>
+      <c s="28" r="X30">
+        <v>63</v>
+      </c>
+      <c s="5" t="str" r="Y30"/>
+      <c s="22" r="Z30">
+        <v>44</v>
+      </c>
+      <c s="5" t="str" r="AA30"/>
+      <c s="21" r="AB30">
+        <v>149</v>
+      </c>
+      <c s="5" t="str" r="AC30"/>
+      <c s="21" r="AD30">
+        <v>149</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1777,16 +1997,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="20" r="L31">
-        <v>5</v>
+      <c s="24" r="L31">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -1801,25 +2021,34 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="28" r="T31">
-        <v>66</v>
+      <c s="22" r="T31">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
       <c s="22" r="V31">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="21" r="X31">
-        <v>130</v>
-      </c>
-      <c s="21" r="Y31">
-        <v>130</v>
+      <c s="28" r="X31">
+        <v>104</v>
+      </c>
+      <c s="5" t="str" r="Y31"/>
+      <c s="22" r="Z31">
+        <v>51</v>
+      </c>
+      <c s="5" t="str" r="AA31"/>
+      <c s="28" r="AB31">
+        <v>201</v>
+      </c>
+      <c s="5" t="str" r="AC31"/>
+      <c s="28" r="AD31">
+        <v>201</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="26" t="str" r="A32"/>
-      <c s="27" t="str" r="B32"/>
-      <c s="27" t="str" r="C32"/>
+      <c s="25" t="str" r="A32"/>
+      <c s="26" t="str" r="B32"/>
+      <c s="26" t="str" r="C32"/>
       <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1828,16 +2057,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="28" r="J32">
-        <v>44</v>
+      <c s="27" r="J32">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="21" r="L32">
-        <v>2</v>
+      <c s="20" r="L32">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -1852,19 +2081,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="28" r="T32">
-        <v>116</v>
+      <c s="22" r="T32">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
       <c s="22" r="V32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="24" r="X32">
-        <v>165</v>
-      </c>
-      <c s="24" r="Y32">
-        <v>165</v>
+      <c s="28" r="X32">
+        <v>65</v>
+      </c>
+      <c s="5" t="str" r="Y32"/>
+      <c s="22" r="Z32">
+        <v>11</v>
+      </c>
+      <c s="5" t="str" r="AA32"/>
+      <c s="21" r="AB32">
+        <v>105</v>
+      </c>
+      <c s="5" t="str" r="AC32"/>
+      <c s="21" r="AD32">
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -1883,16 +2121,16 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="20" r="J33">
-        <v>31</v>
+      <c s="21" r="J33">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="22" r="N33">
@@ -1903,23 +2141,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="21" r="R33">
-        <v>3</v>
+      <c s="22" r="R33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="28" r="T33">
-        <v>51</v>
+      <c s="22" r="T33">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="22" r="V33">
-        <v>21</v>
+      <c s="21" r="V33">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="21" r="X33">
-        <v>85</v>
-      </c>
-      <c s="21" r="Y33">
-        <v>107</v>
+      <c s="28" r="X33">
+        <v>49</v>
+      </c>
+      <c s="5" t="str" r="Y33"/>
+      <c s="22" r="Z33">
+        <v>28</v>
+      </c>
+      <c s="5" t="str" r="AA33"/>
+      <c s="21" r="AB33">
+        <v>81</v>
+      </c>
+      <c s="5" t="str" r="AC33"/>
+      <c s="21" r="AD33">
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -1932,12 +2179,12 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="25" r="J34">
-        <v>55</v>
+      <c s="20" r="J34">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
@@ -1952,23 +2199,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
-        <v>13</v>
+      <c s="22" r="R34">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="28" r="T34">
-        <v>72</v>
+      <c s="22" r="T34">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="22" r="V34">
-        <v>42</v>
+      <c s="21" r="V34">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="20" r="X34">
-        <v>140</v>
-      </c>
-      <c s="24" r="Y34">
-        <v>183</v>
+      <c s="28" r="X34">
+        <v>59</v>
+      </c>
+      <c s="5" t="str" r="Y34"/>
+      <c s="22" r="Z34">
+        <v>26</v>
+      </c>
+      <c s="5" t="str" r="AA34"/>
+      <c s="21" r="AB34">
+        <v>97</v>
+      </c>
+      <c s="5" t="str" r="AC34"/>
+      <c s="20" r="AD34">
+        <v>124</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -1985,8 +2241,8 @@
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="25" r="J35">
-        <v>51</v>
+      <c s="24" r="J35">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="21" r="L35">
@@ -2001,29 +2257,38 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
-        <v>14</v>
+      <c s="22" r="R35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="28" r="T35">
-        <v>115</v>
+      <c s="22" r="T35">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="22" r="V35">
-        <v>40</v>
+      <c s="21" r="V35">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="20" r="X35">
-        <v>178</v>
-      </c>
-      <c s="24" r="Y35">
-        <v>219</v>
+      <c s="28" r="X35">
+        <v>124</v>
+      </c>
+      <c s="5" t="str" r="Y35"/>
+      <c s="22" r="Z35">
+        <v>56</v>
+      </c>
+      <c s="5" t="str" r="AA35"/>
+      <c s="20" r="AB35">
+        <v>170</v>
+      </c>
+      <c s="5" t="str" r="AC35"/>
+      <c s="24" r="AD35">
+        <v>226</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="26" t="str" r="A36"/>
-      <c s="27" t="str" r="B36"/>
-      <c s="27" t="str" r="C36"/>
+      <c s="25" t="str" r="A36"/>
+      <c s="26" t="str" r="B36"/>
+      <c s="26" t="str" r="C36"/>
       <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2032,12 +2297,12 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="25" r="J36">
-        <v>57</v>
+      <c s="21" r="J36">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="21" r="L36">
@@ -2052,23 +2317,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="21" r="R36">
-        <v>3</v>
+      <c s="22" r="R36">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="28" r="T36">
-        <v>127</v>
+      <c s="22" r="T36">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="22" r="V36">
-        <v>27</v>
+      <c s="21" r="V36">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="24" r="X36">
-        <v>187</v>
-      </c>
-      <c s="24" r="Y36">
-        <v>214</v>
+      <c s="28" r="X36">
+        <v>62</v>
+      </c>
+      <c s="5" t="str" r="Y36"/>
+      <c s="22" r="Z36">
+        <v>13</v>
+      </c>
+      <c s="5" t="str" r="AA36"/>
+      <c s="21" r="AB36">
+        <v>88</v>
+      </c>
+      <c s="5" t="str" r="AC36"/>
+      <c s="21" r="AD36">
+        <v>101</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2087,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2099,31 +2373,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="25" r="N37">
-        <v>33</v>
+      <c s="24" r="N37">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="22" r="R37">
+      <c s="21" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="28" r="T37">
-        <v>71</v>
+      <c s="21" r="T37">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
       <c s="22" r="V37">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="25" r="X37">
-        <v>194</v>
-      </c>
-      <c s="25" r="Y37">
-        <v>193</v>
+      <c s="28" r="X37">
+        <v>57</v>
+      </c>
+      <c s="5" t="str" r="Y37"/>
+      <c s="22" r="Z37">
+        <v>82</v>
+      </c>
+      <c s="5" t="str" r="AA37"/>
+      <c s="24" r="AB37">
+        <v>168</v>
+      </c>
+      <c s="5" t="str" r="AC37"/>
+      <c s="24" r="AD37">
+        <v>168</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2136,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2148,31 +2431,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="28" r="N38">
-        <v>44</v>
+      <c s="27" r="N38">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="21" r="P38">
-        <v>3</v>
+      <c s="20" r="P38">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
+      <c s="21" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="28" r="T38">
-        <v>88</v>
+      <c s="21" r="T38">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="22" r="V38">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>284</v>
-      </c>
-      <c s="28" r="Y38">
-        <v>284</v>
+        <v>97</v>
+      </c>
+      <c s="5" t="str" r="Y38"/>
+      <c s="22" r="Z38">
+        <v>61</v>
+      </c>
+      <c s="5" t="str" r="AA38"/>
+      <c s="27" r="AB38">
+        <v>190</v>
+      </c>
+      <c s="5" t="str" r="AC38"/>
+      <c s="27" r="AD38">
+        <v>190</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2198,36 +2490,45 @@
       </c>
       <c s="5" t="str" r="M39"/>
       <c s="28" r="N39">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="22" r="R39">
+      <c s="21" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="28" r="T39">
-        <v>81</v>
+      <c s="21" r="T39">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="22" r="V39">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="24" r="X39">
-        <v>169</v>
-      </c>
-      <c s="24" r="Y39">
-        <v>169</v>
+      <c s="28" r="X39">
+        <v>99</v>
+      </c>
+      <c s="5" t="str" r="Y39"/>
+      <c s="22" r="Z39">
+        <v>72</v>
+      </c>
+      <c s="5" t="str" r="AA39"/>
+      <c s="28" r="AB39">
+        <v>205</v>
+      </c>
+      <c s="5" t="str" r="AC39"/>
+      <c s="28" r="AD39">
+        <v>205</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="26" t="str" r="A40"/>
-      <c s="27" t="str" r="B40"/>
-      <c s="27" t="str" r="C40"/>
+      <c s="25" t="str" r="A40"/>
+      <c s="26" t="str" r="B40"/>
+      <c s="26" t="str" r="C40"/>
       <c s="18" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2236,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2248,31 +2549,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="24" r="N40">
-        <v>26</v>
+      <c s="27" r="N40">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O40"/>
-      <c s="24" r="P40">
-        <v>7</v>
+      <c s="21" r="P40">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="22" r="R40">
+      <c s="21" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="28" r="T40">
-        <v>63</v>
+      <c s="21" r="T40">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
       <c s="22" r="V40">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="21" r="X40">
-        <v>120</v>
-      </c>
-      <c s="21" r="Y40">
-        <v>120</v>
+      <c s="28" r="X40">
+        <v>79</v>
+      </c>
+      <c s="5" t="str" r="Y40"/>
+      <c s="22" r="Z40">
+        <v>14</v>
+      </c>
+      <c s="5" t="str" r="AA40"/>
+      <c s="21" r="AB40">
+        <v>128</v>
+      </c>
+      <c s="5" t="str" r="AC40"/>
+      <c s="21" r="AD40">
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2291,16 +2601,16 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
-      <c s="20" r="J41">
-        <v>30</v>
+      <c s="21" r="J41">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2311,23 +2621,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q41"/>
-      <c s="21" r="R41">
-        <v>9</v>
+      <c s="22" r="R41">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S41"/>
-      <c s="28" r="T41">
-        <v>49</v>
+      <c s="22" r="T41">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="22" r="V41">
-        <v>38</v>
+      <c s="21" r="V41">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="21" r="X41">
-        <v>123</v>
-      </c>
-      <c s="21" r="Y41">
-        <v>123</v>
+      <c s="28" r="X41">
+        <v>44</v>
+      </c>
+      <c s="5" t="str" r="Y41"/>
+      <c s="22" r="Z41">
+        <v>35</v>
+      </c>
+      <c s="5" t="str" r="AA41"/>
+      <c s="21" r="AB41">
+        <v>109</v>
+      </c>
+      <c s="5" t="str" r="AC41"/>
+      <c s="21" r="AD41">
+        <v>109</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2340,12 +2659,12 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
       <c s="20" r="J42">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
@@ -2360,23 +2679,32 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q42"/>
-      <c s="21" r="R42">
-        <v>11</v>
+      <c s="22" r="R42">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S42"/>
-      <c s="28" r="T42">
-        <v>53</v>
+      <c s="22" r="T42">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="22" r="V42">
-        <v>50</v>
+      <c s="21" r="V42">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="20" r="X42">
-        <v>150</v>
-      </c>
-      <c s="20" r="Y42">
-        <v>150</v>
+      <c s="28" r="X42">
+        <v>59</v>
+      </c>
+      <c s="5" t="str" r="Y42"/>
+      <c s="22" r="Z42">
+        <v>32</v>
+      </c>
+      <c s="5" t="str" r="AA42"/>
+      <c s="21" r="AB42">
+        <v>129</v>
+      </c>
+      <c s="5" t="str" r="AC42"/>
+      <c s="21" r="AD42">
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2389,16 +2717,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
       <c s="20" r="J43">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K43"/>
       <c s="21" r="L43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2409,29 +2737,38 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q43"/>
-      <c s="21" r="R43">
-        <v>5</v>
+      <c s="22" r="R43">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S43"/>
-      <c s="28" r="T43">
-        <v>72</v>
+      <c s="22" r="T43">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="22" r="V43">
-        <v>36</v>
+      <c s="21" r="V43">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="21" r="X43">
-        <v>149</v>
-      </c>
-      <c s="21" r="Y43">
-        <v>149</v>
+      <c s="28" r="X43">
+        <v>70</v>
+      </c>
+      <c s="5" t="str" r="Y43"/>
+      <c s="22" r="Z43">
+        <v>22</v>
+      </c>
+      <c s="5" t="str" r="AA43"/>
+      <c s="21" r="AB43">
+        <v>121</v>
+      </c>
+      <c s="5" t="str" r="AC43"/>
+      <c s="21" r="AD43">
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="26" t="str" r="A44"/>
-      <c s="27" t="str" r="B44"/>
-      <c s="27" t="str" r="C44"/>
+      <c s="25" t="str" r="A44"/>
+      <c s="26" t="str" r="B44"/>
+      <c s="26" t="str" r="C44"/>
       <c s="18" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2440,16 +2777,16 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="24" r="J44">
-        <v>43</v>
+      <c s="20" r="J44">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K44"/>
-      <c s="20" r="L44">
-        <v>5</v>
+      <c s="21" r="L44">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2460,31 +2797,40 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q44"/>
-      <c s="21" r="R44">
-        <v>1</v>
+      <c s="22" r="R44">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S44"/>
-      <c s="28" r="T44">
-        <v>89</v>
+      <c s="22" r="T44">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U44"/>
-      <c s="22" r="V44">
-        <v>20</v>
+      <c s="21" r="V44">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="21" r="X44">
-        <v>145</v>
-      </c>
-      <c s="21" r="Y44">
-        <v>145</v>
+      <c s="28" r="X44">
+        <v>93</v>
+      </c>
+      <c s="5" t="str" r="Y44"/>
+      <c s="22" r="Z44">
+        <v>35</v>
+      </c>
+      <c s="5" t="str" r="AA44"/>
+      <c s="20" r="AB44">
+        <v>161</v>
+      </c>
+      <c s="5" t="str" r="AC44"/>
+      <c s="20" r="AD44">
+        <v>161</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:Z1"/>
-    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="C1:AB1"/>
+    <mergeCell ref="C3:AB3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
@@ -2494,6 +2840,8 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
@@ -2503,6 +2851,8 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I8:J8"/>
@@ -2512,6 +2862,8 @@
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I9:J9"/>
@@ -2521,6 +2873,8 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I10:J10"/>
@@ -2530,6 +2884,8 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -2539,6 +2895,8 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -2548,6 +2906,8 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:J13"/>
@@ -2557,6 +2917,8 @@
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -2567,6 +2929,9 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="A16:C19"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
@@ -2577,6 +2942,9 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
@@ -2586,6 +2954,9 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -2595,6 +2966,9 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:K19"/>
@@ -2604,6 +2978,9 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="A20:C24"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
@@ -2614,6 +2991,9 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:K21"/>
@@ -2623,6 +3003,9 @@
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:K22"/>
@@ -2632,6 +3015,9 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:K23"/>
@@ -2641,6 +3027,9 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J24:K24"/>
@@ -2650,6 +3039,9 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="A25:C28"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2660,6 +3052,9 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:K26"/>
@@ -2669,6 +3064,9 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="J27:K27"/>
@@ -2678,6 +3076,9 @@
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:K28"/>
@@ -2687,6 +3088,9 @@
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
     <mergeCell ref="A29:C32"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:I29"/>
@@ -2697,6 +3101,9 @@
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -2706,6 +3113,9 @@
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:K31"/>
@@ -2715,6 +3125,9 @@
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:K32"/>
@@ -2724,6 +3137,9 @@
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T32:U32"/>
     <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="A33:C36"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -2734,6 +3150,9 @@
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="J34:K34"/>
@@ -2743,6 +3162,9 @@
     <mergeCell ref="R34:S34"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:K35"/>
@@ -2752,6 +3174,9 @@
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:K36"/>
@@ -2761,6 +3186,9 @@
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="T36:U36"/>
     <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
     <mergeCell ref="A37:C40"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
@@ -2771,6 +3199,9 @@
     <mergeCell ref="R37:S37"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="J38:K38"/>
@@ -2780,6 +3211,9 @@
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="T38:U38"/>
     <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="J39:K39"/>
@@ -2789,6 +3223,9 @@
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="J40:K40"/>
@@ -2798,6 +3235,9 @@
     <mergeCell ref="R40:S40"/>
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
     <mergeCell ref="A41:C44"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="G41:I41"/>
@@ -2808,6 +3248,9 @@
     <mergeCell ref="R41:S41"/>
     <mergeCell ref="T41:U41"/>
     <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="J42:K42"/>
@@ -2817,6 +3260,9 @@
     <mergeCell ref="R42:S42"/>
     <mergeCell ref="T42:U42"/>
     <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="J43:K43"/>
@@ -2826,6 +3272,9 @@
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AC43"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
@@ -2835,11 +3284,14 @@
     <mergeCell ref="R44:S44"/>
     <mergeCell ref="T44:U44"/>
     <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/12/2026 12:30:31 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/13/2026 12:32:46 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,8 +146,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,8 +158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,9 +303,6 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -336,7 +333,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -345,10 +342,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,9 +372,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00B40000"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00E35454"/>
-      <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +517,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/12/2026</t>
+          <t xml:space="preserve">Day: 01/14/2026</t>
         </is>
       </c>
     </row>
@@ -616,14 +613,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c s="8" r="F7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -650,7 +647,7 @@
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
@@ -672,14 +669,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c s="11" r="F8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -702,19 +699,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,9 +725,9 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>397</v>
-      </c>
-      <c s="13" r="F9">
+        <v>391</v>
+      </c>
+      <c s="11" r="F9">
         <v>33</v>
       </c>
       <c s="5" t="str" r="G9"/>
@@ -758,19 +755,19 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="8" r="W9">
-        <v>162</v>
+      <c s="9" r="W9">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="8" r="Y9">
-        <v>162</v>
+      <c s="9" r="Y9">
+        <v>143</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +781,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>318</v>
-      </c>
-      <c s="13" r="F10">
-        <v>32</v>
+        <v>379</v>
+      </c>
+      <c s="11" r="F10">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="8" r="H10">
-        <v>5</v>
+      <c s="9" r="H10">
+        <v>3</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -814,19 +811,19 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="9" r="W10">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="9" r="Y10">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,10 +837,10 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c s="8" r="F11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
@@ -866,23 +863,23 @@
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="9" r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="V11"/>
       <c s="9" r="W11">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="8" r="Y11">
-        <v>131</v>
+      <c s="9" r="Y11">
+        <v>117</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,7 +893,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,8 +902,8 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="13" r="I12">
-        <v>31</v>
+      <c s="11" r="I12">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
@@ -926,19 +923,19 @@
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="V12"/>
       <c s="11" r="W12">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c s="5" t="str" r="X12"/>
       <c s="11" r="Y12">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,14 +949,14 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c s="9" r="F13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G13"/>
       <c s="9" r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I13">
         <v>0</v>
@@ -978,29 +975,29 @@
       </c>
       <c s="5" t="str" r="P13"/>
       <c s="9" r="Q13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c s="5" t="str" r="R13"/>
       <c s="12" r="S13">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="V13"/>
       <c s="9" r="W13">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="X13"/>
       <c s="9" r="Y13">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
     <row r="14" ht="4.95" customHeight="1"/>
     <row r="15" ht="32.25" customHeight="0">
-      <c s="14" t="inlineStr" r="A15">
+      <c s="13" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -1021,1422 +1018,1422 @@
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="15" t="inlineStr" r="J15">
+      <c s="14" t="inlineStr" r="J15">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="15" t="inlineStr" r="L15">
+      <c s="14" t="inlineStr" r="L15">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="15" t="inlineStr" r="N15">
+      <c s="14" t="inlineStr" r="N15">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="15" t="inlineStr" r="P15">
+      <c s="14" t="inlineStr" r="P15">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="15" t="inlineStr" r="R15">
+      <c s="14" t="inlineStr" r="R15">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="15" t="inlineStr" r="T15">
+      <c s="14" t="inlineStr" r="T15">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="15" t="inlineStr" r="V15">
+      <c s="14" t="inlineStr" r="V15">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="15" t="inlineStr" r="X15">
+      <c s="14" t="inlineStr" r="X15">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="15" t="inlineStr" r="Z15">
+      <c s="14" t="inlineStr" r="Z15">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="15" t="inlineStr" r="AB15">
+      <c s="14" t="inlineStr" r="AB15">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="15" t="inlineStr" r="AD15">
+      <c s="14" t="inlineStr" r="AD15">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A16">
+      <c s="15" t="inlineStr" r="A16">
         <is>
           <t xml:space="preserve">343939 Mt Joy</t>
         </is>
       </c>
-      <c s="17" t="str" r="B16"/>
-      <c s="17" t="str" r="C16"/>
-      <c s="18" t="inlineStr" r="D16">
+      <c s="16" t="str" r="B16"/>
+      <c s="16" t="str" r="C16"/>
+      <c s="17" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="19" r="G16">
-        <v>203</v>
+      <c s="18" r="G16">
+        <v>175</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="20" r="J16">
-        <v>25</v>
+      <c s="19" r="J16">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
+      <c s="20" r="L16">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="22" r="N16">
+      <c s="21" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="22" r="P16">
+      <c s="21" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="22" r="R16">
+      <c s="21" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="22" r="T16">
+      <c s="21" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="22" r="V16">
+      <c s="21" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="20" r="X16">
-        <v>46</v>
+      <c s="19" r="X16">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="22" r="Z16">
-        <v>42</v>
+      <c s="21" r="Z16">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>114</v>
+      <c s="20" r="AB16">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>57</v>
+      <c s="20" r="AD16">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
-      <c s="18" t="inlineStr" r="D17">
+      <c s="22" t="str" r="A17"/>
+      <c s="17" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="19" r="G17">
-        <v>104</v>
+      <c s="18" r="G17">
+        <v>96</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="20" r="J17">
-        <v>38</v>
+      <c s="19" r="J17">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
+      <c s="20" r="L17">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="22" r="N17">
+      <c s="21" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="22" r="P17">
+      <c s="21" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="22" r="R17">
+      <c s="21" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="22" r="T17">
+      <c s="21" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="22" r="V17">
+      <c s="21" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>65</v>
+      <c s="19" r="X17">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="22" r="Z17">
-        <v>33</v>
+      <c s="21" r="Z17">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="21" r="AB17">
-        <v>137</v>
+      <c s="20" r="AB17">
+        <v>126</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>68</v>
+      <c s="20" r="AD17">
+        <v>62</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="23" t="str" r="A18"/>
-      <c s="18" t="inlineStr" r="D18">
+      <c s="22" t="str" r="A18"/>
+      <c s="17" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="19" r="G18">
-        <v>51</v>
+      <c s="18" r="G18">
+        <v>48</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="20" r="J18">
-        <v>33</v>
+      <c s="19" r="J18">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
+      <c s="20" r="L18">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="22" r="N18">
+      <c s="21" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="22" r="P18">
+      <c s="21" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="22" r="R18">
+      <c s="21" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="22" r="T18">
+      <c s="21" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="22" r="V18">
+      <c s="21" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="24" r="X18">
-        <v>88</v>
+      <c s="23" r="X18">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="22" r="Z18">
-        <v>71</v>
+      <c s="21" r="Z18">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="24" r="AB18">
-        <v>194</v>
+      <c s="20" r="AB18">
+        <v>124</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="25" t="str" r="A19"/>
-      <c s="26" t="str" r="B19"/>
-      <c s="26" t="str" r="C19"/>
-      <c s="18" t="inlineStr" r="D19">
+      <c s="24" t="str" r="A19"/>
+      <c s="25" t="str" r="B19"/>
+      <c s="25" t="str" r="C19"/>
+      <c s="17" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="19" r="G19">
-        <v>10</v>
+      <c s="18" r="G19">
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
-        <v>39</v>
+      <c s="19" r="J19">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
-        <v>3</v>
+      <c s="20" r="L19">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="22" r="N19">
+      <c s="21" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="22" r="P19">
+      <c s="21" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="22" r="R19">
+      <c s="21" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="22" r="T19">
+      <c s="21" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="22" r="V19">
+      <c s="21" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="24" r="X19">
+      <c s="23" r="X19">
         <v>88</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="22" r="Z19">
-        <v>6</v>
+      <c s="21" r="Z19">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>130</v>
+      <c s="20" r="AB19">
+        <v>116</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>65</v>
+      <c s="20" r="AD19">
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A20">
+      <c s="15" t="inlineStr" r="A20">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="17" t="str" r="B20"/>
-      <c s="17" t="str" r="C20"/>
-      <c s="18" t="inlineStr" r="D20">
+      <c s="16" t="str" r="B20"/>
+      <c s="16" t="str" r="C20"/>
+      <c s="17" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="19" r="G20">
-        <v>6</v>
+      <c s="18" r="G20">
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="27" r="J20">
-        <v>34</v>
+      <c s="23" r="J20">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="27" r="L20">
-        <v>11</v>
+      <c s="20" r="L20">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="22" r="N20">
+      <c s="21" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="22" r="P20">
+      <c s="21" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="22" r="R20">
+      <c s="21" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="22" r="T20">
+      <c s="21" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="22" r="V20">
+      <c s="21" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>82</v>
+      <c s="26" r="X20">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="22" r="Z20">
-        <v>10</v>
+      <c s="21" r="Z20">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>126</v>
+      <c s="20" r="AB20">
+        <v>112</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>126</v>
+      <c s="20" r="AD20">
+        <v>112</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
-      <c s="18" t="inlineStr" r="D21">
+      <c s="22" t="str" r="A21"/>
+      <c s="17" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="19" r="G21">
-        <v>276</v>
+      <c s="18" r="G21">
+        <v>300</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="24" r="J21">
-        <v>26</v>
+      <c s="23" r="J21">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="21" r="L21">
-        <v>2</v>
+      <c s="20" r="L21">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="22" r="N21">
+      <c s="21" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="22" r="P21">
+      <c s="21" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="22" r="R21">
+      <c s="21" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="22" r="T21">
+      <c s="21" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="22" r="V21">
+      <c s="21" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="24" r="X21">
-        <v>37</v>
+      <c s="23" r="X21">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="22" r="Z21">
-        <v>53</v>
+      <c s="21" r="Z21">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>117</v>
+      <c s="20" r="AB21">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>117</v>
+      <c s="20" r="AD21">
+        <v>138</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
-      <c s="18" t="inlineStr" r="D22">
+      <c s="22" t="str" r="A22"/>
+      <c s="17" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="19" r="G22">
-        <v>129</v>
+      <c s="18" r="G22">
+        <v>127</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="24" r="J22">
-        <v>28</v>
+      <c s="27" r="J22">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="21" r="L22">
-        <v>3</v>
+      <c s="20" r="L22">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="22" r="N22">
+      <c s="21" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="22" r="P22">
+      <c s="21" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="22" r="R22">
+      <c s="21" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="22" r="T22">
+      <c s="21" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="22" r="V22">
+      <c s="21" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>54</v>
+      <c s="26" r="X22">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="22" r="Z22">
-        <v>52</v>
+      <c s="21" r="Z22">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>134</v>
+      <c s="20" r="AB22">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>134</v>
+      <c s="20" r="AD22">
+        <v>132</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="23" t="str" r="A23"/>
-      <c s="18" t="inlineStr" r="D23">
+      <c s="22" t="str" r="A23"/>
+      <c s="17" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="19" r="G23">
-        <v>84</v>
+      <c s="18" r="G23">
+        <v>94</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="24" r="J23">
-        <v>28</v>
+      <c s="27" r="J23">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
+      <c s="20" r="L23">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="22" r="N23">
+      <c s="21" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="22" r="P23">
+      <c s="21" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="22" r="R23">
+      <c s="21" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="22" r="T23">
+      <c s="21" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="22" r="V23">
+      <c s="21" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>65</v>
+      <c s="26" r="X23">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="22" r="Z23">
-        <v>32</v>
+      <c s="21" r="Z23">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>126</v>
+      <c s="20" r="AB23">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>126</v>
+      <c s="20" r="AD23">
+        <v>149</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="25" t="str" r="A24"/>
-      <c s="26" t="str" r="B24"/>
-      <c s="26" t="str" r="C24"/>
-      <c s="18" t="inlineStr" r="D24">
+      <c s="24" t="str" r="A24"/>
+      <c s="25" t="str" r="B24"/>
+      <c s="25" t="str" r="C24"/>
+      <c s="17" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="19" r="G24">
-        <v>18</v>
+      <c s="18" r="G24">
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="27" r="J24">
-        <v>32</v>
+      <c s="23" r="J24">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="21" r="L24">
+      <c s="20" r="L24">
         <v>4</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="22" r="N24">
+      <c s="21" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="22" r="P24">
+      <c s="21" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="22" r="R24">
+      <c s="21" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="22" r="T24">
+      <c s="21" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="22" r="V24">
+      <c s="21" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>88</v>
+      <c s="26" r="X24">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="22" r="Z24">
-        <v>11</v>
+      <c s="21" r="Z24">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="21" r="AB24">
-        <v>130</v>
+      <c s="20" r="AB24">
+        <v>107</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="21" r="AD24">
-        <v>130</v>
+      <c s="20" r="AD24">
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A25">
+      <c s="15" t="inlineStr" r="A25">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="17" t="str" r="B25"/>
-      <c s="17" t="str" r="C25"/>
-      <c s="18" t="inlineStr" r="D25">
+      <c s="16" t="str" r="B25"/>
+      <c s="16" t="str" r="C25"/>
+      <c s="17" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="19" r="G25">
-        <v>220</v>
+      <c s="18" r="G25">
+        <v>235</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
       <c s="27" r="J25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="20" r="L25">
-        <v>6</v>
+      <c s="23" r="L25">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="22" r="N25">
+      <c s="21" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="22" r="P25">
+      <c s="21" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="22" r="R25">
+      <c s="21" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="22" r="T25">
+      <c s="21" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="22" r="V25">
+      <c s="21" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>58</v>
+      <c s="26" r="X25">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="22" r="Z25">
-        <v>81</v>
+      <c s="21" r="Z25">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="24" r="AB25">
-        <v>170</v>
+      <c s="20" r="AB25">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="24" r="AD25">
-        <v>170</v>
+      <c s="20" r="AD25">
+        <v>145</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
-      <c s="18" t="inlineStr" r="D26">
+      <c s="22" t="str" r="A26"/>
+      <c s="17" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="19" r="G26">
-        <v>93</v>
+      <c s="18" r="G26">
+        <v>81</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="27" r="J26">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="21" r="L26">
-        <v>4</v>
+      <c s="20" r="L26">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="22" r="N26">
+      <c s="21" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="22" r="P26">
+      <c s="21" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="22" r="R26">
+      <c s="21" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="22" r="T26">
+      <c s="21" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="22" r="V26">
+      <c s="21" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>63</v>
+      <c s="26" r="X26">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="22" r="Z26">
-        <v>29</v>
+      <c s="21" r="Z26">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="21" r="AB26">
-        <v>123</v>
+      <c s="20" r="AB26">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="21" r="AD26">
-        <v>123</v>
+      <c s="20" r="AD26">
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="23" t="str" r="A27"/>
-      <c s="18" t="inlineStr" r="D27">
+      <c s="22" t="str" r="A27"/>
+      <c s="17" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="19" r="G27">
-        <v>71</v>
+      <c s="18" r="G27">
+        <v>59</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>39</v>
+      <c s="26" r="J27">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="24" r="L27">
+      <c s="23" r="L27">
         <v>7</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="22" r="N27">
+      <c s="21" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="22" r="P27">
+      <c s="21" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="22" r="R27">
+      <c s="21" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="22" r="T27">
+      <c s="21" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="22" r="V27">
+      <c s="21" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>84</v>
+      <c s="26" r="X27">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="22" r="Z27">
-        <v>61</v>
+      <c s="21" r="Z27">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="27" r="AB27">
-        <v>185</v>
+      <c s="19" r="AB27">
+        <v>162</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="27" r="AD27">
-        <v>185</v>
+      <c s="19" r="AD27">
+        <v>162</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="25" t="str" r="A28"/>
-      <c s="26" t="str" r="B28"/>
-      <c s="26" t="str" r="C28"/>
-      <c s="18" t="inlineStr" r="D28">
+      <c s="24" t="str" r="A28"/>
+      <c s="25" t="str" r="B28"/>
+      <c s="25" t="str" r="C28"/>
+      <c s="17" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="19" r="G28">
-        <v>13</v>
+      <c s="18" r="G28">
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>40</v>
+      <c s="26" r="J28">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>4</v>
+      <c s="20" r="L28">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="22" r="N28">
+      <c s="21" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="22" r="P28">
+      <c s="21" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="22" r="R28">
+      <c s="21" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="22" r="T28">
+      <c s="21" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="22" r="V28">
+      <c s="21" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>146</v>
+      <c s="26" r="X28">
+        <v>118</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="22" r="Z28">
-        <v>20</v>
+      <c s="21" r="Z28">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="28" r="AB28">
-        <v>201</v>
+      <c s="23" r="AB28">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="28" r="AD28">
-        <v>201</v>
+      <c s="23" r="AD28">
+        <v>178</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A29">
+      <c s="15" t="inlineStr" r="A29">
         <is>
           <t xml:space="preserve">359042 Lititz</t>
         </is>
       </c>
-      <c s="17" t="str" r="B29"/>
-      <c s="17" t="str" r="C29"/>
-      <c s="18" t="inlineStr" r="D29">
+      <c s="16" t="str" r="B29"/>
+      <c s="16" t="str" r="C29"/>
+      <c s="17" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="19" r="G29">
-        <v>182</v>
+      <c s="18" r="G29">
+        <v>227</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="20" r="J29">
-        <v>24</v>
+      <c s="19" r="J29">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="21" r="L29">
-        <v>4</v>
+      <c s="20" r="L29">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="22" r="N29">
+      <c s="21" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="22" r="P29">
+      <c s="21" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="22" r="R29">
+      <c s="21" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="22" r="T29">
+      <c s="21" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="22" r="V29">
+      <c s="21" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="24" r="X29">
-        <v>39</v>
+      <c s="19" r="X29">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="22" r="Z29">
-        <v>32</v>
+      <c s="21" r="Z29">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="21" r="AB29">
-        <v>95</v>
+      <c s="20" r="AB29">
+        <v>84</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="21" r="AD29">
-        <v>95</v>
+      <c s="20" r="AD29">
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
-      <c s="18" t="inlineStr" r="D30">
+      <c s="22" t="str" r="A30"/>
+      <c s="17" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="19" r="G30">
-        <v>72</v>
+      <c s="18" r="G30">
+        <v>92</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>41</v>
+      <c s="27" r="J30">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="21" r="L30">
-        <v>4</v>
+      <c s="20" r="L30">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="22" r="N30">
+      <c s="21" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="22" r="P30">
+      <c s="21" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="22" r="R30">
+      <c s="21" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="22" r="T30">
+      <c s="21" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="22" r="V30">
+      <c s="21" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>63</v>
+      <c s="26" r="X30">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="22" r="Z30">
-        <v>44</v>
+      <c s="21" r="Z30">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="21" r="AB30">
-        <v>149</v>
+      <c s="20" r="AB30">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="21" r="AD30">
-        <v>149</v>
+      <c s="20" r="AD30">
+        <v>134</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="23" t="str" r="A31"/>
-      <c s="18" t="inlineStr" r="D31">
+      <c s="22" t="str" r="A31"/>
+      <c s="17" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="19" r="G31">
-        <v>54</v>
+      <c s="18" r="G31">
+        <v>48</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>46</v>
+      <c s="26" r="J31">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="24" r="L31">
-        <v>7</v>
+      <c s="23" r="L31">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="22" r="N31">
+      <c s="21" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="22" r="P31">
+      <c s="21" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="22" r="R31">
+      <c s="21" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="22" r="T31">
+      <c s="21" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="22" r="V31">
+      <c s="21" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>104</v>
+      <c s="26" r="X31">
+        <v>112</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="22" r="Z31">
-        <v>51</v>
+      <c s="21" r="Z31">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>201</v>
+      <c s="26" r="AB31">
+        <v>213</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>201</v>
+      <c s="26" r="AD31">
+        <v>213</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="25" t="str" r="A32"/>
-      <c s="26" t="str" r="B32"/>
-      <c s="26" t="str" r="C32"/>
-      <c s="18" t="inlineStr" r="D32">
+      <c s="24" t="str" r="A32"/>
+      <c s="25" t="str" r="B32"/>
+      <c s="25" t="str" r="C32"/>
+      <c s="17" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="19" r="G32">
-        <v>10</v>
+      <c s="18" r="G32">
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="27" r="J32">
-        <v>30</v>
+      <c s="26" r="J32">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="20" r="L32">
-        <v>6</v>
+      <c s="19" r="L32">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="22" r="N32">
+      <c s="21" r="N32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="22" r="P32">
+      <c s="21" r="P32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
+      <c s="21" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
+      <c s="21" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="22" r="V32">
+      <c s="21" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>65</v>
+      <c s="26" r="X32">
+        <v>132</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="22" r="Z32">
-        <v>11</v>
+      <c s="21" r="Z32">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="21" r="AB32">
-        <v>105</v>
+      <c s="26" r="AB32">
+        <v>204</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="21" r="AD32">
-        <v>105</v>
+      <c s="26" r="AD32">
+        <v>204</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A33">
+      <c s="15" t="inlineStr" r="A33">
         <is>
           <t xml:space="preserve">362913 Eisenhower</t>
         </is>
       </c>
-      <c s="17" t="str" r="B33"/>
-      <c s="17" t="str" r="C33"/>
-      <c s="18" t="inlineStr" r="D33">
+      <c s="16" t="str" r="B33"/>
+      <c s="16" t="str" r="C33"/>
+      <c s="17" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="19" r="G33">
-        <v>112</v>
+      <c s="18" r="G33">
+        <v>145</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="21" r="J33">
-        <v>26</v>
+      <c s="19" r="J33">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="21" r="L33">
-        <v>2</v>
+      <c s="20" r="L33">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="22" r="N33">
+      <c s="21" r="N33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="22" r="P33">
+      <c s="21" r="P33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="22" r="R33">
+      <c s="21" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="22" r="T33">
+      <c s="21" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="21" r="V33">
-        <v>6</v>
+      <c s="20" r="V33">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>49</v>
+      <c s="26" r="X33">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="22" r="Z33">
-        <v>28</v>
+      <c s="21" r="Z33">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="21" r="AB33">
-        <v>81</v>
+      <c s="20" r="AB33">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="21" r="AD33">
-        <v>110</v>
+      <c s="20" r="AD33">
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
-      <c s="18" t="inlineStr" r="D34">
+      <c s="22" t="str" r="A34"/>
+      <c s="17" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="19" r="G34">
-        <v>70</v>
+      <c s="18" r="G34">
+        <v>68</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="20" r="J34">
-        <v>34</v>
+      <c s="19" r="J34">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="21" r="L34">
+      <c s="20" r="L34">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="22" r="N34">
+      <c s="21" r="N34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="22" r="P34">
+      <c s="21" r="P34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
+      <c s="21" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="22" r="T34">
+      <c s="21" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
-        <v>4</v>
+      <c s="20" r="V34">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>59</v>
+      <c s="26" r="X34">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="22" r="Z34">
+      <c s="21" r="Z34">
         <v>26</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>97</v>
+      <c s="20" r="AB34">
+        <v>98</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>124</v>
+      <c s="19" r="AD34">
+        <v>125</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="23" t="str" r="A35"/>
-      <c s="18" t="inlineStr" r="D35">
+      <c s="22" t="str" r="A35"/>
+      <c s="17" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="19" r="G35">
-        <v>31</v>
+      <c s="18" r="G35">
+        <v>35</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="24" r="J35">
-        <v>47</v>
+      <c s="23" r="J35">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="21" r="L35">
-        <v>4</v>
+      <c s="20" r="L35">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="22" r="N35">
+      <c s="21" r="N35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="22" r="P35">
+      <c s="21" r="P35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
+      <c s="21" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
+      <c s="21" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
-        <v>2</v>
+      <c s="20" r="V35">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>124</v>
+      <c s="26" r="X35">
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="22" r="Z35">
-        <v>56</v>
+      <c s="21" r="Z35">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="20" r="AB35">
-        <v>170</v>
+      <c s="19" r="AB35">
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="24" r="AD35">
-        <v>226</v>
+      <c s="19" r="AD35">
+        <v>167</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="25" t="str" r="A36"/>
-      <c s="26" t="str" r="B36"/>
-      <c s="26" t="str" r="C36"/>
-      <c s="18" t="inlineStr" r="D36">
+      <c s="24" t="str" r="A36"/>
+      <c s="25" t="str" r="B36"/>
+      <c s="25" t="str" r="C36"/>
+      <c s="17" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="19" r="G36">
-        <v>3</v>
+      <c s="18" r="G36">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="21" r="J36">
-        <v>24</v>
+      <c s="20" r="J36">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
-        <v>3</v>
+      <c s="20" r="L36">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="22" r="N36">
+      <c s="21" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="22" r="P36">
+      <c s="21" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="22" r="R36">
+      <c s="21" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="22" r="T36">
+      <c s="21" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="21" r="V36">
+      <c s="20" r="V36">
         <v>2</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>62</v>
+      <c s="26" r="X36">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="22" r="Z36">
-        <v>13</v>
+      <c s="21" r="Z36">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="21" r="AB36">
-        <v>88</v>
+      <c s="20" r="AB36">
+        <v>100</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="21" r="AD36">
-        <v>101</v>
+      <c s="20" r="AD36">
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A37">
+      <c s="15" t="inlineStr" r="A37">
         <is>
           <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
-      <c s="17" t="str" r="B37"/>
-      <c s="17" t="str" r="C37"/>
-      <c s="18" t="inlineStr" r="D37">
+      <c s="16" t="str" r="B37"/>
+      <c s="16" t="str" r="C37"/>
+      <c s="17" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="19" r="G37">
-        <v>203</v>
+      <c s="18" r="G37">
+        <v>235</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="22" r="J37">
+      <c s="21" r="J37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="22" r="L37">
+      <c s="21" r="L37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="24" r="N37">
-        <v>28</v>
+      <c s="27" r="N37">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="21" r="P37">
+      <c s="20" r="P37">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
+      <c s="20" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="21" r="T37">
+      <c s="20" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="22" r="V37">
+      <c s="21" r="V37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
-        <v>57</v>
+      <c s="26" r="X37">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="22" r="Z37">
-        <v>82</v>
+      <c s="21" r="Z37">
+        <v>94</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="24" r="AB37">
-        <v>168</v>
+      <c s="23" r="AB37">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="24" r="AD37">
-        <v>168</v>
+      <c s="23" r="AD37">
+        <v>179</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
-      <c s="18" t="inlineStr" r="D38">
+      <c s="22" t="str" r="A38"/>
+      <c s="17" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="19" r="G38">
-        <v>82</v>
+      <c s="18" r="G38">
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="22" r="J38">
+      <c s="21" r="J38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="22" r="L38">
+      <c s="21" r="L38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="27" r="N38">
-        <v>33</v>
+      <c s="26" r="N38">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="20" r="P38">
-        <v>6</v>
+      <c s="19" r="P38">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="Q38"/>
       <c s="21" r="R38">
@@ -2447,54 +2444,54 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="22" r="V38">
+      <c s="21" r="V38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>97</v>
+      <c s="26" r="X38">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="22" r="Z38">
-        <v>61</v>
+      <c s="21" r="Z38">
+        <v>91</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="27" r="AB38">
-        <v>190</v>
+      <c s="26" r="AB38">
+        <v>212</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="27" r="AD38">
-        <v>190</v>
+      <c s="26" r="AD38">
+        <v>212</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="23" t="str" r="A39"/>
-      <c s="18" t="inlineStr" r="D39">
+      <c s="22" t="str" r="A39"/>
+      <c s="17" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="19" r="G39">
-        <v>49</v>
+      <c s="18" r="G39">
+        <v>63</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="22" r="J39">
+      <c s="21" r="J39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="22" r="L39">
+      <c s="21" r="L39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="28" r="N39">
-        <v>36</v>
+      <c s="26" r="N39">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="21" r="P39">
-        <v>3</v>
+      <c s="19" r="P39">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="Q39"/>
       <c s="21" r="R39">
@@ -2505,55 +2502,55 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="22" r="V39">
+      <c s="21" r="V39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>99</v>
+      <c s="26" r="X39">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="22" r="Z39">
-        <v>72</v>
+      <c s="21" r="Z39">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="28" r="AB39">
-        <v>205</v>
+      <c s="19" r="AB39">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="28" r="AD39">
-        <v>205</v>
+      <c s="19" r="AD39">
+        <v>164</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="25" t="str" r="A40"/>
-      <c s="26" t="str" r="B40"/>
-      <c s="26" t="str" r="C40"/>
-      <c s="18" t="inlineStr" r="D40">
+      <c s="24" t="str" r="A40"/>
+      <c s="25" t="str" r="B40"/>
+      <c s="25" t="str" r="C40"/>
+      <c s="17" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
-      <c s="19" r="G40">
-        <v>16</v>
+      <c s="18" r="G40">
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
-      <c s="22" r="J40">
+      <c s="21" r="J40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K40"/>
-      <c s="22" r="L40">
+      <c s="21" r="L40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="27" r="N40">
-        <v>34</v>
+      <c s="23" r="N40">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="O40"/>
-      <c s="21" r="P40">
+      <c s="20" r="P40">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q40"/>
@@ -2565,264 +2562,264 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
-      <c s="22" r="V40">
+      <c s="21" r="V40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="28" r="X40">
-        <v>79</v>
+      <c s="26" r="X40">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y40"/>
-      <c s="22" r="Z40">
-        <v>14</v>
+      <c s="21" r="Z40">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="21" r="AB40">
-        <v>128</v>
+      <c s="20" r="AB40">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="21" r="AD40">
-        <v>128</v>
+      <c s="20" r="AD40">
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A41">
+      <c s="15" t="inlineStr" r="A41">
         <is>
           <t xml:space="preserve">364322 E-Town</t>
         </is>
       </c>
-      <c s="17" t="str" r="B41"/>
-      <c s="17" t="str" r="C41"/>
-      <c s="18" t="inlineStr" r="D41">
+      <c s="16" t="str" r="B41"/>
+      <c s="16" t="str" r="C41"/>
+      <c s="17" t="inlineStr" r="D41">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
-      <c s="19" r="G41">
-        <v>188</v>
+      <c s="18" r="G41">
+        <v>222</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
-      <c s="21" r="J41">
-        <v>24</v>
+      <c s="20" r="J41">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K41"/>
-      <c s="21" r="L41">
-        <v>2</v>
+      <c s="20" r="L41">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M41"/>
-      <c s="22" r="N41">
+      <c s="21" r="N41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O41"/>
-      <c s="22" r="P41">
+      <c s="21" r="P41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q41"/>
-      <c s="22" r="R41">
+      <c s="21" r="R41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S41"/>
-      <c s="22" r="T41">
+      <c s="21" r="T41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="21" r="V41">
-        <v>7</v>
+      <c s="20" r="V41">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="28" r="X41">
-        <v>44</v>
+      <c s="26" r="X41">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y41"/>
-      <c s="22" r="Z41">
-        <v>35</v>
+      <c s="21" r="Z41">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="21" r="AB41">
-        <v>109</v>
+      <c s="20" r="AB41">
+        <v>127</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="21" r="AD41">
-        <v>109</v>
+      <c s="20" r="AD41">
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
-      <c s="23" t="str" r="A42"/>
-      <c s="18" t="inlineStr" r="D42">
+      <c s="22" t="str" r="A42"/>
+      <c s="17" t="inlineStr" r="D42">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
-      <c s="19" r="G42">
-        <v>95</v>
+      <c s="18" r="G42">
+        <v>108</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="20" r="J42">
-        <v>30</v>
+      <c s="19" r="J42">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K42"/>
-      <c s="21" r="L42">
+      <c s="20" r="L42">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M42"/>
-      <c s="22" r="N42">
+      <c s="21" r="N42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O42"/>
-      <c s="22" r="P42">
+      <c s="21" r="P42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q42"/>
-      <c s="22" r="R42">
+      <c s="21" r="R42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S42"/>
-      <c s="22" r="T42">
+      <c s="21" r="T42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="21" r="V42">
-        <v>9</v>
+      <c s="20" r="V42">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="28" r="X42">
-        <v>59</v>
+      <c s="26" r="X42">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y42"/>
-      <c s="22" r="Z42">
-        <v>32</v>
+      <c s="21" r="Z42">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="21" r="AB42">
-        <v>129</v>
+      <c s="20" r="AB42">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="21" r="AD42">
-        <v>129</v>
+      <c s="20" r="AD42">
+        <v>144</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
-      <c s="23" t="str" r="A43"/>
-      <c s="18" t="inlineStr" r="D43">
+      <c s="22" t="str" r="A43"/>
+      <c s="17" t="inlineStr" r="D43">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
-      <c s="19" r="G43">
-        <v>50</v>
+      <c s="18" r="G43">
+        <v>72</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="20" r="J43">
-        <v>30</v>
+      <c s="23" r="J43">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K43"/>
-      <c s="21" r="L43">
-        <v>2</v>
+      <c s="19" r="L43">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M43"/>
-      <c s="22" r="N43">
+      <c s="21" r="N43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O43"/>
-      <c s="22" r="P43">
+      <c s="21" r="P43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q43"/>
-      <c s="22" r="R43">
+      <c s="21" r="R43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S43"/>
-      <c s="22" r="T43">
+      <c s="21" r="T43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="21" r="V43">
-        <v>1</v>
+      <c s="20" r="V43">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="28" r="X43">
-        <v>70</v>
+      <c s="26" r="X43">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="Y43"/>
-      <c s="22" r="Z43">
-        <v>22</v>
+      <c s="21" r="Z43">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="21" r="AB43">
-        <v>121</v>
+      <c s="23" r="AB43">
+        <v>202</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="21" r="AD43">
-        <v>121</v>
+      <c s="23" r="AD43">
+        <v>202</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="25" t="str" r="A44"/>
-      <c s="26" t="str" r="B44"/>
-      <c s="26" t="str" r="C44"/>
-      <c s="18" t="inlineStr" r="D44">
+      <c s="24" t="str" r="A44"/>
+      <c s="25" t="str" r="B44"/>
+      <c s="25" t="str" r="C44"/>
+      <c s="17" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
-      <c s="19" r="G44">
-        <v>14</v>
+      <c s="18" r="G44">
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="20" r="J44">
-        <v>33</v>
+      <c s="19" r="J44">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K44"/>
-      <c s="21" r="L44">
-        <v>4</v>
+      <c s="23" r="L44">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M44"/>
-      <c s="22" r="N44">
+      <c s="21" r="N44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O44"/>
-      <c s="22" r="P44">
+      <c s="21" r="P44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q44"/>
-      <c s="22" r="R44">
+      <c s="21" r="R44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S44"/>
-      <c s="22" r="T44">
+      <c s="21" r="T44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U44"/>
-      <c s="21" r="V44">
+      <c s="20" r="V44">
         <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="28" r="X44">
-        <v>93</v>
+      <c s="26" r="X44">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y44"/>
-      <c s="22" r="Z44">
-        <v>35</v>
+      <c s="21" r="Z44">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA44"/>
       <c s="20" r="AB44">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c s="5" t="str" r="AC44"/>
       <c s="20" r="AD44">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3288,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/13/2026 12:32:46 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/15/2026 12:33:38 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,6 +146,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB40000"/>
         <bgColor rgb="FFB40000"/>
       </patternFill>
@@ -154,12 +160,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,6 +303,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -333,7 +336,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -342,10 +348,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -372,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -517,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/14/2026</t>
+          <t xml:space="preserve">Day: 01/16/2026</t>
         </is>
       </c>
     </row>
@@ -613,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c s="8" r="F7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -642,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>58</v>
+      <c s="11" r="S7">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -669,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>542</v>
-      </c>
-      <c s="11" r="F8">
-        <v>30</v>
+        <v>566</v>
+      </c>
+      <c s="12" r="F8">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -698,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>49</v>
+      <c s="13" r="S8">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>137</v>
+      <c s="8" r="W8">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>137</v>
+      <c s="8" r="Y8">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -725,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>391</v>
-      </c>
-      <c s="11" r="F9">
-        <v>33</v>
+        <v>478</v>
+      </c>
+      <c s="12" r="F9">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="G9"/>
       <c s="8" r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -754,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>57</v>
+      <c s="13" r="S9">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="9" r="W9">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="X9"/>
       <c s="9" r="Y9">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -781,10 +784,10 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>379</v>
-      </c>
-      <c s="11" r="F10">
-        <v>30</v>
+        <v>397</v>
+      </c>
+      <c s="12" r="F10">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="9" r="H10">
@@ -810,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>51</v>
+      <c s="13" r="S10">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="9" r="W10">
-        <v>116</v>
+      <c s="11" r="W10">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="9" r="Y10">
-        <v>116</v>
+      <c s="11" r="Y10">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -837,10 +840,10 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c s="8" r="F11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
@@ -863,23 +866,23 @@
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="9" r="Q11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>54</v>
+      <c s="13" r="S11">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="V11"/>
       <c s="9" r="W11">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="9" r="Y11">
-        <v>117</v>
+      <c s="8" r="Y11">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -893,7 +896,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -902,8 +905,8 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="11" r="I12">
-        <v>33</v>
+      <c s="12" r="I12">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
@@ -915,27 +918,27 @@
       </c>
       <c s="5" t="str" r="N12"/>
       <c s="9" r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>64</v>
+      <c s="13" r="S12">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="V12"/>
       <c s="11" r="W12">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c s="5" t="str" r="X12"/>
       <c s="11" r="Y12">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -949,14 +952,14 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>413</v>
-      </c>
-      <c s="9" r="F13">
-        <v>29</v>
+        <v>474</v>
+      </c>
+      <c s="8" r="F13">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G13"/>
       <c s="9" r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I13">
         <v>0</v>
@@ -974,30 +977,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="9" r="Q13">
-        <v>12</v>
+      <c s="8" r="Q13">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="12" r="S13">
-        <v>57</v>
+      <c s="13" r="S13">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="9" r="W13">
-        <v>144</v>
+      <c s="8" r="W13">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="9" r="Y13">
-        <v>144</v>
+      <c s="8" r="Y13">
+        <v>163</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
     <row r="14" ht="4.95" customHeight="1"/>
     <row r="15" ht="32.25" customHeight="0">
-      <c s="13" t="inlineStr" r="A15">
+      <c s="14" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -1018,1480 +1021,1480 @@
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="14" t="inlineStr" r="J15">
+      <c s="15" t="inlineStr" r="J15">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="14" t="inlineStr" r="L15">
+      <c s="15" t="inlineStr" r="L15">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="14" t="inlineStr" r="N15">
+      <c s="15" t="inlineStr" r="N15">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="14" t="inlineStr" r="P15">
+      <c s="15" t="inlineStr" r="P15">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="14" t="inlineStr" r="R15">
+      <c s="15" t="inlineStr" r="R15">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="14" t="inlineStr" r="T15">
+      <c s="15" t="inlineStr" r="T15">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="14" t="inlineStr" r="V15">
+      <c s="15" t="inlineStr" r="V15">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="14" t="inlineStr" r="X15">
+      <c s="15" t="inlineStr" r="X15">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="14" t="inlineStr" r="Z15">
+      <c s="15" t="inlineStr" r="Z15">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="14" t="inlineStr" r="AB15">
+      <c s="15" t="inlineStr" r="AB15">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="14" t="inlineStr" r="AD15">
+      <c s="15" t="inlineStr" r="AD15">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A16">
+      <c s="16" t="inlineStr" r="A16">
         <is>
           <t xml:space="preserve">343939 Mt Joy</t>
         </is>
       </c>
-      <c s="16" t="str" r="B16"/>
-      <c s="16" t="str" r="C16"/>
-      <c s="17" t="inlineStr" r="D16">
+      <c s="17" t="str" r="B16"/>
+      <c s="17" t="str" r="C16"/>
+      <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="18" r="G16">
-        <v>175</v>
+      <c s="19" r="G16">
+        <v>245</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="19" r="J16">
+      <c s="20" r="J16">
         <v>27</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="20" r="L16">
-        <v>2</v>
+      <c s="21" r="L16">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="21" r="N16">
+      <c s="22" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="21" r="P16">
+      <c s="22" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="21" r="R16">
+      <c s="22" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="21" r="T16">
+      <c s="22" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="21" r="V16">
+      <c s="22" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="19" r="X16">
+      <c s="20" r="X16">
+        <v>49</v>
+      </c>
+      <c s="5" t="str" r="Y16"/>
+      <c s="22" r="Z16">
         <v>51</v>
       </c>
-      <c s="5" t="str" r="Y16"/>
-      <c s="21" r="Z16">
-        <v>60</v>
-      </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="20" r="AB16">
-        <v>139</v>
+      <c s="21" r="AB16">
+        <v>127</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="20" r="AD16">
-        <v>69</v>
+      <c s="21" r="AD16">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="22" t="str" r="A17"/>
-      <c s="17" t="inlineStr" r="D17">
+      <c s="23" t="str" r="A17"/>
+      <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="18" r="G17">
-        <v>96</v>
+      <c s="19" r="G17">
+        <v>107</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="19" r="J17">
-        <v>30</v>
+      <c s="20" r="J17">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K17"/>
       <c s="20" r="L17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="21" r="N17">
+      <c s="22" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="21" r="P17">
+      <c s="22" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="21" r="R17">
+      <c s="22" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="21" r="T17">
+      <c s="22" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="21" r="V17">
+      <c s="22" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="19" r="X17">
-        <v>59</v>
+      <c s="24" r="X17">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="21" r="Z17">
-        <v>36</v>
+      <c s="22" r="Z17">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="20" r="AB17">
-        <v>126</v>
+      <c s="21" r="AB17">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>62</v>
+      <c s="21" r="AD17">
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="22" t="str" r="A18"/>
-      <c s="17" t="inlineStr" r="D18">
+      <c s="23" t="str" r="A18"/>
+      <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="18" r="G18">
-        <v>48</v>
+      <c s="19" r="G18">
+        <v>64</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="19" r="J18">
-        <v>28</v>
+      <c s="20" r="J18">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="20" r="L18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="21" r="N18">
+      <c s="22" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="21" r="P18">
+      <c s="22" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="21" r="R18">
+      <c s="22" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="21" r="T18">
+      <c s="22" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="21" r="V18">
+      <c s="22" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="23" r="X18">
-        <v>79</v>
+      <c s="25" r="X18">
+        <v>111</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="21" r="Z18">
-        <v>16</v>
+      <c s="22" r="Z18">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="20" r="AB18">
-        <v>124</v>
+      <c s="24" r="AB18">
+        <v>276</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>62</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="24" t="str" r="A19"/>
-      <c s="25" t="str" r="B19"/>
-      <c s="25" t="str" r="C19"/>
-      <c s="17" t="inlineStr" r="D19">
+      <c s="26" t="str" r="A19"/>
+      <c s="27" t="str" r="B19"/>
+      <c s="27" t="str" r="C19"/>
+      <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="18" r="G19">
-        <v>11</v>
+      <c s="19" r="G19">
+        <v>7</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="19" r="J19">
-        <v>21</v>
+      <c s="20" r="J19">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="20" r="L19">
+      <c s="21" r="L19">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="21" r="N19">
+      <c s="22" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="21" r="P19">
+      <c s="22" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="21" r="R19">
+      <c s="22" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="21" r="T19">
+      <c s="22" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="21" r="V19">
+      <c s="22" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="23" r="X19">
-        <v>88</v>
+      <c s="24" r="X19">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="21" r="Z19">
-        <v>7</v>
+      <c s="22" r="Z19">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="20" r="AB19">
+      <c s="21" r="AB19">
         <v>116</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>58</v>
+      <c s="21" r="AD19">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A20">
+      <c s="16" t="inlineStr" r="A20">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="16" t="str" r="B20"/>
-      <c s="16" t="str" r="C20"/>
-      <c s="17" t="inlineStr" r="D20">
+      <c s="17" t="str" r="B20"/>
+      <c s="17" t="str" r="C20"/>
+      <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="18" r="G20">
-        <v>7</v>
+      <c s="19" r="G20">
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="23" r="J20">
-        <v>25</v>
+      <c s="24" r="J20">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="20" r="L20">
-        <v>2</v>
+      <c s="21" r="L20">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="21" r="N20">
+      <c s="22" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="21" r="P20">
+      <c s="22" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="21" r="R20">
+      <c s="22" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="21" r="T20">
+      <c s="22" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="21" r="V20">
+      <c s="22" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="26" r="X20">
-        <v>72</v>
+      <c s="28" r="X20">
+        <v>89</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="21" r="Z20">
-        <v>14</v>
+      <c s="22" r="Z20">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="20" r="AB20">
-        <v>112</v>
+      <c s="24" r="AB20">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="20" r="AD20">
-        <v>112</v>
+      <c s="24" r="AD20">
+        <v>173</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="22" t="str" r="A21"/>
-      <c s="17" t="inlineStr" r="D21">
+      <c s="23" t="str" r="A21"/>
+      <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="18" r="G21">
-        <v>300</v>
+      <c s="19" r="G21">
+        <v>322</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="23" r="J21">
-        <v>28</v>
+      <c s="25" r="J21">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="20" r="L21">
-        <v>1</v>
+      <c s="21" r="L21">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="21" r="N21">
+      <c s="22" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="21" r="P21">
+      <c s="22" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="21" r="R21">
+      <c s="22" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="21" r="T21">
+      <c s="22" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="21" r="V21">
+      <c s="22" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="23" r="X21">
-        <v>39</v>
+      <c s="25" r="X21">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="21" r="Z21">
-        <v>70</v>
+      <c s="22" r="Z21">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="20" r="AB21">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="20" r="AD21">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="22" t="str" r="A22"/>
-      <c s="17" t="inlineStr" r="D22">
+      <c s="23" t="str" r="A22"/>
+      <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="18" r="G22">
-        <v>127</v>
+      <c s="19" r="G22">
+        <v>122</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="27" r="J22">
+      <c s="25" r="J22">
         <v>32</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="20" r="L22">
-        <v>2</v>
+      <c s="21" r="L22">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="21" r="N22">
+      <c s="22" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="21" r="P22">
+      <c s="22" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="21" r="R22">
+      <c s="22" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="21" r="T22">
+      <c s="22" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="21" r="V22">
+      <c s="22" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="26" r="X22">
-        <v>56</v>
+      <c s="28" r="X22">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="21" r="Z22">
-        <v>44</v>
+      <c s="22" r="Z22">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="20" r="AB22">
-        <v>132</v>
+      <c s="24" r="AB22">
+        <v>177</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="20" r="AD22">
-        <v>132</v>
+      <c s="24" r="AD22">
+        <v>177</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="22" t="str" r="A23"/>
-      <c s="17" t="inlineStr" r="D23">
+      <c s="23" t="str" r="A23"/>
+      <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="18" r="G23">
-        <v>94</v>
+      <c s="19" r="G23">
+        <v>97</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="27" r="J23">
-        <v>32</v>
+      <c s="28" r="J23">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="20" r="L23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="21" r="N23">
+      <c s="22" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="21" r="P23">
+      <c s="22" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="21" r="R23">
+      <c s="22" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="21" r="T23">
+      <c s="22" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="21" r="V23">
+      <c s="22" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="26" r="X23">
-        <v>70</v>
+      <c s="28" r="X23">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="21" r="Z23">
-        <v>46</v>
+      <c s="22" r="Z23">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="AA23"/>
       <c s="20" r="AB23">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC23"/>
       <c s="20" r="AD23">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="24" t="str" r="A24"/>
-      <c s="25" t="str" r="B24"/>
-      <c s="25" t="str" r="C24"/>
-      <c s="17" t="inlineStr" r="D24">
+      <c s="26" t="str" r="A24"/>
+      <c s="27" t="str" r="B24"/>
+      <c s="27" t="str" r="C24"/>
+      <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="18" r="G24">
-        <v>14</v>
+      <c s="19" r="G24">
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="23" r="J24">
-        <v>28</v>
+      <c s="28" r="J24">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="20" r="L24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="21" r="N24">
+      <c s="22" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="21" r="P24">
+      <c s="22" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="21" r="R24">
+      <c s="22" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="21" r="T24">
+      <c s="22" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="21" r="V24">
+      <c s="22" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="26" r="X24">
-        <v>69</v>
+      <c s="28" r="X24">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="21" r="Z24">
-        <v>9</v>
+      <c s="22" r="Z24">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="20" r="AB24">
-        <v>107</v>
+      <c s="25" r="AB24">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="20" r="AD24">
-        <v>107</v>
+      <c s="25" r="AD24">
+        <v>186</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A25">
+      <c s="16" t="inlineStr" r="A25">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="16" t="str" r="B25"/>
-      <c s="16" t="str" r="C25"/>
-      <c s="17" t="inlineStr" r="D25">
+      <c s="17" t="str" r="B25"/>
+      <c s="17" t="str" r="C25"/>
+      <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="18" r="G25">
-        <v>235</v>
+      <c s="19" r="G25">
+        <v>273</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="27" r="J25">
-        <v>32</v>
+      <c s="24" r="J25">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="23" r="L25">
-        <v>7</v>
+      <c s="21" r="L25">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="21" r="N25">
+      <c s="22" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="21" r="P25">
+      <c s="22" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="21" r="R25">
+      <c s="22" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="21" r="T25">
+      <c s="22" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="21" r="V25">
+      <c s="22" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="26" r="X25">
-        <v>47</v>
+      <c s="28" r="X25">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="21" r="Z25">
-        <v>66</v>
+      <c s="22" r="Z25">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="20" r="AB25">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="20" r="AD25">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="22" t="str" r="A26"/>
-      <c s="17" t="inlineStr" r="D26">
+      <c s="23" t="str" r="A26"/>
+      <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="18" r="G26">
-        <v>81</v>
+      <c s="19" r="G26">
+        <v>123</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="27" r="J26">
-        <v>34</v>
+      <c s="25" r="J26">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K26"/>
       <c s="20" r="L26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="21" r="N26">
+      <c s="22" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="21" r="P26">
+      <c s="22" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="21" r="R26">
+      <c s="22" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="21" r="T26">
+      <c s="22" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="21" r="V26">
+      <c s="22" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="26" r="X26">
-        <v>57</v>
+      <c s="28" r="X26">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="21" r="Z26">
-        <v>27</v>
+      <c s="22" r="Z26">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="20" r="AB26">
-        <v>118</v>
+      <c s="21" r="AB26">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="20" r="AD26">
-        <v>118</v>
+      <c s="21" r="AD26">
+        <v>122</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="22" t="str" r="A27"/>
-      <c s="17" t="inlineStr" r="D27">
+      <c s="23" t="str" r="A27"/>
+      <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="18" r="G27">
-        <v>59</v>
+      <c s="19" r="G27">
+        <v>73</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="26" r="J27">
-        <v>37</v>
+      <c s="28" r="J27">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="23" r="L27">
-        <v>7</v>
+      <c s="20" r="L27">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="21" r="N27">
+      <c s="22" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="21" r="P27">
+      <c s="22" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="21" r="R27">
+      <c s="22" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="21" r="T27">
+      <c s="22" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="21" r="V27">
+      <c s="22" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="26" r="X27">
-        <v>80</v>
+      <c s="28" r="X27">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="21" r="Z27">
-        <v>44</v>
+      <c s="22" r="Z27">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="19" r="AB27">
-        <v>162</v>
+      <c s="20" r="AB27">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="19" r="AD27">
-        <v>162</v>
+      <c s="20" r="AD27">
+        <v>156</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="24" t="str" r="A28"/>
-      <c s="25" t="str" r="B28"/>
-      <c s="25" t="str" r="C28"/>
-      <c s="17" t="inlineStr" r="D28">
+      <c s="26" t="str" r="A28"/>
+      <c s="27" t="str" r="B28"/>
+      <c s="27" t="str" r="C28"/>
+      <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="18" r="G28">
-        <v>16</v>
+      <c s="19" r="G28">
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="26" r="J28">
-        <v>35</v>
+      <c s="28" r="J28">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="20" r="L28">
-        <v>3</v>
+      <c s="21" r="L28">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="21" r="N28">
+      <c s="22" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="21" r="P28">
+      <c s="22" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="21" r="R28">
+      <c s="22" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="21" r="T28">
+      <c s="22" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="21" r="V28">
+      <c s="22" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="26" r="X28">
-        <v>118</v>
+      <c s="28" r="X28">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="21" r="Z28">
-        <v>25</v>
+      <c s="22" r="Z28">
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="23" r="AB28">
-        <v>178</v>
+      <c s="28" r="AB28">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="23" r="AD28">
-        <v>178</v>
+      <c s="28" r="AD28">
+        <v>199</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A29">
+      <c s="16" t="inlineStr" r="A29">
         <is>
           <t xml:space="preserve">359042 Lititz</t>
         </is>
       </c>
-      <c s="16" t="str" r="B29"/>
-      <c s="16" t="str" r="C29"/>
-      <c s="17" t="inlineStr" r="D29">
+      <c s="17" t="str" r="B29"/>
+      <c s="17" t="str" r="C29"/>
+      <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="18" r="G29">
-        <v>227</v>
+      <c s="19" r="G29">
+        <v>253</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="19" r="J29">
-        <v>21</v>
+      <c s="24" r="J29">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="20" r="L29">
+      <c s="21" r="L29">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="21" r="N29">
+      <c s="22" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="21" r="P29">
+      <c s="22" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="21" r="R29">
+      <c s="22" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="21" r="T29">
+      <c s="22" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="21" r="V29">
+      <c s="22" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="19" r="X29">
-        <v>32</v>
+      <c s="28" r="X29">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="21" r="Z29">
-        <v>30</v>
+      <c s="22" r="Z29">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="20" r="AB29">
-        <v>84</v>
+      <c s="24" r="AB29">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="20" r="AD29">
-        <v>84</v>
+      <c s="24" r="AD29">
+        <v>174</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="22" t="str" r="A30"/>
-      <c s="17" t="inlineStr" r="D30">
+      <c s="23" t="str" r="A30"/>
+      <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="18" r="G30">
-        <v>92</v>
+      <c s="19" r="G30">
+        <v>82</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="27" r="J30">
-        <v>30</v>
+      <c s="25" r="J30">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K30"/>
       <c s="20" r="L30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="21" r="N30">
+      <c s="22" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="21" r="P30">
+      <c s="22" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="21" r="R30">
+      <c s="22" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="21" r="T30">
+      <c s="22" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="21" r="V30">
+      <c s="22" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="26" r="X30">
-        <v>57</v>
+      <c s="28" r="X30">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="21" r="Z30">
-        <v>46</v>
+      <c s="22" r="Z30">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="20" r="AB30">
-        <v>134</v>
+      <c s="21" r="AB30">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="20" r="AD30">
-        <v>134</v>
+      <c s="21" r="AD30">
+        <v>138</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="22" t="str" r="A31"/>
-      <c s="17" t="inlineStr" r="D31">
+      <c s="23" t="str" r="A31"/>
+      <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="18" r="G31">
-        <v>48</v>
+      <c s="19" r="G31">
+        <v>49</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="26" r="J31">
-        <v>65</v>
+      <c s="28" r="J31">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="23" r="L31">
-        <v>9</v>
+      <c s="24" r="L31">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="21" r="N31">
+      <c s="22" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="21" r="P31">
+      <c s="22" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="21" r="R31">
+      <c s="22" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="21" r="T31">
+      <c s="22" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="21" r="V31">
+      <c s="22" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="26" r="X31">
-        <v>112</v>
+      <c s="28" r="X31">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="21" r="Z31">
-        <v>37</v>
+      <c s="22" r="Z31">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="26" r="AB31">
-        <v>213</v>
+      <c s="28" r="AB31">
+        <v>223</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="26" r="AD31">
-        <v>213</v>
+      <c s="28" r="AD31">
+        <v>223</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="24" t="str" r="A32"/>
-      <c s="25" t="str" r="B32"/>
-      <c s="25" t="str" r="C32"/>
-      <c s="17" t="inlineStr" r="D32">
+      <c s="26" t="str" r="A32"/>
+      <c s="27" t="str" r="B32"/>
+      <c s="27" t="str" r="C32"/>
+      <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="18" r="G32">
-        <v>12</v>
+      <c s="19" r="G32">
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="26" r="J32">
-        <v>41</v>
+      <c s="28" r="J32">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="19" r="L32">
-        <v>5</v>
+      <c s="21" r="L32">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="21" r="N32">
+      <c s="22" r="N32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="21" r="P32">
+      <c s="22" r="P32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="21" r="R32">
+      <c s="22" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="21" r="T32">
+      <c s="22" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="21" r="V32">
+      <c s="22" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="26" r="X32">
-        <v>132</v>
+      <c s="28" r="X32">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="21" r="Z32">
-        <v>29</v>
+      <c s="22" r="Z32">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="26" r="AB32">
-        <v>204</v>
+      <c s="28" r="AB32">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="26" r="AD32">
-        <v>204</v>
+      <c s="28" r="AD32">
+        <v>199</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A33">
+      <c s="16" t="inlineStr" r="A33">
         <is>
           <t xml:space="preserve">362913 Eisenhower</t>
         </is>
       </c>
-      <c s="16" t="str" r="B33"/>
-      <c s="16" t="str" r="C33"/>
-      <c s="17" t="inlineStr" r="D33">
+      <c s="17" t="str" r="B33"/>
+      <c s="17" t="str" r="C33"/>
+      <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="18" r="G33">
-        <v>145</v>
+      <c s="19" r="G33">
+        <v>180</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="19" r="J33">
-        <v>31</v>
+      <c s="21" r="J33">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="20" r="L33">
+      <c s="21" r="L33">
         <v>1</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="21" r="N33">
+      <c s="22" r="N33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="21" r="P33">
+      <c s="22" r="P33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="21" r="R33">
+      <c s="22" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="21" r="T33">
+      <c s="22" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="20" r="V33">
-        <v>4</v>
+      <c s="21" r="V33">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="26" r="X33">
-        <v>43</v>
+      <c s="28" r="X33">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="21" r="Z33">
-        <v>25</v>
+      <c s="22" r="Z33">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="20" r="AB33">
-        <v>76</v>
+      <c s="21" r="AB33">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="20" r="AD33">
-        <v>102</v>
+      <c s="21" r="AD33">
+        <v>115</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="22" t="str" r="A34"/>
-      <c s="17" t="inlineStr" r="D34">
+      <c s="23" t="str" r="A34"/>
+      <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="18" r="G34">
-        <v>68</v>
+      <c s="19" r="G34">
+        <v>67</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="19" r="J34">
-        <v>38</v>
+      <c s="24" r="J34">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="20" r="L34">
-        <v>2</v>
+      <c s="21" r="L34">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="21" r="N34">
+      <c s="22" r="N34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="21" r="P34">
+      <c s="22" r="P34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="21" r="R34">
+      <c s="22" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="21" r="T34">
+      <c s="22" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="20" r="V34">
-        <v>5</v>
+      <c s="21" r="V34">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="26" r="X34">
-        <v>57</v>
+      <c s="28" r="X34">
+        <v>62</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="21" r="Z34">
-        <v>26</v>
+      <c s="22" r="Z34">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="20" r="AB34">
-        <v>98</v>
+      <c s="21" r="AB34">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="19" r="AD34">
-        <v>125</v>
+      <c s="20" r="AD34">
+        <v>143</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="22" t="str" r="A35"/>
-      <c s="17" t="inlineStr" r="D35">
+      <c s="23" t="str" r="A35"/>
+      <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="18" r="G35">
-        <v>35</v>
+      <c s="19" r="G35">
+        <v>40</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="23" r="J35">
-        <v>49</v>
+      <c s="25" r="J35">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="20" r="L35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="21" r="N35">
+      <c s="22" r="N35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="21" r="P35">
+      <c s="22" r="P35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="21" r="R35">
+      <c s="22" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="21" r="T35">
+      <c s="22" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="20" r="V35">
-        <v>5</v>
+      <c s="21" r="V35">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="26" r="X35">
-        <v>87</v>
+      <c s="28" r="X35">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="21" r="Z35">
-        <v>26</v>
+      <c s="22" r="Z35">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="19" r="AB35">
-        <v>141</v>
+      <c s="20" r="AB35">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="19" r="AD35">
-        <v>167</v>
+      <c s="24" r="AD35">
+        <v>182</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="24" t="str" r="A36"/>
-      <c s="25" t="str" r="B36"/>
-      <c s="25" t="str" r="C36"/>
-      <c s="17" t="inlineStr" r="D36">
+      <c s="26" t="str" r="A36"/>
+      <c s="27" t="str" r="B36"/>
+      <c s="27" t="str" r="C36"/>
+      <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="18" r="G36">
-        <v>13</v>
+      <c s="19" r="G36">
+        <v>16</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="20" r="J36">
-        <v>29</v>
+      <c s="28" r="J36">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="K36"/>
       <c s="20" r="L36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="21" r="N36">
+      <c s="22" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="21" r="P36">
+      <c s="22" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="21" r="R36">
+      <c s="22" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="21" r="T36">
+      <c s="22" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="20" r="V36">
+      <c s="21" r="V36">
         <v>2</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="26" r="X36">
-        <v>70</v>
+      <c s="28" r="X36">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="21" r="Z36">
-        <v>15</v>
+      <c s="22" r="Z36">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="20" r="AB36">
-        <v>100</v>
+      <c s="25" r="AB36">
+        <v>259</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="20" r="AD36">
-        <v>115</v>
+      <c s="25" r="AD36">
+        <v>287</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A37">
+      <c s="16" t="inlineStr" r="A37">
         <is>
           <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
-      <c s="16" t="str" r="B37"/>
-      <c s="16" t="str" r="C37"/>
-      <c s="17" t="inlineStr" r="D37">
+      <c s="17" t="str" r="B37"/>
+      <c s="17" t="str" r="C37"/>
+      <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="18" r="G37">
-        <v>235</v>
+      <c s="19" r="G37">
+        <v>241</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="21" r="J37">
+      <c s="22" r="J37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="21" r="L37">
+      <c s="22" r="L37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="27" r="N37">
+      <c s="25" r="N37">
         <v>30</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="20" r="P37">
-        <v>2</v>
+      <c s="21" r="P37">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="20" r="R37">
-        <v>0</v>
+      <c s="21" r="R37">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="20" r="T37">
-        <v>0</v>
+      <c s="21" r="T37">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="21" r="V37">
+      <c s="22" r="V37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="26" r="X37">
-        <v>55</v>
+      <c s="28" r="X37">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="21" r="Z37">
-        <v>94</v>
+      <c s="22" r="Z37">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="23" r="AB37">
-        <v>179</v>
+      <c s="24" r="AB37">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="23" r="AD37">
-        <v>179</v>
+      <c s="24" r="AD37">
+        <v>165</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="22" t="str" r="A38"/>
-      <c s="17" t="inlineStr" r="D38">
+      <c s="23" t="str" r="A38"/>
+      <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="18" r="G38">
-        <v>74</v>
+      <c s="19" r="G38">
+        <v>81</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="21" r="J38">
+      <c s="22" r="J38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="21" r="L38">
+      <c s="22" r="L38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="26" r="N38">
-        <v>38</v>
+      <c s="25" r="N38">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="19" r="P38">
-        <v>5</v>
+      <c s="21" r="P38">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
+      <c s="22" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
+      <c s="22" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="21" r="V38">
+      <c s="22" r="V38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="26" r="X38">
-        <v>88</v>
+      <c s="28" r="X38">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="21" r="Z38">
-        <v>91</v>
+      <c s="22" r="Z38">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="26" r="AB38">
-        <v>212</v>
+      <c s="25" r="AB38">
+        <v>188</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="26" r="AD38">
-        <v>212</v>
+      <c s="25" r="AD38">
+        <v>188</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="22" t="str" r="A39"/>
-      <c s="17" t="inlineStr" r="D39">
+      <c s="23" t="str" r="A39"/>
+      <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="18" r="G39">
-        <v>63</v>
+      <c s="19" r="G39">
+        <v>65</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="21" r="J39">
+      <c s="22" r="J39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="21" r="L39">
+      <c s="22" r="L39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="26" r="N39">
-        <v>38</v>
+      <c s="25" r="N39">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="19" r="P39">
-        <v>6</v>
+      <c s="21" r="P39">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q39"/>
       <c s="21" r="R39">
@@ -2502,324 +2505,324 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="21" r="V39">
+      <c s="22" r="V39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="26" r="X39">
-        <v>74</v>
+      <c s="28" r="X39">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="21" r="Z39">
-        <v>52</v>
+      <c s="22" r="Z39">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="19" r="AB39">
-        <v>164</v>
+      <c s="24" r="AB39">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="19" r="AD39">
-        <v>164</v>
+      <c s="24" r="AD39">
+        <v>165</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="24" t="str" r="A40"/>
-      <c s="25" t="str" r="B40"/>
-      <c s="25" t="str" r="C40"/>
-      <c s="17" t="inlineStr" r="D40">
+      <c s="26" t="str" r="A40"/>
+      <c s="27" t="str" r="B40"/>
+      <c s="27" t="str" r="C40"/>
+      <c s="18" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
-      <c s="18" r="G40">
-        <v>7</v>
+      <c s="19" r="G40">
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
-      <c s="21" r="J40">
+      <c s="22" r="J40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K40"/>
-      <c s="21" r="L40">
+      <c s="22" r="L40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="23" r="N40">
-        <v>25</v>
+      <c s="24" r="N40">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="O40"/>
-      <c s="20" r="P40">
-        <v>2</v>
+      <c s="21" r="P40">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="21" r="R40">
+      <c s="22" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="21" r="T40">
+      <c s="22" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
-      <c s="21" r="V40">
+      <c s="22" r="V40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="26" r="X40">
-        <v>45</v>
+      <c s="28" r="X40">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="Y40"/>
-      <c s="21" r="Z40">
-        <v>7</v>
+      <c s="22" r="Z40">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="20" r="AB40">
-        <v>78</v>
+      <c s="21" r="AB40">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="20" r="AD40">
-        <v>78</v>
+      <c s="21" r="AD40">
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A41">
+      <c s="16" t="inlineStr" r="A41">
         <is>
           <t xml:space="preserve">364322 E-Town</t>
         </is>
       </c>
-      <c s="16" t="str" r="B41"/>
-      <c s="16" t="str" r="C41"/>
-      <c s="17" t="inlineStr" r="D41">
+      <c s="17" t="str" r="B41"/>
+      <c s="17" t="str" r="C41"/>
+      <c s="18" t="inlineStr" r="D41">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
-      <c s="18" r="G41">
-        <v>222</v>
+      <c s="19" r="G41">
+        <v>266</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
       <c s="20" r="J41">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K41"/>
-      <c s="20" r="L41">
-        <v>1</v>
+      <c s="21" r="L41">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M41"/>
-      <c s="21" r="N41">
+      <c s="22" r="N41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O41"/>
-      <c s="21" r="P41">
+      <c s="22" r="P41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q41"/>
-      <c s="21" r="R41">
+      <c s="22" r="R41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S41"/>
-      <c s="21" r="T41">
+      <c s="22" r="T41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="20" r="V41">
-        <v>13</v>
+      <c s="24" r="V41">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="26" r="X41">
-        <v>43</v>
+      <c s="28" r="X41">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y41"/>
-      <c s="21" r="Z41">
-        <v>47</v>
+      <c s="22" r="Z41">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="AA41"/>
       <c s="20" r="AB41">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c s="5" t="str" r="AC41"/>
       <c s="20" r="AD41">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
-      <c s="22" t="str" r="A42"/>
-      <c s="17" t="inlineStr" r="D42">
+      <c s="23" t="str" r="A42"/>
+      <c s="18" t="inlineStr" r="D42">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
-      <c s="18" r="G42">
-        <v>108</v>
+      <c s="19" r="G42">
+        <v>139</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="19" r="J42">
-        <v>33</v>
+      <c s="20" r="J42">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K42"/>
-      <c s="20" r="L42">
+      <c s="21" r="L42">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M42"/>
-      <c s="21" r="N42">
+      <c s="22" r="N42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O42"/>
-      <c s="21" r="P42">
+      <c s="22" r="P42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q42"/>
-      <c s="21" r="R42">
+      <c s="22" r="R42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S42"/>
-      <c s="21" r="T42">
+      <c s="22" r="T42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="20" r="V42">
-        <v>12</v>
+      <c s="24" r="V42">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="26" r="X42">
+      <c s="28" r="X42">
         <v>60</v>
       </c>
       <c s="5" t="str" r="Y42"/>
-      <c s="21" r="Z42">
-        <v>39</v>
+      <c s="22" r="Z42">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA42"/>
       <c s="20" r="AB42">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c s="5" t="str" r="AC42"/>
       <c s="20" r="AD42">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
-      <c s="22" t="str" r="A43"/>
-      <c s="17" t="inlineStr" r="D43">
+      <c s="23" t="str" r="A43"/>
+      <c s="18" t="inlineStr" r="D43">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
-      <c s="18" r="G43">
-        <v>72</v>
+      <c s="19" r="G43">
+        <v>57</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="23" r="J43">
-        <v>43</v>
+      <c s="20" r="J43">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K43"/>
-      <c s="19" r="L43">
-        <v>6</v>
+      <c s="21" r="L43">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M43"/>
-      <c s="21" r="N43">
+      <c s="22" r="N43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O43"/>
-      <c s="21" r="P43">
+      <c s="22" r="P43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q43"/>
-      <c s="21" r="R43">
+      <c s="22" r="R43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S43"/>
-      <c s="21" r="T43">
+      <c s="22" r="T43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="20" r="V43">
-        <v>10</v>
+      <c s="21" r="V43">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="26" r="X43">
-        <v>92</v>
+      <c s="28" r="X43">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y43"/>
-      <c s="21" r="Z43">
-        <v>56</v>
+      <c s="22" r="Z43">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="23" r="AB43">
-        <v>202</v>
+      <c s="21" r="AB43">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="23" r="AD43">
-        <v>202</v>
+      <c s="21" r="AD43">
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="24" t="str" r="A44"/>
-      <c s="25" t="str" r="B44"/>
-      <c s="25" t="str" r="C44"/>
-      <c s="17" t="inlineStr" r="D44">
+      <c s="26" t="str" r="A44"/>
+      <c s="27" t="str" r="B44"/>
+      <c s="27" t="str" r="C44"/>
+      <c s="18" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
-      <c s="18" r="G44">
-        <v>11</v>
+      <c s="19" r="G44">
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="19" r="J44">
-        <v>35</v>
+      <c s="24" r="J44">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K44"/>
-      <c s="23" r="L44">
-        <v>10</v>
+      <c s="21" r="L44">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M44"/>
-      <c s="21" r="N44">
+      <c s="22" r="N44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O44"/>
-      <c s="21" r="P44">
+      <c s="22" r="P44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q44"/>
-      <c s="21" r="R44">
+      <c s="22" r="R44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S44"/>
-      <c s="21" r="T44">
+      <c s="22" r="T44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U44"/>
-      <c s="20" r="V44">
+      <c s="21" r="V44">
         <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="26" r="X44">
-        <v>74</v>
+      <c s="28" r="X44">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="Y44"/>
-      <c s="21" r="Z44">
-        <v>9</v>
+      <c s="22" r="Z44">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="20" r="AB44">
-        <v>118</v>
+      <c s="24" r="AB44">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="20" r="AD44">
-        <v>118</v>
+      <c s="24" r="AD44">
+        <v>190</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3288,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/15/2026 12:33:38 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/17/2026 12:22:39 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,12 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB40000"/>
         <bgColor rgb="FFB40000"/>
       </patternFill>
@@ -160,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
   </fills>
@@ -336,10 +336,7 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -348,7 +345,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -375,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/16/2026</t>
+          <t xml:space="preserve">Day: 01/22/2026</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c s="8" r="F7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -645,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>62</v>
+      <c s="8" r="S7">
+        <v>57</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>566</v>
-      </c>
-      <c s="12" r="F8">
-        <v>33</v>
+        <v>501</v>
+      </c>
+      <c s="11" r="F8">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="G8"/>
       <c s="9" r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -701,20 +701,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="13" r="S8">
-        <v>53</v>
+      <c s="12" r="S8">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="8" r="W8">
-        <v>161</v>
+      <c s="9" r="W8">
+        <v>124</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="8" r="Y8">
-        <v>161</v>
+      <c s="9" r="Y8">
+        <v>124</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c s="12" r="F9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="8" r="H9">
-        <v>5</v>
+      <c s="13" r="H9">
+        <v>8</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -757,20 +757,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="13" r="S9">
-        <v>56</v>
+      <c s="12" r="S9">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="9" r="W9">
-        <v>146</v>
+      <c s="11" r="W9">
+        <v>185</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="9" r="Y9">
-        <v>146</v>
+      <c s="11" r="Y9">
+        <v>185</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>397</v>
-      </c>
-      <c s="12" r="F10">
-        <v>31</v>
+        <v>355</v>
+      </c>
+      <c s="11" r="F10">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="9" r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -813,20 +813,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="13" r="S10">
-        <v>61</v>
+      <c s="12" r="S10">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>174</v>
+      <c s="13" r="W10">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>174</v>
+      <c s="13" r="Y10">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,10 +840,10 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c s="8" r="F11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
@@ -866,23 +866,23 @@
       </c>
       <c s="5" t="str" r="P11"/>
       <c s="9" r="Q11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="13" r="S11">
-        <v>60</v>
+      <c s="12" r="S11">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="V11"/>
       <c s="9" r="W11">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,7 +896,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,40 +905,40 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="12" r="I12">
-        <v>31</v>
+      <c s="13" r="I12">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="L12"/>
       <c s="9" r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="N12"/>
       <c s="9" r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="13" r="S12">
-        <v>61</v>
+      <c s="12" r="S12">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="11" r="W12">
-        <v>168</v>
+      <c s="8" r="W12">
+        <v>152</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="11" r="Y12">
-        <v>168</v>
+      <c s="8" r="Y12">
+        <v>152</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,10 +952,10 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>474</v>
-      </c>
-      <c s="8" r="F13">
-        <v>33</v>
+        <v>409</v>
+      </c>
+      <c s="9" r="F13">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="G13"/>
       <c s="9" r="H13">
@@ -977,24 +977,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="8" r="Q13">
-        <v>18</v>
+      <c s="9" r="Q13">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="13" r="S13">
-        <v>55</v>
+      <c s="12" r="S13">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="8" r="W13">
-        <v>163</v>
+      <c s="9" r="W13">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="8" r="Y13">
-        <v>163</v>
+      <c s="9" r="Y13">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,16 +1103,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1136,19 +1136,19 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>6</v>
+      <c s="21" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1193,8 +1193,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>62</v>
+      <c s="20" r="X17">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
@@ -1202,7 +1202,7 @@
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="21" r="AB17">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
@@ -1219,16 +1219,16 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
-        <v>8</v>
+      <c s="21" r="L18">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="22" r="N18">
@@ -1251,26 +1251,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="25" r="X18">
-        <v>111</v>
+      <c s="24" r="X18">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="24" r="AB18">
-        <v>276</v>
+      <c s="21" r="AB18">
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="20" r="AD18">
-        <v>137</v>
+      <c s="21" r="AD18">
+        <v>64</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="26" t="str" r="A19"/>
-      <c s="27" t="str" r="B19"/>
-      <c s="27" t="str" r="C19"/>
+      <c s="25" t="str" r="A19"/>
+      <c s="26" t="str" r="B19"/>
+      <c s="26" t="str" r="C19"/>
       <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1279,16 +1279,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="20" r="J19">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1311,20 +1311,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="24" r="X19">
-        <v>72</v>
+      <c s="27" r="X19">
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="AA19"/>
       <c s="21" r="AB19">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1347,12 +1347,12 @@
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>26</v>
+      <c s="20" r="J20">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1376,19 +1376,19 @@
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="28" r="X20">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="24" r="AB20">
-        <v>173</v>
+      <c s="21" r="AB20">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="24" r="AD20">
-        <v>173</v>
+      <c s="21" r="AD20">
+        <v>137</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,16 +1401,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="25" r="J21">
-        <v>32</v>
+      <c s="24" r="J21">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1433,20 +1433,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="25" r="X21">
-        <v>42</v>
+      <c s="24" r="X21">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="20" r="AB21">
-        <v>154</v>
+      <c s="21" r="AB21">
+        <v>116</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="20" r="AD21">
-        <v>154</v>
+      <c s="21" r="AD21">
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="25" r="J22">
+      <c s="27" r="J22">
         <v>32</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1492,19 +1492,19 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="24" r="AB22">
-        <v>177</v>
+      <c s="21" r="AB22">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="24" r="AD22">
-        <v>177</v>
+      <c s="21" r="AD22">
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>36</v>
+      <c s="27" r="J23">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="20" r="L23">
-        <v>5</v>
+      <c s="21" r="L23">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1550,25 +1550,25 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>159</v>
+      <c s="21" r="AB23">
+        <v>131</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>159</v>
+      <c s="21" r="AD23">
+        <v>131</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="26" t="str" r="A24"/>
-      <c s="27" t="str" r="B24"/>
-      <c s="27" t="str" r="C24"/>
+      <c s="25" t="str" r="A24"/>
+      <c s="26" t="str" r="B24"/>
+      <c s="26" t="str" r="C24"/>
       <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1577,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="20" r="L24">
-        <v>6</v>
+      <c s="27" r="L24">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1610,19 +1610,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="25" r="AB24">
-        <v>186</v>
+      <c s="20" r="AB24">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="25" r="AD24">
-        <v>186</v>
+      <c s="20" r="AD24">
+        <v>164</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,12 +1641,12 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="24" r="J25">
-        <v>29</v>
+      <c s="27" r="J25">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
@@ -1678,15 +1678,15 @@
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="20" r="AB25">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="20" r="AD25">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="25" r="J26">
-        <v>33</v>
+      <c s="28" r="J26">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="20" r="L26">
-        <v>6</v>
+      <c s="27" r="L26">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1732,19 +1732,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="21" r="AB26">
-        <v>122</v>
+      <c s="24" r="AB26">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="21" r="AD26">
-        <v>122</v>
+      <c s="24" r="AD26">
+        <v>170</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
       <c s="28" r="J27">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="20" r="L27">
-        <v>6</v>
+      <c s="28" r="L27">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1790,25 +1790,25 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="20" r="AB27">
-        <v>156</v>
+      <c s="28" r="AB27">
+        <v>278</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="20" r="AD27">
-        <v>156</v>
+      <c s="28" r="AD27">
+        <v>278</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="26" t="str" r="A28"/>
-      <c s="27" t="str" r="B28"/>
-      <c s="27" t="str" r="C28"/>
+      <c s="25" t="str" r="A28"/>
+      <c s="26" t="str" r="B28"/>
+      <c s="26" t="str" r="C28"/>
       <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K28"/>
       <c s="21" r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1850,19 +1850,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA28"/>
       <c s="28" r="AB28">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c s="5" t="str" r="AC28"/>
       <c s="28" r="AD28">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,16 +1881,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
       <c s="24" r="J29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K29"/>
       <c s="21" r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1914,19 +1914,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="24" r="AB29">
-        <v>174</v>
+      <c s="20" r="AB29">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="24" r="AD29">
-        <v>174</v>
+      <c s="20" r="AD29">
+        <v>159</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="25" r="J30">
-        <v>34</v>
+      <c s="28" r="J30">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K30"/>
       <c s="20" r="L30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1972,19 +1972,19 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
         <v>37</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="21" r="AB30">
-        <v>138</v>
+      <c s="20" r="AB30">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="21" r="AD30">
-        <v>138</v>
+      <c s="20" r="AD30">
+        <v>155</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
@@ -1997,12 +1997,12 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="24" r="L31">
@@ -2030,25 +2030,25 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="26" t="str" r="A32"/>
-      <c s="27" t="str" r="B32"/>
-      <c s="27" t="str" r="C32"/>
+      <c s="25" t="str" r="A32"/>
+      <c s="26" t="str" r="B32"/>
+      <c s="26" t="str" r="C32"/>
       <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2057,7 +2057,7 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="21" r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2090,19 +2090,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="28" r="AB32">
-        <v>199</v>
+      <c s="27" r="AB32">
+        <v>184</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="28" r="AD32">
-        <v>199</v>
+      <c s="27" r="AD32">
+        <v>184</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,16 +2121,16 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
       <c s="21" r="J33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M33"/>
       <c s="22" r="N33">
@@ -2150,23 +2150,23 @@
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="21" r="V33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="21" r="AD33">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,16 +2179,16 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
       <c s="24" r="J34">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="22" r="N34">
@@ -2208,23 +2208,23 @@
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="21" r="V34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA34"/>
       <c s="21" r="AB34">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>143</v>
+      <c s="21" r="AD34">
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,16 +2237,16 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="25" r="J35">
-        <v>54</v>
+      <c s="28" r="J35">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="20" r="L35">
-        <v>5</v>
+      <c s="21" r="L35">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="22" r="N35">
@@ -2266,29 +2266,29 @@
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="21" r="V35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="20" r="AB35">
-        <v>146</v>
+      <c s="24" r="AB35">
+        <v>192</v>
       </c>
       <c s="5" t="str" r="AC35"/>
       <c s="24" r="AD35">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="26" t="str" r="A36"/>
-      <c s="27" t="str" r="B36"/>
-      <c s="27" t="str" r="C36"/>
+      <c s="25" t="str" r="A36"/>
+      <c s="26" t="str" r="B36"/>
+      <c s="26" t="str" r="C36"/>
       <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2297,16 +2297,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
       <c s="28" r="J36">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
-        <v>6</v>
+      <c s="21" r="L36">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2330,19 +2330,19 @@
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="25" r="AB36">
-        <v>259</v>
+      <c s="24" r="AB36">
+        <v>234</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="25" r="AD36">
-        <v>287</v>
+      <c s="27" r="AD36">
+        <v>271</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2373,20 +2373,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="25" r="N37">
-        <v>30</v>
+      <c s="24" r="N37">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
-        <v>1</v>
+      <c s="22" r="R37">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="21" r="T37">
-        <v>1</v>
+      <c s="22" r="T37">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
       <c s="22" r="V37">
@@ -2394,19 +2394,19 @@
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="24" r="AB37">
-        <v>165</v>
+      <c s="21" r="AB37">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="24" r="AD37">
-        <v>165</v>
+      <c s="21" r="AD37">
+        <v>135</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2431,20 +2431,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="25" r="N38">
-        <v>34</v>
+      <c s="27" r="N38">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
-        <v>0</v>
+      <c s="21" r="R38">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="22" r="T38">
-        <v>0</v>
+      <c s="21" r="T38">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="22" r="V38">
@@ -2452,19 +2452,19 @@
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="25" r="AB38">
-        <v>188</v>
+      <c s="24" r="AB38">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="25" r="AD38">
-        <v>188</v>
+      <c s="24" r="AD38">
+        <v>179</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2489,19 +2489,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="25" r="N39">
-        <v>33</v>
+      <c s="28" r="N39">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
+      <c s="22" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
+      <c s="22" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
@@ -2510,25 +2510,25 @@
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="24" r="AB39">
-        <v>165</v>
+      <c s="27" r="AB39">
+        <v>192</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="24" r="AD39">
-        <v>165</v>
+      <c s="27" r="AD39">
+        <v>192</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="26" t="str" r="A40"/>
-      <c s="27" t="str" r="B40"/>
-      <c s="27" t="str" r="C40"/>
+      <c s="25" t="str" r="A40"/>
+      <c s="26" t="str" r="B40"/>
+      <c s="26" t="str" r="C40"/>
       <c s="18" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,12 +2549,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="24" r="N40">
-        <v>26</v>
+      <c s="28" r="N40">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q40"/>
       <c s="22" r="R40">
@@ -2570,19 +2570,19 @@
       </c>
       <c s="5" t="str" r="W40"/>
       <c s="28" r="X40">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA40"/>
       <c s="21" r="AB40">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c s="5" t="str" r="AC40"/>
       <c s="21" r="AD40">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,16 +2601,16 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
-      <c s="20" r="J41">
-        <v>30</v>
+      <c s="21" r="J41">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2629,24 +2629,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="24" r="V41">
-        <v>20</v>
+      <c s="21" r="V41">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W41"/>
       <c s="28" r="X41">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="20" r="AB41">
-        <v>163</v>
+      <c s="21" r="AB41">
+        <v>110</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="20" r="AD41">
-        <v>163</v>
+      <c s="21" r="AD41">
+        <v>110</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,12 +2659,12 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="20" r="J42">
-        <v>37</v>
+      <c s="21" r="J42">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
@@ -2687,24 +2687,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="24" r="V42">
-        <v>21</v>
+      <c s="21" r="V42">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W42"/>
       <c s="28" r="X42">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="20" r="AB42">
-        <v>177</v>
+      <c s="21" r="AB42">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="20" r="AD42">
-        <v>177</v>
+      <c s="21" r="AD42">
+        <v>102</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2722,7 +2722,7 @@
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
       <c s="20" r="J43">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K43"/>
       <c s="21" r="L43">
@@ -2746,29 +2746,29 @@
       </c>
       <c s="5" t="str" r="U43"/>
       <c s="21" r="V43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="W43"/>
       <c s="28" r="X43">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="AA43"/>
       <c s="21" r="AB43">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC43"/>
       <c s="21" r="AD43">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="26" t="str" r="A44"/>
-      <c s="27" t="str" r="B44"/>
-      <c s="27" t="str" r="C44"/>
+      <c s="25" t="str" r="A44"/>
+      <c s="26" t="str" r="B44"/>
+      <c s="26" t="str" r="C44"/>
       <c s="18" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2777,12 +2777,12 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="24" r="J44">
-        <v>43</v>
+      <c s="20" r="J44">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K44"/>
       <c s="21" r="L44">
@@ -2806,23 +2806,23 @@
       </c>
       <c s="5" t="str" r="U44"/>
       <c s="21" r="V44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="W44"/>
       <c s="28" r="X44">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="24" r="AB44">
-        <v>190</v>
+      <c s="20" r="AB44">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="24" r="AD44">
-        <v>190</v>
+      <c s="20" r="AD44">
+        <v>165</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/17/2026 12:22:39 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/23/2026 12:33:53 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 01/22/2026</t>
+          <t xml:space="preserve">Day: 02/03/2026</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c s="8" r="F7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -646,19 +646,19 @@
       </c>
       <c s="5" t="str" r="R7"/>
       <c s="8" r="S7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,7 +672,7 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c s="11" r="F8">
         <v>31</v>
@@ -702,19 +702,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>466</v>
-      </c>
-      <c s="12" r="F9">
-        <v>41</v>
+        <v>423</v>
+      </c>
+      <c s="11" r="F9">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="13" r="H9">
-        <v>8</v>
+      <c s="9" r="H9">
+        <v>2</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -758,19 +758,19 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="11" r="W9">
-        <v>185</v>
+      <c s="9" r="W9">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="11" r="Y9">
-        <v>185</v>
+      <c s="9" r="Y9">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>355</v>
-      </c>
-      <c s="11" r="F10">
-        <v>33</v>
+        <v>356</v>
+      </c>
+      <c s="12" r="F10">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="9" r="H10">
-        <v>4</v>
+      <c s="13" r="H10">
+        <v>7</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -814,11 +814,11 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="13" r="W10">
@@ -840,14 +840,14 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c s="8" r="F11">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I11">
         <v>0</v>
@@ -865,24 +865,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="9" r="Q11">
-        <v>6</v>
+      <c s="8" r="Q11">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>101</v>
+      <c s="8" r="W11">
+        <v>122</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,7 +896,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,20 +905,20 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="13" r="I12">
-        <v>29</v>
+      <c s="11" r="I12">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
       <c s="9" r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
       <c s="9" r="O12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
@@ -926,19 +926,19 @@
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>152</v>
+      <c s="13" r="W12">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>152</v>
+      <c s="13" r="Y12">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,14 +952,14 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>409</v>
-      </c>
-      <c s="9" r="F13">
-        <v>26</v>
+        <v>386</v>
+      </c>
+      <c s="8" r="F13">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G13"/>
       <c s="9" r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I13">
         <v>0</v>
@@ -977,24 +977,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="9" r="Q13">
-        <v>7</v>
+      <c s="8" r="Q13">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="R13"/>
       <c s="12" r="S13">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="9" r="W13">
-        <v>113</v>
+      <c s="8" r="W13">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="9" r="Y13">
-        <v>113</v>
+      <c s="8" r="Y13">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,16 +1103,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1136,7 +1136,7 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
@@ -1144,11 +1144,11 @@
       </c>
       <c s="5" t="str" r="AA16"/>
       <c s="21" r="AB16">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>4</v>
+      <c s="20" r="L17">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1193,20 +1193,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="20" r="X17">
-        <v>59</v>
+      <c s="24" r="X17">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="21" r="AB17">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
@@ -1219,12 +1219,12 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
@@ -1256,15 +1256,15 @@
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA18"/>
       <c s="21" r="AB18">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
@@ -1279,16 +1279,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="20" r="J19">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1312,19 +1312,19 @@
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="27" r="X19">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>143</v>
+      <c s="24" r="AB19">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1343,16 +1343,16 @@
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
       <c s="19" r="G20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="20" r="J20">
-        <v>24</v>
+      <c s="24" r="J20">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1376,19 +1376,19 @@
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="28" r="X20">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
@@ -1401,12 +1401,12 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
       <c s="24" r="J21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="21" r="L21">
@@ -1434,19 +1434,19 @@
       </c>
       <c s="5" t="str" r="W21"/>
       <c s="24" r="X21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
@@ -1459,12 +1459,12 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="27" r="J22">
-        <v>32</v>
+      <c s="28" r="J22">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
@@ -1496,15 +1496,15 @@
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
@@ -1517,12 +1517,12 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="27" r="J23">
-        <v>30</v>
+      <c s="28" r="J23">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="21" r="L23">
@@ -1550,19 +1550,19 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>131</v>
+      <c s="20" r="AB23">
+        <v>152</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>131</v>
+      <c s="20" r="AD23">
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
@@ -1577,16 +1577,16 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
       <c s="28" r="J24">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="27" r="L24">
-        <v>10</v>
+      <c s="21" r="L24">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="22" r="N24">
@@ -1610,11 +1610,11 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c s="5" t="str" r="AA24"/>
       <c s="20" r="AB24">
@@ -1641,16 +1641,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="27" r="J25">
-        <v>33</v>
+      <c s="24" r="J25">
+        <v>25</v>
       </c>
       <c s="5" t="str" r="K25"/>
       <c s="21" r="L25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1673,20 +1673,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>49</v>
+      <c s="27" r="X25">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="20" r="AB25">
-        <v>159</v>
+      <c s="21" r="AB25">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="20" r="AD25">
-        <v>159</v>
+      <c s="21" r="AD25">
+        <v>125</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
@@ -1699,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="27" r="L26">
-        <v>11</v>
+      <c s="21" r="L26">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1732,19 +1732,19 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="24" r="AB26">
-        <v>170</v>
+      <c s="21" r="AB26">
+        <v>123</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="24" r="AD26">
-        <v>170</v>
+      <c s="21" r="AD26">
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>61</v>
+      <c s="27" r="J27">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="28" r="L27">
-        <v>17</v>
+      <c s="21" r="L27">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1790,19 +1790,19 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="28" r="AB27">
-        <v>278</v>
+      <c s="21" r="AB27">
+        <v>139</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="28" r="AD27">
-        <v>278</v>
+      <c s="21" r="AD27">
+        <v>139</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="K28"/>
       <c s="21" r="L28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1850,19 +1850,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA28"/>
       <c s="28" r="AB28">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c s="5" t="str" r="AC28"/>
       <c s="28" r="AD28">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,16 +1881,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="24" r="J29">
-        <v>26</v>
+      <c s="27" r="J29">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="21" r="L29">
-        <v>4</v>
+      <c s="24" r="L29">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1914,19 +1914,19 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="20" r="AB29">
-        <v>159</v>
+      <c s="24" r="AB29">
+        <v>165</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="20" r="AD29">
-        <v>159</v>
+      <c s="24" r="AD29">
+        <v>165</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
@@ -1939,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="28" r="J30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>5</v>
+      <c s="24" r="L30">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1972,11 +1972,11 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA30"/>
       <c s="20" r="AB30">
@@ -1997,16 +1997,16 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="24" r="L31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="22" r="N31">
@@ -2030,19 +2030,19 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
@@ -2057,16 +2057,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="28" r="J32">
-        <v>49</v>
+      <c s="20" r="J32">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="21" r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2090,19 +2090,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="27" r="AB32">
-        <v>184</v>
+      <c s="21" r="AB32">
+        <v>113</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="27" r="AD32">
-        <v>184</v>
+      <c s="21" r="AD32">
+        <v>113</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,12 +2121,12 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="21" r="J33">
-        <v>27</v>
+      <c s="20" r="J33">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
@@ -2149,24 +2149,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="21" r="V33">
-        <v>7</v>
+      <c s="24" r="V33">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="21" r="AD33">
-        <v>102</v>
+      <c s="20" r="AD33">
+        <v>165</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
@@ -2179,16 +2179,16 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
       <c s="24" r="J34">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="22" r="N34">
@@ -2208,23 +2208,23 @@
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="21" r="V34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>92</v>
+      <c s="20" r="AB34">
+        <v>126</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="21" r="AD34">
-        <v>111</v>
+      <c s="20" r="AD34">
+        <v>166</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
@@ -2237,16 +2237,16 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="28" r="J35">
-        <v>71</v>
+      <c s="24" r="J35">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="21" r="L35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="22" r="N35">
@@ -2266,23 +2266,23 @@
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="21" r="V35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="24" r="AB35">
-        <v>192</v>
+      <c s="20" r="AB35">
+        <v>147</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="24" r="AD35">
-        <v>220</v>
+      <c s="20" r="AD35">
+        <v>167</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
@@ -2297,16 +2297,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="28" r="J36">
-        <v>115</v>
+      <c s="24" r="J36">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
-        <v>4</v>
+      <c s="20" r="L36">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2325,24 +2325,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="21" r="V36">
-        <v>2</v>
+      <c s="24" r="V36">
+        <v>24</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="AA36"/>
       <c s="24" r="AB36">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c s="5" t="str" r="AC36"/>
       <c s="27" r="AD36">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2374,18 +2374,18 @@
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="24" r="N37">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="22" r="R37">
+      <c s="21" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="22" r="T37">
+      <c s="21" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
@@ -2394,19 +2394,19 @@
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="21" r="AB37">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="21" r="AD37">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2431,20 +2431,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="27" r="N38">
-        <v>31</v>
+      <c s="28" r="N38">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
-        <v>2</v>
+      <c s="22" r="R38">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
-        <v>2</v>
+      <c s="22" r="T38">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="22" r="V38">
@@ -2452,19 +2452,19 @@
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="24" r="AB38">
-        <v>179</v>
+      <c s="28" r="AB38">
+        <v>197</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="24" r="AD38">
-        <v>179</v>
+      <c s="28" r="AD38">
+        <v>197</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q39"/>
       <c s="22" r="R39">
@@ -2510,19 +2510,19 @@
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="27" r="AB39">
-        <v>192</v>
+      <c s="28" r="AB39">
+        <v>217</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="27" r="AD39">
-        <v>192</v>
+      <c s="28" r="AD39">
+        <v>217</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2550,18 +2550,18 @@
       </c>
       <c s="5" t="str" r="M40"/>
       <c s="28" r="N40">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="22" r="R40">
+      <c s="21" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="22" r="T40">
+      <c s="21" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
@@ -2570,19 +2570,19 @@
       </c>
       <c s="5" t="str" r="W40"/>
       <c s="28" r="X40">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="21" r="AB40">
-        <v>149</v>
+      <c s="27" r="AB40">
+        <v>190</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="21" r="AD40">
-        <v>149</v>
+      <c s="27" r="AD40">
+        <v>190</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,16 +2601,16 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
       <c s="21" r="J41">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="21" r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2629,24 +2629,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="21" r="V41">
-        <v>9</v>
+      <c s="24" r="V41">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="W41"/>
       <c s="28" r="X41">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="21" r="AB41">
-        <v>110</v>
+      <c s="20" r="AB41">
+        <v>171</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="21" r="AD41">
-        <v>110</v>
+      <c s="20" r="AD41">
+        <v>171</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
@@ -2659,16 +2659,16 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="21" r="J42">
-        <v>27</v>
+      <c s="24" r="J42">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M42"/>
       <c s="22" r="N42">
@@ -2687,24 +2687,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="21" r="V42">
-        <v>4</v>
+      <c s="20" r="V42">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="W42"/>
       <c s="28" r="X42">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="21" r="AB42">
-        <v>102</v>
+      <c s="24" r="AB42">
+        <v>197</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="21" r="AD42">
-        <v>102</v>
+      <c s="24" r="AD42">
+        <v>197</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
@@ -2717,16 +2717,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
       <c s="20" r="J43">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K43"/>
-      <c s="21" r="L43">
-        <v>4</v>
+      <c s="20" r="L43">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2746,23 +2746,23 @@
       </c>
       <c s="5" t="str" r="U43"/>
       <c s="21" r="V43">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="W43"/>
       <c s="28" r="X43">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="AA43"/>
       <c s="21" r="AB43">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC43"/>
       <c s="21" r="AD43">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
@@ -2781,12 +2781,12 @@
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="20" r="J44">
-        <v>38</v>
+      <c s="24" r="J44">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K44"/>
-      <c s="21" r="L44">
-        <v>4</v>
+      <c s="20" r="L44">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2806,23 +2806,23 @@
       </c>
       <c s="5" t="str" r="U44"/>
       <c s="21" r="V44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W44"/>
       <c s="28" r="X44">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="20" r="AB44">
-        <v>165</v>
+      <c s="21" r="AB44">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="20" r="AD44">
-        <v>165</v>
+      <c s="21" r="AD44">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 1/23/2026 12:33:53 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 2/4/2026 12:49:26 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -146,8 +146,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,8 +158,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,6 +333,9 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -344,9 +347,6 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -375,9 +375,9 @@
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
       <rgbColor rgb="0000B04C"/>
+      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00540202"/>
       <rgbColor rgb="00B40000"/>
-      <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 02/03/2026</t>
+          <t xml:space="preserve">Day: 02/04/2026</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c s="8" r="F7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -645,20 +645,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>59</v>
+      <c s="11" r="S7">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +672,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c s="11" r="F8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
-        <v>2</v>
+      <c s="8" r="H8">
+        <v>5</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -702,19 +702,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +728,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>423</v>
-      </c>
-      <c s="11" r="F9">
-        <v>32</v>
+        <v>416</v>
+      </c>
+      <c s="12" r="F9">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="9" r="H9">
-        <v>2</v>
+      <c s="11" r="H9">
+        <v>7</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -758,19 +758,19 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="9" r="W9">
-        <v>133</v>
+      <c s="8" r="W9">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="9" r="Y9">
-        <v>133</v>
+      <c s="8" r="Y9">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +784,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c s="12" r="F10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="13" r="H10">
-        <v>7</v>
+      <c s="8" r="H10">
+        <v>5</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -814,19 +814,19 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="V10"/>
       <c s="13" r="W10">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c s="5" t="str" r="X10"/>
       <c s="13" r="Y10">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,14 +840,14 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c s="8" r="F11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I11">
         <v>0</v>
@@ -865,24 +865,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="8" r="Q11">
-        <v>17</v>
+      <c s="9" r="Q11">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="8" r="W11">
-        <v>122</v>
+      <c s="9" r="W11">
+        <v>104</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,7 +896,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,8 +905,8 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="11" r="I12">
-        <v>34</v>
+      <c s="13" r="I12">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
@@ -918,7 +918,7 @@
       </c>
       <c s="5" t="str" r="N12"/>
       <c s="9" r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
@@ -926,19 +926,19 @@
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="13" r="W12">
-        <v>171</v>
+      <c s="9" r="W12">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="13" r="Y12">
-        <v>171</v>
+      <c s="9" r="Y12">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,14 +952,14 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>386</v>
-      </c>
-      <c s="8" r="F13">
-        <v>33</v>
+        <v>348</v>
+      </c>
+      <c s="13" r="F13">
+        <v>54</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="9" r="H13">
-        <v>3</v>
+      <c s="8" r="H13">
+        <v>6</v>
       </c>
       <c s="10" r="I13">
         <v>0</v>
@@ -982,19 +982,19 @@
       </c>
       <c s="5" t="str" r="R13"/>
       <c s="12" r="S13">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="8" r="W13">
-        <v>172</v>
+      <c s="11" r="W13">
+        <v>209</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="8" r="Y13">
-        <v>172</v>
+      <c s="11" r="Y13">
+        <v>209</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
@@ -1103,16 +1103,16 @@
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
       <c s="19" r="G16">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
       <c s="20" r="J16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="21" r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="22" r="N16">
@@ -1136,23 +1136,23 @@
       </c>
       <c s="5" t="str" r="W16"/>
       <c s="20" r="X16">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="22" r="Z16">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="21" r="AB16">
-        <v>116</v>
+      <c s="23" r="AB16">
+        <v>160</v>
       </c>
       <c s="5" t="str" r="AC16"/>
       <c s="21" r="AD16">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="23" t="str" r="A17"/>
+      <c s="24" t="str" r="A17"/>
       <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1161,16 +1161,16 @@
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
       <c s="19" r="G17">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
       <c s="20" r="J17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>5</v>
+      <c s="21" r="L17">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="22" r="N17">
@@ -1193,24 +1193,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="24" r="X17">
-        <v>66</v>
+      <c s="23" r="X17">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="22" r="Z17">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA17"/>
       <c s="21" r="AB17">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c s="5" t="str" r="AC17"/>
       <c s="21" r="AD17">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="23" t="str" r="A18"/>
+      <c s="24" t="str" r="A18"/>
       <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1219,12 +1219,12 @@
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
       <c s="19" r="G18">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
       <c s="20" r="J18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K18"/>
       <c s="21" r="L18">
@@ -1251,26 +1251,26 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="24" r="X18">
-        <v>78</v>
+      <c s="25" r="X18">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="22" r="Z18">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="21" r="AB18">
-        <v>141</v>
+      <c s="23" r="AB18">
+        <v>166</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="21" r="AD18">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="25" t="str" r="A19"/>
-      <c s="26" t="str" r="B19"/>
-      <c s="26" t="str" r="C19"/>
+      <c s="26" t="str" r="A19"/>
+      <c s="27" t="str" r="B19"/>
+      <c s="27" t="str" r="C19"/>
       <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1279,16 +1279,16 @@
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
       <c s="19" r="G19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
       <c s="20" r="J19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K19"/>
       <c s="21" r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
       <c s="22" r="N19">
@@ -1311,20 +1311,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="27" r="X19">
-        <v>118</v>
+      <c s="23" r="X19">
+        <v>85</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="22" r="Z19">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="24" r="AB19">
-        <v>161</v>
+      <c s="21" r="AB19">
+        <v>133</v>
       </c>
       <c s="5" t="str" r="AC19"/>
       <c s="21" r="AD19">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
@@ -1347,12 +1347,12 @@
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="24" r="J20">
-        <v>29</v>
+      <c s="20" r="J20">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="21" r="L20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="22" r="N20">
@@ -1376,23 +1376,23 @@
       </c>
       <c s="5" t="str" r="W20"/>
       <c s="28" r="X20">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="22" r="Z20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="5" t="str" r="AA20"/>
       <c s="21" r="AB20">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC20"/>
       <c s="21" r="AD20">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="23" t="str" r="A21"/>
+      <c s="24" t="str" r="A21"/>
       <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 2</t>
@@ -1401,16 +1401,16 @@
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
       <c s="19" r="G21">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="24" r="J21">
-        <v>27</v>
+      <c s="23" r="J21">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="21" r="L21">
-        <v>2</v>
+      <c s="20" r="L21">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M21"/>
       <c s="22" r="N21">
@@ -1433,24 +1433,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="24" r="X21">
+      <c s="23" r="X21">
         <v>38</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="22" r="Z21">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="AA21"/>
       <c s="21" r="AB21">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC21"/>
       <c s="21" r="AD21">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="23" t="str" r="A22"/>
+      <c s="24" t="str" r="A22"/>
       <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1459,16 +1459,16 @@
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
       <c s="19" r="G22">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="28" r="J22">
-        <v>37</v>
+      <c s="25" r="J22">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="21" r="L22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="22" r="N22">
@@ -1492,23 +1492,23 @@
       </c>
       <c s="5" t="str" r="W22"/>
       <c s="28" r="X22">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="22" r="Z22">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="AA22"/>
       <c s="21" r="AB22">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="AC22"/>
       <c s="21" r="AD22">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="23" t="str" r="A23"/>
+      <c s="24" t="str" r="A23"/>
       <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1517,16 +1517,16 @@
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
       <c s="19" r="G23">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="28" r="J23">
-        <v>35</v>
+      <c s="23" r="J23">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="21" r="L23">
-        <v>2</v>
+      <c s="20" r="L23">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M23"/>
       <c s="22" r="N23">
@@ -1550,25 +1550,25 @@
       </c>
       <c s="5" t="str" r="W23"/>
       <c s="28" r="X23">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="22" r="Z23">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>152</v>
+      <c s="21" r="AB23">
+        <v>144</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>152</v>
+      <c s="21" r="AD23">
+        <v>144</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="25" t="str" r="A24"/>
-      <c s="26" t="str" r="B24"/>
-      <c s="26" t="str" r="C24"/>
+      <c s="26" t="str" r="A24"/>
+      <c s="27" t="str" r="B24"/>
+      <c s="27" t="str" r="C24"/>
       <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1577,12 +1577,12 @@
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
       <c s="19" r="G24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="28" r="J24">
-        <v>50</v>
+      <c s="25" r="J24">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K24"/>
       <c s="21" r="L24">
@@ -1610,19 +1610,19 @@
       </c>
       <c s="5" t="str" r="W24"/>
       <c s="28" r="X24">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="22" r="Z24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="20" r="AB24">
-        <v>164</v>
+      <c s="21" r="AB24">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="20" r="AD24">
-        <v>164</v>
+      <c s="21" r="AD24">
+        <v>138</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
@@ -1641,16 +1641,16 @@
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
       <c s="19" r="G25">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="24" r="J25">
-        <v>25</v>
+      <c s="25" r="J25">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="21" r="L25">
-        <v>2</v>
+      <c s="23" r="L25">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="22" r="N25">
@@ -1673,24 +1673,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="27" r="X25">
-        <v>44</v>
+      <c s="28" r="X25">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="22" r="Z25">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="21" r="AB25">
-        <v>125</v>
+      <c s="20" r="AB25">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="21" r="AD25">
-        <v>125</v>
+      <c s="20" r="AD25">
+        <v>161</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="23" t="str" r="A26"/>
+      <c s="24" t="str" r="A26"/>
       <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1699,16 +1699,16 @@
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
       <c s="19" r="G26">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="28" r="J26">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="21" r="L26">
-        <v>3</v>
+      <c s="23" r="L26">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="22" r="N26">
@@ -1732,23 +1732,23 @@
       </c>
       <c s="5" t="str" r="W26"/>
       <c s="28" r="X26">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="22" r="Z26">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="21" r="AB26">
-        <v>123</v>
+      <c s="20" r="AB26">
+        <v>154</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="21" r="AD26">
-        <v>123</v>
+      <c s="20" r="AD26">
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="23" t="str" r="A27"/>
+      <c s="24" t="str" r="A27"/>
       <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1757,16 +1757,16 @@
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
       <c s="19" r="G27">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="27" r="J27">
-        <v>33</v>
+      <c s="28" r="J27">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="21" r="L27">
-        <v>2</v>
+      <c s="20" r="L27">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M27"/>
       <c s="22" r="N27">
@@ -1790,25 +1790,25 @@
       </c>
       <c s="5" t="str" r="W27"/>
       <c s="28" r="X27">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="22" r="Z27">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="21" r="AB27">
-        <v>139</v>
+      <c s="25" r="AB27">
+        <v>185</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="21" r="AD27">
-        <v>139</v>
+      <c s="25" r="AD27">
+        <v>185</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="25" t="str" r="A28"/>
-      <c s="26" t="str" r="B28"/>
-      <c s="26" t="str" r="C28"/>
+      <c s="26" t="str" r="A28"/>
+      <c s="27" t="str" r="B28"/>
+      <c s="27" t="str" r="C28"/>
       <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -1817,16 +1817,16 @@
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
       <c s="19" r="G28">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
       <c s="28" r="J28">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="21" r="L28">
-        <v>3</v>
+      <c s="20" r="L28">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="22" r="N28">
@@ -1850,19 +1850,19 @@
       </c>
       <c s="5" t="str" r="W28"/>
       <c s="28" r="X28">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="22" r="Z28">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="28" r="AB28">
-        <v>268</v>
+      <c s="23" r="AB28">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="28" r="AD28">
-        <v>268</v>
+      <c s="23" r="AD28">
+        <v>173</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
@@ -1881,16 +1881,16 @@
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
       <c s="19" r="G29">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="27" r="J29">
-        <v>34</v>
+      <c s="25" r="J29">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="24" r="L29">
-        <v>7</v>
+      <c s="21" r="L29">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="22" r="N29">
@@ -1914,23 +1914,23 @@
       </c>
       <c s="5" t="str" r="W29"/>
       <c s="28" r="X29">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="22" r="Z29">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="24" r="AB29">
-        <v>165</v>
+      <c s="25" r="AB29">
+        <v>183</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="24" r="AD29">
-        <v>165</v>
+      <c s="25" r="AD29">
+        <v>183</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="23" t="str" r="A30"/>
+      <c s="24" t="str" r="A30"/>
       <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -1939,16 +1939,16 @@
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
       <c s="19" r="G30">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="28" r="J30">
-        <v>39</v>
+      <c s="25" r="J30">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="24" r="L30">
-        <v>8</v>
+      <c s="20" r="L30">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="22" r="N30">
@@ -1972,23 +1972,23 @@
       </c>
       <c s="5" t="str" r="W30"/>
       <c s="28" r="X30">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="22" r="Z30">
         <v>39</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="20" r="AB30">
-        <v>155</v>
+      <c s="21" r="AB30">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="20" r="AD30">
-        <v>155</v>
+      <c s="21" r="AD30">
+        <v>145</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="23" t="str" r="A31"/>
+      <c s="24" t="str" r="A31"/>
       <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -1997,15 +1997,15 @@
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
       <c s="19" r="G31">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
       <c s="28" r="J31">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="24" r="L31">
+      <c s="23" r="L31">
         <v>8</v>
       </c>
       <c s="5" t="str" r="M31"/>
@@ -2030,25 +2030,25 @@
       </c>
       <c s="5" t="str" r="W31"/>
       <c s="28" r="X31">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="22" r="Z31">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA31"/>
       <c s="28" r="AB31">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c s="5" t="str" r="AC31"/>
       <c s="28" r="AD31">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="25" t="str" r="A32"/>
-      <c s="26" t="str" r="B32"/>
-      <c s="26" t="str" r="C32"/>
+      <c s="26" t="str" r="A32"/>
+      <c s="27" t="str" r="B32"/>
+      <c s="27" t="str" r="C32"/>
       <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2057,16 +2057,16 @@
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
       <c s="19" r="G32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="20" r="J32">
-        <v>24</v>
+      <c s="28" r="J32">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K32"/>
       <c s="21" r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="22" r="N32">
@@ -2090,19 +2090,19 @@
       </c>
       <c s="5" t="str" r="W32"/>
       <c s="28" r="X32">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="22" r="Z32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="21" r="AB32">
-        <v>113</v>
+      <c s="28" r="AB32">
+        <v>220</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="21" r="AD32">
-        <v>113</v>
+      <c s="28" r="AD32">
+        <v>220</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
@@ -2121,12 +2121,12 @@
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
       <c s="19" r="G33">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
       <c s="20" r="J33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K33"/>
       <c s="21" r="L33">
@@ -2149,28 +2149,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="24" r="V33">
-        <v>21</v>
+      <c s="20" r="V33">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="W33"/>
       <c s="28" r="X33">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="22" r="Z33">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="21" r="AB33">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c s="5" t="str" r="AC33"/>
       <c s="20" r="AD33">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="23" t="str" r="A34"/>
+      <c s="24" t="str" r="A34"/>
       <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2179,12 +2179,12 @@
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
       <c s="19" r="G34">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="24" r="J34">
-        <v>43</v>
+      <c s="20" r="J34">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K34"/>
       <c s="21" r="L34">
@@ -2208,27 +2208,27 @@
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="21" r="V34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="W34"/>
       <c s="28" r="X34">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="22" r="Z34">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="20" r="AB34">
-        <v>126</v>
+      <c s="21" r="AB34">
+        <v>95</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="20" r="AD34">
-        <v>166</v>
+      <c s="21" r="AD34">
+        <v>115</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="23" t="str" r="A35"/>
+      <c s="24" t="str" r="A35"/>
       <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2237,12 +2237,12 @@
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
       <c s="19" r="G35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="24" r="J35">
-        <v>47</v>
+      <c s="20" r="J35">
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K35"/>
       <c s="21" r="L35">
@@ -2266,29 +2266,29 @@
       </c>
       <c s="5" t="str" r="U35"/>
       <c s="21" r="V35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W35"/>
       <c s="28" r="X35">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="22" r="Z35">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA35"/>
       <c s="20" r="AB35">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC35"/>
       <c s="20" r="AD35">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="25" t="str" r="A36"/>
-      <c s="26" t="str" r="B36"/>
-      <c s="26" t="str" r="C36"/>
+      <c s="26" t="str" r="A36"/>
+      <c s="27" t="str" r="B36"/>
+      <c s="27" t="str" r="C36"/>
       <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2297,16 +2297,16 @@
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
       <c s="19" r="G36">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="24" r="J36">
-        <v>45</v>
+      <c s="23" r="J36">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="20" r="L36">
-        <v>6</v>
+      <c s="21" r="L36">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M36"/>
       <c s="22" r="N36">
@@ -2325,24 +2325,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="24" r="V36">
-        <v>24</v>
+      <c s="23" r="V36">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="W36"/>
       <c s="28" r="X36">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="22" r="Z36">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="24" r="AB36">
-        <v>210</v>
+      <c s="20" r="AB36">
+        <v>134</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="27" r="AD36">
-        <v>259</v>
+      <c s="20" r="AD36">
+        <v>144</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
@@ -2361,7 +2361,7 @@
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
       <c s="19" r="G37">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2373,8 +2373,8 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="24" r="N37">
-        <v>29</v>
+      <c s="23" r="N37">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="O37"/>
       <c s="21" r="P37">
@@ -2386,7 +2386,7 @@
       </c>
       <c s="5" t="str" r="S37"/>
       <c s="21" r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U37"/>
       <c s="22" r="V37">
@@ -2394,23 +2394,23 @@
       </c>
       <c s="5" t="str" r="W37"/>
       <c s="28" r="X37">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="22" r="Z37">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="21" r="AB37">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="21" r="AD37">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="23" t="str" r="A38"/>
+      <c s="24" t="str" r="A38"/>
       <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2419,7 +2419,7 @@
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
       <c s="19" r="G38">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2436,14 +2436,14 @@
       </c>
       <c s="5" t="str" r="O38"/>
       <c s="21" r="P38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="22" r="R38">
+      <c s="21" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="22" r="T38">
+      <c s="21" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
@@ -2452,23 +2452,23 @@
       </c>
       <c s="5" t="str" r="W38"/>
       <c s="28" r="X38">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="22" r="Z38">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="28" r="AB38">
-        <v>197</v>
+      <c s="23" r="AB38">
+        <v>174</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="28" r="AD38">
-        <v>197</v>
+      <c s="23" r="AD38">
+        <v>174</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="23" t="str" r="A39"/>
+      <c s="24" t="str" r="A39"/>
       <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2477,7 +2477,7 @@
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
       <c s="19" r="G39">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2489,12 +2489,12 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="28" r="N39">
-        <v>46</v>
+      <c s="25" r="N39">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="O39"/>
       <c s="21" r="P39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q39"/>
       <c s="22" r="R39">
@@ -2510,25 +2510,25 @@
       </c>
       <c s="5" t="str" r="W39"/>
       <c s="28" r="X39">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="22" r="Z39">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="28" r="AB39">
-        <v>217</v>
+      <c s="21" r="AB39">
+        <v>125</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="28" r="AD39">
-        <v>217</v>
+      <c s="21" r="AD39">
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="25" t="str" r="A40"/>
-      <c s="26" t="str" r="B40"/>
-      <c s="26" t="str" r="C40"/>
+      <c s="26" t="str" r="A40"/>
+      <c s="27" t="str" r="B40"/>
+      <c s="27" t="str" r="C40"/>
       <c s="18" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2537,7 +2537,7 @@
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
       <c s="19" r="G40">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2549,19 +2549,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="28" r="N40">
-        <v>45</v>
+      <c s="25" r="N40">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="O40"/>
       <c s="21" r="P40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="21" r="R40">
+      <c s="22" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="21" r="T40">
+      <c s="22" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
@@ -2570,19 +2570,19 @@
       </c>
       <c s="5" t="str" r="W40"/>
       <c s="28" r="X40">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="22" r="Z40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="27" r="AB40">
-        <v>190</v>
+      <c s="21" r="AB40">
+        <v>130</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="27" r="AD40">
-        <v>190</v>
+      <c s="21" r="AD40">
+        <v>130</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
@@ -2601,16 +2601,16 @@
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
       <c s="19" r="G41">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
-      <c s="21" r="J41">
-        <v>28</v>
+      <c s="28" r="J41">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="K41"/>
-      <c s="21" r="L41">
-        <v>2</v>
+      <c s="20" r="L41">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="22" r="N41">
@@ -2629,28 +2629,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="24" r="V41">
-        <v>20</v>
+      <c s="23" r="V41">
+        <v>23</v>
       </c>
       <c s="5" t="str" r="W41"/>
       <c s="28" r="X41">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="22" r="Z41">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="20" r="AB41">
-        <v>171</v>
+      <c s="25" r="AB41">
+        <v>254</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="20" r="AD41">
-        <v>171</v>
+      <c s="25" r="AD41">
+        <v>254</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
-      <c s="23" t="str" r="A42"/>
+      <c s="24" t="str" r="A42"/>
       <c s="18" t="inlineStr" r="D42">
         <is>
           <t xml:space="preserve">Daypart 3</t>
@@ -2659,12 +2659,12 @@
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
       <c s="19" r="G42">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="24" r="J42">
-        <v>40</v>
+      <c s="23" r="J42">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K42"/>
       <c s="21" r="L42">
@@ -2687,28 +2687,28 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="20" r="V42">
-        <v>17</v>
+      <c s="21" r="V42">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="W42"/>
       <c s="28" r="X42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="22" r="Z42">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="24" r="AB42">
-        <v>197</v>
+      <c s="21" r="AB42">
+        <v>146</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="24" r="AD42">
-        <v>197</v>
+      <c s="21" r="AD42">
+        <v>146</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
-      <c s="23" t="str" r="A43"/>
+      <c s="24" t="str" r="A43"/>
       <c s="18" t="inlineStr" r="D43">
         <is>
           <t xml:space="preserve">Daypart 4</t>
@@ -2717,16 +2717,16 @@
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
       <c s="19" r="G43">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="20" r="J43">
-        <v>39</v>
+      <c s="23" r="J43">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K43"/>
       <c s="20" r="L43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="22" r="N43">
@@ -2746,29 +2746,29 @@
       </c>
       <c s="5" t="str" r="U43"/>
       <c s="21" r="V43">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="W43"/>
       <c s="28" r="X43">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="22" r="Z43">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="21" r="AB43">
-        <v>135</v>
+      <c s="20" r="AB43">
+        <v>173</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="21" r="AD43">
-        <v>135</v>
+      <c s="20" r="AD43">
+        <v>173</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="25" t="str" r="A44"/>
-      <c s="26" t="str" r="B44"/>
-      <c s="26" t="str" r="C44"/>
+      <c s="26" t="str" r="A44"/>
+      <c s="27" t="str" r="B44"/>
+      <c s="27" t="str" r="C44"/>
       <c s="18" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
@@ -2777,16 +2777,16 @@
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
       <c s="19" r="G44">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
-      <c s="24" r="J44">
-        <v>47</v>
+      <c s="20" r="J44">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="K44"/>
       <c s="20" r="L44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="22" r="N44">
@@ -2806,23 +2806,23 @@
       </c>
       <c s="5" t="str" r="U44"/>
       <c s="21" r="V44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="W44"/>
       <c s="28" r="X44">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="22" r="Z44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c s="5" t="str" r="AA44"/>
       <c s="21" r="AB44">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c s="5" t="str" r="AC44"/>
       <c s="21" r="AD44">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 2/4/2026 12:49:26 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 2/5/2026 12:44:12 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -303,9 +303,6 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -333,13 +330,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -349,6 +343,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -520,7 +517,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 02/04/2026</t>
+          <t xml:space="preserve">Day: 02/05/2026</t>
         </is>
       </c>
     </row>
@@ -616,14 +613,14 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c s="8" r="F7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c s="5" t="str" r="G7"/>
       <c s="9" r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="I7">
         <v>0</v>
@@ -645,20 +642,20 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="11" r="S7">
-        <v>63</v>
+      <c s="8" r="S7">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="T7"/>
       <c s="10" r="U7">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="V7"/>
       <c s="9" r="W7">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c s="5" t="str" r="X7"/>
       <c s="9" r="Y7">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -672,14 +669,14 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c s="11" r="F8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="8" r="H8">
-        <v>5</v>
+      <c s="9" r="H8">
+        <v>2</v>
       </c>
       <c s="10" r="I8">
         <v>0</v>
@@ -702,19 +699,19 @@
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="12" r="S8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c s="5" t="str" r="T8"/>
       <c s="10" r="U8">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="V8"/>
       <c s="9" r="W8">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="X8"/>
       <c s="9" r="Y8">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,14 +725,14 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c s="12" r="F9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="11" r="H9">
-        <v>7</v>
+      <c s="8" r="H9">
+        <v>6</v>
       </c>
       <c s="10" r="I9">
         <v>0</v>
@@ -758,19 +755,19 @@
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="12" r="S9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T9"/>
       <c s="10" r="U9">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="V9"/>
       <c s="8" r="W9">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c s="5" t="str" r="X9"/>
       <c s="8" r="Y9">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,14 +781,14 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c s="12" r="F10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G10"/>
       <c s="8" r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="10" r="I10">
         <v>0</v>
@@ -814,19 +811,19 @@
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="12" r="S10">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T10"/>
       <c s="10" r="U10">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="13" r="W10">
-        <v>188</v>
+      <c s="11" r="W10">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="13" r="Y10">
-        <v>188</v>
+      <c s="11" r="Y10">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,14 +837,14 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c s="8" r="F11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G11"/>
       <c s="9" r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="10" r="I11">
         <v>0</v>
@@ -870,19 +867,19 @@
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="12" r="S11">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c s="5" t="str" r="T11"/>
       <c s="10" r="U11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="V11"/>
-      <c s="9" r="W11">
-        <v>104</v>
+      <c s="8" r="W11">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="X11"/>
       <c s="8" r="Y11">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,7 +893,7 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c s="10" r="F12">
         <v>0</v>
@@ -905,12 +902,12 @@
       <c s="10" r="H12">
         <v>0</v>
       </c>
-      <c s="13" r="I12">
-        <v>30</v>
+      <c s="11" r="I12">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="J12"/>
       <c s="9" r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="L12"/>
       <c s="9" r="M12">
@@ -918,7 +915,7 @@
       </c>
       <c s="5" t="str" r="N12"/>
       <c s="9" r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="5" t="str" r="P12"/>
       <c s="10" r="Q12">
@@ -926,11 +923,11 @@
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="12" r="S12">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T12"/>
       <c s="10" r="U12">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="V12"/>
       <c s="9" r="W12">
@@ -952,14 +949,14 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>348</v>
-      </c>
-      <c s="13" r="F13">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c s="8" r="F13">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="8" r="H13">
-        <v>6</v>
+      <c s="9" r="H13">
+        <v>2</v>
       </c>
       <c s="10" r="I13">
         <v>0</v>
@@ -977,30 +974,30 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="8" r="Q13">
-        <v>16</v>
+      <c s="9" r="Q13">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="R13"/>
       <c s="12" r="S13">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T13"/>
       <c s="10" r="U13">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V13"/>
-      <c s="11" r="W13">
-        <v>209</v>
+      <c s="9" r="W13">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="11" r="Y13">
-        <v>209</v>
+      <c s="9" r="Y13">
+        <v>149</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
     <row r="14" ht="4.95" customHeight="1"/>
     <row r="15" ht="32.25" customHeight="0">
-      <c s="14" t="inlineStr" r="A15">
+      <c s="13" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -1021,1808 +1018,1808 @@
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="15" t="inlineStr" r="J15">
+      <c s="14" t="inlineStr" r="J15">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="15" t="inlineStr" r="L15">
+      <c s="14" t="inlineStr" r="L15">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="15" t="inlineStr" r="N15">
+      <c s="14" t="inlineStr" r="N15">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="15" t="inlineStr" r="P15">
+      <c s="14" t="inlineStr" r="P15">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="15" t="inlineStr" r="R15">
+      <c s="14" t="inlineStr" r="R15">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="15" t="inlineStr" r="T15">
+      <c s="14" t="inlineStr" r="T15">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="15" t="inlineStr" r="V15">
+      <c s="14" t="inlineStr" r="V15">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="15" t="inlineStr" r="X15">
+      <c s="14" t="inlineStr" r="X15">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="15" t="inlineStr" r="Z15">
+      <c s="14" t="inlineStr" r="Z15">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="15" t="inlineStr" r="AB15">
+      <c s="14" t="inlineStr" r="AB15">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="15" t="inlineStr" r="AD15">
+      <c s="14" t="inlineStr" r="AD15">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A16">
+      <c s="15" t="inlineStr" r="A16">
         <is>
           <t xml:space="preserve">343939 Mt Joy</t>
         </is>
       </c>
-      <c s="17" t="str" r="B16"/>
-      <c s="17" t="str" r="C16"/>
-      <c s="18" t="inlineStr" r="D16">
+      <c s="16" t="str" r="B16"/>
+      <c s="16" t="str" r="C16"/>
+      <c s="17" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="19" r="G16">
+      <c s="18" r="G16">
         <v>208</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="20" r="J16">
-        <v>31</v>
+      <c s="19" r="J16">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K16"/>
-      <c s="21" r="L16">
-        <v>4</v>
+      <c s="20" r="L16">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M16"/>
-      <c s="22" r="N16">
+      <c s="21" r="N16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O16"/>
-      <c s="22" r="P16">
+      <c s="21" r="P16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q16"/>
-      <c s="22" r="R16">
+      <c s="21" r="R16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S16"/>
-      <c s="22" r="T16">
+      <c s="21" r="T16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U16"/>
-      <c s="22" r="V16">
+      <c s="21" r="V16">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="20" r="X16">
-        <v>55</v>
+      <c s="19" r="X16">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="Y16"/>
-      <c s="22" r="Z16">
-        <v>73</v>
+      <c s="21" r="Z16">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="23" r="AB16">
-        <v>160</v>
+      <c s="20" r="AB16">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="21" r="AD16">
-        <v>79</v>
+      <c s="20" r="AD16">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="24" t="str" r="A17"/>
-      <c s="18" t="inlineStr" r="D17">
+      <c s="22" t="str" r="A17"/>
+      <c s="17" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="19" r="G17">
-        <v>79</v>
+      <c s="18" r="G17">
+        <v>103</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="20" r="J17">
-        <v>30</v>
+      <c s="19" r="J17">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="21" r="L17">
-        <v>4</v>
+      <c s="20" r="L17">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M17"/>
-      <c s="22" r="N17">
+      <c s="21" r="N17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O17"/>
-      <c s="22" r="P17">
+      <c s="21" r="P17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q17"/>
-      <c s="22" r="R17">
+      <c s="21" r="R17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S17"/>
-      <c s="22" r="T17">
+      <c s="21" r="T17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U17"/>
-      <c s="22" r="V17">
+      <c s="21" r="V17">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="23" r="X17">
-        <v>60</v>
+      <c s="19" r="X17">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y17"/>
-      <c s="22" r="Z17">
-        <v>22</v>
+      <c s="21" r="Z17">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="21" r="AB17">
-        <v>113</v>
+      <c s="20" r="AB17">
+        <v>103</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="21" r="AD17">
-        <v>56</v>
+      <c s="20" r="AD17">
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="24" t="str" r="A18"/>
-      <c s="18" t="inlineStr" r="D18">
+      <c s="22" t="str" r="A18"/>
+      <c s="17" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="19" r="G18">
-        <v>55</v>
+      <c s="18" r="G18">
+        <v>56</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="20" r="J18">
-        <v>27</v>
+      <c s="19" r="J18">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="21" r="L18">
+      <c s="20" r="L18">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M18"/>
-      <c s="22" r="N18">
+      <c s="21" r="N18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O18"/>
-      <c s="22" r="P18">
+      <c s="21" r="P18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q18"/>
-      <c s="22" r="R18">
+      <c s="21" r="R18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S18"/>
-      <c s="22" r="T18">
+      <c s="21" r="T18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U18"/>
-      <c s="22" r="V18">
+      <c s="21" r="V18">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="25" r="X18">
-        <v>90</v>
+      <c s="23" r="X18">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="Y18"/>
-      <c s="22" r="Z18">
-        <v>48</v>
+      <c s="21" r="Z18">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="23" r="AB18">
-        <v>166</v>
+      <c s="20" r="AB18">
+        <v>108</v>
       </c>
       <c s="5" t="str" r="AC18"/>
-      <c s="21" r="AD18">
-        <v>83</v>
+      <c s="20" r="AD18">
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="26" t="str" r="A19"/>
-      <c s="27" t="str" r="B19"/>
-      <c s="27" t="str" r="C19"/>
-      <c s="18" t="inlineStr" r="D19">
+      <c s="24" t="str" r="A19"/>
+      <c s="25" t="str" r="B19"/>
+      <c s="25" t="str" r="C19"/>
+      <c s="17" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="19" r="G19">
-        <v>10</v>
+      <c s="18" r="G19">
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="20" r="J19">
+      <c s="19" r="J19">
         <v>28</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="21" r="L19">
+      <c s="20" r="L19">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
-      <c s="22" r="N19">
+      <c s="21" r="N19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O19"/>
-      <c s="22" r="P19">
+      <c s="21" r="P19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q19"/>
-      <c s="22" r="R19">
+      <c s="21" r="R19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S19"/>
-      <c s="22" r="T19">
+      <c s="21" r="T19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U19"/>
-      <c s="22" r="V19">
+      <c s="21" r="V19">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
       <c s="23" r="X19">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y19"/>
-      <c s="22" r="Z19">
-        <v>19</v>
+      <c s="21" r="Z19">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="21" r="AB19">
-        <v>133</v>
+      <c s="20" r="AB19">
+        <v>137</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="21" r="AD19">
-        <v>66</v>
+      <c s="20" r="AD19">
+        <v>68</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A20">
+      <c s="15" t="inlineStr" r="A20">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="17" t="str" r="B20"/>
-      <c s="17" t="str" r="C20"/>
-      <c s="18" t="inlineStr" r="D20">
+      <c s="16" t="str" r="B20"/>
+      <c s="16" t="str" r="C20"/>
+      <c s="17" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="19" r="G20">
+      <c s="18" r="G20">
         <v>5</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
       <c s="20" r="J20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c s="5" t="str" r="K20"/>
-      <c s="21" r="L20">
+      <c s="20" r="L20">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M20"/>
-      <c s="22" r="N20">
+      <c s="21" r="N20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O20"/>
-      <c s="22" r="P20">
+      <c s="21" r="P20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q20"/>
-      <c s="22" r="R20">
+      <c s="21" r="R20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S20"/>
-      <c s="22" r="T20">
+      <c s="21" r="T20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U20"/>
-      <c s="22" r="V20">
+      <c s="21" r="V20">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="28" r="X20">
-        <v>83</v>
+      <c s="26" r="X20">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y20"/>
-      <c s="22" r="Z20">
-        <v>21</v>
+      <c s="21" r="Z20">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="21" r="AB20">
-        <v>128</v>
+      <c s="20" r="AB20">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="21" r="AD20">
-        <v>128</v>
+      <c s="20" r="AD20">
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="24" t="str" r="A21"/>
-      <c s="18" t="inlineStr" r="D21">
+      <c s="22" t="str" r="A21"/>
+      <c s="17" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="19" r="G21">
-        <v>319</v>
+      <c s="18" r="G21">
+        <v>267</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
       <c s="23" r="J21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K21"/>
       <c s="20" r="L21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
-      <c s="22" r="N21">
+      <c s="21" r="N21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O21"/>
-      <c s="22" r="P21">
+      <c s="21" r="P21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q21"/>
-      <c s="22" r="R21">
+      <c s="21" r="R21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S21"/>
-      <c s="22" r="T21">
+      <c s="21" r="T21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U21"/>
-      <c s="22" r="V21">
+      <c s="21" r="V21">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="23" r="X21">
-        <v>38</v>
+      <c s="27" r="X21">
+        <v>43</v>
       </c>
       <c s="5" t="str" r="Y21"/>
-      <c s="22" r="Z21">
-        <v>73</v>
+      <c s="21" r="Z21">
+        <v>55</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="21" r="AB21">
-        <v>141</v>
+      <c s="20" r="AB21">
+        <v>127</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="21" r="AD21">
-        <v>141</v>
+      <c s="20" r="AD21">
+        <v>127</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="24" t="str" r="A22"/>
-      <c s="18" t="inlineStr" r="D22">
+      <c s="22" t="str" r="A22"/>
+      <c s="17" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="19" r="G22">
-        <v>119</v>
+      <c s="18" r="G22">
+        <v>115</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="25" r="J22">
-        <v>32</v>
+      <c s="23" r="J22">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K22"/>
-      <c s="21" r="L22">
-        <v>4</v>
+      <c s="20" r="L22">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M22"/>
-      <c s="22" r="N22">
+      <c s="21" r="N22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O22"/>
-      <c s="22" r="P22">
+      <c s="21" r="P22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q22"/>
-      <c s="22" r="R22">
+      <c s="21" r="R22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S22"/>
-      <c s="22" r="T22">
+      <c s="21" r="T22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U22"/>
-      <c s="22" r="V22">
+      <c s="21" r="V22">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="28" r="X22">
-        <v>50</v>
+      <c s="26" r="X22">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="Y22"/>
-      <c s="22" r="Z22">
-        <v>31</v>
+      <c s="21" r="Z22">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="21" r="AB22">
-        <v>114</v>
+      <c s="20" r="AB22">
+        <v>108</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="21" r="AD22">
-        <v>114</v>
+      <c s="20" r="AD22">
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="24" t="str" r="A23"/>
-      <c s="18" t="inlineStr" r="D23">
+      <c s="22" t="str" r="A23"/>
+      <c s="17" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="19" r="G23">
-        <v>90</v>
+      <c s="18" r="G23">
+        <v>93</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
       <c s="23" r="J23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K23"/>
       <c s="20" r="L23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
-      <c s="22" r="N23">
+      <c s="21" r="N23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O23"/>
-      <c s="22" r="P23">
+      <c s="21" r="P23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q23"/>
-      <c s="22" r="R23">
+      <c s="21" r="R23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S23"/>
-      <c s="22" r="T23">
+      <c s="21" r="T23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U23"/>
-      <c s="22" r="V23">
+      <c s="21" r="V23">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="28" r="X23">
-        <v>65</v>
+      <c s="26" r="X23">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y23"/>
-      <c s="22" r="Z23">
-        <v>51</v>
+      <c s="21" r="Z23">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="21" r="AB23">
-        <v>144</v>
+      <c s="20" r="AB23">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="21" r="AD23">
-        <v>144</v>
+      <c s="20" r="AD23">
+        <v>135</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="26" t="str" r="A24"/>
-      <c s="27" t="str" r="B24"/>
-      <c s="27" t="str" r="C24"/>
-      <c s="18" t="inlineStr" r="D24">
+      <c s="24" t="str" r="A24"/>
+      <c s="25" t="str" r="B24"/>
+      <c s="25" t="str" r="C24"/>
+      <c s="17" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="19" r="G24">
-        <v>21</v>
+      <c s="18" r="G24">
+        <v>17</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="25" r="J24">
-        <v>33</v>
+      <c s="27" r="J24">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="21" r="L24">
-        <v>3</v>
+      <c s="20" r="L24">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M24"/>
-      <c s="22" r="N24">
+      <c s="21" r="N24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O24"/>
-      <c s="22" r="P24">
+      <c s="21" r="P24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q24"/>
-      <c s="22" r="R24">
+      <c s="21" r="R24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S24"/>
-      <c s="22" r="T24">
+      <c s="21" r="T24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U24"/>
-      <c s="22" r="V24">
+      <c s="21" r="V24">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="28" r="X24">
-        <v>84</v>
+      <c s="26" r="X24">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y24"/>
-      <c s="22" r="Z24">
-        <v>23</v>
+      <c s="21" r="Z24">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="21" r="AB24">
-        <v>138</v>
+      <c s="20" r="AB24">
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="21" r="AD24">
-        <v>138</v>
+      <c s="20" r="AD24">
+        <v>120</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A25">
+      <c s="15" t="inlineStr" r="A25">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="17" t="str" r="B25"/>
-      <c s="17" t="str" r="C25"/>
-      <c s="18" t="inlineStr" r="D25">
+      <c s="16" t="str" r="B25"/>
+      <c s="16" t="str" r="C25"/>
+      <c s="17" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="19" r="G25">
-        <v>246</v>
+      <c s="18" r="G25">
+        <v>248</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="25" r="J25">
-        <v>32</v>
+      <c s="23" r="J25">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="23" r="L25">
-        <v>7</v>
+      <c s="20" r="L25">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M25"/>
-      <c s="22" r="N25">
+      <c s="21" r="N25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O25"/>
-      <c s="22" r="P25">
+      <c s="21" r="P25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q25"/>
-      <c s="22" r="R25">
+      <c s="21" r="R25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S25"/>
-      <c s="22" r="T25">
+      <c s="21" r="T25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U25"/>
-      <c s="22" r="V25">
+      <c s="21" r="V25">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="28" r="X25">
-        <v>49</v>
+      <c s="26" r="X25">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="Y25"/>
-      <c s="22" r="Z25">
-        <v>80</v>
+      <c s="21" r="Z25">
+        <v>70</v>
       </c>
       <c s="5" t="str" r="AA25"/>
       <c s="20" r="AB25">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c s="5" t="str" r="AC25"/>
       <c s="20" r="AD25">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="24" t="str" r="A26"/>
-      <c s="18" t="inlineStr" r="D26">
+      <c s="22" t="str" r="A26"/>
+      <c s="17" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="19" r="G26">
-        <v>88</v>
+      <c s="18" r="G26">
+        <v>99</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="28" r="J26">
-        <v>45</v>
+      <c s="26" r="J26">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K26"/>
       <c s="23" r="L26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c s="5" t="str" r="M26"/>
-      <c s="22" r="N26">
+      <c s="21" r="N26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O26"/>
-      <c s="22" r="P26">
+      <c s="21" r="P26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q26"/>
-      <c s="22" r="R26">
+      <c s="21" r="R26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S26"/>
-      <c s="22" r="T26">
+      <c s="21" r="T26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U26"/>
-      <c s="22" r="V26">
+      <c s="21" r="V26">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="28" r="X26">
-        <v>65</v>
+      <c s="26" r="X26">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="Y26"/>
-      <c s="22" r="Z26">
-        <v>44</v>
+      <c s="21" r="Z26">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="20" r="AB26">
-        <v>154</v>
+      <c s="19" r="AB26">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="20" r="AD26">
-        <v>154</v>
+      <c s="19" r="AD26">
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="24" t="str" r="A27"/>
-      <c s="18" t="inlineStr" r="D27">
+      <c s="22" t="str" r="A27"/>
+      <c s="17" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="19" r="G27">
-        <v>71</v>
+      <c s="18" r="G27">
+        <v>75</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="28" r="J27">
-        <v>49</v>
+      <c s="26" r="J27">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="20" r="L27">
-        <v>6</v>
+      <c s="26" r="L27">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="M27"/>
-      <c s="22" r="N27">
+      <c s="21" r="N27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O27"/>
-      <c s="22" r="P27">
+      <c s="21" r="P27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q27"/>
-      <c s="22" r="R27">
+      <c s="21" r="R27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S27"/>
-      <c s="22" r="T27">
+      <c s="21" r="T27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U27"/>
-      <c s="22" r="V27">
+      <c s="21" r="V27">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="28" r="X27">
-        <v>84</v>
+      <c s="26" r="X27">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y27"/>
-      <c s="22" r="Z27">
-        <v>52</v>
+      <c s="21" r="Z27">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="25" r="AB27">
-        <v>185</v>
+      <c s="27" r="AB27">
+        <v>181</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="25" r="AD27">
-        <v>185</v>
+      <c s="27" r="AD27">
+        <v>181</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="26" t="str" r="A28"/>
-      <c s="27" t="str" r="B28"/>
-      <c s="27" t="str" r="C28"/>
-      <c s="18" t="inlineStr" r="D28">
+      <c s="24" t="str" r="A28"/>
+      <c s="25" t="str" r="B28"/>
+      <c s="25" t="str" r="C28"/>
+      <c s="17" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="19" r="G28">
-        <v>11</v>
+      <c s="18" r="G28">
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="28" r="J28">
-        <v>38</v>
+      <c s="26" r="J28">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="K28"/>
       <c s="20" r="L28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M28"/>
-      <c s="22" r="N28">
+      <c s="21" r="N28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O28"/>
-      <c s="22" r="P28">
+      <c s="21" r="P28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q28"/>
-      <c s="22" r="R28">
+      <c s="21" r="R28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S28"/>
-      <c s="22" r="T28">
+      <c s="21" r="T28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U28"/>
-      <c s="22" r="V28">
+      <c s="21" r="V28">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="28" r="X28">
-        <v>107</v>
+      <c s="26" r="X28">
+        <v>115</v>
       </c>
       <c s="5" t="str" r="Y28"/>
-      <c s="22" r="Z28">
-        <v>31</v>
+      <c s="21" r="Z28">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="23" r="AB28">
-        <v>173</v>
+      <c s="27" r="AB28">
+        <v>193</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="23" r="AD28">
-        <v>173</v>
+      <c s="27" r="AD28">
+        <v>193</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A29">
+      <c s="15" t="inlineStr" r="A29">
         <is>
           <t xml:space="preserve">359042 Lititz</t>
         </is>
       </c>
-      <c s="17" t="str" r="B29"/>
-      <c s="17" t="str" r="C29"/>
-      <c s="18" t="inlineStr" r="D29">
+      <c s="16" t="str" r="B29"/>
+      <c s="16" t="str" r="C29"/>
+      <c s="17" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="19" r="G29">
-        <v>230</v>
+      <c s="18" r="G29">
+        <v>210</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="25" r="J29">
-        <v>31</v>
+      <c s="27" r="J29">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="21" r="L29">
-        <v>4</v>
+      <c s="19" r="L29">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M29"/>
-      <c s="22" r="N29">
+      <c s="21" r="N29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O29"/>
-      <c s="22" r="P29">
+      <c s="21" r="P29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q29"/>
-      <c s="22" r="R29">
+      <c s="21" r="R29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S29"/>
-      <c s="22" r="T29">
+      <c s="21" r="T29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U29"/>
-      <c s="22" r="V29">
+      <c s="21" r="V29">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="28" r="X29">
+      <c s="26" r="X29">
         <v>52</v>
       </c>
       <c s="5" t="str" r="Y29"/>
-      <c s="22" r="Z29">
-        <v>100</v>
+      <c s="21" r="Z29">
+        <v>91</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="25" r="AB29">
-        <v>183</v>
+      <c s="23" r="AB29">
+        <v>172</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="25" r="AD29">
-        <v>183</v>
+      <c s="23" r="AD29">
+        <v>172</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="24" t="str" r="A30"/>
-      <c s="18" t="inlineStr" r="D30">
+      <c s="22" t="str" r="A30"/>
+      <c s="17" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="19" r="G30">
-        <v>74</v>
+      <c s="18" r="G30">
+        <v>78</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="25" r="J30">
-        <v>33</v>
+      <c s="26" r="J30">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="20" r="L30">
-        <v>5</v>
+      <c s="23" r="L30">
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M30"/>
-      <c s="22" r="N30">
+      <c s="21" r="N30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O30"/>
-      <c s="22" r="P30">
+      <c s="21" r="P30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q30"/>
-      <c s="22" r="R30">
+      <c s="21" r="R30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S30"/>
-      <c s="22" r="T30">
+      <c s="21" r="T30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U30"/>
-      <c s="22" r="V30">
+      <c s="21" r="V30">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="28" r="X30">
-        <v>73</v>
+      <c s="26" r="X30">
+        <v>80</v>
       </c>
       <c s="5" t="str" r="Y30"/>
-      <c s="22" r="Z30">
-        <v>39</v>
+      <c s="21" r="Z30">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="21" r="AB30">
-        <v>145</v>
+      <c s="19" r="AB30">
+        <v>161</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="21" r="AD30">
-        <v>145</v>
+      <c s="19" r="AD30">
+        <v>161</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="24" t="str" r="A31"/>
-      <c s="18" t="inlineStr" r="D31">
+      <c s="22" t="str" r="A31"/>
+      <c s="17" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="19" r="G31">
-        <v>54</v>
+      <c s="18" r="G31">
+        <v>45</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="28" r="J31">
-        <v>66</v>
+      <c s="26" r="J31">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="K31"/>
       <c s="23" r="L31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M31"/>
-      <c s="22" r="N31">
+      <c s="21" r="N31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O31"/>
-      <c s="22" r="P31">
+      <c s="21" r="P31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q31"/>
-      <c s="22" r="R31">
+      <c s="21" r="R31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S31"/>
-      <c s="22" r="T31">
+      <c s="21" r="T31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U31"/>
-      <c s="22" r="V31">
+      <c s="21" r="V31">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="28" r="X31">
-        <v>126</v>
+      <c s="26" r="X31">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="Y31"/>
-      <c s="22" r="Z31">
-        <v>72</v>
+      <c s="21" r="Z31">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="28" r="AB31">
-        <v>263</v>
+      <c s="27" r="AB31">
+        <v>181</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="28" r="AD31">
-        <v>263</v>
+      <c s="27" r="AD31">
+        <v>181</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="26" t="str" r="A32"/>
-      <c s="27" t="str" r="B32"/>
-      <c s="27" t="str" r="C32"/>
-      <c s="18" t="inlineStr" r="D32">
+      <c s="24" t="str" r="A32"/>
+      <c s="25" t="str" r="B32"/>
+      <c s="25" t="str" r="C32"/>
+      <c s="17" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="19" r="G32">
-        <v>12</v>
+      <c s="18" r="G32">
+        <v>9</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="28" r="J32">
-        <v>46</v>
+      <c s="27" r="J32">
+        <v>31</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="21" r="L32">
-        <v>2</v>
+      <c s="20" r="L32">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M32"/>
-      <c s="22" r="N32">
+      <c s="21" r="N32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O32"/>
-      <c s="22" r="P32">
+      <c s="21" r="P32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q32"/>
-      <c s="22" r="R32">
+      <c s="21" r="R32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S32"/>
-      <c s="22" r="T32">
+      <c s="21" r="T32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U32"/>
-      <c s="22" r="V32">
+      <c s="21" r="V32">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="28" r="X32">
-        <v>159</v>
+      <c s="26" r="X32">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y32"/>
-      <c s="22" r="Z32">
-        <v>14</v>
+      <c s="21" r="Z32">
+        <v>18</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="28" r="AB32">
-        <v>220</v>
+      <c s="20" r="AB32">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="28" r="AD32">
-        <v>220</v>
+      <c s="20" r="AD32">
+        <v>140</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A33">
+      <c s="15" t="inlineStr" r="A33">
         <is>
           <t xml:space="preserve">362913 Eisenhower</t>
         </is>
       </c>
-      <c s="17" t="str" r="B33"/>
-      <c s="17" t="str" r="C33"/>
-      <c s="18" t="inlineStr" r="D33">
+      <c s="16" t="str" r="B33"/>
+      <c s="16" t="str" r="C33"/>
+      <c s="17" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="19" r="G33">
-        <v>169</v>
+      <c s="18" r="G33">
+        <v>167</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="20" r="J33">
-        <v>31</v>
+      <c s="19" r="J33">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="21" r="L33">
-        <v>2</v>
+      <c s="20" r="L33">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M33"/>
-      <c s="22" r="N33">
+      <c s="21" r="N33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O33"/>
-      <c s="22" r="P33">
+      <c s="21" r="P33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q33"/>
-      <c s="22" r="R33">
+      <c s="21" r="R33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S33"/>
-      <c s="22" r="T33">
+      <c s="21" r="T33">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
       <c s="20" r="V33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="28" r="X33">
-        <v>48</v>
+      <c s="26" r="X33">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y33"/>
-      <c s="22" r="Z33">
+      <c s="21" r="Z33">
         <v>40</v>
       </c>
       <c s="5" t="str" r="AA33"/>
-      <c s="21" r="AB33">
+      <c s="20" r="AB33">
         <v>95</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="20" r="AD33">
+      <c s="19" r="AD33">
         <v>136</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="24" t="str" r="A34"/>
-      <c s="18" t="inlineStr" r="D34">
+      <c s="22" t="str" r="A34"/>
+      <c s="17" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="19" r="G34">
-        <v>58</v>
+      <c s="18" r="G34">
+        <v>50</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="20" r="J34">
-        <v>39</v>
+      <c s="19" r="J34">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="21" r="L34">
-        <v>2</v>
+      <c s="20" r="L34">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M34"/>
-      <c s="22" r="N34">
+      <c s="21" r="N34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O34"/>
-      <c s="22" r="P34">
+      <c s="21" r="P34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q34"/>
-      <c s="22" r="R34">
+      <c s="21" r="R34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S34"/>
-      <c s="22" r="T34">
+      <c s="21" r="T34">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U34"/>
-      <c s="21" r="V34">
-        <v>5</v>
+      <c s="20" r="V34">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="28" r="X34">
-        <v>53</v>
+      <c s="26" r="X34">
+        <v>88</v>
       </c>
       <c s="5" t="str" r="Y34"/>
-      <c s="22" r="Z34">
-        <v>19</v>
+      <c s="21" r="Z34">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="21" r="AB34">
-        <v>95</v>
+      <c s="19" r="AB34">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="21" r="AD34">
-        <v>115</v>
+      <c s="19" r="AD34">
+        <v>158</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="24" t="str" r="A35"/>
-      <c s="18" t="inlineStr" r="D35">
+      <c s="22" t="str" r="A35"/>
+      <c s="17" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="19" r="G35">
-        <v>42</v>
+      <c s="18" r="G35">
+        <v>39</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="20" r="J35">
-        <v>39</v>
+      <c s="23" r="J35">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="21" r="L35">
-        <v>3</v>
+      <c s="19" r="L35">
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M35"/>
-      <c s="22" r="N35">
+      <c s="21" r="N35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O35"/>
-      <c s="22" r="P35">
+      <c s="21" r="P35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q35"/>
-      <c s="22" r="R35">
+      <c s="21" r="R35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S35"/>
-      <c s="22" r="T35">
+      <c s="21" r="T35">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="21" r="V35">
-        <v>4</v>
+      <c s="20" r="V35">
+        <v>13</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="28" r="X35">
-        <v>104</v>
+      <c s="26" r="X35">
+        <v>126</v>
       </c>
       <c s="5" t="str" r="Y35"/>
-      <c s="22" r="Z35">
-        <v>32</v>
+      <c s="21" r="Z35">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="20" r="AB35">
-        <v>146</v>
+      <c s="23" r="AB35">
+        <v>183</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="20" r="AD35">
-        <v>178</v>
+      <c s="23" r="AD35">
+        <v>220</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="26" t="str" r="A36"/>
-      <c s="27" t="str" r="B36"/>
-      <c s="27" t="str" r="C36"/>
-      <c s="18" t="inlineStr" r="D36">
+      <c s="24" t="str" r="A36"/>
+      <c s="25" t="str" r="B36"/>
+      <c s="25" t="str" r="C36"/>
+      <c s="17" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="19" r="G36">
+      <c s="18" r="G36">
         <v>8</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="23" r="J36">
-        <v>49</v>
+      <c s="26" r="J36">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="21" r="L36">
-        <v>3</v>
+      <c s="19" r="L36">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M36"/>
-      <c s="22" r="N36">
+      <c s="21" r="N36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O36"/>
-      <c s="22" r="P36">
+      <c s="21" r="P36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q36"/>
-      <c s="22" r="R36">
+      <c s="21" r="R36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S36"/>
-      <c s="22" r="T36">
+      <c s="21" r="T36">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="23" r="V36">
-        <v>23</v>
+      <c s="20" r="V36">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="28" r="X36">
-        <v>78</v>
+      <c s="26" r="X36">
+        <v>210</v>
       </c>
       <c s="5" t="str" r="Y36"/>
-      <c s="22" r="Z36">
-        <v>9</v>
+      <c s="21" r="Z36">
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="20" r="AB36">
-        <v>134</v>
+      <c s="27" r="AB36">
+        <v>273</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="20" r="AD36">
-        <v>144</v>
+      <c s="27" r="AD36">
+        <v>284</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A37">
+      <c s="15" t="inlineStr" r="A37">
         <is>
           <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
-      <c s="17" t="str" r="B37"/>
-      <c s="17" t="str" r="C37"/>
-      <c s="18" t="inlineStr" r="D37">
+      <c s="16" t="str" r="B37"/>
+      <c s="16" t="str" r="C37"/>
+      <c s="17" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="19" r="G37">
-        <v>248</v>
+      <c s="18" r="G37">
+        <v>225</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
-      <c s="22" r="J37">
+      <c s="21" r="J37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K37"/>
-      <c s="22" r="L37">
+      <c s="21" r="L37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
       <c s="23" r="N37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="21" r="P37">
-        <v>3</v>
+      <c s="20" r="P37">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="21" r="R37">
+      <c s="20" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="21" r="T37">
-        <v>1</v>
+      <c s="20" r="T37">
+        <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
-      <c s="22" r="V37">
+      <c s="21" r="V37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="28" r="X37">
+      <c s="26" r="X37">
         <v>48</v>
       </c>
       <c s="5" t="str" r="Y37"/>
-      <c s="22" r="Z37">
-        <v>68</v>
+      <c s="21" r="Z37">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="AA37"/>
-      <c s="21" r="AB37">
-        <v>142</v>
+      <c s="20" r="AB37">
+        <v>123</v>
       </c>
       <c s="5" t="str" r="AC37"/>
-      <c s="21" r="AD37">
-        <v>142</v>
+      <c s="20" r="AD37">
+        <v>123</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="24" t="str" r="A38"/>
-      <c s="18" t="inlineStr" r="D38">
+      <c s="22" t="str" r="A38"/>
+      <c s="17" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="19" r="G38">
-        <v>80</v>
+      <c s="18" r="G38">
+        <v>71</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
-      <c s="22" r="J38">
+      <c s="21" r="J38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K38"/>
-      <c s="22" r="L38">
+      <c s="21" r="L38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="28" r="N38">
-        <v>37</v>
+      <c s="27" r="N38">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="21" r="P38">
-        <v>4</v>
+      <c s="20" r="P38">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="21" r="R38">
+      <c s="20" r="R38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="21" r="T38">
+      <c s="20" r="T38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U38"/>
-      <c s="22" r="V38">
+      <c s="21" r="V38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="28" r="X38">
-        <v>90</v>
+      <c s="26" r="X38">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y38"/>
-      <c s="22" r="Z38">
-        <v>46</v>
+      <c s="21" r="Z38">
+        <v>98</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="23" r="AB38">
-        <v>174</v>
+      <c s="26" r="AB38">
+        <v>230</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="23" r="AD38">
-        <v>174</v>
+      <c s="26" r="AD38">
+        <v>230</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="24" t="str" r="A39"/>
-      <c s="18" t="inlineStr" r="D39">
+      <c s="22" t="str" r="A39"/>
+      <c s="17" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="19" r="G39">
-        <v>58</v>
+      <c s="18" r="G39">
+        <v>55</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
-      <c s="22" r="J39">
+      <c s="21" r="J39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K39"/>
-      <c s="22" r="L39">
+      <c s="21" r="L39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="25" r="N39">
-        <v>31</v>
+      <c s="26" r="N39">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="21" r="P39">
+      <c s="20" r="P39">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="22" r="R39">
+      <c s="21" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="22" r="T39">
+      <c s="21" r="T39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U39"/>
-      <c s="22" r="V39">
+      <c s="21" r="V39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="28" r="X39">
-        <v>65</v>
+      <c s="26" r="X39">
+        <v>75</v>
       </c>
       <c s="5" t="str" r="Y39"/>
-      <c s="22" r="Z39">
+      <c s="21" r="Z39">
         <v>28</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="21" r="AB39">
-        <v>125</v>
+      <c s="20" r="AB39">
+        <v>141</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="21" r="AD39">
-        <v>125</v>
+      <c s="20" r="AD39">
+        <v>141</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="26" t="str" r="A40"/>
-      <c s="27" t="str" r="B40"/>
-      <c s="27" t="str" r="C40"/>
-      <c s="18" t="inlineStr" r="D40">
+      <c s="24" t="str" r="A40"/>
+      <c s="25" t="str" r="B40"/>
+      <c s="25" t="str" r="C40"/>
+      <c s="17" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
-      <c s="19" r="G40">
-        <v>14</v>
+      <c s="18" r="G40">
+        <v>12</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
-      <c s="22" r="J40">
+      <c s="21" r="J40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="K40"/>
-      <c s="22" r="L40">
+      <c s="21" r="L40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="25" r="N40">
-        <v>32</v>
+      <c s="23" r="N40">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="O40"/>
-      <c s="21" r="P40">
+      <c s="20" r="P40">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q40"/>
-      <c s="22" r="R40">
+      <c s="21" r="R40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S40"/>
-      <c s="22" r="T40">
+      <c s="21" r="T40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U40"/>
-      <c s="22" r="V40">
+      <c s="21" r="V40">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="28" r="X40">
-        <v>87</v>
+      <c s="26" r="X40">
+        <v>68</v>
       </c>
       <c s="5" t="str" r="Y40"/>
-      <c s="22" r="Z40">
-        <v>10</v>
+      <c s="21" r="Z40">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="21" r="AB40">
-        <v>130</v>
+      <c s="20" r="AB40">
+        <v>105</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="21" r="AD40">
-        <v>130</v>
+      <c s="20" r="AD40">
+        <v>105</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
-      <c s="16" t="inlineStr" r="A41">
+      <c s="15" t="inlineStr" r="A41">
         <is>
           <t xml:space="preserve">364322 E-Town</t>
         </is>
       </c>
-      <c s="17" t="str" r="B41"/>
-      <c s="17" t="str" r="C41"/>
-      <c s="18" t="inlineStr" r="D41">
+      <c s="16" t="str" r="B41"/>
+      <c s="16" t="str" r="C41"/>
+      <c s="17" t="inlineStr" r="D41">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
-      <c s="19" r="G41">
-        <v>186</v>
+      <c s="18" r="G41">
+        <v>223</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
-      <c s="28" r="J41">
-        <v>63</v>
+      <c s="20" r="J41">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K41"/>
       <c s="20" r="L41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M41"/>
-      <c s="22" r="N41">
+      <c s="21" r="N41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O41"/>
-      <c s="22" r="P41">
+      <c s="21" r="P41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q41"/>
-      <c s="22" r="R41">
+      <c s="21" r="R41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S41"/>
-      <c s="22" r="T41">
+      <c s="21" r="T41">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="23" r="V41">
-        <v>23</v>
+      <c s="19" r="V41">
+        <v>15</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="28" r="X41">
-        <v>81</v>
+      <c s="26" r="X41">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y41"/>
-      <c s="22" r="Z41">
-        <v>93</v>
+      <c s="21" r="Z41">
+        <v>52</v>
       </c>
       <c s="5" t="str" r="AA41"/>
-      <c s="25" r="AB41">
-        <v>254</v>
+      <c s="20" r="AB41">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC41"/>
-      <c s="25" r="AD41">
-        <v>254</v>
+      <c s="20" r="AD41">
+        <v>138</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
-      <c s="24" t="str" r="A42"/>
-      <c s="18" t="inlineStr" r="D42">
+      <c s="22" t="str" r="A42"/>
+      <c s="17" t="inlineStr" r="D42">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
-      <c s="19" r="G42">
-        <v>76</v>
+      <c s="18" r="G42">
+        <v>98</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
-      <c s="23" r="J42">
-        <v>41</v>
+      <c s="20" r="J42">
+        <v>28</v>
       </c>
       <c s="5" t="str" r="K42"/>
-      <c s="21" r="L42">
-        <v>4</v>
+      <c s="20" r="L42">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M42"/>
-      <c s="22" r="N42">
+      <c s="21" r="N42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O42"/>
-      <c s="22" r="P42">
+      <c s="21" r="P42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q42"/>
-      <c s="22" r="R42">
+      <c s="21" r="R42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S42"/>
-      <c s="22" r="T42">
+      <c s="21" r="T42">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="21" r="V42">
-        <v>3</v>
+      <c s="20" r="V42">
+        <v>10</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="28" r="X42">
-        <v>74</v>
+      <c s="26" r="X42">
+        <v>58</v>
       </c>
       <c s="5" t="str" r="Y42"/>
-      <c s="22" r="Z42">
-        <v>30</v>
+      <c s="21" r="Z42">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="21" r="AB42">
-        <v>146</v>
+      <c s="20" r="AB42">
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="21" r="AD42">
-        <v>146</v>
+      <c s="20" r="AD42">
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
-      <c s="24" t="str" r="A43"/>
-      <c s="18" t="inlineStr" r="D43">
+      <c s="22" t="str" r="A43"/>
+      <c s="17" t="inlineStr" r="D43">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
-      <c s="19" r="G43">
-        <v>72</v>
+      <c s="18" r="G43">
+        <v>75</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
       <c s="23" r="J43">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c s="5" t="str" r="K43"/>
       <c s="20" r="L43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M43"/>
-      <c s="22" r="N43">
+      <c s="21" r="N43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O43"/>
-      <c s="22" r="P43">
+      <c s="21" r="P43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q43"/>
-      <c s="22" r="R43">
+      <c s="21" r="R43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S43"/>
-      <c s="22" r="T43">
+      <c s="21" r="T43">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="21" r="V43">
-        <v>11</v>
+      <c s="19" r="V43">
+        <v>17</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="28" r="X43">
-        <v>92</v>
+      <c s="26" r="X43">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y43"/>
-      <c s="22" r="Z43">
-        <v>33</v>
+      <c s="21" r="Z43">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="20" r="AB43">
-        <v>173</v>
+      <c s="23" r="AB43">
+        <v>205</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="20" r="AD43">
-        <v>173</v>
+      <c s="23" r="AD43">
+        <v>205</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="26" t="str" r="A44"/>
-      <c s="27" t="str" r="B44"/>
-      <c s="27" t="str" r="C44"/>
-      <c s="18" t="inlineStr" r="D44">
+      <c s="24" t="str" r="A44"/>
+      <c s="25" t="str" r="B44"/>
+      <c s="25" t="str" r="C44"/>
+      <c s="17" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
-      <c s="19" r="G44">
+      <c s="18" r="G44">
         <v>14</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
       <c s="20" r="J44">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c s="5" t="str" r="K44"/>
       <c s="20" r="L44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M44"/>
-      <c s="22" r="N44">
+      <c s="21" r="N44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="O44"/>
-      <c s="22" r="P44">
+      <c s="21" r="P44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="Q44"/>
-      <c s="22" r="R44">
+      <c s="21" r="R44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S44"/>
-      <c s="22" r="T44">
+      <c s="21" r="T44">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U44"/>
-      <c s="21" r="V44">
-        <v>2</v>
+      <c s="20" r="V44">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="28" r="X44">
+      <c s="26" r="X44">
         <v>107</v>
       </c>
       <c s="5" t="str" r="Y44"/>
-      <c s="22" r="Z44">
-        <v>15</v>
+      <c s="21" r="Z44">
+        <v>20</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="21" r="AB44">
-        <v>148</v>
+      <c s="19" r="AB44">
+        <v>151</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="21" r="AD44">
-        <v>148</v>
+      <c s="19" r="AD44">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3291,7 +3288,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 2/5/2026 12:44:12 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 2/6/2026 12:45:23 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,26 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B04C"/>
         <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FFB40000"/>
+        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF540202"/>
         <bgColor rgb="FF540202"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB40000"/>
-        <bgColor rgb="FFB40000"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +265,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -291,16 +291,19 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="7" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="4">
@@ -324,16 +327,19 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="7">
@@ -341,9 +347,6 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="8">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -371,10 +374,10 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="00E35454"/>
       <rgbColor rgb="0000B04C"/>
-      <rgbColor rgb="00E35454"/>
+      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
-      <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
@@ -517,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 02/05/2026</t>
+          <t xml:space="preserve">Day: 02/06/2026</t>
         </is>
       </c>
     </row>
@@ -613,49 +616,49 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c s="8" r="F7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="9" r="H7">
-        <v>2</v>
-      </c>
-      <c s="10" r="I7">
+      <c s="8" r="H7">
+        <v>5</v>
+      </c>
+      <c s="9" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="10" r="K7">
+      <c s="9" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="10" r="M7">
+      <c s="9" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="10" r="O7">
+      <c s="9" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="10" r="Q7">
+      <c s="9" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="8" r="S7">
-        <v>51</v>
+      <c s="10" r="S7">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="10" r="U7">
-        <v>37</v>
+      <c s="9" r="U7">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="9" r="W7">
-        <v>114</v>
+      <c s="11" r="W7">
+        <v>145</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="9" r="Y7">
-        <v>56</v>
+      <c s="11" r="Y7">
+        <v>72</v>
       </c>
       <c s="5" t="str" r="Z7"/>
     </row>
@@ -669,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>497</v>
-      </c>
-      <c s="11" r="F8">
-        <v>28</v>
+        <v>605</v>
+      </c>
+      <c s="12" r="F8">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="9" r="H8">
-        <v>2</v>
-      </c>
-      <c s="10" r="I8">
+      <c s="11" r="H8">
+        <v>3</v>
+      </c>
+      <c s="9" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="10" r="K8">
+      <c s="9" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="10" r="M8">
+      <c s="9" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="10" r="O8">
+      <c s="9" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="10" r="Q8">
+      <c s="9" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
-      <c s="12" r="S8">
-        <v>49</v>
+      <c s="13" r="S8">
+        <v>48</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="10" r="U8">
-        <v>46</v>
+      <c s="9" r="U8">
+        <v>56</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="9" r="W8">
-        <v>123</v>
+      <c s="11" r="W8">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="9" r="Y8">
-        <v>123</v>
+      <c s="11" r="Y8">
+        <v>135</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -725,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>441</v>
-      </c>
-      <c s="12" r="F9">
-        <v>35</v>
+        <v>488</v>
+      </c>
+      <c s="13" r="F9">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="8" r="H9">
-        <v>6</v>
-      </c>
-      <c s="10" r="I9">
+      <c s="10" r="H9">
+        <v>7</v>
+      </c>
+      <c s="9" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="10" r="K9">
+      <c s="9" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="10" r="M9">
+      <c s="9" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="10" r="O9">
+      <c s="9" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="10" r="Q9">
+      <c s="9" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
-      <c s="12" r="S9">
-        <v>63</v>
+      <c s="13" r="S9">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="10" r="U9">
-        <v>56</v>
+      <c s="9" r="U9">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="8" r="W9">
-        <v>155</v>
+      <c s="10" r="W9">
+        <v>176</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="8" r="Y9">
-        <v>155</v>
+      <c s="10" r="Y9">
+        <v>176</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -781,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>342</v>
-      </c>
-      <c s="12" r="F10">
+        <v>434</v>
+      </c>
+      <c s="13" r="F10">
         <v>36</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="8" r="H10">
-        <v>6</v>
-      </c>
-      <c s="10" r="I10">
+      <c s="11" r="H10">
+        <v>3</v>
+      </c>
+      <c s="9" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="10" r="K10">
+      <c s="9" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="10" r="M10">
+      <c s="9" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="10" r="O10">
+      <c s="9" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="10" r="Q10">
+      <c s="9" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
-      <c s="12" r="S10">
-        <v>65</v>
+      <c s="13" r="S10">
+        <v>63</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="10" r="U10">
-        <v>69</v>
+      <c s="9" r="U10">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="11" r="W10">
-        <v>170</v>
+      <c s="10" r="W10">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="11" r="Y10">
-        <v>170</v>
+      <c s="10" r="Y10">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -837,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>264</v>
-      </c>
-      <c s="8" r="F11">
-        <v>37</v>
+        <v>316</v>
+      </c>
+      <c s="10" r="F11">
+        <v>40</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="9" r="H11">
-        <v>3</v>
-      </c>
-      <c s="10" r="I11">
+      <c s="11" r="H11">
+        <v>2</v>
+      </c>
+      <c s="9" r="I11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="10" r="K11">
+      <c s="9" r="K11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="10" r="M11">
+      <c s="9" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="10" r="O11">
+      <c s="9" r="O11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="9" r="Q11">
-        <v>12</v>
+      <c s="10" r="Q11">
+        <v>22</v>
       </c>
       <c s="5" t="str" r="R11"/>
-      <c s="12" r="S11">
-        <v>74</v>
+      <c s="13" r="S11">
+        <v>71</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="10" r="U11">
-        <v>36</v>
+      <c s="9" r="U11">
+        <v>67</v>
       </c>
       <c s="5" t="str" r="V11"/>
       <c s="8" r="W11">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="8" r="Y11">
-        <v>157</v>
+      <c s="10" r="Y11">
+        <v>199</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -893,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>363</v>
-      </c>
-      <c s="10" r="F12">
+        <v>418</v>
+      </c>
+      <c s="9" r="F12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="10" r="H12">
-        <v>0</v>
-      </c>
-      <c s="11" r="I12">
-        <v>29</v>
+      <c s="9" r="H12">
+        <v>0</v>
+      </c>
+      <c s="12" r="I12">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="9" r="K12">
-        <v>2</v>
+      <c s="11" r="K12">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="9" r="M12">
+      <c s="11" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="9" r="O12">
-        <v>0</v>
+      <c s="11" r="O12">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="10" r="Q12">
+      <c s="9" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
-      <c s="12" r="S12">
-        <v>63</v>
+      <c s="13" r="S12">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="10" r="U12">
-        <v>54</v>
+      <c s="9" r="U12">
+        <v>64</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="9" r="W12">
-        <v>146</v>
+      <c s="8" r="W12">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="9" r="Y12">
-        <v>146</v>
+      <c s="8" r="Y12">
+        <v>156</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -949,55 +952,55 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c s="8" r="F13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="9" r="H13">
-        <v>2</v>
-      </c>
-      <c s="10" r="I13">
+      <c s="11" r="H13">
+        <v>4</v>
+      </c>
+      <c s="9" r="I13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J13"/>
-      <c s="10" r="K13">
+      <c s="9" r="K13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="10" r="M13">
+      <c s="9" r="M13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="10" r="O13">
+      <c s="9" r="O13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
-      <c s="9" r="Q13">
-        <v>13</v>
+      <c s="8" r="Q13">
+        <v>16</v>
       </c>
       <c s="5" t="str" r="R13"/>
-      <c s="12" r="S13">
+      <c s="13" r="S13">
+        <v>58</v>
+      </c>
+      <c s="5" t="str" r="T13"/>
+      <c s="9" r="U13">
         <v>60</v>
       </c>
-      <c s="5" t="str" r="T13"/>
-      <c s="10" r="U13">
-        <v>48</v>
-      </c>
       <c s="5" t="str" r="V13"/>
-      <c s="9" r="W13">
-        <v>149</v>
+      <c s="8" r="W13">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="X13"/>
-      <c s="9" r="Y13">
-        <v>149</v>
+      <c s="8" r="Y13">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="Z13"/>
     </row>
     <row r="14" ht="4.95" customHeight="1"/>
     <row r="15" ht="32.25" customHeight="0">
-      <c s="13" t="inlineStr" r="A15">
+      <c s="14" t="inlineStr" r="A15">
         <is>
           <t xml:space="preserve">Group / Store</t>
         </is>
@@ -1018,98 +1021,98 @@
       </c>
       <c s="4" t="str" r="H15"/>
       <c s="5" t="str" r="I15"/>
-      <c s="14" t="inlineStr" r="J15">
+      <c s="15" t="inlineStr" r="J15">
         <is>
           <t xml:space="preserve">Menu Board</t>
         </is>
       </c>
       <c s="5" t="str" r="K15"/>
-      <c s="14" t="inlineStr" r="L15">
+      <c s="15" t="inlineStr" r="L15">
         <is>
           <t xml:space="preserve">Greet</t>
         </is>
       </c>
       <c s="5" t="str" r="M15"/>
-      <c s="14" t="inlineStr" r="N15">
+      <c s="15" t="inlineStr" r="N15">
         <is>
           <t xml:space="preserve">Menu 1</t>
         </is>
       </c>
       <c s="5" t="str" r="O15"/>
-      <c s="14" t="inlineStr" r="P15">
+      <c s="15" t="inlineStr" r="P15">
         <is>
           <t xml:space="preserve">Greet 1</t>
         </is>
       </c>
       <c s="5" t="str" r="Q15"/>
-      <c s="14" t="inlineStr" r="R15">
+      <c s="15" t="inlineStr" r="R15">
         <is>
           <t xml:space="preserve">Menu 2</t>
         </is>
       </c>
       <c s="5" t="str" r="S15"/>
-      <c s="14" t="inlineStr" r="T15">
+      <c s="15" t="inlineStr" r="T15">
         <is>
           <t xml:space="preserve">Greet 2</t>
         </is>
       </c>
       <c s="5" t="str" r="U15"/>
-      <c s="14" t="inlineStr" r="V15">
+      <c s="15" t="inlineStr" r="V15">
         <is>
           <t xml:space="preserve">Cashier</t>
         </is>
       </c>
       <c s="5" t="str" r="W15"/>
-      <c s="14" t="inlineStr" r="X15">
+      <c s="15" t="inlineStr" r="X15">
         <is>
           <t xml:space="preserve">Service</t>
         </is>
       </c>
       <c s="5" t="str" r="Y15"/>
-      <c s="14" t="inlineStr" r="Z15">
+      <c s="15" t="inlineStr" r="Z15">
         <is>
           <t xml:space="preserve">Lane Queue</t>
         </is>
       </c>
       <c s="5" t="str" r="AA15"/>
-      <c s="14" t="inlineStr" r="AB15">
+      <c s="15" t="inlineStr" r="AB15">
         <is>
           <t xml:space="preserve">Lane Total</t>
         </is>
       </c>
       <c s="5" t="str" r="AC15"/>
-      <c s="14" t="inlineStr" r="AD15">
+      <c s="15" t="inlineStr" r="AD15">
         <is>
           <t xml:space="preserve">Lane Total 2</t>
         </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A16">
+      <c s="16" t="inlineStr" r="A16">
         <is>
           <t xml:space="preserve">343939 Mt Joy</t>
         </is>
       </c>
-      <c s="16" t="str" r="B16"/>
-      <c s="16" t="str" r="C16"/>
-      <c s="17" t="inlineStr" r="D16">
+      <c s="17" t="str" r="B16"/>
+      <c s="17" t="str" r="C16"/>
+      <c s="18" t="inlineStr" r="D16">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E16"/>
       <c s="5" t="str" r="F16"/>
-      <c s="18" r="G16">
-        <v>208</v>
+      <c s="19" r="G16">
+        <v>212</v>
       </c>
       <c s="4" t="str" r="H16"/>
       <c s="5" t="str" r="I16"/>
-      <c s="19" r="J16">
-        <v>28</v>
+      <c s="20" r="J16">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K16"/>
       <c s="20" r="L16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M16"/>
       <c s="21" r="N16">
@@ -1132,42 +1135,42 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W16"/>
-      <c s="19" r="X16">
-        <v>44</v>
+      <c s="20" r="X16">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="Y16"/>
       <c s="21" r="Z16">
         <v>47</v>
       </c>
       <c s="5" t="str" r="AA16"/>
-      <c s="20" r="AB16">
-        <v>119</v>
+      <c s="22" r="AB16">
+        <v>128</v>
       </c>
       <c s="5" t="str" r="AC16"/>
-      <c s="20" r="AD16">
-        <v>59</v>
+      <c s="22" r="AD16">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="22" t="str" r="A17"/>
-      <c s="17" t="inlineStr" r="D17">
+      <c s="23" t="str" r="A17"/>
+      <c s="18" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E17"/>
       <c s="5" t="str" r="F17"/>
-      <c s="18" r="G17">
-        <v>103</v>
+      <c s="19" r="G17">
+        <v>110</v>
       </c>
       <c s="4" t="str" r="H17"/>
       <c s="5" t="str" r="I17"/>
-      <c s="19" r="J17">
-        <v>22</v>
+      <c s="20" r="J17">
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K17"/>
-      <c s="20" r="L17">
-        <v>2</v>
+      <c s="22" r="L17">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M17"/>
       <c s="21" r="N17">
@@ -1190,42 +1193,42 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W17"/>
-      <c s="19" r="X17">
-        <v>51</v>
+      <c s="24" r="X17">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y17"/>
       <c s="21" r="Z17">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="AA17"/>
-      <c s="20" r="AB17">
-        <v>103</v>
+      <c s="22" r="AB17">
+        <v>136</v>
       </c>
       <c s="5" t="str" r="AC17"/>
-      <c s="20" r="AD17">
-        <v>51</v>
+      <c s="22" r="AD17">
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="0">
-      <c s="22" t="str" r="A18"/>
-      <c s="17" t="inlineStr" r="D18">
+      <c s="23" t="str" r="A18"/>
+      <c s="18" t="inlineStr" r="D18">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E18"/>
       <c s="5" t="str" r="F18"/>
-      <c s="18" r="G18">
-        <v>56</v>
+      <c s="19" r="G18">
+        <v>65</v>
       </c>
       <c s="4" t="str" r="H18"/>
       <c s="5" t="str" r="I18"/>
-      <c s="19" r="J18">
-        <v>22</v>
+      <c s="20" r="J18">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="K18"/>
-      <c s="20" r="L18">
-        <v>2</v>
+      <c s="22" r="L18">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M18"/>
       <c s="21" r="N18">
@@ -1248,43 +1251,43 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W18"/>
-      <c s="23" r="X18">
-        <v>71</v>
+      <c s="25" r="X18">
+        <v>97</v>
       </c>
       <c s="5" t="str" r="Y18"/>
       <c s="21" r="Z18">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA18"/>
-      <c s="20" r="AB18">
-        <v>108</v>
+      <c s="24" r="AB18">
+        <v>209</v>
       </c>
       <c s="5" t="str" r="AC18"/>
       <c s="20" r="AD18">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="24" t="str" r="A19"/>
-      <c s="25" t="str" r="B19"/>
-      <c s="25" t="str" r="C19"/>
-      <c s="17" t="inlineStr" r="D19">
+      <c s="26" t="str" r="A19"/>
+      <c s="27" t="str" r="B19"/>
+      <c s="27" t="str" r="C19"/>
+      <c s="18" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E19"/>
       <c s="5" t="str" r="F19"/>
-      <c s="18" r="G19">
-        <v>12</v>
+      <c s="19" r="G19">
+        <v>14</v>
       </c>
       <c s="4" t="str" r="H19"/>
       <c s="5" t="str" r="I19"/>
-      <c s="19" r="J19">
-        <v>28</v>
+      <c s="20" r="J19">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K19"/>
-      <c s="20" r="L19">
+      <c s="22" r="L19">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M19"/>
@@ -1308,48 +1311,48 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W19"/>
-      <c s="23" r="X19">
-        <v>76</v>
+      <c s="25" r="X19">
+        <v>117</v>
       </c>
       <c s="5" t="str" r="Y19"/>
       <c s="21" r="Z19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c s="5" t="str" r="AA19"/>
-      <c s="20" r="AB19">
-        <v>137</v>
+      <c s="24" r="AB19">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC19"/>
-      <c s="20" r="AD19">
-        <v>68</v>
+      <c s="22" r="AD19">
+        <v>89</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A20">
+      <c s="16" t="inlineStr" r="A20">
         <is>
           <t xml:space="preserve">357993 Enola</t>
         </is>
       </c>
-      <c s="16" t="str" r="B20"/>
-      <c s="16" t="str" r="C20"/>
-      <c s="17" t="inlineStr" r="D20">
+      <c s="17" t="str" r="B20"/>
+      <c s="17" t="str" r="C20"/>
+      <c s="18" t="inlineStr" r="D20">
         <is>
           <t xml:space="preserve">Daypart 1</t>
         </is>
       </c>
       <c s="4" t="str" r="E20"/>
       <c s="5" t="str" r="F20"/>
-      <c s="18" r="G20">
+      <c s="19" r="G20">
         <v>5</v>
       </c>
       <c s="4" t="str" r="H20"/>
       <c s="5" t="str" r="I20"/>
-      <c s="20" r="J20">
-        <v>17</v>
+      <c s="24" r="J20">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K20"/>
       <c s="20" r="L20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="5" t="str" r="M20"/>
       <c s="21" r="N20">
@@ -1372,41 +1375,41 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W20"/>
-      <c s="26" r="X20">
-        <v>53</v>
+      <c s="28" r="X20">
+        <v>89</v>
       </c>
       <c s="5" t="str" r="Y20"/>
       <c s="21" r="Z20">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c s="5" t="str" r="AA20"/>
-      <c s="20" r="AB20">
-        <v>80</v>
+      <c s="22" r="AB20">
+        <v>138</v>
       </c>
       <c s="5" t="str" r="AC20"/>
-      <c s="20" r="AD20">
-        <v>80</v>
+      <c s="22" r="AD20">
+        <v>138</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
-      <c s="22" t="str" r="A21"/>
-      <c s="17" t="inlineStr" r="D21">
+      <c s="23" t="str" r="A21"/>
+      <c s="18" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E21"/>
       <c s="5" t="str" r="F21"/>
-      <c s="18" r="G21">
-        <v>267</v>
+      <c s="19" r="G21">
+        <v>320</v>
       </c>
       <c s="4" t="str" r="H21"/>
       <c s="5" t="str" r="I21"/>
-      <c s="23" r="J21">
-        <v>28</v>
+      <c s="24" r="J21">
+        <v>27</v>
       </c>
       <c s="5" t="str" r="K21"/>
-      <c s="20" r="L21">
+      <c s="22" r="L21">
         <v>2</v>
       </c>
       <c s="5" t="str" r="M21"/>
@@ -1430,42 +1433,42 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W21"/>
-      <c s="27" r="X21">
-        <v>43</v>
+      <c s="24" r="X21">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="Y21"/>
       <c s="21" r="Z21">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c s="5" t="str" r="AA21"/>
-      <c s="20" r="AB21">
+      <c s="22" r="AB21">
         <v>127</v>
       </c>
       <c s="5" t="str" r="AC21"/>
-      <c s="20" r="AD21">
+      <c s="22" r="AD21">
         <v>127</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
-      <c s="22" t="str" r="A22"/>
-      <c s="17" t="inlineStr" r="D22">
+      <c s="23" t="str" r="A22"/>
+      <c s="18" t="inlineStr" r="D22">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E22"/>
       <c s="5" t="str" r="F22"/>
-      <c s="18" r="G22">
-        <v>115</v>
+      <c s="19" r="G22">
+        <v>143</v>
       </c>
       <c s="4" t="str" r="H22"/>
       <c s="5" t="str" r="I22"/>
-      <c s="23" r="J22">
-        <v>27</v>
+      <c s="28" r="J22">
+        <v>36</v>
       </c>
       <c s="5" t="str" r="K22"/>
       <c s="20" r="L22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M22"/>
       <c s="21" r="N22">
@@ -1488,41 +1491,41 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W22"/>
-      <c s="26" r="X22">
-        <v>45</v>
+      <c s="28" r="X22">
+        <v>53</v>
       </c>
       <c s="5" t="str" r="Y22"/>
       <c s="21" r="Z22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA22"/>
-      <c s="20" r="AB22">
-        <v>108</v>
+      <c s="22" r="AB22">
+        <v>129</v>
       </c>
       <c s="5" t="str" r="AC22"/>
-      <c s="20" r="AD22">
-        <v>108</v>
+      <c s="22" r="AD22">
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="22" t="str" r="A23"/>
-      <c s="17" t="inlineStr" r="D23">
+      <c s="23" t="str" r="A23"/>
+      <c s="18" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E23"/>
       <c s="5" t="str" r="F23"/>
-      <c s="18" r="G23">
-        <v>93</v>
+      <c s="19" r="G23">
+        <v>116</v>
       </c>
       <c s="4" t="str" r="H23"/>
       <c s="5" t="str" r="I23"/>
-      <c s="23" r="J23">
-        <v>28</v>
+      <c s="25" r="J23">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K23"/>
-      <c s="20" r="L23">
+      <c s="22" r="L23">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M23"/>
@@ -1546,44 +1549,44 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W23"/>
-      <c s="26" r="X23">
-        <v>66</v>
+      <c s="28" r="X23">
+        <v>73</v>
       </c>
       <c s="5" t="str" r="Y23"/>
       <c s="21" r="Z23">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c s="5" t="str" r="AA23"/>
-      <c s="20" r="AB23">
-        <v>135</v>
+      <c s="24" r="AB23">
+        <v>168</v>
       </c>
       <c s="5" t="str" r="AC23"/>
-      <c s="20" r="AD23">
-        <v>135</v>
+      <c s="24" r="AD23">
+        <v>168</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
-      <c s="24" t="str" r="A24"/>
-      <c s="25" t="str" r="B24"/>
-      <c s="25" t="str" r="C24"/>
-      <c s="17" t="inlineStr" r="D24">
+      <c s="26" t="str" r="A24"/>
+      <c s="27" t="str" r="B24"/>
+      <c s="27" t="str" r="C24"/>
+      <c s="18" t="inlineStr" r="D24">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E24"/>
       <c s="5" t="str" r="F24"/>
-      <c s="18" r="G24">
-        <v>17</v>
+      <c s="19" r="G24">
+        <v>21</v>
       </c>
       <c s="4" t="str" r="H24"/>
       <c s="5" t="str" r="I24"/>
-      <c s="27" r="J24">
-        <v>31</v>
+      <c s="25" r="J24">
+        <v>34</v>
       </c>
       <c s="5" t="str" r="K24"/>
-      <c s="20" r="L24">
-        <v>2</v>
+      <c s="22" r="L24">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M24"/>
       <c s="21" r="N24">
@@ -1606,48 +1609,48 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W24"/>
-      <c s="26" r="X24">
-        <v>75</v>
+      <c s="28" r="X24">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y24"/>
       <c s="21" r="Z24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="5" t="str" r="AA24"/>
-      <c s="20" r="AB24">
-        <v>120</v>
+      <c s="22" r="AB24">
+        <v>116</v>
       </c>
       <c s="5" t="str" r="AC24"/>
-      <c s="20" r="AD24">
-        <v>120</v>
+      <c s="22" r="AD24">
+        <v>116</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A25">
+      <c s="16" t="inlineStr" r="A25">
         <is>
           <t xml:space="preserve">358529 Columbia</t>
         </is>
       </c>
-      <c s="16" t="str" r="B25"/>
-      <c s="16" t="str" r="C25"/>
-      <c s="17" t="inlineStr" r="D25">
+      <c s="17" t="str" r="B25"/>
+      <c s="17" t="str" r="C25"/>
+      <c s="18" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E25"/>
       <c s="5" t="str" r="F25"/>
-      <c s="18" r="G25">
-        <v>248</v>
+      <c s="19" r="G25">
+        <v>287</v>
       </c>
       <c s="4" t="str" r="H25"/>
       <c s="5" t="str" r="I25"/>
-      <c s="23" r="J25">
-        <v>26</v>
+      <c s="25" r="J25">
+        <v>30</v>
       </c>
       <c s="5" t="str" r="K25"/>
-      <c s="20" r="L25">
-        <v>3</v>
+      <c s="22" r="L25">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M25"/>
       <c s="21" r="N25">
@@ -1670,42 +1673,42 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W25"/>
-      <c s="26" r="X25">
-        <v>48</v>
+      <c s="28" r="X25">
+        <v>51</v>
       </c>
       <c s="5" t="str" r="Y25"/>
       <c s="21" r="Z25">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c s="5" t="str" r="AA25"/>
-      <c s="20" r="AB25">
-        <v>143</v>
+      <c s="24" r="AB25">
+        <v>167</v>
       </c>
       <c s="5" t="str" r="AC25"/>
-      <c s="20" r="AD25">
-        <v>143</v>
+      <c s="24" r="AD25">
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
-      <c s="22" t="str" r="A26"/>
-      <c s="17" t="inlineStr" r="D26">
+      <c s="23" t="str" r="A26"/>
+      <c s="18" t="inlineStr" r="D26">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E26"/>
       <c s="5" t="str" r="F26"/>
-      <c s="18" r="G26">
-        <v>99</v>
+      <c s="19" r="G26">
+        <v>96</v>
       </c>
       <c s="4" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
-      <c s="26" r="J26">
-        <v>37</v>
+      <c s="28" r="J26">
+        <v>47</v>
       </c>
       <c s="5" t="str" r="K26"/>
-      <c s="23" r="L26">
-        <v>9</v>
+      <c s="28" r="L26">
+        <v>14</v>
       </c>
       <c s="5" t="str" r="M26"/>
       <c s="21" r="N26">
@@ -1728,41 +1731,41 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W26"/>
-      <c s="26" r="X26">
-        <v>74</v>
+      <c s="28" r="X26">
+        <v>77</v>
       </c>
       <c s="5" t="str" r="Y26"/>
       <c s="21" r="Z26">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA26"/>
-      <c s="19" r="AB26">
-        <v>156</v>
+      <c s="24" r="AB26">
+        <v>177</v>
       </c>
       <c s="5" t="str" r="AC26"/>
-      <c s="19" r="AD26">
-        <v>156</v>
+      <c s="24" r="AD26">
+        <v>177</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
-      <c s="22" t="str" r="A27"/>
-      <c s="17" t="inlineStr" r="D27">
+      <c s="23" t="str" r="A27"/>
+      <c s="18" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E27"/>
       <c s="5" t="str" r="F27"/>
-      <c s="18" r="G27">
-        <v>75</v>
+      <c s="19" r="G27">
+        <v>83</v>
       </c>
       <c s="4" t="str" r="H27"/>
       <c s="5" t="str" r="I27"/>
-      <c s="26" r="J27">
-        <v>59</v>
+      <c s="28" r="J27">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="K27"/>
-      <c s="26" r="L27">
+      <c s="28" r="L27">
         <v>12</v>
       </c>
       <c s="5" t="str" r="M27"/>
@@ -1786,44 +1789,44 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W27"/>
-      <c s="26" r="X27">
-        <v>88</v>
+      <c s="28" r="X27">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="Y27"/>
       <c s="21" r="Z27">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c s="5" t="str" r="AA27"/>
-      <c s="27" r="AB27">
-        <v>181</v>
+      <c s="28" r="AB27">
+        <v>207</v>
       </c>
       <c s="5" t="str" r="AC27"/>
-      <c s="27" r="AD27">
-        <v>181</v>
+      <c s="28" r="AD27">
+        <v>207</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
-      <c s="24" t="str" r="A28"/>
-      <c s="25" t="str" r="B28"/>
-      <c s="25" t="str" r="C28"/>
-      <c s="17" t="inlineStr" r="D28">
+      <c s="26" t="str" r="A28"/>
+      <c s="27" t="str" r="B28"/>
+      <c s="27" t="str" r="C28"/>
+      <c s="18" t="inlineStr" r="D28">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E28"/>
       <c s="5" t="str" r="F28"/>
-      <c s="18" r="G28">
-        <v>19</v>
+      <c s="19" r="G28">
+        <v>22</v>
       </c>
       <c s="4" t="str" r="H28"/>
       <c s="5" t="str" r="I28"/>
-      <c s="26" r="J28">
-        <v>51</v>
+      <c s="28" r="J28">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="K28"/>
-      <c s="20" r="L28">
-        <v>2</v>
+      <c s="22" r="L28">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M28"/>
       <c s="21" r="N28">
@@ -1846,48 +1849,48 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W28"/>
-      <c s="26" r="X28">
-        <v>115</v>
+      <c s="28" r="X28">
+        <v>102</v>
       </c>
       <c s="5" t="str" r="Y28"/>
       <c s="21" r="Z28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA28"/>
-      <c s="27" r="AB28">
-        <v>193</v>
+      <c s="24" r="AB28">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="AC28"/>
-      <c s="27" r="AD28">
-        <v>193</v>
+      <c s="24" r="AD28">
+        <v>178</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A29">
+      <c s="16" t="inlineStr" r="A29">
         <is>
           <t xml:space="preserve">359042 Lititz</t>
         </is>
       </c>
-      <c s="16" t="str" r="B29"/>
-      <c s="16" t="str" r="C29"/>
-      <c s="17" t="inlineStr" r="D29">
+      <c s="17" t="str" r="B29"/>
+      <c s="17" t="str" r="C29"/>
+      <c s="18" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E29"/>
       <c s="5" t="str" r="F29"/>
-      <c s="18" r="G29">
-        <v>210</v>
+      <c s="19" r="G29">
+        <v>257</v>
       </c>
       <c s="4" t="str" r="H29"/>
       <c s="5" t="str" r="I29"/>
-      <c s="27" r="J29">
-        <v>30</v>
+      <c s="24" r="J29">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="K29"/>
-      <c s="19" r="L29">
-        <v>6</v>
+      <c s="22" r="L29">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M29"/>
       <c s="21" r="N29">
@@ -1910,42 +1913,42 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W29"/>
-      <c s="26" r="X29">
-        <v>52</v>
+      <c s="28" r="X29">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="Y29"/>
       <c s="21" r="Z29">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c s="5" t="str" r="AA29"/>
-      <c s="23" r="AB29">
+      <c s="24" r="AB29">
         <v>172</v>
       </c>
       <c s="5" t="str" r="AC29"/>
-      <c s="23" r="AD29">
+      <c s="24" r="AD29">
         <v>172</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="22" t="str" r="A30"/>
-      <c s="17" t="inlineStr" r="D30">
+      <c s="23" t="str" r="A30"/>
+      <c s="18" t="inlineStr" r="D30">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E30"/>
       <c s="5" t="str" r="F30"/>
-      <c s="18" r="G30">
-        <v>78</v>
+      <c s="19" r="G30">
+        <v>101</v>
       </c>
       <c s="4" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
-      <c s="26" r="J30">
-        <v>42</v>
+      <c s="28" r="J30">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K30"/>
-      <c s="23" r="L30">
-        <v>7</v>
+      <c s="22" r="L30">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M30"/>
       <c s="21" r="N30">
@@ -1968,42 +1971,42 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W30"/>
-      <c s="26" r="X30">
-        <v>80</v>
+      <c s="28" r="X30">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="Y30"/>
       <c s="21" r="Z30">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c s="5" t="str" r="AA30"/>
-      <c s="19" r="AB30">
-        <v>161</v>
+      <c s="20" r="AB30">
+        <v>155</v>
       </c>
       <c s="5" t="str" r="AC30"/>
-      <c s="19" r="AD30">
-        <v>161</v>
+      <c s="20" r="AD30">
+        <v>155</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
-      <c s="22" t="str" r="A31"/>
-      <c s="17" t="inlineStr" r="D31">
+      <c s="23" t="str" r="A31"/>
+      <c s="18" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E31"/>
       <c s="5" t="str" r="F31"/>
-      <c s="18" r="G31">
-        <v>45</v>
+      <c s="19" r="G31">
+        <v>66</v>
       </c>
       <c s="4" t="str" r="H31"/>
       <c s="5" t="str" r="I31"/>
-      <c s="26" r="J31">
-        <v>58</v>
+      <c s="28" r="J31">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="K31"/>
-      <c s="23" r="L31">
-        <v>7</v>
+      <c s="24" r="L31">
+        <v>8</v>
       </c>
       <c s="5" t="str" r="M31"/>
       <c s="21" r="N31">
@@ -2026,44 +2029,44 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W31"/>
-      <c s="26" r="X31">
-        <v>92</v>
+      <c s="28" r="X31">
+        <v>111</v>
       </c>
       <c s="5" t="str" r="Y31"/>
       <c s="21" r="Z31">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c s="5" t="str" r="AA31"/>
-      <c s="27" r="AB31">
-        <v>181</v>
+      <c s="28" r="AB31">
+        <v>241</v>
       </c>
       <c s="5" t="str" r="AC31"/>
-      <c s="27" r="AD31">
-        <v>181</v>
+      <c s="28" r="AD31">
+        <v>241</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
-      <c s="24" t="str" r="A32"/>
-      <c s="25" t="str" r="B32"/>
-      <c s="25" t="str" r="C32"/>
-      <c s="17" t="inlineStr" r="D32">
+      <c s="26" t="str" r="A32"/>
+      <c s="27" t="str" r="B32"/>
+      <c s="27" t="str" r="C32"/>
+      <c s="18" t="inlineStr" r="D32">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E32"/>
       <c s="5" t="str" r="F32"/>
-      <c s="18" r="G32">
-        <v>9</v>
+      <c s="19" r="G32">
+        <v>10</v>
       </c>
       <c s="4" t="str" r="H32"/>
       <c s="5" t="str" r="I32"/>
-      <c s="27" r="J32">
-        <v>31</v>
+      <c s="28" r="J32">
+        <v>41</v>
       </c>
       <c s="5" t="str" r="K32"/>
-      <c s="20" r="L32">
-        <v>3</v>
+      <c s="22" r="L32">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M32"/>
       <c s="21" r="N32">
@@ -2086,47 +2089,47 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W32"/>
-      <c s="26" r="X32">
-        <v>90</v>
+      <c s="28" r="X32">
+        <v>119</v>
       </c>
       <c s="5" t="str" r="Y32"/>
       <c s="21" r="Z32">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c s="5" t="str" r="AA32"/>
-      <c s="20" r="AB32">
-        <v>140</v>
+      <c s="25" r="AB32">
+        <v>189</v>
       </c>
       <c s="5" t="str" r="AC32"/>
-      <c s="20" r="AD32">
-        <v>140</v>
+      <c s="25" r="AD32">
+        <v>189</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A33">
+      <c s="16" t="inlineStr" r="A33">
         <is>
           <t xml:space="preserve">362913 Eisenhower</t>
         </is>
       </c>
-      <c s="16" t="str" r="B33"/>
-      <c s="16" t="str" r="C33"/>
-      <c s="17" t="inlineStr" r="D33">
+      <c s="17" t="str" r="B33"/>
+      <c s="17" t="str" r="C33"/>
+      <c s="18" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E33"/>
       <c s="5" t="str" r="F33"/>
-      <c s="18" r="G33">
-        <v>167</v>
+      <c s="19" r="G33">
+        <v>182</v>
       </c>
       <c s="4" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
-      <c s="19" r="J33">
-        <v>33</v>
+      <c s="20" r="J33">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K33"/>
-      <c s="20" r="L33">
+      <c s="22" r="L33">
         <v>3</v>
       </c>
       <c s="5" t="str" r="M33"/>
@@ -2146,46 +2149,46 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U33"/>
-      <c s="20" r="V33">
-        <v>13</v>
+      <c s="25" r="V33">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="W33"/>
-      <c s="26" r="X33">
-        <v>51</v>
+      <c s="28" r="X33">
+        <v>59</v>
       </c>
       <c s="5" t="str" r="Y33"/>
       <c s="21" r="Z33">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c s="5" t="str" r="AA33"/>
       <c s="20" r="AB33">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c s="5" t="str" r="AC33"/>
-      <c s="19" r="AD33">
-        <v>136</v>
+      <c s="24" r="AD33">
+        <v>207</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="0">
-      <c s="22" t="str" r="A34"/>
-      <c s="17" t="inlineStr" r="D34">
+      <c s="23" t="str" r="A34"/>
+      <c s="18" t="inlineStr" r="D34">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E34"/>
       <c s="5" t="str" r="F34"/>
-      <c s="18" r="G34">
-        <v>50</v>
+      <c s="19" r="G34">
+        <v>84</v>
       </c>
       <c s="4" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="19" r="J34">
-        <v>37</v>
+      <c s="24" r="J34">
+        <v>46</v>
       </c>
       <c s="5" t="str" r="K34"/>
-      <c s="20" r="L34">
-        <v>3</v>
+      <c s="22" r="L34">
+        <v>2</v>
       </c>
       <c s="5" t="str" r="M34"/>
       <c s="21" r="N34">
@@ -2205,45 +2208,45 @@
       </c>
       <c s="5" t="str" r="U34"/>
       <c s="20" r="V34">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c s="5" t="str" r="W34"/>
-      <c s="26" r="X34">
-        <v>88</v>
+      <c s="28" r="X34">
+        <v>79</v>
       </c>
       <c s="5" t="str" r="Y34"/>
       <c s="21" r="Z34">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c s="5" t="str" r="AA34"/>
-      <c s="19" r="AB34">
-        <v>129</v>
+      <c s="20" r="AB34">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC34"/>
-      <c s="19" r="AD34">
-        <v>158</v>
+      <c s="24" r="AD34">
+        <v>183</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="0">
-      <c s="22" t="str" r="A35"/>
-      <c s="17" t="inlineStr" r="D35">
+      <c s="23" t="str" r="A35"/>
+      <c s="18" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E35"/>
       <c s="5" t="str" r="F35"/>
-      <c s="18" r="G35">
-        <v>39</v>
+      <c s="19" r="G35">
+        <v>42</v>
       </c>
       <c s="4" t="str" r="H35"/>
       <c s="5" t="str" r="I35"/>
-      <c s="23" r="J35">
-        <v>48</v>
+      <c s="24" r="J35">
+        <v>44</v>
       </c>
       <c s="5" t="str" r="K35"/>
-      <c s="19" r="L35">
-        <v>5</v>
+      <c s="22" r="L35">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M35"/>
       <c s="21" r="N35">
@@ -2262,47 +2265,47 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U35"/>
-      <c s="20" r="V35">
-        <v>13</v>
+      <c s="22" r="V35">
+        <v>6</v>
       </c>
       <c s="5" t="str" r="W35"/>
-      <c s="26" r="X35">
-        <v>126</v>
+      <c s="28" r="X35">
+        <v>90</v>
       </c>
       <c s="5" t="str" r="Y35"/>
       <c s="21" r="Z35">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c s="5" t="str" r="AA35"/>
-      <c s="23" r="AB35">
-        <v>183</v>
+      <c s="20" r="AB35">
+        <v>140</v>
       </c>
       <c s="5" t="str" r="AC35"/>
-      <c s="23" r="AD35">
-        <v>220</v>
+      <c s="24" r="AD35">
+        <v>180</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="0">
-      <c s="24" t="str" r="A36"/>
-      <c s="25" t="str" r="B36"/>
-      <c s="25" t="str" r="C36"/>
-      <c s="17" t="inlineStr" r="D36">
+      <c s="26" t="str" r="A36"/>
+      <c s="27" t="str" r="B36"/>
+      <c s="27" t="str" r="C36"/>
+      <c s="18" t="inlineStr" r="D36">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E36"/>
       <c s="5" t="str" r="F36"/>
-      <c s="18" r="G36">
+      <c s="19" r="G36">
         <v>8</v>
       </c>
       <c s="4" t="str" r="H36"/>
       <c s="5" t="str" r="I36"/>
-      <c s="26" r="J36">
-        <v>61</v>
+      <c s="28" r="J36">
+        <v>78</v>
       </c>
       <c s="5" t="str" r="K36"/>
-      <c s="19" r="L36">
+      <c s="20" r="L36">
         <v>6</v>
       </c>
       <c s="5" t="str" r="M36"/>
@@ -2322,43 +2325,43 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U36"/>
-      <c s="20" r="V36">
-        <v>10</v>
+      <c s="22" r="V36">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="W36"/>
-      <c s="26" r="X36">
-        <v>210</v>
+      <c s="28" r="X36">
+        <v>180</v>
       </c>
       <c s="5" t="str" r="Y36"/>
       <c s="21" r="Z36">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c s="5" t="str" r="AA36"/>
-      <c s="27" r="AB36">
-        <v>273</v>
+      <c s="25" r="AB36">
+        <v>253</v>
       </c>
       <c s="5" t="str" r="AC36"/>
-      <c s="27" r="AD36">
-        <v>284</v>
+      <c s="25" r="AD36">
+        <v>269</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A37">
+      <c s="16" t="inlineStr" r="A37">
         <is>
           <t xml:space="preserve">363271 Marietta</t>
         </is>
       </c>
-      <c s="16" t="str" r="B37"/>
-      <c s="16" t="str" r="C37"/>
-      <c s="17" t="inlineStr" r="D37">
+      <c s="17" t="str" r="B37"/>
+      <c s="17" t="str" r="C37"/>
+      <c s="18" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E37"/>
       <c s="5" t="str" r="F37"/>
-      <c s="18" r="G37">
-        <v>225</v>
+      <c s="19" r="G37">
+        <v>241</v>
       </c>
       <c s="4" t="str" r="H37"/>
       <c s="5" t="str" r="I37"/>
@@ -2370,19 +2373,19 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M37"/>
-      <c s="23" r="N37">
-        <v>26</v>
+      <c s="25" r="N37">
+        <v>32</v>
       </c>
       <c s="5" t="str" r="O37"/>
-      <c s="20" r="P37">
-        <v>2</v>
+      <c s="22" r="P37">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="Q37"/>
-      <c s="20" r="R37">
+      <c s="22" r="R37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S37"/>
-      <c s="20" r="T37">
+      <c s="22" r="T37">
         <v>0</v>
       </c>
       <c s="5" t="str" r="U37"/>
@@ -2390,33 +2393,33 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W37"/>
-      <c s="26" r="X37">
-        <v>48</v>
+      <c s="28" r="X37">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y37"/>
       <c s="21" r="Z37">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA37"/>
       <c s="20" r="AB37">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c s="5" t="str" r="AC37"/>
       <c s="20" r="AD37">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="0">
-      <c s="22" t="str" r="A38"/>
-      <c s="17" t="inlineStr" r="D38">
+      <c s="23" t="str" r="A38"/>
+      <c s="18" t="inlineStr" r="D38">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E38"/>
       <c s="5" t="str" r="F38"/>
-      <c s="18" r="G38">
-        <v>71</v>
+      <c s="19" r="G38">
+        <v>92</v>
       </c>
       <c s="4" t="str" r="H38"/>
       <c s="5" t="str" r="I38"/>
@@ -2428,53 +2431,53 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M38"/>
-      <c s="27" r="N38">
-        <v>34</v>
+      <c s="28" r="N38">
+        <v>35</v>
       </c>
       <c s="5" t="str" r="O38"/>
-      <c s="20" r="P38">
+      <c s="22" r="P38">
         <v>3</v>
       </c>
       <c s="5" t="str" r="Q38"/>
-      <c s="20" r="R38">
-        <v>0</v>
+      <c s="22" r="R38">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="S38"/>
-      <c s="20" r="T38">
-        <v>0</v>
+      <c s="22" r="T38">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U38"/>
       <c s="21" r="V38">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W38"/>
-      <c s="26" r="X38">
-        <v>97</v>
+      <c s="28" r="X38">
+        <v>81</v>
       </c>
       <c s="5" t="str" r="Y38"/>
       <c s="21" r="Z38">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c s="5" t="str" r="AA38"/>
-      <c s="26" r="AB38">
-        <v>230</v>
+      <c s="25" r="AB38">
+        <v>186</v>
       </c>
       <c s="5" t="str" r="AC38"/>
-      <c s="26" r="AD38">
-        <v>230</v>
+      <c s="25" r="AD38">
+        <v>186</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="22" t="str" r="A39"/>
-      <c s="17" t="inlineStr" r="D39">
+      <c s="23" t="str" r="A39"/>
+      <c s="18" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E39"/>
       <c s="5" t="str" r="F39"/>
-      <c s="18" r="G39">
-        <v>55</v>
+      <c s="19" r="G39">
+        <v>66</v>
       </c>
       <c s="4" t="str" r="H39"/>
       <c s="5" t="str" r="I39"/>
@@ -2486,55 +2489,55 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M39"/>
-      <c s="26" r="N39">
-        <v>36</v>
+      <c s="28" r="N39">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="O39"/>
-      <c s="20" r="P39">
-        <v>3</v>
+      <c s="22" r="P39">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="Q39"/>
-      <c s="21" r="R39">
+      <c s="22" r="R39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="S39"/>
-      <c s="21" r="T39">
-        <v>0</v>
+      <c s="22" r="T39">
+        <v>1</v>
       </c>
       <c s="5" t="str" r="U39"/>
       <c s="21" r="V39">
         <v>0</v>
       </c>
       <c s="5" t="str" r="W39"/>
-      <c s="26" r="X39">
-        <v>75</v>
+      <c s="28" r="X39">
+        <v>66</v>
       </c>
       <c s="5" t="str" r="Y39"/>
       <c s="21" r="Z39">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c s="5" t="str" r="AA39"/>
-      <c s="20" r="AB39">
-        <v>141</v>
+      <c s="22" r="AB39">
+        <v>123</v>
       </c>
       <c s="5" t="str" r="AC39"/>
-      <c s="20" r="AD39">
-        <v>141</v>
+      <c s="22" r="AD39">
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="24" t="str" r="A40"/>
-      <c s="25" t="str" r="B40"/>
-      <c s="25" t="str" r="C40"/>
-      <c s="17" t="inlineStr" r="D40">
+      <c s="26" t="str" r="A40"/>
+      <c s="27" t="str" r="B40"/>
+      <c s="27" t="str" r="C40"/>
+      <c s="18" t="inlineStr" r="D40">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E40"/>
       <c s="5" t="str" r="F40"/>
-      <c s="18" r="G40">
-        <v>12</v>
+      <c s="19" r="G40">
+        <v>19</v>
       </c>
       <c s="4" t="str" r="H40"/>
       <c s="5" t="str" r="I40"/>
@@ -2546,11 +2549,11 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="M40"/>
-      <c s="23" r="N40">
-        <v>27</v>
+      <c s="24" r="N40">
+        <v>26</v>
       </c>
       <c s="5" t="str" r="O40"/>
-      <c s="20" r="P40">
+      <c s="22" r="P40">
         <v>2</v>
       </c>
       <c s="5" t="str" r="Q40"/>
@@ -2566,48 +2569,48 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="W40"/>
-      <c s="26" r="X40">
-        <v>68</v>
+      <c s="28" r="X40">
+        <v>65</v>
       </c>
       <c s="5" t="str" r="Y40"/>
       <c s="21" r="Z40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="5" t="str" r="AA40"/>
-      <c s="20" r="AB40">
-        <v>105</v>
+      <c s="22" r="AB40">
+        <v>92</v>
       </c>
       <c s="5" t="str" r="AC40"/>
-      <c s="20" r="AD40">
-        <v>105</v>
+      <c s="22" r="AD40">
+        <v>92</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="0">
-      <c s="15" t="inlineStr" r="A41">
+      <c s="16" t="inlineStr" r="A41">
         <is>
           <t xml:space="preserve">364322 E-Town</t>
         </is>
       </c>
-      <c s="16" t="str" r="B41"/>
-      <c s="16" t="str" r="C41"/>
-      <c s="17" t="inlineStr" r="D41">
+      <c s="17" t="str" r="B41"/>
+      <c s="17" t="str" r="C41"/>
+      <c s="18" t="inlineStr" r="D41">
         <is>
           <t xml:space="preserve">Daypart 2</t>
         </is>
       </c>
       <c s="4" t="str" r="E41"/>
       <c s="5" t="str" r="F41"/>
-      <c s="18" r="G41">
-        <v>223</v>
+      <c s="19" r="G41">
+        <v>257</v>
       </c>
       <c s="4" t="str" r="H41"/>
       <c s="5" t="str" r="I41"/>
       <c s="20" r="J41">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="K41"/>
-      <c s="20" r="L41">
-        <v>2</v>
+      <c s="22" r="L41">
+        <v>3</v>
       </c>
       <c s="5" t="str" r="M41"/>
       <c s="21" r="N41">
@@ -2626,46 +2629,46 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U41"/>
-      <c s="19" r="V41">
-        <v>15</v>
+      <c s="24" r="V41">
+        <v>21</v>
       </c>
       <c s="5" t="str" r="W41"/>
-      <c s="26" r="X41">
-        <v>46</v>
+      <c s="28" r="X41">
+        <v>50</v>
       </c>
       <c s="5" t="str" r="Y41"/>
       <c s="21" r="Z41">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c s="5" t="str" r="AA41"/>
       <c s="20" r="AB41">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c s="5" t="str" r="AC41"/>
       <c s="20" r="AD41">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="0">
-      <c s="22" t="str" r="A42"/>
-      <c s="17" t="inlineStr" r="D42">
+      <c s="23" t="str" r="A42"/>
+      <c s="18" t="inlineStr" r="D42">
         <is>
           <t xml:space="preserve">Daypart 3</t>
         </is>
       </c>
       <c s="4" t="str" r="E42"/>
       <c s="5" t="str" r="F42"/>
-      <c s="18" r="G42">
-        <v>98</v>
+      <c s="19" r="G42">
+        <v>111</v>
       </c>
       <c s="4" t="str" r="H42"/>
       <c s="5" t="str" r="I42"/>
       <c s="20" r="J42">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="K42"/>
-      <c s="20" r="L42">
-        <v>2</v>
+      <c s="22" r="L42">
+        <v>4</v>
       </c>
       <c s="5" t="str" r="M42"/>
       <c s="21" r="N42">
@@ -2684,46 +2687,46 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U42"/>
-      <c s="20" r="V42">
+      <c s="22" r="V42">
         <v>10</v>
       </c>
       <c s="5" t="str" r="W42"/>
-      <c s="26" r="X42">
-        <v>58</v>
+      <c s="28" r="X42">
+        <v>60</v>
       </c>
       <c s="5" t="str" r="Y42"/>
       <c s="21" r="Z42">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c s="5" t="str" r="AA42"/>
-      <c s="20" r="AB42">
-        <v>128</v>
+      <c s="22" r="AB42">
+        <v>148</v>
       </c>
       <c s="5" t="str" r="AC42"/>
-      <c s="20" r="AD42">
-        <v>128</v>
+      <c s="22" r="AD42">
+        <v>148</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="0">
-      <c s="22" t="str" r="A43"/>
-      <c s="17" t="inlineStr" r="D43">
+      <c s="23" t="str" r="A43"/>
+      <c s="18" t="inlineStr" r="D43">
         <is>
           <t xml:space="preserve">Daypart 4</t>
         </is>
       </c>
       <c s="4" t="str" r="E43"/>
       <c s="5" t="str" r="F43"/>
-      <c s="18" r="G43">
-        <v>75</v>
+      <c s="19" r="G43">
+        <v>73</v>
       </c>
       <c s="4" t="str" r="H43"/>
       <c s="5" t="str" r="I43"/>
-      <c s="23" r="J43">
-        <v>43</v>
+      <c s="24" r="J43">
+        <v>45</v>
       </c>
       <c s="5" t="str" r="K43"/>
       <c s="20" r="L43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="5" t="str" r="M43"/>
       <c s="21" r="N43">
@@ -2742,48 +2745,48 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U43"/>
-      <c s="19" r="V43">
-        <v>17</v>
+      <c s="22" r="V43">
+        <v>9</v>
       </c>
       <c s="5" t="str" r="W43"/>
-      <c s="26" r="X43">
-        <v>97</v>
+      <c s="28" r="X43">
+        <v>76</v>
       </c>
       <c s="5" t="str" r="Y43"/>
       <c s="21" r="Z43">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c s="5" t="str" r="AA43"/>
-      <c s="23" r="AB43">
-        <v>205</v>
+      <c s="20" r="AB43">
+        <v>164</v>
       </c>
       <c s="5" t="str" r="AC43"/>
-      <c s="23" r="AD43">
-        <v>205</v>
+      <c s="20" r="AD43">
+        <v>164</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="24" t="str" r="A44"/>
-      <c s="25" t="str" r="B44"/>
-      <c s="25" t="str" r="C44"/>
-      <c s="17" t="inlineStr" r="D44">
+      <c s="26" t="str" r="A44"/>
+      <c s="27" t="str" r="B44"/>
+      <c s="27" t="str" r="C44"/>
+      <c s="18" t="inlineStr" r="D44">
         <is>
           <t xml:space="preserve">Daypart 5</t>
         </is>
       </c>
       <c s="4" t="str" r="E44"/>
       <c s="5" t="str" r="F44"/>
-      <c s="18" r="G44">
+      <c s="19" r="G44">
         <v>14</v>
       </c>
       <c s="4" t="str" r="H44"/>
       <c s="5" t="str" r="I44"/>
       <c s="20" r="J44">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c s="5" t="str" r="K44"/>
       <c s="20" r="L44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="5" t="str" r="M44"/>
       <c s="21" r="N44">
@@ -2802,24 +2805,24 @@
         <v>0</v>
       </c>
       <c s="5" t="str" r="U44"/>
-      <c s="20" r="V44">
+      <c s="22" r="V44">
         <v>1</v>
       </c>
       <c s="5" t="str" r="W44"/>
-      <c s="26" r="X44">
-        <v>107</v>
+      <c s="28" r="X44">
+        <v>82</v>
       </c>
       <c s="5" t="str" r="Y44"/>
       <c s="21" r="Z44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c s="5" t="str" r="AA44"/>
-      <c s="19" r="AB44">
-        <v>151</v>
+      <c s="22" r="AB44">
+        <v>127</v>
       </c>
       <c s="5" t="str" r="AC44"/>
-      <c s="19" r="AD44">
-        <v>151</v>
+      <c s="22" r="AD44">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="0.05" customHeight="1"/>
@@ -3288,7 +3291,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.95" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 2/6/2026 12:45:23 PM 
+    <oddFooter>&amp;L&amp;"Segoe UI,Italic"&amp;9 Print Date &amp;&amp; Time: 2/7/2026 12:44:30 PM 
 &amp;"-,Italic"Page Number:  &amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/data/hme/raw/hme_report.xlsx
+++ b/data/hme/raw/hme_report.xlsx
@@ -140,14 +140,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE35454"/>
-        <bgColor rgb="FFE35454"/>
+        <fgColor rgb="FF00B04C"/>
+        <bgColor rgb="FF00B04C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B04C"/>
-        <bgColor rgb="FF00B04C"/>
+        <fgColor rgb="FFE35454"/>
+        <bgColor rgb="FFE35454"/>
       </patternFill>
     </fill>
     <fill>
@@ -291,10 +291,10 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="8" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="6" borderId="1">
@@ -327,16 +327,16 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="10" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="3" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="5" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="9" fillId="7" borderId="1">
@@ -374,8 +374,8 @@
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00333333"/>
       <rgbColor rgb="00F4D216"/>
+      <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00E35454"/>
-      <rgbColor rgb="0000B04C"/>
       <rgbColor rgb="00B40000"/>
       <rgbColor rgb="00540202"/>
       <rgbColor rgb="00808000"/>
@@ -520,7 +520,7 @@
     <row r="3" ht="18.15" customHeight="1">
       <c s="2" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Day: 02/06/2026</t>
+          <t xml:space="preserve">Day: 02/07/2026</t>
         </is>
       </c>
     </row>
@@ -616,48 +616,48 @@
       <c s="4" t="str" r="C7"/>
       <c s="5" t="str" r="D7"/>
       <c s="7" r="E7">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c s="8" r="F7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c s="5" t="str" r="G7"/>
-      <c s="8" r="H7">
-        <v>5</v>
-      </c>
-      <c s="9" r="I7">
+      <c s="9" r="H7">
+        <v>3</v>
+      </c>
+      <c s="10" r="I7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J7"/>
-      <c s="9" r="K7">
+      <c s="10" r="K7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L7"/>
-      <c s="9" r="M7">
+      <c s="10" r="M7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N7"/>
-      <c s="9" r="O7">
+      <c s="10" r="O7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P7"/>
-      <c s="9" r="Q7">
+      <c s="10" r="Q7">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R7"/>
-      <c s="10" r="S7">
+      <c s="11" r="S7">
         <v>63</v>
       </c>
       <c s="5" t="str" r="T7"/>
-      <c s="9" r="U7">
-        <v>48</v>
+      <c s="10" r="U7">
+        <v>49</v>
       </c>
       <c s="5" t="str" r="V7"/>
-      <c s="11" r="W7">
+      <c s="9" r="W7">
         <v>145</v>
       </c>
       <c s="5" t="str" r="X7"/>
-      <c s="11" r="Y7">
+      <c s="9" r="Y7">
         <v>72</v>
       </c>
       <c s="5" t="str" r="Z7"/>
@@ -672,49 +672,49 @@
       <c s="4" t="str" r="C8"/>
       <c s="5" t="str" r="D8"/>
       <c s="7" r="E8">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c s="12" r="F8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c s="5" t="str" r="G8"/>
-      <c s="11" r="H8">
-        <v>3</v>
-      </c>
-      <c s="9" r="I8">
+      <c s="9" r="H8">
+        <v>2</v>
+      </c>
+      <c s="10" r="I8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J8"/>
-      <c s="9" r="K8">
+      <c s="10" r="K8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L8"/>
-      <c s="9" r="M8">
+      <c s="10" r="M8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N8"/>
-      <c s="9" r="O8">
+      <c s="10" r="O8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P8"/>
-      <c s="9" r="Q8">
+      <c s="10" r="Q8">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R8"/>
       <c s="13" r="S8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c s="5" t="str" r="T8"/>
-      <c s="9" r="U8">
-        <v>56</v>
+      <c s="10" r="U8">
+        <v>69</v>
       </c>
       <c s="5" t="str" r="V8"/>
-      <c s="11" r="W8">
-        <v>135</v>
+      <c s="8" r="W8">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="X8"/>
-      <c s="11" r="Y8">
-        <v>135</v>
+      <c s="8" r="Y8">
+        <v>159</v>
       </c>
       <c s="5" t="str" r="Z8"/>
     </row>
@@ -728,49 +728,49 @@
       <c s="4" t="str" r="C9"/>
       <c s="5" t="str" r="D9"/>
       <c s="7" r="E9">
-        <v>488</v>
+        <v>390</v>
       </c>
       <c s="13" r="F9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c s="5" t="str" r="G9"/>
-      <c s="10" r="H9">
-        <v>7</v>
-      </c>
-      <c s="9" r="I9">
+      <c s="11" r="H9">
+        <v>9</v>
+      </c>
+      <c s="10" r="I9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J9"/>
-      <c s="9" r="K9">
+      <c s="10" r="K9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L9"/>
-      <c s="9" r="M9">
+      <c s="10" r="M9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N9"/>
-      <c s="9" r="O9">
+      <c s="10" r="O9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P9"/>
-      <c s="9" r="Q9">
+      <c s="10" r="Q9">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R9"/>
       <c s="13" r="S9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c s="5" t="str" r="T9"/>
-      <c s="9" r="U9">
-        <v>74</v>
+      <c s="10" r="U9">
+        <v>61</v>
       </c>
       <c s="5" t="str" r="V9"/>
-      <c s="10" r="W9">
-        <v>176</v>
+      <c s="11" r="W9">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="X9"/>
-      <c s="10" r="Y9">
-        <v>176</v>
+      <c s="11" r="Y9">
+        <v>178</v>
       </c>
       <c s="5" t="str" r="Z9"/>
     </row>
@@ -784,49 +784,49 @@
       <c s="4" t="str" r="C10"/>
       <c s="5" t="str" r="D10"/>
       <c s="7" r="E10">
-        <v>434</v>
-      </c>
-      <c s="13" r="F10">
-        <v>36</v>
+        <v>339</v>
+      </c>
+      <c s="11" r="F10">
+        <v>29</v>
       </c>
       <c s="5" t="str" r="G10"/>
-      <c s="11" r="H10">
+      <c s="9" r="H10">
         <v>3</v>
       </c>
-      <c s="9" r="I10">
+      <c s="10" r="I10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J10"/>
-      <c s="9" r="K10">
+      <c s="10" r="K10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L10"/>
-      <c s="9" r="M10">
+      <c s="10" r="M10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N10"/>
-      <c s="9" r="O10">
+      <c s="10" r="O10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P10"/>
-      <c s="9" r="Q10">
+      <c s="10" r="Q10">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R10"/>
       <c s="13" r="S10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c s="5" t="str" r="T10"/>
-      <c s="9" r="U10">
-        <v>79</v>
+      <c s="10" r="U10">
+        <v>89</v>
       </c>
       <c s="5" t="str" r="V10"/>
-      <c s="10" r="W10">
-        <v>179</v>
+      <c s="12" r="W10">
+        <v>183</v>
       </c>
       <c s="5" t="str" r="X10"/>
-      <c s="10" r="Y10">
-        <v>179</v>
+      <c s="12" r="Y10">
+        <v>183</v>
       </c>
       <c s="5" t="str" r="Z10"/>
     </row>
@@ -840,49 +840,49 @@
       <c s="4" t="str" r="C11"/>
       <c s="5" t="str" r="D11"/>
       <c s="7" r="E11">
-        <v>316</v>
-      </c>
-      <c s="10" r="F11">
-        <v>40</v>
+        <v>263</v>
+      </c>
+      <c s="11" r="F11">
+        <v>42</v>
       </c>
       <c s="5" t="str" r="G11"/>
-      <c s="11" r="H11">
-        <v>2</v>
-      </c>
-      <c s="9" r="I11">
+      <c s="9" r="H11">
+        <v>3</v>
+      </c>
+      <c s="10" r="I11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J11"/>
-      <c s="9" r="K11">
+      <c s="10" r="K11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L11"/>
-      <c s="9" r="M11">
+      <c s="10" r="M11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N11"/>
-      <c s="9" r="O11">
+      <c s="10" r="O11">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P11"/>
-      <c s="10" r="Q11">
-        <v>22</v>
+      <c s="9" r="Q11">
+        <v>12</v>
       </c>
       <c s="5" t="str" r="R11"/>
       <c s="13" r="S11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c s="5" t="str" r="T11"/>
-      <c s="9" r="U11">
-        <v>67</v>
+      <c s="10" r="U11">
+        <v>38</v>
       </c>
       <c s="5" t="str" r="V11"/>
       <c s="8" r="W11">
         <v>132</v>
       </c>
       <c s="5" t="str" r="X11"/>
-      <c s="10" r="Y11">
-        <v>199</v>
+      <c s="8" r="Y11">
+        <v>170</v>
       </c>
       <c s="5" t="str" r="Z11"/>
     </row>
@@ -896,49 +896,49 @@
       <c s="4" t="str" r="C12"/>
       <c s="5" t="str" r="D12"/>
       <c s="7" r="E12">
-        <v>418</v>
-      </c>
-      <c s="9" r="F12">
+        <v>329</v>
+      </c>
+      <c s="10" r="F12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="G12"/>
-      <c s="9" r="H12">
-        <v>0</v>
-      </c>
-      <c s="12" r="I12">
-        <v>33</v>
+      <c s="10" r="H12">
+        <v>0</v>
+      </c>
+      <c s="13" r="I12">
+        <v>37</v>
       </c>
       <c s="5" t="str" r="J12"/>
-      <c s="11" r="K12">
+      <c s="9" r="K12">
         <v>3</v>
       </c>
       <c s="5" t="str" r="L12"/>
-      <c s="11" r="M12">
+      <c s="9" r="M12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N12"/>
-      <c s="11" r="O12">
+      <c s="9" r="O12">
         <v>1</v>
       </c>
       <c s="5" t="str" r="P12"/>
-      <c s="9" r="Q12">
+      <c s="10" r="Q12">
         <v>0</v>
       </c>
       <c s="5" t="str" r="R12"/>
       <c s="13" r="S12">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c s="5" t="str" r="T12"/>
-      <c s="9" r="U12">
-        <v>64</v>
+      <c s="10" r="U12">
+        <v>74</v>
       </c>
       <c s="5" t="str" r="V12"/>
-      <c s="8" r="W12">
-        <v>156</v>
+      <c s="11" r="W12">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="X12"/>
-      <c s="8" r="Y12">
-        <v>156</v>
+      <c s="11" r="Y12">
+        <v>179</v>
       </c>
       <c s="5" t="str" r="Z12"/>
     </row>
@@ -952,49 +952,49 @@
       <c s="4" t="str" r="C13"/>
       <c s="5" t="str" r="D13"/>
       <c s="7" r="E13">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c s="8" r="F13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="5" t="str" r="G13"/>
-      <c s="11" r="H13">
-        <v>4</v>
-      </c>
-      <c s="9" r="I13">
+      <c s="9" r="H13">
+        <v>3</v>
+      </c>
+      <c s="10" r="I13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="J13"/>
-      <c s="9" r="K13">
+      <c s="10" r="K13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="L13"/>
-      <c s="9" r="M13">
+      <c s="10" r="M13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="N13"/>
-      <c s="9" r="O13">
+      <c s="10" r="O13">
         <v>0</v>
       </c>
       <c s="5" t="str" r="P13"/>
       <c s="8" r="Q13">
-   